--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSTK_BPO\Documents\GitHub\Technica\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14317F-0520-406C-B9B7-B027CE3338EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -5293,7 +5287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -5522,7 +5516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5572,19 +5566,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5648,7 +5651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5681,26 +5684,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5733,23 +5719,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5925,49 +5894,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+    <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +5953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5999,14 +5968,14 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -6014,14 +5983,14 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6029,14 +5998,14 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6044,25 +6013,25 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6079,14 +6048,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -6095,14 +6064,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -6111,14 +6080,14 @@
       <c r="E14" s="9"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -6127,14 +6096,14 @@
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -6143,14 +6112,14 @@
       <c r="E16" s="9"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -6159,14 +6128,14 @@
       <c r="E17" s="8"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -6175,14 +6144,14 @@
       <c r="E18" s="9"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -6191,14 +6160,14 @@
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -6207,14 +6176,14 @@
       <c r="E20" s="9"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -6223,14 +6192,14 @@
       <c r="E21" s="8"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -6239,14 +6208,14 @@
       <c r="E22" s="9"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -6255,14 +6224,14 @@
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -6271,14 +6240,14 @@
       <c r="E24" s="9"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -6287,14 +6256,14 @@
       <c r="E25" s="8"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -6303,14 +6272,14 @@
       <c r="E26" s="9"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -6319,14 +6288,14 @@
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -6335,14 +6304,14 @@
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -6351,14 +6320,14 @@
       <c r="E29" s="8"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -6367,14 +6336,14 @@
       <c r="E30" s="9"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -6383,14 +6352,14 @@
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -6399,14 +6368,14 @@
       <c r="E32" s="9"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="25" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -6415,7 +6384,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -6431,7 +6400,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>107</v>
       </c>
@@ -6447,7 +6416,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -6463,7 +6432,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
@@ -6479,7 +6448,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -6495,7 +6464,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>123</v>
       </c>
@@ -6510,7 +6479,7 @@
       </c>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>127</v>
       </c>
@@ -6525,7 +6494,7 @@
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>131</v>
       </c>
@@ -6540,7 +6509,7 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
@@ -6555,7 +6524,7 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>139</v>
       </c>
@@ -6570,7 +6539,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -6585,7 +6554,7 @@
       </c>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>147</v>
       </c>
@@ -6600,7 +6569,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -6615,7 +6584,7 @@
       </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>155</v>
       </c>
@@ -6630,7 +6599,7 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -6645,7 +6614,7 @@
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>163</v>
       </c>
@@ -6660,7 +6629,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6675,7 +6644,7 @@
       </c>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>171</v>
       </c>
@@ -6690,7 +6659,7 @@
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>175</v>
       </c>
@@ -6705,7 +6674,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>179</v>
       </c>
@@ -6720,7 +6689,7 @@
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
@@ -6735,7 +6704,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>187</v>
       </c>
@@ -6750,7 +6719,7 @@
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>191</v>
       </c>
@@ -6765,7 +6734,7 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>195</v>
       </c>
@@ -6780,7 +6749,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>199</v>
       </c>
@@ -6795,25 +6764,25 @@
       </c>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -6830,7 +6799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>5</v>
       </c>
@@ -6845,7 +6814,7 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
@@ -6860,7 +6829,7 @@
       </c>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>13</v>
       </c>
@@ -6875,7 +6844,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -6890,7 +6859,7 @@
       </c>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>35</v>
       </c>
@@ -6905,7 +6874,7 @@
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>39</v>
       </c>
@@ -6920,7 +6889,7 @@
       </c>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>43</v>
       </c>
@@ -6935,25 +6904,25 @@
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="19" t="s">
+    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -6970,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
@@ -6985,7 +6954,7 @@
       </c>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7000,7 +6969,7 @@
       </c>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>13</v>
       </c>
@@ -7015,7 +6984,7 @@
       </c>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>17</v>
       </c>
@@ -7030,7 +6999,7 @@
       </c>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>35</v>
       </c>
@@ -7045,7 +7014,7 @@
       </c>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -7060,7 +7029,7 @@
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>43</v>
       </c>
@@ -7075,7 +7044,7 @@
       </c>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>47</v>
       </c>
@@ -7090,7 +7059,7 @@
       </c>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>51</v>
       </c>
@@ -7105,7 +7074,7 @@
       </c>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7120,7 +7089,7 @@
       </c>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>59</v>
       </c>
@@ -7135,7 +7104,7 @@
       </c>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -7150,7 +7119,7 @@
       </c>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>67</v>
       </c>
@@ -7165,7 +7134,7 @@
       </c>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -7180,7 +7149,7 @@
       </c>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>75</v>
       </c>
@@ -7195,7 +7164,7 @@
       </c>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>79</v>
       </c>
@@ -7210,7 +7179,7 @@
       </c>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>83</v>
       </c>
@@ -7225,7 +7194,7 @@
       </c>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>87</v>
       </c>
@@ -7240,7 +7209,7 @@
       </c>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -7255,7 +7224,7 @@
       </c>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
@@ -7270,7 +7239,7 @@
       </c>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>99</v>
       </c>
@@ -7285,7 +7254,7 @@
       </c>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
@@ -7300,7 +7269,7 @@
       </c>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>107</v>
       </c>
@@ -7315,7 +7284,7 @@
       </c>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -7330,7 +7299,7 @@
       </c>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>115</v>
       </c>
@@ -7345,7 +7314,7 @@
       </c>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -7360,7 +7329,7 @@
       </c>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>123</v>
       </c>
@@ -7375,7 +7344,7 @@
       </c>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -7390,7 +7359,7 @@
       </c>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>131</v>
       </c>
@@ -7405,7 +7374,7 @@
       </c>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -7420,7 +7389,7 @@
       </c>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>139</v>
       </c>
@@ -7435,7 +7404,7 @@
       </c>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>143</v>
       </c>
@@ -7450,7 +7419,7 @@
       </c>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>147</v>
       </c>
@@ -7465,7 +7434,7 @@
       </c>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>151</v>
       </c>
@@ -7480,7 +7449,7 @@
       </c>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>155</v>
       </c>
@@ -7495,7 +7464,7 @@
       </c>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
@@ -7510,7 +7479,7 @@
       </c>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>163</v>
       </c>
@@ -7525,7 +7494,7 @@
       </c>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -7540,7 +7509,7 @@
       </c>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>171</v>
       </c>
@@ -7555,7 +7524,7 @@
       </c>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>175</v>
       </c>
@@ -7570,7 +7539,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>179</v>
       </c>
@@ -7585,25 +7554,25 @@
       </c>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="19" t="s">
+    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
+    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -7620,7 +7589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>5</v>
       </c>
@@ -7635,7 +7604,7 @@
       </c>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>9</v>
       </c>
@@ -7650,7 +7619,7 @@
       </c>
       <c r="E120" s="9"/>
     </row>
-    <row r="121" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>13</v>
       </c>
@@ -7665,7 +7634,7 @@
       </c>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>17</v>
       </c>
@@ -7680,7 +7649,7 @@
       </c>
       <c r="E122" s="9"/>
     </row>
-    <row r="123" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>35</v>
       </c>
@@ -7695,7 +7664,7 @@
       </c>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
@@ -7710,7 +7679,7 @@
       </c>
       <c r="E124" s="9"/>
     </row>
-    <row r="125" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>43</v>
       </c>
@@ -7725,7 +7694,7 @@
       </c>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>47</v>
       </c>
@@ -7740,7 +7709,7 @@
       </c>
       <c r="E126" s="9"/>
     </row>
-    <row r="127" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>51</v>
       </c>
@@ -7755,7 +7724,7 @@
       </c>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>55</v>
       </c>
@@ -7770,7 +7739,7 @@
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>59</v>
       </c>
@@ -7785,7 +7754,7 @@
       </c>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7800,7 +7769,7 @@
       </c>
       <c r="E130" s="9"/>
     </row>
-    <row r="131" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>67</v>
       </c>
@@ -7815,7 +7784,7 @@
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>71</v>
       </c>
@@ -7830,7 +7799,7 @@
       </c>
       <c r="E132" s="9"/>
     </row>
-    <row r="133" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>75</v>
       </c>
@@ -7845,7 +7814,7 @@
       </c>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>79</v>
       </c>
@@ -7860,25 +7829,25 @@
       </c>
       <c r="E134" s="9"/>
     </row>
-    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="19" t="s">
+    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="21"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
+    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>5</v>
       </c>
@@ -7910,7 +7879,7 @@
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>9</v>
       </c>
@@ -7925,7 +7894,7 @@
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>13</v>
       </c>
@@ -7940,7 +7909,7 @@
       </c>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -7955,7 +7924,7 @@
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>35</v>
       </c>
@@ -7970,7 +7939,7 @@
       </c>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>39</v>
       </c>
@@ -7985,7 +7954,7 @@
       </c>
       <c r="E144" s="9"/>
     </row>
-    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>43</v>
       </c>
@@ -8000,25 +7969,25 @@
       </c>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="19" t="s">
+    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
       <c r="F146" s="10"/>
     </row>
-    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
+    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
@@ -8035,7 +8004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>5</v>
       </c>
@@ -8050,7 +8019,7 @@
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -8065,7 +8034,7 @@
       </c>
       <c r="E151" s="9"/>
     </row>
-    <row r="152" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>13</v>
       </c>
@@ -8080,7 +8049,7 @@
       </c>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -8095,7 +8064,7 @@
       </c>
       <c r="E153" s="9"/>
     </row>
-    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>35</v>
       </c>
@@ -8110,7 +8079,7 @@
       </c>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>39</v>
       </c>
@@ -8125,7 +8094,7 @@
       </c>
       <c r="E155" s="9"/>
     </row>
-    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>43</v>
       </c>
@@ -8140,7 +8109,7 @@
       </c>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>47</v>
       </c>
@@ -8155,7 +8124,7 @@
       </c>
       <c r="E157" s="9"/>
     </row>
-    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>51</v>
       </c>
@@ -8170,7 +8139,7 @@
       </c>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>55</v>
       </c>
@@ -8185,7 +8154,7 @@
       </c>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>59</v>
       </c>
@@ -8200,7 +8169,7 @@
       </c>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8215,7 +8184,7 @@
       </c>
       <c r="E161" s="9"/>
     </row>
-    <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>67</v>
       </c>
@@ -8230,7 +8199,7 @@
       </c>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8245,7 +8214,7 @@
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>75</v>
       </c>
@@ -8260,7 +8229,7 @@
       </c>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8275,7 +8244,7 @@
       </c>
       <c r="E165" s="9"/>
     </row>
-    <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>83</v>
       </c>
@@ -8290,7 +8259,7 @@
       </c>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8305,7 +8274,7 @@
       </c>
       <c r="E167" s="9"/>
     </row>
-    <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>91</v>
       </c>
@@ -8320,7 +8289,7 @@
       </c>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>95</v>
       </c>
@@ -8335,7 +8304,7 @@
       </c>
       <c r="E169" s="9"/>
     </row>
-    <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>99</v>
       </c>
@@ -8350,7 +8319,7 @@
       </c>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>103</v>
       </c>
@@ -8365,7 +8334,7 @@
       </c>
       <c r="E171" s="9"/>
     </row>
-    <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>107</v>
       </c>
@@ -8380,7 +8349,7 @@
       </c>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8395,7 +8364,7 @@
       </c>
       <c r="E173" s="9"/>
     </row>
-    <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>115</v>
       </c>
@@ -8410,39 +8379,39 @@
       </c>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
     </row>
-    <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
     </row>
-    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="21" t="s">
+    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
-      <c r="E177" s="21"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="21"/>
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
+    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
       <c r="F178" s="10"/>
     </row>
-    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -8459,7 +8428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>5</v>
       </c>
@@ -8474,7 +8443,7 @@
       </c>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>9</v>
       </c>
@@ -8489,7 +8458,7 @@
       </c>
       <c r="E182" s="9"/>
     </row>
-    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>13</v>
       </c>
@@ -8504,7 +8473,7 @@
       </c>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -8519,7 +8488,7 @@
       </c>
       <c r="E184" s="9"/>
     </row>
-    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>35</v>
       </c>
@@ -8534,7 +8503,7 @@
       </c>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>39</v>
       </c>
@@ -8549,7 +8518,7 @@
       </c>
       <c r="E186" s="9"/>
     </row>
-    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>43</v>
       </c>
@@ -8564,7 +8533,7 @@
       </c>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>47</v>
       </c>
@@ -8579,25 +8548,25 @@
       </c>
       <c r="E188" s="9"/>
     </row>
-    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="19" t="s">
+    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="21"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
+    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>5</v>
       </c>
@@ -8629,7 +8598,7 @@
       </c>
       <c r="E193" s="8"/>
     </row>
-    <row r="194" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8644,7 +8613,7 @@
       </c>
       <c r="E194" s="9"/>
     </row>
-    <row r="195" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>13</v>
       </c>
@@ -8659,7 +8628,7 @@
       </c>
       <c r="E195" s="8"/>
     </row>
-    <row r="196" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8674,7 +8643,7 @@
       </c>
       <c r="E196" s="9"/>
     </row>
-    <row r="197" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>35</v>
       </c>
@@ -8689,7 +8658,7 @@
       </c>
       <c r="E197" s="8"/>
     </row>
-    <row r="198" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8704,7 +8673,7 @@
       </c>
       <c r="E198" s="9"/>
     </row>
-    <row r="199" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>43</v>
       </c>
@@ -8719,7 +8688,7 @@
       </c>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8734,7 +8703,7 @@
       </c>
       <c r="E200" s="9"/>
     </row>
-    <row r="201" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>51</v>
       </c>
@@ -8749,7 +8718,7 @@
       </c>
       <c r="E201" s="8"/>
     </row>
-    <row r="202" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8764,7 +8733,7 @@
       </c>
       <c r="E202" s="9"/>
     </row>
-    <row r="203" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>59</v>
       </c>
@@ -8779,7 +8748,7 @@
       </c>
       <c r="E203" s="8"/>
     </row>
-    <row r="204" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8794,7 +8763,7 @@
       </c>
       <c r="E204" s="9"/>
     </row>
-    <row r="205" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>67</v>
       </c>
@@ -8809,7 +8778,7 @@
       </c>
       <c r="E205" s="8"/>
     </row>
-    <row r="206" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -8824,7 +8793,7 @@
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>75</v>
       </c>
@@ -8839,7 +8808,7 @@
       </c>
       <c r="E207" s="8"/>
     </row>
-    <row r="208" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -8854,7 +8823,7 @@
       </c>
       <c r="E208" s="9"/>
     </row>
-    <row r="209" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>83</v>
       </c>
@@ -8869,7 +8838,7 @@
       </c>
       <c r="E209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>87</v>
       </c>
@@ -8884,7 +8853,7 @@
       </c>
       <c r="E210" s="9"/>
     </row>
-    <row r="211" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>91</v>
       </c>
@@ -8899,7 +8868,7 @@
       </c>
       <c r="E211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>95</v>
       </c>
@@ -8914,7 +8883,7 @@
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>99</v>
       </c>
@@ -8929,7 +8898,7 @@
       </c>
       <c r="E213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>103</v>
       </c>
@@ -8944,7 +8913,7 @@
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>107</v>
       </c>
@@ -8959,7 +8928,7 @@
       </c>
       <c r="E215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>111</v>
       </c>
@@ -8974,7 +8943,7 @@
       </c>
       <c r="E216" s="9"/>
     </row>
-    <row r="217" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>115</v>
       </c>
@@ -8989,7 +8958,7 @@
       </c>
       <c r="E217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>119</v>
       </c>
@@ -9004,7 +8973,7 @@
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>123</v>
       </c>
@@ -9019,25 +8988,25 @@
       </c>
       <c r="E219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="19" t="s">
+    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
       <c r="F220" s="10"/>
     </row>
-    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="21"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
+    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="20"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
       <c r="F221" s="10"/>
     </row>
-    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -9054,7 +9023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>5</v>
       </c>
@@ -9069,7 +9038,7 @@
       </c>
       <c r="E224" s="8"/>
     </row>
-    <row r="225" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>9</v>
       </c>
@@ -9084,7 +9053,7 @@
       </c>
       <c r="E225" s="9"/>
     </row>
-    <row r="226" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>13</v>
       </c>
@@ -9099,7 +9068,7 @@
       </c>
       <c r="E226" s="8"/>
     </row>
-    <row r="227" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>17</v>
       </c>
@@ -9114,7 +9083,7 @@
       </c>
       <c r="E227" s="9"/>
     </row>
-    <row r="228" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>35</v>
       </c>
@@ -9129,7 +9098,7 @@
       </c>
       <c r="E228" s="8"/>
     </row>
-    <row r="229" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>39</v>
       </c>
@@ -9144,7 +9113,7 @@
       </c>
       <c r="E229" s="9"/>
     </row>
-    <row r="230" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>43</v>
       </c>
@@ -9159,7 +9128,7 @@
       </c>
       <c r="E230" s="8"/>
     </row>
-    <row r="231" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>47</v>
       </c>
@@ -9174,7 +9143,7 @@
       </c>
       <c r="E231" s="9"/>
     </row>
-    <row r="232" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>51</v>
       </c>
@@ -9189,7 +9158,7 @@
       </c>
       <c r="E232" s="8"/>
     </row>
-    <row r="233" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>55</v>
       </c>
@@ -9204,7 +9173,7 @@
       </c>
       <c r="E233" s="9"/>
     </row>
-    <row r="234" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>59</v>
       </c>
@@ -9219,7 +9188,7 @@
       </c>
       <c r="E234" s="8"/>
     </row>
-    <row r="235" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -9234,7 +9203,7 @@
       </c>
       <c r="E235" s="9"/>
     </row>
-    <row r="236" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>67</v>
       </c>
@@ -9249,7 +9218,7 @@
       </c>
       <c r="E236" s="8"/>
     </row>
-    <row r="237" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>71</v>
       </c>
@@ -9264,7 +9233,7 @@
       </c>
       <c r="E237" s="9"/>
     </row>
-    <row r="238" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>75</v>
       </c>
@@ -9279,7 +9248,7 @@
       </c>
       <c r="E238" s="8"/>
     </row>
-    <row r="239" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>79</v>
       </c>
@@ -9294,7 +9263,7 @@
       </c>
       <c r="E239" s="9"/>
     </row>
-    <row r="240" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>83</v>
       </c>
@@ -9309,7 +9278,7 @@
       </c>
       <c r="E240" s="8"/>
     </row>
-    <row r="241" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>87</v>
       </c>
@@ -9324,7 +9293,7 @@
       </c>
       <c r="E241" s="9"/>
     </row>
-    <row r="242" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>91</v>
       </c>
@@ -9339,7 +9308,7 @@
       </c>
       <c r="E242" s="8"/>
     </row>
-    <row r="243" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>95</v>
       </c>
@@ -9354,7 +9323,7 @@
       </c>
       <c r="E243" s="9"/>
     </row>
-    <row r="244" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>99</v>
       </c>
@@ -9369,7 +9338,7 @@
       </c>
       <c r="E244" s="8"/>
     </row>
-    <row r="245" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>103</v>
       </c>
@@ -9384,7 +9353,7 @@
       </c>
       <c r="E245" s="9"/>
     </row>
-    <row r="246" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
         <v>107</v>
       </c>
@@ -9399,7 +9368,7 @@
       </c>
       <c r="E246" s="8"/>
     </row>
-    <row r="247" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -9414,7 +9383,7 @@
       </c>
       <c r="E247" s="9"/>
     </row>
-    <row r="248" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>115</v>
       </c>
@@ -9429,7 +9398,7 @@
       </c>
       <c r="E248" s="8"/>
     </row>
-    <row r="249" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>119</v>
       </c>
@@ -9444,7 +9413,7 @@
       </c>
       <c r="E249" s="9"/>
     </row>
-    <row r="250" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>123</v>
       </c>
@@ -9459,7 +9428,7 @@
       </c>
       <c r="E250" s="8"/>
     </row>
-    <row r="251" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>127</v>
       </c>
@@ -9474,7 +9443,7 @@
       </c>
       <c r="E251" s="9"/>
     </row>
-    <row r="252" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>131</v>
       </c>
@@ -9489,7 +9458,7 @@
       </c>
       <c r="E252" s="8"/>
     </row>
-    <row r="253" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>135</v>
       </c>
@@ -9504,7 +9473,7 @@
       </c>
       <c r="E253" s="9"/>
     </row>
-    <row r="254" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>139</v>
       </c>
@@ -9519,7 +9488,7 @@
       </c>
       <c r="E254" s="8"/>
     </row>
-    <row r="255" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>143</v>
       </c>
@@ -9534,7 +9503,7 @@
       </c>
       <c r="E255" s="9"/>
     </row>
-    <row r="256" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>147</v>
       </c>
@@ -9549,7 +9518,7 @@
       </c>
       <c r="E256" s="8"/>
     </row>
-    <row r="257" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
         <v>151</v>
       </c>
@@ -9564,7 +9533,7 @@
       </c>
       <c r="E257" s="9"/>
     </row>
-    <row r="258" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>155</v>
       </c>
@@ -9579,7 +9548,7 @@
       </c>
       <c r="E258" s="8"/>
     </row>
-    <row r="259" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
@@ -9594,7 +9563,7 @@
       </c>
       <c r="E259" s="9"/>
     </row>
-    <row r="260" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
         <v>163</v>
       </c>
@@ -9609,7 +9578,7 @@
       </c>
       <c r="E260" s="8"/>
     </row>
-    <row r="261" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>167</v>
       </c>
@@ -9624,7 +9593,7 @@
       </c>
       <c r="E261" s="9"/>
     </row>
-    <row r="262" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
         <v>171</v>
       </c>
@@ -9639,7 +9608,7 @@
       </c>
       <c r="E262" s="8"/>
     </row>
-    <row r="263" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>175</v>
       </c>
@@ -9654,7 +9623,7 @@
       </c>
       <c r="E263" s="9"/>
     </row>
-    <row r="264" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>179</v>
       </c>
@@ -9669,7 +9638,7 @@
       </c>
       <c r="E264" s="8"/>
     </row>
-    <row r="265" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>183</v>
       </c>
@@ -9684,7 +9653,7 @@
       </c>
       <c r="E265" s="9"/>
     </row>
-    <row r="266" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
         <v>187</v>
       </c>
@@ -9699,7 +9668,7 @@
       </c>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>191</v>
       </c>
@@ -9714,7 +9683,7 @@
       </c>
       <c r="E267" s="9"/>
     </row>
-    <row r="268" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
         <v>195</v>
       </c>
@@ -9729,7 +9698,7 @@
       </c>
       <c r="E268" s="8"/>
     </row>
-    <row r="269" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>199</v>
       </c>
@@ -9744,7 +9713,7 @@
       </c>
       <c r="E269" s="9"/>
     </row>
-    <row r="270" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
         <v>740</v>
       </c>
@@ -9759,7 +9728,7 @@
       </c>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>744</v>
       </c>
@@ -9774,7 +9743,7 @@
       </c>
       <c r="E271" s="9"/>
     </row>
-    <row r="272" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
         <v>748</v>
       </c>
@@ -9789,7 +9758,7 @@
       </c>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>752</v>
       </c>
@@ -9804,7 +9773,7 @@
       </c>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>756</v>
       </c>
@@ -9819,7 +9788,7 @@
       </c>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>760</v>
       </c>
@@ -9834,7 +9803,7 @@
       </c>
       <c r="E275" s="9"/>
     </row>
-    <row r="276" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
         <v>764</v>
       </c>
@@ -9849,7 +9818,7 @@
       </c>
       <c r="E276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>768</v>
       </c>
@@ -9864,7 +9833,7 @@
       </c>
       <c r="E277" s="9"/>
     </row>
-    <row r="278" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
         <v>772</v>
       </c>
@@ -9879,7 +9848,7 @@
       </c>
       <c r="E278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>776</v>
       </c>
@@ -9894,25 +9863,25 @@
       </c>
       <c r="E279" s="9"/>
     </row>
-    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="19" t="s">
+    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="19"/>
-      <c r="E280" s="19"/>
+      <c r="B280" s="21"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="21"/>
       <c r="F280" s="10"/>
     </row>
-    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="20"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="20"/>
-      <c r="E281" s="20"/>
+    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="22"/>
+      <c r="B281" s="22"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
+      <c r="E281" s="22"/>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>0</v>
       </c>
@@ -9929,7 +9898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
         <v>5</v>
       </c>
@@ -9944,7 +9913,7 @@
       </c>
       <c r="E283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -9959,7 +9928,7 @@
       </c>
       <c r="E284" s="9"/>
     </row>
-    <row r="285" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
         <v>13</v>
       </c>
@@ -9974,7 +9943,7 @@
       </c>
       <c r="E285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>17</v>
       </c>
@@ -9989,7 +9958,7 @@
       </c>
       <c r="E286" s="9"/>
     </row>
-    <row r="287" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
         <v>35</v>
       </c>
@@ -10004,7 +9973,7 @@
       </c>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>39</v>
       </c>
@@ -10019,7 +9988,7 @@
       </c>
       <c r="E288" s="9"/>
     </row>
-    <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
         <v>43</v>
       </c>
@@ -10034,7 +10003,7 @@
       </c>
       <c r="E289" s="8"/>
     </row>
-    <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
         <v>47</v>
       </c>
@@ -10049,7 +10018,7 @@
       </c>
       <c r="E290" s="9"/>
     </row>
-    <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
         <v>51</v>
       </c>
@@ -10064,7 +10033,7 @@
       </c>
       <c r="E291" s="8"/>
     </row>
-    <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>55</v>
       </c>
@@ -10079,7 +10048,7 @@
       </c>
       <c r="E292" s="9"/>
     </row>
-    <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
         <v>59</v>
       </c>
@@ -10094,7 +10063,7 @@
       </c>
       <c r="E293" s="8"/>
     </row>
-    <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>63</v>
       </c>
@@ -10109,7 +10078,7 @@
       </c>
       <c r="E294" s="9"/>
     </row>
-    <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
         <v>67</v>
       </c>
@@ -10124,7 +10093,7 @@
       </c>
       <c r="E295" s="8"/>
     </row>
-    <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>71</v>
       </c>
@@ -10139,7 +10108,7 @@
       </c>
       <c r="E296" s="9"/>
     </row>
-    <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
         <v>75</v>
       </c>
@@ -10154,7 +10123,7 @@
       </c>
       <c r="E297" s="8"/>
     </row>
-    <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>79</v>
       </c>
@@ -10169,7 +10138,7 @@
       </c>
       <c r="E298" s="9"/>
     </row>
-    <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
         <v>83</v>
       </c>
@@ -10184,7 +10153,7 @@
       </c>
       <c r="E299" s="8"/>
     </row>
-    <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>87</v>
       </c>
@@ -10199,7 +10168,7 @@
       </c>
       <c r="E300" s="9"/>
     </row>
-    <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
         <v>91</v>
       </c>
@@ -10214,7 +10183,7 @@
       </c>
       <c r="E301" s="8"/>
     </row>
-    <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>95</v>
       </c>
@@ -10229,7 +10198,7 @@
       </c>
       <c r="E302" s="9"/>
     </row>
-    <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
         <v>99</v>
       </c>
@@ -10244,7 +10213,7 @@
       </c>
       <c r="E303" s="8"/>
     </row>
-    <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>103</v>
       </c>
@@ -10259,7 +10228,7 @@
       </c>
       <c r="E304" s="9"/>
     </row>
-    <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
         <v>107</v>
       </c>
@@ -10274,7 +10243,7 @@
       </c>
       <c r="E305" s="8"/>
     </row>
-    <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>111</v>
       </c>
@@ -10289,7 +10258,7 @@
       </c>
       <c r="E306" s="9"/>
     </row>
-    <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="s">
         <v>115</v>
       </c>
@@ -10304,7 +10273,7 @@
       </c>
       <c r="E307" s="8"/>
     </row>
-    <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>119</v>
       </c>
@@ -10319,7 +10288,7 @@
       </c>
       <c r="E308" s="9"/>
     </row>
-    <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="s">
         <v>123</v>
       </c>
@@ -10334,7 +10303,7 @@
       </c>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
         <v>127</v>
       </c>
@@ -10349,7 +10318,7 @@
       </c>
       <c r="E310" s="9"/>
     </row>
-    <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
         <v>131</v>
       </c>
@@ -10364,7 +10333,7 @@
       </c>
       <c r="E311" s="8"/>
     </row>
-    <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>135</v>
       </c>
@@ -10379,7 +10348,7 @@
       </c>
       <c r="E312" s="9"/>
     </row>
-    <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
         <v>139</v>
       </c>
@@ -10394,7 +10363,7 @@
       </c>
       <c r="E313" s="8"/>
     </row>
-    <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>143</v>
       </c>
@@ -10409,7 +10378,7 @@
       </c>
       <c r="E314" s="9"/>
     </row>
-    <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="s">
         <v>147</v>
       </c>
@@ -10424,7 +10393,7 @@
       </c>
       <c r="E315" s="8"/>
     </row>
-    <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
         <v>151</v>
       </c>
@@ -10439,7 +10408,7 @@
       </c>
       <c r="E316" s="9"/>
     </row>
-    <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
         <v>155</v>
       </c>
@@ -10454,7 +10423,7 @@
       </c>
       <c r="E317" s="8"/>
     </row>
-    <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>159</v>
       </c>
@@ -10469,7 +10438,7 @@
       </c>
       <c r="E318" s="9"/>
     </row>
-    <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
         <v>163</v>
       </c>
@@ -10484,7 +10453,7 @@
       </c>
       <c r="E319" s="8"/>
     </row>
-    <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>167</v>
       </c>
@@ -10499,7 +10468,7 @@
       </c>
       <c r="E320" s="9"/>
     </row>
-    <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
         <v>171</v>
       </c>
@@ -10514,7 +10483,7 @@
       </c>
       <c r="E321" s="8"/>
     </row>
-    <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>175</v>
       </c>
@@ -10529,7 +10498,7 @@
       </c>
       <c r="E322" s="9"/>
     </row>
-    <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
         <v>179</v>
       </c>
@@ -10544,7 +10513,7 @@
       </c>
       <c r="E323" s="8"/>
     </row>
-    <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
         <v>183</v>
       </c>
@@ -10559,7 +10528,7 @@
       </c>
       <c r="E324" s="9"/>
     </row>
-    <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
         <v>187</v>
       </c>
@@ -10574,7 +10543,7 @@
       </c>
       <c r="E325" s="8"/>
     </row>
-    <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A326" s="9" t="s">
         <v>191</v>
       </c>
@@ -10589,7 +10558,7 @@
       </c>
       <c r="E326" s="9"/>
     </row>
-    <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
         <v>195</v>
       </c>
@@ -10604,7 +10573,7 @@
       </c>
       <c r="E327" s="8"/>
     </row>
-    <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
         <v>199</v>
       </c>
@@ -10619,7 +10588,7 @@
       </c>
       <c r="E328" s="9"/>
     </row>
-    <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="s">
         <v>740</v>
       </c>
@@ -10634,7 +10603,7 @@
       </c>
       <c r="E329" s="8"/>
     </row>
-    <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>744</v>
       </c>
@@ -10649,7 +10618,7 @@
       </c>
       <c r="E330" s="9"/>
     </row>
-    <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
         <v>748</v>
       </c>
@@ -10664,7 +10633,7 @@
       </c>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
         <v>752</v>
       </c>
@@ -10679,7 +10648,7 @@
       </c>
       <c r="E332" s="9"/>
     </row>
-    <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
         <v>756</v>
       </c>
@@ -10694,7 +10663,7 @@
       </c>
       <c r="E333" s="8"/>
     </row>
-    <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>760</v>
       </c>
@@ -10709,7 +10678,7 @@
       </c>
       <c r="E334" s="9"/>
     </row>
-    <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
         <v>764</v>
       </c>
@@ -10724,7 +10693,7 @@
       </c>
       <c r="E335" s="8"/>
     </row>
-    <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
         <v>768</v>
       </c>
@@ -10739,7 +10708,7 @@
       </c>
       <c r="E336" s="9"/>
     </row>
-    <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
         <v>772</v>
       </c>
@@ -10754,7 +10723,7 @@
       </c>
       <c r="E337" s="8"/>
     </row>
-    <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
         <v>776</v>
       </c>
@@ -10769,7 +10738,7 @@
       </c>
       <c r="E338" s="9"/>
     </row>
-    <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
         <v>894</v>
       </c>
@@ -10784,7 +10753,7 @@
       </c>
       <c r="E339" s="8"/>
     </row>
-    <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
         <v>897</v>
       </c>
@@ -10799,7 +10768,7 @@
       </c>
       <c r="E340" s="9"/>
     </row>
-    <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="s">
         <v>900</v>
       </c>
@@ -10814,7 +10783,7 @@
       </c>
       <c r="E341" s="8"/>
     </row>
-    <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
         <v>903</v>
       </c>
@@ -10829,7 +10798,7 @@
       </c>
       <c r="E342" s="9"/>
     </row>
-    <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A343" s="8" t="s">
         <v>906</v>
       </c>
@@ -10844,7 +10813,7 @@
       </c>
       <c r="E343" s="8"/>
     </row>
-    <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>909</v>
       </c>
@@ -10859,7 +10828,7 @@
       </c>
       <c r="E344" s="9"/>
     </row>
-    <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
         <v>912</v>
       </c>
@@ -10874,7 +10843,7 @@
       </c>
       <c r="E345" s="8"/>
     </row>
-    <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>915</v>
       </c>
@@ -10889,7 +10858,7 @@
       </c>
       <c r="E346" s="9"/>
     </row>
-    <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
         <v>918</v>
       </c>
@@ -10904,7 +10873,7 @@
       </c>
       <c r="E347" s="8"/>
     </row>
-    <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>921</v>
       </c>
@@ -10919,7 +10888,7 @@
       </c>
       <c r="E348" s="9"/>
     </row>
-    <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
         <v>924</v>
       </c>
@@ -10934,7 +10903,7 @@
       </c>
       <c r="E349" s="8"/>
     </row>
-    <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
         <v>927</v>
       </c>
@@ -10949,7 +10918,7 @@
       </c>
       <c r="E350" s="9"/>
     </row>
-    <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="s">
         <v>930</v>
       </c>
@@ -10964,7 +10933,7 @@
       </c>
       <c r="E351" s="8"/>
     </row>
-    <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
         <v>933</v>
       </c>
@@ -10979,7 +10948,7 @@
       </c>
       <c r="E352" s="9"/>
     </row>
-    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
         <v>936</v>
       </c>
@@ -10994,7 +10963,7 @@
       </c>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
         <v>939</v>
       </c>
@@ -11009,7 +10978,7 @@
       </c>
       <c r="E354" s="9"/>
     </row>
-    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
         <v>942</v>
       </c>
@@ -11024,7 +10993,7 @@
       </c>
       <c r="E355" s="8"/>
     </row>
-    <row r="356" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
         <v>945</v>
       </c>
@@ -11039,7 +11008,7 @@
       </c>
       <c r="E356" s="9"/>
     </row>
-    <row r="357" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
         <v>948</v>
       </c>
@@ -11054,7 +11023,7 @@
       </c>
       <c r="E357" s="8"/>
     </row>
-    <row r="358" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>951</v>
       </c>
@@ -11069,7 +11038,7 @@
       </c>
       <c r="E358" s="9"/>
     </row>
-    <row r="359" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
         <v>954</v>
       </c>
@@ -11084,7 +11053,7 @@
       </c>
       <c r="E359" s="8"/>
     </row>
-    <row r="360" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
         <v>957</v>
       </c>
@@ -11099,7 +11068,7 @@
       </c>
       <c r="E360" s="9"/>
     </row>
-    <row r="361" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
         <v>960</v>
       </c>
@@ -11114,7 +11083,7 @@
       </c>
       <c r="E361" s="8"/>
     </row>
-    <row r="362" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
         <v>963</v>
       </c>
@@ -11129,7 +11098,7 @@
       </c>
       <c r="E362" s="9"/>
     </row>
-    <row r="363" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
         <v>966</v>
       </c>
@@ -11144,7 +11113,7 @@
       </c>
       <c r="E363" s="8"/>
     </row>
-    <row r="364" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
         <v>969</v>
       </c>
@@ -11159,7 +11128,7 @@
       </c>
       <c r="E364" s="9"/>
     </row>
-    <row r="365" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
         <v>972</v>
       </c>
@@ -11174,7 +11143,7 @@
       </c>
       <c r="E365" s="8"/>
     </row>
-    <row r="366" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
         <v>975</v>
       </c>
@@ -11189,7 +11158,7 @@
       </c>
       <c r="E366" s="9"/>
     </row>
-    <row r="367" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="s">
         <v>978</v>
       </c>
@@ -11204,7 +11173,7 @@
       </c>
       <c r="E367" s="8"/>
     </row>
-    <row r="368" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
         <v>981</v>
       </c>
@@ -11219,7 +11188,7 @@
       </c>
       <c r="E368" s="9"/>
     </row>
-    <row r="369" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="s">
         <v>984</v>
       </c>
@@ -11234,7 +11203,7 @@
       </c>
       <c r="E369" s="8"/>
     </row>
-    <row r="370" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
         <v>987</v>
       </c>
@@ -11249,7 +11218,7 @@
       </c>
       <c r="E370" s="9"/>
     </row>
-    <row r="371" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A371" s="8" t="s">
         <v>990</v>
       </c>
@@ -11264,7 +11233,7 @@
       </c>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
         <v>994</v>
       </c>
@@ -11279,7 +11248,7 @@
       </c>
       <c r="E372" s="9"/>
     </row>
-    <row r="373" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A373" s="8" t="s">
         <v>998</v>
       </c>
@@ -11294,7 +11263,7 @@
       </c>
       <c r="E373" s="8"/>
     </row>
-    <row r="374" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
         <v>1002</v>
       </c>
@@ -11309,7 +11278,7 @@
       </c>
       <c r="E374" s="9"/>
     </row>
-    <row r="375" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="s">
         <v>1006</v>
       </c>
@@ -11324,7 +11293,7 @@
       </c>
       <c r="E375" s="8"/>
     </row>
-    <row r="376" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
         <v>1010</v>
       </c>
@@ -11339,7 +11308,7 @@
       </c>
       <c r="E376" s="9"/>
     </row>
-    <row r="377" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="s">
         <v>1014</v>
       </c>
@@ -11354,7 +11323,7 @@
       </c>
       <c r="E377" s="8"/>
     </row>
-    <row r="378" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A378" s="9" t="s">
         <v>1018</v>
       </c>
@@ -11369,7 +11338,7 @@
       </c>
       <c r="E378" s="9"/>
     </row>
-    <row r="379" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="s">
         <v>1022</v>
       </c>
@@ -11384,7 +11353,7 @@
       </c>
       <c r="E379" s="8"/>
     </row>
-    <row r="380" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>1025</v>
       </c>
@@ -11399,7 +11368,7 @@
       </c>
       <c r="E380" s="9"/>
     </row>
-    <row r="381" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="s">
         <v>1028</v>
       </c>
@@ -11414,7 +11383,7 @@
       </c>
       <c r="E381" s="8"/>
     </row>
-    <row r="382" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
         <v>1031</v>
       </c>
@@ -11429,7 +11398,7 @@
       </c>
       <c r="E382" s="9"/>
     </row>
-    <row r="383" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="s">
         <v>1034</v>
       </c>
@@ -11444,7 +11413,7 @@
       </c>
       <c r="E383" s="8"/>
     </row>
-    <row r="384" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
         <v>1037</v>
       </c>
@@ -11459,7 +11428,7 @@
       </c>
       <c r="E384" s="9"/>
     </row>
-    <row r="385" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
         <v>1040</v>
       </c>
@@ -11474,7 +11443,7 @@
       </c>
       <c r="E385" s="8"/>
     </row>
-    <row r="386" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
         <v>1043</v>
       </c>
@@ -11489,7 +11458,7 @@
       </c>
       <c r="E386" s="9"/>
     </row>
-    <row r="387" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="s">
         <v>1046</v>
       </c>
@@ -11504,7 +11473,7 @@
       </c>
       <c r="E387" s="8"/>
     </row>
-    <row r="388" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
         <v>1049</v>
       </c>
@@ -11519,7 +11488,7 @@
       </c>
       <c r="E388" s="9"/>
     </row>
-    <row r="389" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="s">
         <v>1052</v>
       </c>
@@ -11534,7 +11503,7 @@
       </c>
       <c r="E389" s="8"/>
     </row>
-    <row r="390" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
         <v>1055</v>
       </c>
@@ -11549,7 +11518,7 @@
       </c>
       <c r="E390" s="9"/>
     </row>
-    <row r="391" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="s">
         <v>1058</v>
       </c>
@@ -11564,7 +11533,7 @@
       </c>
       <c r="E391" s="8"/>
     </row>
-    <row r="392" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
         <v>1061</v>
       </c>
@@ -11579,7 +11548,7 @@
       </c>
       <c r="E392" s="9"/>
     </row>
-    <row r="393" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="s">
         <v>1064</v>
       </c>
@@ -11594,7 +11563,7 @@
       </c>
       <c r="E393" s="8"/>
     </row>
-    <row r="394" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A394" s="9" t="s">
         <v>1067</v>
       </c>
@@ -11609,7 +11578,7 @@
       </c>
       <c r="E394" s="9"/>
     </row>
-    <row r="395" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="s">
         <v>1070</v>
       </c>
@@ -11624,7 +11593,7 @@
       </c>
       <c r="E395" s="8"/>
     </row>
-    <row r="396" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
         <v>1073</v>
       </c>
@@ -11639,7 +11608,7 @@
       </c>
       <c r="E396" s="9"/>
     </row>
-    <row r="397" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="s">
         <v>1076</v>
       </c>
@@ -11654,7 +11623,7 @@
       </c>
       <c r="E397" s="8"/>
     </row>
-    <row r="398" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>1079</v>
       </c>
@@ -11669,7 +11638,7 @@
       </c>
       <c r="E398" s="9"/>
     </row>
-    <row r="399" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
         <v>1082</v>
       </c>
@@ -11684,7 +11653,7 @@
       </c>
       <c r="E399" s="8"/>
     </row>
-    <row r="400" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>1085</v>
       </c>
@@ -11699,7 +11668,7 @@
       </c>
       <c r="E400" s="9"/>
     </row>
-    <row r="401" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
         <v>1088</v>
       </c>
@@ -11714,7 +11683,7 @@
       </c>
       <c r="E401" s="8"/>
     </row>
-    <row r="402" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A402" s="9" t="s">
         <v>1091</v>
       </c>
@@ -11729,7 +11698,7 @@
       </c>
       <c r="E402" s="9"/>
     </row>
-    <row r="403" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
         <v>1094</v>
       </c>
@@ -11744,7 +11713,7 @@
       </c>
       <c r="E403" s="8"/>
     </row>
-    <row r="404" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
         <v>1098</v>
       </c>
@@ -11759,7 +11728,7 @@
       </c>
       <c r="E404" s="9"/>
     </row>
-    <row r="405" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="s">
         <v>1102</v>
       </c>
@@ -11774,7 +11743,7 @@
       </c>
       <c r="E405" s="8"/>
     </row>
-    <row r="406" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A406" s="9" t="s">
         <v>1104</v>
       </c>
@@ -11789,7 +11758,7 @@
       </c>
       <c r="E406" s="9"/>
     </row>
-    <row r="407" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="s">
         <v>1107</v>
       </c>
@@ -11804,7 +11773,7 @@
       </c>
       <c r="E407" s="8"/>
     </row>
-    <row r="408" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A408" s="9" t="s">
         <v>1110</v>
       </c>
@@ -11819,7 +11788,7 @@
       </c>
       <c r="E408" s="9"/>
     </row>
-    <row r="409" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="s">
         <v>1113</v>
       </c>
@@ -11834,7 +11803,7 @@
       </c>
       <c r="E409" s="8"/>
     </row>
-    <row r="410" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A410" s="9" t="s">
         <v>1116</v>
       </c>
@@ -11849,7 +11818,7 @@
       </c>
       <c r="E410" s="9"/>
     </row>
-    <row r="411" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A411" s="8" t="s">
         <v>1119</v>
       </c>
@@ -11864,7 +11833,7 @@
       </c>
       <c r="E411" s="8"/>
     </row>
-    <row r="412" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
         <v>1122</v>
       </c>
@@ -11879,7 +11848,7 @@
       </c>
       <c r="E412" s="9"/>
     </row>
-    <row r="413" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A413" s="8" t="s">
         <v>1125</v>
       </c>
@@ -11894,7 +11863,7 @@
       </c>
       <c r="E413" s="8"/>
     </row>
-    <row r="414" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A414" s="9" t="s">
         <v>1128</v>
       </c>
@@ -11909,7 +11878,7 @@
       </c>
       <c r="E414" s="9"/>
     </row>
-    <row r="415" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="s">
         <v>1131</v>
       </c>
@@ -11924,7 +11893,7 @@
       </c>
       <c r="E415" s="8"/>
     </row>
-    <row r="416" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A416" s="9" t="s">
         <v>1134</v>
       </c>
@@ -11939,7 +11908,7 @@
       </c>
       <c r="E416" s="9"/>
     </row>
-    <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
         <v>1137</v>
       </c>
@@ -11954,7 +11923,7 @@
       </c>
       <c r="E417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>1140</v>
       </c>
@@ -11969,7 +11938,7 @@
       </c>
       <c r="E418" s="9"/>
     </row>
-    <row r="419" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
         <v>1143</v>
       </c>
@@ -11984,7 +11953,7 @@
       </c>
       <c r="E419" s="8"/>
     </row>
-    <row r="420" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A420" s="9" t="s">
         <v>1146</v>
       </c>
@@ -11999,7 +11968,7 @@
       </c>
       <c r="E420" s="9"/>
     </row>
-    <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
         <v>1150</v>
       </c>
@@ -12014,7 +11983,7 @@
       </c>
       <c r="E421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
         <v>1154</v>
       </c>
@@ -12029,7 +11998,7 @@
       </c>
       <c r="E422" s="9"/>
     </row>
-    <row r="423" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
         <v>1158</v>
       </c>
@@ -12044,7 +12013,7 @@
       </c>
       <c r="E423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>1162</v>
       </c>
@@ -12059,7 +12028,7 @@
       </c>
       <c r="E424" s="9"/>
     </row>
-    <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
         <v>1166</v>
       </c>
@@ -12074,7 +12043,7 @@
       </c>
       <c r="E425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
         <v>1170</v>
       </c>
@@ -12089,7 +12058,7 @@
       </c>
       <c r="E426" s="9"/>
     </row>
-    <row r="427" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
         <v>1721</v>
       </c>
@@ -12104,25 +12073,25 @@
       </c>
       <c r="E427" s="8"/>
     </row>
-    <row r="428" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="19" t="s">
+    <row r="428" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="21" t="s">
         <v>1187</v>
       </c>
-      <c r="B428" s="19"/>
-      <c r="C428" s="19"/>
-      <c r="D428" s="19"/>
-      <c r="E428" s="19"/>
+      <c r="B428" s="21"/>
+      <c r="C428" s="21"/>
+      <c r="D428" s="21"/>
+      <c r="E428" s="21"/>
       <c r="F428" s="10"/>
     </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="21"/>
-      <c r="B429" s="21"/>
-      <c r="C429" s="21"/>
-      <c r="D429" s="21"/>
-      <c r="E429" s="21"/>
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="20"/>
+      <c r="B429" s="20"/>
+      <c r="C429" s="20"/>
+      <c r="D429" s="20"/>
+      <c r="E429" s="20"/>
       <c r="F429" s="10"/>
     </row>
-    <row r="431" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>0</v>
       </c>
@@ -12139,7 +12108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
         <v>5</v>
       </c>
@@ -12154,7 +12123,7 @@
       </c>
       <c r="E432" s="8"/>
     </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
         <v>9</v>
       </c>
@@ -12169,7 +12138,7 @@
       </c>
       <c r="E433" s="9"/>
     </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
         <v>13</v>
       </c>
@@ -12184,7 +12153,7 @@
       </c>
       <c r="E434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
         <v>17</v>
       </c>
@@ -12199,25 +12168,25 @@
       </c>
       <c r="E435" s="9"/>
     </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="19" t="s">
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="21" t="s">
         <v>1186</v>
       </c>
-      <c r="B436" s="19"/>
-      <c r="C436" s="19"/>
-      <c r="D436" s="19"/>
-      <c r="E436" s="19"/>
+      <c r="B436" s="21"/>
+      <c r="C436" s="21"/>
+      <c r="D436" s="21"/>
+      <c r="E436" s="21"/>
       <c r="F436" s="10"/>
     </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="21"/>
-      <c r="B437" s="21"/>
-      <c r="C437" s="21"/>
-      <c r="D437" s="21"/>
-      <c r="E437" s="21"/>
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="20"/>
+      <c r="B437" s="20"/>
+      <c r="C437" s="20"/>
+      <c r="D437" s="20"/>
+      <c r="E437" s="20"/>
       <c r="F437" s="10"/>
     </row>
-    <row r="439" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
         <v>0</v>
       </c>
@@ -12234,7 +12203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
         <v>5</v>
       </c>
@@ -12249,7 +12218,7 @@
       </c>
       <c r="E440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
         <v>9</v>
       </c>
@@ -12264,7 +12233,7 @@
       </c>
       <c r="E441" s="9"/>
     </row>
-    <row r="442" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
         <v>13</v>
       </c>
@@ -12279,7 +12248,7 @@
       </c>
       <c r="E442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9" t="s">
         <v>17</v>
       </c>
@@ -12294,7 +12263,7 @@
       </c>
       <c r="E443" s="9"/>
     </row>
-    <row r="444" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
         <v>35</v>
       </c>
@@ -12309,7 +12278,7 @@
       </c>
       <c r="E444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
         <v>39</v>
       </c>
@@ -12324,7 +12293,7 @@
       </c>
       <c r="E445" s="9"/>
     </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="s">
         <v>43</v>
       </c>
@@ -12339,7 +12308,7 @@
       </c>
       <c r="E446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
         <v>47</v>
       </c>
@@ -12354,7 +12323,7 @@
       </c>
       <c r="E447" s="9"/>
     </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="8" t="s">
         <v>51</v>
       </c>
@@ -12369,7 +12338,7 @@
       </c>
       <c r="E448" s="8"/>
     </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
         <v>55</v>
       </c>
@@ -12384,7 +12353,7 @@
       </c>
       <c r="E449" s="9"/>
     </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
         <v>59</v>
       </c>
@@ -12399,7 +12368,7 @@
       </c>
       <c r="E450" s="8"/>
     </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
         <v>63</v>
       </c>
@@ -12414,7 +12383,7 @@
       </c>
       <c r="E451" s="9"/>
     </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="8" t="s">
         <v>67</v>
       </c>
@@ -12429,7 +12398,7 @@
       </c>
       <c r="E452" s="8"/>
     </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
         <v>71</v>
       </c>
@@ -12444,7 +12413,7 @@
       </c>
       <c r="E453" s="9"/>
     </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="8" t="s">
         <v>75</v>
       </c>
@@ -12459,7 +12428,7 @@
       </c>
       <c r="E454" s="8"/>
     </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
         <v>79</v>
       </c>
@@ -12474,7 +12443,7 @@
       </c>
       <c r="E455" s="9"/>
     </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="s">
         <v>83</v>
       </c>
@@ -12489,7 +12458,7 @@
       </c>
       <c r="E456" s="8"/>
     </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
         <v>87</v>
       </c>
@@ -12504,7 +12473,7 @@
       </c>
       <c r="E457" s="9"/>
     </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="s">
         <v>91</v>
       </c>
@@ -12519,7 +12488,7 @@
       </c>
       <c r="E458" s="8"/>
     </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
         <v>95</v>
       </c>
@@ -12534,7 +12503,7 @@
       </c>
       <c r="E459" s="9"/>
     </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="s">
         <v>99</v>
       </c>
@@ -12549,7 +12518,7 @@
       </c>
       <c r="E460" s="8"/>
     </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
         <v>103</v>
       </c>
@@ -12564,7 +12533,7 @@
       </c>
       <c r="E461" s="9"/>
     </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="s">
         <v>107</v>
       </c>
@@ -12579,7 +12548,7 @@
       </c>
       <c r="E462" s="8"/>
     </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
         <v>111</v>
       </c>
@@ -12594,7 +12563,7 @@
       </c>
       <c r="E463" s="9"/>
     </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="s">
         <v>115</v>
       </c>
@@ -12609,7 +12578,7 @@
       </c>
       <c r="E464" s="8"/>
     </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
         <v>119</v>
       </c>
@@ -12624,7 +12593,7 @@
       </c>
       <c r="E465" s="9"/>
     </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="s">
         <v>123</v>
       </c>
@@ -12639,7 +12608,7 @@
       </c>
       <c r="E466" s="8"/>
     </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
         <v>127</v>
       </c>
@@ -12654,7 +12623,7 @@
       </c>
       <c r="E467" s="9"/>
     </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="s">
         <v>131</v>
       </c>
@@ -12669,7 +12638,7 @@
       </c>
       <c r="E468" s="8"/>
     </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
         <v>135</v>
       </c>
@@ -12684,7 +12653,7 @@
       </c>
       <c r="E469" s="9"/>
     </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="s">
         <v>139</v>
       </c>
@@ -12699,7 +12668,7 @@
       </c>
       <c r="E470" s="8"/>
     </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
         <v>143</v>
       </c>
@@ -12714,7 +12683,7 @@
       </c>
       <c r="E471" s="9"/>
     </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="s">
         <v>147</v>
       </c>
@@ -12729,7 +12698,7 @@
       </c>
       <c r="E472" s="8"/>
     </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
         <v>151</v>
       </c>
@@ -12744,7 +12713,7 @@
       </c>
       <c r="E473" s="9"/>
     </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="s">
         <v>155</v>
       </c>
@@ -12759,7 +12728,7 @@
       </c>
       <c r="E474" s="8"/>
     </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
         <v>159</v>
       </c>
@@ -12774,7 +12743,7 @@
       </c>
       <c r="E475" s="9"/>
     </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="s">
         <v>163</v>
       </c>
@@ -12789,7 +12758,7 @@
       </c>
       <c r="E476" s="8"/>
     </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
         <v>167</v>
       </c>
@@ -12804,7 +12773,7 @@
       </c>
       <c r="E477" s="9"/>
     </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="s">
         <v>171</v>
       </c>
@@ -12819,7 +12788,7 @@
       </c>
       <c r="E478" s="8"/>
     </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
         <v>175</v>
       </c>
@@ -12834,7 +12803,7 @@
       </c>
       <c r="E479" s="9"/>
     </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="s">
         <v>179</v>
       </c>
@@ -12849,7 +12818,7 @@
       </c>
       <c r="E480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
         <v>183</v>
       </c>
@@ -12864,7 +12833,7 @@
       </c>
       <c r="E481" s="9"/>
     </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="s">
         <v>187</v>
       </c>
@@ -12879,7 +12848,7 @@
       </c>
       <c r="E482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
         <v>191</v>
       </c>
@@ -12894,7 +12863,7 @@
       </c>
       <c r="E483" s="9"/>
     </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="s">
         <v>195</v>
       </c>
@@ -12909,7 +12878,7 @@
       </c>
       <c r="E484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
         <v>199</v>
       </c>
@@ -12924,7 +12893,7 @@
       </c>
       <c r="E485" s="9"/>
     </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="s">
         <v>740</v>
       </c>
@@ -12939,7 +12908,7 @@
       </c>
       <c r="E486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
         <v>744</v>
       </c>
@@ -12954,7 +12923,7 @@
       </c>
       <c r="E487" s="9"/>
     </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="8" t="s">
         <v>748</v>
       </c>
@@ -12969,25 +12938,25 @@
       </c>
       <c r="E488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="19" t="s">
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="21" t="s">
         <v>1335</v>
       </c>
-      <c r="B489" s="19"/>
-      <c r="C489" s="19"/>
-      <c r="D489" s="19"/>
-      <c r="E489" s="19"/>
+      <c r="B489" s="21"/>
+      <c r="C489" s="21"/>
+      <c r="D489" s="21"/>
+      <c r="E489" s="21"/>
       <c r="F489" s="10"/>
     </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="21"/>
-      <c r="B490" s="21"/>
-      <c r="C490" s="21"/>
-      <c r="D490" s="21"/>
-      <c r="E490" s="21"/>
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="20"/>
+      <c r="B490" s="20"/>
+      <c r="C490" s="20"/>
+      <c r="D490" s="20"/>
+      <c r="E490" s="20"/>
       <c r="F490" s="10"/>
     </row>
-    <row r="492" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>0</v>
       </c>
@@ -13004,7 +12973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="8" t="s">
         <v>5</v>
       </c>
@@ -13019,7 +12988,7 @@
       </c>
       <c r="E493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
         <v>9</v>
       </c>
@@ -13034,7 +13003,7 @@
       </c>
       <c r="E494" s="9"/>
     </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="s">
         <v>13</v>
       </c>
@@ -13049,7 +13018,7 @@
       </c>
       <c r="E495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>17</v>
       </c>
@@ -13064,7 +13033,7 @@
       </c>
       <c r="E496" s="9"/>
     </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="s">
         <v>35</v>
       </c>
@@ -13079,7 +13048,7 @@
       </c>
       <c r="E497" s="8"/>
     </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
         <v>39</v>
       </c>
@@ -13094,7 +13063,7 @@
       </c>
       <c r="E498" s="9"/>
     </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="s">
         <v>43</v>
       </c>
@@ -13109,7 +13078,7 @@
       </c>
       <c r="E499" s="8"/>
     </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
         <v>47</v>
       </c>
@@ -13124,7 +13093,7 @@
       </c>
       <c r="E500" s="9"/>
     </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
         <v>51</v>
       </c>
@@ -13139,7 +13108,7 @@
       </c>
       <c r="E501" s="8"/>
     </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>55</v>
       </c>
@@ -13154,7 +13123,7 @@
       </c>
       <c r="E502" s="9"/>
     </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="8" t="s">
         <v>59</v>
       </c>
@@ -13169,7 +13138,7 @@
       </c>
       <c r="E503" s="8"/>
     </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>63</v>
       </c>
@@ -13184,7 +13153,7 @@
       </c>
       <c r="E504" s="9"/>
     </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="8" t="s">
         <v>67</v>
       </c>
@@ -13199,7 +13168,7 @@
       </c>
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
         <v>71</v>
       </c>
@@ -13214,7 +13183,7 @@
       </c>
       <c r="E506" s="9"/>
     </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
         <v>75</v>
       </c>
@@ -13229,7 +13198,7 @@
       </c>
       <c r="E507" s="8"/>
     </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
         <v>79</v>
       </c>
@@ -13244,7 +13213,7 @@
       </c>
       <c r="E508" s="9"/>
     </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
         <v>83</v>
       </c>
@@ -13259,7 +13228,7 @@
       </c>
       <c r="E509" s="8"/>
     </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
         <v>87</v>
       </c>
@@ -13274,7 +13243,7 @@
       </c>
       <c r="E510" s="9"/>
     </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="8" t="s">
         <v>91</v>
       </c>
@@ -13289,7 +13258,7 @@
       </c>
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
         <v>95</v>
       </c>
@@ -13304,7 +13273,7 @@
       </c>
       <c r="E512" s="9"/>
     </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="8" t="s">
         <v>99</v>
       </c>
@@ -13319,7 +13288,7 @@
       </c>
       <c r="E513" s="8"/>
     </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
         <v>103</v>
       </c>
@@ -13334,7 +13303,7 @@
       </c>
       <c r="E514" s="9"/>
     </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="8" t="s">
         <v>107</v>
       </c>
@@ -13349,7 +13318,7 @@
       </c>
       <c r="E515" s="8"/>
     </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
         <v>111</v>
       </c>
@@ -13364,7 +13333,7 @@
       </c>
       <c r="E516" s="9"/>
     </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="8" t="s">
         <v>115</v>
       </c>
@@ -13379,7 +13348,7 @@
       </c>
       <c r="E517" s="8"/>
     </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
         <v>119</v>
       </c>
@@ -13394,7 +13363,7 @@
       </c>
       <c r="E518" s="9"/>
     </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="8" t="s">
         <v>123</v>
       </c>
@@ -13409,7 +13378,7 @@
       </c>
       <c r="E519" s="8"/>
     </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
         <v>127</v>
       </c>
@@ -13424,7 +13393,7 @@
       </c>
       <c r="E520" s="9"/>
     </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="8" t="s">
         <v>131</v>
       </c>
@@ -13439,7 +13408,7 @@
       </c>
       <c r="E521" s="8"/>
     </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
         <v>135</v>
       </c>
@@ -13454,7 +13423,7 @@
       </c>
       <c r="E522" s="9"/>
     </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="8" t="s">
         <v>139</v>
       </c>
@@ -13469,7 +13438,7 @@
       </c>
       <c r="E523" s="8"/>
     </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
         <v>143</v>
       </c>
@@ -13484,7 +13453,7 @@
       </c>
       <c r="E524" s="9"/>
     </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="8" t="s">
         <v>147</v>
       </c>
@@ -13499,7 +13468,7 @@
       </c>
       <c r="E525" s="8"/>
     </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
         <v>151</v>
       </c>
@@ -13514,25 +13483,25 @@
       </c>
       <c r="E526" s="9"/>
     </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="19" t="s">
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="21" t="s">
         <v>1437</v>
       </c>
-      <c r="B527" s="19"/>
-      <c r="C527" s="19"/>
-      <c r="D527" s="19"/>
-      <c r="E527" s="19"/>
+      <c r="B527" s="21"/>
+      <c r="C527" s="21"/>
+      <c r="D527" s="21"/>
+      <c r="E527" s="21"/>
       <c r="F527" s="10"/>
     </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="21"/>
-      <c r="B528" s="21"/>
-      <c r="C528" s="21"/>
-      <c r="D528" s="21"/>
-      <c r="E528" s="21"/>
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="20"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="20"/>
+      <c r="D528" s="20"/>
+      <c r="E528" s="20"/>
       <c r="F528" s="10"/>
     </row>
-    <row r="530" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>0</v>
       </c>
@@ -13549,7 +13518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="8" t="s">
         <v>5</v>
       </c>
@@ -13564,7 +13533,7 @@
       </c>
       <c r="E531" s="8"/>
     </row>
-    <row r="532" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
         <v>9</v>
       </c>
@@ -13579,7 +13548,7 @@
       </c>
       <c r="E532" s="9"/>
     </row>
-    <row r="533" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="8" t="s">
         <v>13</v>
       </c>
@@ -13594,7 +13563,7 @@
       </c>
       <c r="E533" s="8"/>
     </row>
-    <row r="534" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9" t="s">
         <v>17</v>
       </c>
@@ -13609,7 +13578,7 @@
       </c>
       <c r="E534" s="9"/>
     </row>
-    <row r="535" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>35</v>
       </c>
@@ -13624,7 +13593,7 @@
       </c>
       <c r="E535" s="8"/>
     </row>
-    <row r="536" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
         <v>39</v>
       </c>
@@ -13639,7 +13608,7 @@
       </c>
       <c r="E536" s="9"/>
     </row>
-    <row r="537" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
         <v>43</v>
       </c>
@@ -13654,7 +13623,7 @@
       </c>
       <c r="E537" s="8"/>
     </row>
-    <row r="538" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
         <v>47</v>
       </c>
@@ -13669,7 +13638,7 @@
       </c>
       <c r="E538" s="9"/>
     </row>
-    <row r="539" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
         <v>51</v>
       </c>
@@ -13684,7 +13653,7 @@
       </c>
       <c r="E539" s="8"/>
     </row>
-    <row r="540" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9" t="s">
         <v>55</v>
       </c>
@@ -13699,7 +13668,7 @@
       </c>
       <c r="E540" s="9"/>
     </row>
-    <row r="541" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
         <v>59</v>
       </c>
@@ -13714,7 +13683,7 @@
       </c>
       <c r="E541" s="8"/>
     </row>
-    <row r="542" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9" t="s">
         <v>63</v>
       </c>
@@ -13729,7 +13698,7 @@
       </c>
       <c r="E542" s="9"/>
     </row>
-    <row r="543" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
         <v>67</v>
       </c>
@@ -13744,7 +13713,7 @@
       </c>
       <c r="E543" s="8"/>
     </row>
-    <row r="544" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9" t="s">
         <v>71</v>
       </c>
@@ -13759,7 +13728,7 @@
       </c>
       <c r="E544" s="9"/>
     </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
         <v>75</v>
       </c>
@@ -13774,7 +13743,7 @@
       </c>
       <c r="E545" s="8"/>
     </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9" t="s">
         <v>79</v>
       </c>
@@ -13789,7 +13758,7 @@
       </c>
       <c r="E546" s="9"/>
     </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
         <v>83</v>
       </c>
@@ -13804,25 +13773,25 @@
       </c>
       <c r="E547" s="8"/>
     </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="19" t="s">
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="21" t="s">
         <v>1588</v>
       </c>
-      <c r="B548" s="19"/>
-      <c r="C548" s="19"/>
-      <c r="D548" s="19"/>
-      <c r="E548" s="19"/>
+      <c r="B548" s="21"/>
+      <c r="C548" s="21"/>
+      <c r="D548" s="21"/>
+      <c r="E548" s="21"/>
       <c r="F548" s="10"/>
     </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="21"/>
-      <c r="B549" s="21"/>
-      <c r="C549" s="21"/>
-      <c r="D549" s="21"/>
-      <c r="E549" s="21"/>
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="20"/>
+      <c r="B549" s="20"/>
+      <c r="C549" s="20"/>
+      <c r="D549" s="20"/>
+      <c r="E549" s="20"/>
       <c r="F549" s="10"/>
     </row>
-    <row r="551" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>0</v>
       </c>
@@ -13839,7 +13808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
         <v>5</v>
       </c>
@@ -13854,7 +13823,7 @@
       </c>
       <c r="E552" s="8"/>
     </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
         <v>9</v>
       </c>
@@ -13869,7 +13838,7 @@
       </c>
       <c r="E553" s="9"/>
     </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
         <v>13</v>
       </c>
@@ -13884,7 +13853,7 @@
       </c>
       <c r="E554" s="8"/>
     </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
         <v>17</v>
       </c>
@@ -13899,7 +13868,7 @@
       </c>
       <c r="E555" s="9"/>
     </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
         <v>35</v>
       </c>
@@ -13914,7 +13883,7 @@
       </c>
       <c r="E556" s="8"/>
     </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
         <v>39</v>
       </c>
@@ -13929,7 +13898,7 @@
       </c>
       <c r="E557" s="9"/>
     </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
         <v>43</v>
       </c>
@@ -13944,7 +13913,7 @@
       </c>
       <c r="E558" s="8"/>
     </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9" t="s">
         <v>47</v>
       </c>
@@ -13959,7 +13928,7 @@
       </c>
       <c r="E559" s="9"/>
     </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="8" t="s">
         <v>51</v>
       </c>
@@ -13974,7 +13943,7 @@
       </c>
       <c r="E560" s="8"/>
     </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
         <v>55</v>
       </c>
@@ -13989,7 +13958,7 @@
       </c>
       <c r="E561" s="9"/>
     </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="8" t="s">
         <v>59</v>
       </c>
@@ -14004,7 +13973,7 @@
       </c>
       <c r="E562" s="8"/>
     </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
         <v>63</v>
       </c>
@@ -14019,7 +13988,7 @@
       </c>
       <c r="E563" s="9"/>
     </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="8" t="s">
         <v>67</v>
       </c>
@@ -14034,7 +14003,7 @@
       </c>
       <c r="E564" s="8"/>
     </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
         <v>71</v>
       </c>
@@ -14049,7 +14018,7 @@
       </c>
       <c r="E565" s="9"/>
     </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="8" t="s">
         <v>75</v>
       </c>
@@ -14064,7 +14033,7 @@
       </c>
       <c r="E566" s="8"/>
     </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
         <v>79</v>
       </c>
@@ -14079,7 +14048,7 @@
       </c>
       <c r="E567" s="9"/>
     </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="8" t="s">
         <v>83</v>
       </c>
@@ -14094,7 +14063,7 @@
       </c>
       <c r="E568" s="8"/>
     </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
         <v>87</v>
       </c>
@@ -14109,7 +14078,7 @@
       </c>
       <c r="E569" s="9"/>
     </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="8" t="s">
         <v>91</v>
       </c>
@@ -14124,7 +14093,7 @@
       </c>
       <c r="E570" s="8"/>
     </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
         <v>95</v>
       </c>
@@ -14139,7 +14108,7 @@
       </c>
       <c r="E571" s="9"/>
     </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="8" t="s">
         <v>99</v>
       </c>
@@ -14154,7 +14123,7 @@
       </c>
       <c r="E572" s="8"/>
     </row>
-    <row r="573" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
         <v>103</v>
       </c>
@@ -14169,7 +14138,7 @@
       </c>
       <c r="E573" s="9"/>
     </row>
-    <row r="574" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A574" s="8" t="s">
         <v>107</v>
       </c>
@@ -14184,7 +14153,7 @@
       </c>
       <c r="E574" s="8"/>
     </row>
-    <row r="575" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
         <v>111</v>
       </c>
@@ -14199,7 +14168,7 @@
       </c>
       <c r="E575" s="9"/>
     </row>
-    <row r="576" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A576" s="8" t="s">
         <v>115</v>
       </c>
@@ -14214,7 +14183,7 @@
       </c>
       <c r="E576" s="8"/>
     </row>
-    <row r="577" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A577" s="9" t="s">
         <v>119</v>
       </c>
@@ -14229,7 +14198,7 @@
       </c>
       <c r="E577" s="9"/>
     </row>
-    <row r="578" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A578" s="8" t="s">
         <v>123</v>
       </c>
@@ -14244,7 +14213,7 @@
       </c>
       <c r="E578" s="8"/>
     </row>
-    <row r="579" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
         <v>127</v>
       </c>
@@ -14259,7 +14228,7 @@
       </c>
       <c r="E579" s="9"/>
     </row>
-    <row r="580" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A580" s="8" t="s">
         <v>131</v>
       </c>
@@ -14274,7 +14243,7 @@
       </c>
       <c r="E580" s="8"/>
     </row>
-    <row r="581" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
         <v>135</v>
       </c>
@@ -14289,7 +14258,7 @@
       </c>
       <c r="E581" s="9"/>
     </row>
-    <row r="582" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A582" s="8" t="s">
         <v>139</v>
       </c>
@@ -14304,7 +14273,7 @@
       </c>
       <c r="E582" s="8"/>
     </row>
-    <row r="583" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
         <v>143</v>
       </c>
@@ -14319,7 +14288,7 @@
       </c>
       <c r="E583" s="9"/>
     </row>
-    <row r="584" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A584" s="8" t="s">
         <v>147</v>
       </c>
@@ -14334,25 +14303,25 @@
       </c>
       <c r="E584" s="8"/>
     </row>
-    <row r="585" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="19" t="s">
+    <row r="585" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="21" t="s">
         <v>1589</v>
       </c>
-      <c r="B585" s="19"/>
-      <c r="C585" s="19"/>
-      <c r="D585" s="19"/>
-      <c r="E585" s="19"/>
+      <c r="B585" s="21"/>
+      <c r="C585" s="21"/>
+      <c r="D585" s="21"/>
+      <c r="E585" s="21"/>
       <c r="F585" s="10"/>
     </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="21"/>
-      <c r="B586" s="21"/>
-      <c r="C586" s="21"/>
-      <c r="D586" s="21"/>
-      <c r="E586" s="21"/>
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="20"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="20"/>
+      <c r="D586" s="20"/>
+      <c r="E586" s="20"/>
       <c r="F586" s="10"/>
     </row>
-    <row r="588" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>0</v>
       </c>
@@ -14369,7 +14338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A589" s="8" t="s">
         <v>5</v>
       </c>
@@ -14384,7 +14353,7 @@
       </c>
       <c r="E589" s="8"/>
     </row>
-    <row r="590" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
         <v>9</v>
       </c>
@@ -14399,7 +14368,7 @@
       </c>
       <c r="E590" s="9"/>
     </row>
-    <row r="591" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A591" s="8" t="s">
         <v>13</v>
       </c>
@@ -14414,7 +14383,7 @@
       </c>
       <c r="E591" s="8"/>
     </row>
-    <row r="592" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
         <v>17</v>
       </c>
@@ -14429,7 +14398,7 @@
       </c>
       <c r="E592" s="9"/>
     </row>
-    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A593" s="8" t="s">
         <v>35</v>
       </c>
@@ -14444,7 +14413,7 @@
       </c>
       <c r="E593" s="8"/>
     </row>
-    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
         <v>39</v>
       </c>
@@ -14459,7 +14428,7 @@
       </c>
       <c r="E594" s="9"/>
     </row>
-    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A595" s="8" t="s">
         <v>43</v>
       </c>
@@ -14474,7 +14443,7 @@
       </c>
       <c r="E595" s="8"/>
     </row>
-    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
         <v>47</v>
       </c>
@@ -14489,7 +14458,7 @@
       </c>
       <c r="E596" s="9"/>
     </row>
-    <row r="597" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A597" s="8" t="s">
         <v>51</v>
       </c>
@@ -14504,7 +14473,7 @@
       </c>
       <c r="E597" s="8"/>
     </row>
-    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
         <v>55</v>
       </c>
@@ -14519,7 +14488,7 @@
       </c>
       <c r="E598" s="9"/>
     </row>
-    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A599" s="8" t="s">
         <v>59</v>
       </c>
@@ -14534,7 +14503,7 @@
       </c>
       <c r="E599" s="8"/>
     </row>
-    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
         <v>63</v>
       </c>
@@ -14549,7 +14518,7 @@
       </c>
       <c r="E600" s="9"/>
     </row>
-    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A601" s="8" t="s">
         <v>67</v>
       </c>
@@ -14564,7 +14533,7 @@
       </c>
       <c r="E601" s="8"/>
     </row>
-    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
         <v>71</v>
       </c>
@@ -14579,7 +14548,7 @@
       </c>
       <c r="E602" s="9"/>
     </row>
-    <row r="603" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="8" t="s">
         <v>75</v>
       </c>
@@ -14594,7 +14563,7 @@
       </c>
       <c r="E603" s="8"/>
     </row>
-    <row r="604" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
         <v>79</v>
       </c>
@@ -14609,7 +14578,7 @@
       </c>
       <c r="E604" s="9"/>
     </row>
-    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A605" s="8" t="s">
         <v>83</v>
       </c>
@@ -14624,7 +14593,7 @@
       </c>
       <c r="E605" s="8"/>
     </row>
-    <row r="606" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A606" s="9" t="s">
         <v>87</v>
       </c>
@@ -14639,7 +14608,7 @@
       </c>
       <c r="E606" s="9"/>
     </row>
-    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A607" s="8" t="s">
         <v>91</v>
       </c>
@@ -14654,7 +14623,7 @@
       </c>
       <c r="E607" s="8"/>
     </row>
-    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A608" s="9" t="s">
         <v>95</v>
       </c>
@@ -14669,7 +14638,7 @@
       </c>
       <c r="E608" s="9"/>
     </row>
-    <row r="609" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A609" s="8" t="s">
         <v>99</v>
       </c>
@@ -14684,7 +14653,7 @@
       </c>
       <c r="E609" s="8"/>
     </row>
-    <row r="610" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A610" s="9" t="s">
         <v>103</v>
       </c>
@@ -14699,7 +14668,7 @@
       </c>
       <c r="E610" s="9"/>
     </row>
-    <row r="611" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A611" s="8" t="s">
         <v>107</v>
       </c>
@@ -14714,7 +14683,7 @@
       </c>
       <c r="E611" s="8"/>
     </row>
-    <row r="612" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A612" s="9" t="s">
         <v>111</v>
       </c>
@@ -14729,7 +14698,7 @@
       </c>
       <c r="E612" s="9"/>
     </row>
-    <row r="613" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A613" s="8" t="s">
         <v>115</v>
       </c>
@@ -14744,7 +14713,7 @@
       </c>
       <c r="E613" s="8"/>
     </row>
-    <row r="614" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A614" s="9" t="s">
         <v>119</v>
       </c>
@@ -14759,7 +14728,7 @@
       </c>
       <c r="E614" s="9"/>
     </row>
-    <row r="615" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A615" s="8" t="s">
         <v>123</v>
       </c>
@@ -14774,7 +14743,7 @@
       </c>
       <c r="E615" s="8"/>
     </row>
-    <row r="616" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A616" s="9" t="s">
         <v>127</v>
       </c>
@@ -14789,7 +14758,7 @@
       </c>
       <c r="E616" s="9"/>
     </row>
-    <row r="617" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A617" s="8" t="s">
         <v>131</v>
       </c>
@@ -14804,7 +14773,7 @@
       </c>
       <c r="E617" s="8"/>
     </row>
-    <row r="618" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A618" s="9" t="s">
         <v>135</v>
       </c>
@@ -14819,7 +14788,7 @@
       </c>
       <c r="E618" s="9"/>
     </row>
-    <row r="619" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A619" s="8" t="s">
         <v>139</v>
       </c>
@@ -14834,7 +14803,7 @@
       </c>
       <c r="E619" s="8"/>
     </row>
-    <row r="620" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A620" s="9" t="s">
         <v>143</v>
       </c>
@@ -14849,7 +14818,7 @@
       </c>
       <c r="E620" s="9"/>
     </row>
-    <row r="621" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A621" s="8" t="s">
         <v>147</v>
       </c>
@@ -14864,7 +14833,7 @@
       </c>
       <c r="E621" s="8"/>
     </row>
-    <row r="622" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A622" s="9" t="s">
         <v>151</v>
       </c>
@@ -14879,7 +14848,7 @@
       </c>
       <c r="E622" s="9"/>
     </row>
-    <row r="623" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A623" s="8" t="s">
         <v>155</v>
       </c>
@@ -14894,7 +14863,7 @@
       </c>
       <c r="E623" s="8"/>
     </row>
-    <row r="624" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A624" s="9" t="s">
         <v>159</v>
       </c>
@@ -14909,7 +14878,7 @@
       </c>
       <c r="E624" s="9"/>
     </row>
-    <row r="625" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A625" s="8" t="s">
         <v>163</v>
       </c>
@@ -14924,7 +14893,7 @@
       </c>
       <c r="E625" s="8"/>
     </row>
-    <row r="626" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A626" s="9" t="s">
         <v>167</v>
       </c>
@@ -14939,7 +14908,7 @@
       </c>
       <c r="E626" s="9"/>
     </row>
-    <row r="627" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A627" s="8" t="s">
         <v>171</v>
       </c>
@@ -14954,7 +14923,7 @@
       </c>
       <c r="E627" s="8"/>
     </row>
-    <row r="628" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A628" s="9" t="s">
         <v>175</v>
       </c>
@@ -14969,7 +14938,7 @@
       </c>
       <c r="E628" s="9"/>
     </row>
-    <row r="629" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A629" s="8" t="s">
         <v>179</v>
       </c>
@@ -14984,7 +14953,7 @@
       </c>
       <c r="E629" s="8"/>
     </row>
-    <row r="630" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A630" s="9" t="s">
         <v>183</v>
       </c>
@@ -14999,7 +14968,7 @@
       </c>
       <c r="E630" s="9"/>
     </row>
-    <row r="631" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A631" s="8" t="s">
         <v>187</v>
       </c>
@@ -15014,25 +14983,25 @@
       </c>
       <c r="E631" s="8"/>
     </row>
-    <row r="632" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A632" s="19" t="s">
+    <row r="632" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="21" t="s">
         <v>1722</v>
       </c>
-      <c r="B632" s="19"/>
-      <c r="C632" s="19"/>
-      <c r="D632" s="19"/>
-      <c r="E632" s="19"/>
+      <c r="B632" s="21"/>
+      <c r="C632" s="21"/>
+      <c r="D632" s="21"/>
+      <c r="E632" s="21"/>
       <c r="F632" s="10"/>
     </row>
-    <row r="633" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="22"/>
-      <c r="B633" s="22"/>
-      <c r="C633" s="22"/>
-      <c r="D633" s="22"/>
-      <c r="E633" s="22"/>
+    <row r="633" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="23"/>
+      <c r="B633" s="23"/>
+      <c r="C633" s="23"/>
+      <c r="D633" s="23"/>
+      <c r="E633" s="23"/>
       <c r="F633" s="10"/>
     </row>
-    <row r="634" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A634" s="8" t="s">
         <v>5</v>
       </c>
@@ -15047,7 +15016,7 @@
       </c>
       <c r="E634" s="8"/>
     </row>
-    <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A635" s="9" t="s">
         <v>9</v>
       </c>
@@ -15062,7 +15031,7 @@
       </c>
       <c r="E635" s="9"/>
     </row>
-    <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A636" s="8" t="s">
         <v>13</v>
       </c>
@@ -15077,25 +15046,25 @@
       </c>
       <c r="E636" s="8"/>
     </row>
-    <row r="638" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A638" s="21" t="s">
+    <row r="638" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="20" t="s">
         <v>1729</v>
       </c>
-      <c r="B638" s="21"/>
-      <c r="C638" s="21"/>
-      <c r="D638" s="21"/>
-      <c r="E638" s="21"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="20"/>
+      <c r="D638" s="20"/>
+      <c r="E638" s="20"/>
       <c r="F638" s="10"/>
     </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="20"/>
-      <c r="B639" s="20"/>
-      <c r="C639" s="20"/>
-      <c r="D639" s="20"/>
-      <c r="E639" s="20"/>
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="22"/>
+      <c r="B639" s="22"/>
+      <c r="C639" s="22"/>
+      <c r="D639" s="22"/>
+      <c r="E639" s="22"/>
       <c r="F639" s="10"/>
     </row>
-    <row r="640" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>0</v>
       </c>
@@ -15112,7 +15081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A641" s="8" t="s">
         <v>5</v>
       </c>
@@ -15127,7 +15096,7 @@
       </c>
       <c r="E641" s="8"/>
     </row>
-    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A642" s="9" t="s">
         <v>9</v>
       </c>
@@ -15142,7 +15111,7 @@
       </c>
       <c r="E642" s="9"/>
     </row>
-    <row r="643" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A643" s="8" t="s">
         <v>13</v>
       </c>
@@ -15157,7 +15126,7 @@
       </c>
       <c r="E643" s="8"/>
     </row>
-    <row r="644" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A644" s="9" t="s">
         <v>17</v>
       </c>
@@ -15172,7 +15141,7 @@
       </c>
       <c r="E644" s="9"/>
     </row>
-    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A645" s="8" t="s">
         <v>35</v>
       </c>
@@ -15187,7 +15156,7 @@
       </c>
       <c r="E645" s="8"/>
     </row>
-    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A646" s="9" t="s">
         <v>39</v>
       </c>
@@ -15202,7 +15171,7 @@
       </c>
       <c r="E646" s="9"/>
     </row>
-    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A647" s="9">
         <v>7</v>
       </c>
@@ -15217,7 +15186,7 @@
       </c>
       <c r="E647" s="9"/>
     </row>
-    <row r="648" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A648" s="9">
         <v>8</v>
       </c>
@@ -15232,7 +15201,7 @@
       </c>
       <c r="E648" s="9"/>
     </row>
-    <row r="649" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A649" s="9">
         <v>9</v>
       </c>
@@ -15247,7 +15216,7 @@
       </c>
       <c r="E649" s="9"/>
     </row>
-    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A650" s="9">
         <v>10</v>
       </c>
@@ -15262,7 +15231,7 @@
       </c>
       <c r="E650" s="9"/>
     </row>
-    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A651" s="9">
         <v>11</v>
       </c>
@@ -15277,7 +15246,7 @@
       </c>
       <c r="E651" s="9"/>
     </row>
-    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A652" s="8">
         <v>12</v>
       </c>
@@ -15292,7 +15261,7 @@
       </c>
       <c r="E652" s="8"/>
     </row>
-    <row r="653" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A653" s="9">
         <v>13</v>
       </c>
@@ -15309,16 +15278,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A280:E281"/>
     <mergeCell ref="A428:E429"/>
     <mergeCell ref="A436:E437"/>
@@ -15328,12 +15287,45 @@
     <mergeCell ref="A527:E528"/>
     <mergeCell ref="A548:E549"/>
     <mergeCell ref="A585:E586"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{C87E31DC-6783-4D13-B1B6-9791EFACBB15}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{FE9AA1C9-7430-40B5-BF2A-F3754E0EA79A}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C29" r:id="rId21"/>
+    <hyperlink ref="C30" r:id="rId22"/>
+    <hyperlink ref="C31" r:id="rId23"/>
+    <hyperlink ref="C32" r:id="rId24"/>
+    <hyperlink ref="C33" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="1759">
   <si>
     <t>П/П</t>
   </si>
@@ -5282,6 +5282,15 @@
   </si>
   <si>
     <t>6739 СХ 89</t>
+  </si>
+  <si>
+    <t>Вирт</t>
+  </si>
+  <si>
+    <t>Серийный</t>
+  </si>
+  <si>
+    <t>DENYO-480ESW (80821)</t>
   </si>
 </sst>
 </file>
@@ -5394,7 +5403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5511,12 +5520,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5563,12 +5639,13 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5581,14 +5658,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5895,10 +6005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F653"/>
+  <dimension ref="A1:N654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -5912,21 +6022,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5943,7 +6053,7 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5957,13 +6067,13 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
@@ -5972,13 +6082,13 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="35" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4"/>
@@ -5987,13 +6097,13 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3"/>
@@ -6002,33 +6112,33 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6038,7 +6148,7 @@
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -6052,13 +6162,13 @@
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="8"/>
@@ -6068,13 +6178,13 @@
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="9"/>
@@ -6084,13 +6194,13 @@
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="8"/>
@@ -6100,13 +6210,13 @@
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="9"/>
@@ -6116,13 +6226,13 @@
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="8"/>
@@ -6132,13 +6242,13 @@
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="9"/>
@@ -6148,13 +6258,13 @@
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="8"/>
@@ -6164,13 +6274,13 @@
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="28" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="9"/>
@@ -6180,13 +6290,13 @@
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="8"/>
@@ -6196,13 +6306,13 @@
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="9"/>
@@ -6212,13 +6322,13 @@
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="8"/>
@@ -6228,13 +6338,13 @@
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="9"/>
@@ -6244,13 +6354,13 @@
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="8"/>
@@ -6260,13 +6370,13 @@
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="28" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="9"/>
@@ -6276,13 +6386,13 @@
       <c r="A27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="27" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="8"/>
@@ -6292,13 +6402,13 @@
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="9"/>
@@ -6308,13 +6418,13 @@
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="8"/>
@@ -6324,13 +6434,13 @@
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="9"/>
@@ -6340,13 +6450,13 @@
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="8"/>
@@ -6356,13 +6466,13 @@
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="9"/>
@@ -6372,13 +6482,13 @@
       <c r="A33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="8"/>
@@ -6391,7 +6501,7 @@
       <c r="B34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="30" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -6765,21 +6875,21 @@
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="10"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6905,21 +7015,21 @@
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
       <c r="F71" s="10"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7456,7 +7566,7 @@
       <c r="B108" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -7555,21 +7665,21 @@
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="10"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7830,21 +7940,21 @@
       <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
       <c r="F136" s="10"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7970,21 +8080,21 @@
       <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
       <c r="F147" s="10"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8131,7 +8241,7 @@
       <c r="B158" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="18" t="s">
         <v>444</v>
       </c>
       <c r="D158" s="8" t="s">
@@ -8169,7 +8279,7 @@
       </c>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8184,7 +8294,7 @@
       </c>
       <c r="E161" s="9"/>
     </row>
-    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>67</v>
       </c>
@@ -8199,7 +8309,7 @@
       </c>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8214,7 +8324,7 @@
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>75</v>
       </c>
@@ -8229,7 +8339,7 @@
       </c>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8244,7 +8354,7 @@
       </c>
       <c r="E165" s="9"/>
     </row>
-    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>83</v>
       </c>
@@ -8258,8 +8368,14 @@
         <v>469</v>
       </c>
       <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="M166" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N166" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8273,8 +8389,14 @@
         <v>472</v>
       </c>
       <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="M167">
+        <v>2100551</v>
+      </c>
+      <c r="N167">
+        <v>2100551</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>91</v>
       </c>
@@ -8289,7 +8411,7 @@
       </c>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>95</v>
       </c>
@@ -8304,7 +8426,7 @@
       </c>
       <c r="E169" s="9"/>
     </row>
-    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>99</v>
       </c>
@@ -8319,7 +8441,7 @@
       </c>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>103</v>
       </c>
@@ -8334,7 +8456,7 @@
       </c>
       <c r="E171" s="9"/>
     </row>
-    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>107</v>
       </c>
@@ -8349,7 +8471,7 @@
       </c>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8364,7 +8486,7 @@
       </c>
       <c r="E173" s="9"/>
     </row>
-    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>115</v>
       </c>
@@ -8379,14 +8501,14 @@
       </c>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
     </row>
-    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -8394,21 +8516,21 @@
       <c r="E176" s="11"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
       <c r="F177" s="10"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
       <c r="F178" s="10"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8540,7 +8662,7 @@
       <c r="B188" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="19" t="s">
         <v>517</v>
       </c>
       <c r="D188" s="9" t="s">
@@ -8549,21 +8671,21 @@
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="21"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="20"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="20"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
       <c r="F190" s="10"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8989,21 +9111,21 @@
       <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="21" t="s">
+      <c r="A220" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
       <c r="F220" s="10"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="20"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
+      <c r="A221" s="21"/>
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
       <c r="F221" s="10"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9864,21 +9986,21 @@
       <c r="E279" s="9"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="21"/>
+      <c r="B280" s="22"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22"/>
       <c r="F280" s="10"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="22"/>
-      <c r="B281" s="22"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
-      <c r="E281" s="22"/>
+      <c r="A281" s="23"/>
+      <c r="B281" s="23"/>
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="23"/>
       <c r="F281" s="10"/>
     </row>
     <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -10724,4569 +10846,4584 @@
       <c r="E337" s="8"/>
     </row>
     <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="8">
+        <v>55</v>
+      </c>
+      <c r="B338" s="8">
+        <v>2100551</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E338" s="8"/>
+    </row>
+    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A339" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B339" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="C338" s="9" t="s">
+      <c r="C339" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="D338" s="9" t="s">
+      <c r="D339" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E338" s="9"/>
-    </row>
-    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A339" s="8" t="s">
+      <c r="E339" s="9"/>
+    </row>
+    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A340" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="B339" s="8" t="s">
+      <c r="B340" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="C339" s="8" t="s">
+      <c r="C340" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="D339" s="8" t="s">
+      <c r="D340" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E339" s="8"/>
-    </row>
-    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A340" s="9" t="s">
+      <c r="E340" s="8"/>
+    </row>
+    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A341" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B341" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C341" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="D340" s="9" t="s">
+      <c r="D341" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E340" s="9"/>
-    </row>
-    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A341" s="8" t="s">
+      <c r="E341" s="9"/>
+    </row>
+    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A342" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="B342" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="C341" s="8" t="s">
+      <c r="C342" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="D341" s="8" t="s">
+      <c r="D342" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E341" s="8"/>
-    </row>
-    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A342" s="9" t="s">
+      <c r="E342" s="8"/>
+    </row>
+    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A343" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B343" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C343" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="D342" s="9" t="s">
+      <c r="D343" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E342" s="9"/>
-    </row>
-    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A343" s="8" t="s">
+      <c r="E343" s="9"/>
+    </row>
+    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A344" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B343" s="8" t="s">
+      <c r="B344" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="C344" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="D343" s="8" t="s">
+      <c r="D344" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E343" s="8"/>
-    </row>
-    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A344" s="9" t="s">
+      <c r="E344" s="8"/>
+    </row>
+    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A345" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B345" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="C344" s="9" t="s">
+      <c r="C345" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="D344" s="9" t="s">
+      <c r="D345" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E344" s="9"/>
-    </row>
-    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A345" s="8" t="s">
+      <c r="E345" s="9"/>
+    </row>
+    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A346" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="B345" s="8" t="s">
+      <c r="B346" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="C345" s="8" t="s">
+      <c r="C346" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="D345" s="8" t="s">
+      <c r="D346" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E345" s="8"/>
-    </row>
-    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A346" s="9" t="s">
+      <c r="E346" s="8"/>
+    </row>
+    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A347" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B347" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C347" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="D346" s="9" t="s">
+      <c r="D347" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E346" s="9"/>
-    </row>
-    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A347" s="8" t="s">
+      <c r="E347" s="9"/>
+    </row>
+    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A348" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="B347" s="8" t="s">
+      <c r="B348" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="C347" s="8" t="s">
+      <c r="C348" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="D347" s="8" t="s">
+      <c r="D348" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E347" s="8"/>
-    </row>
-    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A348" s="9" t="s">
+      <c r="E348" s="8"/>
+    </row>
+    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A349" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B349" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="C348" s="9" t="s">
+      <c r="C349" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="D348" s="9" t="s">
+      <c r="D349" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E348" s="9"/>
-    </row>
-    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A349" s="8" t="s">
+      <c r="E349" s="9"/>
+    </row>
+    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A350" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="B349" s="8" t="s">
+      <c r="B350" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="C349" s="8" t="s">
+      <c r="C350" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="D349" s="8" t="s">
+      <c r="D350" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E349" s="8"/>
-    </row>
-    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A350" s="9" t="s">
+      <c r="E350" s="8"/>
+    </row>
+    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A351" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B351" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="C351" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="D350" s="9" t="s">
+      <c r="D351" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E350" s="9"/>
-    </row>
-    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A351" s="8" t="s">
+      <c r="E351" s="9"/>
+    </row>
+    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A352" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B352" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="C351" s="8" t="s">
+      <c r="C352" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="D351" s="8" t="s">
+      <c r="D352" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E351" s="8"/>
-    </row>
-    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A352" s="9" t="s">
+      <c r="E352" s="8"/>
+    </row>
+    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A353" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B353" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="C352" s="9" t="s">
+      <c r="C353" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="D352" s="9" t="s">
+      <c r="D353" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E352" s="9"/>
-    </row>
-    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A353" s="8" t="s">
+      <c r="E353" s="9"/>
+    </row>
+    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A354" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="B353" s="8" t="s">
+      <c r="B354" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="C353" s="8" t="s">
+      <c r="C354" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="D353" s="8" t="s">
+      <c r="D354" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E353" s="8"/>
-    </row>
-    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A354" s="9" t="s">
+      <c r="E354" s="8"/>
+    </row>
+    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A355" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B355" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="C354" s="9" t="s">
+      <c r="C355" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="D354" s="9" t="s">
+      <c r="D355" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E354" s="9"/>
-    </row>
-    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A355" s="8" t="s">
+      <c r="E355" s="9"/>
+    </row>
+    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A356" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="B356" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="C355" s="8" t="s">
+      <c r="C356" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="D355" s="8" t="s">
+      <c r="D356" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E355" s="8"/>
-    </row>
-    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A356" s="9" t="s">
+      <c r="E356" s="8"/>
+    </row>
+    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A357" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B357" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C357" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="D356" s="9" t="s">
+      <c r="D357" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E356" s="9"/>
-    </row>
-    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A357" s="8" t="s">
+      <c r="E357" s="9"/>
+    </row>
+    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A358" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="B357" s="8" t="s">
+      <c r="B358" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="C357" s="8" t="s">
+      <c r="C358" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="D357" s="8" t="s">
+      <c r="D358" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E357" s="8"/>
-    </row>
-    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A358" s="9" t="s">
+      <c r="E358" s="8"/>
+    </row>
+    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A359" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B359" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="C359" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="D358" s="9" t="s">
+      <c r="D359" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E358" s="9"/>
-    </row>
-    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A359" s="8" t="s">
+      <c r="E359" s="9"/>
+    </row>
+    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A360" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="B360" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="C359" s="8" t="s">
+      <c r="C360" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="D359" s="8" t="s">
+      <c r="D360" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E359" s="8"/>
-    </row>
-    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A360" s="9" t="s">
+      <c r="E360" s="8"/>
+    </row>
+    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A361" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B361" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="C360" s="9" t="s">
+      <c r="C361" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="D360" s="9" t="s">
+      <c r="D361" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E360" s="9"/>
-    </row>
-    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A361" s="8" t="s">
+      <c r="E361" s="9"/>
+    </row>
+    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A362" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="B362" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="C361" s="8" t="s">
+      <c r="C362" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="D361" s="8" t="s">
+      <c r="D362" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E361" s="8"/>
-    </row>
-    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A362" s="9" t="s">
+      <c r="E362" s="8"/>
+    </row>
+    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A363" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B363" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C363" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="D362" s="9" t="s">
+      <c r="D363" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E362" s="9"/>
-    </row>
-    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A363" s="8" t="s">
+      <c r="E363" s="9"/>
+    </row>
+    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A364" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="B363" s="8" t="s">
+      <c r="B364" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="C363" s="8" t="s">
+      <c r="C364" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="D363" s="8" t="s">
+      <c r="D364" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E363" s="8"/>
-    </row>
-    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A364" s="9" t="s">
+      <c r="E364" s="8"/>
+    </row>
+    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A365" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B365" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="C365" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="D364" s="9" t="s">
+      <c r="D365" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E364" s="9"/>
-    </row>
-    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A365" s="8" t="s">
+      <c r="E365" s="9"/>
+    </row>
+    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A366" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="B365" s="8" t="s">
+      <c r="B366" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="C365" s="8" t="s">
+      <c r="C366" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="D365" s="8" t="s">
+      <c r="D366" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E365" s="8"/>
-    </row>
-    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A366" s="9" t="s">
+      <c r="E366" s="8"/>
+    </row>
+    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A367" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B367" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="C366" s="9" t="s">
+      <c r="C367" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="D366" s="9" t="s">
+      <c r="D367" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E366" s="9"/>
-    </row>
-    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A367" s="8" t="s">
+      <c r="E367" s="9"/>
+    </row>
+    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A368" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B368" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C367" s="8" t="s">
+      <c r="C368" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="D367" s="8" t="s">
+      <c r="D368" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E367" s="8"/>
-    </row>
-    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A368" s="9" t="s">
+      <c r="E368" s="8"/>
+    </row>
+    <row r="369" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A369" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B369" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="C368" s="9" t="s">
+      <c r="C369" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="D368" s="9" t="s">
+      <c r="D369" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E368" s="9"/>
-    </row>
-    <row r="369" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A369" s="8" t="s">
+      <c r="E369" s="9"/>
+    </row>
+    <row r="370" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A370" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="B370" s="8" t="s">
         <v>1719</v>
       </c>
-      <c r="C369" s="8" t="s">
+      <c r="C370" s="8" t="s">
         <v>1720</v>
       </c>
-      <c r="D369" s="8" t="s">
+      <c r="D370" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E369" s="8"/>
-    </row>
-    <row r="370" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A370" s="9" t="s">
+      <c r="E370" s="8"/>
+    </row>
+    <row r="371" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A371" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B371" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="C370" s="9" t="s">
+      <c r="C371" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="D370" s="9" t="s">
+      <c r="D371" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E370" s="9"/>
-    </row>
-    <row r="371" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A371" s="8" t="s">
+      <c r="E371" s="9"/>
+    </row>
+    <row r="372" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A372" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="B372" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="C371" s="8" t="s">
+      <c r="C372" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="D371" s="8" t="s">
+      <c r="D372" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E371" s="8"/>
-    </row>
-    <row r="372" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A372" s="9" t="s">
+      <c r="E372" s="8"/>
+    </row>
+    <row r="373" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A373" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B373" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="C372" s="9" t="s">
+      <c r="C373" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="D372" s="9" t="s">
+      <c r="D373" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="E372" s="9"/>
-    </row>
-    <row r="373" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A373" s="8" t="s">
+      <c r="E373" s="9"/>
+    </row>
+    <row r="374" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A374" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="B373" s="8" t="s">
+      <c r="B374" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="C373" s="8" t="s">
+      <c r="C374" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="D373" s="8" t="s">
+      <c r="D374" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="E373" s="8"/>
-    </row>
-    <row r="374" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A374" s="9" t="s">
+      <c r="E374" s="8"/>
+    </row>
+    <row r="375" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A375" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B375" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C375" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="D374" s="9" t="s">
+      <c r="D375" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="E374" s="9"/>
-    </row>
-    <row r="375" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A375" s="8" t="s">
+      <c r="E375" s="9"/>
+    </row>
+    <row r="376" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A376" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="B375" s="8" t="s">
+      <c r="B376" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="C375" s="8" t="s">
+      <c r="C376" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="D375" s="8" t="s">
+      <c r="D376" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="E375" s="8"/>
-    </row>
-    <row r="376" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A376" s="9" t="s">
+      <c r="E376" s="8"/>
+    </row>
+    <row r="377" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A377" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B377" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="C376" s="9" t="s">
+      <c r="C377" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="D376" s="9" t="s">
+      <c r="D377" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="E376" s="9"/>
-    </row>
-    <row r="377" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A377" s="8" t="s">
+      <c r="E377" s="9"/>
+    </row>
+    <row r="378" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A378" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="B377" s="8" t="s">
+      <c r="B378" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="C378" s="18" t="s">
         <v>1012</v>
       </c>
-      <c r="D377" s="8" t="s">
+      <c r="D378" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="E377" s="8"/>
-    </row>
-    <row r="378" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A378" s="9" t="s">
+      <c r="E378" s="8"/>
+    </row>
+    <row r="379" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A379" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B379" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C379" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="D378" s="9" t="s">
+      <c r="D379" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="E378" s="9"/>
-    </row>
-    <row r="379" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A379" s="8" t="s">
+      <c r="E379" s="9"/>
+    </row>
+    <row r="380" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A380" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B379" s="8" t="s">
+      <c r="B380" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="C379" s="8" t="s">
+      <c r="C380" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="D379" s="8" t="s">
+      <c r="D380" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="E379" s="8"/>
-    </row>
-    <row r="380" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A380" s="9" t="s">
+      <c r="E380" s="8"/>
+    </row>
+    <row r="381" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A381" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B381" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="C380" s="9" t="s">
+      <c r="C381" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="D380" s="9" t="s">
+      <c r="D381" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E380" s="9"/>
-    </row>
-    <row r="381" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A381" s="8" t="s">
+      <c r="E381" s="9"/>
+    </row>
+    <row r="382" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A382" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="B381" s="8" t="s">
+      <c r="B382" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="C381" s="8" t="s">
+      <c r="C382" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="D381" s="8" t="s">
+      <c r="D382" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E381" s="8"/>
-    </row>
-    <row r="382" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A382" s="9" t="s">
+      <c r="E382" s="8"/>
+    </row>
+    <row r="383" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A383" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B383" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="C382" s="9" t="s">
+      <c r="C383" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="D382" s="9" t="s">
+      <c r="D383" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E382" s="9"/>
-    </row>
-    <row r="383" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A383" s="8" t="s">
+      <c r="E383" s="9"/>
+    </row>
+    <row r="384" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A384" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="B384" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="C383" s="8" t="s">
+      <c r="C384" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="D383" s="8" t="s">
+      <c r="D384" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E383" s="8"/>
-    </row>
-    <row r="384" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A384" s="9" t="s">
+      <c r="E384" s="8"/>
+    </row>
+    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A385" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B385" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C385" s="9" t="s">
         <v>1036</v>
       </c>
-      <c r="D384" s="9" t="s">
+      <c r="D385" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E384" s="9"/>
-    </row>
-    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A385" s="8" t="s">
+      <c r="E385" s="9"/>
+    </row>
+    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A386" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="B386" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="C385" s="8" t="s">
+      <c r="C386" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="D385" s="8" t="s">
+      <c r="D386" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E385" s="8"/>
-    </row>
-    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A386" s="9" t="s">
+      <c r="E386" s="8"/>
+    </row>
+    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A387" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B387" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="C386" s="9" t="s">
+      <c r="C387" s="19" t="s">
         <v>1042</v>
       </c>
-      <c r="D386" s="9" t="s">
+      <c r="D387" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E386" s="9"/>
-    </row>
-    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A387" s="8" t="s">
+      <c r="E387" s="9"/>
+    </row>
+    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A388" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="B387" s="8" t="s">
+      <c r="B388" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="C387" s="8" t="s">
+      <c r="C388" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="D387" s="8" t="s">
+      <c r="D388" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E387" s="8"/>
-    </row>
-    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A388" s="9" t="s">
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A389" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B389" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C389" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="D388" s="9" t="s">
+      <c r="D389" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E388" s="9"/>
-    </row>
-    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A389" s="8" t="s">
+      <c r="E389" s="9"/>
+    </row>
+    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A390" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="B390" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="C389" s="8" t="s">
+      <c r="C390" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="D389" s="8" t="s">
+      <c r="D390" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E389" s="8"/>
-    </row>
-    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A390" s="9" t="s">
+      <c r="E390" s="8"/>
+    </row>
+    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A391" s="9" t="s">
         <v>1055</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B391" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="C390" s="9" t="s">
+      <c r="C391" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="D390" s="9" t="s">
+      <c r="D391" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E390" s="9"/>
-    </row>
-    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A391" s="8" t="s">
+      <c r="E391" s="9"/>
+    </row>
+    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A392" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B392" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="C391" s="8" t="s">
+      <c r="C392" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="D391" s="8" t="s">
+      <c r="D392" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E391" s="8"/>
-    </row>
-    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A392" s="9" t="s">
+      <c r="E392" s="8"/>
+    </row>
+    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A393" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B393" s="9" t="s">
         <v>1059</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C393" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="D392" s="9" t="s">
+      <c r="D393" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E392" s="9"/>
-    </row>
-    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A393" s="8" t="s">
+      <c r="E393" s="9"/>
+    </row>
+    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A394" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="B394" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="C393" s="8" t="s">
+      <c r="C394" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="D393" s="8" t="s">
+      <c r="D394" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E393" s="8"/>
-    </row>
-    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A394" s="9" t="s">
+      <c r="E394" s="8"/>
+    </row>
+    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A395" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B395" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C394" s="9" t="s">
+      <c r="C395" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="D394" s="9" t="s">
+      <c r="D395" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E394" s="9"/>
-    </row>
-    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A395" s="8" t="s">
+      <c r="E395" s="9"/>
+    </row>
+    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A396" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="B396" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="C395" s="8" t="s">
+      <c r="C396" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="D395" s="8" t="s">
+      <c r="D396" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E395" s="8"/>
-    </row>
-    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A396" s="9" t="s">
+      <c r="E396" s="8"/>
+    </row>
+    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A397" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B397" s="9" t="s">
         <v>1071</v>
       </c>
-      <c r="C396" s="9" t="s">
+      <c r="C397" s="9" t="s">
         <v>1072</v>
       </c>
-      <c r="D396" s="9" t="s">
+      <c r="D397" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E396" s="9"/>
-    </row>
-    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A397" s="8" t="s">
+      <c r="E397" s="9"/>
+    </row>
+    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A398" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B398" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="C397" s="8" t="s">
+      <c r="C398" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="D397" s="8" t="s">
+      <c r="D398" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E397" s="8"/>
-    </row>
-    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A398" s="9" t="s">
+      <c r="E398" s="8"/>
+    </row>
+    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A399" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B399" s="9" t="s">
         <v>1077</v>
       </c>
-      <c r="C398" s="9" t="s">
+      <c r="C399" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="D398" s="9" t="s">
+      <c r="D399" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E398" s="9"/>
-    </row>
-    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A399" s="8" t="s">
+      <c r="E399" s="9"/>
+    </row>
+    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A400" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B400" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="C399" s="8" t="s">
+      <c r="C400" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="D399" s="8" t="s">
+      <c r="D400" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E399" s="8"/>
-    </row>
-    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A400" s="9" t="s">
+      <c r="E400" s="8"/>
+    </row>
+    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A401" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B401" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="C400" s="9" t="s">
+      <c r="C401" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="D400" s="9" t="s">
+      <c r="D401" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E400" s="9"/>
-    </row>
-    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A401" s="8" t="s">
+      <c r="E401" s="9"/>
+    </row>
+    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A402" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="B401" s="8" t="s">
+      <c r="B402" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="C401" s="8" t="s">
+      <c r="C402" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="D401" s="8" t="s">
+      <c r="D402" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E401" s="8"/>
-    </row>
-    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A402" s="9" t="s">
+      <c r="E402" s="8"/>
+    </row>
+    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A403" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B403" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="C402" s="9" t="s">
+      <c r="C403" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="D402" s="9" t="s">
+      <c r="D403" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E402" s="9"/>
-    </row>
-    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A403" s="8" t="s">
+      <c r="E403" s="9"/>
+    </row>
+    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A404" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="B404" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="C403" s="8" t="s">
+      <c r="C404" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="D403" s="8" t="s">
+      <c r="D404" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E403" s="8"/>
-    </row>
-    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A404" s="9" t="s">
+      <c r="E404" s="8"/>
+    </row>
+    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A405" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B405" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="C404" s="9" t="s">
+      <c r="C405" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="D404" s="9" t="s">
+      <c r="D405" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="E404" s="9"/>
-    </row>
-    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A405" s="8" t="s">
+      <c r="E405" s="9"/>
+    </row>
+    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A406" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="B405" s="8" t="s">
+      <c r="B406" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="C405" s="8" t="s">
+      <c r="C406" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="D405" s="8" t="s">
+      <c r="D406" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="E405" s="8"/>
-    </row>
-    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A406" s="9" t="s">
+      <c r="E406" s="8"/>
+    </row>
+    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A407" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B407" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="C406" s="9" t="s">
+      <c r="C407" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="D406" s="9" t="s">
+      <c r="D407" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E406" s="9"/>
-    </row>
-    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A407" s="8" t="s">
+      <c r="E407" s="9"/>
+    </row>
+    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A408" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="B407" s="8" t="s">
+      <c r="B408" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="C407" s="8" t="s">
+      <c r="C408" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="D407" s="8" t="s">
+      <c r="D408" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E407" s="8"/>
-    </row>
-    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A408" s="9" t="s">
+      <c r="E408" s="8"/>
+    </row>
+    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A409" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B409" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="C408" s="9" t="s">
+      <c r="C409" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="D408" s="9" t="s">
+      <c r="D409" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E408" s="9"/>
-    </row>
-    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A409" s="8" t="s">
+      <c r="E409" s="9"/>
+    </row>
+    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A410" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="B409" s="8" t="s">
+      <c r="B410" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C409" s="8" t="s">
+      <c r="C410" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="D409" s="8" t="s">
+      <c r="D410" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E409" s="8"/>
-    </row>
-    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A410" s="9" t="s">
+      <c r="E410" s="8"/>
+    </row>
+    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A411" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B411" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C411" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="D410" s="9" t="s">
+      <c r="D411" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E410" s="9"/>
-    </row>
-    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A411" s="8" t="s">
+      <c r="E411" s="9"/>
+    </row>
+    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A412" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="B411" s="8" t="s">
+      <c r="B412" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="C411" s="8" t="s">
+      <c r="C412" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="D411" s="8" t="s">
+      <c r="D412" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E411" s="8"/>
-    </row>
-    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A412" s="9" t="s">
+      <c r="E412" s="8"/>
+    </row>
+    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A413" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B413" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="C412" s="9" t="s">
+      <c r="C413" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="D412" s="9" t="s">
+      <c r="D413" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E412" s="9"/>
-    </row>
-    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A413" s="8" t="s">
+      <c r="E413" s="9"/>
+    </row>
+    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A414" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="B413" s="8" t="s">
+      <c r="B414" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="C413" s="8" t="s">
+      <c r="C414" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="D413" s="8" t="s">
+      <c r="D414" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E413" s="8"/>
-    </row>
-    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A414" s="9" t="s">
+      <c r="E414" s="8"/>
+    </row>
+    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A415" s="9" t="s">
         <v>1128</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B415" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="C414" s="9" t="s">
+      <c r="C415" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="D414" s="9" t="s">
+      <c r="D415" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E414" s="9"/>
-    </row>
-    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A415" s="8" t="s">
+      <c r="E415" s="9"/>
+    </row>
+    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A416" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B416" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="C415" s="8" t="s">
+      <c r="C416" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="D415" s="8" t="s">
+      <c r="D416" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E415" s="8"/>
-    </row>
-    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A416" s="9" t="s">
+      <c r="E416" s="8"/>
+    </row>
+    <row r="417" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A417" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B417" s="9" t="s">
         <v>1132</v>
       </c>
-      <c r="C416" s="9" t="s">
+      <c r="C417" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="D416" s="9" t="s">
+      <c r="D417" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E416" s="9"/>
-    </row>
-    <row r="417" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
-      <c r="A417" s="8" t="s">
+      <c r="E417" s="9"/>
+    </row>
+    <row r="418" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A418" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="B417" s="8" t="s">
+      <c r="B418" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="C417" s="8" t="s">
+      <c r="C418" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="D417" s="8" t="s">
+      <c r="D418" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E417" s="8"/>
-    </row>
-    <row r="418" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
-      <c r="A418" s="9" t="s">
+      <c r="E418" s="8"/>
+    </row>
+    <row r="419" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A419" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B419" s="9" t="s">
         <v>1138</v>
       </c>
-      <c r="C418" s="9" t="s">
+      <c r="C419" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="D418" s="9" t="s">
+      <c r="D419" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E418" s="9"/>
-    </row>
-    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A419" s="8" t="s">
+      <c r="E419" s="9"/>
+    </row>
+    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A420" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="B419" s="8" t="s">
+      <c r="B420" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="C419" s="8" t="s">
+      <c r="C420" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="D419" s="8" t="s">
+      <c r="D420" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E419" s="8"/>
-    </row>
-    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A420" s="9" t="s">
+      <c r="E420" s="8"/>
+    </row>
+    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A421" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B421" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="C420" s="9" t="s">
+      <c r="C421" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="D420" s="9" t="s">
+      <c r="D421" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E420" s="9"/>
-    </row>
-    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A421" s="8" t="s">
+      <c r="E421" s="9"/>
+    </row>
+    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A422" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="B421" s="8" t="s">
+      <c r="B422" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="C421" s="8" t="s">
+      <c r="C422" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="D421" s="8" t="s">
+      <c r="D422" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="E421" s="8"/>
-    </row>
-    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A422" s="9" t="s">
+      <c r="E422" s="8"/>
+    </row>
+    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A423" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B423" s="9" t="s">
         <v>1151</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="C423" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="D422" s="9" t="s">
+      <c r="D423" s="9" t="s">
         <v>1153</v>
       </c>
-      <c r="E422" s="9"/>
-    </row>
-    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A423" s="8" t="s">
+      <c r="E423" s="9"/>
+    </row>
+    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A424" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="B424" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="C423" s="8" t="s">
+      <c r="C424" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="D423" s="8" t="s">
+      <c r="D424" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="E423" s="8"/>
-    </row>
-    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A424" s="9" t="s">
+      <c r="E424" s="8"/>
+    </row>
+    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A425" s="9" t="s">
         <v>1162</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B425" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="C424" s="9" t="s">
+      <c r="C425" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="D424" s="9" t="s">
+      <c r="D425" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="E424" s="9"/>
-    </row>
-    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A425" s="8" t="s">
+      <c r="E425" s="9"/>
+    </row>
+    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A426" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="B425" s="8" t="s">
+      <c r="B426" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="C425" s="8" t="s">
+      <c r="C426" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="D425" s="8" t="s">
+      <c r="D426" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="E425" s="8"/>
-    </row>
-    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A426" s="9" t="s">
+      <c r="E426" s="8"/>
+    </row>
+    <row r="427" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A427" s="9" t="s">
         <v>1170</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B427" s="9" t="s">
         <v>1167</v>
       </c>
-      <c r="C426" s="9" t="s">
+      <c r="C427" s="9" t="s">
         <v>1168</v>
       </c>
-      <c r="D426" s="9" t="s">
+      <c r="D427" s="9" t="s">
         <v>1169</v>
       </c>
-      <c r="E426" s="9"/>
-    </row>
-    <row r="427" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="8" t="s">
+      <c r="E427" s="9"/>
+    </row>
+    <row r="428" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="8" t="s">
         <v>1721</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="B428" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C428" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="D427" s="8" t="s">
+      <c r="D428" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="E427" s="8"/>
-    </row>
-    <row r="428" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="21" t="s">
+      <c r="E428" s="8"/>
+    </row>
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="22" t="s">
         <v>1187</v>
       </c>
-      <c r="B428" s="21"/>
-      <c r="C428" s="21"/>
-      <c r="D428" s="21"/>
-      <c r="E428" s="21"/>
-      <c r="F428" s="10"/>
-    </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="20"/>
-      <c r="B429" s="20"/>
-      <c r="C429" s="20"/>
-      <c r="D429" s="20"/>
-      <c r="E429" s="20"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
+      <c r="D429" s="22"/>
+      <c r="E429" s="22"/>
       <c r="F429" s="10"/>
     </row>
-    <row r="431" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="7" t="s">
+    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="21"/>
+      <c r="B430" s="21"/>
+      <c r="C430" s="21"/>
+      <c r="D430" s="21"/>
+      <c r="E430" s="21"/>
+      <c r="F430" s="10"/>
+    </row>
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B432" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C432" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D431" s="7" t="s">
+      <c r="D432" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E431" s="7" t="s">
+      <c r="E432" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="8" t="s">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B432" s="8" t="s">
+      <c r="B433" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="C432" s="8" t="s">
+      <c r="C433" s="8" t="s">
         <v>1175</v>
       </c>
-      <c r="D432" s="8" t="s">
+      <c r="D433" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="E432" s="8"/>
-    </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="9" t="s">
+      <c r="E433" s="8"/>
+    </row>
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B434" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="C433" s="9" t="s">
+      <c r="C434" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="D433" s="9" t="s">
+      <c r="D434" s="9" t="s">
         <v>1179</v>
       </c>
-      <c r="E433" s="9"/>
-    </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="8" t="s">
+      <c r="E434" s="9"/>
+    </row>
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B435" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="C434" s="8" t="s">
+      <c r="C435" s="8" t="s">
         <v>1181</v>
       </c>
-      <c r="D434" s="8" t="s">
+      <c r="D435" s="8" t="s">
         <v>1182</v>
       </c>
-      <c r="E434" s="8"/>
-    </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="9" t="s">
+      <c r="E435" s="8"/>
+    </row>
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B436" s="9" t="s">
         <v>1183</v>
       </c>
-      <c r="C435" s="9" t="s">
+      <c r="C436" s="9" t="s">
         <v>1184</v>
       </c>
-      <c r="D435" s="9" t="s">
+      <c r="D436" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="E435" s="9"/>
-    </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="21" t="s">
+      <c r="E436" s="9"/>
+    </row>
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="22" t="s">
         <v>1186</v>
       </c>
-      <c r="B436" s="21"/>
-      <c r="C436" s="21"/>
-      <c r="D436" s="21"/>
-      <c r="E436" s="21"/>
-      <c r="F436" s="10"/>
-    </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="20"/>
-      <c r="B437" s="20"/>
-      <c r="C437" s="20"/>
-      <c r="D437" s="20"/>
-      <c r="E437" s="20"/>
+      <c r="B437" s="22"/>
+      <c r="C437" s="22"/>
+      <c r="D437" s="22"/>
+      <c r="E437" s="22"/>
       <c r="F437" s="10"/>
     </row>
-    <row r="439" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="7" t="s">
+    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="21"/>
+      <c r="B438" s="21"/>
+      <c r="C438" s="21"/>
+      <c r="D438" s="21"/>
+      <c r="E438" s="21"/>
+      <c r="F438" s="10"/>
+    </row>
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B440" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C439" s="7" t="s">
+      <c r="C440" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D439" s="7" t="s">
+      <c r="D440" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E439" s="7" t="s">
+      <c r="E440" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="8" t="s">
+    <row r="441" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B441" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="C440" s="8" t="s">
+      <c r="C441" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="D440" s="8" t="s">
+      <c r="D441" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="E440" s="8"/>
-    </row>
-    <row r="441" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="9" t="s">
+      <c r="E441" s="8"/>
+    </row>
+    <row r="442" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B442" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="C441" s="9" t="s">
+      <c r="C442" s="9" t="s">
         <v>1192</v>
       </c>
-      <c r="D441" s="9" t="s">
+      <c r="D442" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="E441" s="9"/>
-    </row>
-    <row r="442" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="8" t="s">
+      <c r="E442" s="9"/>
+    </row>
+    <row r="443" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B443" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="C442" s="8" t="s">
+      <c r="C443" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="D442" s="8" t="s">
+      <c r="D443" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="E442" s="8"/>
-    </row>
-    <row r="443" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="9" t="s">
+      <c r="E443" s="8"/>
+    </row>
+    <row r="444" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B444" s="9" t="s">
         <v>1197</v>
       </c>
-      <c r="C443" s="9" t="s">
+      <c r="C444" s="9" t="s">
         <v>1198</v>
       </c>
-      <c r="D443" s="9" t="s">
+      <c r="D444" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="E443" s="9"/>
-    </row>
-    <row r="444" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="8" t="s">
+      <c r="E444" s="9"/>
+    </row>
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B444" s="8" t="s">
+      <c r="B445" s="8" t="s">
         <v>1200</v>
       </c>
-      <c r="C444" s="8" t="s">
+      <c r="C445" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D444" s="8" t="s">
+      <c r="D445" s="8" t="s">
         <v>1202</v>
       </c>
-      <c r="E444" s="8"/>
-    </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="9" t="s">
+      <c r="E445" s="8"/>
+    </row>
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B446" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="C445" s="9" t="s">
+      <c r="C446" s="9" t="s">
         <v>1204</v>
       </c>
-      <c r="D445" s="9" t="s">
+      <c r="D446" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="E445" s="9"/>
-    </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="8" t="s">
+      <c r="E446" s="9"/>
+    </row>
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B446" s="8" t="s">
+      <c r="B447" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="C446" s="8" t="s">
+      <c r="C447" s="8" t="s">
         <v>1207</v>
       </c>
-      <c r="D446" s="8" t="s">
+      <c r="D447" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="E446" s="8"/>
-    </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="9" t="s">
+      <c r="E447" s="8"/>
+    </row>
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B448" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="C447" s="9" t="s">
+      <c r="C448" s="9" t="s">
         <v>1210</v>
       </c>
-      <c r="D447" s="9" t="s">
+      <c r="D448" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="E447" s="9"/>
-    </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="8" t="s">
+      <c r="E448" s="9"/>
+    </row>
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B448" s="8" t="s">
+      <c r="B449" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="C448" s="8" t="s">
+      <c r="C449" s="8" t="s">
         <v>1213</v>
       </c>
-      <c r="D448" s="8" t="s">
+      <c r="D449" s="8" t="s">
         <v>1214</v>
       </c>
-      <c r="E448" s="8"/>
-    </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="9" t="s">
+      <c r="E449" s="8"/>
+    </row>
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B450" s="9" t="s">
         <v>1215</v>
       </c>
-      <c r="C449" s="9" t="s">
+      <c r="C450" s="9" t="s">
         <v>1216</v>
       </c>
-      <c r="D449" s="9" t="s">
+      <c r="D450" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="E449" s="9"/>
-    </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="8" t="s">
+      <c r="E450" s="9"/>
+    </row>
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B450" s="8" t="s">
+      <c r="B451" s="8" t="s">
         <v>1218</v>
       </c>
-      <c r="C450" s="8" t="s">
+      <c r="C451" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="D450" s="8" t="s">
+      <c r="D451" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="E450" s="8"/>
-    </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="9" t="s">
+      <c r="E451" s="8"/>
+    </row>
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B452" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="C451" s="9" t="s">
+      <c r="C452" s="9" t="s">
         <v>1222</v>
       </c>
-      <c r="D451" s="9" t="s">
+      <c r="D452" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="E451" s="9"/>
-    </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="8" t="s">
+      <c r="E452" s="9"/>
+    </row>
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B452" s="8" t="s">
+      <c r="B453" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="C452" s="8" t="s">
+      <c r="C453" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="D452" s="8" t="s">
+      <c r="D453" s="8" t="s">
         <v>1226</v>
       </c>
-      <c r="E452" s="8"/>
-    </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="9" t="s">
+      <c r="E453" s="8"/>
+    </row>
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B454" s="9" t="s">
         <v>1227</v>
       </c>
-      <c r="C453" s="9" t="s">
+      <c r="C454" s="9" t="s">
         <v>1228</v>
       </c>
-      <c r="D453" s="9" t="s">
+      <c r="D454" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="E453" s="9"/>
-    </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="8" t="s">
+      <c r="E454" s="9"/>
+    </row>
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B455" s="8" t="s">
         <v>1230</v>
       </c>
-      <c r="C454" s="8" t="s">
+      <c r="C455" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="D454" s="8" t="s">
+      <c r="D455" s="8" t="s">
         <v>1232</v>
       </c>
-      <c r="E454" s="8"/>
-    </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="9" t="s">
+      <c r="E455" s="8"/>
+    </row>
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B456" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="C455" s="9" t="s">
+      <c r="C456" s="9" t="s">
         <v>1234</v>
       </c>
-      <c r="D455" s="9" t="s">
+      <c r="D456" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="E455" s="9"/>
-    </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="8" t="s">
+      <c r="E456" s="9"/>
+    </row>
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B457" s="8" t="s">
         <v>1236</v>
       </c>
-      <c r="C456" s="8" t="s">
+      <c r="C457" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="D456" s="8" t="s">
+      <c r="D457" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="E456" s="8"/>
-    </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="9" t="s">
+      <c r="E457" s="8"/>
+    </row>
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B458" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="C457" s="9" t="s">
+      <c r="C458" s="9" t="s">
         <v>1240</v>
       </c>
-      <c r="D457" s="9" t="s">
+      <c r="D458" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="E457" s="9"/>
-    </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="8" t="s">
+      <c r="E458" s="9"/>
+    </row>
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B459" s="8" t="s">
         <v>1242</v>
       </c>
-      <c r="C458" s="8" t="s">
+      <c r="C459" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="D458" s="8" t="s">
+      <c r="D459" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="E458" s="8"/>
-    </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="9" t="s">
+      <c r="E459" s="8"/>
+    </row>
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B460" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="C459" s="9" t="s">
+      <c r="C460" s="9" t="s">
         <v>1246</v>
       </c>
-      <c r="D459" s="9" t="s">
+      <c r="D460" s="9" t="s">
         <v>1247</v>
       </c>
-      <c r="E459" s="9"/>
-    </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="8" t="s">
+      <c r="E460" s="9"/>
+    </row>
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B460" s="8" t="s">
+      <c r="B461" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="C460" s="8" t="s">
+      <c r="C461" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="D460" s="8" t="s">
+      <c r="D461" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="E460" s="8"/>
-    </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="9" t="s">
+      <c r="E461" s="8"/>
+    </row>
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B462" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="C461" s="9" t="s">
+      <c r="C462" s="9" t="s">
         <v>1252</v>
       </c>
-      <c r="D461" s="9" t="s">
+      <c r="D462" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="E461" s="9"/>
-    </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="8" t="s">
+      <c r="E462" s="9"/>
+    </row>
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B462" s="8" t="s">
+      <c r="B463" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="C462" s="8" t="s">
+      <c r="C463" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="D462" s="8" t="s">
+      <c r="D463" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="E462" s="8"/>
-    </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="9" t="s">
+      <c r="E463" s="8"/>
+    </row>
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B464" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="C463" s="9" t="s">
+      <c r="C464" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="D463" s="9" t="s">
+      <c r="D464" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="E463" s="9"/>
-    </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="8" t="s">
+      <c r="E464" s="9"/>
+    </row>
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B464" s="8" t="s">
+      <c r="B465" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="C464" s="8" t="s">
+      <c r="C465" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="D464" s="8" t="s">
+      <c r="D465" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="E464" s="8"/>
-    </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="9" t="s">
+      <c r="E465" s="8"/>
+    </row>
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B466" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="C465" s="9" t="s">
+      <c r="C466" s="9" t="s">
         <v>1264</v>
       </c>
-      <c r="D465" s="9" t="s">
+      <c r="D466" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="E465" s="9"/>
-    </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="8" t="s">
+      <c r="E466" s="9"/>
+    </row>
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B466" s="8" t="s">
+      <c r="B467" s="8" t="s">
         <v>1266</v>
       </c>
-      <c r="C466" s="8" t="s">
+      <c r="C467" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="D466" s="8" t="s">
+      <c r="D467" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="E466" s="8"/>
-    </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="9" t="s">
+      <c r="E467" s="8"/>
+    </row>
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B468" s="9" t="s">
         <v>1269</v>
       </c>
-      <c r="C467" s="9" t="s">
+      <c r="C468" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="D467" s="9" t="s">
+      <c r="D468" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="E467" s="9"/>
-    </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="8" t="s">
+      <c r="E468" s="9"/>
+    </row>
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B468" s="8" t="s">
+      <c r="B469" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="C468" s="8" t="s">
+      <c r="C469" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="D468" s="8" t="s">
+      <c r="D469" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="E468" s="8"/>
-    </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="9" t="s">
+      <c r="E469" s="8"/>
+    </row>
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B470" s="9" t="s">
         <v>1275</v>
       </c>
-      <c r="C469" s="9" t="s">
+      <c r="C470" s="9" t="s">
         <v>1276</v>
       </c>
-      <c r="D469" s="9" t="s">
+      <c r="D470" s="9" t="s">
         <v>1277</v>
       </c>
-      <c r="E469" s="9"/>
-    </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="8" t="s">
+      <c r="E470" s="9"/>
+    </row>
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B470" s="8" t="s">
+      <c r="B471" s="8" t="s">
         <v>1278</v>
       </c>
-      <c r="C470" s="8" t="s">
+      <c r="C471" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="D470" s="8" t="s">
+      <c r="D471" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="E470" s="8"/>
-    </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="9" t="s">
+      <c r="E471" s="8"/>
+    </row>
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B472" s="9" t="s">
         <v>1281</v>
       </c>
-      <c r="C471" s="9" t="s">
+      <c r="C472" s="9" t="s">
         <v>1282</v>
       </c>
-      <c r="D471" s="9" t="s">
+      <c r="D472" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="E471" s="9"/>
-    </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="8" t="s">
+      <c r="E472" s="9"/>
+    </row>
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B472" s="8" t="s">
+      <c r="B473" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="C472" s="8" t="s">
+      <c r="C473" s="8" t="s">
         <v>1285</v>
       </c>
-      <c r="D472" s="8" t="s">
+      <c r="D473" s="8" t="s">
         <v>1286</v>
       </c>
-      <c r="E472" s="8"/>
-    </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="9" t="s">
+      <c r="E473" s="8"/>
+    </row>
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B474" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="C473" s="9" t="s">
+      <c r="C474" s="9" t="s">
         <v>1288</v>
       </c>
-      <c r="D473" s="9" t="s">
+      <c r="D474" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="E473" s="9"/>
-    </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="8" t="s">
+      <c r="E474" s="9"/>
+    </row>
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B475" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="C474" s="8" t="s">
+      <c r="C475" s="8" t="s">
         <v>1291</v>
       </c>
-      <c r="D474" s="8" t="s">
+      <c r="D475" s="8" t="s">
         <v>1292</v>
       </c>
-      <c r="E474" s="8"/>
-    </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="9" t="s">
+      <c r="E475" s="8"/>
+    </row>
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B476" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="C475" s="9" t="s">
+      <c r="C476" s="9" t="s">
         <v>1294</v>
       </c>
-      <c r="D475" s="9" t="s">
+      <c r="D476" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="E475" s="9"/>
-    </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="8" t="s">
+      <c r="E476" s="9"/>
+    </row>
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B476" s="8" t="s">
+      <c r="B477" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="C476" s="8" t="s">
+      <c r="C477" s="8" t="s">
         <v>1297</v>
       </c>
-      <c r="D476" s="8" t="s">
+      <c r="D477" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="E476" s="8"/>
-    </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="9" t="s">
+      <c r="E477" s="8"/>
+    </row>
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B478" s="9" t="s">
         <v>1299</v>
       </c>
-      <c r="C477" s="9" t="s">
+      <c r="C478" s="9" t="s">
         <v>1300</v>
       </c>
-      <c r="D477" s="9" t="s">
+      <c r="D478" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="E477" s="9"/>
-    </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="8" t="s">
+      <c r="E478" s="9"/>
+    </row>
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B478" s="8" t="s">
+      <c r="B479" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="C478" s="8" t="s">
+      <c r="C479" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="D478" s="8" t="s">
+      <c r="D479" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="E478" s="8"/>
-    </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="9" t="s">
+      <c r="E479" s="8"/>
+    </row>
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B480" s="9" t="s">
         <v>1305</v>
       </c>
-      <c r="C479" s="9" t="s">
+      <c r="C480" s="9" t="s">
         <v>1306</v>
       </c>
-      <c r="D479" s="9" t="s">
+      <c r="D480" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="E479" s="9"/>
-    </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="8" t="s">
+      <c r="E480" s="9"/>
+    </row>
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B480" s="8" t="s">
+      <c r="B481" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="C480" s="8" t="s">
+      <c r="C481" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="D480" s="8" t="s">
+      <c r="D481" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="E480" s="8"/>
-    </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="9" t="s">
+      <c r="E481" s="8"/>
+    </row>
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B482" s="9" t="s">
         <v>1311</v>
       </c>
-      <c r="C481" s="9" t="s">
+      <c r="C482" s="9" t="s">
         <v>1312</v>
       </c>
-      <c r="D481" s="9" t="s">
+      <c r="D482" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="E481" s="9"/>
-    </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="8" t="s">
+      <c r="E482" s="9"/>
+    </row>
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B482" s="8" t="s">
+      <c r="B483" s="8" t="s">
         <v>1314</v>
       </c>
-      <c r="C482" s="8" t="s">
+      <c r="C483" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="D482" s="8" t="s">
+      <c r="D483" s="8" t="s">
         <v>1316</v>
       </c>
-      <c r="E482" s="8"/>
-    </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="9" t="s">
+      <c r="E483" s="8"/>
+    </row>
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B484" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="C483" s="9" t="s">
+      <c r="C484" s="9" t="s">
         <v>1318</v>
       </c>
-      <c r="D483" s="9" t="s">
+      <c r="D484" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="E483" s="9"/>
-    </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="8" t="s">
+      <c r="E484" s="9"/>
+    </row>
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B484" s="8" t="s">
+      <c r="B485" s="8" t="s">
         <v>1320</v>
       </c>
-      <c r="C484" s="8" t="s">
+      <c r="C485" s="8" t="s">
         <v>1321</v>
       </c>
-      <c r="D484" s="8" t="s">
+      <c r="D485" s="8" t="s">
         <v>1322</v>
       </c>
-      <c r="E484" s="8"/>
-    </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="9" t="s">
+      <c r="E485" s="8"/>
+    </row>
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B486" s="9" t="s">
         <v>1323</v>
       </c>
-      <c r="C485" s="9" t="s">
+      <c r="C486" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="D485" s="9" t="s">
+      <c r="D486" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="E485" s="9"/>
-    </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="8" t="s">
+      <c r="E486" s="9"/>
+    </row>
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="B486" s="8" t="s">
+      <c r="B487" s="8" t="s">
         <v>1326</v>
       </c>
-      <c r="C486" s="8" t="s">
+      <c r="C487" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="D486" s="8" t="s">
+      <c r="D487" s="8" t="s">
         <v>1328</v>
       </c>
-      <c r="E486" s="8"/>
-    </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="9" t="s">
+      <c r="E487" s="8"/>
+    </row>
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B488" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="C487" s="9" t="s">
+      <c r="C488" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="D487" s="9" t="s">
+      <c r="D488" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="E487" s="9"/>
-    </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="8" t="s">
+      <c r="E488" s="9"/>
+    </row>
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="B488" s="8" t="s">
+      <c r="B489" s="8" t="s">
         <v>1332</v>
       </c>
-      <c r="C488" s="8" t="s">
+      <c r="C489" s="8" t="s">
         <v>1333</v>
       </c>
-      <c r="D488" s="8" t="s">
+      <c r="D489" s="8" t="s">
         <v>1334</v>
       </c>
-      <c r="E488" s="8"/>
-    </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="21" t="s">
+      <c r="E489" s="8"/>
+    </row>
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="22" t="s">
         <v>1335</v>
       </c>
-      <c r="B489" s="21"/>
-      <c r="C489" s="21"/>
-      <c r="D489" s="21"/>
-      <c r="E489" s="21"/>
-      <c r="F489" s="10"/>
-    </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="20"/>
-      <c r="B490" s="20"/>
-      <c r="C490" s="20"/>
-      <c r="D490" s="20"/>
-      <c r="E490" s="20"/>
+      <c r="B490" s="22"/>
+      <c r="C490" s="22"/>
+      <c r="D490" s="22"/>
+      <c r="E490" s="22"/>
       <c r="F490" s="10"/>
     </row>
-    <row r="492" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="7" t="s">
+    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="21"/>
+      <c r="B491" s="21"/>
+      <c r="C491" s="21"/>
+      <c r="D491" s="21"/>
+      <c r="E491" s="21"/>
+      <c r="F491" s="10"/>
+    </row>
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="B493" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C492" s="7" t="s">
+      <c r="C493" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D492" s="7" t="s">
+      <c r="D493" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E492" s="7" t="s">
+      <c r="E493" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="8" t="s">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B493" s="8" t="s">
+      <c r="B494" s="8" t="s">
         <v>1336</v>
       </c>
-      <c r="C493" s="8" t="s">
+      <c r="C494" s="8" t="s">
         <v>1337</v>
       </c>
-      <c r="D493" s="8" t="s">
+      <c r="D494" s="8" t="s">
         <v>1338</v>
       </c>
-      <c r="E493" s="8"/>
-    </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="9" t="s">
+      <c r="E494" s="8"/>
+    </row>
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B495" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="C494" s="9" t="s">
+      <c r="C495" s="9" t="s">
         <v>1340</v>
       </c>
-      <c r="D494" s="9" t="s">
+      <c r="D495" s="9" t="s">
         <v>1341</v>
       </c>
-      <c r="E494" s="9"/>
-    </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="8" t="s">
+      <c r="E495" s="9"/>
+    </row>
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="B496" s="8" t="s">
         <v>1342</v>
       </c>
-      <c r="C495" s="8" t="s">
+      <c r="C496" s="8" t="s">
         <v>1343</v>
       </c>
-      <c r="D495" s="8" t="s">
+      <c r="D496" s="8" t="s">
         <v>1344</v>
       </c>
-      <c r="E495" s="8"/>
-    </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="9" t="s">
+      <c r="E496" s="8"/>
+    </row>
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B497" s="9" t="s">
         <v>1345</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C497" s="9" t="s">
         <v>1346</v>
       </c>
-      <c r="D496" s="9" t="s">
+      <c r="D497" s="9" t="s">
         <v>1347</v>
       </c>
-      <c r="E496" s="9"/>
-    </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="8" t="s">
+      <c r="E497" s="9"/>
+    </row>
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B497" s="8" t="s">
+      <c r="B498" s="8" t="s">
         <v>1348</v>
       </c>
-      <c r="C497" s="8" t="s">
+      <c r="C498" s="8" t="s">
         <v>1349</v>
       </c>
-      <c r="D497" s="8" t="s">
+      <c r="D498" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="E497" s="8"/>
-    </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="9" t="s">
+      <c r="E498" s="8"/>
+    </row>
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B499" s="9" t="s">
         <v>1351</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C499" s="9" t="s">
         <v>1352</v>
       </c>
-      <c r="D498" s="9" t="s">
+      <c r="D499" s="9" t="s">
         <v>1353</v>
       </c>
-      <c r="E498" s="9"/>
-    </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="8" t="s">
+      <c r="E499" s="9"/>
+    </row>
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B500" s="8" t="s">
         <v>1354</v>
       </c>
-      <c r="C499" s="8" t="s">
+      <c r="C500" s="18" t="s">
         <v>1355</v>
       </c>
-      <c r="D499" s="8" t="s">
+      <c r="D500" s="8" t="s">
         <v>1356</v>
       </c>
-      <c r="E499" s="8"/>
-    </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="9" t="s">
+      <c r="E500" s="8"/>
+    </row>
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B501" s="9" t="s">
         <v>1357</v>
       </c>
-      <c r="C500" s="9" t="s">
+      <c r="C501" s="19" t="s">
         <v>1358</v>
       </c>
-      <c r="D500" s="9" t="s">
+      <c r="D501" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="E500" s="9"/>
-    </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="8" t="s">
+      <c r="E501" s="9"/>
+    </row>
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B501" s="8" t="s">
+      <c r="B502" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="C501" s="8" t="s">
+      <c r="C502" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="D501" s="8" t="s">
+      <c r="D502" s="8" t="s">
         <v>1362</v>
       </c>
-      <c r="E501" s="8"/>
-    </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="9" t="s">
+      <c r="E502" s="8"/>
+    </row>
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B503" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="C502" s="9" t="s">
+      <c r="C503" s="9" t="s">
         <v>1364</v>
       </c>
-      <c r="D502" s="9" t="s">
+      <c r="D503" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="E502" s="9"/>
-    </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="8" t="s">
+      <c r="E503" s="9"/>
+    </row>
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B504" s="8" t="s">
         <v>1366</v>
       </c>
-      <c r="C503" s="8" t="s">
+      <c r="C504" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="D503" s="8" t="s">
+      <c r="D504" s="8" t="s">
         <v>1368</v>
       </c>
-      <c r="E503" s="8"/>
-    </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="9" t="s">
+      <c r="E504" s="8"/>
+    </row>
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B505" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="C504" s="9" t="s">
+      <c r="C505" s="9" t="s">
         <v>1370</v>
       </c>
-      <c r="D504" s="9" t="s">
+      <c r="D505" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="E504" s="9"/>
-    </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="8" t="s">
+      <c r="E505" s="9"/>
+    </row>
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B505" s="8" t="s">
+      <c r="B506" s="8" t="s">
         <v>1372</v>
       </c>
-      <c r="C505" s="8" t="s">
+      <c r="C506" s="8" t="s">
         <v>1373</v>
       </c>
-      <c r="D505" s="8" t="s">
+      <c r="D506" s="8" t="s">
         <v>1374</v>
       </c>
-      <c r="E505" s="8"/>
-    </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="9" t="s">
+      <c r="E506" s="8"/>
+    </row>
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B507" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C507" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="D506" s="9" t="s">
+      <c r="D507" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="E506" s="9"/>
-    </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="8" t="s">
+      <c r="E507" s="9"/>
+    </row>
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B507" s="8" t="s">
+      <c r="B508" s="8" t="s">
         <v>1378</v>
       </c>
-      <c r="C507" s="8" t="s">
+      <c r="C508" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="D507" s="8" t="s">
+      <c r="D508" s="8" t="s">
         <v>1380</v>
       </c>
-      <c r="E507" s="8"/>
-    </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="9" t="s">
+      <c r="E508" s="8"/>
+    </row>
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B509" s="9" t="s">
         <v>1381</v>
       </c>
-      <c r="C508" s="9" t="s">
+      <c r="C509" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="D508" s="9" t="s">
+      <c r="D509" s="9" t="s">
         <v>1383</v>
       </c>
-      <c r="E508" s="9"/>
-    </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="8" t="s">
+      <c r="E509" s="9"/>
+    </row>
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B509" s="8" t="s">
+      <c r="B510" s="8" t="s">
         <v>1384</v>
       </c>
-      <c r="C509" s="8" t="s">
+      <c r="C510" s="8" t="s">
         <v>1385</v>
       </c>
-      <c r="D509" s="8" t="s">
+      <c r="D510" s="8" t="s">
         <v>1386</v>
       </c>
-      <c r="E509" s="8"/>
-    </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="9" t="s">
+      <c r="E510" s="8"/>
+    </row>
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B511" s="9" t="s">
         <v>1387</v>
       </c>
-      <c r="C510" s="9" t="s">
+      <c r="C511" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="D510" s="9" t="s">
+      <c r="D511" s="9" t="s">
         <v>1389</v>
       </c>
-      <c r="E510" s="9"/>
-    </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="8" t="s">
+      <c r="E511" s="9"/>
+    </row>
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B511" s="8" t="s">
+      <c r="B512" s="8" t="s">
         <v>1390</v>
       </c>
-      <c r="C511" s="8" t="s">
+      <c r="C512" s="8" t="s">
         <v>1391</v>
       </c>
-      <c r="D511" s="8" t="s">
+      <c r="D512" s="8" t="s">
         <v>1392</v>
       </c>
-      <c r="E511" s="8"/>
-    </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="9" t="s">
+      <c r="E512" s="8"/>
+    </row>
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B513" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="C512" s="9" t="s">
+      <c r="C513" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="D512" s="9" t="s">
+      <c r="D513" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="E512" s="9"/>
-    </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="8" t="s">
+      <c r="E513" s="9"/>
+    </row>
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B514" s="8" t="s">
         <v>1395</v>
       </c>
-      <c r="C513" s="8" t="s">
+      <c r="C514" s="8" t="s">
         <v>1396</v>
       </c>
-      <c r="D513" s="8" t="s">
+      <c r="D514" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="E513" s="8"/>
-    </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="9" t="s">
+      <c r="E514" s="8"/>
+    </row>
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B515" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="C514" s="9" t="s">
+      <c r="C515" s="9" t="s">
         <v>1399</v>
       </c>
-      <c r="D514" s="9" t="s">
+      <c r="D515" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="E514" s="9"/>
-    </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="8" t="s">
+      <c r="E515" s="9"/>
+    </row>
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B515" s="8" t="s">
+      <c r="B516" s="8" t="s">
         <v>1401</v>
       </c>
-      <c r="C515" s="8" t="s">
+      <c r="C516" s="8" t="s">
         <v>1402</v>
       </c>
-      <c r="D515" s="8" t="s">
+      <c r="D516" s="8" t="s">
         <v>1403</v>
       </c>
-      <c r="E515" s="8"/>
-    </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="9" t="s">
+      <c r="E516" s="8"/>
+    </row>
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B517" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="C516" s="9" t="s">
+      <c r="C517" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="D516" s="9" t="s">
+      <c r="D517" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="E516" s="9"/>
-    </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="8" t="s">
+      <c r="E517" s="9"/>
+    </row>
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B517" s="8" t="s">
+      <c r="B518" s="8" t="s">
         <v>1407</v>
       </c>
-      <c r="C517" s="8" t="s">
+      <c r="C518" s="8" t="s">
         <v>1408</v>
       </c>
-      <c r="D517" s="8" t="s">
+      <c r="D518" s="8" t="s">
         <v>1409</v>
       </c>
-      <c r="E517" s="8"/>
-    </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="9" t="s">
+      <c r="E518" s="8"/>
+    </row>
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B519" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="C518" s="9" t="s">
+      <c r="C519" s="9" t="s">
         <v>1411</v>
       </c>
-      <c r="D518" s="9" t="s">
+      <c r="D519" s="9" t="s">
         <v>1412</v>
       </c>
-      <c r="E518" s="9"/>
-    </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="8" t="s">
+      <c r="E519" s="9"/>
+    </row>
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B519" s="8" t="s">
+      <c r="B520" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="C519" s="8" t="s">
+      <c r="C520" s="8" t="s">
         <v>1414</v>
       </c>
-      <c r="D519" s="8" t="s">
+      <c r="D520" s="8" t="s">
         <v>1415</v>
       </c>
-      <c r="E519" s="8"/>
-    </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="9" t="s">
+      <c r="E520" s="8"/>
+    </row>
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B521" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="C520" s="9" t="s">
+      <c r="C521" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="D520" s="9" t="s">
+      <c r="D521" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="E520" s="9"/>
-    </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="8" t="s">
+      <c r="E521" s="9"/>
+    </row>
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B521" s="8" t="s">
+      <c r="B522" s="8" t="s">
         <v>1419</v>
       </c>
-      <c r="C521" s="8" t="s">
+      <c r="C522" s="8" t="s">
         <v>1420</v>
       </c>
-      <c r="D521" s="8" t="s">
+      <c r="D522" s="8" t="s">
         <v>1421</v>
       </c>
-      <c r="E521" s="8"/>
-    </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="9" t="s">
+      <c r="E522" s="8"/>
+    </row>
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B523" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="C522" s="9" t="s">
+      <c r="C523" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="D522" s="9" t="s">
+      <c r="D523" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="E522" s="9"/>
-    </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="8" t="s">
+      <c r="E523" s="9"/>
+    </row>
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B523" s="8" t="s">
+      <c r="B524" s="8" t="s">
         <v>1425</v>
       </c>
-      <c r="C523" s="8" t="s">
+      <c r="C524" s="8" t="s">
         <v>1426</v>
       </c>
-      <c r="D523" s="8" t="s">
+      <c r="D524" s="8" t="s">
         <v>1427</v>
       </c>
-      <c r="E523" s="8"/>
-    </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="9" t="s">
+      <c r="E524" s="8"/>
+    </row>
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B525" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C525" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="D524" s="9" t="s">
+      <c r="D525" s="9" t="s">
         <v>1430</v>
       </c>
-      <c r="E524" s="9"/>
-    </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="8" t="s">
+      <c r="E525" s="9"/>
+    </row>
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B525" s="8" t="s">
+      <c r="B526" s="8" t="s">
         <v>1431</v>
       </c>
-      <c r="C525" s="8" t="s">
+      <c r="C526" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="D525" s="8" t="s">
+      <c r="D526" s="8" t="s">
         <v>1433</v>
       </c>
-      <c r="E525" s="8"/>
-    </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="9" t="s">
+      <c r="E526" s="8"/>
+    </row>
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B527" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="C526" s="9" t="s">
+      <c r="C527" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="D526" s="9" t="s">
+      <c r="D527" s="9" t="s">
         <v>1436</v>
       </c>
-      <c r="E526" s="9"/>
-    </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="21" t="s">
+      <c r="E527" s="9"/>
+    </row>
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="22" t="s">
         <v>1437</v>
       </c>
-      <c r="B527" s="21"/>
-      <c r="C527" s="21"/>
-      <c r="D527" s="21"/>
-      <c r="E527" s="21"/>
-      <c r="F527" s="10"/>
-    </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="20"/>
-      <c r="B528" s="20"/>
-      <c r="C528" s="20"/>
-      <c r="D528" s="20"/>
-      <c r="E528" s="20"/>
+      <c r="B528" s="22"/>
+      <c r="C528" s="22"/>
+      <c r="D528" s="22"/>
+      <c r="E528" s="22"/>
       <c r="F528" s="10"/>
     </row>
-    <row r="530" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="7" t="s">
+    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="21"/>
+      <c r="B529" s="21"/>
+      <c r="C529" s="21"/>
+      <c r="D529" s="21"/>
+      <c r="E529" s="21"/>
+      <c r="F529" s="10"/>
+    </row>
+    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B530" s="7" t="s">
+      <c r="B531" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="C531" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D530" s="7" t="s">
+      <c r="D531" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E530" s="7" t="s">
+      <c r="E531" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="8" t="s">
+    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B531" s="8" t="s">
+      <c r="B532" s="8" t="s">
         <v>1438</v>
       </c>
-      <c r="C531" s="8" t="s">
+      <c r="C532" s="8" t="s">
         <v>1439</v>
       </c>
-      <c r="D531" s="8" t="s">
+      <c r="D532" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="E531" s="8"/>
-    </row>
-    <row r="532" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="9" t="s">
+      <c r="E532" s="8"/>
+    </row>
+    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B533" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="C532" s="9" t="s">
+      <c r="C533" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="D532" s="9" t="s">
+      <c r="D533" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="E532" s="9"/>
-    </row>
-    <row r="533" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="8" t="s">
+      <c r="E533" s="9"/>
+    </row>
+    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B533" s="8" t="s">
+      <c r="B534" s="8" t="s">
         <v>1444</v>
       </c>
-      <c r="C533" s="8" t="s">
+      <c r="C534" s="8" t="s">
         <v>1445</v>
       </c>
-      <c r="D533" s="8" t="s">
+      <c r="D534" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="E533" s="8"/>
-    </row>
-    <row r="534" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="9" t="s">
+      <c r="E534" s="8"/>
+    </row>
+    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B535" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="C534" s="9" t="s">
+      <c r="C535" s="9" t="s">
         <v>1448</v>
       </c>
-      <c r="D534" s="9" t="s">
+      <c r="D535" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="E534" s="9"/>
-    </row>
-    <row r="535" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="8" t="s">
+      <c r="E535" s="9"/>
+    </row>
+    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B535" s="8" t="s">
+      <c r="B536" s="8" t="s">
         <v>1450</v>
       </c>
-      <c r="C535" s="8" t="s">
+      <c r="C536" s="8" t="s">
         <v>1451</v>
       </c>
-      <c r="D535" s="8" t="s">
+      <c r="D536" s="8" t="s">
         <v>1452</v>
       </c>
-      <c r="E535" s="8"/>
-    </row>
-    <row r="536" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="9" t="s">
+      <c r="E536" s="8"/>
+    </row>
+    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B537" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C537" s="19" t="s">
         <v>1454</v>
       </c>
-      <c r="D536" s="9" t="s">
+      <c r="D537" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="E536" s="9"/>
-    </row>
-    <row r="537" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="8" t="s">
+      <c r="E537" s="9"/>
+    </row>
+    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B537" s="8" t="s">
+      <c r="B538" s="8" t="s">
         <v>1456</v>
       </c>
-      <c r="C537" s="8" t="s">
+      <c r="C538" s="8" t="s">
         <v>1457</v>
       </c>
-      <c r="D537" s="8" t="s">
+      <c r="D538" s="8" t="s">
         <v>1458</v>
       </c>
-      <c r="E537" s="8"/>
-    </row>
-    <row r="538" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="9" t="s">
+      <c r="E538" s="8"/>
+    </row>
+    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B539" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C539" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="D538" s="9" t="s">
+      <c r="D539" s="9" t="s">
         <v>1461</v>
       </c>
-      <c r="E538" s="9"/>
-    </row>
-    <row r="539" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="8" t="s">
+      <c r="E539" s="9"/>
+    </row>
+    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B539" s="8" t="s">
+      <c r="B540" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="C539" s="8" t="s">
+      <c r="C540" s="8" t="s">
         <v>1463</v>
       </c>
-      <c r="D539" s="8" t="s">
+      <c r="D540" s="8" t="s">
         <v>1464</v>
       </c>
-      <c r="E539" s="8"/>
-    </row>
-    <row r="540" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="9" t="s">
+      <c r="E540" s="8"/>
+    </row>
+    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B541" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C541" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="D540" s="9" t="s">
+      <c r="D541" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="E540" s="9"/>
-    </row>
-    <row r="541" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="8" t="s">
+      <c r="E541" s="9"/>
+    </row>
+    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B541" s="8" t="s">
+      <c r="B542" s="8" t="s">
         <v>1468</v>
       </c>
-      <c r="C541" s="8" t="s">
+      <c r="C542" s="8" t="s">
         <v>1469</v>
       </c>
-      <c r="D541" s="8" t="s">
+      <c r="D542" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="E541" s="8"/>
-    </row>
-    <row r="542" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="9" t="s">
+      <c r="E542" s="8"/>
+    </row>
+    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B543" s="9" t="s">
         <v>1471</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C543" s="9" t="s">
         <v>1472</v>
       </c>
-      <c r="D542" s="9" t="s">
+      <c r="D543" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="E542" s="9"/>
-    </row>
-    <row r="543" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="8" t="s">
+      <c r="E543" s="9"/>
+    </row>
+    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B543" s="8" t="s">
+      <c r="B544" s="8" t="s">
         <v>1474</v>
       </c>
-      <c r="C543" s="8" t="s">
+      <c r="C544" s="8" t="s">
         <v>1475</v>
       </c>
-      <c r="D543" s="8" t="s">
+      <c r="D544" s="8" t="s">
         <v>1476</v>
       </c>
-      <c r="E543" s="8"/>
-    </row>
-    <row r="544" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="9" t="s">
+      <c r="E544" s="8"/>
+    </row>
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B545" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="C544" s="9" t="s">
+      <c r="C545" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="D544" s="9" t="s">
+      <c r="D545" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="E544" s="9"/>
-    </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="8" t="s">
+      <c r="E545" s="9"/>
+    </row>
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B545" s="8" t="s">
+      <c r="B546" s="8" t="s">
         <v>1480</v>
       </c>
-      <c r="C545" s="8" t="s">
+      <c r="C546" s="8" t="s">
         <v>1481</v>
       </c>
-      <c r="D545" s="8" t="s">
+      <c r="D546" s="8" t="s">
         <v>1482</v>
       </c>
-      <c r="E545" s="8"/>
-    </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="9" t="s">
+      <c r="E546" s="8"/>
+    </row>
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B547" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="C546" s="9" t="s">
+      <c r="C547" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="D546" s="9" t="s">
+      <c r="D547" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="E546" s="9"/>
-    </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="8" t="s">
+      <c r="E547" s="9"/>
+    </row>
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B547" s="8" t="s">
+      <c r="B548" s="8" t="s">
         <v>1486</v>
       </c>
-      <c r="C547" s="8" t="s">
+      <c r="C548" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="D547" s="8" t="s">
+      <c r="D548" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="E547" s="8"/>
-    </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="21" t="s">
+      <c r="E548" s="8"/>
+    </row>
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="22" t="s">
         <v>1588</v>
       </c>
-      <c r="B548" s="21"/>
-      <c r="C548" s="21"/>
-      <c r="D548" s="21"/>
-      <c r="E548" s="21"/>
-      <c r="F548" s="10"/>
-    </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="20"/>
-      <c r="B549" s="20"/>
-      <c r="C549" s="20"/>
-      <c r="D549" s="20"/>
-      <c r="E549" s="20"/>
+      <c r="B549" s="22"/>
+      <c r="C549" s="22"/>
+      <c r="D549" s="22"/>
+      <c r="E549" s="22"/>
       <c r="F549" s="10"/>
     </row>
-    <row r="551" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="7" t="s">
+    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="21"/>
+      <c r="B550" s="21"/>
+      <c r="C550" s="21"/>
+      <c r="D550" s="21"/>
+      <c r="E550" s="21"/>
+      <c r="F550" s="10"/>
+    </row>
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B551" s="7" t="s">
+      <c r="B552" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="C552" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D551" s="7" t="s">
+      <c r="D552" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E551" s="7" t="s">
+      <c r="E552" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="8" t="s">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B552" s="8" t="s">
+      <c r="B553" s="8" t="s">
         <v>1489</v>
       </c>
-      <c r="C552" s="8" t="s">
+      <c r="C553" s="8" t="s">
         <v>1490</v>
       </c>
-      <c r="D552" s="8" t="s">
+      <c r="D553" s="8" t="s">
         <v>1491</v>
       </c>
-      <c r="E552" s="8"/>
-    </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="9" t="s">
+      <c r="E553" s="8"/>
+    </row>
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B553" s="9" t="s">
+      <c r="B554" s="9" t="s">
         <v>1492</v>
       </c>
-      <c r="C553" s="9" t="s">
+      <c r="C554" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="D553" s="9" t="s">
+      <c r="D554" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="E553" s="9"/>
-    </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="8" t="s">
+      <c r="E554" s="9"/>
+    </row>
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B554" s="8" t="s">
+      <c r="B555" s="8" t="s">
         <v>1495</v>
       </c>
-      <c r="C554" s="8" t="s">
+      <c r="C555" s="8" t="s">
         <v>1496</v>
       </c>
-      <c r="D554" s="8" t="s">
+      <c r="D555" s="8" t="s">
         <v>1497</v>
       </c>
-      <c r="E554" s="8"/>
-    </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="9" t="s">
+      <c r="E555" s="8"/>
+    </row>
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B555" s="9" t="s">
+      <c r="B556" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="C555" s="9" t="s">
+      <c r="C556" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="D555" s="9" t="s">
+      <c r="D556" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="E555" s="9"/>
-    </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="8" t="s">
+      <c r="E556" s="9"/>
+    </row>
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B556" s="8" t="s">
+      <c r="B557" s="8" t="s">
         <v>1501</v>
       </c>
-      <c r="C556" s="8" t="s">
+      <c r="C557" s="8" t="s">
         <v>1502</v>
       </c>
-      <c r="D556" s="8" t="s">
+      <c r="D557" s="8" t="s">
         <v>1503</v>
       </c>
-      <c r="E556" s="8"/>
-    </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="9" t="s">
+      <c r="E557" s="8"/>
+    </row>
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B557" s="9" t="s">
+      <c r="B558" s="9" t="s">
         <v>1504</v>
       </c>
-      <c r="C557" s="9" t="s">
+      <c r="C558" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="D557" s="9" t="s">
+      <c r="D558" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="E557" s="9"/>
-    </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="8" t="s">
+      <c r="E558" s="9"/>
+    </row>
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B558" s="8" t="s">
+      <c r="B559" s="8" t="s">
         <v>1507</v>
       </c>
-      <c r="C558" s="8" t="s">
+      <c r="C559" s="8" t="s">
         <v>1508</v>
       </c>
-      <c r="D558" s="8" t="s">
+      <c r="D559" s="8" t="s">
         <v>1509</v>
       </c>
-      <c r="E558" s="8"/>
-    </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="9" t="s">
+      <c r="E559" s="8"/>
+    </row>
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B560" s="9" t="s">
         <v>1510</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C560" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="D559" s="9" t="s">
+      <c r="D560" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="E559" s="9"/>
-    </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="8" t="s">
+      <c r="E560" s="9"/>
+    </row>
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B560" s="8" t="s">
+      <c r="B561" s="8" t="s">
         <v>1513</v>
       </c>
-      <c r="C560" s="8" t="s">
+      <c r="C561" s="8" t="s">
         <v>1514</v>
       </c>
-      <c r="D560" s="8" t="s">
+      <c r="D561" s="8" t="s">
         <v>1515</v>
       </c>
-      <c r="E560" s="8"/>
-    </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="9" t="s">
+      <c r="E561" s="8"/>
+    </row>
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B561" s="9" t="s">
+      <c r="B562" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="C561" s="9" t="s">
+      <c r="C562" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="D561" s="9" t="s">
+      <c r="D562" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="E561" s="9"/>
-    </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="8" t="s">
+      <c r="E562" s="9"/>
+    </row>
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B562" s="8" t="s">
+      <c r="B563" s="8" t="s">
         <v>1519</v>
       </c>
-      <c r="C562" s="8" t="s">
+      <c r="C563" s="8" t="s">
         <v>1520</v>
       </c>
-      <c r="D562" s="8" t="s">
+      <c r="D563" s="8" t="s">
         <v>1521</v>
       </c>
-      <c r="E562" s="8"/>
-    </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="9" t="s">
+      <c r="E563" s="8"/>
+    </row>
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B564" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="C563" s="9" t="s">
+      <c r="C564" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="D563" s="9" t="s">
+      <c r="D564" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="E563" s="9"/>
-    </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="8" t="s">
+      <c r="E564" s="9"/>
+    </row>
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B564" s="8" t="s">
+      <c r="B565" s="8" t="s">
         <v>1525</v>
       </c>
-      <c r="C564" s="8" t="s">
+      <c r="C565" s="8" t="s">
         <v>1526</v>
       </c>
-      <c r="D564" s="8" t="s">
+      <c r="D565" s="8" t="s">
         <v>1527</v>
       </c>
-      <c r="E564" s="8"/>
-    </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="9" t="s">
+      <c r="E565" s="8"/>
+    </row>
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B566" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="C565" s="9" t="s">
+      <c r="C566" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="D565" s="9" t="s">
+      <c r="D566" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="E565" s="9"/>
-    </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="8" t="s">
+      <c r="E566" s="9"/>
+    </row>
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B566" s="8" t="s">
+      <c r="B567" s="8" t="s">
         <v>1531</v>
       </c>
-      <c r="C566" s="8" t="s">
+      <c r="C567" s="8" t="s">
         <v>1532</v>
       </c>
-      <c r="D566" s="8" t="s">
+      <c r="D567" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="E566" s="8"/>
-    </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="9" t="s">
+      <c r="E567" s="8"/>
+    </row>
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B567" s="9" t="s">
+      <c r="B568" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="C567" s="9" t="s">
+      <c r="C568" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="D567" s="9" t="s">
+      <c r="D568" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="E567" s="9"/>
-    </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="8" t="s">
+      <c r="E568" s="9"/>
+    </row>
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B568" s="8" t="s">
+      <c r="B569" s="8" t="s">
         <v>1537</v>
       </c>
-      <c r="C568" s="8" t="s">
+      <c r="C569" s="8" t="s">
         <v>1538</v>
       </c>
-      <c r="D568" s="8" t="s">
+      <c r="D569" s="8" t="s">
         <v>1539</v>
       </c>
-      <c r="E568" s="8"/>
-    </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="9" t="s">
+      <c r="E569" s="8"/>
+    </row>
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B570" s="9" t="s">
         <v>1540</v>
       </c>
-      <c r="C569" s="9" t="s">
+      <c r="C570" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="D569" s="9" t="s">
+      <c r="D570" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="E569" s="9"/>
-    </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="8" t="s">
+      <c r="E570" s="9"/>
+    </row>
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B570" s="8" t="s">
+      <c r="B571" s="8" t="s">
         <v>1543</v>
       </c>
-      <c r="C570" s="8" t="s">
+      <c r="C571" s="8" t="s">
         <v>1544</v>
       </c>
-      <c r="D570" s="8" t="s">
+      <c r="D571" s="8" t="s">
         <v>1545</v>
       </c>
-      <c r="E570" s="8"/>
-    </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="9" t="s">
+      <c r="E571" s="8"/>
+    </row>
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B571" s="9" t="s">
+      <c r="B572" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="C571" s="9" t="s">
+      <c r="C572" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="D571" s="9" t="s">
+      <c r="D572" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="E571" s="9"/>
-    </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="8" t="s">
+      <c r="E572" s="9"/>
+    </row>
+    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B572" s="8" t="s">
+      <c r="B573" s="8" t="s">
         <v>1549</v>
       </c>
-      <c r="C572" s="8" t="s">
+      <c r="C573" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="D572" s="8" t="s">
+      <c r="D573" s="8" t="s">
         <v>1551</v>
       </c>
-      <c r="E572" s="8"/>
-    </row>
-    <row r="573" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A573" s="9" t="s">
+      <c r="E573" s="8"/>
+    </row>
+    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A574" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B574" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C574" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="D573" s="9" t="s">
+      <c r="D574" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="E573" s="9"/>
-    </row>
-    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A574" s="8" t="s">
+      <c r="E574" s="9"/>
+    </row>
+    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A575" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B574" s="8" t="s">
+      <c r="B575" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="C574" s="8" t="s">
+      <c r="C575" s="8" t="s">
         <v>1556</v>
       </c>
-      <c r="D574" s="8" t="s">
+      <c r="D575" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="E574" s="8"/>
-    </row>
-    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A575" s="9" t="s">
+      <c r="E575" s="8"/>
+    </row>
+    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A576" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B576" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="C575" s="9" t="s">
+      <c r="C576" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="D575" s="9" t="s">
+      <c r="D576" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="E575" s="9"/>
-    </row>
-    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A576" s="8" t="s">
+      <c r="E576" s="9"/>
+    </row>
+    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A577" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B576" s="8" t="s">
+      <c r="B577" s="8" t="s">
         <v>1561</v>
       </c>
-      <c r="C576" s="8" t="s">
+      <c r="C577" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="D576" s="8" t="s">
+      <c r="D577" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="E576" s="8"/>
-    </row>
-    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A577" s="9" t="s">
+      <c r="E577" s="8"/>
+    </row>
+    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A578" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B578" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="C577" s="9" t="s">
+      <c r="C578" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="D577" s="9" t="s">
+      <c r="D578" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="E577" s="9"/>
-    </row>
-    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A578" s="8" t="s">
+      <c r="E578" s="9"/>
+    </row>
+    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A579" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B578" s="8" t="s">
+      <c r="B579" s="8" t="s">
         <v>1567</v>
       </c>
-      <c r="C578" s="8" t="s">
+      <c r="C579" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="D578" s="8" t="s">
+      <c r="D579" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="E578" s="8"/>
-    </row>
-    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A579" s="9" t="s">
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A580" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B579" s="9" t="s">
+      <c r="B580" s="9" t="s">
         <v>1570</v>
       </c>
-      <c r="C579" s="9" t="s">
+      <c r="C580" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="D579" s="9" t="s">
+      <c r="D580" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="E579" s="9"/>
-    </row>
-    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A580" s="8" t="s">
+      <c r="E580" s="9"/>
+    </row>
+    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A581" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B580" s="8" t="s">
+      <c r="B581" s="8" t="s">
         <v>1573</v>
       </c>
-      <c r="C580" s="8" t="s">
+      <c r="C581" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="D580" s="8" t="s">
+      <c r="D581" s="8" t="s">
         <v>1575</v>
       </c>
-      <c r="E580" s="8"/>
-    </row>
-    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A581" s="9" t="s">
+      <c r="E581" s="8"/>
+    </row>
+    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A582" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B582" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="C581" s="9" t="s">
+      <c r="C582" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="D581" s="9" t="s">
+      <c r="D582" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="E581" s="9"/>
-    </row>
-    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A582" s="8" t="s">
+      <c r="E582" s="9"/>
+    </row>
+    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A583" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B582" s="8" t="s">
+      <c r="B583" s="8" t="s">
         <v>1579</v>
       </c>
-      <c r="C582" s="8" t="s">
+      <c r="C583" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="D582" s="8" t="s">
+      <c r="D583" s="8" t="s">
         <v>1581</v>
       </c>
-      <c r="E582" s="8"/>
-    </row>
-    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A583" s="9" t="s">
+      <c r="E583" s="8"/>
+    </row>
+    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A584" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B584" s="9" t="s">
         <v>1582</v>
       </c>
-      <c r="C583" s="9" t="s">
+      <c r="C584" s="9" t="s">
         <v>1583</v>
       </c>
-      <c r="D583" s="9" t="s">
+      <c r="D584" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="E583" s="9"/>
-    </row>
-    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A584" s="8" t="s">
+      <c r="E584" s="9"/>
+    </row>
+    <row r="585" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A585" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B584" s="8" t="s">
+      <c r="B585" s="8" t="s">
         <v>1585</v>
       </c>
-      <c r="C584" s="8" t="s">
+      <c r="C585" s="18" t="s">
         <v>1586</v>
       </c>
-      <c r="D584" s="8" t="s">
+      <c r="D585" s="8" t="s">
         <v>1587</v>
       </c>
-      <c r="E584" s="8"/>
-    </row>
-    <row r="585" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="21" t="s">
+      <c r="E585" s="8"/>
+    </row>
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="22" t="s">
         <v>1589</v>
       </c>
-      <c r="B585" s="21"/>
-      <c r="C585" s="21"/>
-      <c r="D585" s="21"/>
-      <c r="E585" s="21"/>
-      <c r="F585" s="10"/>
-    </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="20"/>
-      <c r="B586" s="20"/>
-      <c r="C586" s="20"/>
-      <c r="D586" s="20"/>
-      <c r="E586" s="20"/>
+      <c r="B586" s="22"/>
+      <c r="C586" s="22"/>
+      <c r="D586" s="22"/>
+      <c r="E586" s="22"/>
       <c r="F586" s="10"/>
     </row>
-    <row r="588" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="7" t="s">
+    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="21"/>
+      <c r="B587" s="21"/>
+      <c r="C587" s="21"/>
+      <c r="D587" s="21"/>
+      <c r="E587" s="21"/>
+      <c r="F587" s="10"/>
+    </row>
+    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B588" s="7" t="s">
+      <c r="B589" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="C589" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D588" s="7" t="s">
+      <c r="D589" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E588" s="7" t="s">
+      <c r="E589" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A589" s="8" t="s">
+    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A590" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B589" s="8" t="s">
+      <c r="B590" s="8" t="s">
         <v>1590</v>
       </c>
-      <c r="C589" s="8" t="s">
+      <c r="C590" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="D589" s="8" t="s">
+      <c r="D590" s="8" t="s">
         <v>1592</v>
       </c>
-      <c r="E589" s="8"/>
-    </row>
-    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A590" s="9" t="s">
+      <c r="E590" s="8"/>
+    </row>
+    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A591" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B591" s="9" t="s">
         <v>1593</v>
       </c>
-      <c r="C590" s="9" t="s">
+      <c r="C591" s="9" t="s">
         <v>1594</v>
       </c>
-      <c r="D590" s="9" t="s">
+      <c r="D591" s="9" t="s">
         <v>1595</v>
       </c>
-      <c r="E590" s="9"/>
-    </row>
-    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A591" s="8" t="s">
+      <c r="E591" s="9"/>
+    </row>
+    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A592" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B591" s="8" t="s">
+      <c r="B592" s="8" t="s">
         <v>1596</v>
       </c>
-      <c r="C591" s="8" t="s">
+      <c r="C592" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="D591" s="8" t="s">
+      <c r="D592" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="E591" s="8"/>
-    </row>
-    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A592" s="9" t="s">
+      <c r="E592" s="8"/>
+    </row>
+    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A593" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B593" s="9" t="s">
         <v>1599</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C593" s="9" t="s">
         <v>1600</v>
       </c>
-      <c r="D592" s="9" t="s">
+      <c r="D593" s="9" t="s">
         <v>1601</v>
       </c>
-      <c r="E592" s="9"/>
-    </row>
-    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A593" s="8" t="s">
+      <c r="E593" s="9"/>
+    </row>
+    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A594" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B593" s="8" t="s">
+      <c r="B594" s="8" t="s">
         <v>1602</v>
       </c>
-      <c r="C593" s="8" t="s">
+      <c r="C594" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="D593" s="8" t="s">
+      <c r="D594" s="8" t="s">
         <v>1604</v>
       </c>
-      <c r="E593" s="8"/>
-    </row>
-    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A594" s="9" t="s">
+      <c r="E594" s="8"/>
+    </row>
+    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A595" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B595" s="9" t="s">
         <v>1605</v>
       </c>
-      <c r="C594" s="9" t="s">
+      <c r="C595" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="D594" s="9" t="s">
+      <c r="D595" s="9" t="s">
         <v>1607</v>
       </c>
-      <c r="E594" s="9"/>
-    </row>
-    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A595" s="8" t="s">
+      <c r="E595" s="9"/>
+    </row>
+    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A596" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B595" s="8" t="s">
+      <c r="B596" s="8" t="s">
         <v>1608</v>
       </c>
-      <c r="C595" s="8" t="s">
+      <c r="C596" s="8" t="s">
         <v>1609</v>
       </c>
-      <c r="D595" s="8" t="s">
+      <c r="D596" s="8" t="s">
         <v>1610</v>
       </c>
-      <c r="E595" s="8"/>
-    </row>
-    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A596" s="9" t="s">
+      <c r="E596" s="8"/>
+    </row>
+    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A597" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B597" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="C596" s="9" t="s">
+      <c r="C597" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="D596" s="9" t="s">
+      <c r="D597" s="9" t="s">
         <v>1613</v>
       </c>
-      <c r="E596" s="9"/>
-    </row>
-    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A597" s="8" t="s">
+      <c r="E597" s="9"/>
+    </row>
+    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A598" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B597" s="8" t="s">
+      <c r="B598" s="8" t="s">
         <v>1614</v>
       </c>
-      <c r="C597" s="8" t="s">
+      <c r="C598" s="8" t="s">
         <v>1615</v>
       </c>
-      <c r="D597" s="8" t="s">
+      <c r="D598" s="8" t="s">
         <v>1616</v>
       </c>
-      <c r="E597" s="8"/>
-    </row>
-    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A598" s="9" t="s">
+      <c r="E598" s="8"/>
+    </row>
+    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A599" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B599" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="C598" s="9" t="s">
+      <c r="C599" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="D598" s="9" t="s">
+      <c r="D599" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="E598" s="9"/>
-    </row>
-    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A599" s="8" t="s">
+      <c r="E599" s="9"/>
+    </row>
+    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A600" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B599" s="8" t="s">
+      <c r="B600" s="8" t="s">
         <v>1620</v>
       </c>
-      <c r="C599" s="8" t="s">
+      <c r="C600" s="8" t="s">
         <v>1621</v>
       </c>
-      <c r="D599" s="8" t="s">
+      <c r="D600" s="8" t="s">
         <v>1622</v>
       </c>
-      <c r="E599" s="8"/>
-    </row>
-    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A600" s="9" t="s">
+      <c r="E600" s="8"/>
+    </row>
+    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A601" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B601" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="C600" s="9" t="s">
+      <c r="C601" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="D600" s="9" t="s">
+      <c r="D601" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="E600" s="9"/>
-    </row>
-    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A601" s="8" t="s">
+      <c r="E601" s="9"/>
+    </row>
+    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A602" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B601" s="8" t="s">
+      <c r="B602" s="8" t="s">
         <v>1626</v>
       </c>
-      <c r="C601" s="8" t="s">
+      <c r="C602" s="8" t="s">
         <v>1627</v>
       </c>
-      <c r="D601" s="8" t="s">
+      <c r="D602" s="8" t="s">
         <v>1628</v>
       </c>
-      <c r="E601" s="8"/>
-    </row>
-    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A602" s="9" t="s">
+      <c r="E602" s="8"/>
+    </row>
+    <row r="603" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A603" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B603" s="9" t="s">
         <v>1629</v>
       </c>
-      <c r="C602" s="9" t="s">
+      <c r="C603" s="9" t="s">
         <v>1630</v>
       </c>
-      <c r="D602" s="9" t="s">
+      <c r="D603" s="9" t="s">
         <v>1631</v>
       </c>
-      <c r="E602" s="9"/>
-    </row>
-    <row r="603" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="8" t="s">
+      <c r="E603" s="9"/>
+    </row>
+    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B603" s="8" t="s">
+      <c r="B604" s="8" t="s">
         <v>1632</v>
       </c>
-      <c r="C603" s="8" t="s">
+      <c r="C604" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="D603" s="8" t="s">
+      <c r="D604" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="E603" s="8"/>
-    </row>
-    <row r="604" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A604" s="9" t="s">
+      <c r="E604" s="8"/>
+    </row>
+    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A605" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B605" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="C604" s="9" t="s">
+      <c r="C605" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="D604" s="9" t="s">
+      <c r="D605" s="9" t="s">
         <v>1637</v>
       </c>
-      <c r="E604" s="9"/>
-    </row>
-    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A605" s="8" t="s">
+      <c r="E605" s="9"/>
+    </row>
+    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A606" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B605" s="8" t="s">
+      <c r="B606" s="8" t="s">
         <v>1638</v>
       </c>
-      <c r="C605" s="8" t="s">
+      <c r="C606" s="8" t="s">
         <v>1639</v>
       </c>
-      <c r="D605" s="8" t="s">
+      <c r="D606" s="8" t="s">
         <v>1640</v>
       </c>
-      <c r="E605" s="8"/>
-    </row>
-    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A606" s="9" t="s">
+      <c r="E606" s="8"/>
+    </row>
+    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A607" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B607" s="9" t="s">
         <v>1641</v>
       </c>
-      <c r="C606" s="9" t="s">
+      <c r="C607" s="9" t="s">
         <v>1642</v>
       </c>
-      <c r="D606" s="9" t="s">
+      <c r="D607" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="E606" s="9"/>
-    </row>
-    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A607" s="8" t="s">
+      <c r="E607" s="9"/>
+    </row>
+    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A608" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B607" s="8" t="s">
+      <c r="B608" s="8" t="s">
         <v>1644</v>
       </c>
-      <c r="C607" s="8" t="s">
+      <c r="C608" s="8" t="s">
         <v>1645</v>
       </c>
-      <c r="D607" s="8" t="s">
+      <c r="D608" s="8" t="s">
         <v>1646</v>
       </c>
-      <c r="E607" s="8"/>
-    </row>
-    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A608" s="9" t="s">
+      <c r="E608" s="8"/>
+    </row>
+    <row r="609" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B609" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="C609" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="D608" s="9" t="s">
+      <c r="D609" s="9" t="s">
         <v>1649</v>
       </c>
-      <c r="E608" s="9"/>
-    </row>
-    <row r="609" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A609" s="8" t="s">
+      <c r="E609" s="9"/>
+    </row>
+    <row r="610" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A610" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B609" s="8" t="s">
+      <c r="B610" s="8" t="s">
         <v>1650</v>
       </c>
-      <c r="C609" s="8" t="s">
+      <c r="C610" s="8" t="s">
         <v>1651</v>
       </c>
-      <c r="D609" s="8" t="s">
+      <c r="D610" s="8" t="s">
         <v>1652</v>
       </c>
-      <c r="E609" s="8"/>
-    </row>
-    <row r="610" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A610" s="9" t="s">
+      <c r="E610" s="8"/>
+    </row>
+    <row r="611" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B611" s="9" t="s">
         <v>1653</v>
       </c>
-      <c r="C610" s="9" t="s">
+      <c r="C611" s="9" t="s">
         <v>1654</v>
       </c>
-      <c r="D610" s="9" t="s">
+      <c r="D611" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="E610" s="9"/>
-    </row>
-    <row r="611" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A611" s="8" t="s">
+      <c r="E611" s="9"/>
+    </row>
+    <row r="612" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A612" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B611" s="8" t="s">
+      <c r="B612" s="8" t="s">
         <v>1656</v>
       </c>
-      <c r="C611" s="8" t="s">
+      <c r="C612" s="8" t="s">
         <v>1657</v>
       </c>
-      <c r="D611" s="8" t="s">
+      <c r="D612" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="E611" s="8"/>
-    </row>
-    <row r="612" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A612" s="9" t="s">
+      <c r="E612" s="8"/>
+    </row>
+    <row r="613" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B613" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="C612" s="9" t="s">
+      <c r="C613" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="D612" s="9" t="s">
+      <c r="D613" s="9" t="s">
         <v>1661</v>
       </c>
-      <c r="E612" s="9"/>
-    </row>
-    <row r="613" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A613" s="8" t="s">
+      <c r="E613" s="9"/>
+    </row>
+    <row r="614" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A614" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="B614" s="8" t="s">
         <v>1662</v>
       </c>
-      <c r="C613" s="8" t="s">
+      <c r="C614" s="8" t="s">
         <v>1663</v>
       </c>
-      <c r="D613" s="8" t="s">
+      <c r="D614" s="8" t="s">
         <v>1664</v>
       </c>
-      <c r="E613" s="8"/>
-    </row>
-    <row r="614" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A614" s="9" t="s">
+      <c r="E614" s="8"/>
+    </row>
+    <row r="615" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B615" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="C614" s="9" t="s">
+      <c r="C615" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="D614" s="9" t="s">
+      <c r="D615" s="9" t="s">
         <v>1667</v>
       </c>
-      <c r="E614" s="9"/>
-    </row>
-    <row r="615" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A615" s="8" t="s">
+      <c r="E615" s="9"/>
+    </row>
+    <row r="616" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A616" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B615" s="8" t="s">
+      <c r="B616" s="8" t="s">
         <v>1668</v>
       </c>
-      <c r="C615" s="8" t="s">
+      <c r="C616" s="8" t="s">
         <v>1669</v>
       </c>
-      <c r="D615" s="8" t="s">
+      <c r="D616" s="8" t="s">
         <v>1670</v>
       </c>
-      <c r="E615" s="8"/>
-    </row>
-    <row r="616" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A616" s="9" t="s">
+      <c r="E616" s="8"/>
+    </row>
+    <row r="617" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B617" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="C616" s="9" t="s">
+      <c r="C617" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="D616" s="9" t="s">
+      <c r="D617" s="9" t="s">
         <v>1673</v>
       </c>
-      <c r="E616" s="9"/>
-    </row>
-    <row r="617" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A617" s="8" t="s">
+      <c r="E617" s="9"/>
+    </row>
+    <row r="618" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A618" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B617" s="8" t="s">
+      <c r="B618" s="8" t="s">
         <v>1674</v>
       </c>
-      <c r="C617" s="8" t="s">
+      <c r="C618" s="8" t="s">
         <v>1675</v>
       </c>
-      <c r="D617" s="8" t="s">
+      <c r="D618" s="8" t="s">
         <v>1676</v>
       </c>
-      <c r="E617" s="8"/>
-    </row>
-    <row r="618" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A618" s="9" t="s">
+      <c r="E618" s="8"/>
+    </row>
+    <row r="619" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B619" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="C618" s="9" t="s">
+      <c r="C619" s="9" t="s">
         <v>1678</v>
       </c>
-      <c r="D618" s="9" t="s">
+      <c r="D619" s="9" t="s">
         <v>1679</v>
       </c>
-      <c r="E618" s="9"/>
-    </row>
-    <row r="619" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A619" s="8" t="s">
+      <c r="E619" s="9"/>
+    </row>
+    <row r="620" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A620" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B619" s="8" t="s">
+      <c r="B620" s="8" t="s">
         <v>1680</v>
       </c>
-      <c r="C619" s="8" t="s">
+      <c r="C620" s="8" t="s">
         <v>1681</v>
       </c>
-      <c r="D619" s="8" t="s">
+      <c r="D620" s="8" t="s">
         <v>1682</v>
       </c>
-      <c r="E619" s="8"/>
-    </row>
-    <row r="620" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A620" s="9" t="s">
+      <c r="E620" s="8"/>
+    </row>
+    <row r="621" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B621" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="C621" s="9" t="s">
         <v>1684</v>
       </c>
-      <c r="D620" s="9" t="s">
+      <c r="D621" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="E620" s="9"/>
-    </row>
-    <row r="621" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A621" s="8" t="s">
+      <c r="E621" s="9"/>
+    </row>
+    <row r="622" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A622" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B621" s="8" t="s">
+      <c r="B622" s="8" t="s">
         <v>1686</v>
       </c>
-      <c r="C621" s="8" t="s">
+      <c r="C622" s="8" t="s">
         <v>1687</v>
       </c>
-      <c r="D621" s="8" t="s">
+      <c r="D622" s="8" t="s">
         <v>1688</v>
       </c>
-      <c r="E621" s="8"/>
-    </row>
-    <row r="622" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A622" s="9" t="s">
+      <c r="E622" s="8"/>
+    </row>
+    <row r="623" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B623" s="9" t="s">
         <v>1689</v>
       </c>
-      <c r="C622" s="9" t="s">
+      <c r="C623" s="9" t="s">
         <v>1690</v>
       </c>
-      <c r="D622" s="9" t="s">
+      <c r="D623" s="9" t="s">
         <v>1691</v>
       </c>
-      <c r="E622" s="9"/>
-    </row>
-    <row r="623" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A623" s="8" t="s">
+      <c r="E623" s="9"/>
+    </row>
+    <row r="624" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A624" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B623" s="8" t="s">
+      <c r="B624" s="8" t="s">
         <v>1692</v>
       </c>
-      <c r="C623" s="8" t="s">
+      <c r="C624" s="8" t="s">
         <v>1693</v>
       </c>
-      <c r="D623" s="8" t="s">
+      <c r="D624" s="8" t="s">
         <v>1694</v>
       </c>
-      <c r="E623" s="8"/>
-    </row>
-    <row r="624" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A624" s="9" t="s">
+      <c r="E624" s="8"/>
+    </row>
+    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A625" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B625" s="9" t="s">
         <v>1695</v>
       </c>
-      <c r="C624" s="9" t="s">
+      <c r="C625" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="D624" s="9" t="s">
+      <c r="D625" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="E624" s="9"/>
-    </row>
-    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A625" s="8" t="s">
+      <c r="E625" s="9"/>
+    </row>
+    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A626" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B625" s="8" t="s">
+      <c r="B626" s="8" t="s">
         <v>1698</v>
       </c>
-      <c r="C625" s="8" t="s">
+      <c r="C626" s="8" t="s">
         <v>1699</v>
       </c>
-      <c r="D625" s="8" t="s">
+      <c r="D626" s="8" t="s">
         <v>1700</v>
       </c>
-      <c r="E625" s="8"/>
-    </row>
-    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A626" s="9" t="s">
+      <c r="E626" s="8"/>
+    </row>
+    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A627" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B627" s="9" t="s">
         <v>1701</v>
       </c>
-      <c r="C626" s="9" t="s">
+      <c r="C627" s="9" t="s">
         <v>1702</v>
       </c>
-      <c r="D626" s="9" t="s">
+      <c r="D627" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="E626" s="9"/>
-    </row>
-    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A627" s="8" t="s">
+      <c r="E627" s="9"/>
+    </row>
+    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A628" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B627" s="8" t="s">
+      <c r="B628" s="8" t="s">
         <v>1704</v>
       </c>
-      <c r="C627" s="8" t="s">
+      <c r="C628" s="8" t="s">
         <v>1705</v>
       </c>
-      <c r="D627" s="8" t="s">
+      <c r="D628" s="8" t="s">
         <v>1706</v>
       </c>
-      <c r="E627" s="8"/>
-    </row>
-    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A628" s="9" t="s">
+      <c r="E628" s="8"/>
+    </row>
+    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A629" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B629" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="C629" s="9" t="s">
         <v>1708</v>
       </c>
-      <c r="D628" s="9" t="s">
+      <c r="D629" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="E628" s="9"/>
-    </row>
-    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A629" s="8" t="s">
+      <c r="E629" s="9"/>
+    </row>
+    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A630" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B629" s="8" t="s">
+      <c r="B630" s="8" t="s">
         <v>1710</v>
       </c>
-      <c r="C629" s="8" t="s">
+      <c r="C630" s="8" t="s">
         <v>1711</v>
       </c>
-      <c r="D629" s="8" t="s">
+      <c r="D630" s="8" t="s">
         <v>1712</v>
       </c>
-      <c r="E629" s="8"/>
-    </row>
-    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A630" s="9" t="s">
+      <c r="E630" s="8"/>
+    </row>
+    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A631" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B631" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="C631" s="9" t="s">
         <v>1714</v>
       </c>
-      <c r="D630" s="9" t="s">
+      <c r="D631" s="9" t="s">
         <v>1715</v>
       </c>
-      <c r="E630" s="9"/>
-    </row>
-    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A631" s="8" t="s">
+      <c r="E631" s="9"/>
+    </row>
+    <row r="632" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A632" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B631" s="8" t="s">
+      <c r="B632" s="8" t="s">
         <v>1716</v>
       </c>
-      <c r="C631" s="8" t="s">
+      <c r="C632" s="8" t="s">
         <v>1717</v>
       </c>
-      <c r="D631" s="8" t="s">
+      <c r="D632" s="8" t="s">
         <v>1718</v>
       </c>
-      <c r="E631" s="8"/>
-    </row>
-    <row r="632" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="21" t="s">
+      <c r="E632" s="8"/>
+    </row>
+    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="22" t="s">
         <v>1722</v>
       </c>
-      <c r="B632" s="21"/>
-      <c r="C632" s="21"/>
-      <c r="D632" s="21"/>
-      <c r="E632" s="21"/>
-      <c r="F632" s="10"/>
-    </row>
-    <row r="633" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="23"/>
-      <c r="B633" s="23"/>
-      <c r="C633" s="23"/>
-      <c r="D633" s="23"/>
-      <c r="E633" s="23"/>
+      <c r="B633" s="22"/>
+      <c r="C633" s="22"/>
+      <c r="D633" s="22"/>
+      <c r="E633" s="22"/>
       <c r="F633" s="10"/>
     </row>
-    <row r="634" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A634" s="8" t="s">
+    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="24"/>
+      <c r="B634" s="24"/>
+      <c r="C634" s="24"/>
+      <c r="D634" s="24"/>
+      <c r="E634" s="24"/>
+      <c r="F634" s="10"/>
+    </row>
+    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A635" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B634" s="8">
+      <c r="B635" s="8">
         <v>361556</v>
       </c>
-      <c r="C634" s="8" t="s">
+      <c r="C635" s="8" t="s">
         <v>1723</v>
       </c>
-      <c r="D634" s="8" t="s">
+      <c r="D635" s="8" t="s">
         <v>1724</v>
       </c>
-      <c r="E634" s="8"/>
-    </row>
-    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A635" s="9" t="s">
+      <c r="E635" s="8"/>
+    </row>
+    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A636" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B635" s="9">
+      <c r="B636" s="9">
         <v>1324701</v>
       </c>
-      <c r="C635" s="8" t="s">
+      <c r="C636" s="8" t="s">
         <v>1725</v>
       </c>
-      <c r="D635" s="9" t="s">
+      <c r="D636" s="9" t="s">
         <v>1726</v>
       </c>
-      <c r="E635" s="9"/>
-    </row>
-    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A636" s="8" t="s">
+      <c r="E636" s="9"/>
+    </row>
+    <row r="637" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A637" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B636" s="8">
+      <c r="B637" s="8">
         <v>1324688</v>
       </c>
-      <c r="C636" s="8" t="s">
+      <c r="C637" s="8" t="s">
         <v>1727</v>
       </c>
-      <c r="D636" s="8" t="s">
+      <c r="D637" s="8" t="s">
         <v>1728</v>
       </c>
-      <c r="E636" s="8"/>
-    </row>
-    <row r="638" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="20" t="s">
+      <c r="E637" s="8"/>
+    </row>
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="21" t="s">
         <v>1729</v>
       </c>
-      <c r="B638" s="20"/>
-      <c r="C638" s="20"/>
-      <c r="D638" s="20"/>
-      <c r="E638" s="20"/>
-      <c r="F638" s="10"/>
-    </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="22"/>
-      <c r="B639" s="22"/>
-      <c r="C639" s="22"/>
-      <c r="D639" s="22"/>
-      <c r="E639" s="22"/>
+      <c r="B639" s="21"/>
+      <c r="C639" s="21"/>
+      <c r="D639" s="21"/>
+      <c r="E639" s="21"/>
       <c r="F639" s="10"/>
     </row>
-    <row r="640" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="7" t="s">
+    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="23"/>
+      <c r="B640" s="23"/>
+      <c r="C640" s="23"/>
+      <c r="D640" s="23"/>
+      <c r="E640" s="23"/>
+      <c r="F640" s="10"/>
+    </row>
+    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B640" s="7" t="s">
+      <c r="B641" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C640" s="7" t="s">
+      <c r="C641" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D640" s="7" t="s">
+      <c r="D641" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E640" s="7" t="s">
+      <c r="E641" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A641" s="8" t="s">
+    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A642" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B641" s="8">
+      <c r="B642" s="8">
         <v>2094995</v>
       </c>
-      <c r="C641" s="13" t="s">
+      <c r="C642" s="13" t="s">
         <v>1730</v>
       </c>
-      <c r="D641" s="16" t="s">
+      <c r="D642" s="16" t="s">
         <v>1743</v>
       </c>
-      <c r="E641" s="8"/>
-    </row>
-    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A642" s="9" t="s">
+      <c r="E642" s="8"/>
+    </row>
+    <row r="643" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A643" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B642" s="9">
+      <c r="B643" s="9">
         <v>2095303</v>
       </c>
-      <c r="C642" s="13" t="s">
+      <c r="C643" s="13" t="s">
         <v>1731</v>
       </c>
-      <c r="D642" s="17" t="s">
+      <c r="D643" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="E642" s="9"/>
-    </row>
-    <row r="643" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A643" s="8" t="s">
+      <c r="E643" s="9"/>
+    </row>
+    <row r="644" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A644" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B643" s="8">
+      <c r="B644" s="8">
         <v>1324716</v>
       </c>
-      <c r="C643" s="13" t="s">
+      <c r="C644" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="D643" s="16" t="s">
+      <c r="D644" s="16" t="s">
         <v>1745</v>
       </c>
-      <c r="E643" s="8"/>
-    </row>
-    <row r="644" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A644" s="9" t="s">
+      <c r="E644" s="8"/>
+    </row>
+    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A645" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B644" s="9">
+      <c r="B645" s="9">
         <v>2136996</v>
       </c>
-      <c r="C644" s="13" t="s">
+      <c r="C645" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="D644" s="17" t="s">
+      <c r="D645" s="17" t="s">
         <v>1746</v>
       </c>
-      <c r="E644" s="9"/>
-    </row>
-    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A645" s="8" t="s">
+      <c r="E645" s="9"/>
+    </row>
+    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A646" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B645" s="8">
+      <c r="B646" s="8">
         <v>2095258</v>
       </c>
-      <c r="C645" s="13" t="s">
+      <c r="C646" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="D645" s="16" t="s">
+      <c r="D646" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="E645" s="8"/>
-    </row>
-    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A646" s="9" t="s">
+      <c r="E646" s="8"/>
+    </row>
+    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A647" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B646" s="9">
+      <c r="B647" s="9">
         <v>1480879</v>
       </c>
-      <c r="C646" s="13" t="s">
+      <c r="C647" s="13" t="s">
         <v>1735</v>
       </c>
-      <c r="D646" s="17" t="s">
+      <c r="D647" s="17" t="s">
         <v>1748</v>
       </c>
-      <c r="E646" s="9"/>
-    </row>
-    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A647" s="9">
+      <c r="E647" s="9"/>
+    </row>
+    <row r="648" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A648" s="9">
         <v>7</v>
       </c>
-      <c r="B647" s="9">
+      <c r="B648" s="9">
         <v>1480732</v>
       </c>
-      <c r="C647" s="13" t="s">
+      <c r="C648" s="37" t="s">
         <v>1736</v>
       </c>
-      <c r="D647" s="17" t="s">
+      <c r="D648" s="17" t="s">
         <v>1749</v>
       </c>
-      <c r="E647" s="9"/>
-    </row>
-    <row r="648" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A648" s="9">
+      <c r="E648" s="9"/>
+    </row>
+    <row r="649" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A649" s="9">
         <v>8</v>
       </c>
-      <c r="B648" s="9">
+      <c r="B649" s="9">
         <v>1480725</v>
       </c>
-      <c r="C648" s="13" t="s">
+      <c r="C649" s="37" t="s">
         <v>1737</v>
       </c>
-      <c r="D648" s="17" t="s">
+      <c r="D649" s="17" t="s">
         <v>1750</v>
-      </c>
-      <c r="E648" s="9"/>
-    </row>
-    <row r="649" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A649" s="9">
-        <v>9</v>
-      </c>
-      <c r="B649" s="9">
-        <v>1324706</v>
-      </c>
-      <c r="C649" s="13" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D649" s="17" t="s">
-        <v>1751</v>
       </c>
       <c r="E649" s="9"/>
     </row>
     <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A650" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B650" s="9">
-        <v>370197</v>
+        <v>1324706</v>
       </c>
       <c r="C650" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D650" s="17" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E650" s="9"/>
     </row>
     <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A651" s="9">
+        <v>10</v>
+      </c>
+      <c r="B651" s="9">
+        <v>370197</v>
+      </c>
+      <c r="C651" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D651" s="17" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E651" s="9"/>
+    </row>
+    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A652" s="9">
         <v>11</v>
       </c>
-      <c r="B651" s="9">
+      <c r="B652" s="9">
         <v>419439</v>
       </c>
-      <c r="C651" s="14" t="s">
+      <c r="C652" s="14" t="s">
         <v>1740</v>
       </c>
-      <c r="D651" s="17" t="s">
+      <c r="D652" s="17" t="s">
         <v>1753</v>
       </c>
-      <c r="E651" s="9"/>
-    </row>
-    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A652" s="8">
+      <c r="E652" s="9"/>
+    </row>
+    <row r="653" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A653" s="8">
         <v>12</v>
       </c>
-      <c r="B652" s="8">
+      <c r="B653" s="8">
         <v>427163</v>
       </c>
-      <c r="C652" s="12" t="s">
+      <c r="C653" s="20" t="s">
         <v>1741</v>
       </c>
-      <c r="D652" s="16" t="s">
+      <c r="D653" s="16" t="s">
         <v>1754</v>
       </c>
-      <c r="E652" s="8"/>
-    </row>
-    <row r="653" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A653" s="9">
+      <c r="E653" s="8"/>
+    </row>
+    <row r="654" spans="1:5" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A654" s="9">
         <v>13</v>
       </c>
-      <c r="B653" s="9">
+      <c r="B654" s="9">
         <v>427184</v>
       </c>
-      <c r="C653" s="12" t="s">
+      <c r="C654" s="12" t="s">
         <v>1742</v>
       </c>
-      <c r="D653" s="17" t="s">
+      <c r="D654" s="17" t="s">
         <v>1755</v>
       </c>
-      <c r="E653" s="9"/>
+      <c r="E654" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A428:E429"/>
-    <mergeCell ref="A436:E437"/>
-    <mergeCell ref="A632:E633"/>
-    <mergeCell ref="A638:E639"/>
-    <mergeCell ref="A489:E490"/>
-    <mergeCell ref="A527:E528"/>
-    <mergeCell ref="A548:E549"/>
-    <mergeCell ref="A585:E586"/>
+    <mergeCell ref="A429:E430"/>
+    <mergeCell ref="A437:E438"/>
+    <mergeCell ref="A633:E634"/>
+    <mergeCell ref="A639:E640"/>
+    <mergeCell ref="A490:E491"/>
+    <mergeCell ref="A528:E529"/>
+    <mergeCell ref="A549:E550"/>
+    <mergeCell ref="A586:E587"/>
     <mergeCell ref="A135:E136"/>
     <mergeCell ref="A146:E147"/>
     <mergeCell ref="A177:E178"/>
@@ -15299,33 +15436,26 @@
     <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C14" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C27" r:id="rId19"/>
-    <hyperlink ref="C28" r:id="rId20"/>
-    <hyperlink ref="C29" r:id="rId21"/>
-    <hyperlink ref="C30" r:id="rId22"/>
-    <hyperlink ref="C31" r:id="rId23"/>
-    <hyperlink ref="C32" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
+    <hyperlink ref="C389" r:id="rId1"/>
+    <hyperlink ref="C653" r:id="rId2"/>
+    <hyperlink ref="C108" r:id="rId3"/>
+    <hyperlink ref="C188" r:id="rId4"/>
+    <hyperlink ref="C158" r:id="rId5"/>
+    <hyperlink ref="C501" r:id="rId6"/>
+    <hyperlink ref="C500" r:id="rId7"/>
+    <hyperlink ref="C585" r:id="rId8"/>
+    <hyperlink ref="C648" r:id="rId9"/>
+    <hyperlink ref="C649" r:id="rId10"/>
+    <hyperlink ref="C387" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C407" r:id="rId13"/>
+    <hyperlink ref="C373" r:id="rId14"/>
+    <hyperlink ref="C378" r:id="rId15"/>
+    <hyperlink ref="C537" r:id="rId16"/>
+    <hyperlink ref="C343" r:id="rId17"/>
+    <hyperlink ref="C338" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSTK_BPO\Documents\GitHub\Technica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4D411-A518-429C-B763-55C8999BE80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1777">
   <si>
     <t>П/П</t>
   </si>
@@ -5353,7 +5359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -5612,12 +5618,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5684,6 +5684,12 @@
     <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5745,7 +5751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5778,9 +5784,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5813,6 +5836,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5988,52 +6028,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F679"/>
+  <dimension ref="A1:F680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B297" sqref="B297"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G686" sqref="G686"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="53" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+    <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6063,9 +6104,9 @@
       <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -6078,9 +6119,9 @@
       <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -6093,9 +6134,9 @@
       <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -6108,27 +6149,27 @@
       <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6145,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -6158,10 +6199,10 @@
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6174,10 +6215,10 @@
       <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -6190,10 +6231,10 @@
       <c r="D15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -6206,10 +6247,10 @@
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6222,10 +6263,10 @@
       <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -6238,10 +6279,10 @@
       <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -6254,10 +6295,10 @@
       <c r="D19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6270,10 +6311,10 @@
       <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -6286,10 +6327,10 @@
       <c r="D21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -6302,10 +6343,10 @@
       <c r="D22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -6318,10 +6359,10 @@
       <c r="D23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
@@ -6334,10 +6375,10 @@
       <c r="D24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -6350,10 +6391,10 @@
       <c r="D25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -6366,10 +6407,10 @@
       <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -6382,10 +6423,10 @@
       <c r="D27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -6398,10 +6439,10 @@
       <c r="D28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -6414,10 +6455,10 @@
       <c r="D29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -6430,10 +6471,10 @@
       <c r="D30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -6446,10 +6487,10 @@
       <c r="D31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -6462,10 +6503,10 @@
       <c r="D32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
@@ -6478,10 +6519,10 @@
       <c r="D33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -6494,10 +6535,10 @@
       <c r="D34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -6510,10 +6551,10 @@
       <c r="D35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -6526,10 +6567,10 @@
       <c r="D36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="27"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -6542,10 +6583,10 @@
       <c r="D37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -6558,10 +6599,10 @@
       <c r="D38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>123</v>
       </c>
@@ -6574,9 +6615,9 @@
       <c r="D39" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>127</v>
       </c>
@@ -6589,9 +6630,9 @@
       <c r="D40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>131</v>
       </c>
@@ -6604,9 +6645,9 @@
       <c r="D41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
@@ -6619,9 +6660,9 @@
       <c r="D42" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>139</v>
       </c>
@@ -6634,9 +6675,9 @@
       <c r="D43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -6649,9 +6690,9 @@
       <c r="D44" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -6664,9 +6705,9 @@
       <c r="D45" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -6679,9 +6720,9 @@
       <c r="D46" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -6694,9 +6735,9 @@
       <c r="D47" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -6709,9 +6750,9 @@
       <c r="D48" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>163</v>
       </c>
@@ -6724,9 +6765,9 @@
       <c r="D49" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6739,9 +6780,9 @@
       <c r="D50" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
@@ -6754,9 +6795,9 @@
       <c r="D51" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>175</v>
       </c>
@@ -6769,9 +6810,9 @@
       <c r="D52" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="27"/>
-    </row>
-    <row r="53" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>179</v>
       </c>
@@ -6784,9 +6825,9 @@
       <c r="D53" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
@@ -6799,9 +6840,9 @@
       <c r="D54" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -6814,9 +6855,9 @@
       <c r="D55" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="27"/>
-    </row>
-    <row r="56" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>191</v>
       </c>
@@ -6829,9 +6870,9 @@
       <c r="D56" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="27"/>
-    </row>
-    <row r="57" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>195</v>
       </c>
@@ -6844,9 +6885,9 @@
       <c r="D57" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E57" s="27"/>
-    </row>
-    <row r="58" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>199</v>
       </c>
@@ -6859,27 +6900,27 @@
       <c r="D58" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -6896,7 +6937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
@@ -6909,9 +6950,9 @@
       <c r="D63" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="27"/>
-    </row>
-    <row r="64" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
@@ -6924,9 +6965,9 @@
       <c r="D64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>13</v>
       </c>
@@ -6939,9 +6980,9 @@
       <c r="D65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="27"/>
-    </row>
-    <row r="66" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -6954,9 +6995,9 @@
       <c r="D66" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>35</v>
       </c>
@@ -6969,9 +7010,9 @@
       <c r="D67" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="27"/>
-    </row>
-    <row r="68" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>39</v>
       </c>
@@ -6984,9 +7025,9 @@
       <c r="D68" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E68" s="27"/>
-    </row>
-    <row r="69" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>43</v>
       </c>
@@ -6999,27 +7040,27 @@
       <c r="D69" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="27"/>
-    </row>
-    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -7036,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -7049,9 +7090,9 @@
       <c r="D74" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="27"/>
-    </row>
-    <row r="75" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E74" s="25"/>
+    </row>
+    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7064,9 +7105,9 @@
       <c r="D75" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E75" s="27"/>
-    </row>
-    <row r="76" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
@@ -7079,9 +7120,9 @@
       <c r="D76" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E76" s="27"/>
-    </row>
-    <row r="77" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E76" s="25"/>
+    </row>
+    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>17</v>
       </c>
@@ -7094,9 +7135,9 @@
       <c r="D77" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E77" s="27"/>
-    </row>
-    <row r="78" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>35</v>
       </c>
@@ -7109,9 +7150,9 @@
       <c r="D78" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E78" s="27"/>
-    </row>
-    <row r="79" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -7124,9 +7165,9 @@
       <c r="D79" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E79" s="27"/>
-    </row>
-    <row r="80" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E79" s="25"/>
+    </row>
+    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>43</v>
       </c>
@@ -7139,9 +7180,9 @@
       <c r="D80" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="27"/>
-    </row>
-    <row r="81" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>47</v>
       </c>
@@ -7154,9 +7195,9 @@
       <c r="D81" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E81" s="27"/>
-    </row>
-    <row r="82" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>51</v>
       </c>
@@ -7169,9 +7210,9 @@
       <c r="D82" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E82" s="27"/>
-    </row>
-    <row r="83" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7184,9 +7225,9 @@
       <c r="D83" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="84" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E83" s="25"/>
+    </row>
+    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>59</v>
       </c>
@@ -7199,9 +7240,9 @@
       <c r="D84" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E84" s="27"/>
-    </row>
-    <row r="85" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E84" s="25"/>
+    </row>
+    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -7214,9 +7255,9 @@
       <c r="D85" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="27"/>
-    </row>
-    <row r="86" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>67</v>
       </c>
@@ -7229,9 +7270,9 @@
       <c r="D86" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E86" s="27"/>
-    </row>
-    <row r="87" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -7244,9 +7285,9 @@
       <c r="D87" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E87" s="27"/>
-    </row>
-    <row r="88" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E87" s="25"/>
+    </row>
+    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>75</v>
       </c>
@@ -7259,9 +7300,9 @@
       <c r="D88" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E88" s="27"/>
-    </row>
-    <row r="89" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E88" s="25"/>
+    </row>
+    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>79</v>
       </c>
@@ -7274,9 +7315,9 @@
       <c r="D89" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E89" s="27"/>
-    </row>
-    <row r="90" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
@@ -7289,9 +7330,9 @@
       <c r="D90" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="27"/>
-    </row>
-    <row r="91" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>87</v>
       </c>
@@ -7304,9 +7345,9 @@
       <c r="D91" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E91" s="27"/>
-    </row>
-    <row r="92" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -7319,9 +7360,9 @@
       <c r="D92" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E92" s="27"/>
-    </row>
-    <row r="93" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
@@ -7334,9 +7375,9 @@
       <c r="D93" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E93" s="27"/>
-    </row>
-    <row r="94" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
@@ -7349,9 +7390,9 @@
       <c r="D94" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E94" s="27"/>
-    </row>
-    <row r="95" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E94" s="25"/>
+    </row>
+    <row r="95" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
@@ -7364,9 +7405,9 @@
       <c r="D95" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E95" s="27"/>
-    </row>
-    <row r="96" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E95" s="25"/>
+    </row>
+    <row r="96" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>107</v>
       </c>
@@ -7379,9 +7420,9 @@
       <c r="D96" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E96" s="27"/>
-    </row>
-    <row r="97" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E96" s="25"/>
+    </row>
+    <row r="97" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -7394,9 +7435,9 @@
       <c r="D97" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E97" s="27"/>
-    </row>
-    <row r="98" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E97" s="25"/>
+    </row>
+    <row r="98" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>115</v>
       </c>
@@ -7409,9 +7450,9 @@
       <c r="D98" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E98" s="27"/>
-    </row>
-    <row r="99" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E98" s="25"/>
+    </row>
+    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -7424,9 +7465,9 @@
       <c r="D99" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E99" s="27"/>
-    </row>
-    <row r="100" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E99" s="25"/>
+    </row>
+    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>123</v>
       </c>
@@ -7439,9 +7480,9 @@
       <c r="D100" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E100" s="27"/>
-    </row>
-    <row r="101" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E100" s="25"/>
+    </row>
+    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -7454,9 +7495,9 @@
       <c r="D101" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E101" s="27"/>
-    </row>
-    <row r="102" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
         <v>131</v>
       </c>
@@ -7469,9 +7510,9 @@
       <c r="D102" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E102" s="27"/>
-    </row>
-    <row r="103" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -7484,9 +7525,9 @@
       <c r="D103" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E103" s="27"/>
-    </row>
-    <row r="104" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E103" s="25"/>
+    </row>
+    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -7499,9 +7540,9 @@
       <c r="D104" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E104" s="27"/>
-    </row>
-    <row r="105" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E104" s="25"/>
+    </row>
+    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>143</v>
       </c>
@@ -7514,9 +7555,9 @@
       <c r="D105" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E105" s="27"/>
-    </row>
-    <row r="106" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E105" s="25"/>
+    </row>
+    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>147</v>
       </c>
@@ -7529,9 +7570,9 @@
       <c r="D106" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E106" s="27"/>
-    </row>
-    <row r="107" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E106" s="25"/>
+    </row>
+    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>151</v>
       </c>
@@ -7544,9 +7585,9 @@
       <c r="D107" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="E107" s="27"/>
-    </row>
-    <row r="108" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E107" s="25"/>
+    </row>
+    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -7559,9 +7600,9 @@
       <c r="D108" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E108" s="27"/>
-    </row>
-    <row r="109" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E108" s="25"/>
+    </row>
+    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
@@ -7574,9 +7615,9 @@
       <c r="D109" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E109" s="27"/>
-    </row>
-    <row r="110" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E109" s="25"/>
+    </row>
+    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>163</v>
       </c>
@@ -7589,9 +7630,9 @@
       <c r="D110" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="27"/>
-    </row>
-    <row r="111" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E110" s="25"/>
+    </row>
+    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -7604,9 +7645,9 @@
       <c r="D111" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="E111" s="27"/>
-    </row>
-    <row r="112" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E111" s="25"/>
+    </row>
+    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -7619,9 +7660,9 @@
       <c r="D112" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E112" s="27"/>
-    </row>
-    <row r="113" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E112" s="25"/>
+    </row>
+    <row r="113" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>175</v>
       </c>
@@ -7634,9 +7675,9 @@
       <c r="D113" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E113" s="27"/>
-    </row>
-    <row r="114" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E113" s="25"/>
+    </row>
+    <row r="114" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>179</v>
       </c>
@@ -7649,27 +7690,27 @@
       <c r="D114" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E114" s="27"/>
-    </row>
-    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="s">
+      <c r="E114" s="25"/>
+    </row>
+    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
+    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -7686,7 +7727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>5</v>
       </c>
@@ -7699,9 +7740,9 @@
       <c r="D119" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E119" s="27"/>
-    </row>
-    <row r="120" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E119" s="25"/>
+    </row>
+    <row r="120" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>9</v>
       </c>
@@ -7714,9 +7755,9 @@
       <c r="D120" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E120" s="27"/>
-    </row>
-    <row r="121" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E120" s="25"/>
+    </row>
+    <row r="121" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
         <v>13</v>
       </c>
@@ -7729,9 +7770,9 @@
       <c r="D121" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E121" s="27"/>
-    </row>
-    <row r="122" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E121" s="25"/>
+    </row>
+    <row r="122" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>17</v>
       </c>
@@ -7744,9 +7785,9 @@
       <c r="D122" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E122" s="27"/>
-    </row>
-    <row r="123" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E122" s="25"/>
+    </row>
+    <row r="123" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>35</v>
       </c>
@@ -7759,9 +7800,9 @@
       <c r="D123" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E123" s="27"/>
-    </row>
-    <row r="124" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E123" s="25"/>
+    </row>
+    <row r="124" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
@@ -7774,9 +7815,9 @@
       <c r="D124" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E124" s="27"/>
-    </row>
-    <row r="125" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
         <v>43</v>
       </c>
@@ -7789,9 +7830,9 @@
       <c r="D125" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E125" s="27"/>
-    </row>
-    <row r="126" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E125" s="25"/>
+    </row>
+    <row r="126" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
         <v>47</v>
       </c>
@@ -7804,9 +7845,9 @@
       <c r="D126" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="E126" s="27"/>
-    </row>
-    <row r="127" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E126" s="25"/>
+    </row>
+    <row r="127" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
         <v>51</v>
       </c>
@@ -7819,9 +7860,9 @@
       <c r="D127" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E127" s="27"/>
-    </row>
-    <row r="128" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E127" s="25"/>
+    </row>
+    <row r="128" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
         <v>55</v>
       </c>
@@ -7834,9 +7875,9 @@
       <c r="D128" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="E128" s="27"/>
-    </row>
-    <row r="129" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E128" s="25"/>
+    </row>
+    <row r="129" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -7849,9 +7890,9 @@
       <c r="D129" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E129" s="27"/>
-    </row>
-    <row r="130" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E129" s="25"/>
+    </row>
+    <row r="130" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7864,9 +7905,9 @@
       <c r="D130" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E130" s="27"/>
-    </row>
-    <row r="131" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E130" s="25"/>
+    </row>
+    <row r="131" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
         <v>67</v>
       </c>
@@ -7879,9 +7920,9 @@
       <c r="D131" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="E131" s="27"/>
-    </row>
-    <row r="132" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E131" s="25"/>
+    </row>
+    <row r="132" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
         <v>71</v>
       </c>
@@ -7894,9 +7935,9 @@
       <c r="D132" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E132" s="27"/>
-    </row>
-    <row r="133" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E132" s="25"/>
+    </row>
+    <row r="133" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A133" s="9" t="s">
         <v>75</v>
       </c>
@@ -7909,9 +7950,9 @@
       <c r="D133" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E133" s="27"/>
-    </row>
-    <row r="134" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E133" s="25"/>
+    </row>
+    <row r="134" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
         <v>79</v>
       </c>
@@ -7924,27 +7965,27 @@
       <c r="D134" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="E134" s="27"/>
-    </row>
-    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="s">
+      <c r="E134" s="25"/>
+    </row>
+    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="23"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
+    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -7961,7 +8002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A139" s="9" t="s">
         <v>5</v>
       </c>
@@ -7974,9 +8015,9 @@
       <c r="D139" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E139" s="27"/>
-    </row>
-    <row r="140" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E139" s="25"/>
+    </row>
+    <row r="140" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A140" s="9" t="s">
         <v>9</v>
       </c>
@@ -7989,9 +8030,9 @@
       <c r="D140" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E140" s="27"/>
-    </row>
-    <row r="141" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E140" s="25"/>
+    </row>
+    <row r="141" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A141" s="9" t="s">
         <v>13</v>
       </c>
@@ -8004,9 +8045,9 @@
       <c r="D141" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E141" s="27"/>
-    </row>
-    <row r="142" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E141" s="25"/>
+    </row>
+    <row r="142" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -8019,9 +8060,9 @@
       <c r="D142" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E142" s="27"/>
-    </row>
-    <row r="143" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E142" s="25"/>
+    </row>
+    <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>35</v>
       </c>
@@ -8034,9 +8075,9 @@
       <c r="D143" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E143" s="27"/>
-    </row>
-    <row r="144" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E143" s="25"/>
+    </row>
+    <row r="144" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
         <v>39</v>
       </c>
@@ -8049,9 +8090,9 @@
       <c r="D144" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="E144" s="27"/>
-    </row>
-    <row r="145" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E144" s="25"/>
+    </row>
+    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A145" s="9" t="s">
         <v>43</v>
       </c>
@@ -8064,27 +8105,27 @@
       <c r="D145" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E145" s="27"/>
-    </row>
-    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="s">
+      <c r="E145" s="25"/>
+    </row>
+    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="47"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="23"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
+    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
@@ -8101,7 +8142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A150" s="9" t="s">
         <v>5</v>
       </c>
@@ -8114,9 +8155,9 @@
       <c r="D150" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="E150" s="27"/>
-    </row>
-    <row r="151" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E150" s="25"/>
+    </row>
+    <row r="151" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -8129,9 +8170,9 @@
       <c r="D151" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="E151" s="27"/>
-    </row>
-    <row r="152" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E151" s="25"/>
+    </row>
+    <row r="152" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A152" s="9" t="s">
         <v>13</v>
       </c>
@@ -8144,9 +8185,9 @@
       <c r="D152" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E152" s="27"/>
-    </row>
-    <row r="153" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E152" s="25"/>
+    </row>
+    <row r="153" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -8159,9 +8200,9 @@
       <c r="D153" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E153" s="27"/>
-    </row>
-    <row r="154" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E153" s="25"/>
+    </row>
+    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
         <v>35</v>
       </c>
@@ -8174,9 +8215,9 @@
       <c r="D154" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E154" s="27"/>
-    </row>
-    <row r="155" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E154" s="25"/>
+    </row>
+    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
         <v>39</v>
       </c>
@@ -8189,9 +8230,9 @@
       <c r="D155" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E155" s="27"/>
-    </row>
-    <row r="156" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E155" s="25"/>
+    </row>
+    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A156" s="9" t="s">
         <v>43</v>
       </c>
@@ -8204,9 +8245,9 @@
       <c r="D156" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E156" s="27"/>
-    </row>
-    <row r="157" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E156" s="25"/>
+    </row>
+    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A157" s="9" t="s">
         <v>47</v>
       </c>
@@ -8219,9 +8260,9 @@
       <c r="D157" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="E157" s="27"/>
-    </row>
-    <row r="158" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E157" s="25"/>
+    </row>
+    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A158" s="12" t="s">
         <v>51</v>
       </c>
@@ -8234,9 +8275,9 @@
       <c r="D158" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E158" s="27"/>
-    </row>
-    <row r="159" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E158" s="25"/>
+    </row>
+    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
         <v>55</v>
       </c>
@@ -8249,9 +8290,9 @@
       <c r="D159" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="E159" s="27"/>
-    </row>
-    <row r="160" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E159" s="25"/>
+    </row>
+    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A160" s="9" t="s">
         <v>59</v>
       </c>
@@ -8264,9 +8305,9 @@
       <c r="D160" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E160" s="27"/>
-    </row>
-    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E160" s="25"/>
+    </row>
+    <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8279,9 +8320,9 @@
       <c r="D161" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E161" s="27"/>
-    </row>
-    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E161" s="25"/>
+    </row>
+    <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A162" s="9" t="s">
         <v>67</v>
       </c>
@@ -8294,9 +8335,9 @@
       <c r="D162" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E162" s="27"/>
-    </row>
-    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E162" s="25"/>
+    </row>
+    <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8309,9 +8350,9 @@
       <c r="D163" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="E163" s="27"/>
-    </row>
-    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E163" s="25"/>
+    </row>
+    <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A164" s="9" t="s">
         <v>75</v>
       </c>
@@ -8324,9 +8365,9 @@
       <c r="D164" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="E164" s="27"/>
-    </row>
-    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E164" s="25"/>
+    </row>
+    <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8339,9 +8380,9 @@
       <c r="D165" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="E165" s="27"/>
-    </row>
-    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E165" s="25"/>
+    </row>
+    <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A166" s="9" t="s">
         <v>83</v>
       </c>
@@ -8354,9 +8395,9 @@
       <c r="D166" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E166" s="27"/>
-    </row>
-    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E166" s="25"/>
+    </row>
+    <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8369,9 +8410,9 @@
       <c r="D167" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="E167" s="27"/>
-    </row>
-    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E167" s="25"/>
+    </row>
+    <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A168" s="9" t="s">
         <v>91</v>
       </c>
@@ -8384,26 +8425,26 @@
       <c r="D168" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E168" s="27"/>
-    </row>
-    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E168" s="25"/>
+    </row>
+    <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A169" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B169" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C169" s="37" t="s">
+      <c r="C169" s="35" t="s">
         <v>477</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="28" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A170" s="9" t="s">
         <v>99</v>
       </c>
@@ -8416,9 +8457,9 @@
       <c r="D170" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="E170" s="27"/>
-    </row>
-    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E170" s="25"/>
+    </row>
+    <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A171" s="9" t="s">
         <v>103</v>
       </c>
@@ -8431,9 +8472,9 @@
       <c r="D171" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="E171" s="27"/>
-    </row>
-    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E171" s="25"/>
+    </row>
+    <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A172" s="9" t="s">
         <v>107</v>
       </c>
@@ -8446,9 +8487,9 @@
       <c r="D172" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="E172" s="27"/>
-    </row>
-    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E172" s="25"/>
+    </row>
+    <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8461,9 +8502,9 @@
       <c r="D173" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E173" s="27"/>
-    </row>
-    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E173" s="25"/>
+    </row>
+    <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A174" s="9" t="s">
         <v>115</v>
       </c>
@@ -8476,41 +8517,41 @@
       <c r="D174" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E174" s="27"/>
-    </row>
-    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E174" s="25"/>
+    </row>
+    <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="s">
+    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="23"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
+    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -8527,7 +8568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -8540,9 +8581,9 @@
       <c r="D181" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E181" s="27"/>
-    </row>
-    <row r="182" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E181" s="25"/>
+    </row>
+    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A182" s="9" t="s">
         <v>9</v>
       </c>
@@ -8555,9 +8596,9 @@
       <c r="D182" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="E182" s="27"/>
-    </row>
-    <row r="183" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E182" s="25"/>
+    </row>
+    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A183" s="9" t="s">
         <v>13</v>
       </c>
@@ -8570,9 +8611,9 @@
       <c r="D183" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E183" s="27"/>
-    </row>
-    <row r="184" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E183" s="25"/>
+    </row>
+    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -8585,9 +8626,9 @@
       <c r="D184" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="E184" s="27"/>
-    </row>
-    <row r="185" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E184" s="25"/>
+    </row>
+    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A185" s="9" t="s">
         <v>35</v>
       </c>
@@ -8600,9 +8641,9 @@
       <c r="D185" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E185" s="27"/>
-    </row>
-    <row r="186" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E185" s="25"/>
+    </row>
+    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A186" s="9" t="s">
         <v>39</v>
       </c>
@@ -8615,9 +8656,9 @@
       <c r="D186" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E186" s="27"/>
-    </row>
-    <row r="187" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E186" s="25"/>
+    </row>
+    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A187" s="9" t="s">
         <v>43</v>
       </c>
@@ -8630,9 +8671,9 @@
       <c r="D187" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="E187" s="27"/>
-    </row>
-    <row r="188" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E187" s="25"/>
+    </row>
+    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A188" s="12" t="s">
         <v>47</v>
       </c>
@@ -8645,27 +8686,27 @@
       <c r="D188" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E188" s="27"/>
-    </row>
-    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="23" t="s">
+      <c r="E188" s="25"/>
+    </row>
+    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="23"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="47"/>
+      <c r="D189" s="47"/>
+      <c r="E189" s="47"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="23"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
+    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="47"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="47"/>
+      <c r="D190" s="47"/>
+      <c r="E190" s="47"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
@@ -8682,7 +8723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -8695,9 +8736,9 @@
       <c r="D193" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E193" s="27"/>
-    </row>
-    <row r="194" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E193" s="25"/>
+    </row>
+    <row r="194" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8710,9 +8751,9 @@
       <c r="D194" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E194" s="27"/>
-    </row>
-    <row r="195" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E194" s="25"/>
+    </row>
+    <row r="195" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>13</v>
       </c>
@@ -8725,9 +8766,9 @@
       <c r="D195" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E195" s="27"/>
-    </row>
-    <row r="196" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E195" s="25"/>
+    </row>
+    <row r="196" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8740,9 +8781,9 @@
       <c r="D196" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E196" s="27"/>
-    </row>
-    <row r="197" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E196" s="25"/>
+    </row>
+    <row r="197" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>35</v>
       </c>
@@ -8755,9 +8796,9 @@
       <c r="D197" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="E197" s="27"/>
-    </row>
-    <row r="198" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E197" s="25"/>
+    </row>
+    <row r="198" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8770,9 +8811,9 @@
       <c r="D198" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="E198" s="27"/>
-    </row>
-    <row r="199" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E198" s="25"/>
+    </row>
+    <row r="199" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A199" s="9" t="s">
         <v>43</v>
       </c>
@@ -8785,9 +8826,9 @@
       <c r="D199" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="E199" s="27"/>
-    </row>
-    <row r="200" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E199" s="25"/>
+    </row>
+    <row r="200" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8800,9 +8841,9 @@
       <c r="D200" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E200" s="27"/>
-    </row>
-    <row r="201" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E200" s="25"/>
+    </row>
+    <row r="201" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A201" s="9" t="s">
         <v>51</v>
       </c>
@@ -8815,9 +8856,9 @@
       <c r="D201" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="E201" s="27"/>
-    </row>
-    <row r="202" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E201" s="25"/>
+    </row>
+    <row r="202" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8830,9 +8871,9 @@
       <c r="D202" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="E202" s="27"/>
-    </row>
-    <row r="203" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E202" s="25"/>
+    </row>
+    <row r="203" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -8845,9 +8886,9 @@
       <c r="D203" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="E203" s="27"/>
-    </row>
-    <row r="204" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E203" s="25"/>
+    </row>
+    <row r="204" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8860,9 +8901,9 @@
       <c r="D204" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E204" s="27"/>
-    </row>
-    <row r="205" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E204" s="25"/>
+    </row>
+    <row r="205" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A205" s="9" t="s">
         <v>67</v>
       </c>
@@ -8875,9 +8916,9 @@
       <c r="D205" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="E205" s="27"/>
-    </row>
-    <row r="206" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E205" s="25"/>
+    </row>
+    <row r="206" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -8890,9 +8931,9 @@
       <c r="D206" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="E206" s="27"/>
-    </row>
-    <row r="207" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E206" s="25"/>
+    </row>
+    <row r="207" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A207" s="9" t="s">
         <v>75</v>
       </c>
@@ -8905,9 +8946,9 @@
       <c r="D207" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E207" s="27"/>
-    </row>
-    <row r="208" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E207" s="25"/>
+    </row>
+    <row r="208" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -8920,9 +8961,9 @@
       <c r="D208" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="E208" s="27"/>
-    </row>
-    <row r="209" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E208" s="25"/>
+    </row>
+    <row r="209" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A209" s="9" t="s">
         <v>83</v>
       </c>
@@ -8935,9 +8976,9 @@
       <c r="D209" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="E209" s="27"/>
-    </row>
-    <row r="210" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E209" s="25"/>
+    </row>
+    <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A210" s="9" t="s">
         <v>87</v>
       </c>
@@ -8950,9 +8991,9 @@
       <c r="D210" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E210" s="27"/>
-    </row>
-    <row r="211" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E210" s="25"/>
+    </row>
+    <row r="211" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A211" s="9" t="s">
         <v>91</v>
       </c>
@@ -8965,9 +9006,9 @@
       <c r="D211" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="E211" s="27"/>
-    </row>
-    <row r="212" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E211" s="25"/>
+    </row>
+    <row r="212" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A212" s="9" t="s">
         <v>95</v>
       </c>
@@ -8980,9 +9021,9 @@
       <c r="D212" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="E212" s="27"/>
-    </row>
-    <row r="213" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E212" s="25"/>
+    </row>
+    <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A213" s="9" t="s">
         <v>99</v>
       </c>
@@ -8995,9 +9036,9 @@
       <c r="D213" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E213" s="27"/>
-    </row>
-    <row r="214" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E213" s="25"/>
+    </row>
+    <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A214" s="9" t="s">
         <v>103</v>
       </c>
@@ -9010,9 +9051,9 @@
       <c r="D214" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E214" s="27"/>
-    </row>
-    <row r="215" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E214" s="25"/>
+    </row>
+    <row r="215" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A215" s="9" t="s">
         <v>107</v>
       </c>
@@ -9025,9 +9066,9 @@
       <c r="D215" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="E215" s="27"/>
-    </row>
-    <row r="216" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E215" s="25"/>
+    </row>
+    <row r="216" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A216" s="9" t="s">
         <v>111</v>
       </c>
@@ -9040,9 +9081,9 @@
       <c r="D216" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="E216" s="27"/>
-    </row>
-    <row r="217" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E216" s="25"/>
+    </row>
+    <row r="217" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A217" s="9" t="s">
         <v>115</v>
       </c>
@@ -9055,9 +9096,9 @@
       <c r="D217" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="E217" s="27"/>
-    </row>
-    <row r="218" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E217" s="25"/>
+    </row>
+    <row r="218" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A218" s="9" t="s">
         <v>119</v>
       </c>
@@ -9070,9 +9111,9 @@
       <c r="D218" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="E218" s="27"/>
-    </row>
-    <row r="219" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E218" s="25"/>
+    </row>
+    <row r="219" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A219" s="9" t="s">
         <v>123</v>
       </c>
@@ -9085,27 +9126,27 @@
       <c r="D219" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="E219" s="27"/>
-    </row>
-    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="23" t="s">
+      <c r="E219" s="25"/>
+    </row>
+    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="47" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="23"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="23"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="47"/>
+      <c r="E220" s="47"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="23"/>
-      <c r="B221" s="23"/>
-      <c r="C221" s="23"/>
-      <c r="D221" s="23"/>
-      <c r="E221" s="23"/>
+    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="47"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -9122,7 +9163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A224" s="9" t="s">
         <v>5</v>
       </c>
@@ -9135,9 +9176,9 @@
       <c r="D224" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="E224" s="27"/>
-    </row>
-    <row r="225" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E224" s="25"/>
+    </row>
+    <row r="225" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A225" s="9" t="s">
         <v>9</v>
       </c>
@@ -9150,9 +9191,9 @@
       <c r="D225" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="E225" s="27"/>
-    </row>
-    <row r="226" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E225" s="25"/>
+    </row>
+    <row r="226" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A226" s="9" t="s">
         <v>13</v>
       </c>
@@ -9165,9 +9206,9 @@
       <c r="D226" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="E226" s="27"/>
-    </row>
-    <row r="227" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E226" s="25"/>
+    </row>
+    <row r="227" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>17</v>
       </c>
@@ -9180,9 +9221,9 @@
       <c r="D227" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="E227" s="27"/>
-    </row>
-    <row r="228" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E227" s="25"/>
+    </row>
+    <row r="228" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A228" s="9" t="s">
         <v>35</v>
       </c>
@@ -9195,14 +9236,14 @@
       <c r="D228" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="E228" s="27"/>
-    </row>
-    <row r="229" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E228" s="25"/>
+    </row>
+    <row r="229" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B229" s="9" t="s">
-        <v>617</v>
+      <c r="B229" s="9">
+        <v>387259</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>618</v>
@@ -9210,11 +9251,9 @@
       <c r="D229" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="E229" s="30" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E229" s="28"/>
+    </row>
+    <row r="230" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A230" s="9" t="s">
         <v>43</v>
       </c>
@@ -9227,9 +9266,9 @@
       <c r="D230" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="E230" s="27"/>
-    </row>
-    <row r="231" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E230" s="25"/>
+    </row>
+    <row r="231" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>47</v>
       </c>
@@ -9242,9 +9281,9 @@
       <c r="D231" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="E231" s="27"/>
-    </row>
-    <row r="232" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E231" s="25"/>
+    </row>
+    <row r="232" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A232" s="9" t="s">
         <v>51</v>
       </c>
@@ -9257,9 +9296,9 @@
       <c r="D232" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E232" s="27"/>
-    </row>
-    <row r="233" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E232" s="25"/>
+    </row>
+    <row r="233" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A233" s="9" t="s">
         <v>55</v>
       </c>
@@ -9272,9 +9311,9 @@
       <c r="D233" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="E233" s="27"/>
-    </row>
-    <row r="234" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E233" s="25"/>
+    </row>
+    <row r="234" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A234" s="9" t="s">
         <v>59</v>
       </c>
@@ -9287,9 +9326,9 @@
       <c r="D234" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="E234" s="27"/>
-    </row>
-    <row r="235" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E234" s="25"/>
+    </row>
+    <row r="235" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -9302,9 +9341,9 @@
       <c r="D235" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="E235" s="27"/>
-    </row>
-    <row r="236" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E235" s="25"/>
+    </row>
+    <row r="236" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A236" s="9" t="s">
         <v>67</v>
       </c>
@@ -9317,9 +9356,9 @@
       <c r="D236" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="E236" s="27"/>
-    </row>
-    <row r="237" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E236" s="25"/>
+    </row>
+    <row r="237" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A237" s="9" t="s">
         <v>71</v>
       </c>
@@ -9332,9 +9371,9 @@
       <c r="D237" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="E237" s="27"/>
-    </row>
-    <row r="238" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E237" s="25"/>
+    </row>
+    <row r="238" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A238" s="9" t="s">
         <v>75</v>
       </c>
@@ -9347,9 +9386,9 @@
       <c r="D238" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="E238" s="27"/>
-    </row>
-    <row r="239" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E238" s="25"/>
+    </row>
+    <row r="239" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A239" s="9" t="s">
         <v>79</v>
       </c>
@@ -9362,9 +9401,9 @@
       <c r="D239" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="E239" s="27"/>
-    </row>
-    <row r="240" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E239" s="25"/>
+    </row>
+    <row r="240" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A240" s="9" t="s">
         <v>83</v>
       </c>
@@ -9377,9 +9416,9 @@
       <c r="D240" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="E240" s="27"/>
-    </row>
-    <row r="241" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E240" s="25"/>
+    </row>
+    <row r="241" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A241" s="9" t="s">
         <v>87</v>
       </c>
@@ -9392,9 +9431,9 @@
       <c r="D241" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="E241" s="27"/>
-    </row>
-    <row r="242" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E241" s="25"/>
+    </row>
+    <row r="242" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A242" s="12" t="s">
         <v>91</v>
       </c>
@@ -9407,9 +9446,9 @@
       <c r="D242" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E242" s="27"/>
-    </row>
-    <row r="243" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E242" s="25"/>
+    </row>
+    <row r="243" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A243" s="9" t="s">
         <v>95</v>
       </c>
@@ -9422,9 +9461,9 @@
       <c r="D243" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="E243" s="27"/>
-    </row>
-    <row r="244" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E243" s="25"/>
+    </row>
+    <row r="244" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A244" s="9" t="s">
         <v>99</v>
       </c>
@@ -9437,9 +9476,9 @@
       <c r="D244" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E244" s="27"/>
-    </row>
-    <row r="245" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E244" s="25"/>
+    </row>
+    <row r="245" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A245" s="9" t="s">
         <v>103</v>
       </c>
@@ -9452,9 +9491,9 @@
       <c r="D245" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="E245" s="27"/>
-    </row>
-    <row r="246" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E245" s="25"/>
+    </row>
+    <row r="246" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>107</v>
       </c>
@@ -9467,9 +9506,9 @@
       <c r="D246" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="E246" s="27"/>
-    </row>
-    <row r="247" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E246" s="25"/>
+    </row>
+    <row r="247" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -9482,9 +9521,9 @@
       <c r="D247" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E247" s="27"/>
-    </row>
-    <row r="248" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E247" s="25"/>
+    </row>
+    <row r="248" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>115</v>
       </c>
@@ -9497,9 +9536,9 @@
       <c r="D248" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="E248" s="27"/>
-    </row>
-    <row r="249" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E248" s="25"/>
+    </row>
+    <row r="249" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A249" s="9" t="s">
         <v>119</v>
       </c>
@@ -9512,9 +9551,9 @@
       <c r="D249" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="E249" s="27"/>
-    </row>
-    <row r="250" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E249" s="25"/>
+    </row>
+    <row r="250" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>123</v>
       </c>
@@ -9527,9 +9566,9 @@
       <c r="D250" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="E250" s="27"/>
-    </row>
-    <row r="251" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E250" s="25"/>
+    </row>
+    <row r="251" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A251" s="9" t="s">
         <v>127</v>
       </c>
@@ -9542,9 +9581,9 @@
       <c r="D251" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="E251" s="27"/>
-    </row>
-    <row r="252" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E251" s="25"/>
+    </row>
+    <row r="252" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
@@ -9557,9 +9596,9 @@
       <c r="D252" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="E252" s="27"/>
-    </row>
-    <row r="253" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E252" s="25"/>
+    </row>
+    <row r="253" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>135</v>
       </c>
@@ -9572,9 +9611,9 @@
       <c r="D253" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="E253" s="27"/>
-    </row>
-    <row r="254" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E253" s="25"/>
+    </row>
+    <row r="254" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A254" s="9" t="s">
         <v>139</v>
       </c>
@@ -9587,9 +9626,9 @@
       <c r="D254" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="E254" s="27"/>
-    </row>
-    <row r="255" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E254" s="25"/>
+    </row>
+    <row r="255" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>143</v>
       </c>
@@ -9602,9 +9641,9 @@
       <c r="D255" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="E255" s="27"/>
-    </row>
-    <row r="256" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E255" s="25"/>
+    </row>
+    <row r="256" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>147</v>
       </c>
@@ -9617,9 +9656,9 @@
       <c r="D256" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="E256" s="27"/>
-    </row>
-    <row r="257" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E256" s="25"/>
+    </row>
+    <row r="257" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>151</v>
       </c>
@@ -9632,9 +9671,9 @@
       <c r="D257" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="E257" s="27"/>
-    </row>
-    <row r="258" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E257" s="25"/>
+    </row>
+    <row r="258" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>155</v>
       </c>
@@ -9647,9 +9686,9 @@
       <c r="D258" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="E258" s="27"/>
-    </row>
-    <row r="259" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E258" s="25"/>
+    </row>
+    <row r="259" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
@@ -9662,9 +9701,9 @@
       <c r="D259" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="E259" s="27"/>
-    </row>
-    <row r="260" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E259" s="25"/>
+    </row>
+    <row r="260" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>163</v>
       </c>
@@ -9677,9 +9716,9 @@
       <c r="D260" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="E260" s="27"/>
-    </row>
-    <row r="261" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E260" s="25"/>
+    </row>
+    <row r="261" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A261" s="9" t="s">
         <v>167</v>
       </c>
@@ -9692,9 +9731,9 @@
       <c r="D261" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="E261" s="27"/>
-    </row>
-    <row r="262" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E261" s="25"/>
+    </row>
+    <row r="262" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>171</v>
       </c>
@@ -9707,9 +9746,9 @@
       <c r="D262" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="E262" s="27"/>
-    </row>
-    <row r="263" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E262" s="25"/>
+    </row>
+    <row r="263" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
         <v>175</v>
       </c>
@@ -9722,9 +9761,9 @@
       <c r="D263" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="E263" s="27"/>
-    </row>
-    <row r="264" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E263" s="25"/>
+    </row>
+    <row r="264" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
         <v>179</v>
       </c>
@@ -9737,9 +9776,9 @@
       <c r="D264" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="E264" s="27"/>
-    </row>
-    <row r="265" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E264" s="25"/>
+    </row>
+    <row r="265" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
         <v>183</v>
       </c>
@@ -9752,9 +9791,9 @@
       <c r="D265" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="E265" s="27"/>
-    </row>
-    <row r="266" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E265" s="25"/>
+    </row>
+    <row r="266" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A266" s="9" t="s">
         <v>187</v>
       </c>
@@ -9767,9 +9806,9 @@
       <c r="D266" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="E266" s="27"/>
-    </row>
-    <row r="267" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E266" s="25"/>
+    </row>
+    <row r="267" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A267" s="9" t="s">
         <v>191</v>
       </c>
@@ -9782,9 +9821,9 @@
       <c r="D267" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E267" s="27"/>
-    </row>
-    <row r="268" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E267" s="25"/>
+    </row>
+    <row r="268" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
         <v>195</v>
       </c>
@@ -9797,9 +9836,9 @@
       <c r="D268" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="E268" s="27"/>
-    </row>
-    <row r="269" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E268" s="25"/>
+    </row>
+    <row r="269" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A269" s="9" t="s">
         <v>199</v>
       </c>
@@ -9812,9 +9851,9 @@
       <c r="D269" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="E269" s="27"/>
-    </row>
-    <row r="270" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E269" s="25"/>
+    </row>
+    <row r="270" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
         <v>740</v>
       </c>
@@ -9827,9 +9866,9 @@
       <c r="D270" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="E270" s="27"/>
-    </row>
-    <row r="271" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E270" s="25"/>
+    </row>
+    <row r="271" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
         <v>744</v>
       </c>
@@ -9842,9 +9881,9 @@
       <c r="D271" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="E271" s="27"/>
-    </row>
-    <row r="272" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E271" s="25"/>
+    </row>
+    <row r="272" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A272" s="9" t="s">
         <v>748</v>
       </c>
@@ -9857,9 +9896,9 @@
       <c r="D272" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="E272" s="27"/>
-    </row>
-    <row r="273" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E272" s="25"/>
+    </row>
+    <row r="273" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
         <v>752</v>
       </c>
@@ -9872,9 +9911,9 @@
       <c r="D273" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="E273" s="27"/>
-    </row>
-    <row r="274" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E273" s="25"/>
+    </row>
+    <row r="274" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A274" s="9" t="s">
         <v>756</v>
       </c>
@@ -9887,9 +9926,9 @@
       <c r="D274" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="E274" s="27"/>
-    </row>
-    <row r="275" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E274" s="25"/>
+    </row>
+    <row r="275" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A275" s="9" t="s">
         <v>760</v>
       </c>
@@ -9902,9 +9941,9 @@
       <c r="D275" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="E275" s="27"/>
-    </row>
-    <row r="276" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E275" s="25"/>
+    </row>
+    <row r="276" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A276" s="9" t="s">
         <v>764</v>
       </c>
@@ -9917,9 +9956,9 @@
       <c r="D276" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="E276" s="27"/>
-    </row>
-    <row r="277" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E276" s="25"/>
+    </row>
+    <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A277" s="9" t="s">
         <v>768</v>
       </c>
@@ -9932,9 +9971,9 @@
       <c r="D277" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="E277" s="27"/>
-    </row>
-    <row r="278" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E277" s="25"/>
+    </row>
+    <row r="278" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A278" s="9" t="s">
         <v>772</v>
       </c>
@@ -9947,9 +9986,9 @@
       <c r="D278" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="E278" s="27"/>
-    </row>
-    <row r="279" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E278" s="25"/>
+    </row>
+    <row r="279" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
         <v>776</v>
       </c>
@@ -9962,27 +10001,27 @@
       <c r="D279" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="E279" s="27"/>
-    </row>
-    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="23" t="s">
+      <c r="E279" s="25"/>
+    </row>
+    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="47" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="23"/>
-      <c r="C280" s="23"/>
-      <c r="D280" s="23"/>
-      <c r="E280" s="23"/>
+      <c r="B280" s="47"/>
+      <c r="C280" s="47"/>
+      <c r="D280" s="47"/>
+      <c r="E280" s="47"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="24"/>
-      <c r="B281" s="24"/>
-      <c r="C281" s="24"/>
-      <c r="D281" s="24"/>
-      <c r="E281" s="24"/>
+    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="48"/>
+      <c r="B281" s="48"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="48"/>
+      <c r="E281" s="48"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>0</v>
       </c>
@@ -9999,7 +10038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
         <v>5</v>
       </c>
@@ -10012,9 +10051,9 @@
       <c r="D283" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E283" s="27"/>
-    </row>
-    <row r="284" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E283" s="25"/>
+    </row>
+    <row r="284" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -10027,9 +10066,9 @@
       <c r="D284" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E284" s="27"/>
-    </row>
-    <row r="285" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E284" s="25"/>
+    </row>
+    <row r="285" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
         <v>13</v>
       </c>
@@ -10042,9 +10081,9 @@
       <c r="D285" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E285" s="27"/>
-    </row>
-    <row r="286" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E285" s="25"/>
+    </row>
+    <row r="286" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
         <v>17</v>
       </c>
@@ -10057,9 +10096,9 @@
       <c r="D286" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E286" s="27"/>
-    </row>
-    <row r="287" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E286" s="25"/>
+    </row>
+    <row r="287" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A287" s="9" t="s">
         <v>35</v>
       </c>
@@ -10072,9 +10111,9 @@
       <c r="D287" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E287" s="27"/>
-    </row>
-    <row r="288" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E287" s="25"/>
+    </row>
+    <row r="288" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
         <v>39</v>
       </c>
@@ -10087,9 +10126,9 @@
       <c r="D288" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E288" s="27"/>
-    </row>
-    <row r="289" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E288" s="25"/>
+    </row>
+    <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
         <v>43</v>
       </c>
@@ -10102,9 +10141,9 @@
       <c r="D289" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E289" s="27"/>
-    </row>
-    <row r="290" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E289" s="25"/>
+    </row>
+    <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A290" s="9" t="s">
         <v>47</v>
       </c>
@@ -10117,9 +10156,9 @@
       <c r="D290" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E290" s="27"/>
-    </row>
-    <row r="291" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E290" s="25"/>
+    </row>
+    <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A291" s="9" t="s">
         <v>51</v>
       </c>
@@ -10132,9 +10171,9 @@
       <c r="D291" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E291" s="27"/>
-    </row>
-    <row r="292" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E291" s="25"/>
+    </row>
+    <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A292" s="9" t="s">
         <v>55</v>
       </c>
@@ -10147,9 +10186,9 @@
       <c r="D292" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E292" s="27"/>
-    </row>
-    <row r="293" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E292" s="25"/>
+    </row>
+    <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A293" s="9" t="s">
         <v>59</v>
       </c>
@@ -10162,9 +10201,9 @@
       <c r="D293" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E293" s="27"/>
-    </row>
-    <row r="294" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E293" s="25"/>
+    </row>
+    <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A294" s="9" t="s">
         <v>63</v>
       </c>
@@ -10177,9 +10216,9 @@
       <c r="D294" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E294" s="27"/>
-    </row>
-    <row r="295" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E294" s="25"/>
+    </row>
+    <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A295" s="9" t="s">
         <v>67</v>
       </c>
@@ -10192,9 +10231,9 @@
       <c r="D295" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E295" s="27"/>
-    </row>
-    <row r="296" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E295" s="25"/>
+    </row>
+    <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A296" s="9" t="s">
         <v>71</v>
       </c>
@@ -10207,9 +10246,9 @@
       <c r="D296" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E296" s="27"/>
-    </row>
-    <row r="297" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E296" s="25"/>
+    </row>
+    <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A297" s="9" t="s">
         <v>75</v>
       </c>
@@ -10222,9 +10261,9 @@
       <c r="D297" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E297" s="27"/>
-    </row>
-    <row r="298" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E297" s="25"/>
+    </row>
+    <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A298" s="9" t="s">
         <v>79</v>
       </c>
@@ -10237,9 +10276,9 @@
       <c r="D298" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E298" s="27"/>
-    </row>
-    <row r="299" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E298" s="25"/>
+    </row>
+    <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A299" s="9" t="s">
         <v>83</v>
       </c>
@@ -10252,9 +10291,9 @@
       <c r="D299" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E299" s="27"/>
-    </row>
-    <row r="300" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E299" s="25"/>
+    </row>
+    <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A300" s="9" t="s">
         <v>87</v>
       </c>
@@ -10267,9 +10306,9 @@
       <c r="D300" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E300" s="27"/>
-    </row>
-    <row r="301" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E300" s="25"/>
+    </row>
+    <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>91</v>
       </c>
@@ -10282,9 +10321,9 @@
       <c r="D301" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E301" s="27"/>
-    </row>
-    <row r="302" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E301" s="25"/>
+    </row>
+    <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A302" s="9" t="s">
         <v>95</v>
       </c>
@@ -10297,9 +10336,9 @@
       <c r="D302" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E302" s="27"/>
-    </row>
-    <row r="303" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E302" s="25"/>
+    </row>
+    <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A303" s="9" t="s">
         <v>99</v>
       </c>
@@ -10312,9 +10351,9 @@
       <c r="D303" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E303" s="27"/>
-    </row>
-    <row r="304" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E303" s="25"/>
+    </row>
+    <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A304" s="9" t="s">
         <v>103</v>
       </c>
@@ -10327,9 +10366,9 @@
       <c r="D304" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E304" s="27"/>
-    </row>
-    <row r="305" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E304" s="25"/>
+    </row>
+    <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A305" s="9" t="s">
         <v>107</v>
       </c>
@@ -10342,9 +10381,9 @@
       <c r="D305" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E305" s="27"/>
-    </row>
-    <row r="306" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E305" s="25"/>
+    </row>
+    <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A306" s="9" t="s">
         <v>111</v>
       </c>
@@ -10357,9 +10396,9 @@
       <c r="D306" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E306" s="27"/>
-    </row>
-    <row r="307" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E306" s="25"/>
+    </row>
+    <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A307" s="9" t="s">
         <v>115</v>
       </c>
@@ -10372,9 +10411,9 @@
       <c r="D307" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E307" s="27"/>
-    </row>
-    <row r="308" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E307" s="25"/>
+    </row>
+    <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A308" s="9" t="s">
         <v>119</v>
       </c>
@@ -10387,9 +10426,9 @@
       <c r="D308" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E308" s="27"/>
-    </row>
-    <row r="309" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E308" s="25"/>
+    </row>
+    <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A309" s="9" t="s">
         <v>123</v>
       </c>
@@ -10402,9 +10441,9 @@
       <c r="D309" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E309" s="27"/>
-    </row>
-    <row r="310" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E309" s="25"/>
+    </row>
+    <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A310" s="9" t="s">
         <v>127</v>
       </c>
@@ -10417,9 +10456,9 @@
       <c r="D310" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E310" s="27"/>
-    </row>
-    <row r="311" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E310" s="25"/>
+    </row>
+    <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A311" s="9" t="s">
         <v>131</v>
       </c>
@@ -10432,9 +10471,9 @@
       <c r="D311" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E311" s="27"/>
-    </row>
-    <row r="312" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E311" s="25"/>
+    </row>
+    <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>135</v>
       </c>
@@ -10447,9 +10486,9 @@
       <c r="D312" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E312" s="27"/>
-    </row>
-    <row r="313" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E312" s="25"/>
+    </row>
+    <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A313" s="9" t="s">
         <v>139</v>
       </c>
@@ -10462,9 +10501,9 @@
       <c r="D313" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E313" s="27"/>
-    </row>
-    <row r="314" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E313" s="25"/>
+    </row>
+    <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>143</v>
       </c>
@@ -10477,9 +10516,9 @@
       <c r="D314" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E314" s="27"/>
-    </row>
-    <row r="315" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E314" s="25"/>
+    </row>
+    <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A315" s="9" t="s">
         <v>147</v>
       </c>
@@ -10492,9 +10531,9 @@
       <c r="D315" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E315" s="27"/>
-    </row>
-    <row r="316" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E315" s="25"/>
+    </row>
+    <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A316" s="9" t="s">
         <v>151</v>
       </c>
@@ -10507,9 +10546,9 @@
       <c r="D316" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E316" s="27"/>
-    </row>
-    <row r="317" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E316" s="25"/>
+    </row>
+    <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A317" s="9" t="s">
         <v>155</v>
       </c>
@@ -10522,9 +10561,9 @@
       <c r="D317" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E317" s="27"/>
-    </row>
-    <row r="318" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E317" s="25"/>
+    </row>
+    <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A318" s="9" t="s">
         <v>159</v>
       </c>
@@ -10537,9 +10576,9 @@
       <c r="D318" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E318" s="27"/>
-    </row>
-    <row r="319" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E318" s="25"/>
+    </row>
+    <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A319" s="9" t="s">
         <v>163</v>
       </c>
@@ -10552,9 +10591,9 @@
       <c r="D319" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E319" s="27"/>
-    </row>
-    <row r="320" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E319" s="25"/>
+    </row>
+    <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>167</v>
       </c>
@@ -10567,9 +10606,9 @@
       <c r="D320" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E320" s="27"/>
-    </row>
-    <row r="321" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E320" s="25"/>
+    </row>
+    <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A321" s="9" t="s">
         <v>171</v>
       </c>
@@ -10582,9 +10621,9 @@
       <c r="D321" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E321" s="27"/>
-    </row>
-    <row r="322" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E321" s="25"/>
+    </row>
+    <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A322" s="9" t="s">
         <v>175</v>
       </c>
@@ -10597,9 +10636,9 @@
       <c r="D322" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E322" s="27"/>
-    </row>
-    <row r="323" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E322" s="25"/>
+    </row>
+    <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A323" s="9" t="s">
         <v>179</v>
       </c>
@@ -10612,9 +10651,9 @@
       <c r="D323" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E323" s="27"/>
-    </row>
-    <row r="324" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E323" s="25"/>
+    </row>
+    <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A324" s="9" t="s">
         <v>183</v>
       </c>
@@ -10627,9 +10666,9 @@
       <c r="D324" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E324" s="27"/>
-    </row>
-    <row r="325" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E324" s="25"/>
+    </row>
+    <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A325" s="9" t="s">
         <v>187</v>
       </c>
@@ -10642,9 +10681,9 @@
       <c r="D325" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E325" s="27"/>
-    </row>
-    <row r="326" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E325" s="25"/>
+    </row>
+    <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A326" s="9" t="s">
         <v>191</v>
       </c>
@@ -10657,9 +10696,9 @@
       <c r="D326" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E326" s="27"/>
-    </row>
-    <row r="327" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E326" s="25"/>
+    </row>
+    <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A327" s="9" t="s">
         <v>195</v>
       </c>
@@ -10672,9 +10711,9 @@
       <c r="D327" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E327" s="27"/>
-    </row>
-    <row r="328" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E327" s="25"/>
+    </row>
+    <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A328" s="9" t="s">
         <v>199</v>
       </c>
@@ -10687,9 +10726,9 @@
       <c r="D328" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E328" s="27"/>
-    </row>
-    <row r="329" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E328" s="25"/>
+    </row>
+    <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A329" s="9" t="s">
         <v>740</v>
       </c>
@@ -10702,9 +10741,9 @@
       <c r="D329" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E329" s="27"/>
-    </row>
-    <row r="330" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E329" s="25"/>
+    </row>
+    <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A330" s="9" t="s">
         <v>744</v>
       </c>
@@ -10717,9 +10756,9 @@
       <c r="D330" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E330" s="27"/>
-    </row>
-    <row r="331" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E330" s="25"/>
+    </row>
+    <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A331" s="9" t="s">
         <v>748</v>
       </c>
@@ -10732,9 +10771,9 @@
       <c r="D331" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E331" s="27"/>
-    </row>
-    <row r="332" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E331" s="25"/>
+    </row>
+    <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A332" s="9" t="s">
         <v>752</v>
       </c>
@@ -10747,9 +10786,9 @@
       <c r="D332" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E332" s="27"/>
-    </row>
-    <row r="333" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E332" s="25"/>
+    </row>
+    <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A333" s="9" t="s">
         <v>756</v>
       </c>
@@ -10762,9 +10801,9 @@
       <c r="D333" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E333" s="27"/>
-    </row>
-    <row r="334" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E333" s="25"/>
+    </row>
+    <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A334" s="9" t="s">
         <v>760</v>
       </c>
@@ -10777,9 +10816,9 @@
       <c r="D334" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E334" s="27"/>
-    </row>
-    <row r="335" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E334" s="25"/>
+    </row>
+    <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A335" s="9" t="s">
         <v>764</v>
       </c>
@@ -10792,9 +10831,9 @@
       <c r="D335" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E335" s="27"/>
-    </row>
-    <row r="336" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E335" s="25"/>
+    </row>
+    <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A336" s="9" t="s">
         <v>768</v>
       </c>
@@ -10807,9 +10846,9 @@
       <c r="D336" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E336" s="27"/>
-    </row>
-    <row r="337" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E336" s="25"/>
+    </row>
+    <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A337" s="9" t="s">
         <v>772</v>
       </c>
@@ -10822,9 +10861,9 @@
       <c r="D337" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E337" s="27"/>
-    </row>
-    <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E337" s="25"/>
+    </row>
+    <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A338" s="12">
         <v>55</v>
       </c>
@@ -10837,9 +10876,9 @@
       <c r="D338" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E338" s="27"/>
-    </row>
-    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E338" s="25"/>
+    </row>
+    <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
         <v>776</v>
       </c>
@@ -10852,9 +10891,9 @@
       <c r="D339" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E339" s="27"/>
-    </row>
-    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E339" s="25"/>
+    </row>
+    <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A340" s="9" t="s">
         <v>894</v>
       </c>
@@ -10867,9 +10906,9 @@
       <c r="D340" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E340" s="27"/>
-    </row>
-    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E340" s="25"/>
+    </row>
+    <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A341" s="9" t="s">
         <v>897</v>
       </c>
@@ -10882,9 +10921,9 @@
       <c r="D341" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E341" s="27"/>
-    </row>
-    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E341" s="25"/>
+    </row>
+    <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A342" s="9" t="s">
         <v>900</v>
       </c>
@@ -10897,9 +10936,9 @@
       <c r="D342" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E342" s="27"/>
-    </row>
-    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E342" s="25"/>
+    </row>
+    <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A343" s="12" t="s">
         <v>903</v>
       </c>
@@ -10912,9 +10951,9 @@
       <c r="D343" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E343" s="27"/>
-    </row>
-    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E343" s="25"/>
+    </row>
+    <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
         <v>906</v>
       </c>
@@ -10927,9 +10966,9 @@
       <c r="D344" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E344" s="27"/>
-    </row>
-    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E344" s="25"/>
+    </row>
+    <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A345" s="9" t="s">
         <v>909</v>
       </c>
@@ -10942,9 +10981,9 @@
       <c r="D345" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E345" s="27"/>
-    </row>
-    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E345" s="25"/>
+    </row>
+    <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A346" s="9" t="s">
         <v>912</v>
       </c>
@@ -10957,9 +10996,9 @@
       <c r="D346" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E346" s="27"/>
-    </row>
-    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E346" s="25"/>
+    </row>
+    <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A347" s="9" t="s">
         <v>915</v>
       </c>
@@ -10972,9 +11011,9 @@
       <c r="D347" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E347" s="27"/>
-    </row>
-    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E347" s="25"/>
+    </row>
+    <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A348" s="9" t="s">
         <v>918</v>
       </c>
@@ -10987,9 +11026,9 @@
       <c r="D348" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E348" s="27"/>
-    </row>
-    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E348" s="25"/>
+    </row>
+    <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A349" s="9" t="s">
         <v>921</v>
       </c>
@@ -11002,9 +11041,9 @@
       <c r="D349" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E349" s="27"/>
-    </row>
-    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E349" s="25"/>
+    </row>
+    <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A350" s="9" t="s">
         <v>924</v>
       </c>
@@ -11017,9 +11056,9 @@
       <c r="D350" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E350" s="27"/>
-    </row>
-    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E350" s="25"/>
+    </row>
+    <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A351" s="9" t="s">
         <v>927</v>
       </c>
@@ -11032,9 +11071,9 @@
       <c r="D351" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E351" s="27"/>
-    </row>
-    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E351" s="25"/>
+    </row>
+    <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A352" s="9" t="s">
         <v>930</v>
       </c>
@@ -11047,9 +11086,9 @@
       <c r="D352" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E352" s="27"/>
-    </row>
-    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E352" s="25"/>
+    </row>
+    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A353" s="9" t="s">
         <v>933</v>
       </c>
@@ -11062,9 +11101,9 @@
       <c r="D353" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E353" s="27"/>
-    </row>
-    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E353" s="25"/>
+    </row>
+    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A354" s="9" t="s">
         <v>936</v>
       </c>
@@ -11077,9 +11116,9 @@
       <c r="D354" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E354" s="27"/>
-    </row>
-    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E354" s="25"/>
+    </row>
+    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A355" s="9" t="s">
         <v>939</v>
       </c>
@@ -11092,9 +11131,9 @@
       <c r="D355" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E355" s="27"/>
-    </row>
-    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E355" s="25"/>
+    </row>
+    <row r="356" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A356" s="9" t="s">
         <v>942</v>
       </c>
@@ -11107,9 +11146,9 @@
       <c r="D356" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E356" s="27"/>
-    </row>
-    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E356" s="25"/>
+    </row>
+    <row r="357" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A357" s="9" t="s">
         <v>945</v>
       </c>
@@ -11122,9 +11161,9 @@
       <c r="D357" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E357" s="27"/>
-    </row>
-    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E357" s="25"/>
+    </row>
+    <row r="358" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A358" s="9" t="s">
         <v>948</v>
       </c>
@@ -11137,9 +11176,9 @@
       <c r="D358" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E358" s="27"/>
-    </row>
-    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E358" s="25"/>
+    </row>
+    <row r="359" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A359" s="9" t="s">
         <v>951</v>
       </c>
@@ -11152,9 +11191,9 @@
       <c r="D359" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E359" s="27"/>
-    </row>
-    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E359" s="25"/>
+    </row>
+    <row r="360" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A360" s="9" t="s">
         <v>954</v>
       </c>
@@ -11167,9 +11206,9 @@
       <c r="D360" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E360" s="27"/>
-    </row>
-    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E360" s="25"/>
+    </row>
+    <row r="361" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A361" s="9" t="s">
         <v>957</v>
       </c>
@@ -11182,9 +11221,9 @@
       <c r="D361" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E361" s="27"/>
-    </row>
-    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E361" s="25"/>
+    </row>
+    <row r="362" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A362" s="9" t="s">
         <v>960</v>
       </c>
@@ -11197,9 +11236,9 @@
       <c r="D362" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E362" s="27"/>
-    </row>
-    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E362" s="25"/>
+    </row>
+    <row r="363" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A363" s="9" t="s">
         <v>963</v>
       </c>
@@ -11212,9 +11251,9 @@
       <c r="D363" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E363" s="27"/>
-    </row>
-    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E363" s="25"/>
+    </row>
+    <row r="364" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A364" s="9" t="s">
         <v>966</v>
       </c>
@@ -11227,9 +11266,9 @@
       <c r="D364" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E364" s="27"/>
-    </row>
-    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E364" s="25"/>
+    </row>
+    <row r="365" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A365" s="9" t="s">
         <v>969</v>
       </c>
@@ -11242,9 +11281,9 @@
       <c r="D365" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E365" s="27"/>
-    </row>
-    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E365" s="25"/>
+    </row>
+    <row r="366" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A366" s="9" t="s">
         <v>972</v>
       </c>
@@ -11257,9 +11296,9 @@
       <c r="D366" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E366" s="27"/>
-    </row>
-    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E366" s="25"/>
+    </row>
+    <row r="367" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A367" s="9" t="s">
         <v>975</v>
       </c>
@@ -11272,9 +11311,9 @@
       <c r="D367" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E367" s="27"/>
-    </row>
-    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E367" s="25"/>
+    </row>
+    <row r="368" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A368" s="9" t="s">
         <v>978</v>
       </c>
@@ -11287,9 +11326,9 @@
       <c r="D368" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E368" s="27"/>
-    </row>
-    <row r="369" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E368" s="25"/>
+    </row>
+    <row r="369" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A369" s="9" t="s">
         <v>981</v>
       </c>
@@ -11302,9 +11341,9 @@
       <c r="D369" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E369" s="27"/>
-    </row>
-    <row r="370" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E369" s="25"/>
+    </row>
+    <row r="370" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>984</v>
       </c>
@@ -11317,9 +11356,9 @@
       <c r="D370" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E370" s="27"/>
-    </row>
-    <row r="371" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E370" s="25"/>
+    </row>
+    <row r="371" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A371" s="9" t="s">
         <v>987</v>
       </c>
@@ -11332,9 +11371,9 @@
       <c r="D371" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E371" s="27"/>
-    </row>
-    <row r="372" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E371" s="25"/>
+    </row>
+    <row r="372" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>990</v>
       </c>
@@ -11347,9 +11386,9 @@
       <c r="D372" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E372" s="27"/>
-    </row>
-    <row r="373" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E372" s="25"/>
+    </row>
+    <row r="373" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A373" s="12" t="s">
         <v>994</v>
       </c>
@@ -11362,9 +11401,9 @@
       <c r="D373" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="E373" s="27"/>
-    </row>
-    <row r="374" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E373" s="25"/>
+    </row>
+    <row r="374" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A374" s="9" t="s">
         <v>998</v>
       </c>
@@ -11377,9 +11416,9 @@
       <c r="D374" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="E374" s="27"/>
-    </row>
-    <row r="375" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E374" s="25"/>
+    </row>
+    <row r="375" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A375" s="9" t="s">
         <v>1002</v>
       </c>
@@ -11392,9 +11431,9 @@
       <c r="D375" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="E375" s="27"/>
-    </row>
-    <row r="376" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E375" s="25"/>
+    </row>
+    <row r="376" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A376" s="9" t="s">
         <v>1006</v>
       </c>
@@ -11407,9 +11446,9 @@
       <c r="D376" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="E376" s="27"/>
-    </row>
-    <row r="377" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E376" s="25"/>
+    </row>
+    <row r="377" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A377" s="9" t="s">
         <v>1010</v>
       </c>
@@ -11422,9 +11461,9 @@
       <c r="D377" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="E377" s="27"/>
-    </row>
-    <row r="378" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E377" s="25"/>
+    </row>
+    <row r="378" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A378" s="12" t="s">
         <v>1014</v>
       </c>
@@ -11437,9 +11476,9 @@
       <c r="D378" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="E378" s="27"/>
-    </row>
-    <row r="379" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E378" s="25"/>
+    </row>
+    <row r="379" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>1018</v>
       </c>
@@ -11452,9 +11491,9 @@
       <c r="D379" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="E379" s="27"/>
-    </row>
-    <row r="380" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E379" s="25"/>
+    </row>
+    <row r="380" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>1022</v>
       </c>
@@ -11467,9 +11506,9 @@
       <c r="D380" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="E380" s="27"/>
-    </row>
-    <row r="381" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E380" s="25"/>
+    </row>
+    <row r="381" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>1025</v>
       </c>
@@ -11482,9 +11521,9 @@
       <c r="D381" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E381" s="27"/>
-    </row>
-    <row r="382" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E381" s="25"/>
+    </row>
+    <row r="382" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A382" s="9" t="s">
         <v>1028</v>
       </c>
@@ -11497,9 +11536,9 @@
       <c r="D382" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E382" s="27"/>
-    </row>
-    <row r="383" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E382" s="25"/>
+    </row>
+    <row r="383" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A383" s="9" t="s">
         <v>1031</v>
       </c>
@@ -11512,9 +11551,9 @@
       <c r="D383" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E383" s="27"/>
-    </row>
-    <row r="384" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E383" s="25"/>
+    </row>
+    <row r="384" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A384" s="9" t="s">
         <v>1034</v>
       </c>
@@ -11527,9 +11566,9 @@
       <c r="D384" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E384" s="27"/>
-    </row>
-    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E384" s="25"/>
+    </row>
+    <row r="385" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A385" s="9" t="s">
         <v>1037</v>
       </c>
@@ -11542,9 +11581,9 @@
       <c r="D385" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E385" s="27"/>
-    </row>
-    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E385" s="25"/>
+    </row>
+    <row r="386" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A386" s="9" t="s">
         <v>1040</v>
       </c>
@@ -11557,9 +11596,9 @@
       <c r="D386" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E386" s="27"/>
-    </row>
-    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E386" s="25"/>
+    </row>
+    <row r="387" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A387" s="12" t="s">
         <v>1043</v>
       </c>
@@ -11572,9 +11611,9 @@
       <c r="D387" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E387" s="27"/>
-    </row>
-    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E387" s="25"/>
+    </row>
+    <row r="388" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A388" s="9" t="s">
         <v>1046</v>
       </c>
@@ -11587,9 +11626,9 @@
       <c r="D388" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E388" s="27"/>
-    </row>
-    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E388" s="25"/>
+    </row>
+    <row r="389" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A389" s="12" t="s">
         <v>1049</v>
       </c>
@@ -11602,9 +11641,9 @@
       <c r="D389" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E389" s="27"/>
-    </row>
-    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E389" s="25"/>
+    </row>
+    <row r="390" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A390" s="9" t="s">
         <v>1052</v>
       </c>
@@ -11617,9 +11656,9 @@
       <c r="D390" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E390" s="27"/>
-    </row>
-    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E390" s="25"/>
+    </row>
+    <row r="391" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A391" s="9" t="s">
         <v>1055</v>
       </c>
@@ -11632,9 +11671,9 @@
       <c r="D391" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E391" s="27"/>
-    </row>
-    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E391" s="25"/>
+    </row>
+    <row r="392" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A392" s="9" t="s">
         <v>1058</v>
       </c>
@@ -11647,9 +11686,9 @@
       <c r="D392" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E392" s="27"/>
-    </row>
-    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E392" s="25"/>
+    </row>
+    <row r="393" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A393" s="9" t="s">
         <v>1061</v>
       </c>
@@ -11662,9 +11701,9 @@
       <c r="D393" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E393" s="27"/>
-    </row>
-    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E393" s="25"/>
+    </row>
+    <row r="394" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A394" s="9" t="s">
         <v>1064</v>
       </c>
@@ -11677,9 +11716,9 @@
       <c r="D394" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E394" s="27"/>
-    </row>
-    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E394" s="25"/>
+    </row>
+    <row r="395" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A395" s="9" t="s">
         <v>1067</v>
       </c>
@@ -11692,9 +11731,9 @@
       <c r="D395" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E395" s="27"/>
-    </row>
-    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E395" s="25"/>
+    </row>
+    <row r="396" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A396" s="9" t="s">
         <v>1070</v>
       </c>
@@ -11707,9 +11746,9 @@
       <c r="D396" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E396" s="27"/>
-    </row>
-    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E396" s="25"/>
+    </row>
+    <row r="397" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A397" s="9" t="s">
         <v>1073</v>
       </c>
@@ -11722,9 +11761,9 @@
       <c r="D397" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E397" s="27"/>
-    </row>
-    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E397" s="25"/>
+    </row>
+    <row r="398" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A398" s="9" t="s">
         <v>1076</v>
       </c>
@@ -11737,9 +11776,9 @@
       <c r="D398" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E398" s="27"/>
-    </row>
-    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E398" s="25"/>
+    </row>
+    <row r="399" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A399" s="9" t="s">
         <v>1079</v>
       </c>
@@ -11752,9 +11791,9 @@
       <c r="D399" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E399" s="27"/>
-    </row>
-    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E399" s="25"/>
+    </row>
+    <row r="400" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A400" s="9" t="s">
         <v>1082</v>
       </c>
@@ -11767,9 +11806,9 @@
       <c r="D400" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E400" s="27"/>
-    </row>
-    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E400" s="25"/>
+    </row>
+    <row r="401" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A401" s="9" t="s">
         <v>1085</v>
       </c>
@@ -11782,9 +11821,9 @@
       <c r="D401" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E401" s="27"/>
-    </row>
-    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E401" s="25"/>
+    </row>
+    <row r="402" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A402" s="9" t="s">
         <v>1088</v>
       </c>
@@ -11797,9 +11836,9 @@
       <c r="D402" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E402" s="27"/>
-    </row>
-    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E402" s="25"/>
+    </row>
+    <row r="403" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A403" s="9" t="s">
         <v>1091</v>
       </c>
@@ -11812,9 +11851,9 @@
       <c r="D403" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E403" s="27"/>
-    </row>
-    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E403" s="25"/>
+    </row>
+    <row r="404" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A404" s="9" t="s">
         <v>1094</v>
       </c>
@@ -11827,9 +11866,9 @@
       <c r="D404" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E404" s="27"/>
-    </row>
-    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E404" s="25"/>
+    </row>
+    <row r="405" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A405" s="9" t="s">
         <v>1098</v>
       </c>
@@ -11842,9 +11881,9 @@
       <c r="D405" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="E405" s="27"/>
-    </row>
-    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E405" s="25"/>
+    </row>
+    <row r="406" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A406" s="9" t="s">
         <v>1102</v>
       </c>
@@ -11857,9 +11896,9 @@
       <c r="D406" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="E406" s="27"/>
-    </row>
-    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E406" s="25"/>
+    </row>
+    <row r="407" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A407" s="12" t="s">
         <v>1104</v>
       </c>
@@ -11872,9 +11911,9 @@
       <c r="D407" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E407" s="27"/>
-    </row>
-    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E407" s="25"/>
+    </row>
+    <row r="408" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A408" s="9" t="s">
         <v>1107</v>
       </c>
@@ -11887,9 +11926,9 @@
       <c r="D408" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E408" s="27"/>
-    </row>
-    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E408" s="25"/>
+    </row>
+    <row r="409" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A409" s="9" t="s">
         <v>1110</v>
       </c>
@@ -11902,9 +11941,9 @@
       <c r="D409" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E409" s="27"/>
-    </row>
-    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E409" s="25"/>
+    </row>
+    <row r="410" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A410" s="9" t="s">
         <v>1113</v>
       </c>
@@ -11917,9 +11956,9 @@
       <c r="D410" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E410" s="27"/>
-    </row>
-    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E410" s="25"/>
+    </row>
+    <row r="411" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A411" s="9" t="s">
         <v>1116</v>
       </c>
@@ -11932,9 +11971,9 @@
       <c r="D411" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E411" s="27"/>
-    </row>
-    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E411" s="25"/>
+    </row>
+    <row r="412" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A412" s="9" t="s">
         <v>1119</v>
       </c>
@@ -11947,9 +11986,9 @@
       <c r="D412" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E412" s="27"/>
-    </row>
-    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E412" s="25"/>
+    </row>
+    <row r="413" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A413" s="9" t="s">
         <v>1122</v>
       </c>
@@ -11962,9 +12001,9 @@
       <c r="D413" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E413" s="27"/>
-    </row>
-    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E413" s="25"/>
+    </row>
+    <row r="414" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A414" s="9" t="s">
         <v>1125</v>
       </c>
@@ -11977,9 +12016,9 @@
       <c r="D414" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E414" s="27"/>
-    </row>
-    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E414" s="25"/>
+    </row>
+    <row r="415" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A415" s="9" t="s">
         <v>1128</v>
       </c>
@@ -11992,9 +12031,9 @@
       <c r="D415" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E415" s="27"/>
-    </row>
-    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E415" s="25"/>
+    </row>
+    <row r="416" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A416" s="9" t="s">
         <v>1131</v>
       </c>
@@ -12007,9 +12046,9 @@
       <c r="D416" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E416" s="27"/>
-    </row>
-    <row r="417" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E416" s="25"/>
+    </row>
+    <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A417" s="9" t="s">
         <v>1134</v>
       </c>
@@ -12022,9 +12061,9 @@
       <c r="D417" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E417" s="27"/>
-    </row>
-    <row r="418" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E417" s="25"/>
+    </row>
+    <row r="418" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A418" s="9" t="s">
         <v>1137</v>
       </c>
@@ -12037,9 +12076,9 @@
       <c r="D418" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E418" s="27"/>
-    </row>
-    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E418" s="25"/>
+    </row>
+    <row r="419" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A419" s="9" t="s">
         <v>1140</v>
       </c>
@@ -12052,9 +12091,9 @@
       <c r="D419" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E419" s="27"/>
-    </row>
-    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E419" s="25"/>
+    </row>
+    <row r="420" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A420" s="9" t="s">
         <v>1143</v>
       </c>
@@ -12067,9 +12106,9 @@
       <c r="D420" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E420" s="27"/>
-    </row>
-    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E420" s="25"/>
+    </row>
+    <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A421" s="9" t="s">
         <v>1146</v>
       </c>
@@ -12082,9 +12121,9 @@
       <c r="D421" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E421" s="27"/>
-    </row>
-    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E421" s="25"/>
+    </row>
+    <row r="422" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A422" s="9" t="s">
         <v>1150</v>
       </c>
@@ -12097,9 +12136,9 @@
       <c r="D422" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="E422" s="27"/>
-    </row>
-    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E422" s="25"/>
+    </row>
+    <row r="423" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A423" s="9" t="s">
         <v>1154</v>
       </c>
@@ -12112,9 +12151,9 @@
       <c r="D423" s="9" t="s">
         <v>1153</v>
       </c>
-      <c r="E423" s="27"/>
-    </row>
-    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E423" s="25"/>
+    </row>
+    <row r="424" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A424" s="9" t="s">
         <v>1158</v>
       </c>
@@ -12127,9 +12166,9 @@
       <c r="D424" s="9" t="s">
         <v>1157</v>
       </c>
-      <c r="E424" s="27"/>
-    </row>
-    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E424" s="25"/>
+    </row>
+    <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A425" s="9" t="s">
         <v>1162</v>
       </c>
@@ -12142,9 +12181,9 @@
       <c r="D425" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="E425" s="27"/>
-    </row>
-    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E425" s="25"/>
+    </row>
+    <row r="426" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A426" s="9" t="s">
         <v>1166</v>
       </c>
@@ -12157,9 +12196,9 @@
       <c r="D426" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="E426" s="27"/>
-    </row>
-    <row r="427" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E426" s="25"/>
+    </row>
+    <row r="427" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A427" s="9" t="s">
         <v>1170</v>
       </c>
@@ -12172,9 +12211,9 @@
       <c r="D427" s="9" t="s">
         <v>1169</v>
       </c>
-      <c r="E427" s="27"/>
-    </row>
-    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E427" s="25"/>
+    </row>
+    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="9" t="s">
         <v>1721</v>
       </c>
@@ -12187,27 +12226,27 @@
       <c r="D428" s="9" t="s">
         <v>1173</v>
       </c>
-      <c r="E428" s="27"/>
-    </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="23" t="s">
+      <c r="E428" s="25"/>
+    </row>
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="47" t="s">
         <v>1187</v>
       </c>
-      <c r="B429" s="23"/>
-      <c r="C429" s="23"/>
-      <c r="D429" s="23"/>
-      <c r="E429" s="23"/>
+      <c r="B429" s="47"/>
+      <c r="C429" s="47"/>
+      <c r="D429" s="47"/>
+      <c r="E429" s="47"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="23"/>
-      <c r="B430" s="23"/>
-      <c r="C430" s="23"/>
-      <c r="D430" s="23"/>
-      <c r="E430" s="23"/>
+    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="47"/>
+      <c r="B430" s="47"/>
+      <c r="C430" s="47"/>
+      <c r="D430" s="47"/>
+      <c r="E430" s="47"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
         <v>0</v>
       </c>
@@ -12224,7 +12263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="9" t="s">
         <v>5</v>
       </c>
@@ -12237,9 +12276,9 @@
       <c r="D433" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="E433" s="27"/>
-    </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E433" s="25"/>
+    </row>
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="9" t="s">
         <v>9</v>
       </c>
@@ -12252,9 +12291,9 @@
       <c r="D434" s="9" t="s">
         <v>1179</v>
       </c>
-      <c r="E434" s="27"/>
-    </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E434" s="25"/>
+    </row>
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="9" t="s">
         <v>13</v>
       </c>
@@ -12267,9 +12306,9 @@
       <c r="D435" s="9" t="s">
         <v>1182</v>
       </c>
-      <c r="E435" s="27"/>
-    </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E435" s="25"/>
+    </row>
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="9" t="s">
         <v>17</v>
       </c>
@@ -12282,27 +12321,27 @@
       <c r="D436" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="E436" s="27"/>
-    </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="23" t="s">
+      <c r="E436" s="25"/>
+    </row>
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="47" t="s">
         <v>1186</v>
       </c>
-      <c r="B437" s="23"/>
-      <c r="C437" s="23"/>
-      <c r="D437" s="23"/>
-      <c r="E437" s="23"/>
+      <c r="B437" s="47"/>
+      <c r="C437" s="47"/>
+      <c r="D437" s="47"/>
+      <c r="E437" s="47"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="23"/>
-      <c r="B438" s="23"/>
-      <c r="C438" s="23"/>
-      <c r="D438" s="23"/>
-      <c r="E438" s="23"/>
+    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="47"/>
+      <c r="B438" s="47"/>
+      <c r="C438" s="47"/>
+      <c r="D438" s="47"/>
+      <c r="E438" s="47"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
         <v>0</v>
       </c>
@@ -12319,7 +12358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="9" t="s">
         <v>5</v>
       </c>
@@ -12332,9 +12371,9 @@
       <c r="D441" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="E441" s="27"/>
-    </row>
-    <row r="442" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E441" s="25"/>
+    </row>
+    <row r="442" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="9" t="s">
         <v>9</v>
       </c>
@@ -12347,9 +12386,9 @@
       <c r="D442" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="E442" s="27"/>
-    </row>
-    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E442" s="25"/>
+    </row>
+    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="9" t="s">
         <v>13</v>
       </c>
@@ -12362,9 +12401,9 @@
       <c r="D443" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="E443" s="27"/>
-    </row>
-    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E443" s="25"/>
+    </row>
+    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="9" t="s">
         <v>17</v>
       </c>
@@ -12377,9 +12416,9 @@
       <c r="D444" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="E444" s="27"/>
-    </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E444" s="25"/>
+    </row>
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="9" t="s">
         <v>35</v>
       </c>
@@ -12392,9 +12431,9 @@
       <c r="D445" s="9" t="s">
         <v>1202</v>
       </c>
-      <c r="E445" s="27"/>
-    </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E445" s="25"/>
+    </row>
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="9" t="s">
         <v>39</v>
       </c>
@@ -12407,9 +12446,9 @@
       <c r="D446" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="E446" s="27"/>
-    </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E446" s="25"/>
+    </row>
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="9" t="s">
         <v>43</v>
       </c>
@@ -12422,9 +12461,9 @@
       <c r="D447" s="9" t="s">
         <v>1208</v>
       </c>
-      <c r="E447" s="27"/>
-    </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E447" s="25"/>
+    </row>
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="9" t="s">
         <v>47</v>
       </c>
@@ -12437,9 +12476,9 @@
       <c r="D448" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="E448" s="27"/>
-    </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E448" s="25"/>
+    </row>
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="9" t="s">
         <v>51</v>
       </c>
@@ -12452,9 +12491,9 @@
       <c r="D449" s="9" t="s">
         <v>1214</v>
       </c>
-      <c r="E449" s="27"/>
-    </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E449" s="25"/>
+    </row>
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="9" t="s">
         <v>55</v>
       </c>
@@ -12467,9 +12506,9 @@
       <c r="D450" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="E450" s="27"/>
-    </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E450" s="25"/>
+    </row>
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="9" t="s">
         <v>59</v>
       </c>
@@ -12482,9 +12521,9 @@
       <c r="D451" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="E451" s="27"/>
-    </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E451" s="25"/>
+    </row>
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="9" t="s">
         <v>63</v>
       </c>
@@ -12497,9 +12536,9 @@
       <c r="D452" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="E452" s="27"/>
-    </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E452" s="25"/>
+    </row>
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="9" t="s">
         <v>67</v>
       </c>
@@ -12512,9 +12551,9 @@
       <c r="D453" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="E453" s="27"/>
-    </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E453" s="25"/>
+    </row>
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="9" t="s">
         <v>71</v>
       </c>
@@ -12527,9 +12566,9 @@
       <c r="D454" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="E454" s="27"/>
-    </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E454" s="25"/>
+    </row>
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="9" t="s">
         <v>75</v>
       </c>
@@ -12542,9 +12581,9 @@
       <c r="D455" s="9" t="s">
         <v>1232</v>
       </c>
-      <c r="E455" s="27"/>
-    </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E455" s="25"/>
+    </row>
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="9" t="s">
         <v>79</v>
       </c>
@@ -12557,9 +12596,9 @@
       <c r="D456" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="E456" s="27"/>
-    </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E456" s="25"/>
+    </row>
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="9" t="s">
         <v>83</v>
       </c>
@@ -12572,9 +12611,9 @@
       <c r="D457" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="E457" s="27"/>
-    </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E457" s="25"/>
+    </row>
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="9" t="s">
         <v>87</v>
       </c>
@@ -12587,9 +12626,9 @@
       <c r="D458" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="E458" s="27"/>
-    </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E458" s="25"/>
+    </row>
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="9" t="s">
         <v>91</v>
       </c>
@@ -12602,9 +12641,9 @@
       <c r="D459" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="E459" s="27"/>
-    </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E459" s="25"/>
+    </row>
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="9" t="s">
         <v>95</v>
       </c>
@@ -12617,9 +12656,9 @@
       <c r="D460" s="9" t="s">
         <v>1247</v>
       </c>
-      <c r="E460" s="27"/>
-    </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E460" s="25"/>
+    </row>
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="9" t="s">
         <v>99</v>
       </c>
@@ -12632,9 +12671,9 @@
       <c r="D461" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="E461" s="27"/>
-    </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E461" s="25"/>
+    </row>
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="9" t="s">
         <v>103</v>
       </c>
@@ -12647,9 +12686,9 @@
       <c r="D462" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="E462" s="27"/>
-    </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E462" s="25"/>
+    </row>
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="9" t="s">
         <v>107</v>
       </c>
@@ -12662,9 +12701,9 @@
       <c r="D463" s="9" t="s">
         <v>1256</v>
       </c>
-      <c r="E463" s="27"/>
-    </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E463" s="25"/>
+    </row>
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="9" t="s">
         <v>111</v>
       </c>
@@ -12677,9 +12716,9 @@
       <c r="D464" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="E464" s="27"/>
-    </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E464" s="25"/>
+    </row>
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="9" t="s">
         <v>115</v>
       </c>
@@ -12692,9 +12731,9 @@
       <c r="D465" s="9" t="s">
         <v>1262</v>
       </c>
-      <c r="E465" s="27"/>
-    </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E465" s="25"/>
+    </row>
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
@@ -12707,9 +12746,9 @@
       <c r="D466" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="E466" s="27"/>
-    </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E466" s="25"/>
+    </row>
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="9" t="s">
         <v>123</v>
       </c>
@@ -12722,9 +12761,9 @@
       <c r="D467" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="E467" s="27"/>
-    </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E467" s="25"/>
+    </row>
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
@@ -12737,9 +12776,9 @@
       <c r="D468" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="E468" s="27"/>
-    </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E468" s="25"/>
+    </row>
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
         <v>131</v>
       </c>
@@ -12752,9 +12791,9 @@
       <c r="D469" s="9" t="s">
         <v>1274</v>
       </c>
-      <c r="E469" s="27"/>
-    </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E469" s="25"/>
+    </row>
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
@@ -12767,9 +12806,9 @@
       <c r="D470" s="9" t="s">
         <v>1277</v>
       </c>
-      <c r="E470" s="27"/>
-    </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E470" s="25"/>
+    </row>
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>139</v>
       </c>
@@ -12782,9 +12821,9 @@
       <c r="D471" s="9" t="s">
         <v>1280</v>
       </c>
-      <c r="E471" s="27"/>
-    </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E471" s="25"/>
+    </row>
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
@@ -12797,9 +12836,9 @@
       <c r="D472" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="E472" s="27"/>
-    </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E472" s="25"/>
+    </row>
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="9" t="s">
         <v>147</v>
       </c>
@@ -12812,9 +12851,9 @@
       <c r="D473" s="9" t="s">
         <v>1286</v>
       </c>
-      <c r="E473" s="27"/>
-    </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E473" s="25"/>
+    </row>
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
@@ -12827,9 +12866,9 @@
       <c r="D474" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="E474" s="27"/>
-    </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E474" s="25"/>
+    </row>
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="9" t="s">
         <v>155</v>
       </c>
@@ -12842,9 +12881,9 @@
       <c r="D475" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="E475" s="27"/>
-    </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E475" s="25"/>
+    </row>
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
@@ -12857,9 +12896,9 @@
       <c r="D476" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="E476" s="27"/>
-    </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E476" s="25"/>
+    </row>
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>163</v>
       </c>
@@ -12872,9 +12911,9 @@
       <c r="D477" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="E477" s="27"/>
-    </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E477" s="25"/>
+    </row>
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
@@ -12887,9 +12926,9 @@
       <c r="D478" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="E478" s="27"/>
-    </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E478" s="25"/>
+    </row>
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>171</v>
       </c>
@@ -12902,9 +12941,9 @@
       <c r="D479" s="9" t="s">
         <v>1304</v>
       </c>
-      <c r="E479" s="27"/>
-    </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E479" s="25"/>
+    </row>
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
@@ -12917,9 +12956,9 @@
       <c r="D480" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="E480" s="27"/>
-    </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E480" s="25"/>
+    </row>
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="9" t="s">
         <v>179</v>
       </c>
@@ -12932,9 +12971,9 @@
       <c r="D481" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="E481" s="27"/>
-    </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E481" s="25"/>
+    </row>
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="9" t="s">
         <v>183</v>
       </c>
@@ -12947,9 +12986,9 @@
       <c r="D482" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="E482" s="27"/>
-    </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E482" s="25"/>
+    </row>
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="9" t="s">
         <v>187</v>
       </c>
@@ -12962,9 +13001,9 @@
       <c r="D483" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="E483" s="27"/>
-    </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E483" s="25"/>
+    </row>
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="9" t="s">
         <v>191</v>
       </c>
@@ -12977,9 +13016,9 @@
       <c r="D484" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="E484" s="27"/>
-    </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E484" s="25"/>
+    </row>
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="9" t="s">
         <v>195</v>
       </c>
@@ -12992,9 +13031,9 @@
       <c r="D485" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="E485" s="27"/>
-    </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E485" s="25"/>
+    </row>
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="9" t="s">
         <v>199</v>
       </c>
@@ -13007,9 +13046,9 @@
       <c r="D486" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="E486" s="27"/>
-    </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E486" s="25"/>
+    </row>
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="9" t="s">
         <v>740</v>
       </c>
@@ -13022,9 +13061,9 @@
       <c r="D487" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="E487" s="27"/>
-    </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E487" s="25"/>
+    </row>
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="9" t="s">
         <v>744</v>
       </c>
@@ -13037,9 +13076,9 @@
       <c r="D488" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="E488" s="27"/>
-    </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E488" s="25"/>
+    </row>
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="9" t="s">
         <v>748</v>
       </c>
@@ -13052,27 +13091,27 @@
       <c r="D489" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="E489" s="27"/>
-    </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="23" t="s">
+      <c r="E489" s="25"/>
+    </row>
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="47" t="s">
         <v>1335</v>
       </c>
-      <c r="B490" s="23"/>
-      <c r="C490" s="23"/>
-      <c r="D490" s="23"/>
-      <c r="E490" s="23"/>
+      <c r="B490" s="47"/>
+      <c r="C490" s="47"/>
+      <c r="D490" s="47"/>
+      <c r="E490" s="47"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="23"/>
-      <c r="B491" s="23"/>
-      <c r="C491" s="23"/>
-      <c r="D491" s="23"/>
-      <c r="E491" s="23"/>
+    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="47"/>
+      <c r="B491" s="47"/>
+      <c r="C491" s="47"/>
+      <c r="D491" s="47"/>
+      <c r="E491" s="47"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -13089,7 +13128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="12" t="s">
         <v>5</v>
       </c>
@@ -13102,11 +13141,11 @@
       <c r="D494" s="16" t="s">
         <v>1338</v>
       </c>
-      <c r="E494" s="25" t="s">
+      <c r="E494" s="23" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="12" t="s">
         <v>9</v>
       </c>
@@ -13119,9 +13158,9 @@
       <c r="D495" s="15" t="s">
         <v>1341</v>
       </c>
-      <c r="E495" s="26"/>
-    </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E495" s="24"/>
+    </row>
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="9" t="s">
         <v>13</v>
       </c>
@@ -13134,9 +13173,9 @@
       <c r="D496" s="9" t="s">
         <v>1344</v>
       </c>
-      <c r="E496" s="27"/>
-    </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E496" s="25"/>
+    </row>
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="9" t="s">
         <v>17</v>
       </c>
@@ -13149,9 +13188,9 @@
       <c r="D497" s="9" t="s">
         <v>1347</v>
       </c>
-      <c r="E497" s="27"/>
-    </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E497" s="25"/>
+    </row>
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="9" t="s">
         <v>35</v>
       </c>
@@ -13164,9 +13203,9 @@
       <c r="D498" s="9" t="s">
         <v>1350</v>
       </c>
-      <c r="E498" s="27"/>
-    </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E498" s="25"/>
+    </row>
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
@@ -13179,9 +13218,9 @@
       <c r="D499" s="9" t="s">
         <v>1353</v>
       </c>
-      <c r="E499" s="27"/>
-    </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E499" s="25"/>
+    </row>
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="12" t="s">
         <v>43</v>
       </c>
@@ -13194,9 +13233,9 @@
       <c r="D500" s="9" t="s">
         <v>1356</v>
       </c>
-      <c r="E500" s="27"/>
-    </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E500" s="25"/>
+    </row>
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12" t="s">
         <v>47</v>
       </c>
@@ -13209,9 +13248,9 @@
       <c r="D501" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="E501" s="27"/>
-    </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E501" s="25"/>
+    </row>
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="9" t="s">
         <v>51</v>
       </c>
@@ -13224,9 +13263,9 @@
       <c r="D502" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="E502" s="27"/>
-    </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E502" s="25"/>
+    </row>
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="9" t="s">
         <v>55</v>
       </c>
@@ -13239,9 +13278,9 @@
       <c r="D503" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="E503" s="27"/>
-    </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E503" s="25"/>
+    </row>
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="9" t="s">
         <v>59</v>
       </c>
@@ -13254,9 +13293,9 @@
       <c r="D504" s="9" t="s">
         <v>1368</v>
       </c>
-      <c r="E504" s="27"/>
-    </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E504" s="25"/>
+    </row>
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="9" t="s">
         <v>63</v>
       </c>
@@ -13269,9 +13308,9 @@
       <c r="D505" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="E505" s="27"/>
-    </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E505" s="25"/>
+    </row>
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="9" t="s">
         <v>67</v>
       </c>
@@ -13284,9 +13323,9 @@
       <c r="D506" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="E506" s="27"/>
-    </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E506" s="25"/>
+    </row>
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="9" t="s">
         <v>71</v>
       </c>
@@ -13299,9 +13338,9 @@
       <c r="D507" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="E507" s="27"/>
-    </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E507" s="25"/>
+    </row>
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="9" t="s">
         <v>75</v>
       </c>
@@ -13314,9 +13353,9 @@
       <c r="D508" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="E508" s="27"/>
-    </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E508" s="25"/>
+    </row>
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="9" t="s">
         <v>79</v>
       </c>
@@ -13329,9 +13368,9 @@
       <c r="D509" s="9" t="s">
         <v>1383</v>
       </c>
-      <c r="E509" s="27"/>
-    </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E509" s="25"/>
+    </row>
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="9" t="s">
         <v>83</v>
       </c>
@@ -13344,9 +13383,9 @@
       <c r="D510" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="E510" s="27"/>
-    </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E510" s="25"/>
+    </row>
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="9" t="s">
         <v>87</v>
       </c>
@@ -13359,9 +13398,9 @@
       <c r="D511" s="9" t="s">
         <v>1389</v>
       </c>
-      <c r="E511" s="27"/>
-    </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E511" s="25"/>
+    </row>
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="9" t="s">
         <v>91</v>
       </c>
@@ -13374,9 +13413,9 @@
       <c r="D512" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="E512" s="27"/>
-    </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E512" s="25"/>
+    </row>
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="9" t="s">
         <v>95</v>
       </c>
@@ -13389,9 +13428,9 @@
       <c r="D513" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="E513" s="27"/>
-    </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E513" s="25"/>
+    </row>
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="9" t="s">
         <v>99</v>
       </c>
@@ -13404,9 +13443,9 @@
       <c r="D514" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="E514" s="27"/>
-    </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E514" s="25"/>
+    </row>
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="9" t="s">
         <v>103</v>
       </c>
@@ -13419,9 +13458,9 @@
       <c r="D515" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="E515" s="27"/>
-    </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E515" s="25"/>
+    </row>
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="9" t="s">
         <v>107</v>
       </c>
@@ -13434,9 +13473,9 @@
       <c r="D516" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="E516" s="27"/>
-    </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E516" s="25"/>
+    </row>
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="9" t="s">
         <v>111</v>
       </c>
@@ -13449,9 +13488,9 @@
       <c r="D517" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="E517" s="27"/>
-    </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E517" s="25"/>
+    </row>
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="9" t="s">
         <v>115</v>
       </c>
@@ -13464,9 +13503,9 @@
       <c r="D518" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="E518" s="27"/>
-    </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E518" s="25"/>
+    </row>
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="9" t="s">
         <v>119</v>
       </c>
@@ -13479,9 +13518,9 @@
       <c r="D519" s="9" t="s">
         <v>1412</v>
       </c>
-      <c r="E519" s="27"/>
-    </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E519" s="25"/>
+    </row>
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="9" t="s">
         <v>123</v>
       </c>
@@ -13494,9 +13533,9 @@
       <c r="D520" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="E520" s="27"/>
-    </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E520" s="25"/>
+    </row>
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="9" t="s">
         <v>127</v>
       </c>
@@ -13509,9 +13548,9 @@
       <c r="D521" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="E521" s="27"/>
-    </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E521" s="25"/>
+    </row>
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="9" t="s">
         <v>131</v>
       </c>
@@ -13524,9 +13563,9 @@
       <c r="D522" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="E522" s="27"/>
-    </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E522" s="25"/>
+    </row>
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="9" t="s">
         <v>135</v>
       </c>
@@ -13539,9 +13578,9 @@
       <c r="D523" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="E523" s="27"/>
-    </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E523" s="25"/>
+    </row>
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="9" t="s">
         <v>139</v>
       </c>
@@ -13554,9 +13593,9 @@
       <c r="D524" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="E524" s="27"/>
-    </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E524" s="25"/>
+    </row>
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="9" t="s">
         <v>143</v>
       </c>
@@ -13569,9 +13608,9 @@
       <c r="D525" s="9" t="s">
         <v>1430</v>
       </c>
-      <c r="E525" s="27"/>
-    </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E525" s="25"/>
+    </row>
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="9" t="s">
         <v>147</v>
       </c>
@@ -13584,9 +13623,9 @@
       <c r="D526" s="9" t="s">
         <v>1433</v>
       </c>
-      <c r="E526" s="27"/>
-    </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E526" s="25"/>
+    </row>
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="9" t="s">
         <v>151</v>
       </c>
@@ -13599,27 +13638,27 @@
       <c r="D527" s="9" t="s">
         <v>1436</v>
       </c>
-      <c r="E527" s="27"/>
-    </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="23" t="s">
+      <c r="E527" s="25"/>
+    </row>
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="47" t="s">
         <v>1437</v>
       </c>
-      <c r="B528" s="23"/>
-      <c r="C528" s="23"/>
-      <c r="D528" s="23"/>
-      <c r="E528" s="23"/>
+      <c r="B528" s="47"/>
+      <c r="C528" s="47"/>
+      <c r="D528" s="47"/>
+      <c r="E528" s="47"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="23"/>
-      <c r="B529" s="23"/>
-      <c r="C529" s="23"/>
-      <c r="D529" s="23"/>
-      <c r="E529" s="23"/>
+    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="47"/>
+      <c r="B529" s="47"/>
+      <c r="C529" s="47"/>
+      <c r="D529" s="47"/>
+      <c r="E529" s="47"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="7" t="s">
         <v>0</v>
       </c>
@@ -13636,7 +13675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="9" t="s">
         <v>5</v>
       </c>
@@ -13649,9 +13688,9 @@
       <c r="D532" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="E532" s="27"/>
-    </row>
-    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E532" s="25"/>
+    </row>
+    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="9" t="s">
         <v>9</v>
       </c>
@@ -13664,9 +13703,9 @@
       <c r="D533" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="E533" s="27"/>
-    </row>
-    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E533" s="25"/>
+    </row>
+    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="9" t="s">
         <v>13</v>
       </c>
@@ -13679,9 +13718,9 @@
       <c r="D534" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="E534" s="27"/>
-    </row>
-    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E534" s="25"/>
+    </row>
+    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="9" t="s">
         <v>17</v>
       </c>
@@ -13694,9 +13733,9 @@
       <c r="D535" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="E535" s="27"/>
-    </row>
-    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E535" s="25"/>
+    </row>
+    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="9" t="s">
         <v>35</v>
       </c>
@@ -13709,9 +13748,9 @@
       <c r="D536" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="E536" s="27"/>
-    </row>
-    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E536" s="25"/>
+    </row>
+    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="12" t="s">
         <v>39</v>
       </c>
@@ -13724,9 +13763,9 @@
       <c r="D537" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="E537" s="27"/>
-    </row>
-    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E537" s="25"/>
+    </row>
+    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="9" t="s">
         <v>43</v>
       </c>
@@ -13739,9 +13778,9 @@
       <c r="D538" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="E538" s="27"/>
-    </row>
-    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E538" s="25"/>
+    </row>
+    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="9" t="s">
         <v>47</v>
       </c>
@@ -13754,18 +13793,18 @@
       <c r="D539" s="9" t="s">
         <v>1461</v>
       </c>
-      <c r="E539" s="27"/>
-    </row>
-    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E539" s="25"/>
+    </row>
+    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B540" s="18"/>
       <c r="C540" s="19"/>
       <c r="D540" s="18"/>
-      <c r="E540" s="29"/>
-    </row>
-    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E540" s="27"/>
+    </row>
+    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="9" t="s">
         <v>55</v>
       </c>
@@ -13778,9 +13817,9 @@
       <c r="D541" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="E541" s="27"/>
-    </row>
-    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E541" s="25"/>
+    </row>
+    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="9" t="s">
         <v>59</v>
       </c>
@@ -13793,18 +13832,18 @@
       <c r="D542" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="E542" s="27"/>
-    </row>
-    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E542" s="25"/>
+    </row>
+    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B543" s="18"/>
       <c r="C543" s="19"/>
       <c r="D543" s="18"/>
-      <c r="E543" s="29"/>
-    </row>
-    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E543" s="27"/>
+    </row>
+    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="9" t="s">
         <v>67</v>
       </c>
@@ -13817,9 +13856,9 @@
       <c r="D544" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="E544" s="27"/>
-    </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E544" s="25"/>
+    </row>
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
@@ -13832,9 +13871,9 @@
       <c r="D545" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="E545" s="27"/>
-    </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E545" s="25"/>
+    </row>
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="9" t="s">
         <v>75</v>
       </c>
@@ -13847,9 +13886,9 @@
       <c r="D546" s="9" t="s">
         <v>1482</v>
       </c>
-      <c r="E546" s="27"/>
-    </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E546" s="25"/>
+    </row>
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="9" t="s">
         <v>79</v>
       </c>
@@ -13862,9 +13901,9 @@
       <c r="D547" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="E547" s="27"/>
-    </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E547" s="25"/>
+    </row>
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="9" t="s">
         <v>83</v>
       </c>
@@ -13877,27 +13916,27 @@
       <c r="D548" s="9" t="s">
         <v>1488</v>
       </c>
-      <c r="E548" s="27"/>
-    </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="23" t="s">
+      <c r="E548" s="25"/>
+    </row>
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="47" t="s">
         <v>1588</v>
       </c>
-      <c r="B549" s="23"/>
-      <c r="C549" s="23"/>
-      <c r="D549" s="23"/>
-      <c r="E549" s="23"/>
+      <c r="B549" s="47"/>
+      <c r="C549" s="47"/>
+      <c r="D549" s="47"/>
+      <c r="E549" s="47"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="23"/>
-      <c r="B550" s="23"/>
-      <c r="C550" s="23"/>
-      <c r="D550" s="23"/>
-      <c r="E550" s="23"/>
+    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="47"/>
+      <c r="B550" s="47"/>
+      <c r="C550" s="47"/>
+      <c r="D550" s="47"/>
+      <c r="E550" s="47"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="7" t="s">
         <v>0</v>
       </c>
@@ -13914,7 +13953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="9" t="s">
         <v>5</v>
       </c>
@@ -13927,9 +13966,9 @@
       <c r="D553" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="E553" s="27"/>
-    </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E553" s="25"/>
+    </row>
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="9" t="s">
         <v>9</v>
       </c>
@@ -13942,9 +13981,9 @@
       <c r="D554" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="E554" s="27"/>
-    </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E554" s="25"/>
+    </row>
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="9" t="s">
         <v>13</v>
       </c>
@@ -13957,9 +13996,9 @@
       <c r="D555" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="E555" s="27"/>
-    </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E555" s="25"/>
+    </row>
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="9" t="s">
         <v>17</v>
       </c>
@@ -13972,9 +14011,9 @@
       <c r="D556" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="E556" s="27"/>
-    </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E556" s="25"/>
+    </row>
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="9" t="s">
         <v>35</v>
       </c>
@@ -13987,9 +14026,9 @@
       <c r="D557" s="9" t="s">
         <v>1503</v>
       </c>
-      <c r="E557" s="27"/>
-    </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E557" s="25"/>
+    </row>
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="9" t="s">
         <v>39</v>
       </c>
@@ -14002,9 +14041,9 @@
       <c r="D558" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="E558" s="27"/>
-    </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E558" s="25"/>
+    </row>
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="9" t="s">
         <v>43</v>
       </c>
@@ -14017,9 +14056,9 @@
       <c r="D559" s="9" t="s">
         <v>1509</v>
       </c>
-      <c r="E559" s="27"/>
-    </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E559" s="25"/>
+    </row>
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="9" t="s">
         <v>47</v>
       </c>
@@ -14032,9 +14071,9 @@
       <c r="D560" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="E560" s="27"/>
-    </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E560" s="25"/>
+    </row>
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="9" t="s">
         <v>51</v>
       </c>
@@ -14047,9 +14086,9 @@
       <c r="D561" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="E561" s="27"/>
-    </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E561" s="25"/>
+    </row>
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="9" t="s">
         <v>55</v>
       </c>
@@ -14062,9 +14101,9 @@
       <c r="D562" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="E562" s="27"/>
-    </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E562" s="25"/>
+    </row>
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="9" t="s">
         <v>59</v>
       </c>
@@ -14077,9 +14116,9 @@
       <c r="D563" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="E563" s="27"/>
-    </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E563" s="25"/>
+    </row>
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="9" t="s">
         <v>63</v>
       </c>
@@ -14092,9 +14131,9 @@
       <c r="D564" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="E564" s="27"/>
-    </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E564" s="25"/>
+    </row>
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="9" t="s">
         <v>67</v>
       </c>
@@ -14107,9 +14146,9 @@
       <c r="D565" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="E565" s="27"/>
-    </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E565" s="25"/>
+    </row>
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="9" t="s">
         <v>71</v>
       </c>
@@ -14122,9 +14161,9 @@
       <c r="D566" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="E566" s="27"/>
-    </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E566" s="25"/>
+    </row>
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="9" t="s">
         <v>75</v>
       </c>
@@ -14137,9 +14176,9 @@
       <c r="D567" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="E567" s="27"/>
-    </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E567" s="25"/>
+    </row>
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="9" t="s">
         <v>79</v>
       </c>
@@ -14152,9 +14191,9 @@
       <c r="D568" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="E568" s="27"/>
-    </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E568" s="25"/>
+    </row>
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="9" t="s">
         <v>83</v>
       </c>
@@ -14167,9 +14206,9 @@
       <c r="D569" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="E569" s="27"/>
-    </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E569" s="25"/>
+    </row>
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="9" t="s">
         <v>87</v>
       </c>
@@ -14182,9 +14221,9 @@
       <c r="D570" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="E570" s="27"/>
-    </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E570" s="25"/>
+    </row>
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="9" t="s">
         <v>91</v>
       </c>
@@ -14197,9 +14236,9 @@
       <c r="D571" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="E571" s="27"/>
-    </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E571" s="25"/>
+    </row>
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="9" t="s">
         <v>95</v>
       </c>
@@ -14212,9 +14251,9 @@
       <c r="D572" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="E572" s="27"/>
-    </row>
-    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E572" s="25"/>
+    </row>
+    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="9" t="s">
         <v>99</v>
       </c>
@@ -14227,9 +14266,9 @@
       <c r="D573" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="E573" s="27"/>
-    </row>
-    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E573" s="25"/>
+    </row>
+    <row r="574" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A574" s="9" t="s">
         <v>103</v>
       </c>
@@ -14242,9 +14281,9 @@
       <c r="D574" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="E574" s="27"/>
-    </row>
-    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E574" s="25"/>
+    </row>
+    <row r="575" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A575" s="9" t="s">
         <v>107</v>
       </c>
@@ -14257,9 +14296,9 @@
       <c r="D575" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="E575" s="27"/>
-    </row>
-    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E575" s="25"/>
+    </row>
+    <row r="576" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A576" s="9" t="s">
         <v>111</v>
       </c>
@@ -14272,9 +14311,9 @@
       <c r="D576" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="E576" s="27"/>
-    </row>
-    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E576" s="25"/>
+    </row>
+    <row r="577" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A577" s="12" t="s">
         <v>115</v>
       </c>
@@ -14287,9 +14326,9 @@
       <c r="D577" s="15" t="s">
         <v>1563</v>
       </c>
-      <c r="E577" s="26"/>
-    </row>
-    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E577" s="24"/>
+    </row>
+    <row r="578" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A578" s="9" t="s">
         <v>119</v>
       </c>
@@ -14302,9 +14341,9 @@
       <c r="D578" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="E578" s="27"/>
-    </row>
-    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E578" s="25"/>
+    </row>
+    <row r="579" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A579" s="9" t="s">
         <v>123</v>
       </c>
@@ -14317,9 +14356,9 @@
       <c r="D579" s="9" t="s">
         <v>1569</v>
       </c>
-      <c r="E579" s="27"/>
-    </row>
-    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E579" s="25"/>
+    </row>
+    <row r="580" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A580" s="9" t="s">
         <v>127</v>
       </c>
@@ -14332,9 +14371,9 @@
       <c r="D580" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="E580" s="27"/>
-    </row>
-    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E580" s="25"/>
+    </row>
+    <row r="581" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A581" s="9" t="s">
         <v>131</v>
       </c>
@@ -14347,9 +14386,9 @@
       <c r="D581" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="E581" s="27"/>
-    </row>
-    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E581" s="25"/>
+    </row>
+    <row r="582" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A582" s="9" t="s">
         <v>135</v>
       </c>
@@ -14362,9 +14401,9 @@
       <c r="D582" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="E582" s="27"/>
-    </row>
-    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E582" s="25"/>
+    </row>
+    <row r="583" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A583" s="9" t="s">
         <v>139</v>
       </c>
@@ -14377,9 +14416,9 @@
       <c r="D583" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="E583" s="27"/>
-    </row>
-    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E583" s="25"/>
+    </row>
+    <row r="584" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A584" s="9" t="s">
         <v>143</v>
       </c>
@@ -14392,9 +14431,9 @@
       <c r="D584" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="E584" s="27"/>
-    </row>
-    <row r="585" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E584" s="25"/>
+    </row>
+    <row r="585" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A585" s="12" t="s">
         <v>147</v>
       </c>
@@ -14407,27 +14446,27 @@
       <c r="D585" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="E585" s="27"/>
-    </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="23" t="s">
+      <c r="E585" s="25"/>
+    </row>
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="47" t="s">
         <v>1589</v>
       </c>
-      <c r="B586" s="23"/>
-      <c r="C586" s="23"/>
-      <c r="D586" s="23"/>
-      <c r="E586" s="23"/>
+      <c r="B586" s="47"/>
+      <c r="C586" s="47"/>
+      <c r="D586" s="47"/>
+      <c r="E586" s="47"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="23"/>
-      <c r="B587" s="23"/>
-      <c r="C587" s="23"/>
-      <c r="D587" s="23"/>
-      <c r="E587" s="23"/>
+    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="47"/>
+      <c r="B587" s="47"/>
+      <c r="C587" s="47"/>
+      <c r="D587" s="47"/>
+      <c r="E587" s="47"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="7" t="s">
         <v>0</v>
       </c>
@@ -14444,7 +14483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A590" s="9" t="s">
         <v>5</v>
       </c>
@@ -14457,9 +14496,9 @@
       <c r="D590" s="9" t="s">
         <v>1592</v>
       </c>
-      <c r="E590" s="27"/>
-    </row>
-    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E590" s="25"/>
+    </row>
+    <row r="591" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A591" s="9" t="s">
         <v>9</v>
       </c>
@@ -14472,9 +14511,9 @@
       <c r="D591" s="9" t="s">
         <v>1595</v>
       </c>
-      <c r="E591" s="27"/>
-    </row>
-    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E591" s="25"/>
+    </row>
+    <row r="592" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A592" s="9" t="s">
         <v>13</v>
       </c>
@@ -14487,9 +14526,9 @@
       <c r="D592" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="E592" s="27"/>
-    </row>
-    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E592" s="25"/>
+    </row>
+    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A593" s="9" t="s">
         <v>17</v>
       </c>
@@ -14502,9 +14541,9 @@
       <c r="D593" s="9" t="s">
         <v>1601</v>
       </c>
-      <c r="E593" s="27"/>
-    </row>
-    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E593" s="25"/>
+    </row>
+    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A594" s="9" t="s">
         <v>35</v>
       </c>
@@ -14517,9 +14556,9 @@
       <c r="D594" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="E594" s="27"/>
-    </row>
-    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E594" s="25"/>
+    </row>
+    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A595" s="9" t="s">
         <v>39</v>
       </c>
@@ -14532,9 +14571,9 @@
       <c r="D595" s="9" t="s">
         <v>1607</v>
       </c>
-      <c r="E595" s="27"/>
-    </row>
-    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E595" s="25"/>
+    </row>
+    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A596" s="9" t="s">
         <v>43</v>
       </c>
@@ -14547,9 +14586,9 @@
       <c r="D596" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="E596" s="27"/>
-    </row>
-    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E596" s="25"/>
+    </row>
+    <row r="597" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A597" s="9" t="s">
         <v>47</v>
       </c>
@@ -14562,9 +14601,9 @@
       <c r="D597" s="9" t="s">
         <v>1613</v>
       </c>
-      <c r="E597" s="27"/>
-    </row>
-    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E597" s="25"/>
+    </row>
+    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A598" s="9" t="s">
         <v>51</v>
       </c>
@@ -14577,9 +14616,9 @@
       <c r="D598" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="E598" s="27"/>
-    </row>
-    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E598" s="25"/>
+    </row>
+    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A599" s="9" t="s">
         <v>55</v>
       </c>
@@ -14592,9 +14631,9 @@
       <c r="D599" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="E599" s="27"/>
-    </row>
-    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E599" s="25"/>
+    </row>
+    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A600" s="9" t="s">
         <v>59</v>
       </c>
@@ -14607,9 +14646,9 @@
       <c r="D600" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="E600" s="27"/>
-    </row>
-    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E600" s="25"/>
+    </row>
+    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A601" s="9" t="s">
         <v>63</v>
       </c>
@@ -14622,9 +14661,9 @@
       <c r="D601" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="E601" s="27"/>
-    </row>
-    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E601" s="25"/>
+    </row>
+    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A602" s="9" t="s">
         <v>67</v>
       </c>
@@ -14637,9 +14676,9 @@
       <c r="D602" s="9" t="s">
         <v>1628</v>
       </c>
-      <c r="E602" s="27"/>
-    </row>
-    <row r="603" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E602" s="25"/>
+    </row>
+    <row r="603" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A603" s="9" t="s">
         <v>71</v>
       </c>
@@ -14652,9 +14691,9 @@
       <c r="D603" s="9" t="s">
         <v>1631</v>
       </c>
-      <c r="E603" s="27"/>
-    </row>
-    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E603" s="25"/>
+    </row>
+    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="9" t="s">
         <v>75</v>
       </c>
@@ -14667,9 +14706,9 @@
       <c r="D604" s="9" t="s">
         <v>1634</v>
       </c>
-      <c r="E604" s="27"/>
-    </row>
-    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E604" s="25"/>
+    </row>
+    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A605" s="9" t="s">
         <v>79</v>
       </c>
@@ -14682,9 +14721,9 @@
       <c r="D605" s="9" t="s">
         <v>1637</v>
       </c>
-      <c r="E605" s="27"/>
-    </row>
-    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E605" s="25"/>
+    </row>
+    <row r="606" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A606" s="9" t="s">
         <v>83</v>
       </c>
@@ -14697,9 +14736,9 @@
       <c r="D606" s="9" t="s">
         <v>1640</v>
       </c>
-      <c r="E606" s="27"/>
-    </row>
-    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E606" s="25"/>
+    </row>
+    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A607" s="9" t="s">
         <v>87</v>
       </c>
@@ -14712,9 +14751,9 @@
       <c r="D607" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="E607" s="27"/>
-    </row>
-    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E607" s="25"/>
+    </row>
+    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A608" s="9" t="s">
         <v>91</v>
       </c>
@@ -14727,9 +14766,9 @@
       <c r="D608" s="9" t="s">
         <v>1646</v>
       </c>
-      <c r="E608" s="27"/>
-    </row>
-    <row r="609" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E608" s="25"/>
+    </row>
+    <row r="609" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
@@ -14742,9 +14781,9 @@
       <c r="D609" s="9" t="s">
         <v>1649</v>
       </c>
-      <c r="E609" s="27"/>
-    </row>
-    <row r="610" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E609" s="25"/>
+    </row>
+    <row r="610" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A610" s="9" t="s">
         <v>99</v>
       </c>
@@ -14757,9 +14796,9 @@
       <c r="D610" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="E610" s="27"/>
-    </row>
-    <row r="611" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E610" s="25"/>
+    </row>
+    <row r="611" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
@@ -14772,9 +14811,9 @@
       <c r="D611" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="E611" s="27"/>
-    </row>
-    <row r="612" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E611" s="25"/>
+    </row>
+    <row r="612" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A612" s="9" t="s">
         <v>107</v>
       </c>
@@ -14787,9 +14826,9 @@
       <c r="D612" s="9" t="s">
         <v>1658</v>
       </c>
-      <c r="E612" s="27"/>
-    </row>
-    <row r="613" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E612" s="25"/>
+    </row>
+    <row r="613" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
@@ -14802,9 +14841,9 @@
       <c r="D613" s="9" t="s">
         <v>1661</v>
       </c>
-      <c r="E613" s="27"/>
-    </row>
-    <row r="614" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E613" s="25"/>
+    </row>
+    <row r="614" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A614" s="9" t="s">
         <v>115</v>
       </c>
@@ -14817,9 +14856,9 @@
       <c r="D614" s="9" t="s">
         <v>1664</v>
       </c>
-      <c r="E614" s="27"/>
-    </row>
-    <row r="615" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E614" s="25"/>
+    </row>
+    <row r="615" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -14832,9 +14871,9 @@
       <c r="D615" s="9" t="s">
         <v>1667</v>
       </c>
-      <c r="E615" s="27"/>
-    </row>
-    <row r="616" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E615" s="25"/>
+    </row>
+    <row r="616" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A616" s="9" t="s">
         <v>123</v>
       </c>
@@ -14847,9 +14886,9 @@
       <c r="D616" s="9" t="s">
         <v>1670</v>
       </c>
-      <c r="E616" s="27"/>
-    </row>
-    <row r="617" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E616" s="25"/>
+    </row>
+    <row r="617" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
@@ -14862,9 +14901,9 @@
       <c r="D617" s="9" t="s">
         <v>1673</v>
       </c>
-      <c r="E617" s="27"/>
-    </row>
-    <row r="618" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E617" s="25"/>
+    </row>
+    <row r="618" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A618" s="9" t="s">
         <v>131</v>
       </c>
@@ -14877,9 +14916,9 @@
       <c r="D618" s="9" t="s">
         <v>1676</v>
       </c>
-      <c r="E618" s="27"/>
-    </row>
-    <row r="619" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E618" s="25"/>
+    </row>
+    <row r="619" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
@@ -14892,9 +14931,9 @@
       <c r="D619" s="9" t="s">
         <v>1679</v>
       </c>
-      <c r="E619" s="27"/>
-    </row>
-    <row r="620" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E619" s="25"/>
+    </row>
+    <row r="620" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A620" s="9" t="s">
         <v>139</v>
       </c>
@@ -14907,9 +14946,9 @@
       <c r="D620" s="9" t="s">
         <v>1682</v>
       </c>
-      <c r="E620" s="27"/>
-    </row>
-    <row r="621" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E620" s="25"/>
+    </row>
+    <row r="621" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
@@ -14922,9 +14961,9 @@
       <c r="D621" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="E621" s="27"/>
-    </row>
-    <row r="622" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E621" s="25"/>
+    </row>
+    <row r="622" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A622" s="9" t="s">
         <v>147</v>
       </c>
@@ -14937,9 +14976,9 @@
       <c r="D622" s="9" t="s">
         <v>1688</v>
       </c>
-      <c r="E622" s="27"/>
-    </row>
-    <row r="623" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E622" s="25"/>
+    </row>
+    <row r="623" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
@@ -14952,9 +14991,9 @@
       <c r="D623" s="9" t="s">
         <v>1691</v>
       </c>
-      <c r="E623" s="27"/>
-    </row>
-    <row r="624" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E623" s="25"/>
+    </row>
+    <row r="624" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A624" s="9" t="s">
         <v>155</v>
       </c>
@@ -14967,9 +15006,9 @@
       <c r="D624" s="9" t="s">
         <v>1694</v>
       </c>
-      <c r="E624" s="27"/>
-    </row>
-    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E624" s="25"/>
+    </row>
+    <row r="625" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A625" s="9" t="s">
         <v>159</v>
       </c>
@@ -14982,9 +15021,9 @@
       <c r="D625" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="E625" s="27"/>
-    </row>
-    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E625" s="25"/>
+    </row>
+    <row r="626" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A626" s="9" t="s">
         <v>163</v>
       </c>
@@ -14997,9 +15036,9 @@
       <c r="D626" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="E626" s="27"/>
-    </row>
-    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E626" s="25"/>
+    </row>
+    <row r="627" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A627" s="9" t="s">
         <v>167</v>
       </c>
@@ -15012,9 +15051,9 @@
       <c r="D627" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="E627" s="27"/>
-    </row>
-    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E627" s="25"/>
+    </row>
+    <row r="628" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A628" s="9" t="s">
         <v>171</v>
       </c>
@@ -15027,9 +15066,9 @@
       <c r="D628" s="9" t="s">
         <v>1706</v>
       </c>
-      <c r="E628" s="27"/>
-    </row>
-    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E628" s="25"/>
+    </row>
+    <row r="629" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A629" s="9" t="s">
         <v>175</v>
       </c>
@@ -15042,9 +15081,9 @@
       <c r="D629" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="E629" s="27"/>
-    </row>
-    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E629" s="25"/>
+    </row>
+    <row r="630" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A630" s="9" t="s">
         <v>179</v>
       </c>
@@ -15057,9 +15096,9 @@
       <c r="D630" s="9" t="s">
         <v>1712</v>
       </c>
-      <c r="E630" s="27"/>
-    </row>
-    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E630" s="25"/>
+    </row>
+    <row r="631" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A631" s="9" t="s">
         <v>183</v>
       </c>
@@ -15072,9 +15111,9 @@
       <c r="D631" s="9" t="s">
         <v>1715</v>
       </c>
-      <c r="E631" s="27"/>
-    </row>
-    <row r="632" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E631" s="25"/>
+    </row>
+    <row r="632" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A632" s="9" t="s">
         <v>187</v>
       </c>
@@ -15087,27 +15126,27 @@
       <c r="D632" s="9" t="s">
         <v>1718</v>
       </c>
-      <c r="E632" s="27"/>
-    </row>
-    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="23" t="s">
+      <c r="E632" s="25"/>
+    </row>
+    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="47" t="s">
         <v>1722</v>
       </c>
-      <c r="B633" s="23"/>
-      <c r="C633" s="23"/>
-      <c r="D633" s="23"/>
-      <c r="E633" s="23"/>
+      <c r="B633" s="47"/>
+      <c r="C633" s="47"/>
+      <c r="D633" s="47"/>
+      <c r="E633" s="47"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="23"/>
-      <c r="B634" s="23"/>
-      <c r="C634" s="23"/>
-      <c r="D634" s="23"/>
-      <c r="E634" s="23"/>
+    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A634" s="47"/>
+      <c r="B634" s="47"/>
+      <c r="C634" s="47"/>
+      <c r="D634" s="47"/>
+      <c r="E634" s="47"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A635" s="12" t="s">
         <v>5</v>
       </c>
@@ -15120,11 +15159,11 @@
       <c r="D635" s="15" t="s">
         <v>1724</v>
       </c>
-      <c r="E635" s="30" t="s">
+      <c r="E635" s="28" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A636" s="9" t="s">
         <v>9</v>
       </c>
@@ -15137,9 +15176,9 @@
       <c r="D636" s="9" t="s">
         <v>1726</v>
       </c>
-      <c r="E636" s="27"/>
-    </row>
-    <row r="637" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E636" s="25"/>
+    </row>
+    <row r="637" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A637" s="9" t="s">
         <v>13</v>
       </c>
@@ -15152,27 +15191,27 @@
       <c r="D637" s="9" t="s">
         <v>1727</v>
       </c>
-      <c r="E637" s="27"/>
-    </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="23" t="s">
+      <c r="E637" s="25"/>
+    </row>
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="47" t="s">
         <v>1728</v>
       </c>
-      <c r="B639" s="23"/>
-      <c r="C639" s="23"/>
-      <c r="D639" s="23"/>
-      <c r="E639" s="23"/>
+      <c r="B639" s="47"/>
+      <c r="C639" s="47"/>
+      <c r="D639" s="47"/>
+      <c r="E639" s="47"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="24"/>
-      <c r="B640" s="24"/>
-      <c r="C640" s="24"/>
-      <c r="D640" s="24"/>
-      <c r="E640" s="24"/>
+    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A640" s="48"/>
+      <c r="B640" s="48"/>
+      <c r="C640" s="48"/>
+      <c r="D640" s="48"/>
+      <c r="E640" s="48"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="7" t="s">
         <v>0</v>
       </c>
@@ -15189,7 +15228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A642" s="9" t="s">
         <v>5</v>
       </c>
@@ -15202,9 +15241,9 @@
       <c r="D642" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="E642" s="27"/>
-    </row>
-    <row r="643" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E642" s="25"/>
+    </row>
+    <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A643" s="9" t="s">
         <v>9</v>
       </c>
@@ -15217,9 +15256,9 @@
       <c r="D643" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="E643" s="27"/>
-    </row>
-    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E643" s="25"/>
+    </row>
+    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="9" t="s">
         <v>13</v>
       </c>
@@ -15232,9 +15271,9 @@
       <c r="D644" s="21" t="s">
         <v>1744</v>
       </c>
-      <c r="E644" s="27"/>
-    </row>
-    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E644" s="25"/>
+    </row>
+    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A645" s="9" t="s">
         <v>17</v>
       </c>
@@ -15247,9 +15286,9 @@
       <c r="D645" s="21" t="s">
         <v>1745</v>
       </c>
-      <c r="E645" s="27"/>
-    </row>
-    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E645" s="25"/>
+    </row>
+    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A646" s="9" t="s">
         <v>35</v>
       </c>
@@ -15262,9 +15301,9 @@
       <c r="D646" s="21" t="s">
         <v>1746</v>
       </c>
-      <c r="E646" s="27"/>
-    </row>
-    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E646" s="25"/>
+    </row>
+    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A647" s="9" t="s">
         <v>39</v>
       </c>
@@ -15277,9 +15316,9 @@
       <c r="D647" s="21" t="s">
         <v>1747</v>
       </c>
-      <c r="E647" s="27"/>
-    </row>
-    <row r="648" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E647" s="25"/>
+    </row>
+    <row r="648" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A648" s="12">
         <v>7</v>
       </c>
@@ -15292,9 +15331,9 @@
       <c r="D648" s="21" t="s">
         <v>1748</v>
       </c>
-      <c r="E648" s="27"/>
-    </row>
-    <row r="649" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E648" s="25"/>
+    </row>
+    <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A649" s="12">
         <v>8</v>
       </c>
@@ -15307,9 +15346,9 @@
       <c r="D649" s="21" t="s">
         <v>1749</v>
       </c>
-      <c r="E649" s="27"/>
-    </row>
-    <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E649" s="25"/>
+    </row>
+    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A650" s="9">
         <v>9</v>
       </c>
@@ -15322,9 +15361,9 @@
       <c r="D650" s="21" t="s">
         <v>1750</v>
       </c>
-      <c r="E650" s="27"/>
-    </row>
-    <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E650" s="25"/>
+    </row>
+    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A651" s="9">
         <v>10</v>
       </c>
@@ -15337,9 +15376,9 @@
       <c r="D651" s="21" t="s">
         <v>1751</v>
       </c>
-      <c r="E651" s="27"/>
-    </row>
-    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E651" s="25"/>
+    </row>
+    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A652" s="9">
         <v>11</v>
       </c>
@@ -15352,9 +15391,9 @@
       <c r="D652" s="21" t="s">
         <v>1752</v>
       </c>
-      <c r="E652" s="27"/>
-    </row>
-    <row r="653" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E652" s="25"/>
+    </row>
+    <row r="653" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A653" s="12">
         <v>12</v>
       </c>
@@ -15367,9 +15406,9 @@
       <c r="D653" s="21" t="s">
         <v>1753</v>
       </c>
-      <c r="E653" s="27"/>
-    </row>
-    <row r="654" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="E653" s="25"/>
+    </row>
+    <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A654" s="9">
         <v>13</v>
       </c>
@@ -15382,9 +15421,9 @@
       <c r="D654" s="21" t="s">
         <v>1754</v>
       </c>
-      <c r="E654" s="27"/>
-    </row>
-    <row r="655" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E654" s="25"/>
+    </row>
+    <row r="655" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A655" s="12">
         <v>14</v>
       </c>
@@ -15397,9 +15436,9 @@
       <c r="D655" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="E655" s="27"/>
-    </row>
-    <row r="656" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="E655" s="25"/>
+    </row>
+    <row r="656" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A656" s="21">
         <v>15</v>
       </c>
@@ -15412,296 +15451,301 @@
       <c r="D656" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="E656" s="27"/>
-    </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A662" s="38">
+      <c r="E656" s="25"/>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A662" s="36">
         <v>1</v>
       </c>
-      <c r="B662" s="38">
+      <c r="B662" s="36">
         <v>1324784</v>
       </c>
-      <c r="C662" s="39" t="s">
+      <c r="C662" s="37" t="s">
         <v>1759</v>
       </c>
-      <c r="D662" s="40" t="s">
+      <c r="D662" s="38" t="s">
         <v>1760</v>
       </c>
-      <c r="E662" s="41" t="s">
+      <c r="E662" s="39" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="A663" s="42">
+    <row r="663" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A663" s="40">
         <v>2</v>
       </c>
-      <c r="B663" s="43">
+      <c r="B663" s="41">
         <v>1324752</v>
       </c>
-      <c r="C663" s="44" t="s">
+      <c r="C663" s="42" t="s">
         <v>1762</v>
       </c>
-      <c r="D663" s="44" t="s">
+      <c r="D663" s="42" t="s">
         <v>1763</v>
       </c>
-      <c r="E663" s="41" t="s">
+      <c r="E663" s="39" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="A664" s="38">
+    <row r="664" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A664" s="36">
         <v>3</v>
       </c>
-      <c r="B664" s="38">
+      <c r="B664" s="36">
         <v>1324741</v>
       </c>
-      <c r="C664" s="45" t="s">
+      <c r="C664" s="43" t="s">
         <v>1765</v>
       </c>
-      <c r="D664" s="45" t="s">
+      <c r="D664" s="43" t="s">
         <v>1766</v>
       </c>
-      <c r="E664" s="41" t="s">
+      <c r="E664" s="39" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A665" s="46">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A665" s="44">
         <v>4</v>
       </c>
-      <c r="B665" s="46">
+      <c r="B665" s="44">
         <v>347187</v>
       </c>
-      <c r="C665" s="47" t="s">
+      <c r="C665" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D665" s="46"/>
-      <c r="E665" s="48" t="s">
+      <c r="D665" s="44"/>
+      <c r="E665" s="46" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A666" s="46">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A666" s="44">
         <v>5</v>
       </c>
-      <c r="B666" s="46">
+      <c r="B666" s="44">
         <v>454273</v>
       </c>
-      <c r="C666" s="47" t="s">
+      <c r="C666" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D666" s="46"/>
-      <c r="E666" s="48" t="s">
+      <c r="D666" s="44"/>
+      <c r="E666" s="46" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A667" s="46">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A667" s="44">
         <v>6</v>
       </c>
-      <c r="B667" s="46">
+      <c r="B667" s="44">
         <v>1480884</v>
       </c>
-      <c r="C667" s="47" t="s">
+      <c r="C667" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D667" s="46"/>
-      <c r="E667" s="48" t="s">
+      <c r="D667" s="44"/>
+      <c r="E667" s="46" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A668" s="46">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A668" s="44">
         <v>7</v>
       </c>
-      <c r="B668" s="46">
+      <c r="B668" s="44">
         <v>1480889</v>
       </c>
-      <c r="C668" s="47" t="s">
+      <c r="C668" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D668" s="46"/>
-      <c r="E668" s="48" t="s">
+      <c r="D668" s="44"/>
+      <c r="E668" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A669" s="46">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A669" s="44">
         <v>8</v>
       </c>
-      <c r="B669" s="46">
+      <c r="B669" s="44">
         <v>359268</v>
       </c>
-      <c r="C669" s="47" t="s">
+      <c r="C669" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D669" s="46"/>
-      <c r="E669" s="48" t="s">
+      <c r="D669" s="44"/>
+      <c r="E669" s="46" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A670" s="46">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A670" s="44">
         <v>7</v>
       </c>
-      <c r="B670" s="46">
+      <c r="B670" s="44">
         <v>1480889</v>
       </c>
-      <c r="C670" s="47" t="s">
+      <c r="C670" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D670" s="46"/>
-      <c r="E670" s="48" t="s">
+      <c r="D670" s="44"/>
+      <c r="E670" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A671" s="46">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A671" s="44">
         <v>7</v>
       </c>
-      <c r="B671" s="46">
+      <c r="B671" s="44">
         <v>1480889</v>
       </c>
-      <c r="C671" s="47" t="s">
+      <c r="C671" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D671" s="46"/>
-      <c r="E671" s="48" t="s">
+      <c r="D671" s="44"/>
+      <c r="E671" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A672" s="46">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A672" s="44">
         <v>7</v>
       </c>
-      <c r="B672" s="46">
+      <c r="B672" s="44">
         <v>1480889</v>
       </c>
-      <c r="C672" s="47" t="s">
+      <c r="C672" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D672" s="46"/>
-      <c r="E672" s="48" t="s">
+      <c r="D672" s="44"/>
+      <c r="E672" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A673" s="46">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A673" s="44">
         <v>7</v>
       </c>
-      <c r="B673" s="46">
+      <c r="B673" s="44">
         <v>1480889</v>
       </c>
-      <c r="C673" s="47" t="s">
+      <c r="C673" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D673" s="46"/>
-      <c r="E673" s="48" t="s">
+      <c r="D673" s="44"/>
+      <c r="E673" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A674" s="46">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A674" s="44">
         <v>7</v>
       </c>
-      <c r="B674" s="46">
+      <c r="B674" s="44">
         <v>1480889</v>
       </c>
-      <c r="C674" s="47" t="s">
+      <c r="C674" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D674" s="46"/>
-      <c r="E674" s="48" t="s">
+      <c r="D674" s="44"/>
+      <c r="E674" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A675" s="46">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A675" s="44">
         <v>7</v>
       </c>
-      <c r="B675" s="46">
+      <c r="B675" s="44">
         <v>1480889</v>
       </c>
-      <c r="C675" s="47" t="s">
+      <c r="C675" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D675" s="46"/>
-      <c r="E675" s="48" t="s">
+      <c r="D675" s="44"/>
+      <c r="E675" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A676" s="46">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A676" s="44">
         <v>7</v>
       </c>
-      <c r="B676" s="46">
+      <c r="B676" s="44">
         <v>1480889</v>
       </c>
-      <c r="C676" s="47" t="s">
+      <c r="C676" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D676" s="46"/>
-      <c r="E676" s="48" t="s">
+      <c r="D676" s="44"/>
+      <c r="E676" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A677" s="46">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A677" s="44">
         <v>7</v>
       </c>
-      <c r="B677" s="46">
+      <c r="B677" s="44">
         <v>1480889</v>
       </c>
-      <c r="C677" s="47" t="s">
+      <c r="C677" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D677" s="46"/>
-      <c r="E677" s="48" t="s">
+      <c r="D677" s="44"/>
+      <c r="E677" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A678" s="46">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A678" s="44">
         <v>7</v>
       </c>
-      <c r="B678" s="46">
+      <c r="B678" s="44">
         <v>1480889</v>
       </c>
-      <c r="C678" s="47" t="s">
+      <c r="C678" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D678" s="46"/>
-      <c r="E678" s="48" t="s">
+      <c r="D678" s="44"/>
+      <c r="E678" s="46" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A679" s="46">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A679" s="44">
         <v>7</v>
       </c>
-      <c r="B679" s="46">
+      <c r="B679" s="44">
         <v>1480889</v>
       </c>
-      <c r="C679" s="47" t="s">
+      <c r="C679" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="D679" s="46"/>
-      <c r="E679" s="48" t="s">
+      <c r="D679" s="44"/>
+      <c r="E679" s="46" t="s">
         <v>1774</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A680" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B680" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C680" s="9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D680" s="9"/>
+      <c r="E680" s="28" t="s">
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A280:E281"/>
     <mergeCell ref="A429:E430"/>
     <mergeCell ref="A437:E438"/>
@@ -15711,32 +15755,42 @@
     <mergeCell ref="A528:E529"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A586:E587"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C389" r:id="rId1"/>
-    <hyperlink ref="C653" r:id="rId2"/>
-    <hyperlink ref="C108" r:id="rId3"/>
-    <hyperlink ref="C188" r:id="rId4"/>
-    <hyperlink ref="C158" r:id="rId5"/>
-    <hyperlink ref="C501" r:id="rId6"/>
-    <hyperlink ref="C500" r:id="rId7"/>
-    <hyperlink ref="C585" r:id="rId8"/>
-    <hyperlink ref="C648" r:id="rId9"/>
-    <hyperlink ref="C649" r:id="rId10"/>
-    <hyperlink ref="C387" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C407" r:id="rId13"/>
-    <hyperlink ref="C373" r:id="rId14"/>
-    <hyperlink ref="C378" r:id="rId15"/>
-    <hyperlink ref="C537" r:id="rId16"/>
-    <hyperlink ref="C343" r:id="rId17"/>
-    <hyperlink ref="C338" r:id="rId18"/>
-    <hyperlink ref="C655" r:id="rId19"/>
-    <hyperlink ref="C494" location="Демонтаж!R1C2" display="ДЭК-251 (кран гусеничный) (70483)"/>
-    <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)"/>
-    <hyperlink ref="C242" r:id="rId20"/>
-    <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)"/>
-    <hyperlink ref="C169" r:id="rId21"/>
+    <hyperlink ref="C389" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C653" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C108" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C188" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C158" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C501" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C500" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C585" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C648" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C649" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C387" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C407" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C373" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C378" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C537" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C343" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C338" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C655" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C494" location="Демонтаж!R1C2" display="ДЭК-251 (кран гусеничный) (70483)" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C242" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C169" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
@@ -15744,7 +15798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15754,26 +15808,26 @@
       <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>1336</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>1338</v>
       </c>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1561</v>
       </c>
@@ -15783,9 +15837,9 @@
       <c r="C2" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1339</v>
       </c>
@@ -15795,9 +15849,9 @@
       <c r="C3" s="9" t="s">
         <v>1341</v>
       </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>361556</v>
       </c>
@@ -15807,21 +15861,21 @@
       <c r="C4" s="9" t="s">
         <v>1724</v>
       </c>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>1324752</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>1762</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>1763</v>
       </c>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>476</v>
       </c>
@@ -15834,16 +15888,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -15853,24 +15907,24 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>1769</v>
       </c>
     </row>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSTK_BPO\Documents\GitHub\Technica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4D411-A518-429C-B763-55C8999BE80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B7FE1-DCB8-484F-A78F-AE8D3CB27277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6034,8 +6034,8 @@
   </sheetPr>
   <dimension ref="A1:F680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G686" sqref="G686"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="C680" sqref="C680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -15736,7 +15736,7 @@
       <c r="B680" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C680" s="9" t="s">
+      <c r="C680" s="12" t="s">
         <v>1770</v>
       </c>
       <c r="D680" s="9"/>
@@ -15746,6 +15746,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A280:E281"/>
     <mergeCell ref="A429:E430"/>
     <mergeCell ref="A437:E438"/>
@@ -15755,16 +15765,6 @@
     <mergeCell ref="A528:E529"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A586:E587"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSTK_BPO\Documents\GitHub\Technica\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B7FE1-DCB8-484F-A78F-AE8D3CB27277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1780">
   <si>
     <t>П/П</t>
   </si>
@@ -5354,13 +5348,22 @@
   </si>
   <si>
     <t>89701018624307196067</t>
+  </si>
+  <si>
+    <t>Переделать на сервере.</t>
+  </si>
+  <si>
+    <t>89701018624317427874</t>
+  </si>
+  <si>
+    <t>89701018624307195978</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -5447,8 +5450,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5496,8 +5506,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -5549,12 +5565,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5690,6 +5715,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5751,7 +5791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5784,26 +5824,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5836,23 +5859,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6028,28 +6034,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F680"/>
+  <dimension ref="A1:G680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="C680" sqref="C680"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="G671" sqref="G671"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="53" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>21</v>
       </c>
@@ -6059,7 +6065,7 @@
       <c r="E1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -6067,14 +6073,14 @@
       <c r="E2" s="47"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6106,7 +6112,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -6121,7 +6127,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -6136,7 +6142,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -6151,7 +6157,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>22</v>
       </c>
@@ -6161,7 +6167,7 @@
       <c r="E9" s="47"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -6169,7 +6175,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6208,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6218,7 +6224,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -6234,7 +6240,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -6250,7 +6256,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6266,7 +6272,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -6282,7 +6288,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -6298,7 +6304,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6314,7 +6320,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -6330,7 +6336,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -6346,7 +6352,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -6362,7 +6368,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
@@ -6378,7 +6384,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -6394,7 +6400,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -6410,7 +6416,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -6426,7 +6432,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -6442,7 +6448,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -6458,7 +6464,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -6474,7 +6480,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -6490,7 +6496,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -6506,7 +6512,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
@@ -6522,7 +6528,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -6538,7 +6544,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -6554,7 +6560,7 @@
       <c r="E35" s="25"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -6570,7 +6576,7 @@
       <c r="E36" s="25"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -6586,7 +6592,7 @@
       <c r="E37" s="25"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -6602,7 +6608,7 @@
       <c r="E38" s="25"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>123</v>
       </c>
@@ -6617,7 +6623,7 @@
       </c>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>127</v>
       </c>
@@ -6632,7 +6638,7 @@
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>131</v>
       </c>
@@ -6647,7 +6653,7 @@
       </c>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
@@ -6662,7 +6668,7 @@
       </c>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>139</v>
       </c>
@@ -6677,7 +6683,7 @@
       </c>
       <c r="E43" s="25"/>
     </row>
-    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -6692,7 +6698,7 @@
       </c>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -6707,7 +6713,7 @@
       </c>
       <c r="E45" s="25"/>
     </row>
-    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -6722,7 +6728,7 @@
       </c>
       <c r="E46" s="25"/>
     </row>
-    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -6737,7 +6743,7 @@
       </c>
       <c r="E47" s="25"/>
     </row>
-    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -6752,7 +6758,7 @@
       </c>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>163</v>
       </c>
@@ -6767,7 +6773,7 @@
       </c>
       <c r="E49" s="25"/>
     </row>
-    <row r="50" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6782,7 +6788,7 @@
       </c>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
@@ -6797,7 +6803,7 @@
       </c>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>175</v>
       </c>
@@ -6812,7 +6818,7 @@
       </c>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>179</v>
       </c>
@@ -6827,7 +6833,7 @@
       </c>
       <c r="E53" s="25"/>
     </row>
-    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
@@ -6842,7 +6848,7 @@
       </c>
       <c r="E54" s="25"/>
     </row>
-    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -6857,7 +6863,7 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>191</v>
       </c>
@@ -6872,7 +6878,7 @@
       </c>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>195</v>
       </c>
@@ -6887,7 +6893,7 @@
       </c>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>199</v>
       </c>
@@ -6902,7 +6908,7 @@
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>203</v>
       </c>
@@ -6912,7 +6918,7 @@
       <c r="E59" s="47"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -6920,7 +6926,7 @@
       <c r="E60" s="47"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
@@ -6952,7 +6958,7 @@
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
@@ -6967,7 +6973,7 @@
       </c>
       <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>13</v>
       </c>
@@ -6982,7 +6988,7 @@
       </c>
       <c r="E65" s="25"/>
     </row>
-    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -6997,7 +7003,7 @@
       </c>
       <c r="E66" s="25"/>
     </row>
-    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>35</v>
       </c>
@@ -7012,7 +7018,7 @@
       </c>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>39</v>
       </c>
@@ -7027,7 +7033,7 @@
       </c>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>43</v>
       </c>
@@ -7042,7 +7048,7 @@
       </c>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="47" t="s">
         <v>225</v>
       </c>
@@ -7052,7 +7058,7 @@
       <c r="E70" s="47"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -7060,7 +7066,7 @@
       <c r="E71" s="47"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -7092,7 +7098,7 @@
       </c>
       <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7107,7 +7113,7 @@
       </c>
       <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
@@ -7122,7 +7128,7 @@
       </c>
       <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>17</v>
       </c>
@@ -7137,7 +7143,7 @@
       </c>
       <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>35</v>
       </c>
@@ -7152,7 +7158,7 @@
       </c>
       <c r="E78" s="25"/>
     </row>
-    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -7167,7 +7173,7 @@
       </c>
       <c r="E79" s="25"/>
     </row>
-    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>43</v>
       </c>
@@ -7182,7 +7188,7 @@
       </c>
       <c r="E80" s="25"/>
     </row>
-    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>47</v>
       </c>
@@ -7197,7 +7203,7 @@
       </c>
       <c r="E81" s="25"/>
     </row>
-    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>51</v>
       </c>
@@ -7212,7 +7218,7 @@
       </c>
       <c r="E82" s="25"/>
     </row>
-    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7227,7 +7233,7 @@
       </c>
       <c r="E83" s="25"/>
     </row>
-    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>59</v>
       </c>
@@ -7242,7 +7248,7 @@
       </c>
       <c r="E84" s="25"/>
     </row>
-    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -7257,7 +7263,7 @@
       </c>
       <c r="E85" s="25"/>
     </row>
-    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>67</v>
       </c>
@@ -7272,7 +7278,7 @@
       </c>
       <c r="E86" s="25"/>
     </row>
-    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -7287,7 +7293,7 @@
       </c>
       <c r="E87" s="25"/>
     </row>
-    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>75</v>
       </c>
@@ -7302,7 +7308,7 @@
       </c>
       <c r="E88" s="25"/>
     </row>
-    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>79</v>
       </c>
@@ -7317,7 +7323,7 @@
       </c>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
@@ -7332,7 +7338,7 @@
       </c>
       <c r="E90" s="25"/>
     </row>
-    <row r="91" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>87</v>
       </c>
@@ -7347,7 +7353,7 @@
       </c>
       <c r="E91" s="25"/>
     </row>
-    <row r="92" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -7362,7 +7368,7 @@
       </c>
       <c r="E92" s="25"/>
     </row>
-    <row r="93" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
@@ -7377,7 +7383,7 @@
       </c>
       <c r="E93" s="25"/>
     </row>
-    <row r="94" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
@@ -7392,7 +7398,7 @@
       </c>
       <c r="E94" s="25"/>
     </row>
-    <row r="95" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
@@ -7407,7 +7413,7 @@
       </c>
       <c r="E95" s="25"/>
     </row>
-    <row r="96" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>107</v>
       </c>
@@ -7422,7 +7428,7 @@
       </c>
       <c r="E96" s="25"/>
     </row>
-    <row r="97" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -7437,7 +7443,7 @@
       </c>
       <c r="E97" s="25"/>
     </row>
-    <row r="98" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>115</v>
       </c>
@@ -7452,7 +7458,7 @@
       </c>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -7467,7 +7473,7 @@
       </c>
       <c r="E99" s="25"/>
     </row>
-    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>123</v>
       </c>
@@ -7482,7 +7488,7 @@
       </c>
       <c r="E100" s="25"/>
     </row>
-    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -7497,7 +7503,7 @@
       </c>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>131</v>
       </c>
@@ -7512,7 +7518,7 @@
       </c>
       <c r="E102" s="25"/>
     </row>
-    <row r="103" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -7527,7 +7533,7 @@
       </c>
       <c r="E103" s="25"/>
     </row>
-    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -7542,7 +7548,7 @@
       </c>
       <c r="E104" s="25"/>
     </row>
-    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>143</v>
       </c>
@@ -7557,7 +7563,7 @@
       </c>
       <c r="E105" s="25"/>
     </row>
-    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>147</v>
       </c>
@@ -7572,7 +7578,7 @@
       </c>
       <c r="E106" s="25"/>
     </row>
-    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>151</v>
       </c>
@@ -7587,7 +7593,7 @@
       </c>
       <c r="E107" s="25"/>
     </row>
-    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -7602,7 +7608,7 @@
       </c>
       <c r="E108" s="25"/>
     </row>
-    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
@@ -7617,7 +7623,7 @@
       </c>
       <c r="E109" s="25"/>
     </row>
-    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>163</v>
       </c>
@@ -7632,7 +7638,7 @@
       </c>
       <c r="E110" s="25"/>
     </row>
-    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -7647,7 +7653,7 @@
       </c>
       <c r="E111" s="25"/>
     </row>
-    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -7662,7 +7668,7 @@
       </c>
       <c r="E112" s="25"/>
     </row>
-    <row r="113" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>175</v>
       </c>
@@ -7677,7 +7683,7 @@
       </c>
       <c r="E113" s="25"/>
     </row>
-    <row r="114" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>179</v>
       </c>
@@ -7692,7 +7698,7 @@
       </c>
       <c r="E114" s="25"/>
     </row>
-    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="47" t="s">
         <v>349</v>
       </c>
@@ -7702,7 +7708,7 @@
       <c r="E115" s="47"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="47"/>
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
@@ -7710,7 +7716,7 @@
       <c r="E116" s="47"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>5</v>
       </c>
@@ -7742,7 +7748,7 @@
       </c>
       <c r="E119" s="25"/>
     </row>
-    <row r="120" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>9</v>
       </c>
@@ -7757,7 +7763,7 @@
       </c>
       <c r="E120" s="25"/>
     </row>
-    <row r="121" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>13</v>
       </c>
@@ -7772,7 +7778,7 @@
       </c>
       <c r="E121" s="25"/>
     </row>
-    <row r="122" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>17</v>
       </c>
@@ -7787,7 +7793,7 @@
       </c>
       <c r="E122" s="25"/>
     </row>
-    <row r="123" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>35</v>
       </c>
@@ -7802,7 +7808,7 @@
       </c>
       <c r="E123" s="25"/>
     </row>
-    <row r="124" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
@@ -7817,7 +7823,7 @@
       </c>
       <c r="E124" s="25"/>
     </row>
-    <row r="125" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>43</v>
       </c>
@@ -7832,7 +7838,7 @@
       </c>
       <c r="E125" s="25"/>
     </row>
-    <row r="126" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>47</v>
       </c>
@@ -7847,7 +7853,7 @@
       </c>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>51</v>
       </c>
@@ -7862,7 +7868,7 @@
       </c>
       <c r="E127" s="25"/>
     </row>
-    <row r="128" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>55</v>
       </c>
@@ -7877,7 +7883,7 @@
       </c>
       <c r="E128" s="25"/>
     </row>
-    <row r="129" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -7892,7 +7898,7 @@
       </c>
       <c r="E129" s="25"/>
     </row>
-    <row r="130" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7907,7 +7913,7 @@
       </c>
       <c r="E130" s="25"/>
     </row>
-    <row r="131" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>67</v>
       </c>
@@ -7922,7 +7928,7 @@
       </c>
       <c r="E131" s="25"/>
     </row>
-    <row r="132" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>71</v>
       </c>
@@ -7937,7 +7943,7 @@
       </c>
       <c r="E132" s="25"/>
     </row>
-    <row r="133" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>75</v>
       </c>
@@ -7952,7 +7958,7 @@
       </c>
       <c r="E133" s="25"/>
     </row>
-    <row r="134" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>79</v>
       </c>
@@ -7967,7 +7973,7 @@
       </c>
       <c r="E134" s="25"/>
     </row>
-    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="47" t="s">
         <v>396</v>
       </c>
@@ -7977,7 +7983,7 @@
       <c r="E135" s="47"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="47"/>
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
@@ -7985,7 +7991,7 @@
       <c r="E136" s="47"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>5</v>
       </c>
@@ -8017,7 +8023,7 @@
       </c>
       <c r="E139" s="25"/>
     </row>
-    <row r="140" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>9</v>
       </c>
@@ -8032,7 +8038,7 @@
       </c>
       <c r="E140" s="25"/>
     </row>
-    <row r="141" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>13</v>
       </c>
@@ -8047,7 +8053,7 @@
       </c>
       <c r="E141" s="25"/>
     </row>
-    <row r="142" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -8062,7 +8068,7 @@
       </c>
       <c r="E142" s="25"/>
     </row>
-    <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>35</v>
       </c>
@@ -8077,7 +8083,7 @@
       </c>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>39</v>
       </c>
@@ -8092,7 +8098,7 @@
       </c>
       <c r="E144" s="25"/>
     </row>
-    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>43</v>
       </c>
@@ -8107,7 +8113,7 @@
       </c>
       <c r="E145" s="25"/>
     </row>
-    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="47" t="s">
         <v>418</v>
       </c>
@@ -8117,7 +8123,7 @@
       <c r="E146" s="47"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="47"/>
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
@@ -8125,7 +8131,7 @@
       <c r="E147" s="47"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
@@ -8142,7 +8148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>5</v>
       </c>
@@ -8157,7 +8163,7 @@
       </c>
       <c r="E150" s="25"/>
     </row>
-    <row r="151" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -8172,7 +8178,7 @@
       </c>
       <c r="E151" s="25"/>
     </row>
-    <row r="152" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>13</v>
       </c>
@@ -8187,7 +8193,7 @@
       </c>
       <c r="E152" s="25"/>
     </row>
-    <row r="153" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -8202,7 +8208,7 @@
       </c>
       <c r="E153" s="25"/>
     </row>
-    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>35</v>
       </c>
@@ -8217,7 +8223,7 @@
       </c>
       <c r="E154" s="25"/>
     </row>
-    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>39</v>
       </c>
@@ -8232,7 +8238,7 @@
       </c>
       <c r="E155" s="25"/>
     </row>
-    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>43</v>
       </c>
@@ -8247,7 +8253,7 @@
       </c>
       <c r="E156" s="25"/>
     </row>
-    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>47</v>
       </c>
@@ -8262,7 +8268,7 @@
       </c>
       <c r="E157" s="25"/>
     </row>
-    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>51</v>
       </c>
@@ -8277,7 +8283,7 @@
       </c>
       <c r="E158" s="25"/>
     </row>
-    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>55</v>
       </c>
@@ -8292,7 +8298,7 @@
       </c>
       <c r="E159" s="25"/>
     </row>
-    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>59</v>
       </c>
@@ -8307,7 +8313,7 @@
       </c>
       <c r="E160" s="25"/>
     </row>
-    <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8322,7 +8328,7 @@
       </c>
       <c r="E161" s="25"/>
     </row>
-    <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>67</v>
       </c>
@@ -8337,7 +8343,7 @@
       </c>
       <c r="E162" s="25"/>
     </row>
-    <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8352,7 +8358,7 @@
       </c>
       <c r="E163" s="25"/>
     </row>
-    <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>75</v>
       </c>
@@ -8367,7 +8373,7 @@
       </c>
       <c r="E164" s="25"/>
     </row>
-    <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8382,7 +8388,7 @@
       </c>
       <c r="E165" s="25"/>
     </row>
-    <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>83</v>
       </c>
@@ -8397,7 +8403,7 @@
       </c>
       <c r="E166" s="25"/>
     </row>
-    <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8412,7 +8418,7 @@
       </c>
       <c r="E167" s="25"/>
     </row>
-    <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>91</v>
       </c>
@@ -8427,7 +8433,7 @@
       </c>
       <c r="E168" s="25"/>
     </row>
-    <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>95</v>
       </c>
@@ -8444,7 +8450,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>99</v>
       </c>
@@ -8459,7 +8465,7 @@
       </c>
       <c r="E170" s="25"/>
     </row>
-    <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>103</v>
       </c>
@@ -8474,7 +8480,7 @@
       </c>
       <c r="E171" s="25"/>
     </row>
-    <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>107</v>
       </c>
@@ -8489,7 +8495,7 @@
       </c>
       <c r="E172" s="25"/>
     </row>
-    <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8504,7 +8510,7 @@
       </c>
       <c r="E173" s="25"/>
     </row>
-    <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>115</v>
       </c>
@@ -8519,21 +8525,21 @@
       </c>
       <c r="E174" s="25"/>
     </row>
-    <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="47" t="s">
         <v>494</v>
       </c>
@@ -8543,7 +8549,7 @@
       <c r="E177" s="47"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="47"/>
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
@@ -8551,7 +8557,7 @@
       <c r="E178" s="47"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -8583,7 +8589,7 @@
       </c>
       <c r="E181" s="25"/>
     </row>
-    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>9</v>
       </c>
@@ -8598,7 +8604,7 @@
       </c>
       <c r="E182" s="25"/>
     </row>
-    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>13</v>
       </c>
@@ -8613,7 +8619,7 @@
       </c>
       <c r="E183" s="25"/>
     </row>
-    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -8628,7 +8634,7 @@
       </c>
       <c r="E184" s="25"/>
     </row>
-    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>35</v>
       </c>
@@ -8643,7 +8649,7 @@
       </c>
       <c r="E185" s="25"/>
     </row>
-    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>39</v>
       </c>
@@ -8658,7 +8664,7 @@
       </c>
       <c r="E186" s="25"/>
     </row>
-    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>43</v>
       </c>
@@ -8673,7 +8679,7 @@
       </c>
       <c r="E187" s="25"/>
     </row>
-    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
         <v>47</v>
       </c>
@@ -8688,7 +8694,7 @@
       </c>
       <c r="E188" s="25"/>
     </row>
-    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="47" t="s">
         <v>519</v>
       </c>
@@ -8698,7 +8704,7 @@
       <c r="E189" s="47"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="47"/>
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
@@ -8706,7 +8712,7 @@
       <c r="E190" s="47"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
@@ -8723,7 +8729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -8738,7 +8744,7 @@
       </c>
       <c r="E193" s="25"/>
     </row>
-    <row r="194" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8753,7 +8759,7 @@
       </c>
       <c r="E194" s="25"/>
     </row>
-    <row r="195" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>13</v>
       </c>
@@ -8768,7 +8774,7 @@
       </c>
       <c r="E195" s="25"/>
     </row>
-    <row r="196" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8783,7 +8789,7 @@
       </c>
       <c r="E196" s="25"/>
     </row>
-    <row r="197" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>35</v>
       </c>
@@ -8798,7 +8804,7 @@
       </c>
       <c r="E197" s="25"/>
     </row>
-    <row r="198" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8813,7 +8819,7 @@
       </c>
       <c r="E198" s="25"/>
     </row>
-    <row r="199" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>43</v>
       </c>
@@ -8828,7 +8834,7 @@
       </c>
       <c r="E199" s="25"/>
     </row>
-    <row r="200" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8843,7 +8849,7 @@
       </c>
       <c r="E200" s="25"/>
     </row>
-    <row r="201" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>51</v>
       </c>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="E201" s="25"/>
     </row>
-    <row r="202" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8873,7 +8879,7 @@
       </c>
       <c r="E202" s="25"/>
     </row>
-    <row r="203" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -8888,7 +8894,7 @@
       </c>
       <c r="E203" s="25"/>
     </row>
-    <row r="204" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8903,7 +8909,7 @@
       </c>
       <c r="E204" s="25"/>
     </row>
-    <row r="205" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>67</v>
       </c>
@@ -8918,7 +8924,7 @@
       </c>
       <c r="E205" s="25"/>
     </row>
-    <row r="206" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -8933,7 +8939,7 @@
       </c>
       <c r="E206" s="25"/>
     </row>
-    <row r="207" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>75</v>
       </c>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="E207" s="25"/>
     </row>
-    <row r="208" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -8963,7 +8969,7 @@
       </c>
       <c r="E208" s="25"/>
     </row>
-    <row r="209" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>83</v>
       </c>
@@ -8978,7 +8984,7 @@
       </c>
       <c r="E209" s="25"/>
     </row>
-    <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>87</v>
       </c>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="E210" s="25"/>
     </row>
-    <row r="211" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>91</v>
       </c>
@@ -9008,7 +9014,7 @@
       </c>
       <c r="E211" s="25"/>
     </row>
-    <row r="212" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>95</v>
       </c>
@@ -9023,7 +9029,7 @@
       </c>
       <c r="E212" s="25"/>
     </row>
-    <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>99</v>
       </c>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="E213" s="25"/>
     </row>
-    <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>103</v>
       </c>
@@ -9053,7 +9059,7 @@
       </c>
       <c r="E214" s="25"/>
     </row>
-    <row r="215" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>107</v>
       </c>
@@ -9068,7 +9074,7 @@
       </c>
       <c r="E215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>111</v>
       </c>
@@ -9083,7 +9089,7 @@
       </c>
       <c r="E216" s="25"/>
     </row>
-    <row r="217" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>115</v>
       </c>
@@ -9098,7 +9104,7 @@
       </c>
       <c r="E217" s="25"/>
     </row>
-    <row r="218" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>119</v>
       </c>
@@ -9113,7 +9119,7 @@
       </c>
       <c r="E218" s="25"/>
     </row>
-    <row r="219" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>123</v>
       </c>
@@ -9128,7 +9134,7 @@
       </c>
       <c r="E219" s="25"/>
     </row>
-    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="47" t="s">
         <v>601</v>
       </c>
@@ -9138,7 +9144,7 @@
       <c r="E220" s="47"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="47"/>
       <c r="B221" s="47"/>
       <c r="C221" s="47"/>
@@ -9146,7 +9152,7 @@
       <c r="E221" s="47"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>5</v>
       </c>
@@ -9178,7 +9184,7 @@
       </c>
       <c r="E224" s="25"/>
     </row>
-    <row r="225" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>9</v>
       </c>
@@ -9193,7 +9199,7 @@
       </c>
       <c r="E225" s="25"/>
     </row>
-    <row r="226" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>13</v>
       </c>
@@ -9208,7 +9214,7 @@
       </c>
       <c r="E226" s="25"/>
     </row>
-    <row r="227" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>17</v>
       </c>
@@ -9223,7 +9229,7 @@
       </c>
       <c r="E227" s="25"/>
     </row>
-    <row r="228" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>35</v>
       </c>
@@ -9238,7 +9244,7 @@
       </c>
       <c r="E228" s="25"/>
     </row>
-    <row r="229" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>39</v>
       </c>
@@ -9253,7 +9259,7 @@
       </c>
       <c r="E229" s="28"/>
     </row>
-    <row r="230" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>43</v>
       </c>
@@ -9268,7 +9274,7 @@
       </c>
       <c r="E230" s="25"/>
     </row>
-    <row r="231" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>47</v>
       </c>
@@ -9283,7 +9289,7 @@
       </c>
       <c r="E231" s="25"/>
     </row>
-    <row r="232" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>51</v>
       </c>
@@ -9298,7 +9304,7 @@
       </c>
       <c r="E232" s="25"/>
     </row>
-    <row r="233" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>55</v>
       </c>
@@ -9313,7 +9319,7 @@
       </c>
       <c r="E233" s="25"/>
     </row>
-    <row r="234" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>59</v>
       </c>
@@ -9328,7 +9334,7 @@
       </c>
       <c r="E234" s="25"/>
     </row>
-    <row r="235" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -9343,7 +9349,7 @@
       </c>
       <c r="E235" s="25"/>
     </row>
-    <row r="236" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>67</v>
       </c>
@@ -9358,7 +9364,7 @@
       </c>
       <c r="E236" s="25"/>
     </row>
-    <row r="237" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>71</v>
       </c>
@@ -9373,7 +9379,7 @@
       </c>
       <c r="E237" s="25"/>
     </row>
-    <row r="238" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>75</v>
       </c>
@@ -9388,7 +9394,7 @@
       </c>
       <c r="E238" s="25"/>
     </row>
-    <row r="239" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>79</v>
       </c>
@@ -9403,7 +9409,7 @@
       </c>
       <c r="E239" s="25"/>
     </row>
-    <row r="240" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>83</v>
       </c>
@@ -9418,7 +9424,7 @@
       </c>
       <c r="E240" s="25"/>
     </row>
-    <row r="241" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>87</v>
       </c>
@@ -9433,7 +9439,7 @@
       </c>
       <c r="E241" s="25"/>
     </row>
-    <row r="242" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
         <v>91</v>
       </c>
@@ -9448,7 +9454,7 @@
       </c>
       <c r="E242" s="25"/>
     </row>
-    <row r="243" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>95</v>
       </c>
@@ -9463,7 +9469,7 @@
       </c>
       <c r="E243" s="25"/>
     </row>
-    <row r="244" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>99</v>
       </c>
@@ -9478,7 +9484,7 @@
       </c>
       <c r="E244" s="25"/>
     </row>
-    <row r="245" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>103</v>
       </c>
@@ -9493,7 +9499,7 @@
       </c>
       <c r="E245" s="25"/>
     </row>
-    <row r="246" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>107</v>
       </c>
@@ -9508,7 +9514,7 @@
       </c>
       <c r="E246" s="25"/>
     </row>
-    <row r="247" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -9523,7 +9529,7 @@
       </c>
       <c r="E247" s="25"/>
     </row>
-    <row r="248" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>115</v>
       </c>
@@ -9538,7 +9544,7 @@
       </c>
       <c r="E248" s="25"/>
     </row>
-    <row r="249" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>119</v>
       </c>
@@ -9553,7 +9559,7 @@
       </c>
       <c r="E249" s="25"/>
     </row>
-    <row r="250" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>123</v>
       </c>
@@ -9568,7 +9574,7 @@
       </c>
       <c r="E250" s="25"/>
     </row>
-    <row r="251" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>127</v>
       </c>
@@ -9583,7 +9589,7 @@
       </c>
       <c r="E251" s="25"/>
     </row>
-    <row r="252" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
@@ -9598,7 +9604,7 @@
       </c>
       <c r="E252" s="25"/>
     </row>
-    <row r="253" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>135</v>
       </c>
@@ -9613,7 +9619,7 @@
       </c>
       <c r="E253" s="25"/>
     </row>
-    <row r="254" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>139</v>
       </c>
@@ -9628,7 +9634,7 @@
       </c>
       <c r="E254" s="25"/>
     </row>
-    <row r="255" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>143</v>
       </c>
@@ -9643,7 +9649,7 @@
       </c>
       <c r="E255" s="25"/>
     </row>
-    <row r="256" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>147</v>
       </c>
@@ -9658,7 +9664,7 @@
       </c>
       <c r="E256" s="25"/>
     </row>
-    <row r="257" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
         <v>151</v>
       </c>
@@ -9673,7 +9679,7 @@
       </c>
       <c r="E257" s="25"/>
     </row>
-    <row r="258" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>155</v>
       </c>
@@ -9688,7 +9694,7 @@
       </c>
       <c r="E258" s="25"/>
     </row>
-    <row r="259" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
@@ -9703,7 +9709,7 @@
       </c>
       <c r="E259" s="25"/>
     </row>
-    <row r="260" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>163</v>
       </c>
@@ -9718,7 +9724,7 @@
       </c>
       <c r="E260" s="25"/>
     </row>
-    <row r="261" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>167</v>
       </c>
@@ -9733,7 +9739,7 @@
       </c>
       <c r="E261" s="25"/>
     </row>
-    <row r="262" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>171</v>
       </c>
@@ -9748,7 +9754,7 @@
       </c>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>175</v>
       </c>
@@ -9763,7 +9769,7 @@
       </c>
       <c r="E263" s="25"/>
     </row>
-    <row r="264" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>179</v>
       </c>
@@ -9778,7 +9784,7 @@
       </c>
       <c r="E264" s="25"/>
     </row>
-    <row r="265" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>183</v>
       </c>
@@ -9793,7 +9799,7 @@
       </c>
       <c r="E265" s="25"/>
     </row>
-    <row r="266" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>187</v>
       </c>
@@ -9808,7 +9814,7 @@
       </c>
       <c r="E266" s="25"/>
     </row>
-    <row r="267" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>191</v>
       </c>
@@ -9823,7 +9829,7 @@
       </c>
       <c r="E267" s="25"/>
     </row>
-    <row r="268" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>195</v>
       </c>
@@ -9838,7 +9844,7 @@
       </c>
       <c r="E268" s="25"/>
     </row>
-    <row r="269" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>199</v>
       </c>
@@ -9853,7 +9859,7 @@
       </c>
       <c r="E269" s="25"/>
     </row>
-    <row r="270" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>740</v>
       </c>
@@ -9868,7 +9874,7 @@
       </c>
       <c r="E270" s="25"/>
     </row>
-    <row r="271" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>744</v>
       </c>
@@ -9883,7 +9889,7 @@
       </c>
       <c r="E271" s="25"/>
     </row>
-    <row r="272" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>748</v>
       </c>
@@ -9898,7 +9904,7 @@
       </c>
       <c r="E272" s="25"/>
     </row>
-    <row r="273" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>752</v>
       </c>
@@ -9913,7 +9919,7 @@
       </c>
       <c r="E273" s="25"/>
     </row>
-    <row r="274" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>756</v>
       </c>
@@ -9928,7 +9934,7 @@
       </c>
       <c r="E274" s="25"/>
     </row>
-    <row r="275" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>760</v>
       </c>
@@ -9943,7 +9949,7 @@
       </c>
       <c r="E275" s="25"/>
     </row>
-    <row r="276" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>764</v>
       </c>
@@ -9958,7 +9964,7 @@
       </c>
       <c r="E276" s="25"/>
     </row>
-    <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>768</v>
       </c>
@@ -9973,7 +9979,7 @@
       </c>
       <c r="E277" s="25"/>
     </row>
-    <row r="278" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>772</v>
       </c>
@@ -9988,7 +9994,7 @@
       </c>
       <c r="E278" s="25"/>
     </row>
-    <row r="279" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>776</v>
       </c>
@@ -10003,7 +10009,7 @@
       </c>
       <c r="E279" s="25"/>
     </row>
-    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="47" t="s">
         <v>780</v>
       </c>
@@ -10013,7 +10019,7 @@
       <c r="E280" s="47"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="48"/>
       <c r="B281" s="48"/>
       <c r="C281" s="48"/>
@@ -10021,7 +10027,7 @@
       <c r="E281" s="48"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>0</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>5</v>
       </c>
@@ -10053,7 +10059,7 @@
       </c>
       <c r="E283" s="25"/>
     </row>
-    <row r="284" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -10068,7 +10074,7 @@
       </c>
       <c r="E284" s="25"/>
     </row>
-    <row r="285" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>13</v>
       </c>
@@ -10083,7 +10089,7 @@
       </c>
       <c r="E285" s="25"/>
     </row>
-    <row r="286" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>17</v>
       </c>
@@ -10098,7 +10104,7 @@
       </c>
       <c r="E286" s="25"/>
     </row>
-    <row r="287" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
         <v>35</v>
       </c>
@@ -10113,7 +10119,7 @@
       </c>
       <c r="E287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>39</v>
       </c>
@@ -10128,7 +10134,7 @@
       </c>
       <c r="E288" s="25"/>
     </row>
-    <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>43</v>
       </c>
@@ -10143,7 +10149,7 @@
       </c>
       <c r="E289" s="25"/>
     </row>
-    <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
         <v>47</v>
       </c>
@@ -10158,7 +10164,7 @@
       </c>
       <c r="E290" s="25"/>
     </row>
-    <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>51</v>
       </c>
@@ -10173,7 +10179,7 @@
       </c>
       <c r="E291" s="25"/>
     </row>
-    <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>55</v>
       </c>
@@ -10188,7 +10194,7 @@
       </c>
       <c r="E292" s="25"/>
     </row>
-    <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>59</v>
       </c>
@@ -10203,7 +10209,7 @@
       </c>
       <c r="E293" s="25"/>
     </row>
-    <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>63</v>
       </c>
@@ -10218,7 +10224,7 @@
       </c>
       <c r="E294" s="25"/>
     </row>
-    <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>67</v>
       </c>
@@ -10233,7 +10239,7 @@
       </c>
       <c r="E295" s="25"/>
     </row>
-    <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>71</v>
       </c>
@@ -10248,22 +10254,27 @@
       </c>
       <c r="E296" s="25"/>
     </row>
-    <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A297" s="9" t="s">
+    <row r="297" spans="1:7" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A297" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="49" t="s">
         <v>810</v>
       </c>
-      <c r="C297" s="9" t="s">
+      <c r="C297" s="49" t="s">
         <v>811</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="49" t="s">
         <v>789</v>
       </c>
-      <c r="E297" s="25"/>
-    </row>
-    <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="E297" s="50" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G297" s="51" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>79</v>
       </c>
@@ -10278,7 +10289,7 @@
       </c>
       <c r="E298" s="25"/>
     </row>
-    <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>83</v>
       </c>
@@ -10293,7 +10304,7 @@
       </c>
       <c r="E299" s="25"/>
     </row>
-    <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>87</v>
       </c>
@@ -10308,7 +10319,7 @@
       </c>
       <c r="E300" s="25"/>
     </row>
-    <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>91</v>
       </c>
@@ -10323,7 +10334,7 @@
       </c>
       <c r="E301" s="25"/>
     </row>
-    <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>95</v>
       </c>
@@ -10338,7 +10349,7 @@
       </c>
       <c r="E302" s="25"/>
     </row>
-    <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>99</v>
       </c>
@@ -10353,7 +10364,7 @@
       </c>
       <c r="E303" s="25"/>
     </row>
-    <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>103</v>
       </c>
@@ -10368,7 +10379,7 @@
       </c>
       <c r="E304" s="25"/>
     </row>
-    <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
         <v>107</v>
       </c>
@@ -10383,7 +10394,7 @@
       </c>
       <c r="E305" s="25"/>
     </row>
-    <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>111</v>
       </c>
@@ -10398,7 +10409,7 @@
       </c>
       <c r="E306" s="25"/>
     </row>
-    <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
         <v>115</v>
       </c>
@@ -10413,7 +10424,7 @@
       </c>
       <c r="E307" s="25"/>
     </row>
-    <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>119</v>
       </c>
@@ -10428,7 +10439,7 @@
       </c>
       <c r="E308" s="25"/>
     </row>
-    <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
         <v>123</v>
       </c>
@@ -10443,7 +10454,7 @@
       </c>
       <c r="E309" s="25"/>
     </row>
-    <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
         <v>127</v>
       </c>
@@ -10458,7 +10469,7 @@
       </c>
       <c r="E310" s="25"/>
     </row>
-    <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
         <v>131</v>
       </c>
@@ -10473,7 +10484,7 @@
       </c>
       <c r="E311" s="25"/>
     </row>
-    <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>135</v>
       </c>
@@ -10488,7 +10499,7 @@
       </c>
       <c r="E312" s="25"/>
     </row>
-    <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
         <v>139</v>
       </c>
@@ -10503,7 +10514,7 @@
       </c>
       <c r="E313" s="25"/>
     </row>
-    <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>143</v>
       </c>
@@ -10518,7 +10529,7 @@
       </c>
       <c r="E314" s="25"/>
     </row>
-    <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
         <v>147</v>
       </c>
@@ -10533,7 +10544,7 @@
       </c>
       <c r="E315" s="25"/>
     </row>
-    <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
         <v>151</v>
       </c>
@@ -10548,7 +10559,7 @@
       </c>
       <c r="E316" s="25"/>
     </row>
-    <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
         <v>155</v>
       </c>
@@ -10563,7 +10574,7 @@
       </c>
       <c r="E317" s="25"/>
     </row>
-    <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>159</v>
       </c>
@@ -10578,7 +10589,7 @@
       </c>
       <c r="E318" s="25"/>
     </row>
-    <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>163</v>
       </c>
@@ -10593,7 +10604,7 @@
       </c>
       <c r="E319" s="25"/>
     </row>
-    <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>167</v>
       </c>
@@ -10608,7 +10619,7 @@
       </c>
       <c r="E320" s="25"/>
     </row>
-    <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
         <v>171</v>
       </c>
@@ -10623,7 +10634,7 @@
       </c>
       <c r="E321" s="25"/>
     </row>
-    <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>175</v>
       </c>
@@ -10638,7 +10649,7 @@
       </c>
       <c r="E322" s="25"/>
     </row>
-    <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
         <v>179</v>
       </c>
@@ -10653,7 +10664,7 @@
       </c>
       <c r="E323" s="25"/>
     </row>
-    <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
         <v>183</v>
       </c>
@@ -10668,7 +10679,7 @@
       </c>
       <c r="E324" s="25"/>
     </row>
-    <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
         <v>187</v>
       </c>
@@ -10683,7 +10694,7 @@
       </c>
       <c r="E325" s="25"/>
     </row>
-    <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A326" s="9" t="s">
         <v>191</v>
       </c>
@@ -10698,7 +10709,7 @@
       </c>
       <c r="E326" s="25"/>
     </row>
-    <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A327" s="9" t="s">
         <v>195</v>
       </c>
@@ -10713,7 +10724,7 @@
       </c>
       <c r="E327" s="25"/>
     </row>
-    <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
         <v>199</v>
       </c>
@@ -10728,7 +10739,7 @@
       </c>
       <c r="E328" s="25"/>
     </row>
-    <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
         <v>740</v>
       </c>
@@ -10743,7 +10754,7 @@
       </c>
       <c r="E329" s="25"/>
     </row>
-    <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>744</v>
       </c>
@@ -10758,7 +10769,7 @@
       </c>
       <c r="E330" s="25"/>
     </row>
-    <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
         <v>748</v>
       </c>
@@ -10773,7 +10784,7 @@
       </c>
       <c r="E331" s="25"/>
     </row>
-    <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
         <v>752</v>
       </c>
@@ -10788,7 +10799,7 @@
       </c>
       <c r="E332" s="25"/>
     </row>
-    <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
         <v>756</v>
       </c>
@@ -10803,7 +10814,7 @@
       </c>
       <c r="E333" s="25"/>
     </row>
-    <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>760</v>
       </c>
@@ -10818,7 +10829,7 @@
       </c>
       <c r="E334" s="25"/>
     </row>
-    <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>764</v>
       </c>
@@ -10833,7 +10844,7 @@
       </c>
       <c r="E335" s="25"/>
     </row>
-    <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
         <v>768</v>
       </c>
@@ -10848,7 +10859,7 @@
       </c>
       <c r="E336" s="25"/>
     </row>
-    <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>772</v>
       </c>
@@ -10863,7 +10874,7 @@
       </c>
       <c r="E337" s="25"/>
     </row>
-    <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A338" s="12">
         <v>55</v>
       </c>
@@ -10878,7 +10889,7 @@
       </c>
       <c r="E338" s="25"/>
     </row>
-    <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
         <v>776</v>
       </c>
@@ -10893,7 +10904,7 @@
       </c>
       <c r="E339" s="25"/>
     </row>
-    <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
         <v>894</v>
       </c>
@@ -10908,7 +10919,7 @@
       </c>
       <c r="E340" s="25"/>
     </row>
-    <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
         <v>897</v>
       </c>
@@ -10923,7 +10934,7 @@
       </c>
       <c r="E341" s="25"/>
     </row>
-    <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
         <v>900</v>
       </c>
@@ -10938,7 +10949,7 @@
       </c>
       <c r="E342" s="25"/>
     </row>
-    <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A343" s="12" t="s">
         <v>903</v>
       </c>
@@ -10953,7 +10964,7 @@
       </c>
       <c r="E343" s="25"/>
     </row>
-    <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>906</v>
       </c>
@@ -10968,7 +10979,7 @@
       </c>
       <c r="E344" s="25"/>
     </row>
-    <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A345" s="9" t="s">
         <v>909</v>
       </c>
@@ -10983,7 +10994,7 @@
       </c>
       <c r="E345" s="25"/>
     </row>
-    <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>912</v>
       </c>
@@ -10998,7 +11009,7 @@
       </c>
       <c r="E346" s="25"/>
     </row>
-    <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
         <v>915</v>
       </c>
@@ -11013,7 +11024,7 @@
       </c>
       <c r="E347" s="25"/>
     </row>
-    <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>918</v>
       </c>
@@ -11028,7 +11039,7 @@
       </c>
       <c r="E348" s="25"/>
     </row>
-    <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
         <v>921</v>
       </c>
@@ -11043,7 +11054,7 @@
       </c>
       <c r="E349" s="25"/>
     </row>
-    <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
         <v>924</v>
       </c>
@@ -11058,7 +11069,7 @@
       </c>
       <c r="E350" s="25"/>
     </row>
-    <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>927</v>
       </c>
@@ -11073,7 +11084,7 @@
       </c>
       <c r="E351" s="25"/>
     </row>
-    <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
         <v>930</v>
       </c>
@@ -11088,7 +11099,7 @@
       </c>
       <c r="E352" s="25"/>
     </row>
-    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
         <v>933</v>
       </c>
@@ -11103,7 +11114,7 @@
       </c>
       <c r="E353" s="25"/>
     </row>
-    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
         <v>936</v>
       </c>
@@ -11118,7 +11129,7 @@
       </c>
       <c r="E354" s="25"/>
     </row>
-    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
         <v>939</v>
       </c>
@@ -11133,7 +11144,7 @@
       </c>
       <c r="E355" s="25"/>
     </row>
-    <row r="356" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
         <v>942</v>
       </c>
@@ -11148,7 +11159,7 @@
       </c>
       <c r="E356" s="25"/>
     </row>
-    <row r="357" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A357" s="9" t="s">
         <v>945</v>
       </c>
@@ -11163,7 +11174,7 @@
       </c>
       <c r="E357" s="25"/>
     </row>
-    <row r="358" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>948</v>
       </c>
@@ -11178,7 +11189,7 @@
       </c>
       <c r="E358" s="25"/>
     </row>
-    <row r="359" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A359" s="9" t="s">
         <v>951</v>
       </c>
@@ -11193,7 +11204,7 @@
       </c>
       <c r="E359" s="25"/>
     </row>
-    <row r="360" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
         <v>954</v>
       </c>
@@ -11208,7 +11219,7 @@
       </c>
       <c r="E360" s="25"/>
     </row>
-    <row r="361" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
         <v>957</v>
       </c>
@@ -11223,7 +11234,7 @@
       </c>
       <c r="E361" s="25"/>
     </row>
-    <row r="362" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
         <v>960</v>
       </c>
@@ -11238,7 +11249,7 @@
       </c>
       <c r="E362" s="25"/>
     </row>
-    <row r="363" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
         <v>963</v>
       </c>
@@ -11253,7 +11264,7 @@
       </c>
       <c r="E363" s="25"/>
     </row>
-    <row r="364" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
         <v>966</v>
       </c>
@@ -11268,7 +11279,7 @@
       </c>
       <c r="E364" s="25"/>
     </row>
-    <row r="365" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
         <v>969</v>
       </c>
@@ -11283,7 +11294,7 @@
       </c>
       <c r="E365" s="25"/>
     </row>
-    <row r="366" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
         <v>972</v>
       </c>
@@ -11298,7 +11309,7 @@
       </c>
       <c r="E366" s="25"/>
     </row>
-    <row r="367" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
         <v>975</v>
       </c>
@@ -11313,7 +11324,7 @@
       </c>
       <c r="E367" s="25"/>
     </row>
-    <row r="368" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
         <v>978</v>
       </c>
@@ -11328,7 +11339,7 @@
       </c>
       <c r="E368" s="25"/>
     </row>
-    <row r="369" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
         <v>981</v>
       </c>
@@ -11343,7 +11354,7 @@
       </c>
       <c r="E369" s="25"/>
     </row>
-    <row r="370" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
         <v>984</v>
       </c>
@@ -11358,7 +11369,7 @@
       </c>
       <c r="E370" s="25"/>
     </row>
-    <row r="371" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A371" s="9" t="s">
         <v>987</v>
       </c>
@@ -11373,7 +11384,7 @@
       </c>
       <c r="E371" s="25"/>
     </row>
-    <row r="372" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
         <v>990</v>
       </c>
@@ -11388,7 +11399,7 @@
       </c>
       <c r="E372" s="25"/>
     </row>
-    <row r="373" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A373" s="12" t="s">
         <v>994</v>
       </c>
@@ -11403,7 +11414,7 @@
       </c>
       <c r="E373" s="25"/>
     </row>
-    <row r="374" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
         <v>998</v>
       </c>
@@ -11418,7 +11429,7 @@
       </c>
       <c r="E374" s="25"/>
     </row>
-    <row r="375" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
         <v>1002</v>
       </c>
@@ -11433,7 +11444,7 @@
       </c>
       <c r="E375" s="25"/>
     </row>
-    <row r="376" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
         <v>1006</v>
       </c>
@@ -11448,7 +11459,7 @@
       </c>
       <c r="E376" s="25"/>
     </row>
-    <row r="377" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
         <v>1010</v>
       </c>
@@ -11463,7 +11474,7 @@
       </c>
       <c r="E377" s="25"/>
     </row>
-    <row r="378" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
         <v>1014</v>
       </c>
@@ -11478,7 +11489,7 @@
       </c>
       <c r="E378" s="25"/>
     </row>
-    <row r="379" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
         <v>1018</v>
       </c>
@@ -11493,7 +11504,7 @@
       </c>
       <c r="E379" s="25"/>
     </row>
-    <row r="380" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>1022</v>
       </c>
@@ -11508,7 +11519,7 @@
       </c>
       <c r="E380" s="25"/>
     </row>
-    <row r="381" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A381" s="9" t="s">
         <v>1025</v>
       </c>
@@ -11523,7 +11534,7 @@
       </c>
       <c r="E381" s="25"/>
     </row>
-    <row r="382" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
         <v>1028</v>
       </c>
@@ -11538,7 +11549,7 @@
       </c>
       <c r="E382" s="25"/>
     </row>
-    <row r="383" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A383" s="9" t="s">
         <v>1031</v>
       </c>
@@ -11553,7 +11564,7 @@
       </c>
       <c r="E383" s="25"/>
     </row>
-    <row r="384" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
         <v>1034</v>
       </c>
@@ -11568,7 +11579,7 @@
       </c>
       <c r="E384" s="25"/>
     </row>
-    <row r="385" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A385" s="9" t="s">
         <v>1037</v>
       </c>
@@ -11583,7 +11594,7 @@
       </c>
       <c r="E385" s="25"/>
     </row>
-    <row r="386" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
         <v>1040</v>
       </c>
@@ -11598,7 +11609,7 @@
       </c>
       <c r="E386" s="25"/>
     </row>
-    <row r="387" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A387" s="12" t="s">
         <v>1043</v>
       </c>
@@ -11613,7 +11624,7 @@
       </c>
       <c r="E387" s="25"/>
     </row>
-    <row r="388" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
         <v>1046</v>
       </c>
@@ -11628,7 +11639,7 @@
       </c>
       <c r="E388" s="25"/>
     </row>
-    <row r="389" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A389" s="12" t="s">
         <v>1049</v>
       </c>
@@ -11643,7 +11654,7 @@
       </c>
       <c r="E389" s="25"/>
     </row>
-    <row r="390" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
         <v>1052</v>
       </c>
@@ -11658,7 +11669,7 @@
       </c>
       <c r="E390" s="25"/>
     </row>
-    <row r="391" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A391" s="9" t="s">
         <v>1055</v>
       </c>
@@ -11673,7 +11684,7 @@
       </c>
       <c r="E391" s="25"/>
     </row>
-    <row r="392" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
         <v>1058</v>
       </c>
@@ -11688,7 +11699,7 @@
       </c>
       <c r="E392" s="25"/>
     </row>
-    <row r="393" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A393" s="9" t="s">
         <v>1061</v>
       </c>
@@ -11703,7 +11714,7 @@
       </c>
       <c r="E393" s="25"/>
     </row>
-    <row r="394" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A394" s="9" t="s">
         <v>1064</v>
       </c>
@@ -11718,7 +11729,7 @@
       </c>
       <c r="E394" s="25"/>
     </row>
-    <row r="395" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A395" s="9" t="s">
         <v>1067</v>
       </c>
@@ -11733,7 +11744,7 @@
       </c>
       <c r="E395" s="25"/>
     </row>
-    <row r="396" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
         <v>1070</v>
       </c>
@@ -11748,7 +11759,7 @@
       </c>
       <c r="E396" s="25"/>
     </row>
-    <row r="397" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A397" s="9" t="s">
         <v>1073</v>
       </c>
@@ -11763,7 +11774,7 @@
       </c>
       <c r="E397" s="25"/>
     </row>
-    <row r="398" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>1076</v>
       </c>
@@ -11778,7 +11789,7 @@
       </c>
       <c r="E398" s="25"/>
     </row>
-    <row r="399" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A399" s="9" t="s">
         <v>1079</v>
       </c>
@@ -11793,7 +11804,7 @@
       </c>
       <c r="E399" s="25"/>
     </row>
-    <row r="400" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>1082</v>
       </c>
@@ -11808,7 +11819,7 @@
       </c>
       <c r="E400" s="25"/>
     </row>
-    <row r="401" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A401" s="9" t="s">
         <v>1085</v>
       </c>
@@ -11823,7 +11834,7 @@
       </c>
       <c r="E401" s="25"/>
     </row>
-    <row r="402" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A402" s="9" t="s">
         <v>1088</v>
       </c>
@@ -11838,7 +11849,7 @@
       </c>
       <c r="E402" s="25"/>
     </row>
-    <row r="403" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A403" s="9" t="s">
         <v>1091</v>
       </c>
@@ -11853,7 +11864,7 @@
       </c>
       <c r="E403" s="25"/>
     </row>
-    <row r="404" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
         <v>1094</v>
       </c>
@@ -11868,7 +11879,7 @@
       </c>
       <c r="E404" s="25"/>
     </row>
-    <row r="405" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A405" s="9" t="s">
         <v>1098</v>
       </c>
@@ -11883,7 +11894,7 @@
       </c>
       <c r="E405" s="25"/>
     </row>
-    <row r="406" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A406" s="9" t="s">
         <v>1102</v>
       </c>
@@ -11898,7 +11909,7 @@
       </c>
       <c r="E406" s="25"/>
     </row>
-    <row r="407" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A407" s="12" t="s">
         <v>1104</v>
       </c>
@@ -11913,7 +11924,7 @@
       </c>
       <c r="E407" s="25"/>
     </row>
-    <row r="408" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A408" s="9" t="s">
         <v>1107</v>
       </c>
@@ -11928,7 +11939,7 @@
       </c>
       <c r="E408" s="25"/>
     </row>
-    <row r="409" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A409" s="9" t="s">
         <v>1110</v>
       </c>
@@ -11943,7 +11954,7 @@
       </c>
       <c r="E409" s="25"/>
     </row>
-    <row r="410" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A410" s="9" t="s">
         <v>1113</v>
       </c>
@@ -11958,7 +11969,7 @@
       </c>
       <c r="E410" s="25"/>
     </row>
-    <row r="411" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
         <v>1116</v>
       </c>
@@ -11973,7 +11984,7 @@
       </c>
       <c r="E411" s="25"/>
     </row>
-    <row r="412" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
         <v>1119</v>
       </c>
@@ -11988,7 +11999,7 @@
       </c>
       <c r="E412" s="25"/>
     </row>
-    <row r="413" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A413" s="9" t="s">
         <v>1122</v>
       </c>
@@ -12003,7 +12014,7 @@
       </c>
       <c r="E413" s="25"/>
     </row>
-    <row r="414" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A414" s="9" t="s">
         <v>1125</v>
       </c>
@@ -12018,7 +12029,7 @@
       </c>
       <c r="E414" s="25"/>
     </row>
-    <row r="415" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A415" s="9" t="s">
         <v>1128</v>
       </c>
@@ -12033,7 +12044,7 @@
       </c>
       <c r="E415" s="25"/>
     </row>
-    <row r="416" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A416" s="9" t="s">
         <v>1131</v>
       </c>
@@ -12048,7 +12059,7 @@
       </c>
       <c r="E416" s="25"/>
     </row>
-    <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A417" s="9" t="s">
         <v>1134</v>
       </c>
@@ -12063,7 +12074,7 @@
       </c>
       <c r="E417" s="25"/>
     </row>
-    <row r="418" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>1137</v>
       </c>
@@ -12078,7 +12089,7 @@
       </c>
       <c r="E418" s="25"/>
     </row>
-    <row r="419" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>1140</v>
       </c>
@@ -12093,7 +12104,7 @@
       </c>
       <c r="E419" s="25"/>
     </row>
-    <row r="420" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A420" s="9" t="s">
         <v>1143</v>
       </c>
@@ -12108,7 +12119,7 @@
       </c>
       <c r="E420" s="25"/>
     </row>
-    <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
         <v>1146</v>
       </c>
@@ -12123,7 +12134,7 @@
       </c>
       <c r="E421" s="25"/>
     </row>
-    <row r="422" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
         <v>1150</v>
       </c>
@@ -12138,7 +12149,7 @@
       </c>
       <c r="E422" s="25"/>
     </row>
-    <row r="423" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
         <v>1154</v>
       </c>
@@ -12153,7 +12164,7 @@
       </c>
       <c r="E423" s="25"/>
     </row>
-    <row r="424" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>1158</v>
       </c>
@@ -12168,7 +12179,7 @@
       </c>
       <c r="E424" s="25"/>
     </row>
-    <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
         <v>1162</v>
       </c>
@@ -12183,7 +12194,7 @@
       </c>
       <c r="E425" s="25"/>
     </row>
-    <row r="426" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
         <v>1166</v>
       </c>
@@ -12198,7 +12209,7 @@
       </c>
       <c r="E426" s="25"/>
     </row>
-    <row r="427" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
         <v>1170</v>
       </c>
@@ -12213,7 +12224,7 @@
       </c>
       <c r="E427" s="25"/>
     </row>
-    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
         <v>1721</v>
       </c>
@@ -12228,7 +12239,7 @@
       </c>
       <c r="E428" s="25"/>
     </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="47" t="s">
         <v>1187</v>
       </c>
@@ -12238,7 +12249,7 @@
       <c r="E429" s="47"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="47"/>
       <c r="B430" s="47"/>
       <c r="C430" s="47"/>
@@ -12246,7 +12257,7 @@
       <c r="E430" s="47"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>0</v>
       </c>
@@ -12263,7 +12274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
         <v>5</v>
       </c>
@@ -12278,7 +12289,7 @@
       </c>
       <c r="E433" s="25"/>
     </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
         <v>9</v>
       </c>
@@ -12293,7 +12304,7 @@
       </c>
       <c r="E434" s="25"/>
     </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
         <v>13</v>
       </c>
@@ -12308,7 +12319,7 @@
       </c>
       <c r="E435" s="25"/>
     </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
         <v>17</v>
       </c>
@@ -12323,7 +12334,7 @@
       </c>
       <c r="E436" s="25"/>
     </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="47" t="s">
         <v>1186</v>
       </c>
@@ -12333,7 +12344,7 @@
       <c r="E437" s="47"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="47"/>
       <c r="B438" s="47"/>
       <c r="C438" s="47"/>
@@ -12341,7 +12352,7 @@
       <c r="E438" s="47"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="7" t="s">
         <v>0</v>
       </c>
@@ -12358,7 +12369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
         <v>5</v>
       </c>
@@ -12373,7 +12384,7 @@
       </c>
       <c r="E441" s="25"/>
     </row>
-    <row r="442" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
         <v>9</v>
       </c>
@@ -12388,7 +12399,7 @@
       </c>
       <c r="E442" s="25"/>
     </row>
-    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9" t="s">
         <v>13</v>
       </c>
@@ -12403,7 +12414,7 @@
       </c>
       <c r="E443" s="25"/>
     </row>
-    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
         <v>17</v>
       </c>
@@ -12418,7 +12429,7 @@
       </c>
       <c r="E444" s="25"/>
     </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
         <v>35</v>
       </c>
@@ -12433,7 +12444,7 @@
       </c>
       <c r="E445" s="25"/>
     </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
         <v>39</v>
       </c>
@@ -12448,7 +12459,7 @@
       </c>
       <c r="E446" s="25"/>
     </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
         <v>43</v>
       </c>
@@ -12463,7 +12474,7 @@
       </c>
       <c r="E447" s="25"/>
     </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
         <v>47</v>
       </c>
@@ -12478,7 +12489,7 @@
       </c>
       <c r="E448" s="25"/>
     </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
         <v>51</v>
       </c>
@@ -12493,7 +12504,7 @@
       </c>
       <c r="E449" s="25"/>
     </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
         <v>55</v>
       </c>
@@ -12508,7 +12519,7 @@
       </c>
       <c r="E450" s="25"/>
     </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
         <v>59</v>
       </c>
@@ -12523,7 +12534,7 @@
       </c>
       <c r="E451" s="25"/>
     </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
         <v>63</v>
       </c>
@@ -12538,7 +12549,7 @@
       </c>
       <c r="E452" s="25"/>
     </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
         <v>67</v>
       </c>
@@ -12553,7 +12564,7 @@
       </c>
       <c r="E453" s="25"/>
     </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
         <v>71</v>
       </c>
@@ -12568,7 +12579,7 @@
       </c>
       <c r="E454" s="25"/>
     </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
         <v>75</v>
       </c>
@@ -12583,7 +12594,7 @@
       </c>
       <c r="E455" s="25"/>
     </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
         <v>79</v>
       </c>
@@ -12598,7 +12609,7 @@
       </c>
       <c r="E456" s="25"/>
     </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
         <v>83</v>
       </c>
@@ -12613,7 +12624,7 @@
       </c>
       <c r="E457" s="25"/>
     </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
         <v>87</v>
       </c>
@@ -12628,7 +12639,7 @@
       </c>
       <c r="E458" s="25"/>
     </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
         <v>91</v>
       </c>
@@ -12643,7 +12654,7 @@
       </c>
       <c r="E459" s="25"/>
     </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
         <v>95</v>
       </c>
@@ -12658,7 +12669,7 @@
       </c>
       <c r="E460" s="25"/>
     </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
         <v>99</v>
       </c>
@@ -12673,7 +12684,7 @@
       </c>
       <c r="E461" s="25"/>
     </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
         <v>103</v>
       </c>
@@ -12688,7 +12699,7 @@
       </c>
       <c r="E462" s="25"/>
     </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
         <v>107</v>
       </c>
@@ -12703,7 +12714,7 @@
       </c>
       <c r="E463" s="25"/>
     </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
         <v>111</v>
       </c>
@@ -12718,7 +12729,7 @@
       </c>
       <c r="E464" s="25"/>
     </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
         <v>115</v>
       </c>
@@ -12733,7 +12744,7 @@
       </c>
       <c r="E465" s="25"/>
     </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
@@ -12748,7 +12759,7 @@
       </c>
       <c r="E466" s="25"/>
     </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
         <v>123</v>
       </c>
@@ -12763,7 +12774,7 @@
       </c>
       <c r="E467" s="25"/>
     </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
@@ -12778,7 +12789,7 @@
       </c>
       <c r="E468" s="25"/>
     </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
         <v>131</v>
       </c>
@@ -12793,7 +12804,7 @@
       </c>
       <c r="E469" s="25"/>
     </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
@@ -12808,7 +12819,7 @@
       </c>
       <c r="E470" s="25"/>
     </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
         <v>139</v>
       </c>
@@ -12823,7 +12834,7 @@
       </c>
       <c r="E471" s="25"/>
     </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
@@ -12838,7 +12849,7 @@
       </c>
       <c r="E472" s="25"/>
     </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
         <v>147</v>
       </c>
@@ -12853,7 +12864,7 @@
       </c>
       <c r="E473" s="25"/>
     </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
@@ -12868,7 +12879,7 @@
       </c>
       <c r="E474" s="25"/>
     </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
         <v>155</v>
       </c>
@@ -12883,7 +12894,7 @@
       </c>
       <c r="E475" s="25"/>
     </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
@@ -12898,7 +12909,7 @@
       </c>
       <c r="E476" s="25"/>
     </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
         <v>163</v>
       </c>
@@ -12913,7 +12924,7 @@
       </c>
       <c r="E477" s="25"/>
     </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
@@ -12928,7 +12939,7 @@
       </c>
       <c r="E478" s="25"/>
     </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
         <v>171</v>
       </c>
@@ -12943,7 +12954,7 @@
       </c>
       <c r="E479" s="25"/>
     </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
@@ -12958,7 +12969,7 @@
       </c>
       <c r="E480" s="25"/>
     </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
         <v>179</v>
       </c>
@@ -12973,7 +12984,7 @@
       </c>
       <c r="E481" s="25"/>
     </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9" t="s">
         <v>183</v>
       </c>
@@ -12988,7 +12999,7 @@
       </c>
       <c r="E482" s="25"/>
     </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
         <v>187</v>
       </c>
@@ -13003,7 +13014,7 @@
       </c>
       <c r="E483" s="25"/>
     </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
         <v>191</v>
       </c>
@@ -13018,7 +13029,7 @@
       </c>
       <c r="E484" s="25"/>
     </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
         <v>195</v>
       </c>
@@ -13033,7 +13044,7 @@
       </c>
       <c r="E485" s="25"/>
     </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9" t="s">
         <v>199</v>
       </c>
@@ -13048,7 +13059,7 @@
       </c>
       <c r="E486" s="25"/>
     </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
         <v>740</v>
       </c>
@@ -13063,7 +13074,7 @@
       </c>
       <c r="E487" s="25"/>
     </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9" t="s">
         <v>744</v>
       </c>
@@ -13078,7 +13089,7 @@
       </c>
       <c r="E488" s="25"/>
     </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
         <v>748</v>
       </c>
@@ -13093,7 +13104,7 @@
       </c>
       <c r="E489" s="25"/>
     </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="47" t="s">
         <v>1335</v>
       </c>
@@ -13103,7 +13114,7 @@
       <c r="E490" s="47"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="47"/>
       <c r="B491" s="47"/>
       <c r="C491" s="47"/>
@@ -13111,7 +13122,7 @@
       <c r="E491" s="47"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -13128,7 +13139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="12" t="s">
         <v>5</v>
       </c>
@@ -13145,7 +13156,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="12" t="s">
         <v>9</v>
       </c>
@@ -13160,7 +13171,7 @@
       </c>
       <c r="E495" s="24"/>
     </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>13</v>
       </c>
@@ -13175,7 +13186,7 @@
       </c>
       <c r="E496" s="25"/>
     </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
         <v>17</v>
       </c>
@@ -13190,7 +13201,7 @@
       </c>
       <c r="E497" s="25"/>
     </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
         <v>35</v>
       </c>
@@ -13205,7 +13216,7 @@
       </c>
       <c r="E498" s="25"/>
     </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
@@ -13220,7 +13231,7 @@
       </c>
       <c r="E499" s="25"/>
     </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="12" t="s">
         <v>43</v>
       </c>
@@ -13235,7 +13246,7 @@
       </c>
       <c r="E500" s="25"/>
     </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="12" t="s">
         <v>47</v>
       </c>
@@ -13250,7 +13261,7 @@
       </c>
       <c r="E501" s="25"/>
     </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>51</v>
       </c>
@@ -13265,7 +13276,7 @@
       </c>
       <c r="E502" s="25"/>
     </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
         <v>55</v>
       </c>
@@ -13280,7 +13291,7 @@
       </c>
       <c r="E503" s="25"/>
     </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>59</v>
       </c>
@@ -13295,7 +13306,7 @@
       </c>
       <c r="E504" s="25"/>
     </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
         <v>63</v>
       </c>
@@ -13310,7 +13321,7 @@
       </c>
       <c r="E505" s="25"/>
     </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
         <v>67</v>
       </c>
@@ -13325,7 +13336,7 @@
       </c>
       <c r="E506" s="25"/>
     </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
         <v>71</v>
       </c>
@@ -13340,7 +13351,7 @@
       </c>
       <c r="E507" s="25"/>
     </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
         <v>75</v>
       </c>
@@ -13355,7 +13366,7 @@
       </c>
       <c r="E508" s="25"/>
     </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
         <v>79</v>
       </c>
@@ -13370,7 +13381,7 @@
       </c>
       <c r="E509" s="25"/>
     </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
         <v>83</v>
       </c>
@@ -13385,7 +13396,7 @@
       </c>
       <c r="E510" s="25"/>
     </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
         <v>87</v>
       </c>
@@ -13400,7 +13411,7 @@
       </c>
       <c r="E511" s="25"/>
     </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
         <v>91</v>
       </c>
@@ -13415,7 +13426,7 @@
       </c>
       <c r="E512" s="25"/>
     </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
         <v>95</v>
       </c>
@@ -13430,7 +13441,7 @@
       </c>
       <c r="E513" s="25"/>
     </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
         <v>99</v>
       </c>
@@ -13445,7 +13456,7 @@
       </c>
       <c r="E514" s="25"/>
     </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
         <v>103</v>
       </c>
@@ -13460,7 +13471,7 @@
       </c>
       <c r="E515" s="25"/>
     </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
         <v>107</v>
       </c>
@@ -13475,7 +13486,7 @@
       </c>
       <c r="E516" s="25"/>
     </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
         <v>111</v>
       </c>
@@ -13490,7 +13501,7 @@
       </c>
       <c r="E517" s="25"/>
     </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
         <v>115</v>
       </c>
@@ -13505,7 +13516,7 @@
       </c>
       <c r="E518" s="25"/>
     </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
         <v>119</v>
       </c>
@@ -13520,7 +13531,7 @@
       </c>
       <c r="E519" s="25"/>
     </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
         <v>123</v>
       </c>
@@ -13535,7 +13546,7 @@
       </c>
       <c r="E520" s="25"/>
     </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
         <v>127</v>
       </c>
@@ -13550,7 +13561,7 @@
       </c>
       <c r="E521" s="25"/>
     </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
         <v>131</v>
       </c>
@@ -13565,7 +13576,7 @@
       </c>
       <c r="E522" s="25"/>
     </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
         <v>135</v>
       </c>
@@ -13580,7 +13591,7 @@
       </c>
       <c r="E523" s="25"/>
     </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
         <v>139</v>
       </c>
@@ -13595,7 +13606,7 @@
       </c>
       <c r="E524" s="25"/>
     </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
         <v>143</v>
       </c>
@@ -13610,7 +13621,7 @@
       </c>
       <c r="E525" s="25"/>
     </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
         <v>147</v>
       </c>
@@ -13625,7 +13636,7 @@
       </c>
       <c r="E526" s="25"/>
     </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
         <v>151</v>
       </c>
@@ -13640,7 +13651,7 @@
       </c>
       <c r="E527" s="25"/>
     </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="47" t="s">
         <v>1437</v>
       </c>
@@ -13650,7 +13661,7 @@
       <c r="E528" s="47"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="47"/>
       <c r="B529" s="47"/>
       <c r="C529" s="47"/>
@@ -13658,7 +13669,7 @@
       <c r="E529" s="47"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>0</v>
       </c>
@@ -13675,7 +13686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
         <v>5</v>
       </c>
@@ -13690,7 +13701,7 @@
       </c>
       <c r="E532" s="25"/>
     </row>
-    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9" t="s">
         <v>9</v>
       </c>
@@ -13705,7 +13716,7 @@
       </c>
       <c r="E533" s="25"/>
     </row>
-    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9" t="s">
         <v>13</v>
       </c>
@@ -13720,7 +13731,7 @@
       </c>
       <c r="E534" s="25"/>
     </row>
-    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9" t="s">
         <v>17</v>
       </c>
@@ -13735,7 +13746,7 @@
       </c>
       <c r="E535" s="25"/>
     </row>
-    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
         <v>35</v>
       </c>
@@ -13750,7 +13761,7 @@
       </c>
       <c r="E536" s="25"/>
     </row>
-    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="12" t="s">
         <v>39</v>
       </c>
@@ -13765,7 +13776,7 @@
       </c>
       <c r="E537" s="25"/>
     </row>
-    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
         <v>43</v>
       </c>
@@ -13780,7 +13791,7 @@
       </c>
       <c r="E538" s="25"/>
     </row>
-    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9" t="s">
         <v>47</v>
       </c>
@@ -13795,7 +13806,7 @@
       </c>
       <c r="E539" s="25"/>
     </row>
-    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9" t="s">
         <v>51</v>
       </c>
@@ -13804,7 +13815,7 @@
       <c r="D540" s="18"/>
       <c r="E540" s="27"/>
     </row>
-    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9" t="s">
         <v>55</v>
       </c>
@@ -13819,7 +13830,7 @@
       </c>
       <c r="E541" s="25"/>
     </row>
-    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9" t="s">
         <v>59</v>
       </c>
@@ -13834,7 +13845,7 @@
       </c>
       <c r="E542" s="25"/>
     </row>
-    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9" t="s">
         <v>63</v>
       </c>
@@ -13843,7 +13854,7 @@
       <c r="D543" s="18"/>
       <c r="E543" s="27"/>
     </row>
-    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9" t="s">
         <v>67</v>
       </c>
@@ -13858,7 +13869,7 @@
       </c>
       <c r="E544" s="25"/>
     </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
@@ -13873,7 +13884,7 @@
       </c>
       <c r="E545" s="25"/>
     </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9" t="s">
         <v>75</v>
       </c>
@@ -13888,7 +13899,7 @@
       </c>
       <c r="E546" s="25"/>
     </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9" t="s">
         <v>79</v>
       </c>
@@ -13903,7 +13914,7 @@
       </c>
       <c r="E547" s="25"/>
     </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9" t="s">
         <v>83</v>
       </c>
@@ -13918,7 +13929,7 @@
       </c>
       <c r="E548" s="25"/>
     </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="47" t="s">
         <v>1588</v>
       </c>
@@ -13928,7 +13939,7 @@
       <c r="E549" s="47"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="47"/>
       <c r="B550" s="47"/>
       <c r="C550" s="47"/>
@@ -13936,7 +13947,7 @@
       <c r="E550" s="47"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>0</v>
       </c>
@@ -13953,7 +13964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
         <v>5</v>
       </c>
@@ -13968,7 +13979,7 @@
       </c>
       <c r="E553" s="25"/>
     </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9" t="s">
         <v>9</v>
       </c>
@@ -13983,7 +13994,7 @@
       </c>
       <c r="E554" s="25"/>
     </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
         <v>13</v>
       </c>
@@ -13998,7 +14009,7 @@
       </c>
       <c r="E555" s="25"/>
     </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9" t="s">
         <v>17</v>
       </c>
@@ -14013,7 +14024,7 @@
       </c>
       <c r="E556" s="25"/>
     </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
         <v>35</v>
       </c>
@@ -14028,7 +14039,7 @@
       </c>
       <c r="E557" s="25"/>
     </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9" t="s">
         <v>39</v>
       </c>
@@ -14043,7 +14054,7 @@
       </c>
       <c r="E558" s="25"/>
     </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9" t="s">
         <v>43</v>
       </c>
@@ -14058,7 +14069,7 @@
       </c>
       <c r="E559" s="25"/>
     </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9" t="s">
         <v>47</v>
       </c>
@@ -14073,7 +14084,7 @@
       </c>
       <c r="E560" s="25"/>
     </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
         <v>51</v>
       </c>
@@ -14088,7 +14099,7 @@
       </c>
       <c r="E561" s="25"/>
     </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9" t="s">
         <v>55</v>
       </c>
@@ -14103,7 +14114,7 @@
       </c>
       <c r="E562" s="25"/>
     </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
         <v>59</v>
       </c>
@@ -14118,7 +14129,7 @@
       </c>
       <c r="E563" s="25"/>
     </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
         <v>63</v>
       </c>
@@ -14133,7 +14144,7 @@
       </c>
       <c r="E564" s="25"/>
     </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
         <v>67</v>
       </c>
@@ -14148,7 +14159,7 @@
       </c>
       <c r="E565" s="25"/>
     </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
         <v>71</v>
       </c>
@@ -14163,7 +14174,7 @@
       </c>
       <c r="E566" s="25"/>
     </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
         <v>75</v>
       </c>
@@ -14178,7 +14189,7 @@
       </c>
       <c r="E567" s="25"/>
     </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9" t="s">
         <v>79</v>
       </c>
@@ -14193,7 +14204,7 @@
       </c>
       <c r="E568" s="25"/>
     </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
         <v>83</v>
       </c>
@@ -14208,7 +14219,7 @@
       </c>
       <c r="E569" s="25"/>
     </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
         <v>87</v>
       </c>
@@ -14223,7 +14234,7 @@
       </c>
       <c r="E570" s="25"/>
     </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
         <v>91</v>
       </c>
@@ -14238,7 +14249,7 @@
       </c>
       <c r="E571" s="25"/>
     </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9" t="s">
         <v>95</v>
       </c>
@@ -14253,7 +14264,7 @@
       </c>
       <c r="E572" s="25"/>
     </row>
-    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
         <v>99</v>
       </c>
@@ -14268,7 +14279,7 @@
       </c>
       <c r="E573" s="25"/>
     </row>
-    <row r="574" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
         <v>103</v>
       </c>
@@ -14283,7 +14294,7 @@
       </c>
       <c r="E574" s="25"/>
     </row>
-    <row r="575" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
         <v>107</v>
       </c>
@@ -14298,7 +14309,7 @@
       </c>
       <c r="E575" s="25"/>
     </row>
-    <row r="576" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A576" s="9" t="s">
         <v>111</v>
       </c>
@@ -14313,7 +14324,7 @@
       </c>
       <c r="E576" s="25"/>
     </row>
-    <row r="577" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A577" s="12" t="s">
         <v>115</v>
       </c>
@@ -14328,7 +14339,7 @@
       </c>
       <c r="E577" s="24"/>
     </row>
-    <row r="578" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A578" s="9" t="s">
         <v>119</v>
       </c>
@@ -14343,7 +14354,7 @@
       </c>
       <c r="E578" s="25"/>
     </row>
-    <row r="579" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
         <v>123</v>
       </c>
@@ -14358,7 +14369,7 @@
       </c>
       <c r="E579" s="25"/>
     </row>
-    <row r="580" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A580" s="9" t="s">
         <v>127</v>
       </c>
@@ -14373,7 +14384,7 @@
       </c>
       <c r="E580" s="25"/>
     </row>
-    <row r="581" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
         <v>131</v>
       </c>
@@ -14388,7 +14399,7 @@
       </c>
       <c r="E581" s="25"/>
     </row>
-    <row r="582" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A582" s="9" t="s">
         <v>135</v>
       </c>
@@ -14403,7 +14414,7 @@
       </c>
       <c r="E582" s="25"/>
     </row>
-    <row r="583" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
         <v>139</v>
       </c>
@@ -14418,7 +14429,7 @@
       </c>
       <c r="E583" s="25"/>
     </row>
-    <row r="584" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A584" s="9" t="s">
         <v>143</v>
       </c>
@@ -14433,7 +14444,7 @@
       </c>
       <c r="E584" s="25"/>
     </row>
-    <row r="585" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A585" s="12" t="s">
         <v>147</v>
       </c>
@@ -14448,7 +14459,7 @@
       </c>
       <c r="E585" s="25"/>
     </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="47" t="s">
         <v>1589</v>
       </c>
@@ -14458,7 +14469,7 @@
       <c r="E586" s="47"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="47"/>
       <c r="B587" s="47"/>
       <c r="C587" s="47"/>
@@ -14466,7 +14477,7 @@
       <c r="E587" s="47"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>0</v>
       </c>
@@ -14483,7 +14494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
         <v>5</v>
       </c>
@@ -14498,7 +14509,7 @@
       </c>
       <c r="E590" s="25"/>
     </row>
-    <row r="591" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
         <v>9</v>
       </c>
@@ -14513,7 +14524,7 @@
       </c>
       <c r="E591" s="25"/>
     </row>
-    <row r="592" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
         <v>13</v>
       </c>
@@ -14528,7 +14539,7 @@
       </c>
       <c r="E592" s="25"/>
     </row>
-    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
         <v>17</v>
       </c>
@@ -14543,7 +14554,7 @@
       </c>
       <c r="E593" s="25"/>
     </row>
-    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
         <v>35</v>
       </c>
@@ -14558,7 +14569,7 @@
       </c>
       <c r="E594" s="25"/>
     </row>
-    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A595" s="9" t="s">
         <v>39</v>
       </c>
@@ -14573,7 +14584,7 @@
       </c>
       <c r="E595" s="25"/>
     </row>
-    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
         <v>43</v>
       </c>
@@ -14588,7 +14599,7 @@
       </c>
       <c r="E596" s="25"/>
     </row>
-    <row r="597" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
         <v>47</v>
       </c>
@@ -14603,7 +14614,7 @@
       </c>
       <c r="E597" s="25"/>
     </row>
-    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
         <v>51</v>
       </c>
@@ -14618,7 +14629,7 @@
       </c>
       <c r="E598" s="25"/>
     </row>
-    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A599" s="9" t="s">
         <v>55</v>
       </c>
@@ -14633,7 +14644,7 @@
       </c>
       <c r="E599" s="25"/>
     </row>
-    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
         <v>59</v>
       </c>
@@ -14648,7 +14659,7 @@
       </c>
       <c r="E600" s="25"/>
     </row>
-    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A601" s="9" t="s">
         <v>63</v>
       </c>
@@ -14663,7 +14674,7 @@
       </c>
       <c r="E601" s="25"/>
     </row>
-    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
         <v>67</v>
       </c>
@@ -14678,7 +14689,7 @@
       </c>
       <c r="E602" s="25"/>
     </row>
-    <row r="603" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A603" s="9" t="s">
         <v>71</v>
       </c>
@@ -14693,7 +14704,7 @@
       </c>
       <c r="E603" s="25"/>
     </row>
-    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
         <v>75</v>
       </c>
@@ -14708,7 +14719,7 @@
       </c>
       <c r="E604" s="25"/>
     </row>
-    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A605" s="9" t="s">
         <v>79</v>
       </c>
@@ -14723,7 +14734,7 @@
       </c>
       <c r="E605" s="25"/>
     </row>
-    <row r="606" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A606" s="9" t="s">
         <v>83</v>
       </c>
@@ -14738,7 +14749,7 @@
       </c>
       <c r="E606" s="25"/>
     </row>
-    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A607" s="9" t="s">
         <v>87</v>
       </c>
@@ -14753,7 +14764,7 @@
       </c>
       <c r="E607" s="25"/>
     </row>
-    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A608" s="9" t="s">
         <v>91</v>
       </c>
@@ -14768,7 +14779,7 @@
       </c>
       <c r="E608" s="25"/>
     </row>
-    <row r="609" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
@@ -14783,7 +14794,7 @@
       </c>
       <c r="E609" s="25"/>
     </row>
-    <row r="610" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A610" s="9" t="s">
         <v>99</v>
       </c>
@@ -14798,7 +14809,7 @@
       </c>
       <c r="E610" s="25"/>
     </row>
-    <row r="611" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
@@ -14813,7 +14824,7 @@
       </c>
       <c r="E611" s="25"/>
     </row>
-    <row r="612" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A612" s="9" t="s">
         <v>107</v>
       </c>
@@ -14828,7 +14839,7 @@
       </c>
       <c r="E612" s="25"/>
     </row>
-    <row r="613" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
@@ -14843,7 +14854,7 @@
       </c>
       <c r="E613" s="25"/>
     </row>
-    <row r="614" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A614" s="9" t="s">
         <v>115</v>
       </c>
@@ -14858,7 +14869,7 @@
       </c>
       <c r="E614" s="25"/>
     </row>
-    <row r="615" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -14873,7 +14884,7 @@
       </c>
       <c r="E615" s="25"/>
     </row>
-    <row r="616" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A616" s="9" t="s">
         <v>123</v>
       </c>
@@ -14888,7 +14899,7 @@
       </c>
       <c r="E616" s="25"/>
     </row>
-    <row r="617" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
@@ -14903,7 +14914,7 @@
       </c>
       <c r="E617" s="25"/>
     </row>
-    <row r="618" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A618" s="9" t="s">
         <v>131</v>
       </c>
@@ -14918,7 +14929,7 @@
       </c>
       <c r="E618" s="25"/>
     </row>
-    <row r="619" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
@@ -14933,7 +14944,7 @@
       </c>
       <c r="E619" s="25"/>
     </row>
-    <row r="620" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A620" s="9" t="s">
         <v>139</v>
       </c>
@@ -14948,7 +14959,7 @@
       </c>
       <c r="E620" s="25"/>
     </row>
-    <row r="621" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
@@ -14963,7 +14974,7 @@
       </c>
       <c r="E621" s="25"/>
     </row>
-    <row r="622" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A622" s="9" t="s">
         <v>147</v>
       </c>
@@ -14978,7 +14989,7 @@
       </c>
       <c r="E622" s="25"/>
     </row>
-    <row r="623" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
@@ -14993,7 +15004,7 @@
       </c>
       <c r="E623" s="25"/>
     </row>
-    <row r="624" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A624" s="9" t="s">
         <v>155</v>
       </c>
@@ -15008,7 +15019,7 @@
       </c>
       <c r="E624" s="25"/>
     </row>
-    <row r="625" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A625" s="9" t="s">
         <v>159</v>
       </c>
@@ -15023,7 +15034,7 @@
       </c>
       <c r="E625" s="25"/>
     </row>
-    <row r="626" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A626" s="9" t="s">
         <v>163</v>
       </c>
@@ -15038,7 +15049,7 @@
       </c>
       <c r="E626" s="25"/>
     </row>
-    <row r="627" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A627" s="9" t="s">
         <v>167</v>
       </c>
@@ -15053,7 +15064,7 @@
       </c>
       <c r="E627" s="25"/>
     </row>
-    <row r="628" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A628" s="9" t="s">
         <v>171</v>
       </c>
@@ -15068,7 +15079,7 @@
       </c>
       <c r="E628" s="25"/>
     </row>
-    <row r="629" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A629" s="9" t="s">
         <v>175</v>
       </c>
@@ -15083,7 +15094,7 @@
       </c>
       <c r="E629" s="25"/>
     </row>
-    <row r="630" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A630" s="9" t="s">
         <v>179</v>
       </c>
@@ -15098,7 +15109,7 @@
       </c>
       <c r="E630" s="25"/>
     </row>
-    <row r="631" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A631" s="9" t="s">
         <v>183</v>
       </c>
@@ -15113,7 +15124,7 @@
       </c>
       <c r="E631" s="25"/>
     </row>
-    <row r="632" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A632" s="9" t="s">
         <v>187</v>
       </c>
@@ -15128,7 +15139,7 @@
       </c>
       <c r="E632" s="25"/>
     </row>
-    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="47" t="s">
         <v>1722</v>
       </c>
@@ -15138,7 +15149,7 @@
       <c r="E633" s="47"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="47"/>
       <c r="B634" s="47"/>
       <c r="C634" s="47"/>
@@ -15146,7 +15157,7 @@
       <c r="E634" s="47"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A635" s="12" t="s">
         <v>5</v>
       </c>
@@ -15163,7 +15174,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A636" s="9" t="s">
         <v>9</v>
       </c>
@@ -15178,7 +15189,7 @@
       </c>
       <c r="E636" s="25"/>
     </row>
-    <row r="637" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A637" s="9" t="s">
         <v>13</v>
       </c>
@@ -15193,7 +15204,7 @@
       </c>
       <c r="E637" s="25"/>
     </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="47" t="s">
         <v>1728</v>
       </c>
@@ -15203,7 +15214,7 @@
       <c r="E639" s="47"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="48"/>
       <c r="B640" s="48"/>
       <c r="C640" s="48"/>
@@ -15211,7 +15222,7 @@
       <c r="E640" s="48"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>0</v>
       </c>
@@ -15228,7 +15239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A642" s="9" t="s">
         <v>5</v>
       </c>
@@ -15243,7 +15254,7 @@
       </c>
       <c r="E642" s="25"/>
     </row>
-    <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A643" s="9" t="s">
         <v>9</v>
       </c>
@@ -15258,7 +15269,7 @@
       </c>
       <c r="E643" s="25"/>
     </row>
-    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9" t="s">
         <v>13</v>
       </c>
@@ -15273,7 +15284,7 @@
       </c>
       <c r="E644" s="25"/>
     </row>
-    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A645" s="9" t="s">
         <v>17</v>
       </c>
@@ -15288,7 +15299,7 @@
       </c>
       <c r="E645" s="25"/>
     </row>
-    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A646" s="9" t="s">
         <v>35</v>
       </c>
@@ -15303,7 +15314,7 @@
       </c>
       <c r="E646" s="25"/>
     </row>
-    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A647" s="9" t="s">
         <v>39</v>
       </c>
@@ -15318,7 +15329,7 @@
       </c>
       <c r="E647" s="25"/>
     </row>
-    <row r="648" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A648" s="12">
         <v>7</v>
       </c>
@@ -15333,7 +15344,7 @@
       </c>
       <c r="E648" s="25"/>
     </row>
-    <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A649" s="12">
         <v>8</v>
       </c>
@@ -15348,7 +15359,7 @@
       </c>
       <c r="E649" s="25"/>
     </row>
-    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A650" s="9">
         <v>9</v>
       </c>
@@ -15363,7 +15374,7 @@
       </c>
       <c r="E650" s="25"/>
     </row>
-    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A651" s="9">
         <v>10</v>
       </c>
@@ -15378,7 +15389,7 @@
       </c>
       <c r="E651" s="25"/>
     </row>
-    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A652" s="9">
         <v>11</v>
       </c>
@@ -15393,7 +15404,7 @@
       </c>
       <c r="E652" s="25"/>
     </row>
-    <row r="653" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A653" s="12">
         <v>12</v>
       </c>
@@ -15408,7 +15419,7 @@
       </c>
       <c r="E653" s="25"/>
     </row>
-    <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A654" s="9">
         <v>13</v>
       </c>
@@ -15423,7 +15434,7 @@
       </c>
       <c r="E654" s="25"/>
     </row>
-    <row r="655" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A655" s="12">
         <v>14</v>
       </c>
@@ -15438,7 +15449,7 @@
       </c>
       <c r="E655" s="25"/>
     </row>
-    <row r="656" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A656" s="21">
         <v>15</v>
       </c>
@@ -15453,7 +15464,7 @@
       </c>
       <c r="E656" s="25"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="36">
         <v>1</v>
       </c>
@@ -15470,7 +15481,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A663" s="40">
         <v>2</v>
       </c>
@@ -15487,7 +15498,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A664" s="36">
         <v>3</v>
       </c>
@@ -15504,7 +15515,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="44">
         <v>4</v>
       </c>
@@ -15519,7 +15530,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="44">
         <v>5</v>
       </c>
@@ -15534,7 +15545,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="44">
         <v>6</v>
       </c>
@@ -15549,7 +15560,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="44">
         <v>7</v>
       </c>
@@ -15564,7 +15575,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="44">
         <v>8</v>
       </c>
@@ -15579,37 +15590,37 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="44">
-        <v>7</v>
-      </c>
-      <c r="B670" s="44">
-        <v>1480889</v>
-      </c>
-      <c r="C670" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B670" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="C670" s="52" t="s">
         <v>1770</v>
       </c>
-      <c r="D670" s="44"/>
-      <c r="E670" s="46" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D670" s="52"/>
+      <c r="E670" s="53" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B671" s="44">
-        <v>1480889</v>
+        <v>370204</v>
       </c>
       <c r="C671" s="45" t="s">
         <v>1770</v>
       </c>
       <c r="D671" s="44"/>
       <c r="E671" s="46" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" s="44">
         <v>7</v>
       </c>
@@ -15624,7 +15635,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" s="44">
         <v>7</v>
       </c>
@@ -15639,7 +15650,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674" s="44">
         <v>7</v>
       </c>
@@ -15654,7 +15665,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675" s="44">
         <v>7</v>
       </c>
@@ -15669,7 +15680,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676" s="44">
         <v>7</v>
       </c>
@@ -15684,7 +15695,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677" s="44">
         <v>7</v>
       </c>
@@ -15699,7 +15710,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678" s="44">
         <v>7</v>
       </c>
@@ -15714,7 +15725,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679" s="44">
         <v>7</v>
       </c>
@@ -15729,33 +15740,13 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A680" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B680" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C680" s="12" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D680" s="9"/>
-      <c r="E680" s="28" t="s">
-        <v>1776</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A280:E281"/>
     <mergeCell ref="A429:E430"/>
     <mergeCell ref="A437:E438"/>
@@ -15765,32 +15756,42 @@
     <mergeCell ref="A528:E529"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A586:E587"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C389" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C653" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C108" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C188" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C158" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C501" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C500" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C585" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C648" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C649" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C387" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C407" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C373" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C378" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C537" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C343" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C338" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C655" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C494" location="Демонтаж!R1C2" display="ДЭК-251 (кран гусеничный) (70483)" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C242" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C169" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C389" r:id="rId1"/>
+    <hyperlink ref="C653" r:id="rId2"/>
+    <hyperlink ref="C108" r:id="rId3"/>
+    <hyperlink ref="C188" r:id="rId4"/>
+    <hyperlink ref="C158" r:id="rId5"/>
+    <hyperlink ref="C501" r:id="rId6"/>
+    <hyperlink ref="C500" r:id="rId7"/>
+    <hyperlink ref="C585" r:id="rId8"/>
+    <hyperlink ref="C648" r:id="rId9"/>
+    <hyperlink ref="C649" r:id="rId10"/>
+    <hyperlink ref="C387" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C407" r:id="rId13"/>
+    <hyperlink ref="C373" r:id="rId14"/>
+    <hyperlink ref="C378" r:id="rId15"/>
+    <hyperlink ref="C537" r:id="rId16"/>
+    <hyperlink ref="C343" r:id="rId17"/>
+    <hyperlink ref="C338" r:id="rId18"/>
+    <hyperlink ref="C655" r:id="rId19"/>
+    <hyperlink ref="C494" location="Демонтаж!R1C2" display="ДЭК-251 (кран гусеничный) (70483)"/>
+    <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)"/>
+    <hyperlink ref="C242" r:id="rId20"/>
+    <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)"/>
+    <hyperlink ref="C169" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
@@ -15798,7 +15799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15808,14 +15809,14 @@
       <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>1336</v>
       </c>
@@ -15827,7 +15828,7 @@
       </c>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1561</v>
       </c>
@@ -15839,7 +15840,7 @@
       </c>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1339</v>
       </c>
@@ -15851,7 +15852,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>361556</v>
       </c>
@@ -15863,7 +15864,7 @@
       </c>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1324752</v>
       </c>
@@ -15875,7 +15876,7 @@
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>476</v>
       </c>
@@ -15888,16 +15889,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -15907,23 +15908,23 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>1769</v>
       </c>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSTK_BPO\Documents\GitHub\Technica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E155C1A-3082-461A-ACD5-99C929FF40B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574EB8D9-DCFC-4941-9084-F1DDF3BB2739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1790">
   <si>
     <t>П/П</t>
   </si>
@@ -5363,6 +5363,36 @@
   </si>
   <si>
     <t xml:space="preserve"> т</t>
+  </si>
+  <si>
+    <t>89701018624317940926</t>
+  </si>
+  <si>
+    <t>89701018624307194518</t>
+  </si>
+  <si>
+    <t>89701018624307194641</t>
+  </si>
+  <si>
+    <t>89701018624317428393</t>
+  </si>
+  <si>
+    <t>89701018624317935306</t>
+  </si>
+  <si>
+    <t>89701018624317940785</t>
+  </si>
+  <si>
+    <t>89701018624317940900</t>
+  </si>
+  <si>
+    <t>89701018624317940983</t>
+  </si>
+  <si>
+    <t>89701018624307195325</t>
+  </si>
+  <si>
+    <t>89701018624317653156</t>
   </si>
 </sst>
 </file>
@@ -5727,16 +5757,16 @@
     <xf numFmtId="49" fontId="14" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6083,8 +6113,8 @@
   </sheetPr>
   <dimension ref="A1:G686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A644" workbookViewId="0">
-      <selection activeCell="C686" sqref="C686"/>
+    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="C635" sqref="C635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6099,21 +6129,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6201,21 +6231,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6952,21 +6982,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7092,21 +7122,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7649,7 +7679,9 @@
       <c r="D108" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E108" s="25"/>
+      <c r="E108" s="25" t="s">
+        <v>1781</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
@@ -7742,21 +7774,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8017,21 +8049,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="51"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8157,21 +8189,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8324,7 +8356,9 @@
       <c r="D158" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E158" s="25"/>
+      <c r="E158" s="25" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
@@ -8583,21 +8617,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="51" t="s">
+      <c r="A177" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="51"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8735,24 +8769,26 @@
       <c r="D188" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E188" s="25"/>
+      <c r="E188" s="25" t="s">
+        <v>1782</v>
+      </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="51" t="s">
+      <c r="A189" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9178,21 +9214,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="51" t="s">
+      <c r="A220" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="51"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="51"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="53"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="51"/>
-      <c r="B221" s="51"/>
-      <c r="C221" s="51"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="51"/>
+      <c r="A221" s="53"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
+      <c r="E221" s="53"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10053,21 +10089,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="51" t="s">
+      <c r="A280" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="51"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
+      <c r="B280" s="53"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="52"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="52"/>
-      <c r="E281" s="52"/>
+      <c r="A281" s="54"/>
+      <c r="B281" s="54"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="54"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
@@ -10918,7 +10954,9 @@
       <c r="D338" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E338" s="25"/>
+      <c r="E338" s="25" t="s">
+        <v>1783</v>
+      </c>
     </row>
     <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
@@ -10993,7 +11031,9 @@
       <c r="D343" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E343" s="25"/>
+      <c r="E343" s="25" t="s">
+        <v>1784</v>
+      </c>
     </row>
     <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
@@ -12271,21 +12311,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="51" t="s">
+      <c r="A429" s="53" t="s">
         <v>1186</v>
       </c>
-      <c r="B429" s="51"/>
-      <c r="C429" s="51"/>
-      <c r="D429" s="51"/>
-      <c r="E429" s="51"/>
+      <c r="B429" s="53"/>
+      <c r="C429" s="53"/>
+      <c r="D429" s="53"/>
+      <c r="E429" s="53"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="51"/>
-      <c r="B430" s="51"/>
-      <c r="C430" s="51"/>
-      <c r="D430" s="51"/>
-      <c r="E430" s="51"/>
+      <c r="A430" s="53"/>
+      <c r="B430" s="53"/>
+      <c r="C430" s="53"/>
+      <c r="D430" s="53"/>
+      <c r="E430" s="53"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12366,21 +12406,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="51" t="s">
+      <c r="A437" s="53" t="s">
         <v>1185</v>
       </c>
-      <c r="B437" s="51"/>
-      <c r="C437" s="51"/>
-      <c r="D437" s="51"/>
-      <c r="E437" s="51"/>
+      <c r="B437" s="53"/>
+      <c r="C437" s="53"/>
+      <c r="D437" s="53"/>
+      <c r="E437" s="53"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="51"/>
-      <c r="B438" s="51"/>
-      <c r="C438" s="51"/>
-      <c r="D438" s="51"/>
-      <c r="E438" s="51"/>
+      <c r="A438" s="53"/>
+      <c r="B438" s="53"/>
+      <c r="C438" s="53"/>
+      <c r="D438" s="53"/>
+      <c r="E438" s="53"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13136,21 +13176,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="51" t="s">
+      <c r="A490" s="53" t="s">
         <v>1334</v>
       </c>
-      <c r="B490" s="51"/>
-      <c r="C490" s="51"/>
-      <c r="D490" s="51"/>
-      <c r="E490" s="51"/>
+      <c r="B490" s="53"/>
+      <c r="C490" s="53"/>
+      <c r="D490" s="53"/>
+      <c r="E490" s="53"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="51"/>
-      <c r="B491" s="51"/>
-      <c r="C491" s="51"/>
-      <c r="D491" s="51"/>
-      <c r="E491" s="51"/>
+      <c r="A491" s="53"/>
+      <c r="B491" s="53"/>
+      <c r="C491" s="53"/>
+      <c r="D491" s="53"/>
+      <c r="E491" s="53"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13275,7 +13315,9 @@
       <c r="D500" s="9" t="s">
         <v>1355</v>
       </c>
-      <c r="E500" s="25"/>
+      <c r="E500" s="25" t="s">
+        <v>1785</v>
+      </c>
     </row>
     <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12" t="s">
@@ -13290,7 +13332,9 @@
       <c r="D501" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="E501" s="25"/>
+      <c r="E501" s="25" t="s">
+        <v>1786</v>
+      </c>
     </row>
     <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="9" t="s">
@@ -13683,21 +13727,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="51" t="s">
+      <c r="A528" s="53" t="s">
         <v>1436</v>
       </c>
-      <c r="B528" s="51"/>
-      <c r="C528" s="51"/>
-      <c r="D528" s="51"/>
-      <c r="E528" s="51"/>
+      <c r="B528" s="53"/>
+      <c r="C528" s="53"/>
+      <c r="D528" s="53"/>
+      <c r="E528" s="53"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="51"/>
-      <c r="B529" s="51"/>
-      <c r="C529" s="51"/>
-      <c r="D529" s="51"/>
-      <c r="E529" s="51"/>
+      <c r="A529" s="53"/>
+      <c r="B529" s="53"/>
+      <c r="C529" s="53"/>
+      <c r="D529" s="53"/>
+      <c r="E529" s="53"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13961,21 +14005,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="51" t="s">
+      <c r="A549" s="53" t="s">
         <v>1587</v>
       </c>
-      <c r="B549" s="51"/>
-      <c r="C549" s="51"/>
-      <c r="D549" s="51"/>
-      <c r="E549" s="51"/>
+      <c r="B549" s="53"/>
+      <c r="C549" s="53"/>
+      <c r="D549" s="53"/>
+      <c r="E549" s="53"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="51"/>
-      <c r="B550" s="51"/>
-      <c r="C550" s="51"/>
-      <c r="D550" s="51"/>
-      <c r="E550" s="51"/>
+      <c r="A550" s="53"/>
+      <c r="B550" s="53"/>
+      <c r="C550" s="53"/>
+      <c r="D550" s="53"/>
+      <c r="E550" s="53"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14488,24 +14532,26 @@
       <c r="D585" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="E585" s="25"/>
+      <c r="E585" s="25" t="s">
+        <v>1787</v>
+      </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="51" t="s">
+      <c r="A586" s="53" t="s">
         <v>1588</v>
       </c>
-      <c r="B586" s="51"/>
-      <c r="C586" s="51"/>
-      <c r="D586" s="51"/>
-      <c r="E586" s="51"/>
+      <c r="B586" s="53"/>
+      <c r="C586" s="53"/>
+      <c r="D586" s="53"/>
+      <c r="E586" s="53"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="51"/>
-      <c r="B587" s="51"/>
-      <c r="C587" s="51"/>
-      <c r="D587" s="51"/>
-      <c r="E587" s="51"/>
+      <c r="A587" s="53"/>
+      <c r="B587" s="53"/>
+      <c r="C587" s="53"/>
+      <c r="D587" s="53"/>
+      <c r="E587" s="53"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15171,21 +15217,21 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="51" t="s">
+      <c r="A633" s="53" t="s">
         <v>1721</v>
       </c>
-      <c r="B633" s="51"/>
-      <c r="C633" s="51"/>
-      <c r="D633" s="51"/>
-      <c r="E633" s="51"/>
+      <c r="B633" s="53"/>
+      <c r="C633" s="53"/>
+      <c r="D633" s="53"/>
+      <c r="E633" s="53"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="51"/>
-      <c r="B634" s="51"/>
-      <c r="C634" s="51"/>
-      <c r="D634" s="51"/>
-      <c r="E634" s="51"/>
+      <c r="A634" s="53"/>
+      <c r="B634" s="53"/>
+      <c r="C634" s="53"/>
+      <c r="D634" s="53"/>
+      <c r="E634" s="53"/>
       <c r="F634" s="4"/>
     </row>
     <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
@@ -15236,21 +15282,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="51" t="s">
+      <c r="A639" s="53" t="s">
         <v>1727</v>
       </c>
-      <c r="B639" s="51"/>
-      <c r="C639" s="51"/>
-      <c r="D639" s="51"/>
-      <c r="E639" s="51"/>
+      <c r="B639" s="53"/>
+      <c r="C639" s="53"/>
+      <c r="D639" s="53"/>
+      <c r="E639" s="53"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="52"/>
-      <c r="B640" s="52"/>
-      <c r="C640" s="52"/>
-      <c r="D640" s="52"/>
-      <c r="E640" s="52"/>
+      <c r="A640" s="54"/>
+      <c r="B640" s="54"/>
+      <c r="C640" s="54"/>
+      <c r="D640" s="54"/>
+      <c r="E640" s="54"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15373,7 +15419,9 @@
       <c r="D648" s="21" t="s">
         <v>1747</v>
       </c>
-      <c r="E648" s="25"/>
+      <c r="E648" s="25" t="s">
+        <v>1788</v>
+      </c>
     </row>
     <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A649" s="12">
@@ -15388,7 +15436,9 @@
       <c r="D649" s="21" t="s">
         <v>1748</v>
       </c>
-      <c r="E649" s="25"/>
+      <c r="E649" s="25" t="s">
+        <v>1789</v>
+      </c>
     </row>
     <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A650" s="9">
@@ -15655,14 +15705,14 @@
       <c r="A672" s="44">
         <v>11</v>
       </c>
-      <c r="B672" s="53" t="s">
+      <c r="B672" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="C672" s="53" t="s">
+      <c r="C672" s="51" t="s">
         <v>1769</v>
       </c>
-      <c r="D672" s="53"/>
-      <c r="E672" s="54" t="s">
+      <c r="D672" s="51"/>
+      <c r="E672" s="52" t="s">
         <v>1777</v>
       </c>
     </row>
@@ -15739,16 +15789,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A280:E281"/>
     <mergeCell ref="A429:E430"/>
     <mergeCell ref="A437:E438"/>
@@ -15758,6 +15798,16 @@
     <mergeCell ref="A528:E529"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A586:E587"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15798,7 +15848,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSTK_BPO\Documents\GitHub\Technica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574EB8D9-DCFC-4941-9084-F1DDF3BB2739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CCA6EE-03FC-4800-AA05-0AE67793AB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1791">
   <si>
     <t>П/П</t>
   </si>
@@ -5393,6 +5393,9 @@
   </si>
   <si>
     <t>89701018624317653156</t>
+  </si>
+  <si>
+    <t>задвоение в веб-ке</t>
   </si>
 </sst>
 </file>
@@ -5615,7 +5618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5727,12 +5730,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5767,6 +5764,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6113,8 +6113,8 @@
   </sheetPr>
   <dimension ref="A1:G686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="C635" sqref="C635"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="G383" sqref="G383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6125,25 +6125,25 @@
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6231,21 +6231,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6329,7 +6329,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6393,7 +6393,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
@@ -6456,8 +6456,11 @@
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -6473,7 +6476,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -6489,7 +6492,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -6505,7 +6508,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -6521,7 +6524,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -6537,7 +6540,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -6553,7 +6556,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -6569,7 +6572,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -6982,21 +6985,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7122,21 +7125,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7774,21 +7777,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8049,21 +8052,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8189,21 +8192,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="53" t="s">
+      <c r="A146" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="53"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="53"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8617,21 +8620,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="53" t="s">
+      <c r="A177" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="53"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8774,21 +8777,21 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="53" t="s">
+      <c r="A189" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="53"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8808,7 +8811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -8823,7 +8826,7 @@
       </c>
       <c r="E193" s="25"/>
     </row>
-    <row r="194" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8838,7 +8841,7 @@
       </c>
       <c r="E194" s="25"/>
     </row>
-    <row r="195" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>13</v>
       </c>
@@ -8853,7 +8856,7 @@
       </c>
       <c r="E195" s="25"/>
     </row>
-    <row r="196" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8868,7 +8871,7 @@
       </c>
       <c r="E196" s="25"/>
     </row>
-    <row r="197" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>35</v>
       </c>
@@ -8883,7 +8886,7 @@
       </c>
       <c r="E197" s="25"/>
     </row>
-    <row r="198" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8898,7 +8901,7 @@
       </c>
       <c r="E198" s="25"/>
     </row>
-    <row r="199" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A199" s="9" t="s">
         <v>43</v>
       </c>
@@ -8913,7 +8916,7 @@
       </c>
       <c r="E199" s="25"/>
     </row>
-    <row r="200" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8928,7 +8931,7 @@
       </c>
       <c r="E200" s="25"/>
     </row>
-    <row r="201" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A201" s="9" t="s">
         <v>51</v>
       </c>
@@ -8943,7 +8946,7 @@
       </c>
       <c r="E201" s="25"/>
     </row>
-    <row r="202" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8958,7 +8961,7 @@
       </c>
       <c r="E202" s="25"/>
     </row>
-    <row r="203" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -8972,8 +8975,11 @@
         <v>552</v>
       </c>
       <c r="E203" s="25"/>
-    </row>
-    <row r="204" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="G203" s="53" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8988,7 +8994,7 @@
       </c>
       <c r="E204" s="25"/>
     </row>
-    <row r="205" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A205" s="9" t="s">
         <v>67</v>
       </c>
@@ -9003,7 +9009,7 @@
       </c>
       <c r="E205" s="25"/>
     </row>
-    <row r="206" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -9018,7 +9024,7 @@
       </c>
       <c r="E206" s="25"/>
     </row>
-    <row r="207" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A207" s="9" t="s">
         <v>75</v>
       </c>
@@ -9033,7 +9039,7 @@
       </c>
       <c r="E207" s="25"/>
     </row>
-    <row r="208" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -9214,21 +9220,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="53" t="s">
+      <c r="A220" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="53"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="53"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="53"/>
-      <c r="D221" s="53"/>
-      <c r="E221" s="53"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10089,21 +10095,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="53" t="s">
+      <c r="A280" s="51" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="53"/>
-      <c r="C280" s="53"/>
-      <c r="D280" s="53"/>
-      <c r="E280" s="53"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="54"/>
-      <c r="B281" s="54"/>
-      <c r="C281" s="54"/>
-      <c r="D281" s="54"/>
-      <c r="E281" s="54"/>
+      <c r="A281" s="52"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
@@ -10334,10 +10340,10 @@
       <c r="E296" s="25"/>
     </row>
     <row r="297" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A297" s="47" t="s">
+      <c r="A297" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G297" s="48" t="s">
+      <c r="G297" s="46" t="s">
         <v>1776</v>
       </c>
     </row>
@@ -11410,7 +11416,7 @@
       </c>
       <c r="E368" s="25"/>
     </row>
-    <row r="369" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A369" s="9" t="s">
         <v>980</v>
       </c>
@@ -11425,7 +11431,7 @@
       </c>
       <c r="E369" s="25"/>
     </row>
-    <row r="370" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>983</v>
       </c>
@@ -11440,7 +11446,7 @@
       </c>
       <c r="E370" s="25"/>
     </row>
-    <row r="371" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A371" s="9" t="s">
         <v>986</v>
       </c>
@@ -11455,7 +11461,7 @@
       </c>
       <c r="E371" s="25"/>
     </row>
-    <row r="372" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>989</v>
       </c>
@@ -11470,7 +11476,7 @@
       </c>
       <c r="E372" s="25"/>
     </row>
-    <row r="373" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A373" s="12" t="s">
         <v>993</v>
       </c>
@@ -11485,7 +11491,7 @@
       </c>
       <c r="E373" s="25"/>
     </row>
-    <row r="374" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A374" s="9" t="s">
         <v>997</v>
       </c>
@@ -11500,7 +11506,7 @@
       </c>
       <c r="E374" s="25"/>
     </row>
-    <row r="375" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A375" s="9" t="s">
         <v>1001</v>
       </c>
@@ -11515,7 +11521,7 @@
       </c>
       <c r="E375" s="25"/>
     </row>
-    <row r="376" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A376" s="9" t="s">
         <v>1005</v>
       </c>
@@ -11530,7 +11536,7 @@
       </c>
       <c r="E376" s="25"/>
     </row>
-    <row r="377" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A377" s="9" t="s">
         <v>1009</v>
       </c>
@@ -11545,7 +11551,7 @@
       </c>
       <c r="E377" s="25"/>
     </row>
-    <row r="378" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A378" s="12" t="s">
         <v>1013</v>
       </c>
@@ -11560,7 +11566,7 @@
       </c>
       <c r="E378" s="25"/>
     </row>
-    <row r="379" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>1017</v>
       </c>
@@ -11575,7 +11581,7 @@
       </c>
       <c r="E379" s="25"/>
     </row>
-    <row r="380" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>1021</v>
       </c>
@@ -11590,7 +11596,7 @@
       </c>
       <c r="E380" s="25"/>
     </row>
-    <row r="381" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>1024</v>
       </c>
@@ -11605,7 +11611,7 @@
       </c>
       <c r="E381" s="25"/>
     </row>
-    <row r="382" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A382" s="9" t="s">
         <v>1027</v>
       </c>
@@ -11619,8 +11625,11 @@
         <v>789</v>
       </c>
       <c r="E382" s="25"/>
-    </row>
-    <row r="383" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="G382" s="53" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A383" s="9" t="s">
         <v>1030</v>
       </c>
@@ -11635,7 +11644,7 @@
       </c>
       <c r="E383" s="25"/>
     </row>
-    <row r="384" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A384" s="9" t="s">
         <v>1033</v>
       </c>
@@ -12311,21 +12320,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="53" t="s">
+      <c r="A429" s="51" t="s">
         <v>1186</v>
       </c>
-      <c r="B429" s="53"/>
-      <c r="C429" s="53"/>
-      <c r="D429" s="53"/>
-      <c r="E429" s="53"/>
+      <c r="B429" s="51"/>
+      <c r="C429" s="51"/>
+      <c r="D429" s="51"/>
+      <c r="E429" s="51"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="53"/>
-      <c r="B430" s="53"/>
-      <c r="C430" s="53"/>
-      <c r="D430" s="53"/>
-      <c r="E430" s="53"/>
+      <c r="A430" s="51"/>
+      <c r="B430" s="51"/>
+      <c r="C430" s="51"/>
+      <c r="D430" s="51"/>
+      <c r="E430" s="51"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12406,21 +12415,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="53" t="s">
+      <c r="A437" s="51" t="s">
         <v>1185</v>
       </c>
-      <c r="B437" s="53"/>
-      <c r="C437" s="53"/>
-      <c r="D437" s="53"/>
-      <c r="E437" s="53"/>
+      <c r="B437" s="51"/>
+      <c r="C437" s="51"/>
+      <c r="D437" s="51"/>
+      <c r="E437" s="51"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="53"/>
-      <c r="B438" s="53"/>
-      <c r="C438" s="53"/>
-      <c r="D438" s="53"/>
-      <c r="E438" s="53"/>
+      <c r="A438" s="51"/>
+      <c r="B438" s="51"/>
+      <c r="C438" s="51"/>
+      <c r="D438" s="51"/>
+      <c r="E438" s="51"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13176,21 +13185,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="53" t="s">
+      <c r="A490" s="51" t="s">
         <v>1334</v>
       </c>
-      <c r="B490" s="53"/>
-      <c r="C490" s="53"/>
-      <c r="D490" s="53"/>
-      <c r="E490" s="53"/>
+      <c r="B490" s="51"/>
+      <c r="C490" s="51"/>
+      <c r="D490" s="51"/>
+      <c r="E490" s="51"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="53"/>
-      <c r="B491" s="53"/>
-      <c r="C491" s="53"/>
-      <c r="D491" s="53"/>
-      <c r="E491" s="53"/>
+      <c r="A491" s="51"/>
+      <c r="B491" s="51"/>
+      <c r="C491" s="51"/>
+      <c r="D491" s="51"/>
+      <c r="E491" s="51"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13727,21 +13736,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="53" t="s">
+      <c r="A528" s="51" t="s">
         <v>1436</v>
       </c>
-      <c r="B528" s="53"/>
-      <c r="C528" s="53"/>
-      <c r="D528" s="53"/>
-      <c r="E528" s="53"/>
+      <c r="B528" s="51"/>
+      <c r="C528" s="51"/>
+      <c r="D528" s="51"/>
+      <c r="E528" s="51"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="53"/>
-      <c r="B529" s="53"/>
-      <c r="C529" s="53"/>
-      <c r="D529" s="53"/>
-      <c r="E529" s="53"/>
+      <c r="A529" s="51"/>
+      <c r="B529" s="51"/>
+      <c r="C529" s="51"/>
+      <c r="D529" s="51"/>
+      <c r="E529" s="51"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14005,21 +14014,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="53" t="s">
+      <c r="A549" s="51" t="s">
         <v>1587</v>
       </c>
-      <c r="B549" s="53"/>
-      <c r="C549" s="53"/>
-      <c r="D549" s="53"/>
-      <c r="E549" s="53"/>
+      <c r="B549" s="51"/>
+      <c r="C549" s="51"/>
+      <c r="D549" s="51"/>
+      <c r="E549" s="51"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="53"/>
-      <c r="B550" s="53"/>
-      <c r="C550" s="53"/>
-      <c r="D550" s="53"/>
-      <c r="E550" s="53"/>
+      <c r="A550" s="51"/>
+      <c r="B550" s="51"/>
+      <c r="C550" s="51"/>
+      <c r="D550" s="51"/>
+      <c r="E550" s="51"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14537,21 +14546,21 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="53" t="s">
+      <c r="A586" s="51" t="s">
         <v>1588</v>
       </c>
-      <c r="B586" s="53"/>
-      <c r="C586" s="53"/>
-      <c r="D586" s="53"/>
-      <c r="E586" s="53"/>
+      <c r="B586" s="51"/>
+      <c r="C586" s="51"/>
+      <c r="D586" s="51"/>
+      <c r="E586" s="51"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="53"/>
-      <c r="B587" s="53"/>
-      <c r="C587" s="53"/>
-      <c r="D587" s="53"/>
-      <c r="E587" s="53"/>
+      <c r="A587" s="51"/>
+      <c r="B587" s="51"/>
+      <c r="C587" s="51"/>
+      <c r="D587" s="51"/>
+      <c r="E587" s="51"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14856,7 +14865,7 @@
       </c>
       <c r="E608" s="25"/>
     </row>
-    <row r="609" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
@@ -14871,7 +14880,7 @@
       </c>
       <c r="E609" s="25"/>
     </row>
-    <row r="610" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A610" s="9" t="s">
         <v>99</v>
       </c>
@@ -14886,7 +14895,7 @@
       </c>
       <c r="E610" s="25"/>
     </row>
-    <row r="611" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
@@ -14901,7 +14910,7 @@
       </c>
       <c r="E611" s="25"/>
     </row>
-    <row r="612" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A612" s="9" t="s">
         <v>107</v>
       </c>
@@ -14916,7 +14925,7 @@
       </c>
       <c r="E612" s="25"/>
     </row>
-    <row r="613" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
@@ -14931,7 +14940,7 @@
       </c>
       <c r="E613" s="25"/>
     </row>
-    <row r="614" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A614" s="9" t="s">
         <v>115</v>
       </c>
@@ -14946,7 +14955,7 @@
       </c>
       <c r="E614" s="25"/>
     </row>
-    <row r="615" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -14961,7 +14970,7 @@
       </c>
       <c r="E615" s="25"/>
     </row>
-    <row r="616" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A616" s="9" t="s">
         <v>123</v>
       </c>
@@ -14975,8 +14984,11 @@
         <v>1669</v>
       </c>
       <c r="E616" s="25"/>
-    </row>
-    <row r="617" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="G616" s="53" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
@@ -14991,7 +15003,7 @@
       </c>
       <c r="E617" s="25"/>
     </row>
-    <row r="618" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A618" s="9" t="s">
         <v>131</v>
       </c>
@@ -15006,7 +15018,7 @@
       </c>
       <c r="E618" s="25"/>
     </row>
-    <row r="619" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
@@ -15021,7 +15033,7 @@
       </c>
       <c r="E619" s="25"/>
     </row>
-    <row r="620" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A620" s="9" t="s">
         <v>139</v>
       </c>
@@ -15036,7 +15048,7 @@
       </c>
       <c r="E620" s="25"/>
     </row>
-    <row r="621" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
@@ -15051,7 +15063,7 @@
       </c>
       <c r="E621" s="25"/>
     </row>
-    <row r="622" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A622" s="9" t="s">
         <v>147</v>
       </c>
@@ -15066,7 +15078,7 @@
       </c>
       <c r="E622" s="25"/>
     </row>
-    <row r="623" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
@@ -15081,7 +15093,7 @@
       </c>
       <c r="E623" s="25"/>
     </row>
-    <row r="624" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A624" s="9" t="s">
         <v>155</v>
       </c>
@@ -15217,21 +15229,21 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="53" t="s">
+      <c r="A633" s="51" t="s">
         <v>1721</v>
       </c>
-      <c r="B633" s="53"/>
-      <c r="C633" s="53"/>
-      <c r="D633" s="53"/>
-      <c r="E633" s="53"/>
+      <c r="B633" s="51"/>
+      <c r="C633" s="51"/>
+      <c r="D633" s="51"/>
+      <c r="E633" s="51"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="53"/>
-      <c r="B634" s="53"/>
-      <c r="C634" s="53"/>
-      <c r="D634" s="53"/>
-      <c r="E634" s="53"/>
+      <c r="A634" s="51"/>
+      <c r="B634" s="51"/>
+      <c r="C634" s="51"/>
+      <c r="D634" s="51"/>
+      <c r="E634" s="51"/>
       <c r="F634" s="4"/>
     </row>
     <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
@@ -15282,21 +15294,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="53" t="s">
+      <c r="A639" s="51" t="s">
         <v>1727</v>
       </c>
-      <c r="B639" s="53"/>
-      <c r="C639" s="53"/>
-      <c r="D639" s="53"/>
-      <c r="E639" s="53"/>
+      <c r="B639" s="51"/>
+      <c r="C639" s="51"/>
+      <c r="D639" s="51"/>
+      <c r="E639" s="51"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="54"/>
-      <c r="B640" s="54"/>
-      <c r="C640" s="54"/>
-      <c r="D640" s="54"/>
-      <c r="E640" s="54"/>
+      <c r="A640" s="52"/>
+      <c r="B640" s="52"/>
+      <c r="C640" s="52"/>
+      <c r="D640" s="52"/>
+      <c r="E640" s="52"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15566,13 +15578,13 @@
       <c r="A663" s="40">
         <v>2</v>
       </c>
-      <c r="B663" s="41">
+      <c r="B663" s="10">
         <v>1324752</v>
       </c>
-      <c r="C663" s="42" t="s">
+      <c r="C663" s="30" t="s">
         <v>1761</v>
       </c>
-      <c r="D663" s="42" t="s">
+      <c r="D663" s="30" t="s">
         <v>1762</v>
       </c>
       <c r="E663" s="39" t="s">
@@ -15586,10 +15598,10 @@
       <c r="B664" s="36">
         <v>1324741</v>
       </c>
-      <c r="C664" s="43" t="s">
+      <c r="C664" s="41" t="s">
         <v>1764</v>
       </c>
-      <c r="D664" s="43" t="s">
+      <c r="D664" s="41" t="s">
         <v>1765</v>
       </c>
       <c r="E664" s="39" t="s">
@@ -15597,187 +15609,187 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A665" s="44">
+      <c r="A665" s="42">
         <v>4</v>
       </c>
-      <c r="B665" s="44">
+      <c r="B665" s="42">
         <v>347187</v>
       </c>
-      <c r="C665" s="45" t="s">
+      <c r="C665" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D665" s="44"/>
-      <c r="E665" s="46" t="s">
+      <c r="D665" s="42"/>
+      <c r="E665" s="44" t="s">
         <v>1770</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A666" s="44">
+      <c r="A666" s="42">
         <v>5</v>
       </c>
-      <c r="B666" s="44">
+      <c r="B666" s="42">
         <v>454273</v>
       </c>
-      <c r="C666" s="45" t="s">
+      <c r="C666" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D666" s="44"/>
-      <c r="E666" s="46" t="s">
+      <c r="D666" s="42"/>
+      <c r="E666" s="44" t="s">
         <v>1771</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A667" s="44">
+      <c r="A667" s="42">
         <v>6</v>
       </c>
-      <c r="B667" s="44">
+      <c r="B667" s="42">
         <v>1480884</v>
       </c>
-      <c r="C667" s="45" t="s">
+      <c r="C667" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D667" s="44"/>
-      <c r="E667" s="46" t="s">
+      <c r="D667" s="42"/>
+      <c r="E667" s="44" t="s">
         <v>1772</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A668" s="44">
+      <c r="A668" s="42">
         <v>7</v>
       </c>
-      <c r="B668" s="44">
+      <c r="B668" s="42">
         <v>1480889</v>
       </c>
-      <c r="C668" s="45" t="s">
+      <c r="C668" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D668" s="44"/>
-      <c r="E668" s="46" t="s">
+      <c r="D668" s="42"/>
+      <c r="E668" s="44" t="s">
         <v>1773</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A669" s="44">
+      <c r="A669" s="42">
         <v>8</v>
       </c>
-      <c r="B669" s="44">
+      <c r="B669" s="42">
         <v>359268</v>
       </c>
-      <c r="C669" s="45" t="s">
+      <c r="C669" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D669" s="44"/>
-      <c r="E669" s="46" t="s">
+      <c r="D669" s="42"/>
+      <c r="E669" s="44" t="s">
         <v>1774</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A670" s="44">
+      <c r="A670" s="42">
         <v>9</v>
       </c>
-      <c r="B670" s="49" t="s">
+      <c r="B670" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="C670" s="49" t="s">
+      <c r="C670" s="47" t="s">
         <v>1769</v>
       </c>
-      <c r="D670" s="49"/>
-      <c r="E670" s="50" t="s">
+      <c r="D670" s="47"/>
+      <c r="E670" s="48" t="s">
         <v>1775</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A671" s="44">
+      <c r="A671" s="42">
         <v>10</v>
       </c>
-      <c r="B671" s="44">
+      <c r="B671" s="42">
         <v>370204</v>
       </c>
-      <c r="C671" s="45" t="s">
+      <c r="C671" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D671" s="44"/>
-      <c r="E671" s="46" t="s">
+      <c r="D671" s="42"/>
+      <c r="E671" s="44" t="s">
         <v>1778</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A672" s="44">
+      <c r="A672" s="42">
         <v>11</v>
       </c>
-      <c r="B672" s="51" t="s">
+      <c r="B672" s="49" t="s">
         <v>810</v>
       </c>
-      <c r="C672" s="51" t="s">
+      <c r="C672" s="49" t="s">
         <v>1769</v>
       </c>
-      <c r="D672" s="51"/>
-      <c r="E672" s="52" t="s">
+      <c r="D672" s="49"/>
+      <c r="E672" s="50" t="s">
         <v>1777</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A673" s="44"/>
-      <c r="B673" s="44"/>
-      <c r="C673" s="45" t="s">
+      <c r="A673" s="42"/>
+      <c r="B673" s="42"/>
+      <c r="C673" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D673" s="44"/>
-      <c r="E673" s="46"/>
+      <c r="D673" s="42"/>
+      <c r="E673" s="44"/>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A674" s="44"/>
-      <c r="B674" s="44"/>
-      <c r="C674" s="45" t="s">
+      <c r="A674" s="42"/>
+      <c r="B674" s="42"/>
+      <c r="C674" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D674" s="44"/>
-      <c r="E674" s="46"/>
+      <c r="D674" s="42"/>
+      <c r="E674" s="44"/>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A675" s="44"/>
-      <c r="B675" s="44"/>
-      <c r="C675" s="45" t="s">
+      <c r="A675" s="42"/>
+      <c r="B675" s="42"/>
+      <c r="C675" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D675" s="44"/>
-      <c r="E675" s="46"/>
+      <c r="D675" s="42"/>
+      <c r="E675" s="44"/>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A676" s="44"/>
-      <c r="B676" s="44"/>
-      <c r="C676" s="45" t="s">
+      <c r="A676" s="42"/>
+      <c r="B676" s="42"/>
+      <c r="C676" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D676" s="44"/>
-      <c r="E676" s="46"/>
+      <c r="D676" s="42"/>
+      <c r="E676" s="44"/>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A677" s="44"/>
-      <c r="B677" s="44"/>
-      <c r="C677" s="45" t="s">
+      <c r="A677" s="42"/>
+      <c r="B677" s="42"/>
+      <c r="C677" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D677" s="44"/>
-      <c r="E677" s="46"/>
+      <c r="D677" s="42"/>
+      <c r="E677" s="44"/>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A678" s="44"/>
-      <c r="B678" s="44"/>
-      <c r="C678" s="45" t="s">
+      <c r="A678" s="42"/>
+      <c r="B678" s="42"/>
+      <c r="C678" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D678" s="44"/>
-      <c r="E678" s="46"/>
+      <c r="D678" s="42"/>
+      <c r="E678" s="44"/>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A679" s="44"/>
-      <c r="B679" s="44"/>
-      <c r="C679" s="45" t="s">
+      <c r="A679" s="42"/>
+      <c r="B679" s="42"/>
+      <c r="C679" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="D679" s="44"/>
-      <c r="E679" s="46"/>
+      <c r="D679" s="42"/>
+      <c r="E679" s="44"/>
     </row>
     <row r="680" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A680" s="9"/>
@@ -15789,6 +15801,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A280:E281"/>
     <mergeCell ref="A429:E430"/>
     <mergeCell ref="A437:E438"/>
@@ -15798,16 +15820,6 @@
     <mergeCell ref="A528:E529"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A586:E587"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1798">
   <si>
     <t>П/П</t>
   </si>
@@ -5784,13 +5784,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6107,7 +6107,7 @@
   <dimension ref="A1:G691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="I669" sqref="I669"/>
+      <selection activeCell="G684" sqref="G684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6122,21 +6122,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6224,21 +6224,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6978,21 +6978,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7118,21 +7118,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7770,21 +7770,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8045,21 +8045,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="50" t="s">
+      <c r="A135" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8185,21 +8185,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="50" t="s">
+      <c r="A146" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8613,21 +8613,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="50"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8770,21 +8770,21 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="50" t="s">
+      <c r="A189" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="50"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="50"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9213,21 +9213,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="50" t="s">
+      <c r="A220" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="50"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="50"/>
-      <c r="E220" s="50"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="50"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="50"/>
-      <c r="D221" s="50"/>
-      <c r="E221" s="50"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10088,21 +10088,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="50" t="s">
+      <c r="A280" s="51" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="50"/>
-      <c r="C280" s="50"/>
-      <c r="D280" s="50"/>
-      <c r="E280" s="50"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="51"/>
-      <c r="B281" s="51"/>
-      <c r="C281" s="51"/>
-      <c r="D281" s="51"/>
-      <c r="E281" s="51"/>
+      <c r="A281" s="52"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -12308,21 +12308,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="52" t="s">
+      <c r="A429" s="50" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="52"/>
-      <c r="C429" s="52"/>
-      <c r="D429" s="52"/>
-      <c r="E429" s="52"/>
+      <c r="B429" s="50"/>
+      <c r="C429" s="50"/>
+      <c r="D429" s="50"/>
+      <c r="E429" s="50"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="50"/>
-      <c r="B430" s="50"/>
-      <c r="C430" s="50"/>
-      <c r="D430" s="50"/>
-      <c r="E430" s="50"/>
+      <c r="A430" s="51"/>
+      <c r="B430" s="51"/>
+      <c r="C430" s="51"/>
+      <c r="D430" s="51"/>
+      <c r="E430" s="51"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -12403,21 +12403,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="52" t="s">
+      <c r="A437" s="50" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="52"/>
-      <c r="C437" s="52"/>
-      <c r="D437" s="52"/>
-      <c r="E437" s="52"/>
+      <c r="B437" s="50"/>
+      <c r="C437" s="50"/>
+      <c r="D437" s="50"/>
+      <c r="E437" s="50"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="50"/>
-      <c r="B438" s="50"/>
-      <c r="C438" s="50"/>
-      <c r="D438" s="50"/>
-      <c r="E438" s="50"/>
+      <c r="A438" s="51"/>
+      <c r="B438" s="51"/>
+      <c r="C438" s="51"/>
+      <c r="D438" s="51"/>
+      <c r="E438" s="51"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13173,21 +13173,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="52" t="s">
+      <c r="A490" s="50" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="52"/>
-      <c r="C490" s="52"/>
-      <c r="D490" s="52"/>
-      <c r="E490" s="52"/>
+      <c r="B490" s="50"/>
+      <c r="C490" s="50"/>
+      <c r="D490" s="50"/>
+      <c r="E490" s="50"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="50"/>
-      <c r="B491" s="50"/>
-      <c r="C491" s="50"/>
-      <c r="D491" s="50"/>
-      <c r="E491" s="50"/>
+      <c r="A491" s="51"/>
+      <c r="B491" s="51"/>
+      <c r="C491" s="51"/>
+      <c r="D491" s="51"/>
+      <c r="E491" s="51"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13724,21 +13724,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="52" t="s">
+      <c r="A528" s="50" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="52"/>
-      <c r="C528" s="52"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="52"/>
+      <c r="B528" s="50"/>
+      <c r="C528" s="50"/>
+      <c r="D528" s="50"/>
+      <c r="E528" s="50"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="50"/>
-      <c r="B529" s="50"/>
-      <c r="C529" s="50"/>
-      <c r="D529" s="50"/>
-      <c r="E529" s="50"/>
+      <c r="A529" s="51"/>
+      <c r="B529" s="51"/>
+      <c r="C529" s="51"/>
+      <c r="D529" s="51"/>
+      <c r="E529" s="51"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -14002,21 +14002,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="52" t="s">
+      <c r="A549" s="50" t="s">
         <v>1586</v>
       </c>
-      <c r="B549" s="52"/>
-      <c r="C549" s="52"/>
-      <c r="D549" s="52"/>
-      <c r="E549" s="52"/>
+      <c r="B549" s="50"/>
+      <c r="C549" s="50"/>
+      <c r="D549" s="50"/>
+      <c r="E549" s="50"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="50"/>
-      <c r="B550" s="50"/>
-      <c r="C550" s="50"/>
-      <c r="D550" s="50"/>
-      <c r="E550" s="50"/>
+      <c r="A550" s="51"/>
+      <c r="B550" s="51"/>
+      <c r="C550" s="51"/>
+      <c r="D550" s="51"/>
+      <c r="E550" s="51"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -14534,21 +14534,21 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="52" t="s">
+      <c r="A586" s="50" t="s">
         <v>1587</v>
       </c>
-      <c r="B586" s="52"/>
-      <c r="C586" s="52"/>
-      <c r="D586" s="52"/>
-      <c r="E586" s="52"/>
+      <c r="B586" s="50"/>
+      <c r="C586" s="50"/>
+      <c r="D586" s="50"/>
+      <c r="E586" s="50"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="50"/>
-      <c r="B587" s="50"/>
-      <c r="C587" s="50"/>
-      <c r="D587" s="50"/>
-      <c r="E587" s="50"/>
+      <c r="A587" s="51"/>
+      <c r="B587" s="51"/>
+      <c r="C587" s="51"/>
+      <c r="D587" s="51"/>
+      <c r="E587" s="51"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15217,13 +15217,13 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="52" t="s">
+      <c r="A633" s="50" t="s">
         <v>1720</v>
       </c>
-      <c r="B633" s="52"/>
-      <c r="C633" s="52"/>
-      <c r="D633" s="52"/>
-      <c r="E633" s="52"/>
+      <c r="B633" s="50"/>
+      <c r="C633" s="50"/>
+      <c r="D633" s="50"/>
+      <c r="E633" s="50"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15282,21 +15282,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="50" t="s">
+      <c r="A639" s="51" t="s">
         <v>1726</v>
       </c>
-      <c r="B639" s="50"/>
-      <c r="C639" s="50"/>
-      <c r="D639" s="50"/>
-      <c r="E639" s="50"/>
+      <c r="B639" s="51"/>
+      <c r="C639" s="51"/>
+      <c r="D639" s="51"/>
+      <c r="E639" s="51"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="51"/>
-      <c r="B640" s="51"/>
-      <c r="C640" s="51"/>
-      <c r="D640" s="51"/>
-      <c r="E640" s="51"/>
+      <c r="A640" s="52"/>
+      <c r="B640" s="52"/>
+      <c r="C640" s="52"/>
+      <c r="D640" s="52"/>
+      <c r="E640" s="52"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15867,13 +15867,19 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A683" s="42"/>
-      <c r="B683" s="42"/>
+      <c r="A683" s="42">
+        <v>22</v>
+      </c>
+      <c r="B683" s="42">
+        <v>1234790</v>
+      </c>
       <c r="C683" s="43" t="s">
         <v>1768</v>
       </c>
       <c r="D683" s="42"/>
-      <c r="E683" s="44"/>
+      <c r="E683" s="44" t="s">
+        <v>1755</v>
+      </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A684" s="42"/>
@@ -15947,6 +15953,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15955,17 +15972,6 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mukatanov.sn\Documents\GitHub\Technica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -5784,13 +5789,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5857,7 +5862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5892,7 +5897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6106,47 +6111,47 @@
   </sheetPr>
   <dimension ref="A1:G691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="G684" sqref="G684"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="C537" sqref="C537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="53" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+    <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6178,7 +6183,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -6193,7 +6198,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -6208,7 +6213,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -6223,25 +6228,25 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6258,7 +6263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -6274,7 +6279,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6290,7 +6295,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -6306,7 +6311,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -6322,7 +6327,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6338,7 +6343,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -6354,7 +6359,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -6370,7 +6375,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6386,7 +6391,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -6402,7 +6407,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -6418,7 +6423,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -6434,7 +6439,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
@@ -6453,7 +6458,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -6469,7 +6474,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -6485,7 +6490,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -6501,7 +6506,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -6517,7 +6522,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -6533,7 +6538,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -6549,7 +6554,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -6565,7 +6570,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -6581,7 +6586,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
@@ -6597,7 +6602,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -6613,7 +6618,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -6629,7 +6634,7 @@
       <c r="E35" s="25"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -6645,7 +6650,7 @@
       <c r="E36" s="25"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -6661,7 +6666,7 @@
       <c r="E37" s="25"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -6677,7 +6682,7 @@
       <c r="E38" s="25"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>123</v>
       </c>
@@ -6692,7 +6697,7 @@
       </c>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>127</v>
       </c>
@@ -6707,7 +6712,7 @@
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>131</v>
       </c>
@@ -6722,7 +6727,7 @@
       </c>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
@@ -6737,7 +6742,7 @@
       </c>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>139</v>
       </c>
@@ -6752,7 +6757,7 @@
       </c>
       <c r="E43" s="25"/>
     </row>
-    <row r="44" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -6767,7 +6772,7 @@
       </c>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -6782,7 +6787,7 @@
       </c>
       <c r="E45" s="25"/>
     </row>
-    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -6797,7 +6802,7 @@
       </c>
       <c r="E46" s="25"/>
     </row>
-    <row r="47" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -6812,7 +6817,7 @@
       </c>
       <c r="E47" s="25"/>
     </row>
-    <row r="48" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -6827,7 +6832,7 @@
       </c>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>163</v>
       </c>
@@ -6842,7 +6847,7 @@
       </c>
       <c r="E49" s="25"/>
     </row>
-    <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6857,7 +6862,7 @@
       </c>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
@@ -6872,7 +6877,7 @@
       </c>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>175</v>
       </c>
@@ -6887,7 +6892,7 @@
       </c>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>179</v>
       </c>
@@ -6902,7 +6907,7 @@
       </c>
       <c r="E53" s="25"/>
     </row>
-    <row r="54" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
@@ -6917,7 +6922,7 @@
       </c>
       <c r="E54" s="25"/>
     </row>
-    <row r="55" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -6932,7 +6937,7 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>191</v>
       </c>
@@ -6947,7 +6952,7 @@
       </c>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>195</v>
       </c>
@@ -6962,7 +6967,7 @@
       </c>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>199</v>
       </c>
@@ -6977,25 +6982,25 @@
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
+    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +7032,7 @@
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
@@ -7042,7 +7047,7 @@
       </c>
       <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>13</v>
       </c>
@@ -7057,7 +7062,7 @@
       </c>
       <c r="E65" s="25"/>
     </row>
-    <row r="66" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -7072,7 +7077,7 @@
       </c>
       <c r="E66" s="25"/>
     </row>
-    <row r="67" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>35</v>
       </c>
@@ -7087,7 +7092,7 @@
       </c>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>39</v>
       </c>
@@ -7102,7 +7107,7 @@
       </c>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>43</v>
       </c>
@@ -7117,25 +7122,25 @@
       </c>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
+    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -7152,7 +7157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -7167,7 +7172,7 @@
       </c>
       <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7182,7 +7187,7 @@
       </c>
       <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
@@ -7197,7 +7202,7 @@
       </c>
       <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>17</v>
       </c>
@@ -7212,7 +7217,7 @@
       </c>
       <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>35</v>
       </c>
@@ -7227,7 +7232,7 @@
       </c>
       <c r="E78" s="25"/>
     </row>
-    <row r="79" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -7242,7 +7247,7 @@
       </c>
       <c r="E79" s="25"/>
     </row>
-    <row r="80" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>43</v>
       </c>
@@ -7257,7 +7262,7 @@
       </c>
       <c r="E80" s="25"/>
     </row>
-    <row r="81" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>47</v>
       </c>
@@ -7272,7 +7277,7 @@
       </c>
       <c r="E81" s="25"/>
     </row>
-    <row r="82" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>51</v>
       </c>
@@ -7287,7 +7292,7 @@
       </c>
       <c r="E82" s="25"/>
     </row>
-    <row r="83" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7302,7 +7307,7 @@
       </c>
       <c r="E83" s="25"/>
     </row>
-    <row r="84" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>59</v>
       </c>
@@ -7317,7 +7322,7 @@
       </c>
       <c r="E84" s="25"/>
     </row>
-    <row r="85" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -7332,7 +7337,7 @@
       </c>
       <c r="E85" s="25"/>
     </row>
-    <row r="86" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>67</v>
       </c>
@@ -7347,7 +7352,7 @@
       </c>
       <c r="E86" s="25"/>
     </row>
-    <row r="87" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -7362,7 +7367,7 @@
       </c>
       <c r="E87" s="25"/>
     </row>
-    <row r="88" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>75</v>
       </c>
@@ -7377,7 +7382,7 @@
       </c>
       <c r="E88" s="25"/>
     </row>
-    <row r="89" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>79</v>
       </c>
@@ -7392,7 +7397,7 @@
       </c>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
@@ -7407,7 +7412,7 @@
       </c>
       <c r="E90" s="25"/>
     </row>
-    <row r="91" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>87</v>
       </c>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="E91" s="25"/>
     </row>
-    <row r="92" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -7437,7 +7442,7 @@
       </c>
       <c r="E92" s="25"/>
     </row>
-    <row r="93" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
@@ -7452,7 +7457,7 @@
       </c>
       <c r="E93" s="25"/>
     </row>
-    <row r="94" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
@@ -7467,7 +7472,7 @@
       </c>
       <c r="E94" s="25"/>
     </row>
-    <row r="95" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
@@ -7482,7 +7487,7 @@
       </c>
       <c r="E95" s="25"/>
     </row>
-    <row r="96" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>107</v>
       </c>
@@ -7497,7 +7502,7 @@
       </c>
       <c r="E96" s="25"/>
     </row>
-    <row r="97" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -7512,7 +7517,7 @@
       </c>
       <c r="E97" s="25"/>
     </row>
-    <row r="98" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>115</v>
       </c>
@@ -7527,7 +7532,7 @@
       </c>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -7542,7 +7547,7 @@
       </c>
       <c r="E99" s="25"/>
     </row>
-    <row r="100" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>123</v>
       </c>
@@ -7557,7 +7562,7 @@
       </c>
       <c r="E100" s="25"/>
     </row>
-    <row r="101" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -7572,7 +7577,7 @@
       </c>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
         <v>131</v>
       </c>
@@ -7587,7 +7592,7 @@
       </c>
       <c r="E102" s="25"/>
     </row>
-    <row r="103" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -7602,7 +7607,7 @@
       </c>
       <c r="E103" s="25"/>
     </row>
-    <row r="104" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -7617,7 +7622,7 @@
       </c>
       <c r="E104" s="25"/>
     </row>
-    <row r="105" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>143</v>
       </c>
@@ -7632,7 +7637,7 @@
       </c>
       <c r="E105" s="25"/>
     </row>
-    <row r="106" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>147</v>
       </c>
@@ -7647,7 +7652,7 @@
       </c>
       <c r="E106" s="25"/>
     </row>
-    <row r="107" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>151</v>
       </c>
@@ -7662,7 +7667,7 @@
       </c>
       <c r="E107" s="25"/>
     </row>
-    <row r="108" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -7679,7 +7684,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
@@ -7694,7 +7699,7 @@
       </c>
       <c r="E109" s="25"/>
     </row>
-    <row r="110" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>163</v>
       </c>
@@ -7709,7 +7714,7 @@
       </c>
       <c r="E110" s="25"/>
     </row>
-    <row r="111" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -7724,7 +7729,7 @@
       </c>
       <c r="E111" s="25"/>
     </row>
-    <row r="112" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -7739,7 +7744,7 @@
       </c>
       <c r="E112" s="25"/>
     </row>
-    <row r="113" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>175</v>
       </c>
@@ -7754,7 +7759,7 @@
       </c>
       <c r="E113" s="25"/>
     </row>
-    <row r="114" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>179</v>
       </c>
@@ -7769,25 +7774,25 @@
       </c>
       <c r="E114" s="25"/>
     </row>
-    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="51" t="s">
+    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
+    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -7804,7 +7809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>5</v>
       </c>
@@ -7819,7 +7824,7 @@
       </c>
       <c r="E119" s="25"/>
     </row>
-    <row r="120" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>9</v>
       </c>
@@ -7834,7 +7839,7 @@
       </c>
       <c r="E120" s="25"/>
     </row>
-    <row r="121" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
         <v>13</v>
       </c>
@@ -7849,7 +7854,7 @@
       </c>
       <c r="E121" s="25"/>
     </row>
-    <row r="122" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>17</v>
       </c>
@@ -7864,7 +7869,7 @@
       </c>
       <c r="E122" s="25"/>
     </row>
-    <row r="123" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>35</v>
       </c>
@@ -7879,7 +7884,7 @@
       </c>
       <c r="E123" s="25"/>
     </row>
-    <row r="124" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
@@ -7894,7 +7899,7 @@
       </c>
       <c r="E124" s="25"/>
     </row>
-    <row r="125" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
         <v>43</v>
       </c>
@@ -7909,7 +7914,7 @@
       </c>
       <c r="E125" s="25"/>
     </row>
-    <row r="126" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
         <v>47</v>
       </c>
@@ -7924,7 +7929,7 @@
       </c>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
         <v>51</v>
       </c>
@@ -7939,7 +7944,7 @@
       </c>
       <c r="E127" s="25"/>
     </row>
-    <row r="128" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
         <v>55</v>
       </c>
@@ -7954,7 +7959,7 @@
       </c>
       <c r="E128" s="25"/>
     </row>
-    <row r="129" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -7969,7 +7974,7 @@
       </c>
       <c r="E129" s="25"/>
     </row>
-    <row r="130" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7984,7 +7989,7 @@
       </c>
       <c r="E130" s="25"/>
     </row>
-    <row r="131" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
         <v>67</v>
       </c>
@@ -7999,7 +8004,7 @@
       </c>
       <c r="E131" s="25"/>
     </row>
-    <row r="132" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
         <v>71</v>
       </c>
@@ -8014,7 +8019,7 @@
       </c>
       <c r="E132" s="25"/>
     </row>
-    <row r="133" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A133" s="9" t="s">
         <v>75</v>
       </c>
@@ -8029,7 +8034,7 @@
       </c>
       <c r="E133" s="25"/>
     </row>
-    <row r="134" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
         <v>79</v>
       </c>
@@ -8044,25 +8049,25 @@
       </c>
       <c r="E134" s="25"/>
     </row>
-    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="51" t="s">
+    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="51"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -8079,7 +8084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A139" s="9" t="s">
         <v>5</v>
       </c>
@@ -8094,7 +8099,7 @@
       </c>
       <c r="E139" s="25"/>
     </row>
-    <row r="140" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A140" s="9" t="s">
         <v>9</v>
       </c>
@@ -8109,7 +8114,7 @@
       </c>
       <c r="E140" s="25"/>
     </row>
-    <row r="141" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A141" s="9" t="s">
         <v>13</v>
       </c>
@@ -8124,7 +8129,7 @@
       </c>
       <c r="E141" s="25"/>
     </row>
-    <row r="142" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -8139,7 +8144,7 @@
       </c>
       <c r="E142" s="25"/>
     </row>
-    <row r="143" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>35</v>
       </c>
@@ -8154,7 +8159,7 @@
       </c>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
         <v>39</v>
       </c>
@@ -8169,7 +8174,7 @@
       </c>
       <c r="E144" s="25"/>
     </row>
-    <row r="145" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A145" s="9" t="s">
         <v>43</v>
       </c>
@@ -8184,25 +8189,25 @@
       </c>
       <c r="E145" s="25"/>
     </row>
-    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="51" t="s">
+    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
@@ -8219,7 +8224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A150" s="9" t="s">
         <v>5</v>
       </c>
@@ -8234,7 +8239,7 @@
       </c>
       <c r="E150" s="25"/>
     </row>
-    <row r="151" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -8249,7 +8254,7 @@
       </c>
       <c r="E151" s="25"/>
     </row>
-    <row r="152" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A152" s="9" t="s">
         <v>13</v>
       </c>
@@ -8264,7 +8269,7 @@
       </c>
       <c r="E152" s="25"/>
     </row>
-    <row r="153" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -8279,7 +8284,7 @@
       </c>
       <c r="E153" s="25"/>
     </row>
-    <row r="154" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
         <v>35</v>
       </c>
@@ -8294,7 +8299,7 @@
       </c>
       <c r="E154" s="25"/>
     </row>
-    <row r="155" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
         <v>39</v>
       </c>
@@ -8309,7 +8314,7 @@
       </c>
       <c r="E155" s="25"/>
     </row>
-    <row r="156" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A156" s="9" t="s">
         <v>43</v>
       </c>
@@ -8324,7 +8329,7 @@
       </c>
       <c r="E156" s="25"/>
     </row>
-    <row r="157" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A157" s="9" t="s">
         <v>47</v>
       </c>
@@ -8339,7 +8344,7 @@
       </c>
       <c r="E157" s="25"/>
     </row>
-    <row r="158" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A158" s="12" t="s">
         <v>51</v>
       </c>
@@ -8356,7 +8361,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
         <v>55</v>
       </c>
@@ -8371,7 +8376,7 @@
       </c>
       <c r="E159" s="25"/>
     </row>
-    <row r="160" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A160" s="9" t="s">
         <v>59</v>
       </c>
@@ -8386,7 +8391,7 @@
       </c>
       <c r="E160" s="25"/>
     </row>
-    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8401,7 +8406,7 @@
       </c>
       <c r="E161" s="25"/>
     </row>
-    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A162" s="9" t="s">
         <v>67</v>
       </c>
@@ -8416,7 +8421,7 @@
       </c>
       <c r="E162" s="25"/>
     </row>
-    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8431,7 +8436,7 @@
       </c>
       <c r="E163" s="25"/>
     </row>
-    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A164" s="9" t="s">
         <v>75</v>
       </c>
@@ -8446,7 +8451,7 @@
       </c>
       <c r="E164" s="25"/>
     </row>
-    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8461,7 +8466,7 @@
       </c>
       <c r="E165" s="25"/>
     </row>
-    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A166" s="12" t="s">
         <v>83</v>
       </c>
@@ -8476,7 +8481,7 @@
       </c>
       <c r="E166" s="25"/>
     </row>
-    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8491,7 +8496,7 @@
       </c>
       <c r="E167" s="25"/>
     </row>
-    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A168" s="9" t="s">
         <v>91</v>
       </c>
@@ -8506,7 +8511,7 @@
       </c>
       <c r="E168" s="25"/>
     </row>
-    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A169" s="12" t="s">
         <v>95</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A170" s="9" t="s">
         <v>99</v>
       </c>
@@ -8538,7 +8543,7 @@
       </c>
       <c r="E170" s="25"/>
     </row>
-    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A171" s="12" t="s">
         <v>103</v>
       </c>
@@ -8553,7 +8558,7 @@
       </c>
       <c r="E171" s="25"/>
     </row>
-    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A172" s="12" t="s">
         <v>107</v>
       </c>
@@ -8568,7 +8573,7 @@
       </c>
       <c r="E172" s="25"/>
     </row>
-    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8583,7 +8588,7 @@
       </c>
       <c r="E173" s="25"/>
     </row>
-    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A174" s="9" t="s">
         <v>115</v>
       </c>
@@ -8598,39 +8603,39 @@
       </c>
       <c r="E174" s="25"/>
     </row>
-    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="51" t="s">
+    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="51"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
+    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="50"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -8647,7 +8652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -8662,7 +8667,7 @@
       </c>
       <c r="E181" s="25"/>
     </row>
-    <row r="182" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A182" s="9" t="s">
         <v>9</v>
       </c>
@@ -8677,7 +8682,7 @@
       </c>
       <c r="E182" s="25"/>
     </row>
-    <row r="183" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A183" s="9" t="s">
         <v>13</v>
       </c>
@@ -8692,7 +8697,7 @@
       </c>
       <c r="E183" s="25"/>
     </row>
-    <row r="184" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -8707,7 +8712,7 @@
       </c>
       <c r="E184" s="25"/>
     </row>
-    <row r="185" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A185" s="9" t="s">
         <v>35</v>
       </c>
@@ -8722,7 +8727,7 @@
       </c>
       <c r="E185" s="25"/>
     </row>
-    <row r="186" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A186" s="9" t="s">
         <v>39</v>
       </c>
@@ -8737,7 +8742,7 @@
       </c>
       <c r="E186" s="25"/>
     </row>
-    <row r="187" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A187" s="9" t="s">
         <v>43</v>
       </c>
@@ -8752,7 +8757,7 @@
       </c>
       <c r="E187" s="25"/>
     </row>
-    <row r="188" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A188" s="12" t="s">
         <v>47</v>
       </c>
@@ -8769,25 +8774,25 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="51" t="s">
+    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
+    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="50"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
@@ -8804,7 +8809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -8819,7 +8824,7 @@
       </c>
       <c r="E193" s="25"/>
     </row>
-    <row r="194" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8834,7 +8839,7 @@
       </c>
       <c r="E194" s="25"/>
     </row>
-    <row r="195" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>13</v>
       </c>
@@ -8849,7 +8854,7 @@
       </c>
       <c r="E195" s="25"/>
     </row>
-    <row r="196" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8864,7 +8869,7 @@
       </c>
       <c r="E196" s="25"/>
     </row>
-    <row r="197" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>35</v>
       </c>
@@ -8879,7 +8884,7 @@
       </c>
       <c r="E197" s="25"/>
     </row>
-    <row r="198" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8894,7 +8899,7 @@
       </c>
       <c r="E198" s="25"/>
     </row>
-    <row r="199" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A199" s="9" t="s">
         <v>43</v>
       </c>
@@ -8909,7 +8914,7 @@
       </c>
       <c r="E199" s="25"/>
     </row>
-    <row r="200" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8924,7 +8929,7 @@
       </c>
       <c r="E200" s="25"/>
     </row>
-    <row r="201" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A201" s="9" t="s">
         <v>51</v>
       </c>
@@ -8939,7 +8944,7 @@
       </c>
       <c r="E201" s="25"/>
     </row>
-    <row r="202" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8954,7 +8959,7 @@
       </c>
       <c r="E202" s="25"/>
     </row>
-    <row r="203" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -8972,7 +8977,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8987,7 +8992,7 @@
       </c>
       <c r="E204" s="25"/>
     </row>
-    <row r="205" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A205" s="9" t="s">
         <v>67</v>
       </c>
@@ -9002,7 +9007,7 @@
       </c>
       <c r="E205" s="25"/>
     </row>
-    <row r="206" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -9017,7 +9022,7 @@
       </c>
       <c r="E206" s="25"/>
     </row>
-    <row r="207" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A207" s="9" t="s">
         <v>75</v>
       </c>
@@ -9032,7 +9037,7 @@
       </c>
       <c r="E207" s="25"/>
     </row>
-    <row r="208" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -9047,7 +9052,7 @@
       </c>
       <c r="E208" s="25"/>
     </row>
-    <row r="209" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A209" s="9" t="s">
         <v>83</v>
       </c>
@@ -9062,7 +9067,7 @@
       </c>
       <c r="E209" s="25"/>
     </row>
-    <row r="210" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A210" s="9" t="s">
         <v>87</v>
       </c>
@@ -9077,7 +9082,7 @@
       </c>
       <c r="E210" s="25"/>
     </row>
-    <row r="211" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A211" s="9" t="s">
         <v>91</v>
       </c>
@@ -9092,7 +9097,7 @@
       </c>
       <c r="E211" s="25"/>
     </row>
-    <row r="212" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A212" s="9" t="s">
         <v>95</v>
       </c>
@@ -9107,7 +9112,7 @@
       </c>
       <c r="E212" s="25"/>
     </row>
-    <row r="213" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A213" s="9" t="s">
         <v>99</v>
       </c>
@@ -9122,7 +9127,7 @@
       </c>
       <c r="E213" s="25"/>
     </row>
-    <row r="214" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A214" s="9" t="s">
         <v>103</v>
       </c>
@@ -9137,7 +9142,7 @@
       </c>
       <c r="E214" s="25"/>
     </row>
-    <row r="215" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A215" s="9" t="s">
         <v>107</v>
       </c>
@@ -9152,7 +9157,7 @@
       </c>
       <c r="E215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A216" s="9" t="s">
         <v>111</v>
       </c>
@@ -9167,7 +9172,7 @@
       </c>
       <c r="E216" s="25"/>
     </row>
-    <row r="217" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A217" s="9" t="s">
         <v>115</v>
       </c>
@@ -9182,7 +9187,7 @@
       </c>
       <c r="E217" s="25"/>
     </row>
-    <row r="218" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A218" s="9" t="s">
         <v>119</v>
       </c>
@@ -9197,7 +9202,7 @@
       </c>
       <c r="E218" s="25"/>
     </row>
-    <row r="219" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A219" s="9" t="s">
         <v>123</v>
       </c>
@@ -9212,25 +9217,25 @@
       </c>
       <c r="E219" s="25"/>
     </row>
-    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="51" t="s">
+    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="51"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="51"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="50"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="51"/>
-      <c r="B221" s="51"/>
-      <c r="C221" s="51"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="51"/>
+    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="50"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="50"/>
+      <c r="D221" s="50"/>
+      <c r="E221" s="50"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -9247,7 +9252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A224" s="9" t="s">
         <v>5</v>
       </c>
@@ -9262,7 +9267,7 @@
       </c>
       <c r="E224" s="25"/>
     </row>
-    <row r="225" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A225" s="9" t="s">
         <v>9</v>
       </c>
@@ -9277,7 +9282,7 @@
       </c>
       <c r="E225" s="25"/>
     </row>
-    <row r="226" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A226" s="9" t="s">
         <v>13</v>
       </c>
@@ -9292,7 +9297,7 @@
       </c>
       <c r="E226" s="25"/>
     </row>
-    <row r="227" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>17</v>
       </c>
@@ -9307,7 +9312,7 @@
       </c>
       <c r="E227" s="25"/>
     </row>
-    <row r="228" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A228" s="9" t="s">
         <v>35</v>
       </c>
@@ -9322,7 +9327,7 @@
       </c>
       <c r="E228" s="25"/>
     </row>
-    <row r="229" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>39</v>
       </c>
@@ -9337,7 +9342,7 @@
       </c>
       <c r="E229" s="28"/>
     </row>
-    <row r="230" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A230" s="9" t="s">
         <v>43</v>
       </c>
@@ -9352,7 +9357,7 @@
       </c>
       <c r="E230" s="25"/>
     </row>
-    <row r="231" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>47</v>
       </c>
@@ -9367,7 +9372,7 @@
       </c>
       <c r="E231" s="25"/>
     </row>
-    <row r="232" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A232" s="9" t="s">
         <v>51</v>
       </c>
@@ -9382,7 +9387,7 @@
       </c>
       <c r="E232" s="25"/>
     </row>
-    <row r="233" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A233" s="9" t="s">
         <v>55</v>
       </c>
@@ -9397,7 +9402,7 @@
       </c>
       <c r="E233" s="25"/>
     </row>
-    <row r="234" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A234" s="9" t="s">
         <v>59</v>
       </c>
@@ -9412,7 +9417,7 @@
       </c>
       <c r="E234" s="25"/>
     </row>
-    <row r="235" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -9427,7 +9432,7 @@
       </c>
       <c r="E235" s="25"/>
     </row>
-    <row r="236" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A236" s="9" t="s">
         <v>67</v>
       </c>
@@ -9442,7 +9447,7 @@
       </c>
       <c r="E236" s="25"/>
     </row>
-    <row r="237" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A237" s="9" t="s">
         <v>71</v>
       </c>
@@ -9457,7 +9462,7 @@
       </c>
       <c r="E237" s="25"/>
     </row>
-    <row r="238" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A238" s="9" t="s">
         <v>75</v>
       </c>
@@ -9472,7 +9477,7 @@
       </c>
       <c r="E238" s="25"/>
     </row>
-    <row r="239" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A239" s="9" t="s">
         <v>79</v>
       </c>
@@ -9487,7 +9492,7 @@
       </c>
       <c r="E239" s="25"/>
     </row>
-    <row r="240" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A240" s="9" t="s">
         <v>83</v>
       </c>
@@ -9502,7 +9507,7 @@
       </c>
       <c r="E240" s="25"/>
     </row>
-    <row r="241" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A241" s="9" t="s">
         <v>87</v>
       </c>
@@ -9517,7 +9522,7 @@
       </c>
       <c r="E241" s="25"/>
     </row>
-    <row r="242" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A242" s="12" t="s">
         <v>91</v>
       </c>
@@ -9532,7 +9537,7 @@
       </c>
       <c r="E242" s="25"/>
     </row>
-    <row r="243" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A243" s="9" t="s">
         <v>95</v>
       </c>
@@ -9547,7 +9552,7 @@
       </c>
       <c r="E243" s="25"/>
     </row>
-    <row r="244" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A244" s="9" t="s">
         <v>99</v>
       </c>
@@ -9562,7 +9567,7 @@
       </c>
       <c r="E244" s="25"/>
     </row>
-    <row r="245" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A245" s="9" t="s">
         <v>103</v>
       </c>
@@ -9577,7 +9582,7 @@
       </c>
       <c r="E245" s="25"/>
     </row>
-    <row r="246" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>107</v>
       </c>
@@ -9592,7 +9597,7 @@
       </c>
       <c r="E246" s="25"/>
     </row>
-    <row r="247" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -9607,7 +9612,7 @@
       </c>
       <c r="E247" s="25"/>
     </row>
-    <row r="248" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>115</v>
       </c>
@@ -9622,7 +9627,7 @@
       </c>
       <c r="E248" s="25"/>
     </row>
-    <row r="249" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A249" s="9" t="s">
         <v>119</v>
       </c>
@@ -9637,7 +9642,7 @@
       </c>
       <c r="E249" s="25"/>
     </row>
-    <row r="250" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>123</v>
       </c>
@@ -9652,7 +9657,7 @@
       </c>
       <c r="E250" s="25"/>
     </row>
-    <row r="251" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A251" s="9" t="s">
         <v>127</v>
       </c>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="E251" s="25"/>
     </row>
-    <row r="252" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
@@ -9682,7 +9687,7 @@
       </c>
       <c r="E252" s="25"/>
     </row>
-    <row r="253" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>135</v>
       </c>
@@ -9697,7 +9702,7 @@
       </c>
       <c r="E253" s="25"/>
     </row>
-    <row r="254" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A254" s="9" t="s">
         <v>139</v>
       </c>
@@ -9712,7 +9717,7 @@
       </c>
       <c r="E254" s="25"/>
     </row>
-    <row r="255" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>143</v>
       </c>
@@ -9727,7 +9732,7 @@
       </c>
       <c r="E255" s="25"/>
     </row>
-    <row r="256" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>147</v>
       </c>
@@ -9742,7 +9747,7 @@
       </c>
       <c r="E256" s="25"/>
     </row>
-    <row r="257" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>151</v>
       </c>
@@ -9757,7 +9762,7 @@
       </c>
       <c r="E257" s="25"/>
     </row>
-    <row r="258" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>155</v>
       </c>
@@ -9772,7 +9777,7 @@
       </c>
       <c r="E258" s="25"/>
     </row>
-    <row r="259" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
@@ -9787,7 +9792,7 @@
       </c>
       <c r="E259" s="25"/>
     </row>
-    <row r="260" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>163</v>
       </c>
@@ -9802,7 +9807,7 @@
       </c>
       <c r="E260" s="25"/>
     </row>
-    <row r="261" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A261" s="9" t="s">
         <v>167</v>
       </c>
@@ -9817,7 +9822,7 @@
       </c>
       <c r="E261" s="25"/>
     </row>
-    <row r="262" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>171</v>
       </c>
@@ -9832,7 +9837,7 @@
       </c>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
         <v>175</v>
       </c>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="E263" s="25"/>
     </row>
-    <row r="264" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
         <v>179</v>
       </c>
@@ -9862,7 +9867,7 @@
       </c>
       <c r="E264" s="25"/>
     </row>
-    <row r="265" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
         <v>183</v>
       </c>
@@ -9877,7 +9882,7 @@
       </c>
       <c r="E265" s="25"/>
     </row>
-    <row r="266" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A266" s="9" t="s">
         <v>187</v>
       </c>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="E266" s="25"/>
     </row>
-    <row r="267" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A267" s="9" t="s">
         <v>191</v>
       </c>
@@ -9907,7 +9912,7 @@
       </c>
       <c r="E267" s="25"/>
     </row>
-    <row r="268" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
         <v>195</v>
       </c>
@@ -9922,7 +9927,7 @@
       </c>
       <c r="E268" s="25"/>
     </row>
-    <row r="269" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A269" s="9" t="s">
         <v>199</v>
       </c>
@@ -9937,7 +9942,7 @@
       </c>
       <c r="E269" s="25"/>
     </row>
-    <row r="270" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
         <v>740</v>
       </c>
@@ -9952,7 +9957,7 @@
       </c>
       <c r="E270" s="25"/>
     </row>
-    <row r="271" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
         <v>744</v>
       </c>
@@ -9967,7 +9972,7 @@
       </c>
       <c r="E271" s="25"/>
     </row>
-    <row r="272" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A272" s="9" t="s">
         <v>748</v>
       </c>
@@ -9982,7 +9987,7 @@
       </c>
       <c r="E272" s="25"/>
     </row>
-    <row r="273" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
         <v>752</v>
       </c>
@@ -9997,7 +10002,7 @@
       </c>
       <c r="E273" s="25"/>
     </row>
-    <row r="274" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A274" s="9" t="s">
         <v>756</v>
       </c>
@@ -10012,7 +10017,7 @@
       </c>
       <c r="E274" s="25"/>
     </row>
-    <row r="275" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A275" s="9" t="s">
         <v>760</v>
       </c>
@@ -10027,7 +10032,7 @@
       </c>
       <c r="E275" s="25"/>
     </row>
-    <row r="276" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A276" s="9" t="s">
         <v>764</v>
       </c>
@@ -10042,7 +10047,7 @@
       </c>
       <c r="E276" s="25"/>
     </row>
-    <row r="277" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A277" s="9" t="s">
         <v>768</v>
       </c>
@@ -10057,7 +10062,7 @@
       </c>
       <c r="E277" s="25"/>
     </row>
-    <row r="278" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A278" s="9" t="s">
         <v>772</v>
       </c>
@@ -10072,7 +10077,7 @@
       </c>
       <c r="E278" s="25"/>
     </row>
-    <row r="279" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
         <v>776</v>
       </c>
@@ -10087,25 +10092,25 @@
       </c>
       <c r="E279" s="25"/>
     </row>
-    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="51" t="s">
+    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="50" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="51"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
+      <c r="B280" s="50"/>
+      <c r="C280" s="50"/>
+      <c r="D280" s="50"/>
+      <c r="E280" s="50"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="52"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="52"/>
-      <c r="E281" s="52"/>
+    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="51"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>0</v>
       </c>
@@ -10122,7 +10127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
         <v>5</v>
       </c>
@@ -10137,7 +10142,7 @@
       </c>
       <c r="E283" s="25"/>
     </row>
-    <row r="284" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -10152,7 +10157,7 @@
       </c>
       <c r="E284" s="25"/>
     </row>
-    <row r="285" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
         <v>13</v>
       </c>
@@ -10167,7 +10172,7 @@
       </c>
       <c r="E285" s="25"/>
     </row>
-    <row r="286" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
         <v>17</v>
       </c>
@@ -10182,7 +10187,7 @@
       </c>
       <c r="E286" s="25"/>
     </row>
-    <row r="287" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A287" s="9" t="s">
         <v>35</v>
       </c>
@@ -10197,7 +10202,7 @@
       </c>
       <c r="E287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
         <v>39</v>
       </c>
@@ -10212,7 +10217,7 @@
       </c>
       <c r="E288" s="25"/>
     </row>
-    <row r="289" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
         <v>43</v>
       </c>
@@ -10227,7 +10232,7 @@
       </c>
       <c r="E289" s="25"/>
     </row>
-    <row r="290" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A290" s="9" t="s">
         <v>47</v>
       </c>
@@ -10242,7 +10247,7 @@
       </c>
       <c r="E290" s="25"/>
     </row>
-    <row r="291" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A291" s="9" t="s">
         <v>51</v>
       </c>
@@ -10257,7 +10262,7 @@
       </c>
       <c r="E291" s="25"/>
     </row>
-    <row r="292" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A292" s="9" t="s">
         <v>55</v>
       </c>
@@ -10272,7 +10277,7 @@
       </c>
       <c r="E292" s="25"/>
     </row>
-    <row r="293" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A293" s="9" t="s">
         <v>59</v>
       </c>
@@ -10287,7 +10292,7 @@
       </c>
       <c r="E293" s="25"/>
     </row>
-    <row r="294" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A294" s="9" t="s">
         <v>63</v>
       </c>
@@ -10302,7 +10307,7 @@
       </c>
       <c r="E294" s="25"/>
     </row>
-    <row r="295" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A295" s="9" t="s">
         <v>67</v>
       </c>
@@ -10317,7 +10322,7 @@
       </c>
       <c r="E295" s="25"/>
     </row>
-    <row r="296" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A296" s="9" t="s">
         <v>71</v>
       </c>
@@ -10332,10 +10337,10 @@
       </c>
       <c r="E296" s="25"/>
     </row>
-    <row r="297" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A297" s="9"/>
     </row>
-    <row r="298" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A298" s="9" t="s">
         <v>79</v>
       </c>
@@ -10350,7 +10355,7 @@
       </c>
       <c r="E298" s="25"/>
     </row>
-    <row r="299" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A299" s="9" t="s">
         <v>83</v>
       </c>
@@ -10365,7 +10370,7 @@
       </c>
       <c r="E299" s="25"/>
     </row>
-    <row r="300" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A300" s="9" t="s">
         <v>87</v>
       </c>
@@ -10380,7 +10385,7 @@
       </c>
       <c r="E300" s="25"/>
     </row>
-    <row r="301" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>91</v>
       </c>
@@ -10395,7 +10400,7 @@
       </c>
       <c r="E301" s="25"/>
     </row>
-    <row r="302" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A302" s="9" t="s">
         <v>95</v>
       </c>
@@ -10410,7 +10415,7 @@
       </c>
       <c r="E302" s="25"/>
     </row>
-    <row r="303" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A303" s="9" t="s">
         <v>99</v>
       </c>
@@ -10425,7 +10430,7 @@
       </c>
       <c r="E303" s="25"/>
     </row>
-    <row r="304" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A304" s="9" t="s">
         <v>103</v>
       </c>
@@ -10440,7 +10445,7 @@
       </c>
       <c r="E304" s="25"/>
     </row>
-    <row r="305" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A305" s="9" t="s">
         <v>107</v>
       </c>
@@ -10455,7 +10460,7 @@
       </c>
       <c r="E305" s="25"/>
     </row>
-    <row r="306" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A306" s="9" t="s">
         <v>111</v>
       </c>
@@ -10470,7 +10475,7 @@
       </c>
       <c r="E306" s="25"/>
     </row>
-    <row r="307" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A307" s="9" t="s">
         <v>115</v>
       </c>
@@ -10485,7 +10490,7 @@
       </c>
       <c r="E307" s="25"/>
     </row>
-    <row r="308" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A308" s="9" t="s">
         <v>119</v>
       </c>
@@ -10500,7 +10505,7 @@
       </c>
       <c r="E308" s="25"/>
     </row>
-    <row r="309" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A309" s="9" t="s">
         <v>123</v>
       </c>
@@ -10515,7 +10520,7 @@
       </c>
       <c r="E309" s="25"/>
     </row>
-    <row r="310" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A310" s="9" t="s">
         <v>127</v>
       </c>
@@ -10530,7 +10535,7 @@
       </c>
       <c r="E310" s="25"/>
     </row>
-    <row r="311" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A311" s="9" t="s">
         <v>131</v>
       </c>
@@ -10545,7 +10550,7 @@
       </c>
       <c r="E311" s="25"/>
     </row>
-    <row r="312" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>135</v>
       </c>
@@ -10560,7 +10565,7 @@
       </c>
       <c r="E312" s="25"/>
     </row>
-    <row r="313" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A313" s="9" t="s">
         <v>139</v>
       </c>
@@ -10575,7 +10580,7 @@
       </c>
       <c r="E313" s="25"/>
     </row>
-    <row r="314" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>143</v>
       </c>
@@ -10590,7 +10595,7 @@
       </c>
       <c r="E314" s="25"/>
     </row>
-    <row r="315" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A315" s="9" t="s">
         <v>147</v>
       </c>
@@ -10605,7 +10610,7 @@
       </c>
       <c r="E315" s="25"/>
     </row>
-    <row r="316" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A316" s="9" t="s">
         <v>151</v>
       </c>
@@ -10620,7 +10625,7 @@
       </c>
       <c r="E316" s="25"/>
     </row>
-    <row r="317" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A317" s="9" t="s">
         <v>155</v>
       </c>
@@ -10635,7 +10640,7 @@
       </c>
       <c r="E317" s="25"/>
     </row>
-    <row r="318" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A318" s="9" t="s">
         <v>159</v>
       </c>
@@ -10650,7 +10655,7 @@
       </c>
       <c r="E318" s="25"/>
     </row>
-    <row r="319" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A319" s="9" t="s">
         <v>163</v>
       </c>
@@ -10665,7 +10670,7 @@
       </c>
       <c r="E319" s="25"/>
     </row>
-    <row r="320" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>167</v>
       </c>
@@ -10680,7 +10685,7 @@
       </c>
       <c r="E320" s="25"/>
     </row>
-    <row r="321" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A321" s="9" t="s">
         <v>171</v>
       </c>
@@ -10695,7 +10700,7 @@
       </c>
       <c r="E321" s="25"/>
     </row>
-    <row r="322" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A322" s="9" t="s">
         <v>175</v>
       </c>
@@ -10710,7 +10715,7 @@
       </c>
       <c r="E322" s="25"/>
     </row>
-    <row r="323" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A323" s="9" t="s">
         <v>179</v>
       </c>
@@ -10725,7 +10730,7 @@
       </c>
       <c r="E323" s="25"/>
     </row>
-    <row r="324" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A324" s="9" t="s">
         <v>183</v>
       </c>
@@ -10740,7 +10745,7 @@
       </c>
       <c r="E324" s="25"/>
     </row>
-    <row r="325" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A325" s="9" t="s">
         <v>187</v>
       </c>
@@ -10755,7 +10760,7 @@
       </c>
       <c r="E325" s="25"/>
     </row>
-    <row r="326" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A326" s="9" t="s">
         <v>191</v>
       </c>
@@ -10770,7 +10775,7 @@
       </c>
       <c r="E326" s="25"/>
     </row>
-    <row r="327" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A327" s="9" t="s">
         <v>195</v>
       </c>
@@ -10785,7 +10790,7 @@
       </c>
       <c r="E327" s="25"/>
     </row>
-    <row r="328" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A328" s="9" t="s">
         <v>199</v>
       </c>
@@ -10800,7 +10805,7 @@
       </c>
       <c r="E328" s="25"/>
     </row>
-    <row r="329" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A329" s="9" t="s">
         <v>740</v>
       </c>
@@ -10815,7 +10820,7 @@
       </c>
       <c r="E329" s="25"/>
     </row>
-    <row r="330" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A330" s="9" t="s">
         <v>744</v>
       </c>
@@ -10830,7 +10835,7 @@
       </c>
       <c r="E330" s="25"/>
     </row>
-    <row r="331" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A331" s="9" t="s">
         <v>748</v>
       </c>
@@ -10845,7 +10850,7 @@
       </c>
       <c r="E331" s="25"/>
     </row>
-    <row r="332" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A332" s="9" t="s">
         <v>752</v>
       </c>
@@ -10860,7 +10865,7 @@
       </c>
       <c r="E332" s="25"/>
     </row>
-    <row r="333" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A333" s="9" t="s">
         <v>756</v>
       </c>
@@ -10875,7 +10880,7 @@
       </c>
       <c r="E333" s="25"/>
     </row>
-    <row r="334" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A334" s="9" t="s">
         <v>760</v>
       </c>
@@ -10890,7 +10895,7 @@
       </c>
       <c r="E334" s="25"/>
     </row>
-    <row r="335" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A335" s="9" t="s">
         <v>764</v>
       </c>
@@ -10905,7 +10910,7 @@
       </c>
       <c r="E335" s="25"/>
     </row>
-    <row r="336" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A336" s="9" t="s">
         <v>768</v>
       </c>
@@ -10920,7 +10925,7 @@
       </c>
       <c r="E336" s="25"/>
     </row>
-    <row r="337" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A337" s="9" t="s">
         <v>772</v>
       </c>
@@ -10935,7 +10940,7 @@
       </c>
       <c r="E337" s="25"/>
     </row>
-    <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A338" s="12">
         <v>55</v>
       </c>
@@ -10952,7 +10957,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
         <v>776</v>
       </c>
@@ -10967,7 +10972,7 @@
       </c>
       <c r="E339" s="25"/>
     </row>
-    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A340" s="9" t="s">
         <v>892</v>
       </c>
@@ -10982,7 +10987,7 @@
       </c>
       <c r="E340" s="25"/>
     </row>
-    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A341" s="9" t="s">
         <v>895</v>
       </c>
@@ -10997,7 +11002,7 @@
       </c>
       <c r="E341" s="25"/>
     </row>
-    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A342" s="9" t="s">
         <v>898</v>
       </c>
@@ -11012,7 +11017,7 @@
       </c>
       <c r="E342" s="25"/>
     </row>
-    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A343" s="12" t="s">
         <v>901</v>
       </c>
@@ -11029,7 +11034,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
         <v>904</v>
       </c>
@@ -11044,7 +11049,7 @@
       </c>
       <c r="E344" s="25"/>
     </row>
-    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A345" s="9" t="s">
         <v>907</v>
       </c>
@@ -11059,7 +11064,7 @@
       </c>
       <c r="E345" s="25"/>
     </row>
-    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A346" s="9" t="s">
         <v>910</v>
       </c>
@@ -11074,7 +11079,7 @@
       </c>
       <c r="E346" s="25"/>
     </row>
-    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A347" s="9" t="s">
         <v>913</v>
       </c>
@@ -11089,7 +11094,7 @@
       </c>
       <c r="E347" s="25"/>
     </row>
-    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A348" s="9" t="s">
         <v>916</v>
       </c>
@@ -11104,7 +11109,7 @@
       </c>
       <c r="E348" s="25"/>
     </row>
-    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A349" s="9" t="s">
         <v>919</v>
       </c>
@@ -11119,7 +11124,7 @@
       </c>
       <c r="E349" s="25"/>
     </row>
-    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A350" s="9" t="s">
         <v>922</v>
       </c>
@@ -11134,7 +11139,7 @@
       </c>
       <c r="E350" s="25"/>
     </row>
-    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A351" s="9" t="s">
         <v>925</v>
       </c>
@@ -11149,7 +11154,7 @@
       </c>
       <c r="E351" s="25"/>
     </row>
-    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A352" s="9" t="s">
         <v>928</v>
       </c>
@@ -11164,7 +11169,7 @@
       </c>
       <c r="E352" s="25"/>
     </row>
-    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A353" s="9" t="s">
         <v>931</v>
       </c>
@@ -11179,7 +11184,7 @@
       </c>
       <c r="E353" s="25"/>
     </row>
-    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A354" s="9" t="s">
         <v>934</v>
       </c>
@@ -11194,7 +11199,7 @@
       </c>
       <c r="E354" s="25"/>
     </row>
-    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A355" s="9" t="s">
         <v>937</v>
       </c>
@@ -11209,7 +11214,7 @@
       </c>
       <c r="E355" s="25"/>
     </row>
-    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A356" s="9" t="s">
         <v>940</v>
       </c>
@@ -11224,7 +11229,7 @@
       </c>
       <c r="E356" s="25"/>
     </row>
-    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A357" s="9" t="s">
         <v>943</v>
       </c>
@@ -11239,7 +11244,7 @@
       </c>
       <c r="E357" s="25"/>
     </row>
-    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A358" s="9" t="s">
         <v>946</v>
       </c>
@@ -11254,7 +11259,7 @@
       </c>
       <c r="E358" s="25"/>
     </row>
-    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A359" s="9" t="s">
         <v>949</v>
       </c>
@@ -11269,7 +11274,7 @@
       </c>
       <c r="E359" s="25"/>
     </row>
-    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A360" s="9" t="s">
         <v>952</v>
       </c>
@@ -11284,7 +11289,7 @@
       </c>
       <c r="E360" s="25"/>
     </row>
-    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A361" s="9" t="s">
         <v>955</v>
       </c>
@@ -11299,7 +11304,7 @@
       </c>
       <c r="E361" s="25"/>
     </row>
-    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A362" s="9" t="s">
         <v>958</v>
       </c>
@@ -11314,7 +11319,7 @@
       </c>
       <c r="E362" s="25"/>
     </row>
-    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A363" s="9" t="s">
         <v>961</v>
       </c>
@@ -11329,7 +11334,7 @@
       </c>
       <c r="E363" s="25"/>
     </row>
-    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A364" s="9" t="s">
         <v>964</v>
       </c>
@@ -11344,7 +11349,7 @@
       </c>
       <c r="E364" s="25"/>
     </row>
-    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A365" s="9" t="s">
         <v>967</v>
       </c>
@@ -11359,7 +11364,7 @@
       </c>
       <c r="E365" s="25"/>
     </row>
-    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A366" s="9" t="s">
         <v>970</v>
       </c>
@@ -11374,7 +11379,7 @@
       </c>
       <c r="E366" s="25"/>
     </row>
-    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A367" s="9" t="s">
         <v>973</v>
       </c>
@@ -11389,7 +11394,7 @@
       </c>
       <c r="E367" s="25"/>
     </row>
-    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A368" s="9" t="s">
         <v>976</v>
       </c>
@@ -11404,7 +11409,7 @@
       </c>
       <c r="E368" s="25"/>
     </row>
-    <row r="369" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A369" s="9" t="s">
         <v>979</v>
       </c>
@@ -11419,7 +11424,7 @@
       </c>
       <c r="E369" s="25"/>
     </row>
-    <row r="370" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>982</v>
       </c>
@@ -11434,7 +11439,7 @@
       </c>
       <c r="E370" s="25"/>
     </row>
-    <row r="371" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A371" s="9" t="s">
         <v>985</v>
       </c>
@@ -11449,7 +11454,7 @@
       </c>
       <c r="E371" s="25"/>
     </row>
-    <row r="372" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>988</v>
       </c>
@@ -11464,7 +11469,7 @@
       </c>
       <c r="E372" s="25"/>
     </row>
-    <row r="373" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A373" s="12" t="s">
         <v>992</v>
       </c>
@@ -11479,7 +11484,7 @@
       </c>
       <c r="E373" s="25"/>
     </row>
-    <row r="374" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A374" s="9" t="s">
         <v>996</v>
       </c>
@@ -11494,7 +11499,7 @@
       </c>
       <c r="E374" s="25"/>
     </row>
-    <row r="375" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A375" s="9" t="s">
         <v>1000</v>
       </c>
@@ -11509,7 +11514,7 @@
       </c>
       <c r="E375" s="25"/>
     </row>
-    <row r="376" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A376" s="9" t="s">
         <v>1004</v>
       </c>
@@ -11524,7 +11529,7 @@
       </c>
       <c r="E376" s="25"/>
     </row>
-    <row r="377" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A377" s="9" t="s">
         <v>1008</v>
       </c>
@@ -11539,7 +11544,7 @@
       </c>
       <c r="E377" s="25"/>
     </row>
-    <row r="378" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A378" s="12" t="s">
         <v>1012</v>
       </c>
@@ -11554,7 +11559,7 @@
       </c>
       <c r="E378" s="25"/>
     </row>
-    <row r="379" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>1016</v>
       </c>
@@ -11569,7 +11574,7 @@
       </c>
       <c r="E379" s="25"/>
     </row>
-    <row r="380" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>1020</v>
       </c>
@@ -11584,7 +11589,7 @@
       </c>
       <c r="E380" s="25"/>
     </row>
-    <row r="381" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>1023</v>
       </c>
@@ -11602,7 +11607,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A382" s="9" t="s">
         <v>1026</v>
       </c>
@@ -11617,7 +11622,7 @@
       </c>
       <c r="E382" s="25"/>
     </row>
-    <row r="383" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A383" s="9" t="s">
         <v>1029</v>
       </c>
@@ -11632,7 +11637,7 @@
       </c>
       <c r="E383" s="25"/>
     </row>
-    <row r="384" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A384" s="9" t="s">
         <v>1032</v>
       </c>
@@ -11647,7 +11652,7 @@
       </c>
       <c r="E384" s="25"/>
     </row>
-    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A385" s="9" t="s">
         <v>1035</v>
       </c>
@@ -11662,7 +11667,7 @@
       </c>
       <c r="E385" s="25"/>
     </row>
-    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A386" s="9" t="s">
         <v>1038</v>
       </c>
@@ -11677,7 +11682,7 @@
       </c>
       <c r="E386" s="25"/>
     </row>
-    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A387" s="12" t="s">
         <v>1041</v>
       </c>
@@ -11692,7 +11697,7 @@
       </c>
       <c r="E387" s="25"/>
     </row>
-    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A388" s="9" t="s">
         <v>1044</v>
       </c>
@@ -11707,7 +11712,7 @@
       </c>
       <c r="E388" s="25"/>
     </row>
-    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A389" s="12" t="s">
         <v>1047</v>
       </c>
@@ -11722,7 +11727,7 @@
       </c>
       <c r="E389" s="25"/>
     </row>
-    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A390" s="9" t="s">
         <v>1050</v>
       </c>
@@ -11737,7 +11742,7 @@
       </c>
       <c r="E390" s="25"/>
     </row>
-    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A391" s="9" t="s">
         <v>1053</v>
       </c>
@@ -11752,7 +11757,7 @@
       </c>
       <c r="E391" s="25"/>
     </row>
-    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A392" s="9" t="s">
         <v>1056</v>
       </c>
@@ -11767,7 +11772,7 @@
       </c>
       <c r="E392" s="25"/>
     </row>
-    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A393" s="9" t="s">
         <v>1059</v>
       </c>
@@ -11782,7 +11787,7 @@
       </c>
       <c r="E393" s="25"/>
     </row>
-    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A394" s="9" t="s">
         <v>1062</v>
       </c>
@@ -11797,7 +11802,7 @@
       </c>
       <c r="E394" s="25"/>
     </row>
-    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A395" s="9" t="s">
         <v>1065</v>
       </c>
@@ -11812,7 +11817,7 @@
       </c>
       <c r="E395" s="25"/>
     </row>
-    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A396" s="9" t="s">
         <v>1068</v>
       </c>
@@ -11827,7 +11832,7 @@
       </c>
       <c r="E396" s="25"/>
     </row>
-    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A397" s="9" t="s">
         <v>1071</v>
       </c>
@@ -11842,7 +11847,7 @@
       </c>
       <c r="E397" s="25"/>
     </row>
-    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A398" s="9" t="s">
         <v>1074</v>
       </c>
@@ -11857,7 +11862,7 @@
       </c>
       <c r="E398" s="25"/>
     </row>
-    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A399" s="9" t="s">
         <v>1077</v>
       </c>
@@ -11872,7 +11877,7 @@
       </c>
       <c r="E399" s="25"/>
     </row>
-    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A400" s="9" t="s">
         <v>1080</v>
       </c>
@@ -11887,7 +11892,7 @@
       </c>
       <c r="E400" s="25"/>
     </row>
-    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A401" s="9" t="s">
         <v>1083</v>
       </c>
@@ -11902,7 +11907,7 @@
       </c>
       <c r="E401" s="25"/>
     </row>
-    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A402" s="9" t="s">
         <v>1086</v>
       </c>
@@ -11917,7 +11922,7 @@
       </c>
       <c r="E402" s="25"/>
     </row>
-    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A403" s="9" t="s">
         <v>1089</v>
       </c>
@@ -11932,7 +11937,7 @@
       </c>
       <c r="E403" s="25"/>
     </row>
-    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A404" s="9" t="s">
         <v>1092</v>
       </c>
@@ -11947,7 +11952,7 @@
       </c>
       <c r="E404" s="25"/>
     </row>
-    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A405" s="9" t="s">
         <v>1096</v>
       </c>
@@ -11962,7 +11967,7 @@
       </c>
       <c r="E405" s="25"/>
     </row>
-    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A406" s="9" t="s">
         <v>1100</v>
       </c>
@@ -11977,7 +11982,7 @@
       </c>
       <c r="E406" s="25"/>
     </row>
-    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A407" s="12" t="s">
         <v>1102</v>
       </c>
@@ -11992,7 +11997,7 @@
       </c>
       <c r="E407" s="25"/>
     </row>
-    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A408" s="9" t="s">
         <v>1105</v>
       </c>
@@ -12007,7 +12012,7 @@
       </c>
       <c r="E408" s="25"/>
     </row>
-    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A409" s="9" t="s">
         <v>1108</v>
       </c>
@@ -12022,7 +12027,7 @@
       </c>
       <c r="E409" s="25"/>
     </row>
-    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A410" s="9" t="s">
         <v>1111</v>
       </c>
@@ -12037,7 +12042,7 @@
       </c>
       <c r="E410" s="25"/>
     </row>
-    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A411" s="9" t="s">
         <v>1114</v>
       </c>
@@ -12052,7 +12057,7 @@
       </c>
       <c r="E411" s="25"/>
     </row>
-    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A412" s="9" t="s">
         <v>1117</v>
       </c>
@@ -12067,7 +12072,7 @@
       </c>
       <c r="E412" s="25"/>
     </row>
-    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A413" s="9" t="s">
         <v>1120</v>
       </c>
@@ -12082,7 +12087,7 @@
       </c>
       <c r="E413" s="25"/>
     </row>
-    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A414" s="9" t="s">
         <v>1123</v>
       </c>
@@ -12097,7 +12102,7 @@
       </c>
       <c r="E414" s="25"/>
     </row>
-    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A415" s="9" t="s">
         <v>1126</v>
       </c>
@@ -12112,7 +12117,7 @@
       </c>
       <c r="E415" s="25"/>
     </row>
-    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A416" s="9" t="s">
         <v>1129</v>
       </c>
@@ -12127,7 +12132,7 @@
       </c>
       <c r="E416" s="25"/>
     </row>
-    <row r="417" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A417" s="9" t="s">
         <v>1132</v>
       </c>
@@ -12142,7 +12147,7 @@
       </c>
       <c r="E417" s="25"/>
     </row>
-    <row r="418" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A418" s="9" t="s">
         <v>1135</v>
       </c>
@@ -12157,7 +12162,7 @@
       </c>
       <c r="E418" s="25"/>
     </row>
-    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A419" s="9" t="s">
         <v>1138</v>
       </c>
@@ -12172,7 +12177,7 @@
       </c>
       <c r="E419" s="25"/>
     </row>
-    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A420" s="9" t="s">
         <v>1141</v>
       </c>
@@ -12187,7 +12192,7 @@
       </c>
       <c r="E420" s="25"/>
     </row>
-    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A421" s="9" t="s">
         <v>1144</v>
       </c>
@@ -12202,7 +12207,7 @@
       </c>
       <c r="E421" s="25"/>
     </row>
-    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A422" s="9" t="s">
         <v>1148</v>
       </c>
@@ -12217,7 +12222,7 @@
       </c>
       <c r="E422" s="25"/>
     </row>
-    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A423" s="9" t="s">
         <v>1152</v>
       </c>
@@ -12232,7 +12237,7 @@
       </c>
       <c r="E423" s="25"/>
     </row>
-    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A424" s="9" t="s">
         <v>1156</v>
       </c>
@@ -12247,7 +12252,7 @@
       </c>
       <c r="E424" s="25"/>
     </row>
-    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A425" s="9" t="s">
         <v>1160</v>
       </c>
@@ -12262,7 +12267,7 @@
       </c>
       <c r="E425" s="25"/>
     </row>
-    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A426" s="9" t="s">
         <v>1164</v>
       </c>
@@ -12277,7 +12282,7 @@
       </c>
       <c r="E426" s="25"/>
     </row>
-    <row r="427" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A427" s="9" t="s">
         <v>1168</v>
       </c>
@@ -12292,7 +12297,7 @@
       </c>
       <c r="E427" s="25"/>
     </row>
-    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="9" t="s">
         <v>1719</v>
       </c>
@@ -12307,25 +12312,25 @@
       </c>
       <c r="E428" s="25"/>
     </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="50" t="s">
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="52" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="50"/>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50"/>
-      <c r="E429" s="50"/>
+      <c r="B429" s="52"/>
+      <c r="C429" s="52"/>
+      <c r="D429" s="52"/>
+      <c r="E429" s="52"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="51"/>
-      <c r="B430" s="51"/>
-      <c r="C430" s="51"/>
-      <c r="D430" s="51"/>
-      <c r="E430" s="51"/>
+    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="50"/>
+      <c r="B430" s="50"/>
+      <c r="C430" s="50"/>
+      <c r="D430" s="50"/>
+      <c r="E430" s="50"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
         <v>0</v>
       </c>
@@ -12342,7 +12347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="9" t="s">
         <v>5</v>
       </c>
@@ -12357,7 +12362,7 @@
       </c>
       <c r="E433" s="25"/>
     </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="9" t="s">
         <v>9</v>
       </c>
@@ -12372,7 +12377,7 @@
       </c>
       <c r="E434" s="25"/>
     </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="9" t="s">
         <v>13</v>
       </c>
@@ -12387,7 +12392,7 @@
       </c>
       <c r="E435" s="25"/>
     </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="9" t="s">
         <v>17</v>
       </c>
@@ -12402,25 +12407,25 @@
       </c>
       <c r="E436" s="25"/>
     </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="50" t="s">
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="50"/>
-      <c r="C437" s="50"/>
-      <c r="D437" s="50"/>
-      <c r="E437" s="50"/>
+      <c r="B437" s="52"/>
+      <c r="C437" s="52"/>
+      <c r="D437" s="52"/>
+      <c r="E437" s="52"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="51"/>
-      <c r="B438" s="51"/>
-      <c r="C438" s="51"/>
-      <c r="D438" s="51"/>
-      <c r="E438" s="51"/>
+    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="50"/>
+      <c r="B438" s="50"/>
+      <c r="C438" s="50"/>
+      <c r="D438" s="50"/>
+      <c r="E438" s="50"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
         <v>0</v>
       </c>
@@ -12437,7 +12442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="9" t="s">
         <v>5</v>
       </c>
@@ -12452,7 +12457,7 @@
       </c>
       <c r="E441" s="25"/>
     </row>
-    <row r="442" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="9" t="s">
         <v>9</v>
       </c>
@@ -12467,7 +12472,7 @@
       </c>
       <c r="E442" s="25"/>
     </row>
-    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="9" t="s">
         <v>13</v>
       </c>
@@ -12482,7 +12487,7 @@
       </c>
       <c r="E443" s="25"/>
     </row>
-    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="9" t="s">
         <v>17</v>
       </c>
@@ -12497,7 +12502,7 @@
       </c>
       <c r="E444" s="25"/>
     </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="9" t="s">
         <v>35</v>
       </c>
@@ -12512,7 +12517,7 @@
       </c>
       <c r="E445" s="25"/>
     </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="9" t="s">
         <v>39</v>
       </c>
@@ -12527,7 +12532,7 @@
       </c>
       <c r="E446" s="25"/>
     </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="9" t="s">
         <v>43</v>
       </c>
@@ -12542,7 +12547,7 @@
       </c>
       <c r="E447" s="25"/>
     </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="9" t="s">
         <v>47</v>
       </c>
@@ -12557,7 +12562,7 @@
       </c>
       <c r="E448" s="25"/>
     </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="9" t="s">
         <v>51</v>
       </c>
@@ -12572,7 +12577,7 @@
       </c>
       <c r="E449" s="25"/>
     </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="9" t="s">
         <v>55</v>
       </c>
@@ -12587,7 +12592,7 @@
       </c>
       <c r="E450" s="25"/>
     </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="9" t="s">
         <v>59</v>
       </c>
@@ -12602,7 +12607,7 @@
       </c>
       <c r="E451" s="25"/>
     </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="9" t="s">
         <v>63</v>
       </c>
@@ -12617,7 +12622,7 @@
       </c>
       <c r="E452" s="25"/>
     </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="9" t="s">
         <v>67</v>
       </c>
@@ -12632,7 +12637,7 @@
       </c>
       <c r="E453" s="25"/>
     </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="9" t="s">
         <v>71</v>
       </c>
@@ -12647,7 +12652,7 @@
       </c>
       <c r="E454" s="25"/>
     </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="9" t="s">
         <v>75</v>
       </c>
@@ -12662,7 +12667,7 @@
       </c>
       <c r="E455" s="25"/>
     </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="9" t="s">
         <v>79</v>
       </c>
@@ -12677,7 +12682,7 @@
       </c>
       <c r="E456" s="25"/>
     </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="9" t="s">
         <v>83</v>
       </c>
@@ -12692,7 +12697,7 @@
       </c>
       <c r="E457" s="25"/>
     </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="9" t="s">
         <v>87</v>
       </c>
@@ -12707,7 +12712,7 @@
       </c>
       <c r="E458" s="25"/>
     </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="9" t="s">
         <v>91</v>
       </c>
@@ -12722,7 +12727,7 @@
       </c>
       <c r="E459" s="25"/>
     </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="9" t="s">
         <v>95</v>
       </c>
@@ -12737,7 +12742,7 @@
       </c>
       <c r="E460" s="25"/>
     </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="9" t="s">
         <v>99</v>
       </c>
@@ -12752,7 +12757,7 @@
       </c>
       <c r="E461" s="25"/>
     </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="9" t="s">
         <v>103</v>
       </c>
@@ -12767,7 +12772,7 @@
       </c>
       <c r="E462" s="25"/>
     </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="9" t="s">
         <v>107</v>
       </c>
@@ -12782,7 +12787,7 @@
       </c>
       <c r="E463" s="25"/>
     </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="9" t="s">
         <v>111</v>
       </c>
@@ -12797,7 +12802,7 @@
       </c>
       <c r="E464" s="25"/>
     </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="9" t="s">
         <v>115</v>
       </c>
@@ -12812,7 +12817,7 @@
       </c>
       <c r="E465" s="25"/>
     </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
@@ -12827,7 +12832,7 @@
       </c>
       <c r="E466" s="25"/>
     </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="9" t="s">
         <v>123</v>
       </c>
@@ -12842,7 +12847,7 @@
       </c>
       <c r="E467" s="25"/>
     </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
@@ -12857,7 +12862,7 @@
       </c>
       <c r="E468" s="25"/>
     </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
         <v>131</v>
       </c>
@@ -12872,7 +12877,7 @@
       </c>
       <c r="E469" s="25"/>
     </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
@@ -12887,7 +12892,7 @@
       </c>
       <c r="E470" s="25"/>
     </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>139</v>
       </c>
@@ -12902,7 +12907,7 @@
       </c>
       <c r="E471" s="25"/>
     </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
@@ -12917,7 +12922,7 @@
       </c>
       <c r="E472" s="25"/>
     </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="9" t="s">
         <v>147</v>
       </c>
@@ -12932,7 +12937,7 @@
       </c>
       <c r="E473" s="25"/>
     </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
@@ -12947,7 +12952,7 @@
       </c>
       <c r="E474" s="25"/>
     </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="9" t="s">
         <v>155</v>
       </c>
@@ -12962,7 +12967,7 @@
       </c>
       <c r="E475" s="25"/>
     </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
@@ -12977,7 +12982,7 @@
       </c>
       <c r="E476" s="25"/>
     </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>163</v>
       </c>
@@ -12992,7 +12997,7 @@
       </c>
       <c r="E477" s="25"/>
     </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
@@ -13007,7 +13012,7 @@
       </c>
       <c r="E478" s="25"/>
     </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>171</v>
       </c>
@@ -13022,7 +13027,7 @@
       </c>
       <c r="E479" s="25"/>
     </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
@@ -13037,7 +13042,7 @@
       </c>
       <c r="E480" s="25"/>
     </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="9" t="s">
         <v>179</v>
       </c>
@@ -13052,7 +13057,7 @@
       </c>
       <c r="E481" s="25"/>
     </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="9" t="s">
         <v>183</v>
       </c>
@@ -13067,7 +13072,7 @@
       </c>
       <c r="E482" s="25"/>
     </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="9" t="s">
         <v>187</v>
       </c>
@@ -13082,7 +13087,7 @@
       </c>
       <c r="E483" s="25"/>
     </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="9" t="s">
         <v>191</v>
       </c>
@@ -13097,7 +13102,7 @@
       </c>
       <c r="E484" s="25"/>
     </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="9" t="s">
         <v>195</v>
       </c>
@@ -13112,7 +13117,7 @@
       </c>
       <c r="E485" s="25"/>
     </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="9" t="s">
         <v>199</v>
       </c>
@@ -13127,7 +13132,7 @@
       </c>
       <c r="E486" s="25"/>
     </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="9" t="s">
         <v>740</v>
       </c>
@@ -13142,7 +13147,7 @@
       </c>
       <c r="E487" s="25"/>
     </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="9" t="s">
         <v>744</v>
       </c>
@@ -13157,7 +13162,7 @@
       </c>
       <c r="E488" s="25"/>
     </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="9" t="s">
         <v>748</v>
       </c>
@@ -13172,25 +13177,25 @@
       </c>
       <c r="E489" s="25"/>
     </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="50" t="s">
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="52" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="50"/>
-      <c r="C490" s="50"/>
-      <c r="D490" s="50"/>
-      <c r="E490" s="50"/>
+      <c r="B490" s="52"/>
+      <c r="C490" s="52"/>
+      <c r="D490" s="52"/>
+      <c r="E490" s="52"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="51"/>
-      <c r="B491" s="51"/>
-      <c r="C491" s="51"/>
-      <c r="D491" s="51"/>
-      <c r="E491" s="51"/>
+    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="50"/>
+      <c r="B491" s="50"/>
+      <c r="C491" s="50"/>
+      <c r="D491" s="50"/>
+      <c r="E491" s="50"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -13207,7 +13212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="12" t="s">
         <v>5</v>
       </c>
@@ -13224,7 +13229,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="12" t="s">
         <v>9</v>
       </c>
@@ -13239,7 +13244,7 @@
       </c>
       <c r="E495" s="24"/>
     </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="9" t="s">
         <v>13</v>
       </c>
@@ -13254,7 +13259,7 @@
       </c>
       <c r="E496" s="25"/>
     </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="9" t="s">
         <v>17</v>
       </c>
@@ -13269,7 +13274,7 @@
       </c>
       <c r="E497" s="25"/>
     </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="9" t="s">
         <v>35</v>
       </c>
@@ -13284,7 +13289,7 @@
       </c>
       <c r="E498" s="25"/>
     </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
@@ -13299,7 +13304,7 @@
       </c>
       <c r="E499" s="25"/>
     </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="12" t="s">
         <v>43</v>
       </c>
@@ -13316,7 +13321,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12" t="s">
         <v>47</v>
       </c>
@@ -13333,7 +13338,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="9" t="s">
         <v>51</v>
       </c>
@@ -13348,7 +13353,7 @@
       </c>
       <c r="E502" s="25"/>
     </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="9" t="s">
         <v>55</v>
       </c>
@@ -13363,7 +13368,7 @@
       </c>
       <c r="E503" s="25"/>
     </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="9" t="s">
         <v>59</v>
       </c>
@@ -13378,7 +13383,7 @@
       </c>
       <c r="E504" s="25"/>
     </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="9" t="s">
         <v>63</v>
       </c>
@@ -13393,7 +13398,7 @@
       </c>
       <c r="E505" s="25"/>
     </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="9" t="s">
         <v>67</v>
       </c>
@@ -13408,7 +13413,7 @@
       </c>
       <c r="E506" s="25"/>
     </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="9" t="s">
         <v>71</v>
       </c>
@@ -13423,7 +13428,7 @@
       </c>
       <c r="E507" s="25"/>
     </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="9" t="s">
         <v>75</v>
       </c>
@@ -13438,7 +13443,7 @@
       </c>
       <c r="E508" s="25"/>
     </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="9" t="s">
         <v>79</v>
       </c>
@@ -13453,7 +13458,7 @@
       </c>
       <c r="E509" s="25"/>
     </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="9" t="s">
         <v>83</v>
       </c>
@@ -13468,7 +13473,7 @@
       </c>
       <c r="E510" s="25"/>
     </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="9" t="s">
         <v>87</v>
       </c>
@@ -13483,7 +13488,7 @@
       </c>
       <c r="E511" s="25"/>
     </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="9" t="s">
         <v>91</v>
       </c>
@@ -13498,7 +13503,7 @@
       </c>
       <c r="E512" s="25"/>
     </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="9" t="s">
         <v>95</v>
       </c>
@@ -13513,7 +13518,7 @@
       </c>
       <c r="E513" s="25"/>
     </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="9" t="s">
         <v>99</v>
       </c>
@@ -13528,7 +13533,7 @@
       </c>
       <c r="E514" s="25"/>
     </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="9" t="s">
         <v>103</v>
       </c>
@@ -13543,7 +13548,7 @@
       </c>
       <c r="E515" s="25"/>
     </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="9" t="s">
         <v>107</v>
       </c>
@@ -13558,7 +13563,7 @@
       </c>
       <c r="E516" s="25"/>
     </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="9" t="s">
         <v>111</v>
       </c>
@@ -13573,7 +13578,7 @@
       </c>
       <c r="E517" s="25"/>
     </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="9" t="s">
         <v>115</v>
       </c>
@@ -13588,7 +13593,7 @@
       </c>
       <c r="E518" s="25"/>
     </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="9" t="s">
         <v>119</v>
       </c>
@@ -13603,7 +13608,7 @@
       </c>
       <c r="E519" s="25"/>
     </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="9" t="s">
         <v>123</v>
       </c>
@@ -13618,7 +13623,7 @@
       </c>
       <c r="E520" s="25"/>
     </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="9" t="s">
         <v>127</v>
       </c>
@@ -13633,7 +13638,7 @@
       </c>
       <c r="E521" s="25"/>
     </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="9" t="s">
         <v>131</v>
       </c>
@@ -13648,7 +13653,7 @@
       </c>
       <c r="E522" s="25"/>
     </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="9" t="s">
         <v>135</v>
       </c>
@@ -13663,7 +13668,7 @@
       </c>
       <c r="E523" s="25"/>
     </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="9" t="s">
         <v>139</v>
       </c>
@@ -13678,7 +13683,7 @@
       </c>
       <c r="E524" s="25"/>
     </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="9" t="s">
         <v>143</v>
       </c>
@@ -13693,7 +13698,7 @@
       </c>
       <c r="E525" s="25"/>
     </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="9" t="s">
         <v>147</v>
       </c>
@@ -13708,7 +13713,7 @@
       </c>
       <c r="E526" s="25"/>
     </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="9" t="s">
         <v>151</v>
       </c>
@@ -13723,25 +13728,25 @@
       </c>
       <c r="E527" s="25"/>
     </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="50" t="s">
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="52" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="50"/>
-      <c r="C528" s="50"/>
-      <c r="D528" s="50"/>
-      <c r="E528" s="50"/>
+      <c r="B528" s="52"/>
+      <c r="C528" s="52"/>
+      <c r="D528" s="52"/>
+      <c r="E528" s="52"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="51"/>
-      <c r="B529" s="51"/>
-      <c r="C529" s="51"/>
-      <c r="D529" s="51"/>
-      <c r="E529" s="51"/>
+    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="50"/>
+      <c r="B529" s="50"/>
+      <c r="C529" s="50"/>
+      <c r="D529" s="50"/>
+      <c r="E529" s="50"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="7" t="s">
         <v>0</v>
       </c>
@@ -13758,7 +13763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="9" t="s">
         <v>5</v>
       </c>
@@ -13773,7 +13778,7 @@
       </c>
       <c r="E532" s="25"/>
     </row>
-    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="9" t="s">
         <v>9</v>
       </c>
@@ -13788,7 +13793,7 @@
       </c>
       <c r="E533" s="25"/>
     </row>
-    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="9" t="s">
         <v>13</v>
       </c>
@@ -13803,7 +13808,7 @@
       </c>
       <c r="E534" s="25"/>
     </row>
-    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="9" t="s">
         <v>17</v>
       </c>
@@ -13818,7 +13823,7 @@
       </c>
       <c r="E535" s="25"/>
     </row>
-    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="9" t="s">
         <v>35</v>
       </c>
@@ -13833,7 +13838,7 @@
       </c>
       <c r="E536" s="25"/>
     </row>
-    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="12" t="s">
         <v>39</v>
       </c>
@@ -13848,7 +13853,7 @@
       </c>
       <c r="E537" s="25"/>
     </row>
-    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="9" t="s">
         <v>43</v>
       </c>
@@ -13863,7 +13868,7 @@
       </c>
       <c r="E538" s="25"/>
     </row>
-    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="9" t="s">
         <v>47</v>
       </c>
@@ -13878,7 +13883,7 @@
       </c>
       <c r="E539" s="25"/>
     </row>
-    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="9" t="s">
         <v>51</v>
       </c>
@@ -13887,7 +13892,7 @@
       <c r="D540" s="18"/>
       <c r="E540" s="27"/>
     </row>
-    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="9" t="s">
         <v>55</v>
       </c>
@@ -13902,7 +13907,7 @@
       </c>
       <c r="E541" s="25"/>
     </row>
-    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="9" t="s">
         <v>59</v>
       </c>
@@ -13917,7 +13922,7 @@
       </c>
       <c r="E542" s="25"/>
     </row>
-    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="9" t="s">
         <v>63</v>
       </c>
@@ -13926,7 +13931,7 @@
       <c r="D543" s="18"/>
       <c r="E543" s="27"/>
     </row>
-    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="9" t="s">
         <v>67</v>
       </c>
@@ -13941,14 +13946,14 @@
       </c>
       <c r="E544" s="25"/>
     </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B545" s="9" t="s">
         <v>1475</v>
       </c>
-      <c r="C545" s="9" t="s">
+      <c r="C545" s="14" t="s">
         <v>1476</v>
       </c>
       <c r="D545" s="9" t="s">
@@ -13956,7 +13961,7 @@
       </c>
       <c r="E545" s="25"/>
     </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="9" t="s">
         <v>75</v>
       </c>
@@ -13971,7 +13976,7 @@
       </c>
       <c r="E546" s="25"/>
     </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="9" t="s">
         <v>79</v>
       </c>
@@ -13986,7 +13991,7 @@
       </c>
       <c r="E547" s="25"/>
     </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="9" t="s">
         <v>83</v>
       </c>
@@ -14001,25 +14006,25 @@
       </c>
       <c r="E548" s="25"/>
     </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="50" t="s">
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="52" t="s">
         <v>1586</v>
       </c>
-      <c r="B549" s="50"/>
-      <c r="C549" s="50"/>
-      <c r="D549" s="50"/>
-      <c r="E549" s="50"/>
+      <c r="B549" s="52"/>
+      <c r="C549" s="52"/>
+      <c r="D549" s="52"/>
+      <c r="E549" s="52"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="51"/>
-      <c r="B550" s="51"/>
-      <c r="C550" s="51"/>
-      <c r="D550" s="51"/>
-      <c r="E550" s="51"/>
+    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="50"/>
+      <c r="B550" s="50"/>
+      <c r="C550" s="50"/>
+      <c r="D550" s="50"/>
+      <c r="E550" s="50"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="7" t="s">
         <v>0</v>
       </c>
@@ -14036,7 +14041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="9" t="s">
         <v>5</v>
       </c>
@@ -14051,7 +14056,7 @@
       </c>
       <c r="E553" s="25"/>
     </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="9" t="s">
         <v>9</v>
       </c>
@@ -14066,7 +14071,7 @@
       </c>
       <c r="E554" s="25"/>
     </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="9" t="s">
         <v>13</v>
       </c>
@@ -14081,7 +14086,7 @@
       </c>
       <c r="E555" s="25"/>
     </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="9" t="s">
         <v>17</v>
       </c>
@@ -14096,7 +14101,7 @@
       </c>
       <c r="E556" s="25"/>
     </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="9" t="s">
         <v>35</v>
       </c>
@@ -14111,7 +14116,7 @@
       </c>
       <c r="E557" s="25"/>
     </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="9" t="s">
         <v>39</v>
       </c>
@@ -14126,7 +14131,7 @@
       </c>
       <c r="E558" s="25"/>
     </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="9" t="s">
         <v>43</v>
       </c>
@@ -14141,7 +14146,7 @@
       </c>
       <c r="E559" s="25"/>
     </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="9" t="s">
         <v>47</v>
       </c>
@@ -14156,7 +14161,7 @@
       </c>
       <c r="E560" s="25"/>
     </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="9" t="s">
         <v>51</v>
       </c>
@@ -14171,7 +14176,7 @@
       </c>
       <c r="E561" s="25"/>
     </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="9" t="s">
         <v>55</v>
       </c>
@@ -14186,7 +14191,7 @@
       </c>
       <c r="E562" s="25"/>
     </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="9" t="s">
         <v>59</v>
       </c>
@@ -14201,7 +14206,7 @@
       </c>
       <c r="E563" s="25"/>
     </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="9" t="s">
         <v>63</v>
       </c>
@@ -14216,7 +14221,7 @@
       </c>
       <c r="E564" s="25"/>
     </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="9" t="s">
         <v>67</v>
       </c>
@@ -14231,7 +14236,7 @@
       </c>
       <c r="E565" s="25"/>
     </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="9" t="s">
         <v>71</v>
       </c>
@@ -14246,7 +14251,7 @@
       </c>
       <c r="E566" s="25"/>
     </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="9" t="s">
         <v>75</v>
       </c>
@@ -14261,7 +14266,7 @@
       </c>
       <c r="E567" s="25"/>
     </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="9" t="s">
         <v>79</v>
       </c>
@@ -14276,7 +14281,7 @@
       </c>
       <c r="E568" s="25"/>
     </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="9" t="s">
         <v>83</v>
       </c>
@@ -14291,7 +14296,7 @@
       </c>
       <c r="E569" s="25"/>
     </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="9" t="s">
         <v>87</v>
       </c>
@@ -14306,7 +14311,7 @@
       </c>
       <c r="E570" s="25"/>
     </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="9" t="s">
         <v>91</v>
       </c>
@@ -14321,7 +14326,7 @@
       </c>
       <c r="E571" s="25"/>
     </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="9" t="s">
         <v>95</v>
       </c>
@@ -14336,7 +14341,7 @@
       </c>
       <c r="E572" s="25"/>
     </row>
-    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="9" t="s">
         <v>99</v>
       </c>
@@ -14351,7 +14356,7 @@
       </c>
       <c r="E573" s="25"/>
     </row>
-    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A574" s="9" t="s">
         <v>103</v>
       </c>
@@ -14366,7 +14371,7 @@
       </c>
       <c r="E574" s="25"/>
     </row>
-    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A575" s="9" t="s">
         <v>107</v>
       </c>
@@ -14381,7 +14386,7 @@
       </c>
       <c r="E575" s="25"/>
     </row>
-    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A576" s="9" t="s">
         <v>111</v>
       </c>
@@ -14396,7 +14401,7 @@
       </c>
       <c r="E576" s="25"/>
     </row>
-    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A577" s="12" t="s">
         <v>115</v>
       </c>
@@ -14411,7 +14416,7 @@
       </c>
       <c r="E577" s="24"/>
     </row>
-    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A578" s="9" t="s">
         <v>119</v>
       </c>
@@ -14426,7 +14431,7 @@
       </c>
       <c r="E578" s="25"/>
     </row>
-    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A579" s="9" t="s">
         <v>123</v>
       </c>
@@ -14441,7 +14446,7 @@
       </c>
       <c r="E579" s="25"/>
     </row>
-    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A580" s="9" t="s">
         <v>127</v>
       </c>
@@ -14456,7 +14461,7 @@
       </c>
       <c r="E580" s="25"/>
     </row>
-    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A581" s="9" t="s">
         <v>131</v>
       </c>
@@ -14471,7 +14476,7 @@
       </c>
       <c r="E581" s="25"/>
     </row>
-    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A582" s="9" t="s">
         <v>135</v>
       </c>
@@ -14486,7 +14491,7 @@
       </c>
       <c r="E582" s="25"/>
     </row>
-    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A583" s="9" t="s">
         <v>139</v>
       </c>
@@ -14501,7 +14506,7 @@
       </c>
       <c r="E583" s="25"/>
     </row>
-    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A584" s="9" t="s">
         <v>143</v>
       </c>
@@ -14516,7 +14521,7 @@
       </c>
       <c r="E584" s="25"/>
     </row>
-    <row r="585" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A585" s="12" t="s">
         <v>147</v>
       </c>
@@ -14533,25 +14538,25 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="50" t="s">
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="52" t="s">
         <v>1587</v>
       </c>
-      <c r="B586" s="50"/>
-      <c r="C586" s="50"/>
-      <c r="D586" s="50"/>
-      <c r="E586" s="50"/>
+      <c r="B586" s="52"/>
+      <c r="C586" s="52"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="52"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="51"/>
-      <c r="B587" s="51"/>
-      <c r="C587" s="51"/>
-      <c r="D587" s="51"/>
-      <c r="E587" s="51"/>
+    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="50"/>
+      <c r="B587" s="50"/>
+      <c r="C587" s="50"/>
+      <c r="D587" s="50"/>
+      <c r="E587" s="50"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="7" t="s">
         <v>0</v>
       </c>
@@ -14568,7 +14573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A590" s="9" t="s">
         <v>5</v>
       </c>
@@ -14583,7 +14588,7 @@
       </c>
       <c r="E590" s="25"/>
     </row>
-    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A591" s="9" t="s">
         <v>9</v>
       </c>
@@ -14598,7 +14603,7 @@
       </c>
       <c r="E591" s="25"/>
     </row>
-    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A592" s="9" t="s">
         <v>13</v>
       </c>
@@ -14613,7 +14618,7 @@
       </c>
       <c r="E592" s="25"/>
     </row>
-    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A593" s="9" t="s">
         <v>17</v>
       </c>
@@ -14628,7 +14633,7 @@
       </c>
       <c r="E593" s="25"/>
     </row>
-    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A594" s="9" t="s">
         <v>35</v>
       </c>
@@ -14643,7 +14648,7 @@
       </c>
       <c r="E594" s="25"/>
     </row>
-    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A595" s="9" t="s">
         <v>39</v>
       </c>
@@ -14658,7 +14663,7 @@
       </c>
       <c r="E595" s="25"/>
     </row>
-    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A596" s="9" t="s">
         <v>43</v>
       </c>
@@ -14673,7 +14678,7 @@
       </c>
       <c r="E596" s="25"/>
     </row>
-    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A597" s="9" t="s">
         <v>47</v>
       </c>
@@ -14688,7 +14693,7 @@
       </c>
       <c r="E597" s="25"/>
     </row>
-    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A598" s="9" t="s">
         <v>51</v>
       </c>
@@ -14703,7 +14708,7 @@
       </c>
       <c r="E598" s="25"/>
     </row>
-    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A599" s="9" t="s">
         <v>55</v>
       </c>
@@ -14718,7 +14723,7 @@
       </c>
       <c r="E599" s="25"/>
     </row>
-    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A600" s="9" t="s">
         <v>59</v>
       </c>
@@ -14733,7 +14738,7 @@
       </c>
       <c r="E600" s="25"/>
     </row>
-    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A601" s="9" t="s">
         <v>63</v>
       </c>
@@ -14748,7 +14753,7 @@
       </c>
       <c r="E601" s="25"/>
     </row>
-    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A602" s="9" t="s">
         <v>67</v>
       </c>
@@ -14763,7 +14768,7 @@
       </c>
       <c r="E602" s="25"/>
     </row>
-    <row r="603" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A603" s="9" t="s">
         <v>71</v>
       </c>
@@ -14778,7 +14783,7 @@
       </c>
       <c r="E603" s="25"/>
     </row>
-    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="9" t="s">
         <v>75</v>
       </c>
@@ -14793,7 +14798,7 @@
       </c>
       <c r="E604" s="25"/>
     </row>
-    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A605" s="9" t="s">
         <v>79</v>
       </c>
@@ -14808,7 +14813,7 @@
       </c>
       <c r="E605" s="25"/>
     </row>
-    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A606" s="9" t="s">
         <v>83</v>
       </c>
@@ -14823,7 +14828,7 @@
       </c>
       <c r="E606" s="25"/>
     </row>
-    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A607" s="9" t="s">
         <v>87</v>
       </c>
@@ -14838,7 +14843,7 @@
       </c>
       <c r="E607" s="25"/>
     </row>
-    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A608" s="9" t="s">
         <v>91</v>
       </c>
@@ -14853,7 +14858,7 @@
       </c>
       <c r="E608" s="25"/>
     </row>
-    <row r="609" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
@@ -14868,7 +14873,7 @@
       </c>
       <c r="E609" s="25"/>
     </row>
-    <row r="610" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A610" s="9" t="s">
         <v>99</v>
       </c>
@@ -14883,7 +14888,7 @@
       </c>
       <c r="E610" s="25"/>
     </row>
-    <row r="611" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
@@ -14898,7 +14903,7 @@
       </c>
       <c r="E611" s="25"/>
     </row>
-    <row r="612" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A612" s="9" t="s">
         <v>107</v>
       </c>
@@ -14913,7 +14918,7 @@
       </c>
       <c r="E612" s="25"/>
     </row>
-    <row r="613" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
@@ -14928,7 +14933,7 @@
       </c>
       <c r="E613" s="25"/>
     </row>
-    <row r="614" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A614" s="9" t="s">
         <v>115</v>
       </c>
@@ -14943,7 +14948,7 @@
       </c>
       <c r="E614" s="25"/>
     </row>
-    <row r="615" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -14961,7 +14966,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A616" s="9" t="s">
         <v>123</v>
       </c>
@@ -14976,7 +14981,7 @@
       </c>
       <c r="E616" s="25"/>
     </row>
-    <row r="617" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
@@ -14991,7 +14996,7 @@
       </c>
       <c r="E617" s="25"/>
     </row>
-    <row r="618" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A618" s="9" t="s">
         <v>131</v>
       </c>
@@ -15006,7 +15011,7 @@
       </c>
       <c r="E618" s="25"/>
     </row>
-    <row r="619" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
@@ -15021,7 +15026,7 @@
       </c>
       <c r="E619" s="25"/>
     </row>
-    <row r="620" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A620" s="9" t="s">
         <v>139</v>
       </c>
@@ -15036,7 +15041,7 @@
       </c>
       <c r="E620" s="25"/>
     </row>
-    <row r="621" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
@@ -15051,7 +15056,7 @@
       </c>
       <c r="E621" s="25"/>
     </row>
-    <row r="622" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A622" s="9" t="s">
         <v>147</v>
       </c>
@@ -15066,7 +15071,7 @@
       </c>
       <c r="E622" s="25"/>
     </row>
-    <row r="623" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
@@ -15081,7 +15086,7 @@
       </c>
       <c r="E623" s="25"/>
     </row>
-    <row r="624" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A624" s="9" t="s">
         <v>155</v>
       </c>
@@ -15096,7 +15101,7 @@
       </c>
       <c r="E624" s="25"/>
     </row>
-    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A625" s="9" t="s">
         <v>159</v>
       </c>
@@ -15111,7 +15116,7 @@
       </c>
       <c r="E625" s="25"/>
     </row>
-    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A626" s="9" t="s">
         <v>163</v>
       </c>
@@ -15126,7 +15131,7 @@
       </c>
       <c r="E626" s="25"/>
     </row>
-    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A627" s="9" t="s">
         <v>167</v>
       </c>
@@ -15141,7 +15146,7 @@
       </c>
       <c r="E627" s="25"/>
     </row>
-    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A628" s="9" t="s">
         <v>171</v>
       </c>
@@ -15156,7 +15161,7 @@
       </c>
       <c r="E628" s="25"/>
     </row>
-    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A629" s="9" t="s">
         <v>175</v>
       </c>
@@ -15171,7 +15176,7 @@
       </c>
       <c r="E629" s="25"/>
     </row>
-    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A630" s="9" t="s">
         <v>179</v>
       </c>
@@ -15186,7 +15191,7 @@
       </c>
       <c r="E630" s="25"/>
     </row>
-    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A631" s="9" t="s">
         <v>183</v>
       </c>
@@ -15201,7 +15206,7 @@
       </c>
       <c r="E631" s="25"/>
     </row>
-    <row r="632" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A632" s="9" t="s">
         <v>187</v>
       </c>
@@ -15216,17 +15221,17 @@
       </c>
       <c r="E632" s="25"/>
     </row>
-    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="50" t="s">
+    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="52" t="s">
         <v>1720</v>
       </c>
-      <c r="B633" s="50"/>
-      <c r="C633" s="50"/>
-      <c r="D633" s="50"/>
-      <c r="E633" s="50"/>
+      <c r="B633" s="52"/>
+      <c r="C633" s="52"/>
+      <c r="D633" s="52"/>
+      <c r="E633" s="52"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="53"/>
       <c r="B634" s="53"/>
       <c r="C634" s="53"/>
@@ -15234,7 +15239,7 @@
       <c r="E634" s="53"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A635" s="12" t="s">
         <v>5</v>
       </c>
@@ -15251,7 +15256,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A636" s="9" t="s">
         <v>9</v>
       </c>
@@ -15266,7 +15271,7 @@
       </c>
       <c r="E636" s="25"/>
     </row>
-    <row r="637" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A637" s="9" t="s">
         <v>13</v>
       </c>
@@ -15281,25 +15286,25 @@
       </c>
       <c r="E637" s="25"/>
     </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="51" t="s">
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="50" t="s">
         <v>1726</v>
       </c>
-      <c r="B639" s="51"/>
-      <c r="C639" s="51"/>
-      <c r="D639" s="51"/>
-      <c r="E639" s="51"/>
+      <c r="B639" s="50"/>
+      <c r="C639" s="50"/>
+      <c r="D639" s="50"/>
+      <c r="E639" s="50"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="52"/>
-      <c r="B640" s="52"/>
-      <c r="C640" s="52"/>
-      <c r="D640" s="52"/>
-      <c r="E640" s="52"/>
+    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A640" s="51"/>
+      <c r="B640" s="51"/>
+      <c r="C640" s="51"/>
+      <c r="D640" s="51"/>
+      <c r="E640" s="51"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="7" t="s">
         <v>0</v>
       </c>
@@ -15316,7 +15321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A642" s="9" t="s">
         <v>5</v>
       </c>
@@ -15331,7 +15336,7 @@
       </c>
       <c r="E642" s="25"/>
     </row>
-    <row r="643" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A643" s="9" t="s">
         <v>9</v>
       </c>
@@ -15346,7 +15351,7 @@
       </c>
       <c r="E643" s="25"/>
     </row>
-    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="9" t="s">
         <v>13</v>
       </c>
@@ -15361,7 +15366,7 @@
       </c>
       <c r="E644" s="25"/>
     </row>
-    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A645" s="9" t="s">
         <v>17</v>
       </c>
@@ -15376,7 +15381,7 @@
       </c>
       <c r="E645" s="25"/>
     </row>
-    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A646" s="9" t="s">
         <v>35</v>
       </c>
@@ -15391,7 +15396,7 @@
       </c>
       <c r="E646" s="25"/>
     </row>
-    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A647" s="9" t="s">
         <v>39</v>
       </c>
@@ -15406,7 +15411,7 @@
       </c>
       <c r="E647" s="25"/>
     </row>
-    <row r="648" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A648" s="12">
         <v>7</v>
       </c>
@@ -15423,7 +15428,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A649" s="12">
         <v>8</v>
       </c>
@@ -15440,7 +15445,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A650" s="9">
         <v>9</v>
       </c>
@@ -15455,7 +15460,7 @@
       </c>
       <c r="E650" s="25"/>
     </row>
-    <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A651" s="9">
         <v>10</v>
       </c>
@@ -15470,7 +15475,7 @@
       </c>
       <c r="E651" s="25"/>
     </row>
-    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A652" s="9">
         <v>11</v>
       </c>
@@ -15485,7 +15490,7 @@
       </c>
       <c r="E652" s="25"/>
     </row>
-    <row r="653" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A653" s="12">
         <v>12</v>
       </c>
@@ -15500,7 +15505,7 @@
       </c>
       <c r="E653" s="25"/>
     </row>
-    <row r="654" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A654" s="9">
         <v>13</v>
       </c>
@@ -15515,7 +15520,7 @@
       </c>
       <c r="E654" s="25"/>
     </row>
-    <row r="655" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A655" s="12">
         <v>14</v>
       </c>
@@ -15530,7 +15535,7 @@
       </c>
       <c r="E655" s="25"/>
     </row>
-    <row r="656" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A656" s="21">
         <v>15</v>
       </c>
@@ -15545,7 +15550,7 @@
       </c>
       <c r="E656" s="25"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A662" s="36">
         <v>1</v>
       </c>
@@ -15562,7 +15567,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A663" s="40">
         <v>2</v>
       </c>
@@ -15579,7 +15584,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A664" s="36">
         <v>3</v>
       </c>
@@ -15596,7 +15601,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A665" s="42">
         <v>4</v>
       </c>
@@ -15611,7 +15616,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A666" s="42">
         <v>5</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A667" s="42">
         <v>6</v>
       </c>
@@ -15641,7 +15646,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A668" s="42">
         <v>7</v>
       </c>
@@ -15656,7 +15661,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A669" s="42">
         <v>8</v>
       </c>
@@ -15671,7 +15676,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A670" s="42">
         <v>9</v>
       </c>
@@ -15686,7 +15691,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A671" s="42">
         <v>10</v>
       </c>
@@ -15701,7 +15706,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A672" s="42">
         <v>11</v>
       </c>
@@ -15716,7 +15721,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A673" s="42">
         <v>12</v>
       </c>
@@ -15731,7 +15736,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A674" s="42">
         <v>13</v>
       </c>
@@ -15746,7 +15751,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A675" s="42">
         <v>14</v>
       </c>
@@ -15761,7 +15766,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A676" s="42">
         <v>15</v>
       </c>
@@ -15776,7 +15781,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A677" s="42">
         <v>16</v>
       </c>
@@ -15791,7 +15796,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A678" s="42">
         <v>17</v>
       </c>
@@ -15806,7 +15811,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A679" s="42">
         <v>18</v>
       </c>
@@ -15821,7 +15826,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A680" s="42">
         <v>19</v>
       </c>
@@ -15836,7 +15841,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A681" s="42">
         <v>20</v>
       </c>
@@ -15851,7 +15856,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A682" s="42">
         <v>21</v>
       </c>
@@ -15866,7 +15871,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A683" s="42">
         <v>22</v>
       </c>
@@ -15881,7 +15886,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A684" s="42"/>
       <c r="B684" s="42"/>
       <c r="C684" s="43" t="s">
@@ -15890,7 +15895,7 @@
       <c r="D684" s="42"/>
       <c r="E684" s="44"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A685" s="42"/>
       <c r="B685" s="42"/>
       <c r="C685" s="43" t="s">
@@ -15899,7 +15904,7 @@
       <c r="D685" s="42"/>
       <c r="E685" s="44"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A686" s="42"/>
       <c r="B686" s="42"/>
       <c r="C686" s="43" t="s">
@@ -15908,7 +15913,7 @@
       <c r="D686" s="42"/>
       <c r="E686" s="44"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A687" s="42"/>
       <c r="B687" s="42"/>
       <c r="C687" s="43" t="s">
@@ -15917,7 +15922,7 @@
       <c r="D687" s="42"/>
       <c r="E687" s="44"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A688" s="42"/>
       <c r="B688" s="42"/>
       <c r="C688" s="43" t="s">
@@ -15926,7 +15931,7 @@
       <c r="D688" s="42"/>
       <c r="E688" s="44"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A689" s="42"/>
       <c r="B689" s="42"/>
       <c r="C689" s="43" t="s">
@@ -15935,7 +15940,7 @@
       <c r="D689" s="42"/>
       <c r="E689" s="44"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A690" s="42"/>
       <c r="B690" s="42"/>
       <c r="C690" s="43" t="s">
@@ -15944,7 +15949,7 @@
       <c r="D690" s="42"/>
       <c r="E690" s="44"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A691" s="42"/>
       <c r="B691" s="42"/>
       <c r="C691" s="43"/>
@@ -15953,17 +15958,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15972,6 +15966,17 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>
@@ -15998,9 +16003,10 @@
     <hyperlink ref="C242" r:id="rId20"/>
     <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)"/>
     <hyperlink ref="C169" r:id="rId21"/>
+    <hyperlink ref="C545" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -16015,14 +16021,14 @@
       <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>1334</v>
       </c>
@@ -16034,7 +16040,7 @@
       </c>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1559</v>
       </c>
@@ -16046,7 +16052,7 @@
       </c>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1337</v>
       </c>
@@ -16058,7 +16064,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>361556</v>
       </c>
@@ -16070,7 +16076,7 @@
       </c>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>1324752</v>
       </c>
@@ -16082,7 +16088,7 @@
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>476</v>
       </c>
@@ -16093,7 +16099,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>482</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>467</v>
       </c>
@@ -16115,7 +16121,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>485</v>
       </c>
@@ -16147,7 +16153,7 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16161,9 +16167,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1767</v>
       </c>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -5789,13 +5789,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6112,7 +6112,7 @@
   <dimension ref="A1:G691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="C537" sqref="C537"/>
+      <selection activeCell="C545" sqref="C545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6127,21 +6127,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6229,21 +6229,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6983,21 +6983,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7123,21 +7123,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7775,21 +7775,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8050,21 +8050,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="50" t="s">
+      <c r="A135" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8190,21 +8190,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="50" t="s">
+      <c r="A146" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8618,21 +8618,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="50"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8775,21 +8775,21 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="50" t="s">
+      <c r="A189" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="50"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="50"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9218,21 +9218,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="50" t="s">
+      <c r="A220" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="50"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="50"/>
-      <c r="E220" s="50"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="50"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="50"/>
-      <c r="D221" s="50"/>
-      <c r="E221" s="50"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10093,21 +10093,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="50" t="s">
+      <c r="A280" s="51" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="50"/>
-      <c r="C280" s="50"/>
-      <c r="D280" s="50"/>
-      <c r="E280" s="50"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="51"/>
-      <c r="B281" s="51"/>
-      <c r="C281" s="51"/>
-      <c r="D281" s="51"/>
-      <c r="E281" s="51"/>
+      <c r="A281" s="52"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
@@ -12313,21 +12313,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="52" t="s">
+      <c r="A429" s="50" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="52"/>
-      <c r="C429" s="52"/>
-      <c r="D429" s="52"/>
-      <c r="E429" s="52"/>
+      <c r="B429" s="50"/>
+      <c r="C429" s="50"/>
+      <c r="D429" s="50"/>
+      <c r="E429" s="50"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="50"/>
-      <c r="B430" s="50"/>
-      <c r="C430" s="50"/>
-      <c r="D430" s="50"/>
-      <c r="E430" s="50"/>
+      <c r="A430" s="51"/>
+      <c r="B430" s="51"/>
+      <c r="C430" s="51"/>
+      <c r="D430" s="51"/>
+      <c r="E430" s="51"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12408,21 +12408,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="52" t="s">
+      <c r="A437" s="50" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="52"/>
-      <c r="C437" s="52"/>
-      <c r="D437" s="52"/>
-      <c r="E437" s="52"/>
+      <c r="B437" s="50"/>
+      <c r="C437" s="50"/>
+      <c r="D437" s="50"/>
+      <c r="E437" s="50"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="50"/>
-      <c r="B438" s="50"/>
-      <c r="C438" s="50"/>
-      <c r="D438" s="50"/>
-      <c r="E438" s="50"/>
+      <c r="A438" s="51"/>
+      <c r="B438" s="51"/>
+      <c r="C438" s="51"/>
+      <c r="D438" s="51"/>
+      <c r="E438" s="51"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13178,21 +13178,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="52" t="s">
+      <c r="A490" s="50" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="52"/>
-      <c r="C490" s="52"/>
-      <c r="D490" s="52"/>
-      <c r="E490" s="52"/>
+      <c r="B490" s="50"/>
+      <c r="C490" s="50"/>
+      <c r="D490" s="50"/>
+      <c r="E490" s="50"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="50"/>
-      <c r="B491" s="50"/>
-      <c r="C491" s="50"/>
-      <c r="D491" s="50"/>
-      <c r="E491" s="50"/>
+      <c r="A491" s="51"/>
+      <c r="B491" s="51"/>
+      <c r="C491" s="51"/>
+      <c r="D491" s="51"/>
+      <c r="E491" s="51"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,21 +13729,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="52" t="s">
+      <c r="A528" s="50" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="52"/>
-      <c r="C528" s="52"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="52"/>
+      <c r="B528" s="50"/>
+      <c r="C528" s="50"/>
+      <c r="D528" s="50"/>
+      <c r="E528" s="50"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="50"/>
-      <c r="B529" s="50"/>
-      <c r="C529" s="50"/>
-      <c r="D529" s="50"/>
-      <c r="E529" s="50"/>
+      <c r="A529" s="51"/>
+      <c r="B529" s="51"/>
+      <c r="C529" s="51"/>
+      <c r="D529" s="51"/>
+      <c r="E529" s="51"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14007,21 +14007,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="52" t="s">
+      <c r="A549" s="50" t="s">
         <v>1586</v>
       </c>
-      <c r="B549" s="52"/>
-      <c r="C549" s="52"/>
-      <c r="D549" s="52"/>
-      <c r="E549" s="52"/>
+      <c r="B549" s="50"/>
+      <c r="C549" s="50"/>
+      <c r="D549" s="50"/>
+      <c r="E549" s="50"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="50"/>
-      <c r="B550" s="50"/>
-      <c r="C550" s="50"/>
-      <c r="D550" s="50"/>
-      <c r="E550" s="50"/>
+      <c r="A550" s="51"/>
+      <c r="B550" s="51"/>
+      <c r="C550" s="51"/>
+      <c r="D550" s="51"/>
+      <c r="E550" s="51"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14539,21 +14539,21 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="52" t="s">
+      <c r="A586" s="50" t="s">
         <v>1587</v>
       </c>
-      <c r="B586" s="52"/>
-      <c r="C586" s="52"/>
-      <c r="D586" s="52"/>
-      <c r="E586" s="52"/>
+      <c r="B586" s="50"/>
+      <c r="C586" s="50"/>
+      <c r="D586" s="50"/>
+      <c r="E586" s="50"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="50"/>
-      <c r="B587" s="50"/>
-      <c r="C587" s="50"/>
-      <c r="D587" s="50"/>
-      <c r="E587" s="50"/>
+      <c r="A587" s="51"/>
+      <c r="B587" s="51"/>
+      <c r="C587" s="51"/>
+      <c r="D587" s="51"/>
+      <c r="E587" s="51"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15222,13 +15222,13 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="52" t="s">
+      <c r="A633" s="50" t="s">
         <v>1720</v>
       </c>
-      <c r="B633" s="52"/>
-      <c r="C633" s="52"/>
-      <c r="D633" s="52"/>
-      <c r="E633" s="52"/>
+      <c r="B633" s="50"/>
+      <c r="C633" s="50"/>
+      <c r="D633" s="50"/>
+      <c r="E633" s="50"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15287,21 +15287,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="50" t="s">
+      <c r="A639" s="51" t="s">
         <v>1726</v>
       </c>
-      <c r="B639" s="50"/>
-      <c r="C639" s="50"/>
-      <c r="D639" s="50"/>
-      <c r="E639" s="50"/>
+      <c r="B639" s="51"/>
+      <c r="C639" s="51"/>
+      <c r="D639" s="51"/>
+      <c r="E639" s="51"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="51"/>
-      <c r="B640" s="51"/>
-      <c r="C640" s="51"/>
-      <c r="D640" s="51"/>
-      <c r="E640" s="51"/>
+      <c r="A640" s="52"/>
+      <c r="B640" s="52"/>
+      <c r="C640" s="52"/>
+      <c r="D640" s="52"/>
+      <c r="E640" s="52"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15958,6 +15958,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15966,17 +15977,6 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1797">
   <si>
     <t>П/П</t>
   </si>
@@ -4447,9 +4447,6 @@
   </si>
   <si>
     <t>6124 СХ 89</t>
-  </si>
-  <si>
-    <t>379442</t>
   </si>
   <si>
     <t>Wegan (погрузчик) (70440)</t>
@@ -5789,13 +5786,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6111,8 +6108,8 @@
   </sheetPr>
   <dimension ref="A1:G691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="C545" sqref="C545"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6127,21 +6124,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6229,21 +6226,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6455,7 +6452,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="2"/>
       <c r="G24" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6983,21 +6980,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7123,21 +7120,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7681,7 +7678,7 @@
         <v>330</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7775,21 +7772,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8050,21 +8047,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="51"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8190,21 +8187,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8358,7 +8355,7 @@
         <v>445</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
@@ -8525,7 +8522,7 @@
         <v>478</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -8618,21 +8615,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="51" t="s">
+      <c r="A177" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="51"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
+      <c r="A178" s="50"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8771,25 +8768,25 @@
         <v>518</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="51" t="s">
+      <c r="A189" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
+      <c r="A190" s="50"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8974,7 +8971,7 @@
       </c>
       <c r="E203" s="25"/>
       <c r="G203" s="49" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="12" x14ac:dyDescent="0.15">
@@ -9218,21 +9215,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="51" t="s">
+      <c r="A220" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="51"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="51"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="50"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="51"/>
-      <c r="B221" s="51"/>
-      <c r="C221" s="51"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="51"/>
+      <c r="A221" s="50"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="50"/>
+      <c r="D221" s="50"/>
+      <c r="E221" s="50"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10093,21 +10090,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="51" t="s">
+      <c r="A280" s="50" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="51"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
+      <c r="B280" s="50"/>
+      <c r="C280" s="50"/>
+      <c r="D280" s="50"/>
+      <c r="E280" s="50"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="52"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="52"/>
-      <c r="E281" s="52"/>
+      <c r="A281" s="51"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
@@ -10692,7 +10689,7 @@
       <c r="B321" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="C321" s="9" t="s">
+      <c r="C321" s="14" t="s">
         <v>857</v>
       </c>
       <c r="D321" s="9" t="s">
@@ -10948,13 +10945,13 @@
         <v>2100551</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>789</v>
       </c>
       <c r="E338" s="25" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -11031,7 +11028,7 @@
         <v>789</v>
       </c>
       <c r="E343" s="25" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -11429,10 +11426,10 @@
         <v>982</v>
       </c>
       <c r="B370" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C370" s="9" t="s">
         <v>1717</v>
-      </c>
-      <c r="C370" s="9" t="s">
-        <v>1718</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>789</v>
@@ -11596,7 +11593,7 @@
       <c r="B381" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C381" s="14" t="s">
         <v>1022</v>
       </c>
       <c r="D381" s="9" t="s">
@@ -11604,7 +11601,7 @@
       </c>
       <c r="E381" s="25"/>
       <c r="G381" s="49" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="12" x14ac:dyDescent="0.15">
@@ -12299,7 +12296,7 @@
     </row>
     <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="9" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B428" s="9" t="s">
         <v>1169</v>
@@ -12313,21 +12310,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="50" t="s">
+      <c r="A429" s="52" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="50"/>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50"/>
-      <c r="E429" s="50"/>
+      <c r="B429" s="52"/>
+      <c r="C429" s="52"/>
+      <c r="D429" s="52"/>
+      <c r="E429" s="52"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="51"/>
-      <c r="B430" s="51"/>
-      <c r="C430" s="51"/>
-      <c r="D430" s="51"/>
-      <c r="E430" s="51"/>
+      <c r="A430" s="50"/>
+      <c r="B430" s="50"/>
+      <c r="C430" s="50"/>
+      <c r="D430" s="50"/>
+      <c r="E430" s="50"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12408,21 +12405,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="50" t="s">
+      <c r="A437" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="50"/>
-      <c r="C437" s="50"/>
-      <c r="D437" s="50"/>
-      <c r="E437" s="50"/>
+      <c r="B437" s="52"/>
+      <c r="C437" s="52"/>
+      <c r="D437" s="52"/>
+      <c r="E437" s="52"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="51"/>
-      <c r="B438" s="51"/>
-      <c r="C438" s="51"/>
-      <c r="D438" s="51"/>
-      <c r="E438" s="51"/>
+      <c r="A438" s="50"/>
+      <c r="B438" s="50"/>
+      <c r="C438" s="50"/>
+      <c r="D438" s="50"/>
+      <c r="E438" s="50"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13178,21 +13175,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="50" t="s">
+      <c r="A490" s="52" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="50"/>
-      <c r="C490" s="50"/>
-      <c r="D490" s="50"/>
-      <c r="E490" s="50"/>
+      <c r="B490" s="52"/>
+      <c r="C490" s="52"/>
+      <c r="D490" s="52"/>
+      <c r="E490" s="52"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="51"/>
-      <c r="B491" s="51"/>
-      <c r="C491" s="51"/>
-      <c r="D491" s="51"/>
-      <c r="E491" s="51"/>
+      <c r="A491" s="50"/>
+      <c r="B491" s="50"/>
+      <c r="C491" s="50"/>
+      <c r="D491" s="50"/>
+      <c r="E491" s="50"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13226,7 +13223,7 @@
         <v>1336</v>
       </c>
       <c r="E494" s="23" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13318,7 +13315,7 @@
         <v>1354</v>
       </c>
       <c r="E500" s="25" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13335,7 +13332,7 @@
         <v>1357</v>
       </c>
       <c r="E501" s="25" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,21 +13726,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="50" t="s">
+      <c r="A528" s="52" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="50"/>
-      <c r="C528" s="50"/>
-      <c r="D528" s="50"/>
-      <c r="E528" s="50"/>
+      <c r="B528" s="52"/>
+      <c r="C528" s="52"/>
+      <c r="D528" s="52"/>
+      <c r="E528" s="52"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="51"/>
-      <c r="B529" s="51"/>
-      <c r="C529" s="51"/>
-      <c r="D529" s="51"/>
-      <c r="E529" s="51"/>
+      <c r="A529" s="50"/>
+      <c r="B529" s="50"/>
+      <c r="C529" s="50"/>
+      <c r="D529" s="50"/>
+      <c r="E529" s="50"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13950,14 +13947,14 @@
       <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="9">
+        <v>480889</v>
+      </c>
+      <c r="C545" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="C545" s="14" t="s">
+      <c r="D545" s="9" t="s">
         <v>1476</v>
-      </c>
-      <c r="D545" s="9" t="s">
-        <v>1477</v>
       </c>
       <c r="E545" s="25"/>
     </row>
@@ -13966,13 +13963,13 @@
         <v>75</v>
       </c>
       <c r="B546" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C546" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="C546" s="9" t="s">
+      <c r="D546" s="9" t="s">
         <v>1479</v>
-      </c>
-      <c r="D546" s="9" t="s">
-        <v>1480</v>
       </c>
       <c r="E546" s="25"/>
     </row>
@@ -13981,13 +13978,13 @@
         <v>79</v>
       </c>
       <c r="B547" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C547" s="9" t="s">
         <v>1481</v>
       </c>
-      <c r="C547" s="9" t="s">
+      <c r="D547" s="9" t="s">
         <v>1482</v>
-      </c>
-      <c r="D547" s="9" t="s">
-        <v>1483</v>
       </c>
       <c r="E547" s="25"/>
     </row>
@@ -13996,32 +13993,32 @@
         <v>83</v>
       </c>
       <c r="B548" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C548" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="C548" s="9" t="s">
+      <c r="D548" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="D548" s="9" t="s">
-        <v>1486</v>
-      </c>
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="50" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B549" s="50"/>
-      <c r="C549" s="50"/>
-      <c r="D549" s="50"/>
-      <c r="E549" s="50"/>
+      <c r="A549" s="52" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B549" s="52"/>
+      <c r="C549" s="52"/>
+      <c r="D549" s="52"/>
+      <c r="E549" s="52"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="51"/>
-      <c r="B550" s="51"/>
-      <c r="C550" s="51"/>
-      <c r="D550" s="51"/>
-      <c r="E550" s="51"/>
+      <c r="A550" s="50"/>
+      <c r="B550" s="50"/>
+      <c r="C550" s="50"/>
+      <c r="D550" s="50"/>
+      <c r="E550" s="50"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14046,13 +14043,13 @@
         <v>5</v>
       </c>
       <c r="B553" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C553" s="9" t="s">
         <v>1487</v>
       </c>
-      <c r="C553" s="9" t="s">
+      <c r="D553" s="9" t="s">
         <v>1488</v>
-      </c>
-      <c r="D553" s="9" t="s">
-        <v>1489</v>
       </c>
       <c r="E553" s="25"/>
     </row>
@@ -14061,13 +14058,13 @@
         <v>9</v>
       </c>
       <c r="B554" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C554" s="9" t="s">
         <v>1490</v>
       </c>
-      <c r="C554" s="9" t="s">
+      <c r="D554" s="9" t="s">
         <v>1491</v>
-      </c>
-      <c r="D554" s="9" t="s">
-        <v>1492</v>
       </c>
       <c r="E554" s="25"/>
     </row>
@@ -14076,13 +14073,13 @@
         <v>13</v>
       </c>
       <c r="B555" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C555" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="C555" s="9" t="s">
+      <c r="D555" s="9" t="s">
         <v>1494</v>
-      </c>
-      <c r="D555" s="9" t="s">
-        <v>1495</v>
       </c>
       <c r="E555" s="25"/>
     </row>
@@ -14091,13 +14088,13 @@
         <v>17</v>
       </c>
       <c r="B556" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C556" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="C556" s="9" t="s">
+      <c r="D556" s="9" t="s">
         <v>1497</v>
-      </c>
-      <c r="D556" s="9" t="s">
-        <v>1498</v>
       </c>
       <c r="E556" s="25"/>
     </row>
@@ -14106,13 +14103,13 @@
         <v>35</v>
       </c>
       <c r="B557" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C557" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="C557" s="9" t="s">
+      <c r="D557" s="9" t="s">
         <v>1500</v>
-      </c>
-      <c r="D557" s="9" t="s">
-        <v>1501</v>
       </c>
       <c r="E557" s="25"/>
     </row>
@@ -14121,13 +14118,13 @@
         <v>39</v>
       </c>
       <c r="B558" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C558" s="9" t="s">
         <v>1502</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="D558" s="9" t="s">
         <v>1503</v>
-      </c>
-      <c r="D558" s="9" t="s">
-        <v>1504</v>
       </c>
       <c r="E558" s="25"/>
     </row>
@@ -14136,13 +14133,13 @@
         <v>43</v>
       </c>
       <c r="B559" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C559" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="D559" s="9" t="s">
         <v>1506</v>
-      </c>
-      <c r="D559" s="9" t="s">
-        <v>1507</v>
       </c>
       <c r="E559" s="25"/>
     </row>
@@ -14151,13 +14148,13 @@
         <v>47</v>
       </c>
       <c r="B560" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C560" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="C560" s="9" t="s">
+      <c r="D560" s="9" t="s">
         <v>1509</v>
-      </c>
-      <c r="D560" s="9" t="s">
-        <v>1510</v>
       </c>
       <c r="E560" s="25"/>
     </row>
@@ -14166,13 +14163,13 @@
         <v>51</v>
       </c>
       <c r="B561" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C561" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="C561" s="9" t="s">
+      <c r="D561" s="9" t="s">
         <v>1512</v>
-      </c>
-      <c r="D561" s="9" t="s">
-        <v>1513</v>
       </c>
       <c r="E561" s="25"/>
     </row>
@@ -14181,13 +14178,13 @@
         <v>55</v>
       </c>
       <c r="B562" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C562" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="C562" s="9" t="s">
+      <c r="D562" s="9" t="s">
         <v>1515</v>
-      </c>
-      <c r="D562" s="9" t="s">
-        <v>1516</v>
       </c>
       <c r="E562" s="25"/>
     </row>
@@ -14196,13 +14193,13 @@
         <v>59</v>
       </c>
       <c r="B563" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C563" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="C563" s="9" t="s">
+      <c r="D563" s="9" t="s">
         <v>1518</v>
-      </c>
-      <c r="D563" s="9" t="s">
-        <v>1519</v>
       </c>
       <c r="E563" s="25"/>
     </row>
@@ -14211,13 +14208,13 @@
         <v>63</v>
       </c>
       <c r="B564" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C564" s="9" t="s">
         <v>1520</v>
       </c>
-      <c r="C564" s="9" t="s">
+      <c r="D564" s="9" t="s">
         <v>1521</v>
-      </c>
-      <c r="D564" s="9" t="s">
-        <v>1522</v>
       </c>
       <c r="E564" s="25"/>
     </row>
@@ -14226,13 +14223,13 @@
         <v>67</v>
       </c>
       <c r="B565" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C565" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="C565" s="9" t="s">
+      <c r="D565" s="9" t="s">
         <v>1524</v>
-      </c>
-      <c r="D565" s="9" t="s">
-        <v>1525</v>
       </c>
       <c r="E565" s="25"/>
     </row>
@@ -14241,13 +14238,13 @@
         <v>71</v>
       </c>
       <c r="B566" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C566" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="C566" s="9" t="s">
+      <c r="D566" s="9" t="s">
         <v>1527</v>
-      </c>
-      <c r="D566" s="9" t="s">
-        <v>1528</v>
       </c>
       <c r="E566" s="25"/>
     </row>
@@ -14256,13 +14253,13 @@
         <v>75</v>
       </c>
       <c r="B567" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C567" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="C567" s="9" t="s">
+      <c r="D567" s="9" t="s">
         <v>1530</v>
-      </c>
-      <c r="D567" s="9" t="s">
-        <v>1531</v>
       </c>
       <c r="E567" s="25"/>
     </row>
@@ -14271,13 +14268,13 @@
         <v>79</v>
       </c>
       <c r="B568" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C568" s="9" t="s">
         <v>1532</v>
       </c>
-      <c r="C568" s="9" t="s">
+      <c r="D568" s="9" t="s">
         <v>1533</v>
-      </c>
-      <c r="D568" s="9" t="s">
-        <v>1534</v>
       </c>
       <c r="E568" s="25"/>
     </row>
@@ -14286,13 +14283,13 @@
         <v>83</v>
       </c>
       <c r="B569" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C569" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="C569" s="9" t="s">
+      <c r="D569" s="9" t="s">
         <v>1536</v>
-      </c>
-      <c r="D569" s="9" t="s">
-        <v>1537</v>
       </c>
       <c r="E569" s="25"/>
     </row>
@@ -14301,13 +14298,13 @@
         <v>87</v>
       </c>
       <c r="B570" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C570" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="C570" s="9" t="s">
+      <c r="D570" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="D570" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="E570" s="25"/>
     </row>
@@ -14316,13 +14313,13 @@
         <v>91</v>
       </c>
       <c r="B571" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C571" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="C571" s="9" t="s">
+      <c r="D571" s="9" t="s">
         <v>1542</v>
-      </c>
-      <c r="D571" s="9" t="s">
-        <v>1543</v>
       </c>
       <c r="E571" s="25"/>
     </row>
@@ -14331,13 +14328,13 @@
         <v>95</v>
       </c>
       <c r="B572" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C572" s="9" t="s">
         <v>1544</v>
       </c>
-      <c r="C572" s="9" t="s">
+      <c r="D572" s="9" t="s">
         <v>1545</v>
-      </c>
-      <c r="D572" s="9" t="s">
-        <v>1546</v>
       </c>
       <c r="E572" s="25"/>
     </row>
@@ -14346,13 +14343,13 @@
         <v>99</v>
       </c>
       <c r="B573" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C573" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="D573" s="9" t="s">
         <v>1548</v>
-      </c>
-      <c r="D573" s="9" t="s">
-        <v>1549</v>
       </c>
       <c r="E573" s="25"/>
     </row>
@@ -14361,13 +14358,13 @@
         <v>103</v>
       </c>
       <c r="B574" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C574" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="C574" s="9" t="s">
+      <c r="D574" s="9" t="s">
         <v>1551</v>
-      </c>
-      <c r="D574" s="9" t="s">
-        <v>1552</v>
       </c>
       <c r="E574" s="25"/>
     </row>
@@ -14376,13 +14373,13 @@
         <v>107</v>
       </c>
       <c r="B575" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C575" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="C575" s="9" t="s">
+      <c r="D575" s="9" t="s">
         <v>1554</v>
-      </c>
-      <c r="D575" s="9" t="s">
-        <v>1555</v>
       </c>
       <c r="E575" s="25"/>
     </row>
@@ -14391,13 +14388,13 @@
         <v>111</v>
       </c>
       <c r="B576" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C576" s="9" t="s">
         <v>1556</v>
       </c>
-      <c r="C576" s="9" t="s">
+      <c r="D576" s="9" t="s">
         <v>1557</v>
-      </c>
-      <c r="D576" s="9" t="s">
-        <v>1558</v>
       </c>
       <c r="E576" s="25"/>
     </row>
@@ -14406,13 +14403,13 @@
         <v>115</v>
       </c>
       <c r="B577" s="15" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C577" s="17" t="s">
         <v>1559</v>
       </c>
-      <c r="C577" s="17" t="s">
+      <c r="D577" s="15" t="s">
         <v>1560</v>
-      </c>
-      <c r="D577" s="15" t="s">
-        <v>1561</v>
       </c>
       <c r="E577" s="24"/>
     </row>
@@ -14421,13 +14418,13 @@
         <v>119</v>
       </c>
       <c r="B578" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C578" s="9" t="s">
         <v>1562</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="D578" s="9" t="s">
         <v>1563</v>
-      </c>
-      <c r="D578" s="9" t="s">
-        <v>1564</v>
       </c>
       <c r="E578" s="25"/>
     </row>
@@ -14436,13 +14433,13 @@
         <v>123</v>
       </c>
       <c r="B579" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C579" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="C579" s="9" t="s">
+      <c r="D579" s="9" t="s">
         <v>1566</v>
-      </c>
-      <c r="D579" s="9" t="s">
-        <v>1567</v>
       </c>
       <c r="E579" s="25"/>
     </row>
@@ -14451,13 +14448,13 @@
         <v>127</v>
       </c>
       <c r="B580" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C580" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="C580" s="9" t="s">
+      <c r="D580" s="9" t="s">
         <v>1569</v>
-      </c>
-      <c r="D580" s="9" t="s">
-        <v>1570</v>
       </c>
       <c r="E580" s="25"/>
     </row>
@@ -14466,13 +14463,13 @@
         <v>131</v>
       </c>
       <c r="B581" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C581" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="C581" s="9" t="s">
+      <c r="D581" s="9" t="s">
         <v>1572</v>
-      </c>
-      <c r="D581" s="9" t="s">
-        <v>1573</v>
       </c>
       <c r="E581" s="25"/>
     </row>
@@ -14481,13 +14478,13 @@
         <v>135</v>
       </c>
       <c r="B582" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C582" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="C582" s="9" t="s">
+      <c r="D582" s="9" t="s">
         <v>1575</v>
-      </c>
-      <c r="D582" s="9" t="s">
-        <v>1576</v>
       </c>
       <c r="E582" s="25"/>
     </row>
@@ -14496,13 +14493,13 @@
         <v>139</v>
       </c>
       <c r="B583" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C583" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="C583" s="9" t="s">
+      <c r="D583" s="9" t="s">
         <v>1578</v>
-      </c>
-      <c r="D583" s="9" t="s">
-        <v>1579</v>
       </c>
       <c r="E583" s="25"/>
     </row>
@@ -14511,13 +14508,13 @@
         <v>143</v>
       </c>
       <c r="B584" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C584" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="C584" s="9" t="s">
+      <c r="D584" s="9" t="s">
         <v>1581</v>
-      </c>
-      <c r="D584" s="9" t="s">
-        <v>1582</v>
       </c>
       <c r="E584" s="25"/>
     </row>
@@ -14526,34 +14523,34 @@
         <v>147</v>
       </c>
       <c r="B585" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C585" s="14" t="s">
         <v>1583</v>
       </c>
-      <c r="C585" s="14" t="s">
+      <c r="D585" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="D585" s="9" t="s">
-        <v>1585</v>
-      </c>
       <c r="E585" s="25" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="50" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B586" s="50"/>
-      <c r="C586" s="50"/>
-      <c r="D586" s="50"/>
-      <c r="E586" s="50"/>
+      <c r="A586" s="52" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B586" s="52"/>
+      <c r="C586" s="52"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="52"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="51"/>
-      <c r="B587" s="51"/>
-      <c r="C587" s="51"/>
-      <c r="D587" s="51"/>
-      <c r="E587" s="51"/>
+      <c r="A587" s="50"/>
+      <c r="B587" s="50"/>
+      <c r="C587" s="50"/>
+      <c r="D587" s="50"/>
+      <c r="E587" s="50"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14578,13 +14575,13 @@
         <v>5</v>
       </c>
       <c r="B590" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C590" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="C590" s="9" t="s">
+      <c r="D590" s="9" t="s">
         <v>1589</v>
-      </c>
-      <c r="D590" s="9" t="s">
-        <v>1590</v>
       </c>
       <c r="E590" s="25"/>
     </row>
@@ -14593,13 +14590,13 @@
         <v>9</v>
       </c>
       <c r="B591" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C591" s="9" t="s">
         <v>1591</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="D591" s="9" t="s">
         <v>1592</v>
-      </c>
-      <c r="D591" s="9" t="s">
-        <v>1593</v>
       </c>
       <c r="E591" s="25"/>
     </row>
@@ -14608,13 +14605,13 @@
         <v>13</v>
       </c>
       <c r="B592" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C592" s="9" t="s">
         <v>1594</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="D592" s="9" t="s">
         <v>1595</v>
-      </c>
-      <c r="D592" s="9" t="s">
-        <v>1596</v>
       </c>
       <c r="E592" s="25"/>
     </row>
@@ -14623,13 +14620,13 @@
         <v>17</v>
       </c>
       <c r="B593" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C593" s="9" t="s">
         <v>1597</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="D593" s="9" t="s">
         <v>1598</v>
-      </c>
-      <c r="D593" s="9" t="s">
-        <v>1599</v>
       </c>
       <c r="E593" s="25"/>
     </row>
@@ -14638,13 +14635,13 @@
         <v>35</v>
       </c>
       <c r="B594" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C594" s="9" t="s">
         <v>1600</v>
       </c>
-      <c r="C594" s="9" t="s">
+      <c r="D594" s="9" t="s">
         <v>1601</v>
-      </c>
-      <c r="D594" s="9" t="s">
-        <v>1602</v>
       </c>
       <c r="E594" s="25"/>
     </row>
@@ -14653,13 +14650,13 @@
         <v>39</v>
       </c>
       <c r="B595" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C595" s="9" t="s">
         <v>1603</v>
       </c>
-      <c r="C595" s="9" t="s">
+      <c r="D595" s="9" t="s">
         <v>1604</v>
-      </c>
-      <c r="D595" s="9" t="s">
-        <v>1605</v>
       </c>
       <c r="E595" s="25"/>
     </row>
@@ -14668,13 +14665,13 @@
         <v>43</v>
       </c>
       <c r="B596" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C596" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="C596" s="9" t="s">
+      <c r="D596" s="9" t="s">
         <v>1607</v>
-      </c>
-      <c r="D596" s="9" t="s">
-        <v>1608</v>
       </c>
       <c r="E596" s="25"/>
     </row>
@@ -14683,13 +14680,13 @@
         <v>47</v>
       </c>
       <c r="B597" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C597" s="9" t="s">
         <v>1609</v>
       </c>
-      <c r="C597" s="9" t="s">
+      <c r="D597" s="9" t="s">
         <v>1610</v>
-      </c>
-      <c r="D597" s="9" t="s">
-        <v>1611</v>
       </c>
       <c r="E597" s="25"/>
     </row>
@@ -14698,13 +14695,13 @@
         <v>51</v>
       </c>
       <c r="B598" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C598" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="C598" s="9" t="s">
+      <c r="D598" s="9" t="s">
         <v>1613</v>
-      </c>
-      <c r="D598" s="9" t="s">
-        <v>1614</v>
       </c>
       <c r="E598" s="25"/>
     </row>
@@ -14713,13 +14710,13 @@
         <v>55</v>
       </c>
       <c r="B599" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C599" s="9" t="s">
         <v>1615</v>
       </c>
-      <c r="C599" s="9" t="s">
+      <c r="D599" s="9" t="s">
         <v>1616</v>
-      </c>
-      <c r="D599" s="9" t="s">
-        <v>1617</v>
       </c>
       <c r="E599" s="25"/>
     </row>
@@ -14728,13 +14725,13 @@
         <v>59</v>
       </c>
       <c r="B600" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C600" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="C600" s="9" t="s">
+      <c r="D600" s="9" t="s">
         <v>1619</v>
-      </c>
-      <c r="D600" s="9" t="s">
-        <v>1620</v>
       </c>
       <c r="E600" s="25"/>
     </row>
@@ -14743,13 +14740,13 @@
         <v>63</v>
       </c>
       <c r="B601" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C601" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="D601" s="9" t="s">
         <v>1622</v>
-      </c>
-      <c r="D601" s="9" t="s">
-        <v>1623</v>
       </c>
       <c r="E601" s="25"/>
     </row>
@@ -14758,13 +14755,13 @@
         <v>67</v>
       </c>
       <c r="B602" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C602" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="C602" s="9" t="s">
+      <c r="D602" s="9" t="s">
         <v>1625</v>
-      </c>
-      <c r="D602" s="9" t="s">
-        <v>1626</v>
       </c>
       <c r="E602" s="25"/>
     </row>
@@ -14773,13 +14770,13 @@
         <v>71</v>
       </c>
       <c r="B603" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C603" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="C603" s="9" t="s">
+      <c r="D603" s="9" t="s">
         <v>1628</v>
-      </c>
-      <c r="D603" s="9" t="s">
-        <v>1629</v>
       </c>
       <c r="E603" s="25"/>
     </row>
@@ -14788,13 +14785,13 @@
         <v>75</v>
       </c>
       <c r="B604" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C604" s="9" t="s">
         <v>1630</v>
       </c>
-      <c r="C604" s="9" t="s">
+      <c r="D604" s="9" t="s">
         <v>1631</v>
-      </c>
-      <c r="D604" s="9" t="s">
-        <v>1632</v>
       </c>
       <c r="E604" s="25"/>
     </row>
@@ -14803,13 +14800,13 @@
         <v>79</v>
       </c>
       <c r="B605" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C605" s="9" t="s">
         <v>1633</v>
       </c>
-      <c r="C605" s="9" t="s">
+      <c r="D605" s="9" t="s">
         <v>1634</v>
-      </c>
-      <c r="D605" s="9" t="s">
-        <v>1635</v>
       </c>
       <c r="E605" s="25"/>
     </row>
@@ -14818,13 +14815,13 @@
         <v>83</v>
       </c>
       <c r="B606" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C606" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="C606" s="9" t="s">
+      <c r="D606" s="9" t="s">
         <v>1637</v>
-      </c>
-      <c r="D606" s="9" t="s">
-        <v>1638</v>
       </c>
       <c r="E606" s="25"/>
     </row>
@@ -14833,13 +14830,13 @@
         <v>87</v>
       </c>
       <c r="B607" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C607" s="9" t="s">
         <v>1639</v>
       </c>
-      <c r="C607" s="9" t="s">
+      <c r="D607" s="9" t="s">
         <v>1640</v>
-      </c>
-      <c r="D607" s="9" t="s">
-        <v>1641</v>
       </c>
       <c r="E607" s="25"/>
     </row>
@@ -14848,13 +14845,13 @@
         <v>91</v>
       </c>
       <c r="B608" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C608" s="9" t="s">
         <v>1642</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="D608" s="9" t="s">
         <v>1643</v>
-      </c>
-      <c r="D608" s="9" t="s">
-        <v>1644</v>
       </c>
       <c r="E608" s="25"/>
     </row>
@@ -14863,13 +14860,13 @@
         <v>95</v>
       </c>
       <c r="B609" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C609" s="9" t="s">
         <v>1645</v>
       </c>
-      <c r="C609" s="9" t="s">
+      <c r="D609" s="9" t="s">
         <v>1646</v>
-      </c>
-      <c r="D609" s="9" t="s">
-        <v>1647</v>
       </c>
       <c r="E609" s="25"/>
     </row>
@@ -14878,13 +14875,13 @@
         <v>99</v>
       </c>
       <c r="B610" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C610" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="C610" s="9" t="s">
+      <c r="D610" s="9" t="s">
         <v>1649</v>
-      </c>
-      <c r="D610" s="9" t="s">
-        <v>1650</v>
       </c>
       <c r="E610" s="25"/>
     </row>
@@ -14893,13 +14890,13 @@
         <v>103</v>
       </c>
       <c r="B611" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C611" s="9" t="s">
         <v>1651</v>
       </c>
-      <c r="C611" s="9" t="s">
+      <c r="D611" s="9" t="s">
         <v>1652</v>
-      </c>
-      <c r="D611" s="9" t="s">
-        <v>1653</v>
       </c>
       <c r="E611" s="25"/>
     </row>
@@ -14908,13 +14905,13 @@
         <v>107</v>
       </c>
       <c r="B612" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C612" s="9" t="s">
         <v>1654</v>
       </c>
-      <c r="C612" s="9" t="s">
+      <c r="D612" s="9" t="s">
         <v>1655</v>
-      </c>
-      <c r="D612" s="9" t="s">
-        <v>1656</v>
       </c>
       <c r="E612" s="25"/>
     </row>
@@ -14923,13 +14920,13 @@
         <v>111</v>
       </c>
       <c r="B613" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C613" s="9" t="s">
         <v>1657</v>
       </c>
-      <c r="C613" s="9" t="s">
+      <c r="D613" s="9" t="s">
         <v>1658</v>
-      </c>
-      <c r="D613" s="9" t="s">
-        <v>1659</v>
       </c>
       <c r="E613" s="25"/>
     </row>
@@ -14938,13 +14935,13 @@
         <v>115</v>
       </c>
       <c r="B614" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C614" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="C614" s="9" t="s">
+      <c r="D614" s="9" t="s">
         <v>1661</v>
-      </c>
-      <c r="D614" s="9" t="s">
-        <v>1662</v>
       </c>
       <c r="E614" s="25"/>
     </row>
@@ -14953,17 +14950,17 @@
         <v>119</v>
       </c>
       <c r="B615" s="9" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C615" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="C615" s="9" t="s">
+      <c r="D615" s="9" t="s">
         <v>1664</v>
-      </c>
-      <c r="D615" s="9" t="s">
-        <v>1665</v>
       </c>
       <c r="E615" s="25"/>
       <c r="G615" s="49" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="616" spans="1:7" ht="12" x14ac:dyDescent="0.15">
@@ -14971,13 +14968,13 @@
         <v>123</v>
       </c>
       <c r="B616" s="9" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C616" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="C616" s="9" t="s">
+      <c r="D616" s="9" t="s">
         <v>1667</v>
-      </c>
-      <c r="D616" s="9" t="s">
-        <v>1668</v>
       </c>
       <c r="E616" s="25"/>
     </row>
@@ -14986,13 +14983,13 @@
         <v>127</v>
       </c>
       <c r="B617" s="9" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C617" s="9" t="s">
         <v>1669</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="D617" s="9" t="s">
         <v>1670</v>
-      </c>
-      <c r="D617" s="9" t="s">
-        <v>1671</v>
       </c>
       <c r="E617" s="25"/>
     </row>
@@ -15001,13 +14998,13 @@
         <v>131</v>
       </c>
       <c r="B618" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C618" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="C618" s="9" t="s">
+      <c r="D618" s="9" t="s">
         <v>1673</v>
-      </c>
-      <c r="D618" s="9" t="s">
-        <v>1674</v>
       </c>
       <c r="E618" s="25"/>
     </row>
@@ -15016,13 +15013,13 @@
         <v>135</v>
       </c>
       <c r="B619" s="9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C619" s="9" t="s">
         <v>1675</v>
       </c>
-      <c r="C619" s="9" t="s">
+      <c r="D619" s="9" t="s">
         <v>1676</v>
-      </c>
-      <c r="D619" s="9" t="s">
-        <v>1677</v>
       </c>
       <c r="E619" s="25"/>
     </row>
@@ -15031,13 +15028,13 @@
         <v>139</v>
       </c>
       <c r="B620" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C620" s="9" t="s">
         <v>1678</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="D620" s="9" t="s">
         <v>1679</v>
-      </c>
-      <c r="D620" s="9" t="s">
-        <v>1680</v>
       </c>
       <c r="E620" s="25"/>
     </row>
@@ -15046,13 +15043,13 @@
         <v>143</v>
       </c>
       <c r="B621" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C621" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="D621" s="9" t="s">
         <v>1682</v>
-      </c>
-      <c r="D621" s="9" t="s">
-        <v>1683</v>
       </c>
       <c r="E621" s="25"/>
     </row>
@@ -15061,13 +15058,13 @@
         <v>147</v>
       </c>
       <c r="B622" s="9" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C622" s="9" t="s">
         <v>1684</v>
       </c>
-      <c r="C622" s="9" t="s">
+      <c r="D622" s="9" t="s">
         <v>1685</v>
-      </c>
-      <c r="D622" s="9" t="s">
-        <v>1686</v>
       </c>
       <c r="E622" s="25"/>
     </row>
@@ -15076,13 +15073,13 @@
         <v>151</v>
       </c>
       <c r="B623" s="9" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C623" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="C623" s="9" t="s">
+      <c r="D623" s="9" t="s">
         <v>1688</v>
-      </c>
-      <c r="D623" s="9" t="s">
-        <v>1689</v>
       </c>
       <c r="E623" s="25"/>
     </row>
@@ -15091,13 +15088,13 @@
         <v>155</v>
       </c>
       <c r="B624" s="9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C624" s="9" t="s">
         <v>1690</v>
       </c>
-      <c r="C624" s="9" t="s">
+      <c r="D624" s="9" t="s">
         <v>1691</v>
-      </c>
-      <c r="D624" s="9" t="s">
-        <v>1692</v>
       </c>
       <c r="E624" s="25"/>
     </row>
@@ -15106,13 +15103,13 @@
         <v>159</v>
       </c>
       <c r="B625" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C625" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="C625" s="9" t="s">
+      <c r="D625" s="9" t="s">
         <v>1694</v>
-      </c>
-      <c r="D625" s="9" t="s">
-        <v>1695</v>
       </c>
       <c r="E625" s="25"/>
     </row>
@@ -15121,13 +15118,13 @@
         <v>163</v>
       </c>
       <c r="B626" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C626" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="C626" s="9" t="s">
+      <c r="D626" s="9" t="s">
         <v>1697</v>
-      </c>
-      <c r="D626" s="9" t="s">
-        <v>1698</v>
       </c>
       <c r="E626" s="25"/>
     </row>
@@ -15136,13 +15133,13 @@
         <v>167</v>
       </c>
       <c r="B627" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C627" s="9" t="s">
         <v>1699</v>
       </c>
-      <c r="C627" s="9" t="s">
+      <c r="D627" s="9" t="s">
         <v>1700</v>
-      </c>
-      <c r="D627" s="9" t="s">
-        <v>1701</v>
       </c>
       <c r="E627" s="25"/>
     </row>
@@ -15151,13 +15148,13 @@
         <v>171</v>
       </c>
       <c r="B628" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C628" s="9" t="s">
         <v>1702</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="D628" s="9" t="s">
         <v>1703</v>
-      </c>
-      <c r="D628" s="9" t="s">
-        <v>1704</v>
       </c>
       <c r="E628" s="25"/>
     </row>
@@ -15166,13 +15163,13 @@
         <v>175</v>
       </c>
       <c r="B629" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C629" s="9" t="s">
         <v>1705</v>
       </c>
-      <c r="C629" s="9" t="s">
+      <c r="D629" s="9" t="s">
         <v>1706</v>
-      </c>
-      <c r="D629" s="9" t="s">
-        <v>1707</v>
       </c>
       <c r="E629" s="25"/>
     </row>
@@ -15181,13 +15178,13 @@
         <v>179</v>
       </c>
       <c r="B630" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C630" s="9" t="s">
         <v>1708</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="D630" s="9" t="s">
         <v>1709</v>
-      </c>
-      <c r="D630" s="9" t="s">
-        <v>1710</v>
       </c>
       <c r="E630" s="25"/>
     </row>
@@ -15196,13 +15193,13 @@
         <v>183</v>
       </c>
       <c r="B631" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C631" s="9" t="s">
         <v>1711</v>
       </c>
-      <c r="C631" s="9" t="s">
+      <c r="D631" s="9" t="s">
         <v>1712</v>
-      </c>
-      <c r="D631" s="9" t="s">
-        <v>1713</v>
       </c>
       <c r="E631" s="25"/>
     </row>
@@ -15211,24 +15208,24 @@
         <v>187</v>
       </c>
       <c r="B632" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C632" s="9" t="s">
         <v>1714</v>
       </c>
-      <c r="C632" s="9" t="s">
+      <c r="D632" s="9" t="s">
         <v>1715</v>
       </c>
-      <c r="D632" s="9" t="s">
-        <v>1716</v>
-      </c>
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="50" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B633" s="50"/>
-      <c r="C633" s="50"/>
-      <c r="D633" s="50"/>
-      <c r="E633" s="50"/>
+      <c r="A633" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B633" s="52"/>
+      <c r="C633" s="52"/>
+      <c r="D633" s="52"/>
+      <c r="E633" s="52"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15247,13 +15244,13 @@
         <v>361556</v>
       </c>
       <c r="C635" s="15" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D635" s="15" t="s">
         <v>1721</v>
       </c>
-      <c r="D635" s="15" t="s">
-        <v>1722</v>
-      </c>
       <c r="E635" s="28" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
@@ -15264,10 +15261,10 @@
         <v>1324701</v>
       </c>
       <c r="C636" s="9" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D636" s="9" t="s">
         <v>1723</v>
-      </c>
-      <c r="D636" s="9" t="s">
-        <v>1724</v>
       </c>
       <c r="E636" s="25"/>
     </row>
@@ -15279,29 +15276,29 @@
         <v>1324688</v>
       </c>
       <c r="C637" s="21" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D637" s="9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E637" s="25"/>
+    </row>
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="50" t="s">
         <v>1725</v>
       </c>
-      <c r="E637" s="25"/>
-    </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="51" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B639" s="51"/>
-      <c r="C639" s="51"/>
-      <c r="D639" s="51"/>
-      <c r="E639" s="51"/>
+      <c r="B639" s="50"/>
+      <c r="C639" s="50"/>
+      <c r="D639" s="50"/>
+      <c r="E639" s="50"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="52"/>
-      <c r="B640" s="52"/>
-      <c r="C640" s="52"/>
-      <c r="D640" s="52"/>
-      <c r="E640" s="52"/>
+      <c r="A640" s="51"/>
+      <c r="B640" s="51"/>
+      <c r="C640" s="51"/>
+      <c r="D640" s="51"/>
+      <c r="E640" s="51"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15329,10 +15326,10 @@
         <v>2094995</v>
       </c>
       <c r="C642" s="20" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D642" s="21" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E642" s="25"/>
     </row>
@@ -15344,10 +15341,10 @@
         <v>2095303</v>
       </c>
       <c r="C643" s="20" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D643" s="21" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E643" s="25"/>
     </row>
@@ -15359,10 +15356,10 @@
         <v>1324716</v>
       </c>
       <c r="C644" s="20" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D644" s="21" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E644" s="25"/>
     </row>
@@ -15374,10 +15371,10 @@
         <v>2136996</v>
       </c>
       <c r="C645" s="20" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D645" s="21" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E645" s="25"/>
     </row>
@@ -15389,10 +15386,10 @@
         <v>2095258</v>
       </c>
       <c r="C646" s="20" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D646" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E646" s="25"/>
     </row>
@@ -15404,10 +15401,10 @@
         <v>1480879</v>
       </c>
       <c r="C647" s="20" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D647" s="21" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E647" s="25"/>
     </row>
@@ -15419,13 +15416,13 @@
         <v>1480732</v>
       </c>
       <c r="C648" s="14" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D648" s="21" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E648" s="25" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -15436,13 +15433,13 @@
         <v>1480725</v>
       </c>
       <c r="C649" s="14" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D649" s="21" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E649" s="25" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -15453,10 +15450,10 @@
         <v>1324706</v>
       </c>
       <c r="C650" s="20" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D650" s="21" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E650" s="25"/>
     </row>
@@ -15468,10 +15465,10 @@
         <v>370197</v>
       </c>
       <c r="C651" s="20" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D651" s="21" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E651" s="25"/>
     </row>
@@ -15483,10 +15480,10 @@
         <v>419439</v>
       </c>
       <c r="C652" s="22" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D652" s="21" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E652" s="25"/>
     </row>
@@ -15498,10 +15495,10 @@
         <v>427163</v>
       </c>
       <c r="C653" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D653" s="21" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E653" s="25"/>
     </row>
@@ -15513,10 +15510,10 @@
         <v>427184</v>
       </c>
       <c r="C654" s="22" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D654" s="21" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E654" s="25"/>
     </row>
@@ -15558,13 +15555,13 @@
         <v>1324784</v>
       </c>
       <c r="C662" s="37" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D662" s="38" t="s">
         <v>1757</v>
       </c>
-      <c r="D662" s="38" t="s">
+      <c r="E662" s="39" t="s">
         <v>1758</v>
-      </c>
-      <c r="E662" s="39" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
@@ -15575,13 +15572,13 @@
         <v>1324752</v>
       </c>
       <c r="C663" s="30" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D663" s="30" t="s">
         <v>1760</v>
       </c>
-      <c r="D663" s="30" t="s">
+      <c r="E663" s="39" t="s">
         <v>1761</v>
-      </c>
-      <c r="E663" s="39" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
@@ -15592,13 +15589,13 @@
         <v>1324741</v>
       </c>
       <c r="C664" s="41" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D664" s="41" t="s">
         <v>1763</v>
       </c>
-      <c r="D664" s="41" t="s">
+      <c r="E664" s="39" t="s">
         <v>1764</v>
-      </c>
-      <c r="E664" s="39" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.15">
@@ -15609,11 +15606,11 @@
         <v>347187</v>
       </c>
       <c r="C665" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D665" s="42"/>
       <c r="E665" s="44" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.15">
@@ -15624,11 +15621,11 @@
         <v>454273</v>
       </c>
       <c r="C666" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D666" s="42"/>
       <c r="E666" s="44" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.15">
@@ -15639,11 +15636,11 @@
         <v>1480884</v>
       </c>
       <c r="C667" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D667" s="42"/>
       <c r="E667" s="44" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.15">
@@ -15654,11 +15651,11 @@
         <v>1480889</v>
       </c>
       <c r="C668" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D668" s="42"/>
       <c r="E668" s="44" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.15">
@@ -15669,11 +15666,11 @@
         <v>359268</v>
       </c>
       <c r="C669" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D669" s="42"/>
       <c r="E669" s="44" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="11.25" x14ac:dyDescent="0.15">
@@ -15684,11 +15681,11 @@
         <v>617</v>
       </c>
       <c r="C670" s="45" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D670" s="45"/>
       <c r="E670" s="46" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.15">
@@ -15699,11 +15696,11 @@
         <v>370204</v>
       </c>
       <c r="C671" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D671" s="42"/>
       <c r="E671" s="44" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -15714,11 +15711,11 @@
         <v>2128206</v>
       </c>
       <c r="C672" s="45" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D672" s="47"/>
       <c r="E672" s="48" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.15">
@@ -15729,11 +15726,11 @@
         <v>361568</v>
       </c>
       <c r="C673" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D673" s="42"/>
       <c r="E673" s="44" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.15">
@@ -15744,11 +15741,11 @@
         <v>434936</v>
       </c>
       <c r="C674" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D674" s="42"/>
       <c r="E674" s="44" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.15">
@@ -15759,11 +15756,11 @@
         <v>370194</v>
       </c>
       <c r="C675" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D675" s="42"/>
       <c r="E675" s="44" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.15">
@@ -15774,11 +15771,11 @@
         <v>370196</v>
       </c>
       <c r="C676" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D676" s="42"/>
       <c r="E676" s="44" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.15">
@@ -15789,11 +15786,11 @@
         <v>422154</v>
       </c>
       <c r="C677" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D677" s="42"/>
       <c r="E677" s="44" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.15">
@@ -15804,11 +15801,11 @@
         <v>405197</v>
       </c>
       <c r="C678" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D678" s="42"/>
       <c r="E678" s="44" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.15">
@@ -15819,11 +15816,11 @@
         <v>405200</v>
       </c>
       <c r="C679" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D679" s="42"/>
       <c r="E679" s="44" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.15">
@@ -15834,11 +15831,11 @@
         <v>370209</v>
       </c>
       <c r="C680" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D680" s="42"/>
       <c r="E680" s="44" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.15">
@@ -15849,11 +15846,11 @@
         <v>387281</v>
       </c>
       <c r="C681" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D681" s="42"/>
       <c r="E681" s="44" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.15">
@@ -15864,11 +15861,11 @@
         <v>370213</v>
       </c>
       <c r="C682" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D682" s="42"/>
       <c r="E682" s="44" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.15">
@@ -15879,18 +15876,18 @@
         <v>1234790</v>
       </c>
       <c r="C683" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D683" s="42"/>
       <c r="E683" s="44" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A684" s="42"/>
       <c r="B684" s="42"/>
       <c r="C684" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D684" s="42"/>
       <c r="E684" s="44"/>
@@ -15899,7 +15896,7 @@
       <c r="A685" s="42"/>
       <c r="B685" s="42"/>
       <c r="C685" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D685" s="42"/>
       <c r="E685" s="44"/>
@@ -15908,7 +15905,7 @@
       <c r="A686" s="42"/>
       <c r="B686" s="42"/>
       <c r="C686" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D686" s="42"/>
       <c r="E686" s="44"/>
@@ -15917,7 +15914,7 @@
       <c r="A687" s="42"/>
       <c r="B687" s="42"/>
       <c r="C687" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D687" s="42"/>
       <c r="E687" s="44"/>
@@ -15926,7 +15923,7 @@
       <c r="A688" s="42"/>
       <c r="B688" s="42"/>
       <c r="C688" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D688" s="42"/>
       <c r="E688" s="44"/>
@@ -15935,7 +15932,7 @@
       <c r="A689" s="42"/>
       <c r="B689" s="42"/>
       <c r="C689" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D689" s="42"/>
       <c r="E689" s="44"/>
@@ -15944,7 +15941,7 @@
       <c r="A690" s="42"/>
       <c r="B690" s="42"/>
       <c r="C690" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D690" s="42"/>
       <c r="E690" s="44"/>
@@ -15958,17 +15955,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15977,6 +15963,17 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>
@@ -16004,9 +16001,11 @@
     <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)"/>
     <hyperlink ref="C169" r:id="rId21"/>
     <hyperlink ref="C545" r:id="rId22"/>
+    <hyperlink ref="C381" r:id="rId23"/>
+    <hyperlink ref="C321" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -16042,13 +16041,13 @@
     </row>
     <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>1560</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1561</v>
       </c>
       <c r="D2" s="32"/>
     </row>
@@ -16069,10 +16068,10 @@
         <v>361556</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>1721</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1722</v>
       </c>
       <c r="D4" s="33"/>
     </row>
@@ -16081,10 +16080,10 @@
         <v>1324752</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1760</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>1761</v>
       </c>
       <c r="D5" s="33"/>
     </row>
@@ -16171,7 +16170,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mukatanov.sn\Documents\GitHub\Technica\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1799">
   <si>
     <t>П/П</t>
   </si>
@@ -5413,6 +5408,12 @@
   </si>
   <si>
     <t>89701018624307202287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 автономный</t>
+  </si>
+  <si>
+    <t>89701018624317940991</t>
   </si>
 </sst>
 </file>
@@ -5647,7 +5648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5786,17 +5787,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5859,7 +5863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5894,7 +5898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6106,49 +6110,49 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G691"/>
+  <dimension ref="A1:G694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="E694" sqref="E694"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="53" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+    <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6180,7 +6184,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -6195,7 +6199,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -6210,7 +6214,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -6225,25 +6229,25 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -6276,7 +6280,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6292,7 +6296,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -6324,7 +6328,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6340,7 +6344,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -6356,7 +6360,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -6372,7 +6376,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6388,7 +6392,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -6420,7 +6424,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -6436,7 +6440,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -6471,7 +6475,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -6487,7 +6491,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -6503,7 +6507,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -6519,7 +6523,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -6535,7 +6539,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -6551,7 +6555,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -6567,7 +6571,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -6583,7 +6587,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
@@ -6599,7 +6603,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -6615,7 +6619,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -6631,7 +6635,7 @@
       <c r="E35" s="25"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -6647,7 +6651,7 @@
       <c r="E36" s="25"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -6663,7 +6667,7 @@
       <c r="E37" s="25"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -6679,7 +6683,7 @@
       <c r="E38" s="25"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>123</v>
       </c>
@@ -6694,7 +6698,7 @@
       </c>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>127</v>
       </c>
@@ -6709,7 +6713,7 @@
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>131</v>
       </c>
@@ -6724,7 +6728,7 @@
       </c>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
@@ -6739,7 +6743,7 @@
       </c>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>139</v>
       </c>
@@ -6754,7 +6758,7 @@
       </c>
       <c r="E43" s="25"/>
     </row>
-    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -6769,7 +6773,7 @@
       </c>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -6784,7 +6788,7 @@
       </c>
       <c r="E45" s="25"/>
     </row>
-    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -6799,7 +6803,7 @@
       </c>
       <c r="E46" s="25"/>
     </row>
-    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -6814,7 +6818,7 @@
       </c>
       <c r="E47" s="25"/>
     </row>
-    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -6829,7 +6833,7 @@
       </c>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>163</v>
       </c>
@@ -6844,7 +6848,7 @@
       </c>
       <c r="E49" s="25"/>
     </row>
-    <row r="50" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6859,7 +6863,7 @@
       </c>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
@@ -6874,7 +6878,7 @@
       </c>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>175</v>
       </c>
@@ -6889,7 +6893,7 @@
       </c>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>179</v>
       </c>
@@ -6904,7 +6908,7 @@
       </c>
       <c r="E53" s="25"/>
     </row>
-    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
@@ -6919,7 +6923,7 @@
       </c>
       <c r="E54" s="25"/>
     </row>
-    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -6934,7 +6938,7 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>191</v>
       </c>
@@ -6949,7 +6953,7 @@
       </c>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>195</v>
       </c>
@@ -6964,7 +6968,7 @@
       </c>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>199</v>
       </c>
@@ -6979,25 +6983,25 @@
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="50" t="s">
+    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
+    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
@@ -7029,7 +7033,7 @@
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
@@ -7044,7 +7048,7 @@
       </c>
       <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>13</v>
       </c>
@@ -7059,7 +7063,7 @@
       </c>
       <c r="E65" s="25"/>
     </row>
-    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -7074,7 +7078,7 @@
       </c>
       <c r="E66" s="25"/>
     </row>
-    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>35</v>
       </c>
@@ -7089,7 +7093,7 @@
       </c>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>39</v>
       </c>
@@ -7104,7 +7108,7 @@
       </c>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>43</v>
       </c>
@@ -7119,25 +7123,25 @@
       </c>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="50" t="s">
+    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
+    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -7169,7 +7173,7 @@
       </c>
       <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7184,7 +7188,7 @@
       </c>
       <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
@@ -7199,7 +7203,7 @@
       </c>
       <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>17</v>
       </c>
@@ -7214,7 +7218,7 @@
       </c>
       <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>35</v>
       </c>
@@ -7229,7 +7233,7 @@
       </c>
       <c r="E78" s="25"/>
     </row>
-    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -7244,7 +7248,7 @@
       </c>
       <c r="E79" s="25"/>
     </row>
-    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>43</v>
       </c>
@@ -7259,7 +7263,7 @@
       </c>
       <c r="E80" s="25"/>
     </row>
-    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>47</v>
       </c>
@@ -7274,7 +7278,7 @@
       </c>
       <c r="E81" s="25"/>
     </row>
-    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>51</v>
       </c>
@@ -7289,7 +7293,7 @@
       </c>
       <c r="E82" s="25"/>
     </row>
-    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7304,7 +7308,7 @@
       </c>
       <c r="E83" s="25"/>
     </row>
-    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>59</v>
       </c>
@@ -7319,7 +7323,7 @@
       </c>
       <c r="E84" s="25"/>
     </row>
-    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -7334,7 +7338,7 @@
       </c>
       <c r="E85" s="25"/>
     </row>
-    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>67</v>
       </c>
@@ -7349,7 +7353,7 @@
       </c>
       <c r="E86" s="25"/>
     </row>
-    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -7364,7 +7368,7 @@
       </c>
       <c r="E87" s="25"/>
     </row>
-    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>75</v>
       </c>
@@ -7379,7 +7383,7 @@
       </c>
       <c r="E88" s="25"/>
     </row>
-    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>79</v>
       </c>
@@ -7394,7 +7398,7 @@
       </c>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
@@ -7409,7 +7413,7 @@
       </c>
       <c r="E90" s="25"/>
     </row>
-    <row r="91" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>87</v>
       </c>
@@ -7424,7 +7428,7 @@
       </c>
       <c r="E91" s="25"/>
     </row>
-    <row r="92" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -7439,7 +7443,7 @@
       </c>
       <c r="E92" s="25"/>
     </row>
-    <row r="93" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
@@ -7454,7 +7458,7 @@
       </c>
       <c r="E93" s="25"/>
     </row>
-    <row r="94" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
@@ -7469,7 +7473,7 @@
       </c>
       <c r="E94" s="25"/>
     </row>
-    <row r="95" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
@@ -7484,7 +7488,7 @@
       </c>
       <c r="E95" s="25"/>
     </row>
-    <row r="96" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>107</v>
       </c>
@@ -7499,7 +7503,7 @@
       </c>
       <c r="E96" s="25"/>
     </row>
-    <row r="97" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -7514,7 +7518,7 @@
       </c>
       <c r="E97" s="25"/>
     </row>
-    <row r="98" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>115</v>
       </c>
@@ -7529,7 +7533,7 @@
       </c>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -7544,7 +7548,7 @@
       </c>
       <c r="E99" s="25"/>
     </row>
-    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>123</v>
       </c>
@@ -7559,7 +7563,7 @@
       </c>
       <c r="E100" s="25"/>
     </row>
-    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -7574,7 +7578,7 @@
       </c>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>131</v>
       </c>
@@ -7589,7 +7593,7 @@
       </c>
       <c r="E102" s="25"/>
     </row>
-    <row r="103" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -7604,7 +7608,7 @@
       </c>
       <c r="E103" s="25"/>
     </row>
-    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -7619,7 +7623,7 @@
       </c>
       <c r="E104" s="25"/>
     </row>
-    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>143</v>
       </c>
@@ -7634,7 +7638,7 @@
       </c>
       <c r="E105" s="25"/>
     </row>
-    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>147</v>
       </c>
@@ -7649,7 +7653,7 @@
       </c>
       <c r="E106" s="25"/>
     </row>
-    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>151</v>
       </c>
@@ -7664,7 +7668,7 @@
       </c>
       <c r="E107" s="25"/>
     </row>
-    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -7681,7 +7685,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
@@ -7696,7 +7700,7 @@
       </c>
       <c r="E109" s="25"/>
     </row>
-    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>163</v>
       </c>
@@ -7711,7 +7715,7 @@
       </c>
       <c r="E110" s="25"/>
     </row>
-    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -7726,7 +7730,7 @@
       </c>
       <c r="E111" s="25"/>
     </row>
-    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -7741,7 +7745,7 @@
       </c>
       <c r="E112" s="25"/>
     </row>
-    <row r="113" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>175</v>
       </c>
@@ -7756,7 +7760,7 @@
       </c>
       <c r="E113" s="25"/>
     </row>
-    <row r="114" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>179</v>
       </c>
@@ -7771,25 +7775,25 @@
       </c>
       <c r="E114" s="25"/>
     </row>
-    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="50" t="s">
+    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
+    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>5</v>
       </c>
@@ -7821,7 +7825,7 @@
       </c>
       <c r="E119" s="25"/>
     </row>
-    <row r="120" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>9</v>
       </c>
@@ -7836,7 +7840,7 @@
       </c>
       <c r="E120" s="25"/>
     </row>
-    <row r="121" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>13</v>
       </c>
@@ -7851,7 +7855,7 @@
       </c>
       <c r="E121" s="25"/>
     </row>
-    <row r="122" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>17</v>
       </c>
@@ -7866,7 +7870,7 @@
       </c>
       <c r="E122" s="25"/>
     </row>
-    <row r="123" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>35</v>
       </c>
@@ -7881,7 +7885,7 @@
       </c>
       <c r="E123" s="25"/>
     </row>
-    <row r="124" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
@@ -7896,7 +7900,7 @@
       </c>
       <c r="E124" s="25"/>
     </row>
-    <row r="125" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>43</v>
       </c>
@@ -7911,7 +7915,7 @@
       </c>
       <c r="E125" s="25"/>
     </row>
-    <row r="126" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>47</v>
       </c>
@@ -7926,7 +7930,7 @@
       </c>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>51</v>
       </c>
@@ -7941,7 +7945,7 @@
       </c>
       <c r="E127" s="25"/>
     </row>
-    <row r="128" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>55</v>
       </c>
@@ -7956,7 +7960,7 @@
       </c>
       <c r="E128" s="25"/>
     </row>
-    <row r="129" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -7971,7 +7975,7 @@
       </c>
       <c r="E129" s="25"/>
     </row>
-    <row r="130" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7986,7 +7990,7 @@
       </c>
       <c r="E130" s="25"/>
     </row>
-    <row r="131" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>67</v>
       </c>
@@ -8001,7 +8005,7 @@
       </c>
       <c r="E131" s="25"/>
     </row>
-    <row r="132" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>71</v>
       </c>
@@ -8016,7 +8020,7 @@
       </c>
       <c r="E132" s="25"/>
     </row>
-    <row r="133" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>75</v>
       </c>
@@ -8031,7 +8035,7 @@
       </c>
       <c r="E133" s="25"/>
     </row>
-    <row r="134" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>79</v>
       </c>
@@ -8046,25 +8050,25 @@
       </c>
       <c r="E134" s="25"/>
     </row>
-    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="50" t="s">
+    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
+    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>5</v>
       </c>
@@ -8096,7 +8100,7 @@
       </c>
       <c r="E139" s="25"/>
     </row>
-    <row r="140" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>9</v>
       </c>
@@ -8111,7 +8115,7 @@
       </c>
       <c r="E140" s="25"/>
     </row>
-    <row r="141" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>13</v>
       </c>
@@ -8126,7 +8130,7 @@
       </c>
       <c r="E141" s="25"/>
     </row>
-    <row r="142" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -8141,7 +8145,7 @@
       </c>
       <c r="E142" s="25"/>
     </row>
-    <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>35</v>
       </c>
@@ -8156,7 +8160,7 @@
       </c>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>39</v>
       </c>
@@ -8171,7 +8175,7 @@
       </c>
       <c r="E144" s="25"/>
     </row>
-    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>43</v>
       </c>
@@ -8186,25 +8190,25 @@
       </c>
       <c r="E145" s="25"/>
     </row>
-    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="50" t="s">
+    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
+    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
@@ -8221,7 +8225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>5</v>
       </c>
@@ -8236,7 +8240,7 @@
       </c>
       <c r="E150" s="25"/>
     </row>
-    <row r="151" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -8251,7 +8255,7 @@
       </c>
       <c r="E151" s="25"/>
     </row>
-    <row r="152" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>13</v>
       </c>
@@ -8266,7 +8270,7 @@
       </c>
       <c r="E152" s="25"/>
     </row>
-    <row r="153" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -8281,7 +8285,7 @@
       </c>
       <c r="E153" s="25"/>
     </row>
-    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>35</v>
       </c>
@@ -8296,7 +8300,7 @@
       </c>
       <c r="E154" s="25"/>
     </row>
-    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>39</v>
       </c>
@@ -8311,7 +8315,7 @@
       </c>
       <c r="E155" s="25"/>
     </row>
-    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>43</v>
       </c>
@@ -8326,7 +8330,7 @@
       </c>
       <c r="E156" s="25"/>
     </row>
-    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>47</v>
       </c>
@@ -8341,7 +8345,7 @@
       </c>
       <c r="E157" s="25"/>
     </row>
-    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>51</v>
       </c>
@@ -8358,7 +8362,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>55</v>
       </c>
@@ -8373,7 +8377,7 @@
       </c>
       <c r="E159" s="25"/>
     </row>
-    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>59</v>
       </c>
@@ -8388,7 +8392,7 @@
       </c>
       <c r="E160" s="25"/>
     </row>
-    <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8403,7 +8407,7 @@
       </c>
       <c r="E161" s="25"/>
     </row>
-    <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>67</v>
       </c>
@@ -8418,7 +8422,7 @@
       </c>
       <c r="E162" s="25"/>
     </row>
-    <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8433,7 +8437,7 @@
       </c>
       <c r="E163" s="25"/>
     </row>
-    <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>75</v>
       </c>
@@ -8448,7 +8452,7 @@
       </c>
       <c r="E164" s="25"/>
     </row>
-    <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="E165" s="25"/>
     </row>
-    <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>83</v>
       </c>
@@ -8478,7 +8482,7 @@
       </c>
       <c r="E166" s="25"/>
     </row>
-    <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8493,7 +8497,7 @@
       </c>
       <c r="E167" s="25"/>
     </row>
-    <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>91</v>
       </c>
@@ -8508,7 +8512,7 @@
       </c>
       <c r="E168" s="25"/>
     </row>
-    <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>95</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>99</v>
       </c>
@@ -8540,7 +8544,7 @@
       </c>
       <c r="E170" s="25"/>
     </row>
-    <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>103</v>
       </c>
@@ -8555,7 +8559,7 @@
       </c>
       <c r="E171" s="25"/>
     </row>
-    <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>107</v>
       </c>
@@ -8570,7 +8574,7 @@
       </c>
       <c r="E172" s="25"/>
     </row>
-    <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8585,7 +8589,7 @@
       </c>
       <c r="E173" s="25"/>
     </row>
-    <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>115</v>
       </c>
@@ -8600,39 +8604,39 @@
       </c>
       <c r="E174" s="25"/>
     </row>
-    <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="50" t="s">
+    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="50"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
+    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -8664,7 +8668,7 @@
       </c>
       <c r="E181" s="25"/>
     </row>
-    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>9</v>
       </c>
@@ -8679,7 +8683,7 @@
       </c>
       <c r="E182" s="25"/>
     </row>
-    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>13</v>
       </c>
@@ -8694,7 +8698,7 @@
       </c>
       <c r="E183" s="25"/>
     </row>
-    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -8709,7 +8713,7 @@
       </c>
       <c r="E184" s="25"/>
     </row>
-    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>35</v>
       </c>
@@ -8724,7 +8728,7 @@
       </c>
       <c r="E185" s="25"/>
     </row>
-    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>39</v>
       </c>
@@ -8739,7 +8743,7 @@
       </c>
       <c r="E186" s="25"/>
     </row>
-    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>43</v>
       </c>
@@ -8754,7 +8758,7 @@
       </c>
       <c r="E187" s="25"/>
     </row>
-    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
         <v>47</v>
       </c>
@@ -8771,25 +8775,25 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="50" t="s">
+    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="50"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="50"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
+    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -8821,7 +8825,7 @@
       </c>
       <c r="E193" s="25"/>
     </row>
-    <row r="194" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8836,7 +8840,7 @@
       </c>
       <c r="E194" s="25"/>
     </row>
-    <row r="195" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>13</v>
       </c>
@@ -8851,7 +8855,7 @@
       </c>
       <c r="E195" s="25"/>
     </row>
-    <row r="196" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8866,7 +8870,7 @@
       </c>
       <c r="E196" s="25"/>
     </row>
-    <row r="197" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>35</v>
       </c>
@@ -8881,7 +8885,7 @@
       </c>
       <c r="E197" s="25"/>
     </row>
-    <row r="198" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8896,7 +8900,7 @@
       </c>
       <c r="E198" s="25"/>
     </row>
-    <row r="199" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>43</v>
       </c>
@@ -8911,7 +8915,7 @@
       </c>
       <c r="E199" s="25"/>
     </row>
-    <row r="200" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8926,7 +8930,7 @@
       </c>
       <c r="E200" s="25"/>
     </row>
-    <row r="201" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>51</v>
       </c>
@@ -8941,7 +8945,7 @@
       </c>
       <c r="E201" s="25"/>
     </row>
-    <row r="202" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8956,7 +8960,7 @@
       </c>
       <c r="E202" s="25"/>
     </row>
-    <row r="203" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -8974,7 +8978,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8989,7 +8993,7 @@
       </c>
       <c r="E204" s="25"/>
     </row>
-    <row r="205" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>67</v>
       </c>
@@ -9004,7 +9008,7 @@
       </c>
       <c r="E205" s="25"/>
     </row>
-    <row r="206" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -9019,7 +9023,7 @@
       </c>
       <c r="E206" s="25"/>
     </row>
-    <row r="207" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>75</v>
       </c>
@@ -9034,7 +9038,7 @@
       </c>
       <c r="E207" s="25"/>
     </row>
-    <row r="208" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -9049,7 +9053,7 @@
       </c>
       <c r="E208" s="25"/>
     </row>
-    <row r="209" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>83</v>
       </c>
@@ -9064,7 +9068,7 @@
       </c>
       <c r="E209" s="25"/>
     </row>
-    <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>87</v>
       </c>
@@ -9079,7 +9083,7 @@
       </c>
       <c r="E210" s="25"/>
     </row>
-    <row r="211" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>91</v>
       </c>
@@ -9094,7 +9098,7 @@
       </c>
       <c r="E211" s="25"/>
     </row>
-    <row r="212" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>95</v>
       </c>
@@ -9109,7 +9113,7 @@
       </c>
       <c r="E212" s="25"/>
     </row>
-    <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>99</v>
       </c>
@@ -9124,7 +9128,7 @@
       </c>
       <c r="E213" s="25"/>
     </row>
-    <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>103</v>
       </c>
@@ -9139,7 +9143,7 @@
       </c>
       <c r="E214" s="25"/>
     </row>
-    <row r="215" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>107</v>
       </c>
@@ -9154,7 +9158,7 @@
       </c>
       <c r="E215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>111</v>
       </c>
@@ -9169,7 +9173,7 @@
       </c>
       <c r="E216" s="25"/>
     </row>
-    <row r="217" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>115</v>
       </c>
@@ -9184,7 +9188,7 @@
       </c>
       <c r="E217" s="25"/>
     </row>
-    <row r="218" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>119</v>
       </c>
@@ -9199,7 +9203,7 @@
       </c>
       <c r="E218" s="25"/>
     </row>
-    <row r="219" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>123</v>
       </c>
@@ -9214,25 +9218,25 @@
       </c>
       <c r="E219" s="25"/>
     </row>
-    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="50" t="s">
+    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="50"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="50"/>
-      <c r="E220" s="50"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="50"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="50"/>
-      <c r="D221" s="50"/>
-      <c r="E221" s="50"/>
+    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="51"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>5</v>
       </c>
@@ -9264,7 +9268,7 @@
       </c>
       <c r="E224" s="25"/>
     </row>
-    <row r="225" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>9</v>
       </c>
@@ -9279,7 +9283,7 @@
       </c>
       <c r="E225" s="25"/>
     </row>
-    <row r="226" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>13</v>
       </c>
@@ -9294,7 +9298,7 @@
       </c>
       <c r="E226" s="25"/>
     </row>
-    <row r="227" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>17</v>
       </c>
@@ -9309,7 +9313,7 @@
       </c>
       <c r="E227" s="25"/>
     </row>
-    <row r="228" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>35</v>
       </c>
@@ -9324,7 +9328,7 @@
       </c>
       <c r="E228" s="25"/>
     </row>
-    <row r="229" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>39</v>
       </c>
@@ -9339,7 +9343,7 @@
       </c>
       <c r="E229" s="28"/>
     </row>
-    <row r="230" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>43</v>
       </c>
@@ -9354,7 +9358,7 @@
       </c>
       <c r="E230" s="25"/>
     </row>
-    <row r="231" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>47</v>
       </c>
@@ -9369,7 +9373,7 @@
       </c>
       <c r="E231" s="25"/>
     </row>
-    <row r="232" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>51</v>
       </c>
@@ -9384,7 +9388,7 @@
       </c>
       <c r="E232" s="25"/>
     </row>
-    <row r="233" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>55</v>
       </c>
@@ -9399,7 +9403,7 @@
       </c>
       <c r="E233" s="25"/>
     </row>
-    <row r="234" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>59</v>
       </c>
@@ -9414,7 +9418,7 @@
       </c>
       <c r="E234" s="25"/>
     </row>
-    <row r="235" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -9429,7 +9433,7 @@
       </c>
       <c r="E235" s="25"/>
     </row>
-    <row r="236" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>67</v>
       </c>
@@ -9444,7 +9448,7 @@
       </c>
       <c r="E236" s="25"/>
     </row>
-    <row r="237" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>71</v>
       </c>
@@ -9459,7 +9463,7 @@
       </c>
       <c r="E237" s="25"/>
     </row>
-    <row r="238" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>75</v>
       </c>
@@ -9474,7 +9478,7 @@
       </c>
       <c r="E238" s="25"/>
     </row>
-    <row r="239" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>79</v>
       </c>
@@ -9489,7 +9493,7 @@
       </c>
       <c r="E239" s="25"/>
     </row>
-    <row r="240" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>83</v>
       </c>
@@ -9504,7 +9508,7 @@
       </c>
       <c r="E240" s="25"/>
     </row>
-    <row r="241" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>87</v>
       </c>
@@ -9519,7 +9523,7 @@
       </c>
       <c r="E241" s="25"/>
     </row>
-    <row r="242" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
         <v>91</v>
       </c>
@@ -9534,7 +9538,7 @@
       </c>
       <c r="E242" s="25"/>
     </row>
-    <row r="243" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>95</v>
       </c>
@@ -9549,7 +9553,7 @@
       </c>
       <c r="E243" s="25"/>
     </row>
-    <row r="244" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>99</v>
       </c>
@@ -9564,7 +9568,7 @@
       </c>
       <c r="E244" s="25"/>
     </row>
-    <row r="245" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>103</v>
       </c>
@@ -9579,7 +9583,7 @@
       </c>
       <c r="E245" s="25"/>
     </row>
-    <row r="246" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>107</v>
       </c>
@@ -9594,7 +9598,7 @@
       </c>
       <c r="E246" s="25"/>
     </row>
-    <row r="247" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -9609,7 +9613,7 @@
       </c>
       <c r="E247" s="25"/>
     </row>
-    <row r="248" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>115</v>
       </c>
@@ -9624,7 +9628,7 @@
       </c>
       <c r="E248" s="25"/>
     </row>
-    <row r="249" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>119</v>
       </c>
@@ -9639,7 +9643,7 @@
       </c>
       <c r="E249" s="25"/>
     </row>
-    <row r="250" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>123</v>
       </c>
@@ -9654,7 +9658,7 @@
       </c>
       <c r="E250" s="25"/>
     </row>
-    <row r="251" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>127</v>
       </c>
@@ -9669,7 +9673,7 @@
       </c>
       <c r="E251" s="25"/>
     </row>
-    <row r="252" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
@@ -9684,7 +9688,7 @@
       </c>
       <c r="E252" s="25"/>
     </row>
-    <row r="253" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>135</v>
       </c>
@@ -9699,7 +9703,7 @@
       </c>
       <c r="E253" s="25"/>
     </row>
-    <row r="254" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>139</v>
       </c>
@@ -9714,7 +9718,7 @@
       </c>
       <c r="E254" s="25"/>
     </row>
-    <row r="255" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>143</v>
       </c>
@@ -9729,7 +9733,7 @@
       </c>
       <c r="E255" s="25"/>
     </row>
-    <row r="256" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>147</v>
       </c>
@@ -9744,7 +9748,7 @@
       </c>
       <c r="E256" s="25"/>
     </row>
-    <row r="257" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
         <v>151</v>
       </c>
@@ -9759,7 +9763,7 @@
       </c>
       <c r="E257" s="25"/>
     </row>
-    <row r="258" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>155</v>
       </c>
@@ -9774,7 +9778,7 @@
       </c>
       <c r="E258" s="25"/>
     </row>
-    <row r="259" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
@@ -9789,7 +9793,7 @@
       </c>
       <c r="E259" s="25"/>
     </row>
-    <row r="260" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>163</v>
       </c>
@@ -9804,7 +9808,7 @@
       </c>
       <c r="E260" s="25"/>
     </row>
-    <row r="261" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>167</v>
       </c>
@@ -9819,7 +9823,7 @@
       </c>
       <c r="E261" s="25"/>
     </row>
-    <row r="262" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>171</v>
       </c>
@@ -9834,7 +9838,7 @@
       </c>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>175</v>
       </c>
@@ -9849,7 +9853,7 @@
       </c>
       <c r="E263" s="25"/>
     </row>
-    <row r="264" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>179</v>
       </c>
@@ -9864,7 +9868,7 @@
       </c>
       <c r="E264" s="25"/>
     </row>
-    <row r="265" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>183</v>
       </c>
@@ -9879,7 +9883,7 @@
       </c>
       <c r="E265" s="25"/>
     </row>
-    <row r="266" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>187</v>
       </c>
@@ -9894,7 +9898,7 @@
       </c>
       <c r="E266" s="25"/>
     </row>
-    <row r="267" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>191</v>
       </c>
@@ -9909,7 +9913,7 @@
       </c>
       <c r="E267" s="25"/>
     </row>
-    <row r="268" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>195</v>
       </c>
@@ -9924,7 +9928,7 @@
       </c>
       <c r="E268" s="25"/>
     </row>
-    <row r="269" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>199</v>
       </c>
@@ -9939,7 +9943,7 @@
       </c>
       <c r="E269" s="25"/>
     </row>
-    <row r="270" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>740</v>
       </c>
@@ -9954,7 +9958,7 @@
       </c>
       <c r="E270" s="25"/>
     </row>
-    <row r="271" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>744</v>
       </c>
@@ -9969,7 +9973,7 @@
       </c>
       <c r="E271" s="25"/>
     </row>
-    <row r="272" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>748</v>
       </c>
@@ -9984,7 +9988,7 @@
       </c>
       <c r="E272" s="25"/>
     </row>
-    <row r="273" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>752</v>
       </c>
@@ -9999,7 +10003,7 @@
       </c>
       <c r="E273" s="25"/>
     </row>
-    <row r="274" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>756</v>
       </c>
@@ -10014,7 +10018,7 @@
       </c>
       <c r="E274" s="25"/>
     </row>
-    <row r="275" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>760</v>
       </c>
@@ -10029,7 +10033,7 @@
       </c>
       <c r="E275" s="25"/>
     </row>
-    <row r="276" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>764</v>
       </c>
@@ -10044,7 +10048,7 @@
       </c>
       <c r="E276" s="25"/>
     </row>
-    <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>768</v>
       </c>
@@ -10059,7 +10063,7 @@
       </c>
       <c r="E277" s="25"/>
     </row>
-    <row r="278" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>772</v>
       </c>
@@ -10074,7 +10078,7 @@
       </c>
       <c r="E278" s="25"/>
     </row>
-    <row r="279" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>776</v>
       </c>
@@ -10089,25 +10093,25 @@
       </c>
       <c r="E279" s="25"/>
     </row>
-    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="50" t="s">
+    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="51" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="50"/>
-      <c r="C280" s="50"/>
-      <c r="D280" s="50"/>
-      <c r="E280" s="50"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="51"/>
-      <c r="B281" s="51"/>
-      <c r="C281" s="51"/>
-      <c r="D281" s="51"/>
-      <c r="E281" s="51"/>
+    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="52"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>0</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>5</v>
       </c>
@@ -10139,7 +10143,7 @@
       </c>
       <c r="E283" s="25"/>
     </row>
-    <row r="284" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -10154,7 +10158,7 @@
       </c>
       <c r="E284" s="25"/>
     </row>
-    <row r="285" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>13</v>
       </c>
@@ -10169,7 +10173,7 @@
       </c>
       <c r="E285" s="25"/>
     </row>
-    <row r="286" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>17</v>
       </c>
@@ -10184,7 +10188,7 @@
       </c>
       <c r="E286" s="25"/>
     </row>
-    <row r="287" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
         <v>35</v>
       </c>
@@ -10199,7 +10203,7 @@
       </c>
       <c r="E287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>39</v>
       </c>
@@ -10214,7 +10218,7 @@
       </c>
       <c r="E288" s="25"/>
     </row>
-    <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>43</v>
       </c>
@@ -10229,7 +10233,7 @@
       </c>
       <c r="E289" s="25"/>
     </row>
-    <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
         <v>47</v>
       </c>
@@ -10244,7 +10248,7 @@
       </c>
       <c r="E290" s="25"/>
     </row>
-    <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>51</v>
       </c>
@@ -10259,7 +10263,7 @@
       </c>
       <c r="E291" s="25"/>
     </row>
-    <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>55</v>
       </c>
@@ -10274,7 +10278,7 @@
       </c>
       <c r="E292" s="25"/>
     </row>
-    <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>59</v>
       </c>
@@ -10289,7 +10293,7 @@
       </c>
       <c r="E293" s="25"/>
     </row>
-    <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>63</v>
       </c>
@@ -10304,7 +10308,7 @@
       </c>
       <c r="E294" s="25"/>
     </row>
-    <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>67</v>
       </c>
@@ -10319,7 +10323,7 @@
       </c>
       <c r="E295" s="25"/>
     </row>
-    <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>71</v>
       </c>
@@ -10334,10 +10338,10 @@
       </c>
       <c r="E296" s="25"/>
     </row>
-    <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
     </row>
-    <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>79</v>
       </c>
@@ -10352,7 +10356,7 @@
       </c>
       <c r="E298" s="25"/>
     </row>
-    <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>83</v>
       </c>
@@ -10367,7 +10371,7 @@
       </c>
       <c r="E299" s="25"/>
     </row>
-    <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>87</v>
       </c>
@@ -10382,7 +10386,7 @@
       </c>
       <c r="E300" s="25"/>
     </row>
-    <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>91</v>
       </c>
@@ -10397,7 +10401,7 @@
       </c>
       <c r="E301" s="25"/>
     </row>
-    <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>95</v>
       </c>
@@ -10412,7 +10416,7 @@
       </c>
       <c r="E302" s="25"/>
     </row>
-    <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>99</v>
       </c>
@@ -10427,7 +10431,7 @@
       </c>
       <c r="E303" s="25"/>
     </row>
-    <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>103</v>
       </c>
@@ -10442,7 +10446,7 @@
       </c>
       <c r="E304" s="25"/>
     </row>
-    <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
         <v>107</v>
       </c>
@@ -10457,7 +10461,7 @@
       </c>
       <c r="E305" s="25"/>
     </row>
-    <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>111</v>
       </c>
@@ -10472,7 +10476,7 @@
       </c>
       <c r="E306" s="25"/>
     </row>
-    <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
         <v>115</v>
       </c>
@@ -10487,7 +10491,7 @@
       </c>
       <c r="E307" s="25"/>
     </row>
-    <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>119</v>
       </c>
@@ -10502,7 +10506,7 @@
       </c>
       <c r="E308" s="25"/>
     </row>
-    <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
         <v>123</v>
       </c>
@@ -10517,7 +10521,7 @@
       </c>
       <c r="E309" s="25"/>
     </row>
-    <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
         <v>127</v>
       </c>
@@ -10532,7 +10536,7 @@
       </c>
       <c r="E310" s="25"/>
     </row>
-    <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
         <v>131</v>
       </c>
@@ -10547,7 +10551,7 @@
       </c>
       <c r="E311" s="25"/>
     </row>
-    <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>135</v>
       </c>
@@ -10562,7 +10566,7 @@
       </c>
       <c r="E312" s="25"/>
     </row>
-    <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
         <v>139</v>
       </c>
@@ -10577,7 +10581,7 @@
       </c>
       <c r="E313" s="25"/>
     </row>
-    <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>143</v>
       </c>
@@ -10592,7 +10596,7 @@
       </c>
       <c r="E314" s="25"/>
     </row>
-    <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
         <v>147</v>
       </c>
@@ -10607,7 +10611,7 @@
       </c>
       <c r="E315" s="25"/>
     </row>
-    <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
         <v>151</v>
       </c>
@@ -10622,7 +10626,7 @@
       </c>
       <c r="E316" s="25"/>
     </row>
-    <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
         <v>155</v>
       </c>
@@ -10637,7 +10641,7 @@
       </c>
       <c r="E317" s="25"/>
     </row>
-    <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>159</v>
       </c>
@@ -10652,7 +10656,7 @@
       </c>
       <c r="E318" s="25"/>
     </row>
-    <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>163</v>
       </c>
@@ -10667,7 +10671,7 @@
       </c>
       <c r="E319" s="25"/>
     </row>
-    <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>167</v>
       </c>
@@ -10682,7 +10686,7 @@
       </c>
       <c r="E320" s="25"/>
     </row>
-    <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
         <v>171</v>
       </c>
@@ -10697,7 +10701,7 @@
       </c>
       <c r="E321" s="25"/>
     </row>
-    <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>175</v>
       </c>
@@ -10712,7 +10716,7 @@
       </c>
       <c r="E322" s="25"/>
     </row>
-    <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
         <v>179</v>
       </c>
@@ -10727,7 +10731,7 @@
       </c>
       <c r="E323" s="25"/>
     </row>
-    <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
         <v>183</v>
       </c>
@@ -10742,7 +10746,7 @@
       </c>
       <c r="E324" s="25"/>
     </row>
-    <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
         <v>187</v>
       </c>
@@ -10757,7 +10761,7 @@
       </c>
       <c r="E325" s="25"/>
     </row>
-    <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A326" s="9" t="s">
         <v>191</v>
       </c>
@@ -10772,7 +10776,7 @@
       </c>
       <c r="E326" s="25"/>
     </row>
-    <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A327" s="9" t="s">
         <v>195</v>
       </c>
@@ -10787,7 +10791,7 @@
       </c>
       <c r="E327" s="25"/>
     </row>
-    <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
         <v>199</v>
       </c>
@@ -10802,7 +10806,7 @@
       </c>
       <c r="E328" s="25"/>
     </row>
-    <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
         <v>740</v>
       </c>
@@ -10817,7 +10821,7 @@
       </c>
       <c r="E329" s="25"/>
     </row>
-    <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>744</v>
       </c>
@@ -10832,7 +10836,7 @@
       </c>
       <c r="E330" s="25"/>
     </row>
-    <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
         <v>748</v>
       </c>
@@ -10847,7 +10851,7 @@
       </c>
       <c r="E331" s="25"/>
     </row>
-    <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
         <v>752</v>
       </c>
@@ -10862,7 +10866,7 @@
       </c>
       <c r="E332" s="25"/>
     </row>
-    <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
         <v>756</v>
       </c>
@@ -10877,7 +10881,7 @@
       </c>
       <c r="E333" s="25"/>
     </row>
-    <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>760</v>
       </c>
@@ -10892,7 +10896,7 @@
       </c>
       <c r="E334" s="25"/>
     </row>
-    <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>764</v>
       </c>
@@ -10907,7 +10911,7 @@
       </c>
       <c r="E335" s="25"/>
     </row>
-    <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
         <v>768</v>
       </c>
@@ -10922,7 +10926,7 @@
       </c>
       <c r="E336" s="25"/>
     </row>
-    <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>772</v>
       </c>
@@ -10937,7 +10941,7 @@
       </c>
       <c r="E337" s="25"/>
     </row>
-    <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A338" s="12">
         <v>55</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
         <v>776</v>
       </c>
@@ -10969,7 +10973,7 @@
       </c>
       <c r="E339" s="25"/>
     </row>
-    <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
         <v>892</v>
       </c>
@@ -10984,7 +10988,7 @@
       </c>
       <c r="E340" s="25"/>
     </row>
-    <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
         <v>895</v>
       </c>
@@ -10999,7 +11003,7 @@
       </c>
       <c r="E341" s="25"/>
     </row>
-    <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
         <v>898</v>
       </c>
@@ -11014,7 +11018,7 @@
       </c>
       <c r="E342" s="25"/>
     </row>
-    <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A343" s="12" t="s">
         <v>901</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>904</v>
       </c>
@@ -11046,7 +11050,7 @@
       </c>
       <c r="E344" s="25"/>
     </row>
-    <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A345" s="9" t="s">
         <v>907</v>
       </c>
@@ -11061,7 +11065,7 @@
       </c>
       <c r="E345" s="25"/>
     </row>
-    <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>910</v>
       </c>
@@ -11076,7 +11080,7 @@
       </c>
       <c r="E346" s="25"/>
     </row>
-    <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
         <v>913</v>
       </c>
@@ -11091,7 +11095,7 @@
       </c>
       <c r="E347" s="25"/>
     </row>
-    <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>916</v>
       </c>
@@ -11106,7 +11110,7 @@
       </c>
       <c r="E348" s="25"/>
     </row>
-    <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
         <v>919</v>
       </c>
@@ -11121,7 +11125,7 @@
       </c>
       <c r="E349" s="25"/>
     </row>
-    <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
         <v>922</v>
       </c>
@@ -11136,7 +11140,7 @@
       </c>
       <c r="E350" s="25"/>
     </row>
-    <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>925</v>
       </c>
@@ -11151,7 +11155,7 @@
       </c>
       <c r="E351" s="25"/>
     </row>
-    <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
         <v>928</v>
       </c>
@@ -11166,7 +11170,7 @@
       </c>
       <c r="E352" s="25"/>
     </row>
-    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
         <v>931</v>
       </c>
@@ -11181,7 +11185,7 @@
       </c>
       <c r="E353" s="25"/>
     </row>
-    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
         <v>934</v>
       </c>
@@ -11196,7 +11200,7 @@
       </c>
       <c r="E354" s="25"/>
     </row>
-    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
         <v>937</v>
       </c>
@@ -11211,7 +11215,7 @@
       </c>
       <c r="E355" s="25"/>
     </row>
-    <row r="356" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
         <v>940</v>
       </c>
@@ -11226,7 +11230,7 @@
       </c>
       <c r="E356" s="25"/>
     </row>
-    <row r="357" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A357" s="9" t="s">
         <v>943</v>
       </c>
@@ -11241,7 +11245,7 @@
       </c>
       <c r="E357" s="25"/>
     </row>
-    <row r="358" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>946</v>
       </c>
@@ -11256,7 +11260,7 @@
       </c>
       <c r="E358" s="25"/>
     </row>
-    <row r="359" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A359" s="9" t="s">
         <v>949</v>
       </c>
@@ -11271,7 +11275,7 @@
       </c>
       <c r="E359" s="25"/>
     </row>
-    <row r="360" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
         <v>952</v>
       </c>
@@ -11286,7 +11290,7 @@
       </c>
       <c r="E360" s="25"/>
     </row>
-    <row r="361" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
         <v>955</v>
       </c>
@@ -11301,7 +11305,7 @@
       </c>
       <c r="E361" s="25"/>
     </row>
-    <row r="362" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
         <v>958</v>
       </c>
@@ -11316,7 +11320,7 @@
       </c>
       <c r="E362" s="25"/>
     </row>
-    <row r="363" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
         <v>961</v>
       </c>
@@ -11331,7 +11335,7 @@
       </c>
       <c r="E363" s="25"/>
     </row>
-    <row r="364" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
         <v>964</v>
       </c>
@@ -11346,7 +11350,7 @@
       </c>
       <c r="E364" s="25"/>
     </row>
-    <row r="365" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
         <v>967</v>
       </c>
@@ -11361,7 +11365,7 @@
       </c>
       <c r="E365" s="25"/>
     </row>
-    <row r="366" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
         <v>970</v>
       </c>
@@ -11376,7 +11380,7 @@
       </c>
       <c r="E366" s="25"/>
     </row>
-    <row r="367" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
         <v>973</v>
       </c>
@@ -11391,7 +11395,7 @@
       </c>
       <c r="E367" s="25"/>
     </row>
-    <row r="368" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
         <v>976</v>
       </c>
@@ -11406,7 +11410,7 @@
       </c>
       <c r="E368" s="25"/>
     </row>
-    <row r="369" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
         <v>979</v>
       </c>
@@ -11421,7 +11425,7 @@
       </c>
       <c r="E369" s="25"/>
     </row>
-    <row r="370" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
         <v>982</v>
       </c>
@@ -11436,7 +11440,7 @@
       </c>
       <c r="E370" s="25"/>
     </row>
-    <row r="371" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A371" s="9" t="s">
         <v>985</v>
       </c>
@@ -11451,7 +11455,7 @@
       </c>
       <c r="E371" s="25"/>
     </row>
-    <row r="372" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
         <v>988</v>
       </c>
@@ -11466,7 +11470,7 @@
       </c>
       <c r="E372" s="25"/>
     </row>
-    <row r="373" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A373" s="12" t="s">
         <v>992</v>
       </c>
@@ -11481,7 +11485,7 @@
       </c>
       <c r="E373" s="25"/>
     </row>
-    <row r="374" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
         <v>996</v>
       </c>
@@ -11496,7 +11500,7 @@
       </c>
       <c r="E374" s="25"/>
     </row>
-    <row r="375" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
         <v>1000</v>
       </c>
@@ -11511,7 +11515,7 @@
       </c>
       <c r="E375" s="25"/>
     </row>
-    <row r="376" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
         <v>1004</v>
       </c>
@@ -11526,7 +11530,7 @@
       </c>
       <c r="E376" s="25"/>
     </row>
-    <row r="377" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
         <v>1008</v>
       </c>
@@ -11541,7 +11545,7 @@
       </c>
       <c r="E377" s="25"/>
     </row>
-    <row r="378" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
         <v>1012</v>
       </c>
@@ -11556,7 +11560,7 @@
       </c>
       <c r="E378" s="25"/>
     </row>
-    <row r="379" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
         <v>1016</v>
       </c>
@@ -11571,7 +11575,7 @@
       </c>
       <c r="E379" s="25"/>
     </row>
-    <row r="380" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>1020</v>
       </c>
@@ -11586,7 +11590,7 @@
       </c>
       <c r="E380" s="25"/>
     </row>
-    <row r="381" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A381" s="9" t="s">
         <v>1023</v>
       </c>
@@ -11604,7 +11608,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
         <v>1026</v>
       </c>
@@ -11619,7 +11623,7 @@
       </c>
       <c r="E382" s="25"/>
     </row>
-    <row r="383" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A383" s="9" t="s">
         <v>1029</v>
       </c>
@@ -11634,7 +11638,7 @@
       </c>
       <c r="E383" s="25"/>
     </row>
-    <row r="384" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
         <v>1032</v>
       </c>
@@ -11649,7 +11653,7 @@
       </c>
       <c r="E384" s="25"/>
     </row>
-    <row r="385" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A385" s="9" t="s">
         <v>1035</v>
       </c>
@@ -11664,7 +11668,7 @@
       </c>
       <c r="E385" s="25"/>
     </row>
-    <row r="386" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
         <v>1038</v>
       </c>
@@ -11679,7 +11683,7 @@
       </c>
       <c r="E386" s="25"/>
     </row>
-    <row r="387" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A387" s="12" t="s">
         <v>1041</v>
       </c>
@@ -11694,7 +11698,7 @@
       </c>
       <c r="E387" s="25"/>
     </row>
-    <row r="388" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
         <v>1044</v>
       </c>
@@ -11709,7 +11713,7 @@
       </c>
       <c r="E388" s="25"/>
     </row>
-    <row r="389" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A389" s="12" t="s">
         <v>1047</v>
       </c>
@@ -11724,7 +11728,7 @@
       </c>
       <c r="E389" s="25"/>
     </row>
-    <row r="390" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
         <v>1050</v>
       </c>
@@ -11739,7 +11743,7 @@
       </c>
       <c r="E390" s="25"/>
     </row>
-    <row r="391" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A391" s="9" t="s">
         <v>1053</v>
       </c>
@@ -11754,7 +11758,7 @@
       </c>
       <c r="E391" s="25"/>
     </row>
-    <row r="392" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
         <v>1056</v>
       </c>
@@ -11769,7 +11773,7 @@
       </c>
       <c r="E392" s="25"/>
     </row>
-    <row r="393" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A393" s="9" t="s">
         <v>1059</v>
       </c>
@@ -11784,7 +11788,7 @@
       </c>
       <c r="E393" s="25"/>
     </row>
-    <row r="394" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A394" s="9" t="s">
         <v>1062</v>
       </c>
@@ -11799,7 +11803,7 @@
       </c>
       <c r="E394" s="25"/>
     </row>
-    <row r="395" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A395" s="9" t="s">
         <v>1065</v>
       </c>
@@ -11814,7 +11818,7 @@
       </c>
       <c r="E395" s="25"/>
     </row>
-    <row r="396" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
         <v>1068</v>
       </c>
@@ -11829,7 +11833,7 @@
       </c>
       <c r="E396" s="25"/>
     </row>
-    <row r="397" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A397" s="9" t="s">
         <v>1071</v>
       </c>
@@ -11844,7 +11848,7 @@
       </c>
       <c r="E397" s="25"/>
     </row>
-    <row r="398" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>1074</v>
       </c>
@@ -11859,7 +11863,7 @@
       </c>
       <c r="E398" s="25"/>
     </row>
-    <row r="399" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A399" s="9" t="s">
         <v>1077</v>
       </c>
@@ -11874,7 +11878,7 @@
       </c>
       <c r="E399" s="25"/>
     </row>
-    <row r="400" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>1080</v>
       </c>
@@ -11889,7 +11893,7 @@
       </c>
       <c r="E400" s="25"/>
     </row>
-    <row r="401" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A401" s="9" t="s">
         <v>1083</v>
       </c>
@@ -11904,7 +11908,7 @@
       </c>
       <c r="E401" s="25"/>
     </row>
-    <row r="402" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A402" s="9" t="s">
         <v>1086</v>
       </c>
@@ -11919,7 +11923,7 @@
       </c>
       <c r="E402" s="25"/>
     </row>
-    <row r="403" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A403" s="9" t="s">
         <v>1089</v>
       </c>
@@ -11934,7 +11938,7 @@
       </c>
       <c r="E403" s="25"/>
     </row>
-    <row r="404" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
         <v>1092</v>
       </c>
@@ -11949,7 +11953,7 @@
       </c>
       <c r="E404" s="25"/>
     </row>
-    <row r="405" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A405" s="9" t="s">
         <v>1096</v>
       </c>
@@ -11964,7 +11968,7 @@
       </c>
       <c r="E405" s="25"/>
     </row>
-    <row r="406" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A406" s="9" t="s">
         <v>1100</v>
       </c>
@@ -11979,7 +11983,7 @@
       </c>
       <c r="E406" s="25"/>
     </row>
-    <row r="407" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A407" s="12" t="s">
         <v>1102</v>
       </c>
@@ -11994,7 +11998,7 @@
       </c>
       <c r="E407" s="25"/>
     </row>
-    <row r="408" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A408" s="9" t="s">
         <v>1105</v>
       </c>
@@ -12009,7 +12013,7 @@
       </c>
       <c r="E408" s="25"/>
     </row>
-    <row r="409" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A409" s="9" t="s">
         <v>1108</v>
       </c>
@@ -12024,7 +12028,7 @@
       </c>
       <c r="E409" s="25"/>
     </row>
-    <row r="410" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A410" s="9" t="s">
         <v>1111</v>
       </c>
@@ -12039,7 +12043,7 @@
       </c>
       <c r="E410" s="25"/>
     </row>
-    <row r="411" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
         <v>1114</v>
       </c>
@@ -12054,7 +12058,7 @@
       </c>
       <c r="E411" s="25"/>
     </row>
-    <row r="412" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
         <v>1117</v>
       </c>
@@ -12069,7 +12073,7 @@
       </c>
       <c r="E412" s="25"/>
     </row>
-    <row r="413" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A413" s="9" t="s">
         <v>1120</v>
       </c>
@@ -12084,7 +12088,7 @@
       </c>
       <c r="E413" s="25"/>
     </row>
-    <row r="414" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A414" s="9" t="s">
         <v>1123</v>
       </c>
@@ -12099,7 +12103,7 @@
       </c>
       <c r="E414" s="25"/>
     </row>
-    <row r="415" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A415" s="9" t="s">
         <v>1126</v>
       </c>
@@ -12114,7 +12118,7 @@
       </c>
       <c r="E415" s="25"/>
     </row>
-    <row r="416" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A416" s="9" t="s">
         <v>1129</v>
       </c>
@@ -12129,7 +12133,7 @@
       </c>
       <c r="E416" s="25"/>
     </row>
-    <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A417" s="9" t="s">
         <v>1132</v>
       </c>
@@ -12144,7 +12148,7 @@
       </c>
       <c r="E417" s="25"/>
     </row>
-    <row r="418" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>1135</v>
       </c>
@@ -12159,7 +12163,7 @@
       </c>
       <c r="E418" s="25"/>
     </row>
-    <row r="419" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>1138</v>
       </c>
@@ -12174,7 +12178,7 @@
       </c>
       <c r="E419" s="25"/>
     </row>
-    <row r="420" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A420" s="9" t="s">
         <v>1141</v>
       </c>
@@ -12189,7 +12193,7 @@
       </c>
       <c r="E420" s="25"/>
     </row>
-    <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
         <v>1144</v>
       </c>
@@ -12204,7 +12208,7 @@
       </c>
       <c r="E421" s="25"/>
     </row>
-    <row r="422" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
         <v>1148</v>
       </c>
@@ -12219,7 +12223,7 @@
       </c>
       <c r="E422" s="25"/>
     </row>
-    <row r="423" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
         <v>1152</v>
       </c>
@@ -12234,7 +12238,7 @@
       </c>
       <c r="E423" s="25"/>
     </row>
-    <row r="424" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>1156</v>
       </c>
@@ -12249,7 +12253,7 @@
       </c>
       <c r="E424" s="25"/>
     </row>
-    <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
         <v>1160</v>
       </c>
@@ -12264,7 +12268,7 @@
       </c>
       <c r="E425" s="25"/>
     </row>
-    <row r="426" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
         <v>1164</v>
       </c>
@@ -12279,7 +12283,7 @@
       </c>
       <c r="E426" s="25"/>
     </row>
-    <row r="427" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
         <v>1168</v>
       </c>
@@ -12294,7 +12298,7 @@
       </c>
       <c r="E427" s="25"/>
     </row>
-    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
         <v>1718</v>
       </c>
@@ -12309,25 +12313,25 @@
       </c>
       <c r="E428" s="25"/>
     </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="52" t="s">
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="50" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="52"/>
-      <c r="C429" s="52"/>
-      <c r="D429" s="52"/>
-      <c r="E429" s="52"/>
+      <c r="B429" s="50"/>
+      <c r="C429" s="50"/>
+      <c r="D429" s="50"/>
+      <c r="E429" s="50"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="50"/>
-      <c r="B430" s="50"/>
-      <c r="C430" s="50"/>
-      <c r="D430" s="50"/>
-      <c r="E430" s="50"/>
+    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="51"/>
+      <c r="B430" s="51"/>
+      <c r="C430" s="51"/>
+      <c r="D430" s="51"/>
+      <c r="E430" s="51"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>0</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
         <v>5</v>
       </c>
@@ -12359,7 +12363,7 @@
       </c>
       <c r="E433" s="25"/>
     </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
         <v>9</v>
       </c>
@@ -12374,7 +12378,7 @@
       </c>
       <c r="E434" s="25"/>
     </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
         <v>13</v>
       </c>
@@ -12389,7 +12393,7 @@
       </c>
       <c r="E435" s="25"/>
     </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
         <v>17</v>
       </c>
@@ -12404,25 +12408,25 @@
       </c>
       <c r="E436" s="25"/>
     </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="52" t="s">
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="50" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="52"/>
-      <c r="C437" s="52"/>
-      <c r="D437" s="52"/>
-      <c r="E437" s="52"/>
+      <c r="B437" s="50"/>
+      <c r="C437" s="50"/>
+      <c r="D437" s="50"/>
+      <c r="E437" s="50"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="50"/>
-      <c r="B438" s="50"/>
-      <c r="C438" s="50"/>
-      <c r="D438" s="50"/>
-      <c r="E438" s="50"/>
+    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="51"/>
+      <c r="B438" s="51"/>
+      <c r="C438" s="51"/>
+      <c r="D438" s="51"/>
+      <c r="E438" s="51"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="7" t="s">
         <v>0</v>
       </c>
@@ -12439,7 +12443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
         <v>5</v>
       </c>
@@ -12454,7 +12458,7 @@
       </c>
       <c r="E441" s="25"/>
     </row>
-    <row r="442" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
         <v>9</v>
       </c>
@@ -12469,7 +12473,7 @@
       </c>
       <c r="E442" s="25"/>
     </row>
-    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9" t="s">
         <v>13</v>
       </c>
@@ -12484,7 +12488,7 @@
       </c>
       <c r="E443" s="25"/>
     </row>
-    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
         <v>17</v>
       </c>
@@ -12499,7 +12503,7 @@
       </c>
       <c r="E444" s="25"/>
     </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
         <v>35</v>
       </c>
@@ -12514,7 +12518,7 @@
       </c>
       <c r="E445" s="25"/>
     </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
         <v>39</v>
       </c>
@@ -12529,7 +12533,7 @@
       </c>
       <c r="E446" s="25"/>
     </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
         <v>43</v>
       </c>
@@ -12544,7 +12548,7 @@
       </c>
       <c r="E447" s="25"/>
     </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
         <v>47</v>
       </c>
@@ -12559,7 +12563,7 @@
       </c>
       <c r="E448" s="25"/>
     </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
         <v>51</v>
       </c>
@@ -12574,7 +12578,7 @@
       </c>
       <c r="E449" s="25"/>
     </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
         <v>55</v>
       </c>
@@ -12589,7 +12593,7 @@
       </c>
       <c r="E450" s="25"/>
     </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
         <v>59</v>
       </c>
@@ -12604,7 +12608,7 @@
       </c>
       <c r="E451" s="25"/>
     </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
         <v>63</v>
       </c>
@@ -12619,7 +12623,7 @@
       </c>
       <c r="E452" s="25"/>
     </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
         <v>67</v>
       </c>
@@ -12634,7 +12638,7 @@
       </c>
       <c r="E453" s="25"/>
     </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
         <v>71</v>
       </c>
@@ -12649,7 +12653,7 @@
       </c>
       <c r="E454" s="25"/>
     </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
         <v>75</v>
       </c>
@@ -12664,7 +12668,7 @@
       </c>
       <c r="E455" s="25"/>
     </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
         <v>79</v>
       </c>
@@ -12679,7 +12683,7 @@
       </c>
       <c r="E456" s="25"/>
     </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
         <v>83</v>
       </c>
@@ -12694,7 +12698,7 @@
       </c>
       <c r="E457" s="25"/>
     </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
         <v>87</v>
       </c>
@@ -12709,7 +12713,7 @@
       </c>
       <c r="E458" s="25"/>
     </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
         <v>91</v>
       </c>
@@ -12724,7 +12728,7 @@
       </c>
       <c r="E459" s="25"/>
     </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
         <v>95</v>
       </c>
@@ -12739,7 +12743,7 @@
       </c>
       <c r="E460" s="25"/>
     </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
         <v>99</v>
       </c>
@@ -12754,7 +12758,7 @@
       </c>
       <c r="E461" s="25"/>
     </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
         <v>103</v>
       </c>
@@ -12769,7 +12773,7 @@
       </c>
       <c r="E462" s="25"/>
     </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
         <v>107</v>
       </c>
@@ -12784,7 +12788,7 @@
       </c>
       <c r="E463" s="25"/>
     </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
         <v>111</v>
       </c>
@@ -12799,7 +12803,7 @@
       </c>
       <c r="E464" s="25"/>
     </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
         <v>115</v>
       </c>
@@ -12814,7 +12818,7 @@
       </c>
       <c r="E465" s="25"/>
     </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
@@ -12829,7 +12833,7 @@
       </c>
       <c r="E466" s="25"/>
     </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
         <v>123</v>
       </c>
@@ -12844,7 +12848,7 @@
       </c>
       <c r="E467" s="25"/>
     </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
@@ -12859,7 +12863,7 @@
       </c>
       <c r="E468" s="25"/>
     </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
         <v>131</v>
       </c>
@@ -12874,7 +12878,7 @@
       </c>
       <c r="E469" s="25"/>
     </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
@@ -12889,7 +12893,7 @@
       </c>
       <c r="E470" s="25"/>
     </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
         <v>139</v>
       </c>
@@ -12904,7 +12908,7 @@
       </c>
       <c r="E471" s="25"/>
     </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
@@ -12919,7 +12923,7 @@
       </c>
       <c r="E472" s="25"/>
     </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
         <v>147</v>
       </c>
@@ -12934,7 +12938,7 @@
       </c>
       <c r="E473" s="25"/>
     </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
@@ -12949,7 +12953,7 @@
       </c>
       <c r="E474" s="25"/>
     </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
         <v>155</v>
       </c>
@@ -12964,7 +12968,7 @@
       </c>
       <c r="E475" s="25"/>
     </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
@@ -12979,7 +12983,7 @@
       </c>
       <c r="E476" s="25"/>
     </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
         <v>163</v>
       </c>
@@ -12994,7 +12998,7 @@
       </c>
       <c r="E477" s="25"/>
     </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
@@ -13009,7 +13013,7 @@
       </c>
       <c r="E478" s="25"/>
     </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
         <v>171</v>
       </c>
@@ -13024,7 +13028,7 @@
       </c>
       <c r="E479" s="25"/>
     </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
@@ -13039,7 +13043,7 @@
       </c>
       <c r="E480" s="25"/>
     </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
         <v>179</v>
       </c>
@@ -13054,7 +13058,7 @@
       </c>
       <c r="E481" s="25"/>
     </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9" t="s">
         <v>183</v>
       </c>
@@ -13069,7 +13073,7 @@
       </c>
       <c r="E482" s="25"/>
     </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
         <v>187</v>
       </c>
@@ -13084,7 +13088,7 @@
       </c>
       <c r="E483" s="25"/>
     </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
         <v>191</v>
       </c>
@@ -13099,7 +13103,7 @@
       </c>
       <c r="E484" s="25"/>
     </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
         <v>195</v>
       </c>
@@ -13114,7 +13118,7 @@
       </c>
       <c r="E485" s="25"/>
     </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9" t="s">
         <v>199</v>
       </c>
@@ -13129,7 +13133,7 @@
       </c>
       <c r="E486" s="25"/>
     </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
         <v>740</v>
       </c>
@@ -13144,7 +13148,7 @@
       </c>
       <c r="E487" s="25"/>
     </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9" t="s">
         <v>744</v>
       </c>
@@ -13159,7 +13163,7 @@
       </c>
       <c r="E488" s="25"/>
     </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
         <v>748</v>
       </c>
@@ -13174,25 +13178,25 @@
       </c>
       <c r="E489" s="25"/>
     </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="52" t="s">
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="50" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="52"/>
-      <c r="C490" s="52"/>
-      <c r="D490" s="52"/>
-      <c r="E490" s="52"/>
+      <c r="B490" s="50"/>
+      <c r="C490" s="50"/>
+      <c r="D490" s="50"/>
+      <c r="E490" s="50"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="50"/>
-      <c r="B491" s="50"/>
-      <c r="C491" s="50"/>
-      <c r="D491" s="50"/>
-      <c r="E491" s="50"/>
+    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="51"/>
+      <c r="B491" s="51"/>
+      <c r="C491" s="51"/>
+      <c r="D491" s="51"/>
+      <c r="E491" s="51"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -13209,7 +13213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="12" t="s">
         <v>5</v>
       </c>
@@ -13226,7 +13230,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="12" t="s">
         <v>9</v>
       </c>
@@ -13241,7 +13245,7 @@
       </c>
       <c r="E495" s="24"/>
     </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>13</v>
       </c>
@@ -13256,7 +13260,7 @@
       </c>
       <c r="E496" s="25"/>
     </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
         <v>17</v>
       </c>
@@ -13271,7 +13275,7 @@
       </c>
       <c r="E497" s="25"/>
     </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
         <v>35</v>
       </c>
@@ -13286,7 +13290,7 @@
       </c>
       <c r="E498" s="25"/>
     </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
@@ -13301,7 +13305,7 @@
       </c>
       <c r="E499" s="25"/>
     </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="12" t="s">
         <v>43</v>
       </c>
@@ -13318,7 +13322,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="12" t="s">
         <v>47</v>
       </c>
@@ -13335,7 +13339,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>51</v>
       </c>
@@ -13350,7 +13354,7 @@
       </c>
       <c r="E502" s="25"/>
     </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
         <v>55</v>
       </c>
@@ -13365,7 +13369,7 @@
       </c>
       <c r="E503" s="25"/>
     </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>59</v>
       </c>
@@ -13380,7 +13384,7 @@
       </c>
       <c r="E504" s="25"/>
     </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
         <v>63</v>
       </c>
@@ -13395,7 +13399,7 @@
       </c>
       <c r="E505" s="25"/>
     </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
         <v>67</v>
       </c>
@@ -13410,7 +13414,7 @@
       </c>
       <c r="E506" s="25"/>
     </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
         <v>71</v>
       </c>
@@ -13425,7 +13429,7 @@
       </c>
       <c r="E507" s="25"/>
     </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
         <v>75</v>
       </c>
@@ -13440,7 +13444,7 @@
       </c>
       <c r="E508" s="25"/>
     </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
         <v>79</v>
       </c>
@@ -13455,7 +13459,7 @@
       </c>
       <c r="E509" s="25"/>
     </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
         <v>83</v>
       </c>
@@ -13470,7 +13474,7 @@
       </c>
       <c r="E510" s="25"/>
     </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
         <v>87</v>
       </c>
@@ -13485,7 +13489,7 @@
       </c>
       <c r="E511" s="25"/>
     </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
         <v>91</v>
       </c>
@@ -13500,7 +13504,7 @@
       </c>
       <c r="E512" s="25"/>
     </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
         <v>95</v>
       </c>
@@ -13515,7 +13519,7 @@
       </c>
       <c r="E513" s="25"/>
     </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
         <v>99</v>
       </c>
@@ -13530,7 +13534,7 @@
       </c>
       <c r="E514" s="25"/>
     </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
         <v>103</v>
       </c>
@@ -13545,7 +13549,7 @@
       </c>
       <c r="E515" s="25"/>
     </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
         <v>107</v>
       </c>
@@ -13560,7 +13564,7 @@
       </c>
       <c r="E516" s="25"/>
     </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
         <v>111</v>
       </c>
@@ -13575,7 +13579,7 @@
       </c>
       <c r="E517" s="25"/>
     </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
         <v>115</v>
       </c>
@@ -13590,7 +13594,7 @@
       </c>
       <c r="E518" s="25"/>
     </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
         <v>119</v>
       </c>
@@ -13605,7 +13609,7 @@
       </c>
       <c r="E519" s="25"/>
     </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
         <v>123</v>
       </c>
@@ -13620,7 +13624,7 @@
       </c>
       <c r="E520" s="25"/>
     </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
         <v>127</v>
       </c>
@@ -13635,7 +13639,7 @@
       </c>
       <c r="E521" s="25"/>
     </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
         <v>131</v>
       </c>
@@ -13650,7 +13654,7 @@
       </c>
       <c r="E522" s="25"/>
     </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
         <v>135</v>
       </c>
@@ -13665,7 +13669,7 @@
       </c>
       <c r="E523" s="25"/>
     </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
         <v>139</v>
       </c>
@@ -13680,7 +13684,7 @@
       </c>
       <c r="E524" s="25"/>
     </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
         <v>143</v>
       </c>
@@ -13695,7 +13699,7 @@
       </c>
       <c r="E525" s="25"/>
     </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
         <v>147</v>
       </c>
@@ -13710,7 +13714,7 @@
       </c>
       <c r="E526" s="25"/>
     </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
         <v>151</v>
       </c>
@@ -13725,25 +13729,25 @@
       </c>
       <c r="E527" s="25"/>
     </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="52" t="s">
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="50" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="52"/>
-      <c r="C528" s="52"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="52"/>
+      <c r="B528" s="50"/>
+      <c r="C528" s="50"/>
+      <c r="D528" s="50"/>
+      <c r="E528" s="50"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="50"/>
-      <c r="B529" s="50"/>
-      <c r="C529" s="50"/>
-      <c r="D529" s="50"/>
-      <c r="E529" s="50"/>
+    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="51"/>
+      <c r="B529" s="51"/>
+      <c r="C529" s="51"/>
+      <c r="D529" s="51"/>
+      <c r="E529" s="51"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>0</v>
       </c>
@@ -13760,7 +13764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
         <v>5</v>
       </c>
@@ -13775,7 +13779,7 @@
       </c>
       <c r="E532" s="25"/>
     </row>
-    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9" t="s">
         <v>9</v>
       </c>
@@ -13790,7 +13794,7 @@
       </c>
       <c r="E533" s="25"/>
     </row>
-    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9" t="s">
         <v>13</v>
       </c>
@@ -13805,7 +13809,7 @@
       </c>
       <c r="E534" s="25"/>
     </row>
-    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9" t="s">
         <v>17</v>
       </c>
@@ -13820,7 +13824,7 @@
       </c>
       <c r="E535" s="25"/>
     </row>
-    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
         <v>35</v>
       </c>
@@ -13835,7 +13839,7 @@
       </c>
       <c r="E536" s="25"/>
     </row>
-    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="12" t="s">
         <v>39</v>
       </c>
@@ -13850,7 +13854,7 @@
       </c>
       <c r="E537" s="25"/>
     </row>
-    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
         <v>43</v>
       </c>
@@ -13865,7 +13869,7 @@
       </c>
       <c r="E538" s="25"/>
     </row>
-    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9" t="s">
         <v>47</v>
       </c>
@@ -13880,7 +13884,7 @@
       </c>
       <c r="E539" s="25"/>
     </row>
-    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9" t="s">
         <v>51</v>
       </c>
@@ -13889,7 +13893,7 @@
       <c r="D540" s="18"/>
       <c r="E540" s="27"/>
     </row>
-    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9" t="s">
         <v>55</v>
       </c>
@@ -13904,7 +13908,7 @@
       </c>
       <c r="E541" s="25"/>
     </row>
-    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9" t="s">
         <v>59</v>
       </c>
@@ -13919,7 +13923,7 @@
       </c>
       <c r="E542" s="25"/>
     </row>
-    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9" t="s">
         <v>63</v>
       </c>
@@ -13928,7 +13932,7 @@
       <c r="D543" s="18"/>
       <c r="E543" s="27"/>
     </row>
-    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9" t="s">
         <v>67</v>
       </c>
@@ -13943,7 +13947,7 @@
       </c>
       <c r="E544" s="25"/>
     </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
@@ -13958,7 +13962,7 @@
       </c>
       <c r="E545" s="25"/>
     </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9" t="s">
         <v>75</v>
       </c>
@@ -13973,7 +13977,7 @@
       </c>
       <c r="E546" s="25"/>
     </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9" t="s">
         <v>79</v>
       </c>
@@ -13988,7 +13992,7 @@
       </c>
       <c r="E547" s="25"/>
     </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9" t="s">
         <v>83</v>
       </c>
@@ -14003,25 +14007,25 @@
       </c>
       <c r="E548" s="25"/>
     </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="52" t="s">
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="50" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" s="52"/>
-      <c r="C549" s="52"/>
-      <c r="D549" s="52"/>
-      <c r="E549" s="52"/>
+      <c r="B549" s="50"/>
+      <c r="C549" s="50"/>
+      <c r="D549" s="50"/>
+      <c r="E549" s="50"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="50"/>
-      <c r="B550" s="50"/>
-      <c r="C550" s="50"/>
-      <c r="D550" s="50"/>
-      <c r="E550" s="50"/>
+    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="51"/>
+      <c r="B550" s="51"/>
+      <c r="C550" s="51"/>
+      <c r="D550" s="51"/>
+      <c r="E550" s="51"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>0</v>
       </c>
@@ -14038,7 +14042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
         <v>5</v>
       </c>
@@ -14053,7 +14057,7 @@
       </c>
       <c r="E553" s="25"/>
     </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9" t="s">
         <v>9</v>
       </c>
@@ -14068,7 +14072,7 @@
       </c>
       <c r="E554" s="25"/>
     </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
         <v>13</v>
       </c>
@@ -14083,7 +14087,7 @@
       </c>
       <c r="E555" s="25"/>
     </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9" t="s">
         <v>17</v>
       </c>
@@ -14098,7 +14102,7 @@
       </c>
       <c r="E556" s="25"/>
     </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
         <v>35</v>
       </c>
@@ -14113,7 +14117,7 @@
       </c>
       <c r="E557" s="25"/>
     </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9" t="s">
         <v>39</v>
       </c>
@@ -14128,7 +14132,7 @@
       </c>
       <c r="E558" s="25"/>
     </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9" t="s">
         <v>43</v>
       </c>
@@ -14143,7 +14147,7 @@
       </c>
       <c r="E559" s="25"/>
     </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9" t="s">
         <v>47</v>
       </c>
@@ -14158,7 +14162,7 @@
       </c>
       <c r="E560" s="25"/>
     </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
         <v>51</v>
       </c>
@@ -14173,7 +14177,7 @@
       </c>
       <c r="E561" s="25"/>
     </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9" t="s">
         <v>55</v>
       </c>
@@ -14188,7 +14192,7 @@
       </c>
       <c r="E562" s="25"/>
     </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
         <v>59</v>
       </c>
@@ -14203,7 +14207,7 @@
       </c>
       <c r="E563" s="25"/>
     </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
         <v>63</v>
       </c>
@@ -14218,7 +14222,7 @@
       </c>
       <c r="E564" s="25"/>
     </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
         <v>67</v>
       </c>
@@ -14233,7 +14237,7 @@
       </c>
       <c r="E565" s="25"/>
     </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
         <v>71</v>
       </c>
@@ -14248,7 +14252,7 @@
       </c>
       <c r="E566" s="25"/>
     </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
         <v>75</v>
       </c>
@@ -14263,7 +14267,7 @@
       </c>
       <c r="E567" s="25"/>
     </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9" t="s">
         <v>79</v>
       </c>
@@ -14278,7 +14282,7 @@
       </c>
       <c r="E568" s="25"/>
     </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
         <v>83</v>
       </c>
@@ -14293,7 +14297,7 @@
       </c>
       <c r="E569" s="25"/>
     </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
         <v>87</v>
       </c>
@@ -14308,7 +14312,7 @@
       </c>
       <c r="E570" s="25"/>
     </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
         <v>91</v>
       </c>
@@ -14323,7 +14327,7 @@
       </c>
       <c r="E571" s="25"/>
     </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9" t="s">
         <v>95</v>
       </c>
@@ -14338,7 +14342,7 @@
       </c>
       <c r="E572" s="25"/>
     </row>
-    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
         <v>99</v>
       </c>
@@ -14353,7 +14357,7 @@
       </c>
       <c r="E573" s="25"/>
     </row>
-    <row r="574" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
         <v>103</v>
       </c>
@@ -14368,7 +14372,7 @@
       </c>
       <c r="E574" s="25"/>
     </row>
-    <row r="575" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
         <v>107</v>
       </c>
@@ -14383,7 +14387,7 @@
       </c>
       <c r="E575" s="25"/>
     </row>
-    <row r="576" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A576" s="9" t="s">
         <v>111</v>
       </c>
@@ -14398,7 +14402,7 @@
       </c>
       <c r="E576" s="25"/>
     </row>
-    <row r="577" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A577" s="12" t="s">
         <v>115</v>
       </c>
@@ -14413,7 +14417,7 @@
       </c>
       <c r="E577" s="24"/>
     </row>
-    <row r="578" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A578" s="9" t="s">
         <v>119</v>
       </c>
@@ -14428,7 +14432,7 @@
       </c>
       <c r="E578" s="25"/>
     </row>
-    <row r="579" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
         <v>123</v>
       </c>
@@ -14443,7 +14447,7 @@
       </c>
       <c r="E579" s="25"/>
     </row>
-    <row r="580" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A580" s="9" t="s">
         <v>127</v>
       </c>
@@ -14458,7 +14462,7 @@
       </c>
       <c r="E580" s="25"/>
     </row>
-    <row r="581" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
         <v>131</v>
       </c>
@@ -14473,7 +14477,7 @@
       </c>
       <c r="E581" s="25"/>
     </row>
-    <row r="582" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A582" s="9" t="s">
         <v>135</v>
       </c>
@@ -14488,7 +14492,7 @@
       </c>
       <c r="E582" s="25"/>
     </row>
-    <row r="583" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
         <v>139</v>
       </c>
@@ -14503,7 +14507,7 @@
       </c>
       <c r="E583" s="25"/>
     </row>
-    <row r="584" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A584" s="9" t="s">
         <v>143</v>
       </c>
@@ -14518,7 +14522,7 @@
       </c>
       <c r="E584" s="25"/>
     </row>
-    <row r="585" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A585" s="12" t="s">
         <v>147</v>
       </c>
@@ -14535,25 +14539,25 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="52" t="s">
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="50" t="s">
         <v>1586</v>
       </c>
-      <c r="B586" s="52"/>
-      <c r="C586" s="52"/>
-      <c r="D586" s="52"/>
-      <c r="E586" s="52"/>
+      <c r="B586" s="50"/>
+      <c r="C586" s="50"/>
+      <c r="D586" s="50"/>
+      <c r="E586" s="50"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="50"/>
-      <c r="B587" s="50"/>
-      <c r="C587" s="50"/>
-      <c r="D587" s="50"/>
-      <c r="E587" s="50"/>
+    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="51"/>
+      <c r="B587" s="51"/>
+      <c r="C587" s="51"/>
+      <c r="D587" s="51"/>
+      <c r="E587" s="51"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>0</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
         <v>5</v>
       </c>
@@ -14585,7 +14589,7 @@
       </c>
       <c r="E590" s="25"/>
     </row>
-    <row r="591" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
         <v>9</v>
       </c>
@@ -14600,7 +14604,7 @@
       </c>
       <c r="E591" s="25"/>
     </row>
-    <row r="592" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
         <v>13</v>
       </c>
@@ -14615,7 +14619,7 @@
       </c>
       <c r="E592" s="25"/>
     </row>
-    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
         <v>17</v>
       </c>
@@ -14630,7 +14634,7 @@
       </c>
       <c r="E593" s="25"/>
     </row>
-    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
         <v>35</v>
       </c>
@@ -14645,7 +14649,7 @@
       </c>
       <c r="E594" s="25"/>
     </row>
-    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A595" s="9" t="s">
         <v>39</v>
       </c>
@@ -14660,7 +14664,7 @@
       </c>
       <c r="E595" s="25"/>
     </row>
-    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
         <v>43</v>
       </c>
@@ -14675,7 +14679,7 @@
       </c>
       <c r="E596" s="25"/>
     </row>
-    <row r="597" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
         <v>47</v>
       </c>
@@ -14690,7 +14694,7 @@
       </c>
       <c r="E597" s="25"/>
     </row>
-    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
         <v>51</v>
       </c>
@@ -14705,7 +14709,7 @@
       </c>
       <c r="E598" s="25"/>
     </row>
-    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A599" s="9" t="s">
         <v>55</v>
       </c>
@@ -14720,7 +14724,7 @@
       </c>
       <c r="E599" s="25"/>
     </row>
-    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
         <v>59</v>
       </c>
@@ -14735,7 +14739,7 @@
       </c>
       <c r="E600" s="25"/>
     </row>
-    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A601" s="9" t="s">
         <v>63</v>
       </c>
@@ -14750,7 +14754,7 @@
       </c>
       <c r="E601" s="25"/>
     </row>
-    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
         <v>67</v>
       </c>
@@ -14765,7 +14769,7 @@
       </c>
       <c r="E602" s="25"/>
     </row>
-    <row r="603" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A603" s="9" t="s">
         <v>71</v>
       </c>
@@ -14780,7 +14784,7 @@
       </c>
       <c r="E603" s="25"/>
     </row>
-    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
         <v>75</v>
       </c>
@@ -14795,7 +14799,7 @@
       </c>
       <c r="E604" s="25"/>
     </row>
-    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A605" s="9" t="s">
         <v>79</v>
       </c>
@@ -14810,7 +14814,7 @@
       </c>
       <c r="E605" s="25"/>
     </row>
-    <row r="606" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A606" s="9" t="s">
         <v>83</v>
       </c>
@@ -14825,7 +14829,7 @@
       </c>
       <c r="E606" s="25"/>
     </row>
-    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A607" s="9" t="s">
         <v>87</v>
       </c>
@@ -14840,7 +14844,7 @@
       </c>
       <c r="E607" s="25"/>
     </row>
-    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A608" s="9" t="s">
         <v>91</v>
       </c>
@@ -14855,7 +14859,7 @@
       </c>
       <c r="E608" s="25"/>
     </row>
-    <row r="609" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
@@ -14870,7 +14874,7 @@
       </c>
       <c r="E609" s="25"/>
     </row>
-    <row r="610" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A610" s="9" t="s">
         <v>99</v>
       </c>
@@ -14885,7 +14889,7 @@
       </c>
       <c r="E610" s="25"/>
     </row>
-    <row r="611" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
@@ -14900,7 +14904,7 @@
       </c>
       <c r="E611" s="25"/>
     </row>
-    <row r="612" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A612" s="9" t="s">
         <v>107</v>
       </c>
@@ -14915,7 +14919,7 @@
       </c>
       <c r="E612" s="25"/>
     </row>
-    <row r="613" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
@@ -14930,7 +14934,7 @@
       </c>
       <c r="E613" s="25"/>
     </row>
-    <row r="614" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A614" s="9" t="s">
         <v>115</v>
       </c>
@@ -14945,7 +14949,7 @@
       </c>
       <c r="E614" s="25"/>
     </row>
-    <row r="615" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -14963,7 +14967,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A616" s="9" t="s">
         <v>123</v>
       </c>
@@ -14978,7 +14982,7 @@
       </c>
       <c r="E616" s="25"/>
     </row>
-    <row r="617" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
@@ -14993,7 +14997,7 @@
       </c>
       <c r="E617" s="25"/>
     </row>
-    <row r="618" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A618" s="9" t="s">
         <v>131</v>
       </c>
@@ -15008,7 +15012,7 @@
       </c>
       <c r="E618" s="25"/>
     </row>
-    <row r="619" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
@@ -15023,7 +15027,7 @@
       </c>
       <c r="E619" s="25"/>
     </row>
-    <row r="620" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A620" s="9" t="s">
         <v>139</v>
       </c>
@@ -15038,7 +15042,7 @@
       </c>
       <c r="E620" s="25"/>
     </row>
-    <row r="621" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
@@ -15053,7 +15057,7 @@
       </c>
       <c r="E621" s="25"/>
     </row>
-    <row r="622" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A622" s="9" t="s">
         <v>147</v>
       </c>
@@ -15068,7 +15072,7 @@
       </c>
       <c r="E622" s="25"/>
     </row>
-    <row r="623" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
@@ -15083,7 +15087,7 @@
       </c>
       <c r="E623" s="25"/>
     </row>
-    <row r="624" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A624" s="9" t="s">
         <v>155</v>
       </c>
@@ -15098,7 +15102,7 @@
       </c>
       <c r="E624" s="25"/>
     </row>
-    <row r="625" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A625" s="9" t="s">
         <v>159</v>
       </c>
@@ -15113,7 +15117,7 @@
       </c>
       <c r="E625" s="25"/>
     </row>
-    <row r="626" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A626" s="9" t="s">
         <v>163</v>
       </c>
@@ -15128,7 +15132,7 @@
       </c>
       <c r="E626" s="25"/>
     </row>
-    <row r="627" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A627" s="9" t="s">
         <v>167</v>
       </c>
@@ -15143,7 +15147,7 @@
       </c>
       <c r="E627" s="25"/>
     </row>
-    <row r="628" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A628" s="9" t="s">
         <v>171</v>
       </c>
@@ -15158,7 +15162,7 @@
       </c>
       <c r="E628" s="25"/>
     </row>
-    <row r="629" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A629" s="9" t="s">
         <v>175</v>
       </c>
@@ -15173,7 +15177,7 @@
       </c>
       <c r="E629" s="25"/>
     </row>
-    <row r="630" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A630" s="9" t="s">
         <v>179</v>
       </c>
@@ -15188,7 +15192,7 @@
       </c>
       <c r="E630" s="25"/>
     </row>
-    <row r="631" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A631" s="9" t="s">
         <v>183</v>
       </c>
@@ -15203,7 +15207,7 @@
       </c>
       <c r="E631" s="25"/>
     </row>
-    <row r="632" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A632" s="9" t="s">
         <v>187</v>
       </c>
@@ -15218,17 +15222,17 @@
       </c>
       <c r="E632" s="25"/>
     </row>
-    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="52" t="s">
+    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="50" t="s">
         <v>1719</v>
       </c>
-      <c r="B633" s="52"/>
-      <c r="C633" s="52"/>
-      <c r="D633" s="52"/>
-      <c r="E633" s="52"/>
+      <c r="B633" s="50"/>
+      <c r="C633" s="50"/>
+      <c r="D633" s="50"/>
+      <c r="E633" s="50"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="53"/>
       <c r="B634" s="53"/>
       <c r="C634" s="53"/>
@@ -15236,7 +15240,7 @@
       <c r="E634" s="53"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A635" s="12" t="s">
         <v>5</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A636" s="9" t="s">
         <v>9</v>
       </c>
@@ -15268,7 +15272,7 @@
       </c>
       <c r="E636" s="25"/>
     </row>
-    <row r="637" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A637" s="9" t="s">
         <v>13</v>
       </c>
@@ -15283,25 +15287,25 @@
       </c>
       <c r="E637" s="25"/>
     </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="50" t="s">
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="51" t="s">
         <v>1725</v>
       </c>
-      <c r="B639" s="50"/>
-      <c r="C639" s="50"/>
-      <c r="D639" s="50"/>
-      <c r="E639" s="50"/>
+      <c r="B639" s="51"/>
+      <c r="C639" s="51"/>
+      <c r="D639" s="51"/>
+      <c r="E639" s="51"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="51"/>
-      <c r="B640" s="51"/>
-      <c r="C640" s="51"/>
-      <c r="D640" s="51"/>
-      <c r="E640" s="51"/>
+    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="52"/>
+      <c r="B640" s="52"/>
+      <c r="C640" s="52"/>
+      <c r="D640" s="52"/>
+      <c r="E640" s="52"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>0</v>
       </c>
@@ -15318,7 +15322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A642" s="9" t="s">
         <v>5</v>
       </c>
@@ -15333,7 +15337,7 @@
       </c>
       <c r="E642" s="25"/>
     </row>
-    <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A643" s="9" t="s">
         <v>9</v>
       </c>
@@ -15348,7 +15352,7 @@
       </c>
       <c r="E643" s="25"/>
     </row>
-    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9" t="s">
         <v>13</v>
       </c>
@@ -15363,7 +15367,7 @@
       </c>
       <c r="E644" s="25"/>
     </row>
-    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A645" s="9" t="s">
         <v>17</v>
       </c>
@@ -15378,7 +15382,7 @@
       </c>
       <c r="E645" s="25"/>
     </row>
-    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A646" s="9" t="s">
         <v>35</v>
       </c>
@@ -15393,7 +15397,7 @@
       </c>
       <c r="E646" s="25"/>
     </row>
-    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A647" s="9" t="s">
         <v>39</v>
       </c>
@@ -15408,7 +15412,7 @@
       </c>
       <c r="E647" s="25"/>
     </row>
-    <row r="648" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A648" s="12">
         <v>7</v>
       </c>
@@ -15425,7 +15429,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A649" s="12">
         <v>8</v>
       </c>
@@ -15442,7 +15446,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A650" s="9">
         <v>9</v>
       </c>
@@ -15457,7 +15461,7 @@
       </c>
       <c r="E650" s="25"/>
     </row>
-    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A651" s="9">
         <v>10</v>
       </c>
@@ -15472,7 +15476,7 @@
       </c>
       <c r="E651" s="25"/>
     </row>
-    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A652" s="9">
         <v>11</v>
       </c>
@@ -15487,7 +15491,7 @@
       </c>
       <c r="E652" s="25"/>
     </row>
-    <row r="653" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A653" s="12">
         <v>12</v>
       </c>
@@ -15502,7 +15506,7 @@
       </c>
       <c r="E653" s="25"/>
     </row>
-    <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A654" s="9">
         <v>13</v>
       </c>
@@ -15517,7 +15521,7 @@
       </c>
       <c r="E654" s="25"/>
     </row>
-    <row r="655" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A655" s="12">
         <v>14</v>
       </c>
@@ -15532,7 +15536,7 @@
       </c>
       <c r="E655" s="25"/>
     </row>
-    <row r="656" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A656" s="21">
         <v>15</v>
       </c>
@@ -15547,7 +15551,7 @@
       </c>
       <c r="E656" s="25"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="36">
         <v>1</v>
       </c>
@@ -15564,7 +15568,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A663" s="40">
         <v>2</v>
       </c>
@@ -15581,7 +15585,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A664" s="36">
         <v>3</v>
       </c>
@@ -15598,7 +15602,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="42">
         <v>4</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="42">
         <v>5</v>
       </c>
@@ -15628,7 +15632,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="42">
         <v>6</v>
       </c>
@@ -15643,7 +15647,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="42">
         <v>7</v>
       </c>
@@ -15658,7 +15662,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="42">
         <v>8</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="42">
         <v>9</v>
       </c>
@@ -15688,7 +15692,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="42">
         <v>10</v>
       </c>
@@ -15703,7 +15707,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A672" s="42">
         <v>11</v>
       </c>
@@ -15718,7 +15722,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" s="42">
         <v>12</v>
       </c>
@@ -15733,7 +15737,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674" s="42">
         <v>13</v>
       </c>
@@ -15748,7 +15752,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675" s="42">
         <v>14</v>
       </c>
@@ -15763,7 +15767,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676" s="42">
         <v>15</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677" s="42">
         <v>16</v>
       </c>
@@ -15793,7 +15797,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678" s="42">
         <v>17</v>
       </c>
@@ -15808,7 +15812,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679" s="42">
         <v>18</v>
       </c>
@@ -15823,7 +15827,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" s="42">
         <v>19</v>
       </c>
@@ -15838,7 +15842,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" s="42">
         <v>20</v>
       </c>
@@ -15853,7 +15857,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682" s="42">
         <v>21</v>
       </c>
@@ -15868,7 +15872,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683" s="42">
         <v>22</v>
       </c>
@@ -15883,8 +15887,10 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A684" s="42"/>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" s="42">
+        <v>23</v>
+      </c>
       <c r="B684" s="42"/>
       <c r="C684" s="43" t="s">
         <v>1767</v>
@@ -15892,7 +15898,7 @@
       <c r="D684" s="42"/>
       <c r="E684" s="44"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A685" s="42"/>
       <c r="B685" s="42"/>
       <c r="C685" s="43" t="s">
@@ -15901,7 +15907,7 @@
       <c r="D685" s="42"/>
       <c r="E685" s="44"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A686" s="42"/>
       <c r="B686" s="42"/>
       <c r="C686" s="43" t="s">
@@ -15910,7 +15916,7 @@
       <c r="D686" s="42"/>
       <c r="E686" s="44"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A687" s="42"/>
       <c r="B687" s="42"/>
       <c r="C687" s="43" t="s">
@@ -15919,7 +15925,7 @@
       <c r="D687" s="42"/>
       <c r="E687" s="44"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A688" s="42"/>
       <c r="B688" s="42"/>
       <c r="C688" s="43" t="s">
@@ -15928,7 +15934,7 @@
       <c r="D688" s="42"/>
       <c r="E688" s="44"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689" s="42"/>
       <c r="B689" s="42"/>
       <c r="C689" s="43" t="s">
@@ -15937,7 +15943,7 @@
       <c r="D689" s="42"/>
       <c r="E689" s="44"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A690" s="42"/>
       <c r="B690" s="42"/>
       <c r="C690" s="43" t="s">
@@ -15946,15 +15952,37 @@
       <c r="D690" s="42"/>
       <c r="E690" s="44"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691" s="42"/>
       <c r="B691" s="42"/>
       <c r="C691" s="43"/>
       <c r="D691" s="42"/>
       <c r="E691" s="44"/>
     </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B694">
+        <v>461905</v>
+      </c>
+      <c r="C694" s="6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E694" s="54" t="s">
+        <v>1798</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15963,17 +15991,6 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>
@@ -16020,14 +16037,14 @@
       <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>1334</v>
       </c>
@@ -16039,7 +16056,7 @@
       </c>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1558</v>
       </c>
@@ -16051,7 +16068,7 @@
       </c>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1337</v>
       </c>
@@ -16063,7 +16080,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>361556</v>
       </c>
@@ -16075,7 +16092,7 @@
       </c>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1324752</v>
       </c>
@@ -16087,7 +16104,7 @@
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>476</v>
       </c>
@@ -16098,7 +16115,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>482</v>
       </c>
@@ -16109,7 +16126,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>467</v>
       </c>
@@ -16120,7 +16137,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>485</v>
       </c>
@@ -16152,7 +16169,7 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16166,9 +16183,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>1766</v>
       </c>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1800">
   <si>
     <t>П/П</t>
   </si>
@@ -5414,6 +5414,9 @@
   </si>
   <si>
     <t>89701018624317940991</t>
+  </si>
+  <si>
+    <t>DENYO-480ESW (80817)</t>
   </si>
 </sst>
 </file>
@@ -5648,7 +5651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5787,8 +5790,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5796,11 +5799,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6112,8 +6118,8 @@
   </sheetPr>
   <dimension ref="A1:G694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="E694" sqref="E694"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="L294" sqref="L294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -10339,7 +10345,21 @@
       <c r="E296" s="25"/>
     </row>
     <row r="297" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A297" s="9"/>
+      <c r="A297" s="9">
+        <v>15</v>
+      </c>
+      <c r="B297" s="55">
+        <v>2128206</v>
+      </c>
+      <c r="C297" s="14" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="E297" s="25" t="s">
+        <v>1774</v>
+      </c>
     </row>
     <row r="298" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
@@ -12314,13 +12334,13 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="50" t="s">
+      <c r="A429" s="53" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="50"/>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50"/>
-      <c r="E429" s="50"/>
+      <c r="B429" s="53"/>
+      <c r="C429" s="53"/>
+      <c r="D429" s="53"/>
+      <c r="E429" s="53"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -12409,13 +12429,13 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="50" t="s">
+      <c r="A437" s="53" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="50"/>
-      <c r="C437" s="50"/>
-      <c r="D437" s="50"/>
-      <c r="E437" s="50"/>
+      <c r="B437" s="53"/>
+      <c r="C437" s="53"/>
+      <c r="D437" s="53"/>
+      <c r="E437" s="53"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13179,13 +13199,13 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="50" t="s">
+      <c r="A490" s="53" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="50"/>
-      <c r="C490" s="50"/>
-      <c r="D490" s="50"/>
-      <c r="E490" s="50"/>
+      <c r="B490" s="53"/>
+      <c r="C490" s="53"/>
+      <c r="D490" s="53"/>
+      <c r="E490" s="53"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13730,13 +13750,13 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="50" t="s">
+      <c r="A528" s="53" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="50"/>
-      <c r="C528" s="50"/>
-      <c r="D528" s="50"/>
-      <c r="E528" s="50"/>
+      <c r="B528" s="53"/>
+      <c r="C528" s="53"/>
+      <c r="D528" s="53"/>
+      <c r="E528" s="53"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -14008,13 +14028,13 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="50" t="s">
+      <c r="A549" s="53" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" s="50"/>
-      <c r="C549" s="50"/>
-      <c r="D549" s="50"/>
-      <c r="E549" s="50"/>
+      <c r="B549" s="53"/>
+      <c r="C549" s="53"/>
+      <c r="D549" s="53"/>
+      <c r="E549" s="53"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -14540,13 +14560,13 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="50" t="s">
+      <c r="A586" s="53" t="s">
         <v>1586</v>
       </c>
-      <c r="B586" s="50"/>
-      <c r="C586" s="50"/>
-      <c r="D586" s="50"/>
-      <c r="E586" s="50"/>
+      <c r="B586" s="53"/>
+      <c r="C586" s="53"/>
+      <c r="D586" s="53"/>
+      <c r="E586" s="53"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15223,21 +15243,21 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="50" t="s">
+      <c r="A633" s="53" t="s">
         <v>1719</v>
       </c>
-      <c r="B633" s="50"/>
-      <c r="C633" s="50"/>
-      <c r="D633" s="50"/>
-      <c r="E633" s="50"/>
+      <c r="B633" s="53"/>
+      <c r="C633" s="53"/>
+      <c r="D633" s="53"/>
+      <c r="E633" s="53"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="53"/>
-      <c r="B634" s="53"/>
-      <c r="C634" s="53"/>
-      <c r="D634" s="53"/>
-      <c r="E634" s="53"/>
+      <c r="A634" s="54"/>
+      <c r="B634" s="54"/>
+      <c r="C634" s="54"/>
+      <c r="D634" s="54"/>
+      <c r="E634" s="54"/>
       <c r="F634" s="4"/>
     </row>
     <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -15708,19 +15728,11 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A672" s="42">
-        <v>11</v>
-      </c>
-      <c r="B672" s="45">
-        <v>2128206</v>
-      </c>
-      <c r="C672" s="45" t="s">
-        <v>1767</v>
-      </c>
+      <c r="A672" s="42"/>
+      <c r="B672" s="45"/>
+      <c r="C672" s="45"/>
       <c r="D672" s="47"/>
-      <c r="E672" s="48" t="s">
-        <v>1774</v>
-      </c>
+      <c r="E672" s="48"/>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" s="42">
@@ -15966,23 +15978,12 @@
       <c r="C694" s="6" t="s">
         <v>1797</v>
       </c>
-      <c r="E694" s="54" t="s">
+      <c r="E694" s="50" t="s">
         <v>1798</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15991,6 +15992,17 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>
@@ -16020,9 +16032,10 @@
     <hyperlink ref="C545" r:id="rId22"/>
     <hyperlink ref="C381" r:id="rId23"/>
     <hyperlink ref="C321" r:id="rId24"/>
+    <hyperlink ref="C297" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -5793,20 +5793,20 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6118,8 +6118,8 @@
   </sheetPr>
   <dimension ref="A1:G694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="L294" sqref="L294"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="C496" sqref="C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6134,21 +6134,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6236,21 +6236,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6990,21 +6990,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7130,21 +7130,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7782,21 +7782,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8057,21 +8057,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="51"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8197,21 +8197,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8625,21 +8625,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="51" t="s">
+      <c r="A177" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="51"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8782,21 +8782,21 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="51" t="s">
+      <c r="A189" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9225,21 +9225,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="51" t="s">
+      <c r="A220" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="51"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="51"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="53"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="51"/>
-      <c r="B221" s="51"/>
-      <c r="C221" s="51"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="51"/>
+      <c r="A221" s="53"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
+      <c r="E221" s="53"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10100,21 +10100,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="51" t="s">
+      <c r="A280" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="51"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
+      <c r="B280" s="53"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="52"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="52"/>
-      <c r="E281" s="52"/>
+      <c r="A281" s="54"/>
+      <c r="B281" s="54"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="54"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -10348,7 +10348,7 @@
       <c r="A297" s="9">
         <v>15</v>
       </c>
-      <c r="B297" s="55">
+      <c r="B297" s="51">
         <v>2128206</v>
       </c>
       <c r="C297" s="14" t="s">
@@ -12334,21 +12334,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="53" t="s">
+      <c r="A429" s="52" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="53"/>
-      <c r="C429" s="53"/>
-      <c r="D429" s="53"/>
-      <c r="E429" s="53"/>
+      <c r="B429" s="52"/>
+      <c r="C429" s="52"/>
+      <c r="D429" s="52"/>
+      <c r="E429" s="52"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="51"/>
-      <c r="B430" s="51"/>
-      <c r="C430" s="51"/>
-      <c r="D430" s="51"/>
-      <c r="E430" s="51"/>
+      <c r="A430" s="53"/>
+      <c r="B430" s="53"/>
+      <c r="C430" s="53"/>
+      <c r="D430" s="53"/>
+      <c r="E430" s="53"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -12429,21 +12429,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="53" t="s">
+      <c r="A437" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="53"/>
-      <c r="C437" s="53"/>
-      <c r="D437" s="53"/>
-      <c r="E437" s="53"/>
+      <c r="B437" s="52"/>
+      <c r="C437" s="52"/>
+      <c r="D437" s="52"/>
+      <c r="E437" s="52"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="51"/>
-      <c r="B438" s="51"/>
-      <c r="C438" s="51"/>
-      <c r="D438" s="51"/>
-      <c r="E438" s="51"/>
+      <c r="A438" s="53"/>
+      <c r="B438" s="53"/>
+      <c r="C438" s="53"/>
+      <c r="D438" s="53"/>
+      <c r="E438" s="53"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13199,21 +13199,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="53" t="s">
+      <c r="A490" s="52" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="53"/>
-      <c r="C490" s="53"/>
-      <c r="D490" s="53"/>
-      <c r="E490" s="53"/>
+      <c r="B490" s="52"/>
+      <c r="C490" s="52"/>
+      <c r="D490" s="52"/>
+      <c r="E490" s="52"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="51"/>
-      <c r="B491" s="51"/>
-      <c r="C491" s="51"/>
-      <c r="D491" s="51"/>
-      <c r="E491" s="51"/>
+      <c r="A491" s="53"/>
+      <c r="B491" s="53"/>
+      <c r="C491" s="53"/>
+      <c r="D491" s="53"/>
+      <c r="E491" s="53"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13272,7 +13272,7 @@
       <c r="B496" s="9" t="s">
         <v>1340</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C496" s="14" t="s">
         <v>1341</v>
       </c>
       <c r="D496" s="9" t="s">
@@ -13750,21 +13750,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="53" t="s">
+      <c r="A528" s="52" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="53"/>
-      <c r="C528" s="53"/>
-      <c r="D528" s="53"/>
-      <c r="E528" s="53"/>
+      <c r="B528" s="52"/>
+      <c r="C528" s="52"/>
+      <c r="D528" s="52"/>
+      <c r="E528" s="52"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="51"/>
-      <c r="B529" s="51"/>
-      <c r="C529" s="51"/>
-      <c r="D529" s="51"/>
-      <c r="E529" s="51"/>
+      <c r="A529" s="53"/>
+      <c r="B529" s="53"/>
+      <c r="C529" s="53"/>
+      <c r="D529" s="53"/>
+      <c r="E529" s="53"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -14028,21 +14028,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="53" t="s">
+      <c r="A549" s="52" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" s="53"/>
-      <c r="C549" s="53"/>
-      <c r="D549" s="53"/>
-      <c r="E549" s="53"/>
+      <c r="B549" s="52"/>
+      <c r="C549" s="52"/>
+      <c r="D549" s="52"/>
+      <c r="E549" s="52"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="51"/>
-      <c r="B550" s="51"/>
-      <c r="C550" s="51"/>
-      <c r="D550" s="51"/>
-      <c r="E550" s="51"/>
+      <c r="A550" s="53"/>
+      <c r="B550" s="53"/>
+      <c r="C550" s="53"/>
+      <c r="D550" s="53"/>
+      <c r="E550" s="53"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -14560,21 +14560,21 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="53" t="s">
+      <c r="A586" s="52" t="s">
         <v>1586</v>
       </c>
-      <c r="B586" s="53"/>
-      <c r="C586" s="53"/>
-      <c r="D586" s="53"/>
-      <c r="E586" s="53"/>
+      <c r="B586" s="52"/>
+      <c r="C586" s="52"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="52"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="51"/>
-      <c r="B587" s="51"/>
-      <c r="C587" s="51"/>
-      <c r="D587" s="51"/>
-      <c r="E587" s="51"/>
+      <c r="A587" s="53"/>
+      <c r="B587" s="53"/>
+      <c r="C587" s="53"/>
+      <c r="D587" s="53"/>
+      <c r="E587" s="53"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15243,21 +15243,21 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="53" t="s">
+      <c r="A633" s="52" t="s">
         <v>1719</v>
       </c>
-      <c r="B633" s="53"/>
-      <c r="C633" s="53"/>
-      <c r="D633" s="53"/>
-      <c r="E633" s="53"/>
+      <c r="B633" s="52"/>
+      <c r="C633" s="52"/>
+      <c r="D633" s="52"/>
+      <c r="E633" s="52"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="54"/>
-      <c r="B634" s="54"/>
-      <c r="C634" s="54"/>
-      <c r="D634" s="54"/>
-      <c r="E634" s="54"/>
+      <c r="A634" s="55"/>
+      <c r="B634" s="55"/>
+      <c r="C634" s="55"/>
+      <c r="D634" s="55"/>
+      <c r="E634" s="55"/>
       <c r="F634" s="4"/>
     </row>
     <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -15308,21 +15308,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="51" t="s">
+      <c r="A639" s="53" t="s">
         <v>1725</v>
       </c>
-      <c r="B639" s="51"/>
-      <c r="C639" s="51"/>
-      <c r="D639" s="51"/>
-      <c r="E639" s="51"/>
+      <c r="B639" s="53"/>
+      <c r="C639" s="53"/>
+      <c r="D639" s="53"/>
+      <c r="E639" s="53"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="52"/>
-      <c r="B640" s="52"/>
-      <c r="C640" s="52"/>
-      <c r="D640" s="52"/>
-      <c r="E640" s="52"/>
+      <c r="A640" s="54"/>
+      <c r="B640" s="54"/>
+      <c r="C640" s="54"/>
+      <c r="D640" s="54"/>
+      <c r="E640" s="54"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15984,6 +15984,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15992,17 +16003,6 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>
@@ -16033,9 +16033,10 @@
     <hyperlink ref="C381" r:id="rId23"/>
     <hyperlink ref="C321" r:id="rId24"/>
     <hyperlink ref="C297" r:id="rId25"/>
+    <hyperlink ref="C496" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mukatanov.sn\Documents\GitHub\Technica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Проданая" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1800">
   <si>
     <t>П/П</t>
   </si>
@@ -5796,13 +5801,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5869,7 +5874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5904,7 +5909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6118,47 +6123,47 @@
   </sheetPr>
   <dimension ref="A1:G694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C496" sqref="C496"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="L573" sqref="L573"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="53" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+    <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6190,7 +6195,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6210,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +6225,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -6235,25 +6240,25 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -6286,7 +6291,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6302,7 +6307,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -6318,7 +6323,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -6334,7 +6339,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6350,7 +6355,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -6366,7 +6371,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -6382,7 +6387,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6398,7 +6403,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -6414,7 +6419,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -6430,7 +6435,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -6446,7 +6451,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -6481,7 +6486,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -6497,7 +6502,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -6513,7 +6518,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -6529,7 +6534,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -6545,7 +6550,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -6561,7 +6566,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -6577,7 +6582,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -6593,7 +6598,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
@@ -6609,7 +6614,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -6625,7 +6630,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -6641,7 +6646,7 @@
       <c r="E35" s="25"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -6657,7 +6662,7 @@
       <c r="E36" s="25"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -6673,7 +6678,7 @@
       <c r="E37" s="25"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -6689,7 +6694,7 @@
       <c r="E38" s="25"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>123</v>
       </c>
@@ -6704,7 +6709,7 @@
       </c>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>127</v>
       </c>
@@ -6719,7 +6724,7 @@
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>131</v>
       </c>
@@ -6734,7 +6739,7 @@
       </c>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
@@ -6749,7 +6754,7 @@
       </c>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>139</v>
       </c>
@@ -6764,7 +6769,7 @@
       </c>
       <c r="E43" s="25"/>
     </row>
-    <row r="44" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -6779,7 +6784,7 @@
       </c>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -6794,7 +6799,7 @@
       </c>
       <c r="E45" s="25"/>
     </row>
-    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -6809,7 +6814,7 @@
       </c>
       <c r="E46" s="25"/>
     </row>
-    <row r="47" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -6824,7 +6829,7 @@
       </c>
       <c r="E47" s="25"/>
     </row>
-    <row r="48" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -6839,7 +6844,7 @@
       </c>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>163</v>
       </c>
@@ -6854,7 +6859,7 @@
       </c>
       <c r="E49" s="25"/>
     </row>
-    <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>167</v>
       </c>
@@ -6869,7 +6874,7 @@
       </c>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
@@ -6884,7 +6889,7 @@
       </c>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>175</v>
       </c>
@@ -6899,7 +6904,7 @@
       </c>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>179</v>
       </c>
@@ -6914,7 +6919,7 @@
       </c>
       <c r="E53" s="25"/>
     </row>
-    <row r="54" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
@@ -6929,7 +6934,7 @@
       </c>
       <c r="E54" s="25"/>
     </row>
-    <row r="55" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -6944,7 +6949,7 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>191</v>
       </c>
@@ -6959,7 +6964,7 @@
       </c>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>195</v>
       </c>
@@ -6974,7 +6979,7 @@
       </c>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>199</v>
       </c>
@@ -6989,25 +6994,25 @@
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53" t="s">
+    <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+    <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -7024,7 +7029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
@@ -7039,7 +7044,7 @@
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
@@ -7054,7 +7059,7 @@
       </c>
       <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>13</v>
       </c>
@@ -7069,7 +7074,7 @@
       </c>
       <c r="E65" s="25"/>
     </row>
-    <row r="66" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -7084,7 +7089,7 @@
       </c>
       <c r="E66" s="25"/>
     </row>
-    <row r="67" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>35</v>
       </c>
@@ -7099,7 +7104,7 @@
       </c>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>39</v>
       </c>
@@ -7114,7 +7119,7 @@
       </c>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>43</v>
       </c>
@@ -7129,25 +7134,25 @@
       </c>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53" t="s">
+    <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
+    <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -7179,7 +7184,7 @@
       </c>
       <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7194,7 +7199,7 @@
       </c>
       <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
@@ -7209,7 +7214,7 @@
       </c>
       <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>17</v>
       </c>
@@ -7224,7 +7229,7 @@
       </c>
       <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>35</v>
       </c>
@@ -7239,7 +7244,7 @@
       </c>
       <c r="E78" s="25"/>
     </row>
-    <row r="79" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -7254,7 +7259,7 @@
       </c>
       <c r="E79" s="25"/>
     </row>
-    <row r="80" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>43</v>
       </c>
@@ -7269,7 +7274,7 @@
       </c>
       <c r="E80" s="25"/>
     </row>
-    <row r="81" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>47</v>
       </c>
@@ -7284,7 +7289,7 @@
       </c>
       <c r="E81" s="25"/>
     </row>
-    <row r="82" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>51</v>
       </c>
@@ -7299,7 +7304,7 @@
       </c>
       <c r="E82" s="25"/>
     </row>
-    <row r="83" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7314,7 +7319,7 @@
       </c>
       <c r="E83" s="25"/>
     </row>
-    <row r="84" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>59</v>
       </c>
@@ -7329,7 +7334,7 @@
       </c>
       <c r="E84" s="25"/>
     </row>
-    <row r="85" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -7344,7 +7349,7 @@
       </c>
       <c r="E85" s="25"/>
     </row>
-    <row r="86" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>67</v>
       </c>
@@ -7359,7 +7364,7 @@
       </c>
       <c r="E86" s="25"/>
     </row>
-    <row r="87" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -7374,7 +7379,7 @@
       </c>
       <c r="E87" s="25"/>
     </row>
-    <row r="88" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>75</v>
       </c>
@@ -7389,7 +7394,7 @@
       </c>
       <c r="E88" s="25"/>
     </row>
-    <row r="89" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>79</v>
       </c>
@@ -7404,7 +7409,7 @@
       </c>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
@@ -7419,7 +7424,7 @@
       </c>
       <c r="E90" s="25"/>
     </row>
-    <row r="91" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>87</v>
       </c>
@@ -7434,7 +7439,7 @@
       </c>
       <c r="E91" s="25"/>
     </row>
-    <row r="92" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -7449,7 +7454,7 @@
       </c>
       <c r="E92" s="25"/>
     </row>
-    <row r="93" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
@@ -7464,7 +7469,7 @@
       </c>
       <c r="E93" s="25"/>
     </row>
-    <row r="94" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
@@ -7479,7 +7484,7 @@
       </c>
       <c r="E94" s="25"/>
     </row>
-    <row r="95" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
@@ -7494,7 +7499,7 @@
       </c>
       <c r="E95" s="25"/>
     </row>
-    <row r="96" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>107</v>
       </c>
@@ -7509,7 +7514,7 @@
       </c>
       <c r="E96" s="25"/>
     </row>
-    <row r="97" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -7524,7 +7529,7 @@
       </c>
       <c r="E97" s="25"/>
     </row>
-    <row r="98" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>115</v>
       </c>
@@ -7539,7 +7544,7 @@
       </c>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -7554,7 +7559,7 @@
       </c>
       <c r="E99" s="25"/>
     </row>
-    <row r="100" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>123</v>
       </c>
@@ -7569,7 +7574,7 @@
       </c>
       <c r="E100" s="25"/>
     </row>
-    <row r="101" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -7584,7 +7589,7 @@
       </c>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
         <v>131</v>
       </c>
@@ -7599,7 +7604,7 @@
       </c>
       <c r="E102" s="25"/>
     </row>
-    <row r="103" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -7614,7 +7619,7 @@
       </c>
       <c r="E103" s="25"/>
     </row>
-    <row r="104" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -7629,7 +7634,7 @@
       </c>
       <c r="E104" s="25"/>
     </row>
-    <row r="105" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>143</v>
       </c>
@@ -7644,7 +7649,7 @@
       </c>
       <c r="E105" s="25"/>
     </row>
-    <row r="106" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>147</v>
       </c>
@@ -7659,7 +7664,7 @@
       </c>
       <c r="E106" s="25"/>
     </row>
-    <row r="107" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>151</v>
       </c>
@@ -7674,7 +7679,7 @@
       </c>
       <c r="E107" s="25"/>
     </row>
-    <row r="108" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
@@ -7706,7 +7711,7 @@
       </c>
       <c r="E109" s="25"/>
     </row>
-    <row r="110" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>163</v>
       </c>
@@ -7721,7 +7726,7 @@
       </c>
       <c r="E110" s="25"/>
     </row>
-    <row r="111" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -7736,7 +7741,7 @@
       </c>
       <c r="E111" s="25"/>
     </row>
-    <row r="112" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -7751,7 +7756,7 @@
       </c>
       <c r="E112" s="25"/>
     </row>
-    <row r="113" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>175</v>
       </c>
@@ -7766,7 +7771,7 @@
       </c>
       <c r="E113" s="25"/>
     </row>
-    <row r="114" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>179</v>
       </c>
@@ -7781,25 +7786,25 @@
       </c>
       <c r="E114" s="25"/>
     </row>
-    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="53" t="s">
+    <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
+    <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -7816,7 +7821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>5</v>
       </c>
@@ -7831,7 +7836,7 @@
       </c>
       <c r="E119" s="25"/>
     </row>
-    <row r="120" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>9</v>
       </c>
@@ -7846,7 +7851,7 @@
       </c>
       <c r="E120" s="25"/>
     </row>
-    <row r="121" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
         <v>13</v>
       </c>
@@ -7861,7 +7866,7 @@
       </c>
       <c r="E121" s="25"/>
     </row>
-    <row r="122" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>17</v>
       </c>
@@ -7876,7 +7881,7 @@
       </c>
       <c r="E122" s="25"/>
     </row>
-    <row r="123" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>35</v>
       </c>
@@ -7891,7 +7896,7 @@
       </c>
       <c r="E123" s="25"/>
     </row>
-    <row r="124" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
@@ -7906,7 +7911,7 @@
       </c>
       <c r="E124" s="25"/>
     </row>
-    <row r="125" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
         <v>43</v>
       </c>
@@ -7921,7 +7926,7 @@
       </c>
       <c r="E125" s="25"/>
     </row>
-    <row r="126" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
         <v>47</v>
       </c>
@@ -7936,7 +7941,7 @@
       </c>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
         <v>51</v>
       </c>
@@ -7951,7 +7956,7 @@
       </c>
       <c r="E127" s="25"/>
     </row>
-    <row r="128" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
         <v>55</v>
       </c>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="E128" s="25"/>
     </row>
-    <row r="129" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -7981,7 +7986,7 @@
       </c>
       <c r="E129" s="25"/>
     </row>
-    <row r="130" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7996,7 +8001,7 @@
       </c>
       <c r="E130" s="25"/>
     </row>
-    <row r="131" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
         <v>67</v>
       </c>
@@ -8011,7 +8016,7 @@
       </c>
       <c r="E131" s="25"/>
     </row>
-    <row r="132" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
         <v>71</v>
       </c>
@@ -8026,7 +8031,7 @@
       </c>
       <c r="E132" s="25"/>
     </row>
-    <row r="133" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A133" s="9" t="s">
         <v>75</v>
       </c>
@@ -8041,7 +8046,7 @@
       </c>
       <c r="E133" s="25"/>
     </row>
-    <row r="134" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
         <v>79</v>
       </c>
@@ -8056,25 +8061,25 @@
       </c>
       <c r="E134" s="25"/>
     </row>
-    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="53" t="s">
+    <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
+    <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -8091,7 +8096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A139" s="9" t="s">
         <v>5</v>
       </c>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="E139" s="25"/>
     </row>
-    <row r="140" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A140" s="9" t="s">
         <v>9</v>
       </c>
@@ -8121,7 +8126,7 @@
       </c>
       <c r="E140" s="25"/>
     </row>
-    <row r="141" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A141" s="9" t="s">
         <v>13</v>
       </c>
@@ -8136,7 +8141,7 @@
       </c>
       <c r="E141" s="25"/>
     </row>
-    <row r="142" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -8151,7 +8156,7 @@
       </c>
       <c r="E142" s="25"/>
     </row>
-    <row r="143" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>35</v>
       </c>
@@ -8166,7 +8171,7 @@
       </c>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
         <v>39</v>
       </c>
@@ -8181,7 +8186,7 @@
       </c>
       <c r="E144" s="25"/>
     </row>
-    <row r="145" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A145" s="9" t="s">
         <v>43</v>
       </c>
@@ -8196,25 +8201,25 @@
       </c>
       <c r="E145" s="25"/>
     </row>
-    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="53" t="s">
+    <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="53"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="53"/>
+    <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
@@ -8231,7 +8236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A150" s="9" t="s">
         <v>5</v>
       </c>
@@ -8246,7 +8251,7 @@
       </c>
       <c r="E150" s="25"/>
     </row>
-    <row r="151" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -8261,7 +8266,7 @@
       </c>
       <c r="E151" s="25"/>
     </row>
-    <row r="152" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A152" s="9" t="s">
         <v>13</v>
       </c>
@@ -8276,7 +8281,7 @@
       </c>
       <c r="E152" s="25"/>
     </row>
-    <row r="153" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -8291,7 +8296,7 @@
       </c>
       <c r="E153" s="25"/>
     </row>
-    <row r="154" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
         <v>35</v>
       </c>
@@ -8306,7 +8311,7 @@
       </c>
       <c r="E154" s="25"/>
     </row>
-    <row r="155" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
         <v>39</v>
       </c>
@@ -8321,7 +8326,7 @@
       </c>
       <c r="E155" s="25"/>
     </row>
-    <row r="156" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A156" s="9" t="s">
         <v>43</v>
       </c>
@@ -8336,7 +8341,7 @@
       </c>
       <c r="E156" s="25"/>
     </row>
-    <row r="157" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A157" s="9" t="s">
         <v>47</v>
       </c>
@@ -8351,7 +8356,7 @@
       </c>
       <c r="E157" s="25"/>
     </row>
-    <row r="158" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A158" s="12" t="s">
         <v>51</v>
       </c>
@@ -8368,7 +8373,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
         <v>55</v>
       </c>
@@ -8383,7 +8388,7 @@
       </c>
       <c r="E159" s="25"/>
     </row>
-    <row r="160" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A160" s="9" t="s">
         <v>59</v>
       </c>
@@ -8398,7 +8403,7 @@
       </c>
       <c r="E160" s="25"/>
     </row>
-    <row r="161" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A161" s="9" t="s">
         <v>63</v>
       </c>
@@ -8413,7 +8418,7 @@
       </c>
       <c r="E161" s="25"/>
     </row>
-    <row r="162" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A162" s="9" t="s">
         <v>67</v>
       </c>
@@ -8428,7 +8433,7 @@
       </c>
       <c r="E162" s="25"/>
     </row>
-    <row r="163" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>71</v>
       </c>
@@ -8443,7 +8448,7 @@
       </c>
       <c r="E163" s="25"/>
     </row>
-    <row r="164" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A164" s="9" t="s">
         <v>75</v>
       </c>
@@ -8458,7 +8463,7 @@
       </c>
       <c r="E164" s="25"/>
     </row>
-    <row r="165" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
@@ -8473,7 +8478,7 @@
       </c>
       <c r="E165" s="25"/>
     </row>
-    <row r="166" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A166" s="12" t="s">
         <v>83</v>
       </c>
@@ -8488,7 +8493,7 @@
       </c>
       <c r="E166" s="25"/>
     </row>
-    <row r="167" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A167" s="9" t="s">
         <v>87</v>
       </c>
@@ -8503,7 +8508,7 @@
       </c>
       <c r="E167" s="25"/>
     </row>
-    <row r="168" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A168" s="9" t="s">
         <v>91</v>
       </c>
@@ -8518,7 +8523,7 @@
       </c>
       <c r="E168" s="25"/>
     </row>
-    <row r="169" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A169" s="12" t="s">
         <v>95</v>
       </c>
@@ -8535,7 +8540,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A170" s="9" t="s">
         <v>99</v>
       </c>
@@ -8550,7 +8555,7 @@
       </c>
       <c r="E170" s="25"/>
     </row>
-    <row r="171" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A171" s="12" t="s">
         <v>103</v>
       </c>
@@ -8565,7 +8570,7 @@
       </c>
       <c r="E171" s="25"/>
     </row>
-    <row r="172" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A172" s="12" t="s">
         <v>107</v>
       </c>
@@ -8580,7 +8585,7 @@
       </c>
       <c r="E172" s="25"/>
     </row>
-    <row r="173" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
         <v>111</v>
       </c>
@@ -8595,7 +8600,7 @@
       </c>
       <c r="E173" s="25"/>
     </row>
-    <row r="174" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A174" s="9" t="s">
         <v>115</v>
       </c>
@@ -8610,39 +8615,39 @@
       </c>
       <c r="E174" s="25"/>
     </row>
-    <row r="175" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="53" t="s">
+    <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="52"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="53"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
+    <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="52"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -8674,7 +8679,7 @@
       </c>
       <c r="E181" s="25"/>
     </row>
-    <row r="182" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A182" s="9" t="s">
         <v>9</v>
       </c>
@@ -8689,7 +8694,7 @@
       </c>
       <c r="E182" s="25"/>
     </row>
-    <row r="183" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A183" s="9" t="s">
         <v>13</v>
       </c>
@@ -8704,7 +8709,7 @@
       </c>
       <c r="E183" s="25"/>
     </row>
-    <row r="184" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -8719,7 +8724,7 @@
       </c>
       <c r="E184" s="25"/>
     </row>
-    <row r="185" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A185" s="9" t="s">
         <v>35</v>
       </c>
@@ -8734,7 +8739,7 @@
       </c>
       <c r="E185" s="25"/>
     </row>
-    <row r="186" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A186" s="9" t="s">
         <v>39</v>
       </c>
@@ -8749,7 +8754,7 @@
       </c>
       <c r="E186" s="25"/>
     </row>
-    <row r="187" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A187" s="9" t="s">
         <v>43</v>
       </c>
@@ -8764,7 +8769,7 @@
       </c>
       <c r="E187" s="25"/>
     </row>
-    <row r="188" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A188" s="12" t="s">
         <v>47</v>
       </c>
@@ -8781,25 +8786,25 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="53" t="s">
+    <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52"/>
+      <c r="D189" s="52"/>
+      <c r="E189" s="52"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="53"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
+    <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="52"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="52"/>
+      <c r="E190" s="52"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
@@ -8816,7 +8821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -8831,7 +8836,7 @@
       </c>
       <c r="E193" s="25"/>
     </row>
-    <row r="194" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A194" s="9" t="s">
         <v>9</v>
       </c>
@@ -8846,7 +8851,7 @@
       </c>
       <c r="E194" s="25"/>
     </row>
-    <row r="195" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>13</v>
       </c>
@@ -8861,7 +8866,7 @@
       </c>
       <c r="E195" s="25"/>
     </row>
-    <row r="196" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="9" t="s">
         <v>17</v>
       </c>
@@ -8876,7 +8881,7 @@
       </c>
       <c r="E196" s="25"/>
     </row>
-    <row r="197" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>35</v>
       </c>
@@ -8891,7 +8896,7 @@
       </c>
       <c r="E197" s="25"/>
     </row>
-    <row r="198" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A198" s="9" t="s">
         <v>39</v>
       </c>
@@ -8906,7 +8911,7 @@
       </c>
       <c r="E198" s="25"/>
     </row>
-    <row r="199" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A199" s="9" t="s">
         <v>43</v>
       </c>
@@ -8921,7 +8926,7 @@
       </c>
       <c r="E199" s="25"/>
     </row>
-    <row r="200" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
         <v>47</v>
       </c>
@@ -8936,7 +8941,7 @@
       </c>
       <c r="E200" s="25"/>
     </row>
-    <row r="201" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A201" s="9" t="s">
         <v>51</v>
       </c>
@@ -8951,7 +8956,7 @@
       </c>
       <c r="E201" s="25"/>
     </row>
-    <row r="202" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A202" s="9" t="s">
         <v>55</v>
       </c>
@@ -8966,7 +8971,7 @@
       </c>
       <c r="E202" s="25"/>
     </row>
-    <row r="203" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A204" s="9" t="s">
         <v>63</v>
       </c>
@@ -8999,7 +9004,7 @@
       </c>
       <c r="E204" s="25"/>
     </row>
-    <row r="205" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A205" s="9" t="s">
         <v>67</v>
       </c>
@@ -9014,7 +9019,7 @@
       </c>
       <c r="E205" s="25"/>
     </row>
-    <row r="206" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A206" s="9" t="s">
         <v>71</v>
       </c>
@@ -9029,7 +9034,7 @@
       </c>
       <c r="E206" s="25"/>
     </row>
-    <row r="207" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A207" s="9" t="s">
         <v>75</v>
       </c>
@@ -9044,7 +9049,7 @@
       </c>
       <c r="E207" s="25"/>
     </row>
-    <row r="208" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A208" s="9" t="s">
         <v>79</v>
       </c>
@@ -9059,7 +9064,7 @@
       </c>
       <c r="E208" s="25"/>
     </row>
-    <row r="209" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A209" s="9" t="s">
         <v>83</v>
       </c>
@@ -9074,7 +9079,7 @@
       </c>
       <c r="E209" s="25"/>
     </row>
-    <row r="210" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A210" s="9" t="s">
         <v>87</v>
       </c>
@@ -9089,7 +9094,7 @@
       </c>
       <c r="E210" s="25"/>
     </row>
-    <row r="211" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A211" s="9" t="s">
         <v>91</v>
       </c>
@@ -9104,7 +9109,7 @@
       </c>
       <c r="E211" s="25"/>
     </row>
-    <row r="212" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A212" s="9" t="s">
         <v>95</v>
       </c>
@@ -9119,7 +9124,7 @@
       </c>
       <c r="E212" s="25"/>
     </row>
-    <row r="213" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A213" s="9" t="s">
         <v>99</v>
       </c>
@@ -9134,7 +9139,7 @@
       </c>
       <c r="E213" s="25"/>
     </row>
-    <row r="214" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A214" s="9" t="s">
         <v>103</v>
       </c>
@@ -9149,7 +9154,7 @@
       </c>
       <c r="E214" s="25"/>
     </row>
-    <row r="215" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A215" s="9" t="s">
         <v>107</v>
       </c>
@@ -9164,7 +9169,7 @@
       </c>
       <c r="E215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A216" s="9" t="s">
         <v>111</v>
       </c>
@@ -9179,7 +9184,7 @@
       </c>
       <c r="E216" s="25"/>
     </row>
-    <row r="217" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A217" s="9" t="s">
         <v>115</v>
       </c>
@@ -9194,7 +9199,7 @@
       </c>
       <c r="E217" s="25"/>
     </row>
-    <row r="218" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A218" s="9" t="s">
         <v>119</v>
       </c>
@@ -9209,7 +9214,7 @@
       </c>
       <c r="E218" s="25"/>
     </row>
-    <row r="219" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A219" s="9" t="s">
         <v>123</v>
       </c>
@@ -9224,25 +9229,25 @@
       </c>
       <c r="E219" s="25"/>
     </row>
-    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="53" t="s">
+    <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="52" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="53"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="52"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="53"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="53"/>
-      <c r="D221" s="53"/>
-      <c r="E221" s="53"/>
+    <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="52"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -9259,7 +9264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A224" s="9" t="s">
         <v>5</v>
       </c>
@@ -9274,7 +9279,7 @@
       </c>
       <c r="E224" s="25"/>
     </row>
-    <row r="225" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A225" s="9" t="s">
         <v>9</v>
       </c>
@@ -9289,7 +9294,7 @@
       </c>
       <c r="E225" s="25"/>
     </row>
-    <row r="226" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A226" s="9" t="s">
         <v>13</v>
       </c>
@@ -9304,7 +9309,7 @@
       </c>
       <c r="E226" s="25"/>
     </row>
-    <row r="227" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>17</v>
       </c>
@@ -9319,7 +9324,7 @@
       </c>
       <c r="E227" s="25"/>
     </row>
-    <row r="228" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A228" s="9" t="s">
         <v>35</v>
       </c>
@@ -9334,7 +9339,7 @@
       </c>
       <c r="E228" s="25"/>
     </row>
-    <row r="229" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>39</v>
       </c>
@@ -9349,7 +9354,7 @@
       </c>
       <c r="E229" s="28"/>
     </row>
-    <row r="230" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A230" s="9" t="s">
         <v>43</v>
       </c>
@@ -9364,7 +9369,7 @@
       </c>
       <c r="E230" s="25"/>
     </row>
-    <row r="231" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>47</v>
       </c>
@@ -9379,7 +9384,7 @@
       </c>
       <c r="E231" s="25"/>
     </row>
-    <row r="232" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A232" s="9" t="s">
         <v>51</v>
       </c>
@@ -9394,7 +9399,7 @@
       </c>
       <c r="E232" s="25"/>
     </row>
-    <row r="233" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A233" s="9" t="s">
         <v>55</v>
       </c>
@@ -9409,7 +9414,7 @@
       </c>
       <c r="E233" s="25"/>
     </row>
-    <row r="234" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A234" s="9" t="s">
         <v>59</v>
       </c>
@@ -9424,7 +9429,7 @@
       </c>
       <c r="E234" s="25"/>
     </row>
-    <row r="235" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -9439,7 +9444,7 @@
       </c>
       <c r="E235" s="25"/>
     </row>
-    <row r="236" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A236" s="9" t="s">
         <v>67</v>
       </c>
@@ -9454,7 +9459,7 @@
       </c>
       <c r="E236" s="25"/>
     </row>
-    <row r="237" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A237" s="9" t="s">
         <v>71</v>
       </c>
@@ -9469,7 +9474,7 @@
       </c>
       <c r="E237" s="25"/>
     </row>
-    <row r="238" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A238" s="9" t="s">
         <v>75</v>
       </c>
@@ -9484,7 +9489,7 @@
       </c>
       <c r="E238" s="25"/>
     </row>
-    <row r="239" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A239" s="9" t="s">
         <v>79</v>
       </c>
@@ -9499,7 +9504,7 @@
       </c>
       <c r="E239" s="25"/>
     </row>
-    <row r="240" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A240" s="9" t="s">
         <v>83</v>
       </c>
@@ -9514,7 +9519,7 @@
       </c>
       <c r="E240" s="25"/>
     </row>
-    <row r="241" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A241" s="9" t="s">
         <v>87</v>
       </c>
@@ -9529,7 +9534,7 @@
       </c>
       <c r="E241" s="25"/>
     </row>
-    <row r="242" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A242" s="12" t="s">
         <v>91</v>
       </c>
@@ -9544,7 +9549,7 @@
       </c>
       <c r="E242" s="25"/>
     </row>
-    <row r="243" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A243" s="9" t="s">
         <v>95</v>
       </c>
@@ -9559,7 +9564,7 @@
       </c>
       <c r="E243" s="25"/>
     </row>
-    <row r="244" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A244" s="9" t="s">
         <v>99</v>
       </c>
@@ -9574,7 +9579,7 @@
       </c>
       <c r="E244" s="25"/>
     </row>
-    <row r="245" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A245" s="9" t="s">
         <v>103</v>
       </c>
@@ -9589,7 +9594,7 @@
       </c>
       <c r="E245" s="25"/>
     </row>
-    <row r="246" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>107</v>
       </c>
@@ -9604,7 +9609,7 @@
       </c>
       <c r="E246" s="25"/>
     </row>
-    <row r="247" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>111</v>
       </c>
@@ -9619,7 +9624,7 @@
       </c>
       <c r="E247" s="25"/>
     </row>
-    <row r="248" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>115</v>
       </c>
@@ -9634,7 +9639,7 @@
       </c>
       <c r="E248" s="25"/>
     </row>
-    <row r="249" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A249" s="9" t="s">
         <v>119</v>
       </c>
@@ -9649,7 +9654,7 @@
       </c>
       <c r="E249" s="25"/>
     </row>
-    <row r="250" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>123</v>
       </c>
@@ -9664,7 +9669,7 @@
       </c>
       <c r="E250" s="25"/>
     </row>
-    <row r="251" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A251" s="9" t="s">
         <v>127</v>
       </c>
@@ -9679,7 +9684,7 @@
       </c>
       <c r="E251" s="25"/>
     </row>
-    <row r="252" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
@@ -9694,7 +9699,7 @@
       </c>
       <c r="E252" s="25"/>
     </row>
-    <row r="253" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>135</v>
       </c>
@@ -9709,7 +9714,7 @@
       </c>
       <c r="E253" s="25"/>
     </row>
-    <row r="254" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A254" s="9" t="s">
         <v>139</v>
       </c>
@@ -9724,7 +9729,7 @@
       </c>
       <c r="E254" s="25"/>
     </row>
-    <row r="255" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>143</v>
       </c>
@@ -9739,7 +9744,7 @@
       </c>
       <c r="E255" s="25"/>
     </row>
-    <row r="256" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>147</v>
       </c>
@@ -9754,7 +9759,7 @@
       </c>
       <c r="E256" s="25"/>
     </row>
-    <row r="257" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>151</v>
       </c>
@@ -9769,7 +9774,7 @@
       </c>
       <c r="E257" s="25"/>
     </row>
-    <row r="258" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>155</v>
       </c>
@@ -9784,7 +9789,7 @@
       </c>
       <c r="E258" s="25"/>
     </row>
-    <row r="259" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
@@ -9799,7 +9804,7 @@
       </c>
       <c r="E259" s="25"/>
     </row>
-    <row r="260" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>163</v>
       </c>
@@ -9814,7 +9819,7 @@
       </c>
       <c r="E260" s="25"/>
     </row>
-    <row r="261" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A261" s="9" t="s">
         <v>167</v>
       </c>
@@ -9829,7 +9834,7 @@
       </c>
       <c r="E261" s="25"/>
     </row>
-    <row r="262" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>171</v>
       </c>
@@ -9844,7 +9849,7 @@
       </c>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
         <v>175</v>
       </c>
@@ -9859,7 +9864,7 @@
       </c>
       <c r="E263" s="25"/>
     </row>
-    <row r="264" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
         <v>179</v>
       </c>
@@ -9874,7 +9879,7 @@
       </c>
       <c r="E264" s="25"/>
     </row>
-    <row r="265" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
         <v>183</v>
       </c>
@@ -9889,7 +9894,7 @@
       </c>
       <c r="E265" s="25"/>
     </row>
-    <row r="266" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A266" s="9" t="s">
         <v>187</v>
       </c>
@@ -9904,7 +9909,7 @@
       </c>
       <c r="E266" s="25"/>
     </row>
-    <row r="267" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A267" s="9" t="s">
         <v>191</v>
       </c>
@@ -9919,7 +9924,7 @@
       </c>
       <c r="E267" s="25"/>
     </row>
-    <row r="268" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
         <v>195</v>
       </c>
@@ -9934,7 +9939,7 @@
       </c>
       <c r="E268" s="25"/>
     </row>
-    <row r="269" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A269" s="9" t="s">
         <v>199</v>
       </c>
@@ -9949,7 +9954,7 @@
       </c>
       <c r="E269" s="25"/>
     </row>
-    <row r="270" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
         <v>740</v>
       </c>
@@ -9964,7 +9969,7 @@
       </c>
       <c r="E270" s="25"/>
     </row>
-    <row r="271" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
         <v>744</v>
       </c>
@@ -9979,7 +9984,7 @@
       </c>
       <c r="E271" s="25"/>
     </row>
-    <row r="272" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A272" s="9" t="s">
         <v>748</v>
       </c>
@@ -9994,7 +9999,7 @@
       </c>
       <c r="E272" s="25"/>
     </row>
-    <row r="273" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
         <v>752</v>
       </c>
@@ -10009,7 +10014,7 @@
       </c>
       <c r="E273" s="25"/>
     </row>
-    <row r="274" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A274" s="9" t="s">
         <v>756</v>
       </c>
@@ -10024,7 +10029,7 @@
       </c>
       <c r="E274" s="25"/>
     </row>
-    <row r="275" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A275" s="9" t="s">
         <v>760</v>
       </c>
@@ -10039,7 +10044,7 @@
       </c>
       <c r="E275" s="25"/>
     </row>
-    <row r="276" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A276" s="9" t="s">
         <v>764</v>
       </c>
@@ -10054,7 +10059,7 @@
       </c>
       <c r="E276" s="25"/>
     </row>
-    <row r="277" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A277" s="9" t="s">
         <v>768</v>
       </c>
@@ -10069,7 +10074,7 @@
       </c>
       <c r="E277" s="25"/>
     </row>
-    <row r="278" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A278" s="9" t="s">
         <v>772</v>
       </c>
@@ -10084,7 +10089,7 @@
       </c>
       <c r="E278" s="25"/>
     </row>
-    <row r="279" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
         <v>776</v>
       </c>
@@ -10099,25 +10104,25 @@
       </c>
       <c r="E279" s="25"/>
     </row>
-    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="53" t="s">
+    <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="52" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="53"/>
-      <c r="C280" s="53"/>
-      <c r="D280" s="53"/>
-      <c r="E280" s="53"/>
+      <c r="B280" s="52"/>
+      <c r="C280" s="52"/>
+      <c r="D280" s="52"/>
+      <c r="E280" s="52"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="54"/>
-      <c r="B281" s="54"/>
-      <c r="C281" s="54"/>
-      <c r="D281" s="54"/>
-      <c r="E281" s="54"/>
+    <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="53"/>
+      <c r="B281" s="53"/>
+      <c r="C281" s="53"/>
+      <c r="D281" s="53"/>
+      <c r="E281" s="53"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>0</v>
       </c>
@@ -10134,7 +10139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
         <v>5</v>
       </c>
@@ -10149,7 +10154,7 @@
       </c>
       <c r="E283" s="25"/>
     </row>
-    <row r="284" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -10164,7 +10169,7 @@
       </c>
       <c r="E284" s="25"/>
     </row>
-    <row r="285" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
         <v>13</v>
       </c>
@@ -10179,7 +10184,7 @@
       </c>
       <c r="E285" s="25"/>
     </row>
-    <row r="286" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
         <v>17</v>
       </c>
@@ -10194,7 +10199,7 @@
       </c>
       <c r="E286" s="25"/>
     </row>
-    <row r="287" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A287" s="9" t="s">
         <v>35</v>
       </c>
@@ -10209,7 +10214,7 @@
       </c>
       <c r="E287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
         <v>39</v>
       </c>
@@ -10224,7 +10229,7 @@
       </c>
       <c r="E288" s="25"/>
     </row>
-    <row r="289" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
         <v>43</v>
       </c>
@@ -10239,7 +10244,7 @@
       </c>
       <c r="E289" s="25"/>
     </row>
-    <row r="290" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A290" s="9" t="s">
         <v>47</v>
       </c>
@@ -10254,7 +10259,7 @@
       </c>
       <c r="E290" s="25"/>
     </row>
-    <row r="291" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A291" s="9" t="s">
         <v>51</v>
       </c>
@@ -10269,7 +10274,7 @@
       </c>
       <c r="E291" s="25"/>
     </row>
-    <row r="292" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A292" s="9" t="s">
         <v>55</v>
       </c>
@@ -10284,7 +10289,7 @@
       </c>
       <c r="E292" s="25"/>
     </row>
-    <row r="293" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A293" s="9" t="s">
         <v>59</v>
       </c>
@@ -10299,7 +10304,7 @@
       </c>
       <c r="E293" s="25"/>
     </row>
-    <row r="294" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A294" s="9" t="s">
         <v>63</v>
       </c>
@@ -10314,7 +10319,7 @@
       </c>
       <c r="E294" s="25"/>
     </row>
-    <row r="295" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A295" s="9" t="s">
         <v>67</v>
       </c>
@@ -10329,7 +10334,7 @@
       </c>
       <c r="E295" s="25"/>
     </row>
-    <row r="296" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A296" s="9" t="s">
         <v>71</v>
       </c>
@@ -10344,7 +10349,7 @@
       </c>
       <c r="E296" s="25"/>
     </row>
-    <row r="297" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A297" s="9">
         <v>15</v>
       </c>
@@ -10361,7 +10366,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A298" s="9" t="s">
         <v>79</v>
       </c>
@@ -10376,7 +10381,7 @@
       </c>
       <c r="E298" s="25"/>
     </row>
-    <row r="299" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A299" s="9" t="s">
         <v>83</v>
       </c>
@@ -10391,7 +10396,7 @@
       </c>
       <c r="E299" s="25"/>
     </row>
-    <row r="300" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A300" s="9" t="s">
         <v>87</v>
       </c>
@@ -10406,7 +10411,7 @@
       </c>
       <c r="E300" s="25"/>
     </row>
-    <row r="301" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>91</v>
       </c>
@@ -10421,7 +10426,7 @@
       </c>
       <c r="E301" s="25"/>
     </row>
-    <row r="302" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A302" s="9" t="s">
         <v>95</v>
       </c>
@@ -10436,7 +10441,7 @@
       </c>
       <c r="E302" s="25"/>
     </row>
-    <row r="303" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A303" s="9" t="s">
         <v>99</v>
       </c>
@@ -10451,7 +10456,7 @@
       </c>
       <c r="E303" s="25"/>
     </row>
-    <row r="304" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A304" s="9" t="s">
         <v>103</v>
       </c>
@@ -10466,7 +10471,7 @@
       </c>
       <c r="E304" s="25"/>
     </row>
-    <row r="305" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A305" s="9" t="s">
         <v>107</v>
       </c>
@@ -10481,7 +10486,7 @@
       </c>
       <c r="E305" s="25"/>
     </row>
-    <row r="306" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A306" s="9" t="s">
         <v>111</v>
       </c>
@@ -10496,7 +10501,7 @@
       </c>
       <c r="E306" s="25"/>
     </row>
-    <row r="307" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A307" s="9" t="s">
         <v>115</v>
       </c>
@@ -10511,7 +10516,7 @@
       </c>
       <c r="E307" s="25"/>
     </row>
-    <row r="308" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A308" s="9" t="s">
         <v>119</v>
       </c>
@@ -10526,7 +10531,7 @@
       </c>
       <c r="E308" s="25"/>
     </row>
-    <row r="309" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A309" s="9" t="s">
         <v>123</v>
       </c>
@@ -10541,7 +10546,7 @@
       </c>
       <c r="E309" s="25"/>
     </row>
-    <row r="310" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A310" s="9" t="s">
         <v>127</v>
       </c>
@@ -10556,7 +10561,7 @@
       </c>
       <c r="E310" s="25"/>
     </row>
-    <row r="311" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A311" s="9" t="s">
         <v>131</v>
       </c>
@@ -10571,7 +10576,7 @@
       </c>
       <c r="E311" s="25"/>
     </row>
-    <row r="312" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>135</v>
       </c>
@@ -10586,7 +10591,7 @@
       </c>
       <c r="E312" s="25"/>
     </row>
-    <row r="313" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A313" s="9" t="s">
         <v>139</v>
       </c>
@@ -10601,7 +10606,7 @@
       </c>
       <c r="E313" s="25"/>
     </row>
-    <row r="314" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>143</v>
       </c>
@@ -10616,7 +10621,7 @@
       </c>
       <c r="E314" s="25"/>
     </row>
-    <row r="315" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A315" s="9" t="s">
         <v>147</v>
       </c>
@@ -10631,7 +10636,7 @@
       </c>
       <c r="E315" s="25"/>
     </row>
-    <row r="316" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A316" s="9" t="s">
         <v>151</v>
       </c>
@@ -10646,7 +10651,7 @@
       </c>
       <c r="E316" s="25"/>
     </row>
-    <row r="317" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A317" s="9" t="s">
         <v>155</v>
       </c>
@@ -10661,7 +10666,7 @@
       </c>
       <c r="E317" s="25"/>
     </row>
-    <row r="318" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A318" s="9" t="s">
         <v>159</v>
       </c>
@@ -10676,7 +10681,7 @@
       </c>
       <c r="E318" s="25"/>
     </row>
-    <row r="319" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A319" s="9" t="s">
         <v>163</v>
       </c>
@@ -10691,7 +10696,7 @@
       </c>
       <c r="E319" s="25"/>
     </row>
-    <row r="320" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>167</v>
       </c>
@@ -10706,7 +10711,7 @@
       </c>
       <c r="E320" s="25"/>
     </row>
-    <row r="321" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A321" s="9" t="s">
         <v>171</v>
       </c>
@@ -10721,7 +10726,7 @@
       </c>
       <c r="E321" s="25"/>
     </row>
-    <row r="322" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A322" s="9" t="s">
         <v>175</v>
       </c>
@@ -10736,7 +10741,7 @@
       </c>
       <c r="E322" s="25"/>
     </row>
-    <row r="323" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A323" s="9" t="s">
         <v>179</v>
       </c>
@@ -10751,7 +10756,7 @@
       </c>
       <c r="E323" s="25"/>
     </row>
-    <row r="324" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A324" s="9" t="s">
         <v>183</v>
       </c>
@@ -10766,7 +10771,7 @@
       </c>
       <c r="E324" s="25"/>
     </row>
-    <row r="325" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A325" s="9" t="s">
         <v>187</v>
       </c>
@@ -10781,7 +10786,7 @@
       </c>
       <c r="E325" s="25"/>
     </row>
-    <row r="326" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A326" s="9" t="s">
         <v>191</v>
       </c>
@@ -10796,7 +10801,7 @@
       </c>
       <c r="E326" s="25"/>
     </row>
-    <row r="327" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A327" s="9" t="s">
         <v>195</v>
       </c>
@@ -10811,7 +10816,7 @@
       </c>
       <c r="E327" s="25"/>
     </row>
-    <row r="328" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A328" s="9" t="s">
         <v>199</v>
       </c>
@@ -10826,7 +10831,7 @@
       </c>
       <c r="E328" s="25"/>
     </row>
-    <row r="329" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A329" s="9" t="s">
         <v>740</v>
       </c>
@@ -10841,7 +10846,7 @@
       </c>
       <c r="E329" s="25"/>
     </row>
-    <row r="330" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A330" s="9" t="s">
         <v>744</v>
       </c>
@@ -10856,7 +10861,7 @@
       </c>
       <c r="E330" s="25"/>
     </row>
-    <row r="331" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A331" s="9" t="s">
         <v>748</v>
       </c>
@@ -10871,7 +10876,7 @@
       </c>
       <c r="E331" s="25"/>
     </row>
-    <row r="332" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A332" s="9" t="s">
         <v>752</v>
       </c>
@@ -10886,7 +10891,7 @@
       </c>
       <c r="E332" s="25"/>
     </row>
-    <row r="333" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A333" s="9" t="s">
         <v>756</v>
       </c>
@@ -10901,7 +10906,7 @@
       </c>
       <c r="E333" s="25"/>
     </row>
-    <row r="334" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A334" s="9" t="s">
         <v>760</v>
       </c>
@@ -10916,7 +10921,7 @@
       </c>
       <c r="E334" s="25"/>
     </row>
-    <row r="335" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A335" s="9" t="s">
         <v>764</v>
       </c>
@@ -10931,7 +10936,7 @@
       </c>
       <c r="E335" s="25"/>
     </row>
-    <row r="336" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A336" s="9" t="s">
         <v>768</v>
       </c>
@@ -10946,7 +10951,7 @@
       </c>
       <c r="E336" s="25"/>
     </row>
-    <row r="337" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A337" s="9" t="s">
         <v>772</v>
       </c>
@@ -10961,7 +10966,7 @@
       </c>
       <c r="E337" s="25"/>
     </row>
-    <row r="338" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A338" s="12">
         <v>55</v>
       </c>
@@ -10978,7 +10983,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
         <v>776</v>
       </c>
@@ -10993,7 +10998,7 @@
       </c>
       <c r="E339" s="25"/>
     </row>
-    <row r="340" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A340" s="9" t="s">
         <v>892</v>
       </c>
@@ -11008,7 +11013,7 @@
       </c>
       <c r="E340" s="25"/>
     </row>
-    <row r="341" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A341" s="9" t="s">
         <v>895</v>
       </c>
@@ -11023,7 +11028,7 @@
       </c>
       <c r="E341" s="25"/>
     </row>
-    <row r="342" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A342" s="9" t="s">
         <v>898</v>
       </c>
@@ -11038,7 +11043,7 @@
       </c>
       <c r="E342" s="25"/>
     </row>
-    <row r="343" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A343" s="12" t="s">
         <v>901</v>
       </c>
@@ -11055,7 +11060,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
         <v>904</v>
       </c>
@@ -11070,7 +11075,7 @@
       </c>
       <c r="E344" s="25"/>
     </row>
-    <row r="345" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A345" s="9" t="s">
         <v>907</v>
       </c>
@@ -11085,7 +11090,7 @@
       </c>
       <c r="E345" s="25"/>
     </row>
-    <row r="346" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A346" s="9" t="s">
         <v>910</v>
       </c>
@@ -11100,7 +11105,7 @@
       </c>
       <c r="E346" s="25"/>
     </row>
-    <row r="347" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A347" s="9" t="s">
         <v>913</v>
       </c>
@@ -11115,7 +11120,7 @@
       </c>
       <c r="E347" s="25"/>
     </row>
-    <row r="348" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A348" s="9" t="s">
         <v>916</v>
       </c>
@@ -11130,7 +11135,7 @@
       </c>
       <c r="E348" s="25"/>
     </row>
-    <row r="349" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A349" s="9" t="s">
         <v>919</v>
       </c>
@@ -11145,7 +11150,7 @@
       </c>
       <c r="E349" s="25"/>
     </row>
-    <row r="350" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A350" s="9" t="s">
         <v>922</v>
       </c>
@@ -11160,7 +11165,7 @@
       </c>
       <c r="E350" s="25"/>
     </row>
-    <row r="351" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A351" s="9" t="s">
         <v>925</v>
       </c>
@@ -11175,7 +11180,7 @@
       </c>
       <c r="E351" s="25"/>
     </row>
-    <row r="352" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A352" s="9" t="s">
         <v>928</v>
       </c>
@@ -11190,7 +11195,7 @@
       </c>
       <c r="E352" s="25"/>
     </row>
-    <row r="353" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A353" s="9" t="s">
         <v>931</v>
       </c>
@@ -11205,7 +11210,7 @@
       </c>
       <c r="E353" s="25"/>
     </row>
-    <row r="354" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A354" s="9" t="s">
         <v>934</v>
       </c>
@@ -11220,7 +11225,7 @@
       </c>
       <c r="E354" s="25"/>
     </row>
-    <row r="355" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A355" s="9" t="s">
         <v>937</v>
       </c>
@@ -11235,7 +11240,7 @@
       </c>
       <c r="E355" s="25"/>
     </row>
-    <row r="356" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A356" s="9" t="s">
         <v>940</v>
       </c>
@@ -11250,7 +11255,7 @@
       </c>
       <c r="E356" s="25"/>
     </row>
-    <row r="357" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A357" s="9" t="s">
         <v>943</v>
       </c>
@@ -11265,7 +11270,7 @@
       </c>
       <c r="E357" s="25"/>
     </row>
-    <row r="358" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A358" s="9" t="s">
         <v>946</v>
       </c>
@@ -11280,7 +11285,7 @@
       </c>
       <c r="E358" s="25"/>
     </row>
-    <row r="359" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A359" s="9" t="s">
         <v>949</v>
       </c>
@@ -11295,7 +11300,7 @@
       </c>
       <c r="E359" s="25"/>
     </row>
-    <row r="360" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A360" s="9" t="s">
         <v>952</v>
       </c>
@@ -11310,7 +11315,7 @@
       </c>
       <c r="E360" s="25"/>
     </row>
-    <row r="361" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A361" s="9" t="s">
         <v>955</v>
       </c>
@@ -11325,7 +11330,7 @@
       </c>
       <c r="E361" s="25"/>
     </row>
-    <row r="362" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A362" s="9" t="s">
         <v>958</v>
       </c>
@@ -11340,7 +11345,7 @@
       </c>
       <c r="E362" s="25"/>
     </row>
-    <row r="363" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A363" s="9" t="s">
         <v>961</v>
       </c>
@@ -11355,7 +11360,7 @@
       </c>
       <c r="E363" s="25"/>
     </row>
-    <row r="364" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A364" s="9" t="s">
         <v>964</v>
       </c>
@@ -11370,7 +11375,7 @@
       </c>
       <c r="E364" s="25"/>
     </row>
-    <row r="365" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A365" s="9" t="s">
         <v>967</v>
       </c>
@@ -11385,7 +11390,7 @@
       </c>
       <c r="E365" s="25"/>
     </row>
-    <row r="366" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A366" s="9" t="s">
         <v>970</v>
       </c>
@@ -11400,7 +11405,7 @@
       </c>
       <c r="E366" s="25"/>
     </row>
-    <row r="367" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A367" s="9" t="s">
         <v>973</v>
       </c>
@@ -11415,7 +11420,7 @@
       </c>
       <c r="E367" s="25"/>
     </row>
-    <row r="368" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A368" s="9" t="s">
         <v>976</v>
       </c>
@@ -11430,7 +11435,7 @@
       </c>
       <c r="E368" s="25"/>
     </row>
-    <row r="369" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A369" s="9" t="s">
         <v>979</v>
       </c>
@@ -11445,7 +11450,7 @@
       </c>
       <c r="E369" s="25"/>
     </row>
-    <row r="370" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>982</v>
       </c>
@@ -11460,7 +11465,7 @@
       </c>
       <c r="E370" s="25"/>
     </row>
-    <row r="371" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A371" s="9" t="s">
         <v>985</v>
       </c>
@@ -11475,7 +11480,7 @@
       </c>
       <c r="E371" s="25"/>
     </row>
-    <row r="372" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>988</v>
       </c>
@@ -11490,7 +11495,7 @@
       </c>
       <c r="E372" s="25"/>
     </row>
-    <row r="373" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A373" s="12" t="s">
         <v>992</v>
       </c>
@@ -11505,7 +11510,7 @@
       </c>
       <c r="E373" s="25"/>
     </row>
-    <row r="374" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A374" s="9" t="s">
         <v>996</v>
       </c>
@@ -11520,7 +11525,7 @@
       </c>
       <c r="E374" s="25"/>
     </row>
-    <row r="375" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A375" s="9" t="s">
         <v>1000</v>
       </c>
@@ -11535,7 +11540,7 @@
       </c>
       <c r="E375" s="25"/>
     </row>
-    <row r="376" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A376" s="9" t="s">
         <v>1004</v>
       </c>
@@ -11550,7 +11555,7 @@
       </c>
       <c r="E376" s="25"/>
     </row>
-    <row r="377" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A377" s="9" t="s">
         <v>1008</v>
       </c>
@@ -11565,7 +11570,7 @@
       </c>
       <c r="E377" s="25"/>
     </row>
-    <row r="378" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A378" s="12" t="s">
         <v>1012</v>
       </c>
@@ -11580,7 +11585,7 @@
       </c>
       <c r="E378" s="25"/>
     </row>
-    <row r="379" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>1016</v>
       </c>
@@ -11595,7 +11600,7 @@
       </c>
       <c r="E379" s="25"/>
     </row>
-    <row r="380" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>1020</v>
       </c>
@@ -11610,7 +11615,7 @@
       </c>
       <c r="E380" s="25"/>
     </row>
-    <row r="381" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>1023</v>
       </c>
@@ -11628,7 +11633,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A382" s="9" t="s">
         <v>1026</v>
       </c>
@@ -11643,7 +11648,7 @@
       </c>
       <c r="E382" s="25"/>
     </row>
-    <row r="383" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A383" s="9" t="s">
         <v>1029</v>
       </c>
@@ -11658,7 +11663,7 @@
       </c>
       <c r="E383" s="25"/>
     </row>
-    <row r="384" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A384" s="9" t="s">
         <v>1032</v>
       </c>
@@ -11673,7 +11678,7 @@
       </c>
       <c r="E384" s="25"/>
     </row>
-    <row r="385" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A385" s="9" t="s">
         <v>1035</v>
       </c>
@@ -11688,7 +11693,7 @@
       </c>
       <c r="E385" s="25"/>
     </row>
-    <row r="386" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A386" s="9" t="s">
         <v>1038</v>
       </c>
@@ -11703,7 +11708,7 @@
       </c>
       <c r="E386" s="25"/>
     </row>
-    <row r="387" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A387" s="12" t="s">
         <v>1041</v>
       </c>
@@ -11718,7 +11723,7 @@
       </c>
       <c r="E387" s="25"/>
     </row>
-    <row r="388" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A388" s="9" t="s">
         <v>1044</v>
       </c>
@@ -11733,7 +11738,7 @@
       </c>
       <c r="E388" s="25"/>
     </row>
-    <row r="389" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A389" s="12" t="s">
         <v>1047</v>
       </c>
@@ -11748,7 +11753,7 @@
       </c>
       <c r="E389" s="25"/>
     </row>
-    <row r="390" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A390" s="9" t="s">
         <v>1050</v>
       </c>
@@ -11763,7 +11768,7 @@
       </c>
       <c r="E390" s="25"/>
     </row>
-    <row r="391" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A391" s="9" t="s">
         <v>1053</v>
       </c>
@@ -11778,7 +11783,7 @@
       </c>
       <c r="E391" s="25"/>
     </row>
-    <row r="392" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A392" s="9" t="s">
         <v>1056</v>
       </c>
@@ -11793,7 +11798,7 @@
       </c>
       <c r="E392" s="25"/>
     </row>
-    <row r="393" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A393" s="9" t="s">
         <v>1059</v>
       </c>
@@ -11808,7 +11813,7 @@
       </c>
       <c r="E393" s="25"/>
     </row>
-    <row r="394" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A394" s="9" t="s">
         <v>1062</v>
       </c>
@@ -11823,7 +11828,7 @@
       </c>
       <c r="E394" s="25"/>
     </row>
-    <row r="395" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A395" s="9" t="s">
         <v>1065</v>
       </c>
@@ -11838,7 +11843,7 @@
       </c>
       <c r="E395" s="25"/>
     </row>
-    <row r="396" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A396" s="9" t="s">
         <v>1068</v>
       </c>
@@ -11853,7 +11858,7 @@
       </c>
       <c r="E396" s="25"/>
     </row>
-    <row r="397" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A397" s="9" t="s">
         <v>1071</v>
       </c>
@@ -11868,7 +11873,7 @@
       </c>
       <c r="E397" s="25"/>
     </row>
-    <row r="398" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A398" s="9" t="s">
         <v>1074</v>
       </c>
@@ -11883,7 +11888,7 @@
       </c>
       <c r="E398" s="25"/>
     </row>
-    <row r="399" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A399" s="9" t="s">
         <v>1077</v>
       </c>
@@ -11898,7 +11903,7 @@
       </c>
       <c r="E399" s="25"/>
     </row>
-    <row r="400" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A400" s="9" t="s">
         <v>1080</v>
       </c>
@@ -11913,7 +11918,7 @@
       </c>
       <c r="E400" s="25"/>
     </row>
-    <row r="401" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A401" s="9" t="s">
         <v>1083</v>
       </c>
@@ -11928,7 +11933,7 @@
       </c>
       <c r="E401" s="25"/>
     </row>
-    <row r="402" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A402" s="9" t="s">
         <v>1086</v>
       </c>
@@ -11943,7 +11948,7 @@
       </c>
       <c r="E402" s="25"/>
     </row>
-    <row r="403" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A403" s="9" t="s">
         <v>1089</v>
       </c>
@@ -11958,7 +11963,7 @@
       </c>
       <c r="E403" s="25"/>
     </row>
-    <row r="404" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A404" s="9" t="s">
         <v>1092</v>
       </c>
@@ -11973,7 +11978,7 @@
       </c>
       <c r="E404" s="25"/>
     </row>
-    <row r="405" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A405" s="9" t="s">
         <v>1096</v>
       </c>
@@ -11988,7 +11993,7 @@
       </c>
       <c r="E405" s="25"/>
     </row>
-    <row r="406" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A406" s="9" t="s">
         <v>1100</v>
       </c>
@@ -12003,7 +12008,7 @@
       </c>
       <c r="E406" s="25"/>
     </row>
-    <row r="407" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A407" s="12" t="s">
         <v>1102</v>
       </c>
@@ -12018,7 +12023,7 @@
       </c>
       <c r="E407" s="25"/>
     </row>
-    <row r="408" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A408" s="9" t="s">
         <v>1105</v>
       </c>
@@ -12033,7 +12038,7 @@
       </c>
       <c r="E408" s="25"/>
     </row>
-    <row r="409" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A409" s="9" t="s">
         <v>1108</v>
       </c>
@@ -12048,7 +12053,7 @@
       </c>
       <c r="E409" s="25"/>
     </row>
-    <row r="410" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A410" s="9" t="s">
         <v>1111</v>
       </c>
@@ -12063,7 +12068,7 @@
       </c>
       <c r="E410" s="25"/>
     </row>
-    <row r="411" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A411" s="9" t="s">
         <v>1114</v>
       </c>
@@ -12078,7 +12083,7 @@
       </c>
       <c r="E411" s="25"/>
     </row>
-    <row r="412" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A412" s="9" t="s">
         <v>1117</v>
       </c>
@@ -12093,7 +12098,7 @@
       </c>
       <c r="E412" s="25"/>
     </row>
-    <row r="413" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A413" s="9" t="s">
         <v>1120</v>
       </c>
@@ -12108,7 +12113,7 @@
       </c>
       <c r="E413" s="25"/>
     </row>
-    <row r="414" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A414" s="9" t="s">
         <v>1123</v>
       </c>
@@ -12123,7 +12128,7 @@
       </c>
       <c r="E414" s="25"/>
     </row>
-    <row r="415" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A415" s="9" t="s">
         <v>1126</v>
       </c>
@@ -12138,7 +12143,7 @@
       </c>
       <c r="E415" s="25"/>
     </row>
-    <row r="416" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A416" s="9" t="s">
         <v>1129</v>
       </c>
@@ -12153,7 +12158,7 @@
       </c>
       <c r="E416" s="25"/>
     </row>
-    <row r="417" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A417" s="9" t="s">
         <v>1132</v>
       </c>
@@ -12168,7 +12173,7 @@
       </c>
       <c r="E417" s="25"/>
     </row>
-    <row r="418" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A418" s="9" t="s">
         <v>1135</v>
       </c>
@@ -12183,7 +12188,7 @@
       </c>
       <c r="E418" s="25"/>
     </row>
-    <row r="419" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A419" s="9" t="s">
         <v>1138</v>
       </c>
@@ -12198,7 +12203,7 @@
       </c>
       <c r="E419" s="25"/>
     </row>
-    <row r="420" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A420" s="9" t="s">
         <v>1141</v>
       </c>
@@ -12213,7 +12218,7 @@
       </c>
       <c r="E420" s="25"/>
     </row>
-    <row r="421" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A421" s="9" t="s">
         <v>1144</v>
       </c>
@@ -12228,7 +12233,7 @@
       </c>
       <c r="E421" s="25"/>
     </row>
-    <row r="422" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A422" s="9" t="s">
         <v>1148</v>
       </c>
@@ -12243,7 +12248,7 @@
       </c>
       <c r="E422" s="25"/>
     </row>
-    <row r="423" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A423" s="9" t="s">
         <v>1152</v>
       </c>
@@ -12258,7 +12263,7 @@
       </c>
       <c r="E423" s="25"/>
     </row>
-    <row r="424" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A424" s="9" t="s">
         <v>1156</v>
       </c>
@@ -12273,7 +12278,7 @@
       </c>
       <c r="E424" s="25"/>
     </row>
-    <row r="425" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A425" s="9" t="s">
         <v>1160</v>
       </c>
@@ -12288,7 +12293,7 @@
       </c>
       <c r="E425" s="25"/>
     </row>
-    <row r="426" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A426" s="9" t="s">
         <v>1164</v>
       </c>
@@ -12303,7 +12308,7 @@
       </c>
       <c r="E426" s="25"/>
     </row>
-    <row r="427" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A427" s="9" t="s">
         <v>1168</v>
       </c>
@@ -12318,7 +12323,7 @@
       </c>
       <c r="E427" s="25"/>
     </row>
-    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="9" t="s">
         <v>1718</v>
       </c>
@@ -12333,25 +12338,25 @@
       </c>
       <c r="E428" s="25"/>
     </row>
-    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="52" t="s">
+    <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="54" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="52"/>
-      <c r="C429" s="52"/>
-      <c r="D429" s="52"/>
-      <c r="E429" s="52"/>
+      <c r="B429" s="54"/>
+      <c r="C429" s="54"/>
+      <c r="D429" s="54"/>
+      <c r="E429" s="54"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="53"/>
-      <c r="B430" s="53"/>
-      <c r="C430" s="53"/>
-      <c r="D430" s="53"/>
-      <c r="E430" s="53"/>
+    <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="52"/>
+      <c r="B430" s="52"/>
+      <c r="C430" s="52"/>
+      <c r="D430" s="52"/>
+      <c r="E430" s="52"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
         <v>0</v>
       </c>
@@ -12368,7 +12373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="9" t="s">
         <v>5</v>
       </c>
@@ -12383,7 +12388,7 @@
       </c>
       <c r="E433" s="25"/>
     </row>
-    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="9" t="s">
         <v>9</v>
       </c>
@@ -12398,7 +12403,7 @@
       </c>
       <c r="E434" s="25"/>
     </row>
-    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="9" t="s">
         <v>13</v>
       </c>
@@ -12413,7 +12418,7 @@
       </c>
       <c r="E435" s="25"/>
     </row>
-    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="9" t="s">
         <v>17</v>
       </c>
@@ -12428,25 +12433,25 @@
       </c>
       <c r="E436" s="25"/>
     </row>
-    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="52" t="s">
+    <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="54" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="52"/>
-      <c r="C437" s="52"/>
-      <c r="D437" s="52"/>
-      <c r="E437" s="52"/>
+      <c r="B437" s="54"/>
+      <c r="C437" s="54"/>
+      <c r="D437" s="54"/>
+      <c r="E437" s="54"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="53"/>
-      <c r="B438" s="53"/>
-      <c r="C438" s="53"/>
-      <c r="D438" s="53"/>
-      <c r="E438" s="53"/>
+    <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="52"/>
+      <c r="B438" s="52"/>
+      <c r="C438" s="52"/>
+      <c r="D438" s="52"/>
+      <c r="E438" s="52"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
         <v>0</v>
       </c>
@@ -12463,7 +12468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="9" t="s">
         <v>5</v>
       </c>
@@ -12478,7 +12483,7 @@
       </c>
       <c r="E441" s="25"/>
     </row>
-    <row r="442" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="9" t="s">
         <v>9</v>
       </c>
@@ -12493,7 +12498,7 @@
       </c>
       <c r="E442" s="25"/>
     </row>
-    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="9" t="s">
         <v>13</v>
       </c>
@@ -12508,7 +12513,7 @@
       </c>
       <c r="E443" s="25"/>
     </row>
-    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="9" t="s">
         <v>17</v>
       </c>
@@ -12523,7 +12528,7 @@
       </c>
       <c r="E444" s="25"/>
     </row>
-    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="9" t="s">
         <v>35</v>
       </c>
@@ -12538,7 +12543,7 @@
       </c>
       <c r="E445" s="25"/>
     </row>
-    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="9" t="s">
         <v>39</v>
       </c>
@@ -12553,7 +12558,7 @@
       </c>
       <c r="E446" s="25"/>
     </row>
-    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="9" t="s">
         <v>43</v>
       </c>
@@ -12568,7 +12573,7 @@
       </c>
       <c r="E447" s="25"/>
     </row>
-    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="9" t="s">
         <v>47</v>
       </c>
@@ -12583,7 +12588,7 @@
       </c>
       <c r="E448" s="25"/>
     </row>
-    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="9" t="s">
         <v>51</v>
       </c>
@@ -12598,7 +12603,7 @@
       </c>
       <c r="E449" s="25"/>
     </row>
-    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="9" t="s">
         <v>55</v>
       </c>
@@ -12613,7 +12618,7 @@
       </c>
       <c r="E450" s="25"/>
     </row>
-    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="9" t="s">
         <v>59</v>
       </c>
@@ -12628,7 +12633,7 @@
       </c>
       <c r="E451" s="25"/>
     </row>
-    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="9" t="s">
         <v>63</v>
       </c>
@@ -12643,7 +12648,7 @@
       </c>
       <c r="E452" s="25"/>
     </row>
-    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="9" t="s">
         <v>67</v>
       </c>
@@ -12658,7 +12663,7 @@
       </c>
       <c r="E453" s="25"/>
     </row>
-    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="9" t="s">
         <v>71</v>
       </c>
@@ -12673,7 +12678,7 @@
       </c>
       <c r="E454" s="25"/>
     </row>
-    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="9" t="s">
         <v>75</v>
       </c>
@@ -12688,7 +12693,7 @@
       </c>
       <c r="E455" s="25"/>
     </row>
-    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="9" t="s">
         <v>79</v>
       </c>
@@ -12703,7 +12708,7 @@
       </c>
       <c r="E456" s="25"/>
     </row>
-    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="9" t="s">
         <v>83</v>
       </c>
@@ -12718,7 +12723,7 @@
       </c>
       <c r="E457" s="25"/>
     </row>
-    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="9" t="s">
         <v>87</v>
       </c>
@@ -12733,7 +12738,7 @@
       </c>
       <c r="E458" s="25"/>
     </row>
-    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="9" t="s">
         <v>91</v>
       </c>
@@ -12748,7 +12753,7 @@
       </c>
       <c r="E459" s="25"/>
     </row>
-    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="9" t="s">
         <v>95</v>
       </c>
@@ -12763,7 +12768,7 @@
       </c>
       <c r="E460" s="25"/>
     </row>
-    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="9" t="s">
         <v>99</v>
       </c>
@@ -12778,7 +12783,7 @@
       </c>
       <c r="E461" s="25"/>
     </row>
-    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="9" t="s">
         <v>103</v>
       </c>
@@ -12793,7 +12798,7 @@
       </c>
       <c r="E462" s="25"/>
     </row>
-    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="9" t="s">
         <v>107</v>
       </c>
@@ -12808,7 +12813,7 @@
       </c>
       <c r="E463" s="25"/>
     </row>
-    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="9" t="s">
         <v>111</v>
       </c>
@@ -12823,7 +12828,7 @@
       </c>
       <c r="E464" s="25"/>
     </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="9" t="s">
         <v>115</v>
       </c>
@@ -12838,7 +12843,7 @@
       </c>
       <c r="E465" s="25"/>
     </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
@@ -12853,7 +12858,7 @@
       </c>
       <c r="E466" s="25"/>
     </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="9" t="s">
         <v>123</v>
       </c>
@@ -12868,7 +12873,7 @@
       </c>
       <c r="E467" s="25"/>
     </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
@@ -12883,7 +12888,7 @@
       </c>
       <c r="E468" s="25"/>
     </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
         <v>131</v>
       </c>
@@ -12898,7 +12903,7 @@
       </c>
       <c r="E469" s="25"/>
     </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
@@ -12913,7 +12918,7 @@
       </c>
       <c r="E470" s="25"/>
     </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>139</v>
       </c>
@@ -12928,7 +12933,7 @@
       </c>
       <c r="E471" s="25"/>
     </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
@@ -12943,7 +12948,7 @@
       </c>
       <c r="E472" s="25"/>
     </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="9" t="s">
         <v>147</v>
       </c>
@@ -12958,7 +12963,7 @@
       </c>
       <c r="E473" s="25"/>
     </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
@@ -12973,7 +12978,7 @@
       </c>
       <c r="E474" s="25"/>
     </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="9" t="s">
         <v>155</v>
       </c>
@@ -12988,7 +12993,7 @@
       </c>
       <c r="E475" s="25"/>
     </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
@@ -13003,7 +13008,7 @@
       </c>
       <c r="E476" s="25"/>
     </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>163</v>
       </c>
@@ -13018,7 +13023,7 @@
       </c>
       <c r="E477" s="25"/>
     </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
@@ -13033,7 +13038,7 @@
       </c>
       <c r="E478" s="25"/>
     </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>171</v>
       </c>
@@ -13048,7 +13053,7 @@
       </c>
       <c r="E479" s="25"/>
     </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
@@ -13063,7 +13068,7 @@
       </c>
       <c r="E480" s="25"/>
     </row>
-    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="9" t="s">
         <v>179</v>
       </c>
@@ -13078,7 +13083,7 @@
       </c>
       <c r="E481" s="25"/>
     </row>
-    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="9" t="s">
         <v>183</v>
       </c>
@@ -13093,7 +13098,7 @@
       </c>
       <c r="E482" s="25"/>
     </row>
-    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="9" t="s">
         <v>187</v>
       </c>
@@ -13108,7 +13113,7 @@
       </c>
       <c r="E483" s="25"/>
     </row>
-    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="9" t="s">
         <v>191</v>
       </c>
@@ -13123,7 +13128,7 @@
       </c>
       <c r="E484" s="25"/>
     </row>
-    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="9" t="s">
         <v>195</v>
       </c>
@@ -13138,7 +13143,7 @@
       </c>
       <c r="E485" s="25"/>
     </row>
-    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="9" t="s">
         <v>199</v>
       </c>
@@ -13153,7 +13158,7 @@
       </c>
       <c r="E486" s="25"/>
     </row>
-    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="9" t="s">
         <v>740</v>
       </c>
@@ -13168,7 +13173,7 @@
       </c>
       <c r="E487" s="25"/>
     </row>
-    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="9" t="s">
         <v>744</v>
       </c>
@@ -13183,7 +13188,7 @@
       </c>
       <c r="E488" s="25"/>
     </row>
-    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="9" t="s">
         <v>748</v>
       </c>
@@ -13198,25 +13203,25 @@
       </c>
       <c r="E489" s="25"/>
     </row>
-    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="52" t="s">
+    <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="54" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="52"/>
-      <c r="C490" s="52"/>
-      <c r="D490" s="52"/>
-      <c r="E490" s="52"/>
+      <c r="B490" s="54"/>
+      <c r="C490" s="54"/>
+      <c r="D490" s="54"/>
+      <c r="E490" s="54"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="53"/>
-      <c r="B491" s="53"/>
-      <c r="C491" s="53"/>
-      <c r="D491" s="53"/>
-      <c r="E491" s="53"/>
+    <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="52"/>
+      <c r="B491" s="52"/>
+      <c r="C491" s="52"/>
+      <c r="D491" s="52"/>
+      <c r="E491" s="52"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -13233,7 +13238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="12" t="s">
         <v>5</v>
       </c>
@@ -13250,7 +13255,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="12" t="s">
         <v>9</v>
       </c>
@@ -13265,7 +13270,7 @@
       </c>
       <c r="E495" s="24"/>
     </row>
-    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="9" t="s">
         <v>13</v>
       </c>
@@ -13280,7 +13285,7 @@
       </c>
       <c r="E496" s="25"/>
     </row>
-    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="9" t="s">
         <v>17</v>
       </c>
@@ -13295,7 +13300,7 @@
       </c>
       <c r="E497" s="25"/>
     </row>
-    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="9" t="s">
         <v>35</v>
       </c>
@@ -13310,7 +13315,7 @@
       </c>
       <c r="E498" s="25"/>
     </row>
-    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
@@ -13325,7 +13330,7 @@
       </c>
       <c r="E499" s="25"/>
     </row>
-    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="12" t="s">
         <v>43</v>
       </c>
@@ -13342,7 +13347,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12" t="s">
         <v>47</v>
       </c>
@@ -13359,7 +13364,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="9" t="s">
         <v>51</v>
       </c>
@@ -13374,7 +13379,7 @@
       </c>
       <c r="E502" s="25"/>
     </row>
-    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="9" t="s">
         <v>55</v>
       </c>
@@ -13389,7 +13394,7 @@
       </c>
       <c r="E503" s="25"/>
     </row>
-    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="9" t="s">
         <v>59</v>
       </c>
@@ -13404,7 +13409,7 @@
       </c>
       <c r="E504" s="25"/>
     </row>
-    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="9" t="s">
         <v>63</v>
       </c>
@@ -13419,7 +13424,7 @@
       </c>
       <c r="E505" s="25"/>
     </row>
-    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="9" t="s">
         <v>67</v>
       </c>
@@ -13434,7 +13439,7 @@
       </c>
       <c r="E506" s="25"/>
     </row>
-    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="9" t="s">
         <v>71</v>
       </c>
@@ -13449,7 +13454,7 @@
       </c>
       <c r="E507" s="25"/>
     </row>
-    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="9" t="s">
         <v>75</v>
       </c>
@@ -13464,7 +13469,7 @@
       </c>
       <c r="E508" s="25"/>
     </row>
-    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="9" t="s">
         <v>79</v>
       </c>
@@ -13479,7 +13484,7 @@
       </c>
       <c r="E509" s="25"/>
     </row>
-    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="9" t="s">
         <v>83</v>
       </c>
@@ -13494,7 +13499,7 @@
       </c>
       <c r="E510" s="25"/>
     </row>
-    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="9" t="s">
         <v>87</v>
       </c>
@@ -13509,7 +13514,7 @@
       </c>
       <c r="E511" s="25"/>
     </row>
-    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="9" t="s">
         <v>91</v>
       </c>
@@ -13524,7 +13529,7 @@
       </c>
       <c r="E512" s="25"/>
     </row>
-    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="9" t="s">
         <v>95</v>
       </c>
@@ -13539,7 +13544,7 @@
       </c>
       <c r="E513" s="25"/>
     </row>
-    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="9" t="s">
         <v>99</v>
       </c>
@@ -13554,7 +13559,7 @@
       </c>
       <c r="E514" s="25"/>
     </row>
-    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="9" t="s">
         <v>103</v>
       </c>
@@ -13569,7 +13574,7 @@
       </c>
       <c r="E515" s="25"/>
     </row>
-    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="9" t="s">
         <v>107</v>
       </c>
@@ -13584,7 +13589,7 @@
       </c>
       <c r="E516" s="25"/>
     </row>
-    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="9" t="s">
         <v>111</v>
       </c>
@@ -13599,7 +13604,7 @@
       </c>
       <c r="E517" s="25"/>
     </row>
-    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="9" t="s">
         <v>115</v>
       </c>
@@ -13614,7 +13619,7 @@
       </c>
       <c r="E518" s="25"/>
     </row>
-    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="9" t="s">
         <v>119</v>
       </c>
@@ -13629,7 +13634,7 @@
       </c>
       <c r="E519" s="25"/>
     </row>
-    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="9" t="s">
         <v>123</v>
       </c>
@@ -13644,7 +13649,7 @@
       </c>
       <c r="E520" s="25"/>
     </row>
-    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="9" t="s">
         <v>127</v>
       </c>
@@ -13659,7 +13664,7 @@
       </c>
       <c r="E521" s="25"/>
     </row>
-    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="9" t="s">
         <v>131</v>
       </c>
@@ -13674,7 +13679,7 @@
       </c>
       <c r="E522" s="25"/>
     </row>
-    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="9" t="s">
         <v>135</v>
       </c>
@@ -13689,7 +13694,7 @@
       </c>
       <c r="E523" s="25"/>
     </row>
-    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="9" t="s">
         <v>139</v>
       </c>
@@ -13704,7 +13709,7 @@
       </c>
       <c r="E524" s="25"/>
     </row>
-    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="9" t="s">
         <v>143</v>
       </c>
@@ -13719,7 +13724,7 @@
       </c>
       <c r="E525" s="25"/>
     </row>
-    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="9" t="s">
         <v>147</v>
       </c>
@@ -13734,7 +13739,7 @@
       </c>
       <c r="E526" s="25"/>
     </row>
-    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="9" t="s">
         <v>151</v>
       </c>
@@ -13749,25 +13754,25 @@
       </c>
       <c r="E527" s="25"/>
     </row>
-    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="52" t="s">
+    <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="54" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="52"/>
-      <c r="C528" s="52"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="52"/>
+      <c r="B528" s="54"/>
+      <c r="C528" s="54"/>
+      <c r="D528" s="54"/>
+      <c r="E528" s="54"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="53"/>
-      <c r="B529" s="53"/>
-      <c r="C529" s="53"/>
-      <c r="D529" s="53"/>
-      <c r="E529" s="53"/>
+    <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="52"/>
+      <c r="B529" s="52"/>
+      <c r="C529" s="52"/>
+      <c r="D529" s="52"/>
+      <c r="E529" s="52"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="7" t="s">
         <v>0</v>
       </c>
@@ -13784,7 +13789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="9" t="s">
         <v>5</v>
       </c>
@@ -13799,7 +13804,7 @@
       </c>
       <c r="E532" s="25"/>
     </row>
-    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="9" t="s">
         <v>9</v>
       </c>
@@ -13814,7 +13819,7 @@
       </c>
       <c r="E533" s="25"/>
     </row>
-    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="9" t="s">
         <v>13</v>
       </c>
@@ -13829,7 +13834,7 @@
       </c>
       <c r="E534" s="25"/>
     </row>
-    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="9" t="s">
         <v>17</v>
       </c>
@@ -13844,7 +13849,7 @@
       </c>
       <c r="E535" s="25"/>
     </row>
-    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="9" t="s">
         <v>35</v>
       </c>
@@ -13859,7 +13864,7 @@
       </c>
       <c r="E536" s="25"/>
     </row>
-    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="12" t="s">
         <v>39</v>
       </c>
@@ -13874,7 +13879,7 @@
       </c>
       <c r="E537" s="25"/>
     </row>
-    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="9" t="s">
         <v>43</v>
       </c>
@@ -13889,7 +13894,7 @@
       </c>
       <c r="E538" s="25"/>
     </row>
-    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="9" t="s">
         <v>47</v>
       </c>
@@ -13904,7 +13909,7 @@
       </c>
       <c r="E539" s="25"/>
     </row>
-    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="9" t="s">
         <v>51</v>
       </c>
@@ -13913,7 +13918,7 @@
       <c r="D540" s="18"/>
       <c r="E540" s="27"/>
     </row>
-    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="9" t="s">
         <v>55</v>
       </c>
@@ -13928,7 +13933,7 @@
       </c>
       <c r="E541" s="25"/>
     </row>
-    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="9" t="s">
         <v>59</v>
       </c>
@@ -13943,7 +13948,7 @@
       </c>
       <c r="E542" s="25"/>
     </row>
-    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="9" t="s">
         <v>63</v>
       </c>
@@ -13952,7 +13957,7 @@
       <c r="D543" s="18"/>
       <c r="E543" s="27"/>
     </row>
-    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="9" t="s">
         <v>67</v>
       </c>
@@ -13967,7 +13972,7 @@
       </c>
       <c r="E544" s="25"/>
     </row>
-    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="9" t="s">
         <v>71</v>
       </c>
@@ -13982,7 +13987,7 @@
       </c>
       <c r="E545" s="25"/>
     </row>
-    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="9" t="s">
         <v>75</v>
       </c>
@@ -13997,7 +14002,7 @@
       </c>
       <c r="E546" s="25"/>
     </row>
-    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="9" t="s">
         <v>79</v>
       </c>
@@ -14012,7 +14017,7 @@
       </c>
       <c r="E547" s="25"/>
     </row>
-    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="9" t="s">
         <v>83</v>
       </c>
@@ -14027,25 +14032,25 @@
       </c>
       <c r="E548" s="25"/>
     </row>
-    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="52" t="s">
+    <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="54" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" s="52"/>
-      <c r="C549" s="52"/>
-      <c r="D549" s="52"/>
-      <c r="E549" s="52"/>
+      <c r="B549" s="54"/>
+      <c r="C549" s="54"/>
+      <c r="D549" s="54"/>
+      <c r="E549" s="54"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="53"/>
-      <c r="B550" s="53"/>
-      <c r="C550" s="53"/>
-      <c r="D550" s="53"/>
-      <c r="E550" s="53"/>
+    <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="52"/>
+      <c r="B550" s="52"/>
+      <c r="C550" s="52"/>
+      <c r="D550" s="52"/>
+      <c r="E550" s="52"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="7" t="s">
         <v>0</v>
       </c>
@@ -14062,7 +14067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="9" t="s">
         <v>5</v>
       </c>
@@ -14077,7 +14082,7 @@
       </c>
       <c r="E553" s="25"/>
     </row>
-    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="9" t="s">
         <v>9</v>
       </c>
@@ -14092,7 +14097,7 @@
       </c>
       <c r="E554" s="25"/>
     </row>
-    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="9" t="s">
         <v>13</v>
       </c>
@@ -14107,7 +14112,7 @@
       </c>
       <c r="E555" s="25"/>
     </row>
-    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="9" t="s">
         <v>17</v>
       </c>
@@ -14122,7 +14127,7 @@
       </c>
       <c r="E556" s="25"/>
     </row>
-    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="9" t="s">
         <v>35</v>
       </c>
@@ -14137,7 +14142,7 @@
       </c>
       <c r="E557" s="25"/>
     </row>
-    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="9" t="s">
         <v>39</v>
       </c>
@@ -14152,7 +14157,7 @@
       </c>
       <c r="E558" s="25"/>
     </row>
-    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="9" t="s">
         <v>43</v>
       </c>
@@ -14167,7 +14172,7 @@
       </c>
       <c r="E559" s="25"/>
     </row>
-    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="9" t="s">
         <v>47</v>
       </c>
@@ -14182,7 +14187,7 @@
       </c>
       <c r="E560" s="25"/>
     </row>
-    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="9" t="s">
         <v>51</v>
       </c>
@@ -14197,7 +14202,7 @@
       </c>
       <c r="E561" s="25"/>
     </row>
-    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="9" t="s">
         <v>55</v>
       </c>
@@ -14212,7 +14217,7 @@
       </c>
       <c r="E562" s="25"/>
     </row>
-    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="9" t="s">
         <v>59</v>
       </c>
@@ -14227,7 +14232,7 @@
       </c>
       <c r="E563" s="25"/>
     </row>
-    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="9" t="s">
         <v>63</v>
       </c>
@@ -14242,7 +14247,7 @@
       </c>
       <c r="E564" s="25"/>
     </row>
-    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="9" t="s">
         <v>67</v>
       </c>
@@ -14257,7 +14262,7 @@
       </c>
       <c r="E565" s="25"/>
     </row>
-    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="9" t="s">
         <v>71</v>
       </c>
@@ -14272,7 +14277,7 @@
       </c>
       <c r="E566" s="25"/>
     </row>
-    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="9" t="s">
         <v>75</v>
       </c>
@@ -14287,7 +14292,7 @@
       </c>
       <c r="E567" s="25"/>
     </row>
-    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="9" t="s">
         <v>79</v>
       </c>
@@ -14302,7 +14307,7 @@
       </c>
       <c r="E568" s="25"/>
     </row>
-    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="9" t="s">
         <v>83</v>
       </c>
@@ -14317,7 +14322,7 @@
       </c>
       <c r="E569" s="25"/>
     </row>
-    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="9" t="s">
         <v>87</v>
       </c>
@@ -14332,7 +14337,7 @@
       </c>
       <c r="E570" s="25"/>
     </row>
-    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="9" t="s">
         <v>91</v>
       </c>
@@ -14347,22 +14352,22 @@
       </c>
       <c r="E571" s="25"/>
     </row>
-    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="9" t="s">
+    <row r="572" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="35" t="s">
         <v>1543</v>
       </c>
-      <c r="C572" s="9" t="s">
+      <c r="C572" s="35" t="s">
         <v>1544</v>
       </c>
-      <c r="D572" s="9" t="s">
+      <c r="D572" s="35" t="s">
         <v>1545</v>
       </c>
-      <c r="E572" s="25"/>
-    </row>
-    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E572" s="24"/>
+    </row>
+    <row r="573" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="9" t="s">
         <v>99</v>
       </c>
@@ -14377,7 +14382,7 @@
       </c>
       <c r="E573" s="25"/>
     </row>
-    <row r="574" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A574" s="9" t="s">
         <v>103</v>
       </c>
@@ -14392,7 +14397,7 @@
       </c>
       <c r="E574" s="25"/>
     </row>
-    <row r="575" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A575" s="9" t="s">
         <v>107</v>
       </c>
@@ -14407,7 +14412,7 @@
       </c>
       <c r="E575" s="25"/>
     </row>
-    <row r="576" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A576" s="9" t="s">
         <v>111</v>
       </c>
@@ -14422,7 +14427,7 @@
       </c>
       <c r="E576" s="25"/>
     </row>
-    <row r="577" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A577" s="12" t="s">
         <v>115</v>
       </c>
@@ -14437,22 +14442,22 @@
       </c>
       <c r="E577" s="24"/>
     </row>
-    <row r="578" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A578" s="9" t="s">
+    <row r="578" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+      <c r="A578" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="C578" s="17" t="s">
         <v>1562</v>
       </c>
-      <c r="D578" s="9" t="s">
+      <c r="D578" s="15" t="s">
         <v>1563</v>
       </c>
       <c r="E578" s="25"/>
     </row>
-    <row r="579" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A579" s="9" t="s">
         <v>123</v>
       </c>
@@ -14467,7 +14472,7 @@
       </c>
       <c r="E579" s="25"/>
     </row>
-    <row r="580" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A580" s="9" t="s">
         <v>127</v>
       </c>
@@ -14482,7 +14487,7 @@
       </c>
       <c r="E580" s="25"/>
     </row>
-    <row r="581" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A581" s="9" t="s">
         <v>131</v>
       </c>
@@ -14497,7 +14502,7 @@
       </c>
       <c r="E581" s="25"/>
     </row>
-    <row r="582" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A582" s="9" t="s">
         <v>135</v>
       </c>
@@ -14512,7 +14517,7 @@
       </c>
       <c r="E582" s="25"/>
     </row>
-    <row r="583" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A583" s="9" t="s">
         <v>139</v>
       </c>
@@ -14527,7 +14532,7 @@
       </c>
       <c r="E583" s="25"/>
     </row>
-    <row r="584" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A584" s="9" t="s">
         <v>143</v>
       </c>
@@ -14542,7 +14547,7 @@
       </c>
       <c r="E584" s="25"/>
     </row>
-    <row r="585" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A585" s="12" t="s">
         <v>147</v>
       </c>
@@ -14559,25 +14564,25 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="52" t="s">
+    <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="54" t="s">
         <v>1586</v>
       </c>
-      <c r="B586" s="52"/>
-      <c r="C586" s="52"/>
-      <c r="D586" s="52"/>
-      <c r="E586" s="52"/>
+      <c r="B586" s="54"/>
+      <c r="C586" s="54"/>
+      <c r="D586" s="54"/>
+      <c r="E586" s="54"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="53"/>
-      <c r="B587" s="53"/>
-      <c r="C587" s="53"/>
-      <c r="D587" s="53"/>
-      <c r="E587" s="53"/>
+    <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="52"/>
+      <c r="B587" s="52"/>
+      <c r="C587" s="52"/>
+      <c r="D587" s="52"/>
+      <c r="E587" s="52"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="7" t="s">
         <v>0</v>
       </c>
@@ -14594,7 +14599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A590" s="9" t="s">
         <v>5</v>
       </c>
@@ -14609,7 +14614,7 @@
       </c>
       <c r="E590" s="25"/>
     </row>
-    <row r="591" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A591" s="9" t="s">
         <v>9</v>
       </c>
@@ -14624,7 +14629,7 @@
       </c>
       <c r="E591" s="25"/>
     </row>
-    <row r="592" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A592" s="9" t="s">
         <v>13</v>
       </c>
@@ -14639,7 +14644,7 @@
       </c>
       <c r="E592" s="25"/>
     </row>
-    <row r="593" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A593" s="9" t="s">
         <v>17</v>
       </c>
@@ -14654,7 +14659,7 @@
       </c>
       <c r="E593" s="25"/>
     </row>
-    <row r="594" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A594" s="9" t="s">
         <v>35</v>
       </c>
@@ -14669,7 +14674,7 @@
       </c>
       <c r="E594" s="25"/>
     </row>
-    <row r="595" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A595" s="9" t="s">
         <v>39</v>
       </c>
@@ -14684,7 +14689,7 @@
       </c>
       <c r="E595" s="25"/>
     </row>
-    <row r="596" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A596" s="9" t="s">
         <v>43</v>
       </c>
@@ -14699,7 +14704,7 @@
       </c>
       <c r="E596" s="25"/>
     </row>
-    <row r="597" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A597" s="9" t="s">
         <v>47</v>
       </c>
@@ -14714,7 +14719,7 @@
       </c>
       <c r="E597" s="25"/>
     </row>
-    <row r="598" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A598" s="9" t="s">
         <v>51</v>
       </c>
@@ -14729,7 +14734,7 @@
       </c>
       <c r="E598" s="25"/>
     </row>
-    <row r="599" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A599" s="9" t="s">
         <v>55</v>
       </c>
@@ -14744,7 +14749,7 @@
       </c>
       <c r="E599" s="25"/>
     </row>
-    <row r="600" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A600" s="9" t="s">
         <v>59</v>
       </c>
@@ -14759,7 +14764,7 @@
       </c>
       <c r="E600" s="25"/>
     </row>
-    <row r="601" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A601" s="9" t="s">
         <v>63</v>
       </c>
@@ -14774,7 +14779,7 @@
       </c>
       <c r="E601" s="25"/>
     </row>
-    <row r="602" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A602" s="9" t="s">
         <v>67</v>
       </c>
@@ -14789,7 +14794,7 @@
       </c>
       <c r="E602" s="25"/>
     </row>
-    <row r="603" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A603" s="9" t="s">
         <v>71</v>
       </c>
@@ -14804,7 +14809,7 @@
       </c>
       <c r="E603" s="25"/>
     </row>
-    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="9" t="s">
         <v>75</v>
       </c>
@@ -14819,7 +14824,7 @@
       </c>
       <c r="E604" s="25"/>
     </row>
-    <row r="605" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A605" s="9" t="s">
         <v>79</v>
       </c>
@@ -14834,7 +14839,7 @@
       </c>
       <c r="E605" s="25"/>
     </row>
-    <row r="606" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A606" s="9" t="s">
         <v>83</v>
       </c>
@@ -14849,7 +14854,7 @@
       </c>
       <c r="E606" s="25"/>
     </row>
-    <row r="607" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A607" s="9" t="s">
         <v>87</v>
       </c>
@@ -14864,7 +14869,7 @@
       </c>
       <c r="E607" s="25"/>
     </row>
-    <row r="608" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A608" s="9" t="s">
         <v>91</v>
       </c>
@@ -14879,7 +14884,7 @@
       </c>
       <c r="E608" s="25"/>
     </row>
-    <row r="609" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A609" s="9" t="s">
         <v>95</v>
       </c>
@@ -14894,7 +14899,7 @@
       </c>
       <c r="E609" s="25"/>
     </row>
-    <row r="610" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A610" s="9" t="s">
         <v>99</v>
       </c>
@@ -14909,7 +14914,7 @@
       </c>
       <c r="E610" s="25"/>
     </row>
-    <row r="611" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A611" s="9" t="s">
         <v>103</v>
       </c>
@@ -14924,7 +14929,7 @@
       </c>
       <c r="E611" s="25"/>
     </row>
-    <row r="612" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A612" s="9" t="s">
         <v>107</v>
       </c>
@@ -14939,7 +14944,7 @@
       </c>
       <c r="E612" s="25"/>
     </row>
-    <row r="613" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A613" s="9" t="s">
         <v>111</v>
       </c>
@@ -14954,7 +14959,7 @@
       </c>
       <c r="E613" s="25"/>
     </row>
-    <row r="614" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A614" s="9" t="s">
         <v>115</v>
       </c>
@@ -14969,7 +14974,7 @@
       </c>
       <c r="E614" s="25"/>
     </row>
-    <row r="615" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -14987,7 +14992,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A616" s="9" t="s">
         <v>123</v>
       </c>
@@ -15002,7 +15007,7 @@
       </c>
       <c r="E616" s="25"/>
     </row>
-    <row r="617" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A617" s="9" t="s">
         <v>127</v>
       </c>
@@ -15017,7 +15022,7 @@
       </c>
       <c r="E617" s="25"/>
     </row>
-    <row r="618" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A618" s="9" t="s">
         <v>131</v>
       </c>
@@ -15032,7 +15037,7 @@
       </c>
       <c r="E618" s="25"/>
     </row>
-    <row r="619" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A619" s="9" t="s">
         <v>135</v>
       </c>
@@ -15047,7 +15052,7 @@
       </c>
       <c r="E619" s="25"/>
     </row>
-    <row r="620" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A620" s="9" t="s">
         <v>139</v>
       </c>
@@ -15062,7 +15067,7 @@
       </c>
       <c r="E620" s="25"/>
     </row>
-    <row r="621" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A621" s="9" t="s">
         <v>143</v>
       </c>
@@ -15077,7 +15082,7 @@
       </c>
       <c r="E621" s="25"/>
     </row>
-    <row r="622" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A622" s="9" t="s">
         <v>147</v>
       </c>
@@ -15092,7 +15097,7 @@
       </c>
       <c r="E622" s="25"/>
     </row>
-    <row r="623" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A623" s="9" t="s">
         <v>151</v>
       </c>
@@ -15107,7 +15112,7 @@
       </c>
       <c r="E623" s="25"/>
     </row>
-    <row r="624" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="12" x14ac:dyDescent="0.15">
       <c r="A624" s="9" t="s">
         <v>155</v>
       </c>
@@ -15122,7 +15127,7 @@
       </c>
       <c r="E624" s="25"/>
     </row>
-    <row r="625" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A625" s="9" t="s">
         <v>159</v>
       </c>
@@ -15137,7 +15142,7 @@
       </c>
       <c r="E625" s="25"/>
     </row>
-    <row r="626" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A626" s="9" t="s">
         <v>163</v>
       </c>
@@ -15152,7 +15157,7 @@
       </c>
       <c r="E626" s="25"/>
     </row>
-    <row r="627" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A627" s="9" t="s">
         <v>167</v>
       </c>
@@ -15167,7 +15172,7 @@
       </c>
       <c r="E627" s="25"/>
     </row>
-    <row r="628" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A628" s="9" t="s">
         <v>171</v>
       </c>
@@ -15182,7 +15187,7 @@
       </c>
       <c r="E628" s="25"/>
     </row>
-    <row r="629" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A629" s="9" t="s">
         <v>175</v>
       </c>
@@ -15197,7 +15202,7 @@
       </c>
       <c r="E629" s="25"/>
     </row>
-    <row r="630" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A630" s="9" t="s">
         <v>179</v>
       </c>
@@ -15212,7 +15217,7 @@
       </c>
       <c r="E630" s="25"/>
     </row>
-    <row r="631" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A631" s="9" t="s">
         <v>183</v>
       </c>
@@ -15227,7 +15232,7 @@
       </c>
       <c r="E631" s="25"/>
     </row>
-    <row r="632" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A632" s="9" t="s">
         <v>187</v>
       </c>
@@ -15242,17 +15247,17 @@
       </c>
       <c r="E632" s="25"/>
     </row>
-    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="52" t="s">
+    <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="54" t="s">
         <v>1719</v>
       </c>
-      <c r="B633" s="52"/>
-      <c r="C633" s="52"/>
-      <c r="D633" s="52"/>
-      <c r="E633" s="52"/>
+      <c r="B633" s="54"/>
+      <c r="C633" s="54"/>
+      <c r="D633" s="54"/>
+      <c r="E633" s="54"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="55"/>
       <c r="B634" s="55"/>
       <c r="C634" s="55"/>
@@ -15260,7 +15265,7 @@
       <c r="E634" s="55"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A635" s="12" t="s">
         <v>5</v>
       </c>
@@ -15277,7 +15282,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A636" s="9" t="s">
         <v>9</v>
       </c>
@@ -15292,7 +15297,7 @@
       </c>
       <c r="E636" s="25"/>
     </row>
-    <row r="637" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="12" x14ac:dyDescent="0.15">
       <c r="A637" s="9" t="s">
         <v>13</v>
       </c>
@@ -15307,25 +15312,25 @@
       </c>
       <c r="E637" s="25"/>
     </row>
-    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="53" t="s">
+    <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="52" t="s">
         <v>1725</v>
       </c>
-      <c r="B639" s="53"/>
-      <c r="C639" s="53"/>
-      <c r="D639" s="53"/>
-      <c r="E639" s="53"/>
+      <c r="B639" s="52"/>
+      <c r="C639" s="52"/>
+      <c r="D639" s="52"/>
+      <c r="E639" s="52"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="54"/>
-      <c r="B640" s="54"/>
-      <c r="C640" s="54"/>
-      <c r="D640" s="54"/>
-      <c r="E640" s="54"/>
+    <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A640" s="53"/>
+      <c r="B640" s="53"/>
+      <c r="C640" s="53"/>
+      <c r="D640" s="53"/>
+      <c r="E640" s="53"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="7" t="s">
         <v>0</v>
       </c>
@@ -15342,7 +15347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A642" s="9" t="s">
         <v>5</v>
       </c>
@@ -15357,7 +15362,7 @@
       </c>
       <c r="E642" s="25"/>
     </row>
-    <row r="643" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A643" s="9" t="s">
         <v>9</v>
       </c>
@@ -15372,7 +15377,7 @@
       </c>
       <c r="E643" s="25"/>
     </row>
-    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="9" t="s">
         <v>13</v>
       </c>
@@ -15387,7 +15392,7 @@
       </c>
       <c r="E644" s="25"/>
     </row>
-    <row r="645" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A645" s="9" t="s">
         <v>17</v>
       </c>
@@ -15402,7 +15407,7 @@
       </c>
       <c r="E645" s="25"/>
     </row>
-    <row r="646" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A646" s="9" t="s">
         <v>35</v>
       </c>
@@ -15417,7 +15422,7 @@
       </c>
       <c r="E646" s="25"/>
     </row>
-    <row r="647" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A647" s="9" t="s">
         <v>39</v>
       </c>
@@ -15432,7 +15437,7 @@
       </c>
       <c r="E647" s="25"/>
     </row>
-    <row r="648" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A648" s="12">
         <v>7</v>
       </c>
@@ -15449,7 +15454,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A649" s="12">
         <v>8</v>
       </c>
@@ -15466,7 +15471,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A650" s="9">
         <v>9</v>
       </c>
@@ -15481,7 +15486,7 @@
       </c>
       <c r="E650" s="25"/>
     </row>
-    <row r="651" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A651" s="9">
         <v>10</v>
       </c>
@@ -15496,7 +15501,7 @@
       </c>
       <c r="E651" s="25"/>
     </row>
-    <row r="652" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A652" s="9">
         <v>11</v>
       </c>
@@ -15511,7 +15516,7 @@
       </c>
       <c r="E652" s="25"/>
     </row>
-    <row r="653" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A653" s="12">
         <v>12</v>
       </c>
@@ -15526,7 +15531,7 @@
       </c>
       <c r="E653" s="25"/>
     </row>
-    <row r="654" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A654" s="9">
         <v>13</v>
       </c>
@@ -15541,7 +15546,7 @@
       </c>
       <c r="E654" s="25"/>
     </row>
-    <row r="655" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A655" s="12">
         <v>14</v>
       </c>
@@ -15556,7 +15561,7 @@
       </c>
       <c r="E655" s="25"/>
     </row>
-    <row r="656" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A656" s="21">
         <v>15</v>
       </c>
@@ -15571,7 +15576,7 @@
       </c>
       <c r="E656" s="25"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A662" s="36">
         <v>1</v>
       </c>
@@ -15588,7 +15593,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A663" s="40">
         <v>2</v>
       </c>
@@ -15605,7 +15610,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A664" s="36">
         <v>3</v>
       </c>
@@ -15622,7 +15627,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A665" s="42">
         <v>4</v>
       </c>
@@ -15637,7 +15642,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A666" s="42">
         <v>5</v>
       </c>
@@ -15652,7 +15657,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A667" s="42">
         <v>6</v>
       </c>
@@ -15667,7 +15672,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A668" s="42">
         <v>7</v>
       </c>
@@ -15682,7 +15687,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A669" s="42">
         <v>8</v>
       </c>
@@ -15697,7 +15702,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A670" s="42">
         <v>9</v>
       </c>
@@ -15712,7 +15717,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A671" s="42">
         <v>10</v>
       </c>
@@ -15727,14 +15732,14 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A672" s="42"/>
       <c r="B672" s="45"/>
       <c r="C672" s="45"/>
       <c r="D672" s="47"/>
       <c r="E672" s="48"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A673" s="42">
         <v>12</v>
       </c>
@@ -15749,7 +15754,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A674" s="42">
         <v>13</v>
       </c>
@@ -15764,7 +15769,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A675" s="42">
         <v>14</v>
       </c>
@@ -15779,7 +15784,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A676" s="42">
         <v>15</v>
       </c>
@@ -15794,7 +15799,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A677" s="42">
         <v>16</v>
       </c>
@@ -15809,7 +15814,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A678" s="42">
         <v>17</v>
       </c>
@@ -15824,7 +15829,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A679" s="42">
         <v>18</v>
       </c>
@@ -15839,7 +15844,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A680" s="42">
         <v>19</v>
       </c>
@@ -15854,7 +15859,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A681" s="42">
         <v>20</v>
       </c>
@@ -15869,7 +15874,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A682" s="42">
         <v>21</v>
       </c>
@@ -15884,7 +15889,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A683" s="42">
         <v>22</v>
       </c>
@@ -15899,7 +15904,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A684" s="42">
         <v>23</v>
       </c>
@@ -15910,7 +15915,7 @@
       <c r="D684" s="42"/>
       <c r="E684" s="44"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A685" s="42"/>
       <c r="B685" s="42"/>
       <c r="C685" s="43" t="s">
@@ -15919,7 +15924,7 @@
       <c r="D685" s="42"/>
       <c r="E685" s="44"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A686" s="42"/>
       <c r="B686" s="42"/>
       <c r="C686" s="43" t="s">
@@ -15928,7 +15933,7 @@
       <c r="D686" s="42"/>
       <c r="E686" s="44"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A687" s="42"/>
       <c r="B687" s="42"/>
       <c r="C687" s="43" t="s">
@@ -15937,7 +15942,7 @@
       <c r="D687" s="42"/>
       <c r="E687" s="44"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A688" s="42"/>
       <c r="B688" s="42"/>
       <c r="C688" s="43" t="s">
@@ -15946,7 +15951,7 @@
       <c r="D688" s="42"/>
       <c r="E688" s="44"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A689" s="42"/>
       <c r="B689" s="42"/>
       <c r="C689" s="43" t="s">
@@ -15955,7 +15960,7 @@
       <c r="D689" s="42"/>
       <c r="E689" s="44"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A690" s="42"/>
       <c r="B690" s="42"/>
       <c r="C690" s="43" t="s">
@@ -15964,14 +15969,14 @@
       <c r="D690" s="42"/>
       <c r="E690" s="44"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A691" s="42"/>
       <c r="B691" s="42"/>
       <c r="C691" s="43"/>
       <c r="D691" s="42"/>
       <c r="E691" s="44"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B694">
         <v>461905</v>
       </c>
@@ -15984,17 +15989,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -16003,6 +15997,17 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>
@@ -16028,15 +16033,18 @@
     <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)"/>
     <hyperlink ref="C242" r:id="rId20"/>
     <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)"/>
-    <hyperlink ref="C169" r:id="rId21"/>
-    <hyperlink ref="C545" r:id="rId22"/>
-    <hyperlink ref="C381" r:id="rId23"/>
-    <hyperlink ref="C321" r:id="rId24"/>
-    <hyperlink ref="C297" r:id="rId25"/>
-    <hyperlink ref="C496" r:id="rId26"/>
+    <hyperlink ref="C169" location="Демонтаж!B6" display="Б10-МБ (бульдозер) (70419)"/>
+    <hyperlink ref="C545" r:id="rId21"/>
+    <hyperlink ref="C381" r:id="rId22"/>
+    <hyperlink ref="C321" r:id="rId23"/>
+    <hyperlink ref="C297" r:id="rId24"/>
+    <hyperlink ref="C496" r:id="rId25"/>
+    <hyperlink ref="B572:D572" location="Демонтаж!A1" display="342075"/>
+    <hyperlink ref="C572" location="Демонтаж!B10" display="Komatsu PC-220-7 (экскаватор) (70436)"/>
+    <hyperlink ref="C578" location="Демонтаж!B11" display="Komatsu PC400-7 (экскаватор) (70432)"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -16045,20 +16053,20 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>1334</v>
       </c>
@@ -16070,7 +16078,7 @@
       </c>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1558</v>
       </c>
@@ -16082,7 +16090,7 @@
       </c>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1337</v>
       </c>
@@ -16094,7 +16102,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>361556</v>
       </c>
@@ -16106,11 +16114,11 @@
       </c>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>1324752</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="13" t="s">
         <v>1759</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -16118,48 +16126,70 @@
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>477</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>483</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>486</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
@@ -16167,6 +16197,13 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16183,7 +16220,7 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16197,9 +16234,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1766</v>
       </c>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1801">
   <si>
     <t>П/П</t>
   </si>
@@ -5422,6 +5422,9 @@
   </si>
   <si>
     <t>DENYO-480ESW (80817)</t>
+  </si>
+  <si>
+    <t>89701018624315085534</t>
   </si>
 </sst>
 </file>
@@ -5801,13 +5804,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6123,8 +6126,8 @@
   </sheetPr>
   <dimension ref="A1:G694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="L573" sqref="L573"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="G470" sqref="G470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6135,25 +6138,25 @@
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6241,21 +6244,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6995,21 +6998,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7135,21 +7138,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7787,21 +7790,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8062,21 +8065,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="52"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="52"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8202,21 +8205,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="52"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8630,21 +8633,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="52"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="52"/>
-      <c r="E177" s="52"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="52"/>
-      <c r="E178" s="52"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8787,21 +8790,21 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="52"/>
-      <c r="C189" s="52"/>
-      <c r="D189" s="52"/>
-      <c r="E189" s="52"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="52"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="52"/>
-      <c r="E190" s="52"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9230,21 +9233,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="52" t="s">
+      <c r="A220" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="52"/>
-      <c r="C220" s="52"/>
-      <c r="D220" s="52"/>
-      <c r="E220" s="52"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="53"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="52"/>
-      <c r="B221" s="52"/>
-      <c r="C221" s="52"/>
-      <c r="D221" s="52"/>
-      <c r="E221" s="52"/>
+      <c r="A221" s="53"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
+      <c r="E221" s="53"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10105,21 +10108,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="52" t="s">
+      <c r="A280" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="52"/>
-      <c r="C280" s="52"/>
-      <c r="D280" s="52"/>
-      <c r="E280" s="52"/>
+      <c r="B280" s="53"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="53"/>
-      <c r="B281" s="53"/>
-      <c r="C281" s="53"/>
-      <c r="D281" s="53"/>
-      <c r="E281" s="53"/>
+      <c r="A281" s="54"/>
+      <c r="B281" s="54"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="54"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
@@ -12339,21 +12342,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="54" t="s">
+      <c r="A429" s="52" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="54"/>
-      <c r="C429" s="54"/>
-      <c r="D429" s="54"/>
-      <c r="E429" s="54"/>
+      <c r="B429" s="52"/>
+      <c r="C429" s="52"/>
+      <c r="D429" s="52"/>
+      <c r="E429" s="52"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="52"/>
-      <c r="B430" s="52"/>
-      <c r="C430" s="52"/>
-      <c r="D430" s="52"/>
-      <c r="E430" s="52"/>
+      <c r="A430" s="53"/>
+      <c r="B430" s="53"/>
+      <c r="C430" s="53"/>
+      <c r="D430" s="53"/>
+      <c r="E430" s="53"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12434,21 +12437,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="54" t="s">
+      <c r="A437" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="54"/>
-      <c r="C437" s="54"/>
-      <c r="D437" s="54"/>
-      <c r="E437" s="54"/>
+      <c r="B437" s="52"/>
+      <c r="C437" s="52"/>
+      <c r="D437" s="52"/>
+      <c r="E437" s="52"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="52"/>
-      <c r="B438" s="52"/>
-      <c r="C438" s="52"/>
-      <c r="D438" s="52"/>
-      <c r="E438" s="52"/>
+      <c r="A438" s="53"/>
+      <c r="B438" s="53"/>
+      <c r="C438" s="53"/>
+      <c r="D438" s="53"/>
+      <c r="E438" s="53"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12828,7 +12831,7 @@
       </c>
       <c r="E464" s="25"/>
     </row>
-    <row r="465" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="9" t="s">
         <v>115</v>
       </c>
@@ -12843,7 +12846,7 @@
       </c>
       <c r="E465" s="25"/>
     </row>
-    <row r="466" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="9" t="s">
         <v>119</v>
       </c>
@@ -12858,7 +12861,7 @@
       </c>
       <c r="E466" s="25"/>
     </row>
-    <row r="467" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="9" t="s">
         <v>123</v>
       </c>
@@ -12873,7 +12876,7 @@
       </c>
       <c r="E467" s="25"/>
     </row>
-    <row r="468" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>127</v>
       </c>
@@ -12888,7 +12891,7 @@
       </c>
       <c r="E468" s="25"/>
     </row>
-    <row r="469" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
         <v>131</v>
       </c>
@@ -12903,7 +12906,7 @@
       </c>
       <c r="E469" s="25"/>
     </row>
-    <row r="470" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>135</v>
       </c>
@@ -12916,9 +12919,14 @@
       <c r="D470" s="9" t="s">
         <v>1275</v>
       </c>
-      <c r="E470" s="25"/>
-    </row>
-    <row r="471" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E470" s="25" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G470">
+        <v>89124302579</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>139</v>
       </c>
@@ -12933,7 +12941,7 @@
       </c>
       <c r="E471" s="25"/>
     </row>
-    <row r="472" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>143</v>
       </c>
@@ -12948,7 +12956,7 @@
       </c>
       <c r="E472" s="25"/>
     </row>
-    <row r="473" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="9" t="s">
         <v>147</v>
       </c>
@@ -12963,7 +12971,7 @@
       </c>
       <c r="E473" s="25"/>
     </row>
-    <row r="474" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>151</v>
       </c>
@@ -12978,7 +12986,7 @@
       </c>
       <c r="E474" s="25"/>
     </row>
-    <row r="475" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="9" t="s">
         <v>155</v>
       </c>
@@ -12993,7 +13001,7 @@
       </c>
       <c r="E475" s="25"/>
     </row>
-    <row r="476" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="9" t="s">
         <v>159</v>
       </c>
@@ -13008,7 +13016,7 @@
       </c>
       <c r="E476" s="25"/>
     </row>
-    <row r="477" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>163</v>
       </c>
@@ -13023,7 +13031,7 @@
       </c>
       <c r="E477" s="25"/>
     </row>
-    <row r="478" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="9" t="s">
         <v>167</v>
       </c>
@@ -13038,7 +13046,7 @@
       </c>
       <c r="E478" s="25"/>
     </row>
-    <row r="479" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>171</v>
       </c>
@@ -13053,7 +13061,7 @@
       </c>
       <c r="E479" s="25"/>
     </row>
-    <row r="480" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>175</v>
       </c>
@@ -13204,21 +13212,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="54" t="s">
+      <c r="A490" s="52" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="54"/>
-      <c r="C490" s="54"/>
-      <c r="D490" s="54"/>
-      <c r="E490" s="54"/>
+      <c r="B490" s="52"/>
+      <c r="C490" s="52"/>
+      <c r="D490" s="52"/>
+      <c r="E490" s="52"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="52"/>
-      <c r="B491" s="52"/>
-      <c r="C491" s="52"/>
-      <c r="D491" s="52"/>
-      <c r="E491" s="52"/>
+      <c r="A491" s="53"/>
+      <c r="B491" s="53"/>
+      <c r="C491" s="53"/>
+      <c r="D491" s="53"/>
+      <c r="E491" s="53"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13755,21 +13763,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="54" t="s">
+      <c r="A528" s="52" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="54"/>
-      <c r="C528" s="54"/>
-      <c r="D528" s="54"/>
-      <c r="E528" s="54"/>
+      <c r="B528" s="52"/>
+      <c r="C528" s="52"/>
+      <c r="D528" s="52"/>
+      <c r="E528" s="52"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="52"/>
-      <c r="B529" s="52"/>
-      <c r="C529" s="52"/>
-      <c r="D529" s="52"/>
-      <c r="E529" s="52"/>
+      <c r="A529" s="53"/>
+      <c r="B529" s="53"/>
+      <c r="C529" s="53"/>
+      <c r="D529" s="53"/>
+      <c r="E529" s="53"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14033,21 +14041,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="54" t="s">
+      <c r="A549" s="52" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" s="54"/>
-      <c r="C549" s="54"/>
-      <c r="D549" s="54"/>
-      <c r="E549" s="54"/>
+      <c r="B549" s="52"/>
+      <c r="C549" s="52"/>
+      <c r="D549" s="52"/>
+      <c r="E549" s="52"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="52"/>
-      <c r="B550" s="52"/>
-      <c r="C550" s="52"/>
-      <c r="D550" s="52"/>
-      <c r="E550" s="52"/>
+      <c r="A550" s="53"/>
+      <c r="B550" s="53"/>
+      <c r="C550" s="53"/>
+      <c r="D550" s="53"/>
+      <c r="E550" s="53"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14565,21 +14573,21 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="54" t="s">
+      <c r="A586" s="52" t="s">
         <v>1586</v>
       </c>
-      <c r="B586" s="54"/>
-      <c r="C586" s="54"/>
-      <c r="D586" s="54"/>
-      <c r="E586" s="54"/>
+      <c r="B586" s="52"/>
+      <c r="C586" s="52"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="52"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="52"/>
-      <c r="B587" s="52"/>
-      <c r="C587" s="52"/>
-      <c r="D587" s="52"/>
-      <c r="E587" s="52"/>
+      <c r="A587" s="53"/>
+      <c r="B587" s="53"/>
+      <c r="C587" s="53"/>
+      <c r="D587" s="53"/>
+      <c r="E587" s="53"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15248,13 +15256,13 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="54" t="s">
+      <c r="A633" s="52" t="s">
         <v>1719</v>
       </c>
-      <c r="B633" s="54"/>
-      <c r="C633" s="54"/>
-      <c r="D633" s="54"/>
-      <c r="E633" s="54"/>
+      <c r="B633" s="52"/>
+      <c r="C633" s="52"/>
+      <c r="D633" s="52"/>
+      <c r="E633" s="52"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15313,21 +15321,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="52" t="s">
+      <c r="A639" s="53" t="s">
         <v>1725</v>
       </c>
-      <c r="B639" s="52"/>
-      <c r="C639" s="52"/>
-      <c r="D639" s="52"/>
-      <c r="E639" s="52"/>
+      <c r="B639" s="53"/>
+      <c r="C639" s="53"/>
+      <c r="D639" s="53"/>
+      <c r="E639" s="53"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="53"/>
-      <c r="B640" s="53"/>
-      <c r="C640" s="53"/>
-      <c r="D640" s="53"/>
-      <c r="E640" s="53"/>
+      <c r="A640" s="54"/>
+      <c r="B640" s="54"/>
+      <c r="C640" s="54"/>
+      <c r="D640" s="54"/>
+      <c r="E640" s="54"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15989,6 +15997,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -15997,17 +16016,6 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C389" r:id="rId1"/>

--- a/Список техники ГЭС.xlsx
+++ b/Список техники ГЭС.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mukatanov.sn\Documents\GitHub\Technica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Voronin.de\Documents\GitHub\Technica\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E1435-4BEF-4A5C-88B6-D1066D8A8127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Актуальная" sheetId="1" r:id="rId1"/>
@@ -5430,7 +5431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -5804,13 +5805,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5910,6 +5911,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5945,6 +5963,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6120,13 +6155,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
       <selection activeCell="G470" sqref="G470"/>
     </sheetView>
   </sheetViews>
@@ -6142,21 +6177,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6244,21 +6279,21 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6998,21 +7033,21 @@
       <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7138,21 +7173,21 @@
       <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7790,21 +7825,21 @@
       <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
       <c r="F116" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8065,21 +8100,21 @@
       <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
       <c r="F136" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8205,21 +8240,21 @@
       <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="53" t="s">
+      <c r="A146" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="53"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="53"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
       <c r="F147" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8633,21 +8668,21 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="53" t="s">
+      <c r="A177" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="52"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="53"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="52"/>
       <c r="F178" s="4"/>
     </row>
     <row r="180" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8790,21 +8825,21 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="53" t="s">
+      <c r="A189" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52"/>
+      <c r="D189" s="52"/>
+      <c r="E189" s="52"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="53"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="52"/>
+      <c r="E190" s="52"/>
       <c r="F190" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8974,7 +9009,7 @@
       </c>
       <c r="E202" s="25"/>
     </row>
-    <row r="203" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>59</v>
       </c>
@@ -9233,21 +9268,21 @@
       <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="53" t="s">
+      <c r="A220" s="52" t="s">
         <v>601</v>
       </c>
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="53"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="52"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="53"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="53"/>
-      <c r="D221" s="53"/>
-      <c r="E221" s="53"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="52"/>
       <c r="F221" s="4"/>
     </row>
     <row r="223" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10108,21 +10143,21 @@
       <c r="E279" s="25"/>
     </row>
     <row r="280" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="53" t="s">
+      <c r="A280" s="52" t="s">
         <v>780</v>
       </c>
-      <c r="B280" s="53"/>
-      <c r="C280" s="53"/>
-      <c r="D280" s="53"/>
-      <c r="E280" s="53"/>
+      <c r="B280" s="52"/>
+      <c r="C280" s="52"/>
+      <c r="D280" s="52"/>
+      <c r="E280" s="52"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="54"/>
-      <c r="B281" s="54"/>
-      <c r="C281" s="54"/>
-      <c r="D281" s="54"/>
-      <c r="E281" s="54"/>
+      <c r="A281" s="53"/>
+      <c r="B281" s="53"/>
+      <c r="C281" s="53"/>
+      <c r="D281" s="53"/>
+      <c r="E281" s="53"/>
       <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
@@ -11618,7 +11653,7 @@
       </c>
       <c r="E380" s="25"/>
     </row>
-    <row r="381" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>1023</v>
       </c>
@@ -12342,21 +12377,21 @@
       <c r="E428" s="25"/>
     </row>
     <row r="429" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="52" t="s">
+      <c r="A429" s="54" t="s">
         <v>1185</v>
       </c>
-      <c r="B429" s="52"/>
-      <c r="C429" s="52"/>
-      <c r="D429" s="52"/>
-      <c r="E429" s="52"/>
+      <c r="B429" s="54"/>
+      <c r="C429" s="54"/>
+      <c r="D429" s="54"/>
+      <c r="E429" s="54"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="53"/>
-      <c r="B430" s="53"/>
-      <c r="C430" s="53"/>
-      <c r="D430" s="53"/>
-      <c r="E430" s="53"/>
+      <c r="A430" s="52"/>
+      <c r="B430" s="52"/>
+      <c r="C430" s="52"/>
+      <c r="D430" s="52"/>
+      <c r="E430" s="52"/>
       <c r="F430" s="4"/>
     </row>
     <row r="432" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -12437,21 +12472,21 @@
       <c r="E436" s="25"/>
     </row>
     <row r="437" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="52" t="s">
+      <c r="A437" s="54" t="s">
         <v>1184</v>
       </c>
-      <c r="B437" s="52"/>
-      <c r="C437" s="52"/>
-      <c r="D437" s="52"/>
-      <c r="E437" s="52"/>
+      <c r="B437" s="54"/>
+      <c r="C437" s="54"/>
+      <c r="D437" s="54"/>
+      <c r="E437" s="54"/>
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="53"/>
-      <c r="B438" s="53"/>
-      <c r="C438" s="53"/>
-      <c r="D438" s="53"/>
-      <c r="E438" s="53"/>
+      <c r="A438" s="52"/>
+      <c r="B438" s="52"/>
+      <c r="C438" s="52"/>
+      <c r="D438" s="52"/>
+      <c r="E438" s="52"/>
       <c r="F438" s="4"/>
     </row>
     <row r="440" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13212,21 +13247,21 @@
       <c r="E489" s="25"/>
     </row>
     <row r="490" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="52" t="s">
+      <c r="A490" s="54" t="s">
         <v>1333</v>
       </c>
-      <c r="B490" s="52"/>
-      <c r="C490" s="52"/>
-      <c r="D490" s="52"/>
-      <c r="E490" s="52"/>
+      <c r="B490" s="54"/>
+      <c r="C490" s="54"/>
+      <c r="D490" s="54"/>
+      <c r="E490" s="54"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="53"/>
-      <c r="B491" s="53"/>
-      <c r="C491" s="53"/>
-      <c r="D491" s="53"/>
-      <c r="E491" s="53"/>
+      <c r="A491" s="52"/>
+      <c r="B491" s="52"/>
+      <c r="C491" s="52"/>
+      <c r="D491" s="52"/>
+      <c r="E491" s="52"/>
       <c r="F491" s="4"/>
     </row>
     <row r="493" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -13763,21 +13798,21 @@
       <c r="E527" s="25"/>
     </row>
     <row r="528" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="52" t="s">
+      <c r="A528" s="54" t="s">
         <v>1435</v>
       </c>
-      <c r="B528" s="52"/>
-      <c r="C528" s="52"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="52"/>
+      <c r="B528" s="54"/>
+      <c r="C528" s="54"/>
+      <c r="D528" s="54"/>
+      <c r="E528" s="54"/>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="53"/>
-      <c r="B529" s="53"/>
-      <c r="C529" s="53"/>
-      <c r="D529" s="53"/>
-      <c r="E529" s="53"/>
+      <c r="A529" s="52"/>
+      <c r="B529" s="52"/>
+      <c r="C529" s="52"/>
+      <c r="D529" s="52"/>
+      <c r="E529" s="52"/>
       <c r="F529" s="4"/>
     </row>
     <row r="531" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14041,21 +14076,21 @@
       <c r="E548" s="25"/>
     </row>
     <row r="549" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="52" t="s">
+      <c r="A549" s="54" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" s="52"/>
-      <c r="C549" s="52"/>
-      <c r="D549" s="52"/>
-      <c r="E549" s="52"/>
+      <c r="B549" s="54"/>
+      <c r="C549" s="54"/>
+      <c r="D549" s="54"/>
+      <c r="E549" s="54"/>
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="53"/>
-      <c r="B550" s="53"/>
-      <c r="C550" s="53"/>
-      <c r="D550" s="53"/>
-      <c r="E550" s="53"/>
+      <c r="A550" s="52"/>
+      <c r="B550" s="52"/>
+      <c r="C550" s="52"/>
+      <c r="D550" s="52"/>
+      <c r="E550" s="52"/>
       <c r="F550" s="4"/>
     </row>
     <row r="552" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -14573,21 +14608,21 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="52" t="s">
+      <c r="A586" s="54" t="s">
         <v>1586</v>
       </c>
-      <c r="B586" s="52"/>
-      <c r="C586" s="52"/>
-      <c r="D586" s="52"/>
-      <c r="E586" s="52"/>
+      <c r="B586" s="54"/>
+      <c r="C586" s="54"/>
+      <c r="D586" s="54"/>
+      <c r="E586" s="54"/>
       <c r="F586" s="4"/>
     </row>
     <row r="587" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="53"/>
-      <c r="B587" s="53"/>
-      <c r="C587" s="53"/>
-      <c r="D587" s="53"/>
-      <c r="E587" s="53"/>
+      <c r="A587" s="52"/>
+      <c r="B587" s="52"/>
+      <c r="C587" s="52"/>
+      <c r="D587" s="52"/>
+      <c r="E587" s="52"/>
       <c r="F587" s="4"/>
     </row>
     <row r="589" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14982,7 +15017,7 @@
       </c>
       <c r="E614" s="25"/>
     </row>
-    <row r="615" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A615" s="9" t="s">
         <v>119</v>
       </c>
@@ -15256,13 +15291,13 @@
       <c r="E632" s="25"/>
     </row>
     <row r="633" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="52" t="s">
+      <c r="A633" s="54" t="s">
         <v>1719</v>
       </c>
-      <c r="B633" s="52"/>
-      <c r="C633" s="52"/>
-      <c r="D633" s="52"/>
-      <c r="E633" s="52"/>
+      <c r="B633" s="54"/>
+      <c r="C633" s="54"/>
+      <c r="D633" s="54"/>
+      <c r="E633" s="54"/>
       <c r="F633" s="4"/>
     </row>
     <row r="634" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15321,21 +15356,21 @@
       <c r="E637" s="25"/>
     </row>
     <row r="639" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="53" t="s">
+      <c r="A639" s="52" t="s">
         <v>1725</v>
       </c>
-      <c r="B639" s="53"/>
-      <c r="C639" s="53"/>
-      <c r="D639" s="53"/>
-      <c r="E639" s="53"/>
+      <c r="B639" s="52"/>
+      <c r="C639" s="52"/>
+      <c r="D639" s="52"/>
+      <c r="E639" s="52"/>
       <c r="F639" s="4"/>
     </row>
     <row r="640" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="54"/>
-      <c r="B640" s="54"/>
-      <c r="C640" s="54"/>
-      <c r="D640" s="54"/>
-      <c r="E640" s="54"/>
+      <c r="A640" s="53"/>
+      <c r="B640" s="53"/>
+      <c r="C640" s="53"/>
+      <c r="D640" s="53"/>
+      <c r="E640" s="53"/>
       <c r="F640" s="4"/>
     </row>
     <row r="641" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15997,17 +16032,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A70:E71"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A280:E281"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A177:E178"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A490:E491"/>
     <mergeCell ref="A437:E438"/>
     <mergeCell ref="A429:E430"/>
@@ -16016,40 +16040,51 @@
     <mergeCell ref="A586:E587"/>
     <mergeCell ref="A549:E550"/>
     <mergeCell ref="A528:E529"/>
+    <mergeCell ref="A280:E281"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A220:E221"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A70:E71"/>
+    <mergeCell ref="A115:E116"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C389" r:id="rId1"/>
-    <hyperlink ref="C653" r:id="rId2"/>
-    <hyperlink ref="C108" r:id="rId3"/>
-    <hyperlink ref="C188" r:id="rId4"/>
-    <hyperlink ref="C158" r:id="rId5"/>
-    <hyperlink ref="C501" r:id="rId6"/>
-    <hyperlink ref="C500" r:id="rId7"/>
-    <hyperlink ref="C585" r:id="rId8"/>
-    <hyperlink ref="C648" r:id="rId9"/>
-    <hyperlink ref="C649" r:id="rId10"/>
-    <hyperlink ref="C387" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C407" r:id="rId13"/>
-    <hyperlink ref="C373" r:id="rId14"/>
-    <hyperlink ref="C378" r:id="rId15"/>
-    <hyperlink ref="C537" r:id="rId16"/>
-    <hyperlink ref="C343" r:id="rId17"/>
-    <hyperlink ref="C338" r:id="rId18"/>
-    <hyperlink ref="C655" r:id="rId19"/>
-    <hyperlink ref="C494" location="Демонтаж!R1C2" display="ДЭК-251 (кран гусеничный) (70483)"/>
-    <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)"/>
-    <hyperlink ref="C242" r:id="rId20"/>
-    <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)"/>
-    <hyperlink ref="C169" location="Демонтаж!B6" display="Б10-МБ (бульдозер) (70419)"/>
-    <hyperlink ref="C545" r:id="rId21"/>
-    <hyperlink ref="C381" r:id="rId22"/>
-    <hyperlink ref="C321" r:id="rId23"/>
-    <hyperlink ref="C297" r:id="rId24"/>
-    <hyperlink ref="C496" r:id="rId25"/>
-    <hyperlink ref="B572:D572" location="Демонтаж!A1" display="342075"/>
-    <hyperlink ref="C572" location="Демонтаж!B10" display="Komatsu PC-220-7 (экскаватор) (70436)"/>
-    <hyperlink ref="C578" location="Демонтаж!B11" display="Komatsu PC400-7 (экскаватор) (70432)"/>
+    <hyperlink ref="C389" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C653" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C108" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C188" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C158" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C501" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C500" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C585" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C648" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C649" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C387" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C407" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C373" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C378" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C537" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C343" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C338" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C655" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C494" location="Демонтаж!R1C2" display="ДЭК-251 (кран гусеничный) (70483)" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C577" location="Демонтаж!R2C2" display="Komatsu PC400-7 (экскаватор) (70431)" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C242" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C495" location="Демонтаж!R3C2" display="ДЭК-251 (кран гусеничный) (70493)" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C169" location="Демонтаж!B6" display="Б10-МБ (бульдозер) (70419)" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C545" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C381" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C321" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C297" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C496" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B572:D572" location="Демонтаж!A1" display="342075" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C572" location="Демонтаж!B10" display="Komatsu PC-220-7 (экскаватор) (70436)" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C578" location="Демонтаж!B11" display="Komatsu PC400-7 (экскаватор) (70432)" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
@@ -16057,7 +16092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -16202,23 +16237,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -16235,7 +16270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
